--- a/Outputs/1. Budget/Grid Search/Output Files/1500000/Output_0_10.xlsx
+++ b/Outputs/1. Budget/Grid Search/Output Files/1500000/Output_0_10.xlsx
@@ -521,7 +521,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>19997574.02179435</v>
+        <v>19997574.02179436</v>
       </c>
     </row>
     <row r="9">
@@ -541,7 +541,7 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>4901378.24669789</v>
+        <v>4901378.246697891</v>
       </c>
     </row>
     <row r="11">
@@ -704,7 +704,7 @@
         <v>9.990699214544804</v>
       </c>
       <c r="R2" t="n">
-        <v>0</v>
+        <v>24.87477961344436</v>
       </c>
       <c r="S2" t="n">
         <v>0</v>
@@ -713,7 +713,7 @@
         <v>0</v>
       </c>
       <c r="U2" t="n">
-        <v>24.87477961344436</v>
+        <v>0</v>
       </c>
       <c r="V2" t="n">
         <v>0</v>
@@ -835,13 +835,13 @@
         <v>0</v>
       </c>
       <c r="I4" t="n">
-        <v>0</v>
+        <v>39.58387696184059</v>
       </c>
       <c r="J4" t="n">
-        <v>0</v>
+        <v>39.58387696184059</v>
       </c>
       <c r="K4" t="n">
-        <v>0</v>
+        <v>7.256111626157765</v>
       </c>
       <c r="L4" t="n">
         <v>0</v>
@@ -856,10 +856,10 @@
         <v>0</v>
       </c>
       <c r="P4" t="n">
-        <v>0</v>
+        <v>2.721440735106512</v>
       </c>
       <c r="Q4" t="n">
-        <v>0</v>
+        <v>39.58387696184059</v>
       </c>
       <c r="R4" t="n">
         <v>0</v>
@@ -868,16 +868,16 @@
         <v>0</v>
       </c>
       <c r="T4" t="n">
-        <v>9.977552361264268</v>
+        <v>0</v>
       </c>
       <c r="U4" t="n">
-        <v>39.58387696184059</v>
+        <v>0</v>
       </c>
       <c r="V4" t="n">
-        <v>39.58387696184059</v>
+        <v>0</v>
       </c>
       <c r="W4" t="n">
-        <v>39.58387696184059</v>
+        <v>0</v>
       </c>
       <c r="X4" t="n">
         <v>0</v>
@@ -905,16 +905,16 @@
         <v>0</v>
       </c>
       <c r="F5" t="n">
-        <v>12.92549025883184</v>
+        <v>0</v>
       </c>
       <c r="G5" t="n">
-        <v>39.58387696184059</v>
+        <v>0</v>
       </c>
       <c r="H5" t="n">
-        <v>39.58387696184059</v>
+        <v>0</v>
       </c>
       <c r="I5" t="n">
-        <v>39.58387696184059</v>
+        <v>0</v>
       </c>
       <c r="J5" t="n">
         <v>11.94928935461252</v>
@@ -941,16 +941,16 @@
         <v>9.990699214544804</v>
       </c>
       <c r="R5" t="n">
-        <v>0</v>
+        <v>39.58387696184059</v>
       </c>
       <c r="S5" t="n">
-        <v>0</v>
+        <v>39.58387696184059</v>
       </c>
       <c r="T5" t="n">
-        <v>0</v>
+        <v>39.58387696184059</v>
       </c>
       <c r="U5" t="n">
-        <v>0</v>
+        <v>12.92549025883184</v>
       </c>
       <c r="V5" t="n">
         <v>0</v>
@@ -981,7 +981,7 @@
         <v>0</v>
       </c>
       <c r="E6" t="n">
-        <v>39.58387696184059</v>
+        <v>0</v>
       </c>
       <c r="F6" t="n">
         <v>34.11888750173132</v>
@@ -990,7 +990,7 @@
         <v>39.58387696184059</v>
       </c>
       <c r="H6" t="n">
-        <v>0</v>
+        <v>39.58387696184059</v>
       </c>
       <c r="I6" t="n">
         <v>39.58387696184059</v>
@@ -1072,13 +1072,13 @@
         <v>0</v>
       </c>
       <c r="I7" t="n">
-        <v>0</v>
+        <v>39.58387696184059</v>
       </c>
       <c r="J7" t="n">
-        <v>0</v>
+        <v>39.58387696184059</v>
       </c>
       <c r="K7" t="n">
-        <v>0</v>
+        <v>7.256111626157765</v>
       </c>
       <c r="L7" t="n">
         <v>0</v>
@@ -1099,13 +1099,13 @@
         <v>39.58387696184059</v>
       </c>
       <c r="R7" t="n">
-        <v>39.58387696184059</v>
+        <v>0</v>
       </c>
       <c r="S7" t="n">
-        <v>39.58387696184059</v>
+        <v>0</v>
       </c>
       <c r="T7" t="n">
-        <v>7.256111626157765</v>
+        <v>0</v>
       </c>
       <c r="U7" t="n">
         <v>0</v>
@@ -1136,58 +1136,58 @@
         <v>0</v>
       </c>
       <c r="D8" t="n">
+        <v>0</v>
+      </c>
+      <c r="E8" t="n">
+        <v>0</v>
+      </c>
+      <c r="F8" t="n">
+        <v>0</v>
+      </c>
+      <c r="G8" t="n">
+        <v>0</v>
+      </c>
+      <c r="H8" t="n">
+        <v>0</v>
+      </c>
+      <c r="I8" t="n">
+        <v>0</v>
+      </c>
+      <c r="J8" t="n">
+        <v>0</v>
+      </c>
+      <c r="K8" t="n">
+        <v>0</v>
+      </c>
+      <c r="L8" t="n">
+        <v>0</v>
+      </c>
+      <c r="M8" t="n">
+        <v>0</v>
+      </c>
+      <c r="N8" t="n">
+        <v>0</v>
+      </c>
+      <c r="O8" t="n">
+        <v>0</v>
+      </c>
+      <c r="P8" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q8" t="n">
+        <v>9.990699214544804</v>
+      </c>
+      <c r="R8" t="n">
         <v>39.58387696184059</v>
       </c>
-      <c r="E8" t="n">
+      <c r="S8" t="n">
         <v>39.58387696184059</v>
       </c>
-      <c r="F8" t="n">
+      <c r="T8" t="n">
         <v>39.58387696184059</v>
       </c>
-      <c r="G8" t="n">
-        <v>34.86547882798917</v>
-      </c>
-      <c r="H8" t="n">
-        <v>0</v>
-      </c>
-      <c r="I8" t="n">
-        <v>0</v>
-      </c>
-      <c r="J8" t="n">
-        <v>0</v>
-      </c>
-      <c r="K8" t="n">
-        <v>0</v>
-      </c>
-      <c r="L8" t="n">
-        <v>0</v>
-      </c>
-      <c r="M8" t="n">
-        <v>0</v>
-      </c>
-      <c r="N8" t="n">
-        <v>0</v>
-      </c>
-      <c r="O8" t="n">
-        <v>0</v>
-      </c>
-      <c r="P8" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q8" t="n">
-        <v>0</v>
-      </c>
-      <c r="R8" t="n">
-        <v>0</v>
-      </c>
-      <c r="S8" t="n">
-        <v>0</v>
-      </c>
-      <c r="T8" t="n">
-        <v>0</v>
-      </c>
       <c r="U8" t="n">
-        <v>0</v>
+        <v>24.87477961344436</v>
       </c>
       <c r="V8" t="n">
         <v>0</v>
@@ -1221,19 +1221,19 @@
         <v>0</v>
       </c>
       <c r="F9" t="n">
-        <v>0</v>
+        <v>34.11888750173132</v>
       </c>
       <c r="G9" t="n">
-        <v>0</v>
+        <v>39.58387696184059</v>
       </c>
       <c r="H9" t="n">
-        <v>0</v>
+        <v>39.58387696184059</v>
       </c>
       <c r="I9" t="n">
-        <v>0</v>
+        <v>39.58387696184059</v>
       </c>
       <c r="J9" t="n">
-        <v>0</v>
+        <v>0.7465913262578567</v>
       </c>
       <c r="K9" t="n">
         <v>0</v>
@@ -1257,16 +1257,16 @@
         <v>0</v>
       </c>
       <c r="R9" t="n">
-        <v>39.58387696184059</v>
+        <v>0</v>
       </c>
       <c r="S9" t="n">
-        <v>39.58387696184059</v>
+        <v>0</v>
       </c>
       <c r="T9" t="n">
-        <v>39.58387696184059</v>
+        <v>0</v>
       </c>
       <c r="U9" t="n">
-        <v>34.86547882798917</v>
+        <v>0</v>
       </c>
       <c r="V9" t="n">
         <v>0</v>
@@ -1306,40 +1306,40 @@
         <v>0</v>
       </c>
       <c r="H10" t="n">
+        <v>0</v>
+      </c>
+      <c r="I10" t="n">
+        <v>0</v>
+      </c>
+      <c r="J10" t="n">
+        <v>0</v>
+      </c>
+      <c r="K10" t="n">
+        <v>22.26949182588285</v>
+      </c>
+      <c r="L10" t="n">
+        <v>0</v>
+      </c>
+      <c r="M10" t="n">
+        <v>0</v>
+      </c>
+      <c r="N10" t="n">
+        <v>0</v>
+      </c>
+      <c r="O10" t="n">
+        <v>0</v>
+      </c>
+      <c r="P10" t="n">
+        <v>2.721440735106512</v>
+      </c>
+      <c r="Q10" t="n">
         <v>39.58387696184059</v>
       </c>
-      <c r="I10" t="n">
+      <c r="R10" t="n">
         <v>39.58387696184059</v>
       </c>
-      <c r="J10" t="n">
-        <v>39.58387696184059</v>
-      </c>
-      <c r="K10" t="n">
-        <v>9.977552361264268</v>
-      </c>
-      <c r="L10" t="n">
-        <v>0</v>
-      </c>
-      <c r="M10" t="n">
-        <v>0</v>
-      </c>
-      <c r="N10" t="n">
-        <v>0</v>
-      </c>
-      <c r="O10" t="n">
-        <v>0</v>
-      </c>
-      <c r="P10" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q10" t="n">
-        <v>0</v>
-      </c>
-      <c r="R10" t="n">
-        <v>0</v>
-      </c>
       <c r="S10" t="n">
-        <v>0</v>
+        <v>24.5704967621155</v>
       </c>
       <c r="T10" t="n">
         <v>0</v>
@@ -1367,19 +1367,19 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>0</v>
+        <v>24.87477961344436</v>
       </c>
       <c r="C11" t="n">
+        <v>0</v>
+      </c>
+      <c r="D11" t="n">
         <v>39.58387696184059</v>
       </c>
-      <c r="D11" t="n">
-        <v>0</v>
-      </c>
       <c r="E11" t="n">
         <v>0</v>
       </c>
       <c r="F11" t="n">
-        <v>0</v>
+        <v>39.58387696184059</v>
       </c>
       <c r="G11" t="n">
         <v>0</v>
@@ -1388,10 +1388,10 @@
         <v>0</v>
       </c>
       <c r="I11" t="n">
-        <v>0</v>
+        <v>39.58387696184059</v>
       </c>
       <c r="J11" t="n">
-        <v>11.94928935461252</v>
+        <v>0</v>
       </c>
       <c r="K11" t="n">
         <v>0</v>
@@ -1412,7 +1412,7 @@
         <v>0</v>
       </c>
       <c r="Q11" t="n">
-        <v>0</v>
+        <v>9.990699214544804</v>
       </c>
       <c r="R11" t="n">
         <v>0</v>
@@ -1424,19 +1424,19 @@
         <v>0</v>
       </c>
       <c r="U11" t="n">
-        <v>22.91618947337665</v>
+        <v>0</v>
       </c>
       <c r="V11" t="n">
         <v>0</v>
       </c>
       <c r="W11" t="n">
-        <v>39.58387696184059</v>
+        <v>0</v>
       </c>
       <c r="X11" t="n">
         <v>0</v>
       </c>
       <c r="Y11" t="n">
-        <v>39.58387696184059</v>
+        <v>0</v>
       </c>
     </row>
     <row r="12">
@@ -1449,28 +1449,28 @@
         <v>0</v>
       </c>
       <c r="C12" t="n">
+        <v>0</v>
+      </c>
+      <c r="D12" t="n">
+        <v>0</v>
+      </c>
+      <c r="E12" t="n">
+        <v>0</v>
+      </c>
+      <c r="F12" t="n">
+        <v>34.86547882798917</v>
+      </c>
+      <c r="G12" t="n">
         <v>39.58387696184059</v>
       </c>
-      <c r="D12" t="n">
+      <c r="H12" t="n">
         <v>39.58387696184059</v>
       </c>
-      <c r="E12" t="n">
+      <c r="I12" t="n">
         <v>39.58387696184059</v>
       </c>
-      <c r="F12" t="n">
-        <v>34.11888750173132</v>
-      </c>
-      <c r="G12" t="n">
-        <v>0</v>
-      </c>
-      <c r="H12" t="n">
-        <v>0</v>
-      </c>
-      <c r="I12" t="n">
-        <v>0</v>
-      </c>
       <c r="J12" t="n">
-        <v>0.7465913262578567</v>
+        <v>0</v>
       </c>
       <c r="K12" t="n">
         <v>0</v>
@@ -1546,13 +1546,13 @@
         <v>0</v>
       </c>
       <c r="I13" t="n">
-        <v>0</v>
+        <v>24.5704967621155</v>
       </c>
       <c r="J13" t="n">
-        <v>0</v>
+        <v>39.58387696184059</v>
       </c>
       <c r="K13" t="n">
-        <v>0</v>
+        <v>22.26949182588285</v>
       </c>
       <c r="L13" t="n">
         <v>0</v>
@@ -1573,13 +1573,13 @@
         <v>39.58387696184059</v>
       </c>
       <c r="R13" t="n">
-        <v>39.58387696184059</v>
+        <v>0</v>
       </c>
       <c r="S13" t="n">
-        <v>39.58387696184059</v>
+        <v>0</v>
       </c>
       <c r="T13" t="n">
-        <v>7.256111626157765</v>
+        <v>0</v>
       </c>
       <c r="U13" t="n">
         <v>0</v>
@@ -1616,52 +1616,52 @@
         <v>0</v>
       </c>
       <c r="F14" t="n">
+        <v>0</v>
+      </c>
+      <c r="G14" t="n">
+        <v>0</v>
+      </c>
+      <c r="H14" t="n">
+        <v>0</v>
+      </c>
+      <c r="I14" t="n">
+        <v>0</v>
+      </c>
+      <c r="J14" t="n">
+        <v>0</v>
+      </c>
+      <c r="K14" t="n">
+        <v>0</v>
+      </c>
+      <c r="L14" t="n">
+        <v>0</v>
+      </c>
+      <c r="M14" t="n">
+        <v>0</v>
+      </c>
+      <c r="N14" t="n">
+        <v>0</v>
+      </c>
+      <c r="O14" t="n">
+        <v>0</v>
+      </c>
+      <c r="P14" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q14" t="n">
+        <v>9.990699214544804</v>
+      </c>
+      <c r="R14" t="n">
+        <v>24.87477961344436</v>
+      </c>
+      <c r="S14" t="n">
         <v>39.58387696184059</v>
       </c>
-      <c r="G14" t="n">
+      <c r="T14" t="n">
         <v>39.58387696184059</v>
       </c>
-      <c r="H14" t="n">
+      <c r="U14" t="n">
         <v>39.58387696184059</v>
-      </c>
-      <c r="I14" t="n">
-        <v>34.86547882798917</v>
-      </c>
-      <c r="J14" t="n">
-        <v>0</v>
-      </c>
-      <c r="K14" t="n">
-        <v>0</v>
-      </c>
-      <c r="L14" t="n">
-        <v>0</v>
-      </c>
-      <c r="M14" t="n">
-        <v>0</v>
-      </c>
-      <c r="N14" t="n">
-        <v>0</v>
-      </c>
-      <c r="O14" t="n">
-        <v>0</v>
-      </c>
-      <c r="P14" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q14" t="n">
-        <v>0</v>
-      </c>
-      <c r="R14" t="n">
-        <v>0</v>
-      </c>
-      <c r="S14" t="n">
-        <v>0</v>
-      </c>
-      <c r="T14" t="n">
-        <v>0</v>
-      </c>
-      <c r="U14" t="n">
-        <v>0</v>
       </c>
       <c r="V14" t="n">
         <v>0</v>
@@ -1695,52 +1695,52 @@
         <v>0</v>
       </c>
       <c r="F15" t="n">
+        <v>0</v>
+      </c>
+      <c r="G15" t="n">
+        <v>0</v>
+      </c>
+      <c r="H15" t="n">
+        <v>0</v>
+      </c>
+      <c r="I15" t="n">
+        <v>0</v>
+      </c>
+      <c r="J15" t="n">
+        <v>0</v>
+      </c>
+      <c r="K15" t="n">
+        <v>0</v>
+      </c>
+      <c r="L15" t="n">
+        <v>0</v>
+      </c>
+      <c r="M15" t="n">
+        <v>0</v>
+      </c>
+      <c r="N15" t="n">
+        <v>0</v>
+      </c>
+      <c r="O15" t="n">
+        <v>0</v>
+      </c>
+      <c r="P15" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q15" t="n">
+        <v>0</v>
+      </c>
+      <c r="R15" t="n">
+        <v>39.58387696184059</v>
+      </c>
+      <c r="S15" t="n">
+        <v>39.58387696184059</v>
+      </c>
+      <c r="T15" t="n">
+        <v>39.58387696184059</v>
+      </c>
+      <c r="U15" t="n">
         <v>34.86547882798917</v>
-      </c>
-      <c r="G15" t="n">
-        <v>39.58387696184059</v>
-      </c>
-      <c r="H15" t="n">
-        <v>39.58387696184059</v>
-      </c>
-      <c r="I15" t="n">
-        <v>39.58387696184059</v>
-      </c>
-      <c r="J15" t="n">
-        <v>0</v>
-      </c>
-      <c r="K15" t="n">
-        <v>0</v>
-      </c>
-      <c r="L15" t="n">
-        <v>0</v>
-      </c>
-      <c r="M15" t="n">
-        <v>0</v>
-      </c>
-      <c r="N15" t="n">
-        <v>0</v>
-      </c>
-      <c r="O15" t="n">
-        <v>0</v>
-      </c>
-      <c r="P15" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q15" t="n">
-        <v>0</v>
-      </c>
-      <c r="R15" t="n">
-        <v>0</v>
-      </c>
-      <c r="S15" t="n">
-        <v>0</v>
-      </c>
-      <c r="T15" t="n">
-        <v>0</v>
-      </c>
-      <c r="U15" t="n">
-        <v>0</v>
       </c>
       <c r="V15" t="n">
         <v>0</v>
@@ -1783,13 +1783,13 @@
         <v>0</v>
       </c>
       <c r="I16" t="n">
-        <v>0</v>
+        <v>24.5704967621155</v>
       </c>
       <c r="J16" t="n">
-        <v>0</v>
+        <v>39.58387696184059</v>
       </c>
       <c r="K16" t="n">
-        <v>0</v>
+        <v>22.26949182588285</v>
       </c>
       <c r="L16" t="n">
         <v>0</v>
@@ -1810,13 +1810,13 @@
         <v>39.58387696184059</v>
       </c>
       <c r="R16" t="n">
-        <v>39.58387696184059</v>
+        <v>0</v>
       </c>
       <c r="S16" t="n">
-        <v>39.58387696184059</v>
+        <v>0</v>
       </c>
       <c r="T16" t="n">
-        <v>7.256111626157765</v>
+        <v>0</v>
       </c>
       <c r="U16" t="n">
         <v>0</v>
@@ -1892,13 +1892,13 @@
         <v>44.13217237922859</v>
       </c>
       <c r="S17" t="n">
-        <v>44.13217237922859</v>
+        <v>28.88091821707974</v>
       </c>
       <c r="T17" t="n">
         <v>44.13217237922859</v>
       </c>
       <c r="U17" t="n">
-        <v>28.88091821707973</v>
+        <v>44.13217237922859</v>
       </c>
       <c r="V17" t="n">
         <v>0</v>
@@ -1935,49 +1935,49 @@
         <v>0</v>
       </c>
       <c r="G18" t="n">
+        <v>0</v>
+      </c>
+      <c r="H18" t="n">
+        <v>0</v>
+      </c>
+      <c r="I18" t="n">
+        <v>0</v>
+      </c>
+      <c r="J18" t="n">
+        <v>0</v>
+      </c>
+      <c r="K18" t="n">
+        <v>0</v>
+      </c>
+      <c r="L18" t="n">
+        <v>0</v>
+      </c>
+      <c r="M18" t="n">
+        <v>0</v>
+      </c>
+      <c r="N18" t="n">
+        <v>0</v>
+      </c>
+      <c r="O18" t="n">
+        <v>0</v>
+      </c>
+      <c r="P18" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q18" t="n">
+        <v>0</v>
+      </c>
+      <c r="R18" t="n">
+        <v>38.87161743162455</v>
+      </c>
+      <c r="S18" t="n">
         <v>44.13217237922859</v>
       </c>
-      <c r="H18" t="n">
-        <v>38.87161743162454</v>
-      </c>
-      <c r="I18" t="n">
+      <c r="T18" t="n">
         <v>44.13217237922859</v>
       </c>
-      <c r="J18" t="n">
-        <v>0</v>
-      </c>
-      <c r="K18" t="n">
-        <v>0</v>
-      </c>
-      <c r="L18" t="n">
-        <v>0</v>
-      </c>
-      <c r="M18" t="n">
-        <v>0</v>
-      </c>
-      <c r="N18" t="n">
-        <v>0</v>
-      </c>
-      <c r="O18" t="n">
-        <v>0</v>
-      </c>
-      <c r="P18" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q18" t="n">
-        <v>0</v>
-      </c>
-      <c r="R18" t="n">
+      <c r="U18" t="n">
         <v>44.13217237922859</v>
-      </c>
-      <c r="S18" t="n">
-        <v>0</v>
-      </c>
-      <c r="T18" t="n">
-        <v>0</v>
-      </c>
-      <c r="U18" t="n">
-        <v>0</v>
       </c>
       <c r="V18" t="n">
         <v>0</v>
@@ -1999,76 +1999,76 @@
         </is>
       </c>
       <c r="B19" t="n">
+        <v>0.790450447682262</v>
+      </c>
+      <c r="C19" t="n">
+        <v>0</v>
+      </c>
+      <c r="D19" t="n">
+        <v>0</v>
+      </c>
+      <c r="E19" t="n">
+        <v>0</v>
+      </c>
+      <c r="F19" t="n">
+        <v>0</v>
+      </c>
+      <c r="G19" t="n">
+        <v>0</v>
+      </c>
+      <c r="H19" t="n">
+        <v>0</v>
+      </c>
+      <c r="I19" t="n">
+        <v>0</v>
+      </c>
+      <c r="J19" t="n">
+        <v>0</v>
+      </c>
+      <c r="K19" t="n">
+        <v>0</v>
+      </c>
+      <c r="L19" t="n">
+        <v>0</v>
+      </c>
+      <c r="M19" t="n">
+        <v>0</v>
+      </c>
+      <c r="N19" t="n">
+        <v>0</v>
+      </c>
+      <c r="O19" t="n">
+        <v>0</v>
+      </c>
+      <c r="P19" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q19" t="n">
+        <v>0</v>
+      </c>
+      <c r="R19" t="n">
+        <v>0</v>
+      </c>
+      <c r="S19" t="n">
+        <v>0</v>
+      </c>
+      <c r="T19" t="n">
         <v>44.13217237922859</v>
       </c>
-      <c r="C19" t="n">
-        <v>0.790450447682262</v>
-      </c>
-      <c r="D19" t="n">
-        <v>0</v>
-      </c>
-      <c r="E19" t="n">
-        <v>0</v>
-      </c>
-      <c r="F19" t="n">
-        <v>0</v>
-      </c>
-      <c r="G19" t="n">
-        <v>0</v>
-      </c>
-      <c r="H19" t="n">
-        <v>0</v>
-      </c>
-      <c r="I19" t="n">
-        <v>0</v>
-      </c>
-      <c r="J19" t="n">
-        <v>0</v>
-      </c>
-      <c r="K19" t="n">
-        <v>0</v>
-      </c>
-      <c r="L19" t="n">
-        <v>0</v>
-      </c>
-      <c r="M19" t="n">
-        <v>0</v>
-      </c>
-      <c r="N19" t="n">
-        <v>0</v>
-      </c>
-      <c r="O19" t="n">
-        <v>0</v>
-      </c>
-      <c r="P19" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q19" t="n">
-        <v>0</v>
-      </c>
-      <c r="R19" t="n">
-        <v>0</v>
-      </c>
-      <c r="S19" t="n">
-        <v>0</v>
-      </c>
-      <c r="T19" t="n">
-        <v>0</v>
-      </c>
       <c r="U19" t="n">
-        <v>0</v>
+        <v>44.13217237922859</v>
       </c>
       <c r="V19" t="n">
-        <v>0</v>
+        <v>44.13217237922859</v>
       </c>
       <c r="W19" t="n">
         <v>0</v>
       </c>
       <c r="X19" t="n">
-        <v>44.13217237922859</v>
+        <v>0</v>
       </c>
       <c r="Y19" t="n">
-        <v>44.13217237922859</v>
+        <v>0</v>
       </c>
     </row>
     <row r="20">
@@ -2123,10 +2123,10 @@
         <v>0</v>
       </c>
       <c r="Q20" t="n">
-        <v>9.990699214544804</v>
+        <v>0</v>
       </c>
       <c r="R20" t="n">
-        <v>0</v>
+        <v>21.18375537072436</v>
       </c>
       <c r="S20" t="n">
         <v>209.0200695862453</v>
@@ -2135,19 +2135,19 @@
         <v>223.0958495641314</v>
       </c>
       <c r="U20" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="V20" t="n">
         <v>0</v>
       </c>
       <c r="W20" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
       <c r="X20" t="n">
         <v>241.0142888776591</v>
       </c>
       <c r="Y20" t="n">
-        <v>11.19305615617957</v>
+        <v>0</v>
       </c>
     </row>
     <row r="21">
@@ -2160,7 +2160,7 @@
         <v>0</v>
       </c>
       <c r="C21" t="n">
-        <v>0</v>
+        <v>172.7084989883157</v>
       </c>
       <c r="D21" t="n">
         <v>0</v>
@@ -2169,7 +2169,7 @@
         <v>0</v>
       </c>
       <c r="F21" t="n">
-        <v>0</v>
+        <v>145.0692123933839</v>
       </c>
       <c r="G21" t="n">
         <v>0</v>
@@ -2205,28 +2205,28 @@
         <v>0</v>
       </c>
       <c r="R21" t="n">
-        <v>0</v>
+        <v>100.1578341526431</v>
       </c>
       <c r="S21" t="n">
-        <v>0</v>
+        <v>84.42739089782954</v>
       </c>
       <c r="T21" t="n">
-        <v>0</v>
+        <v>200.1647286948216</v>
       </c>
       <c r="U21" t="n">
-        <v>225.9413820809748</v>
+        <v>0</v>
       </c>
       <c r="V21" t="n">
         <v>232.8005871494253</v>
       </c>
       <c r="W21" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
       <c r="X21" t="n">
-        <v>205.7729852034775</v>
+        <v>0</v>
       </c>
       <c r="Y21" t="n">
-        <v>29.79900896488263</v>
+        <v>0</v>
       </c>
     </row>
     <row r="22">
@@ -2242,7 +2242,7 @@
         <v>0</v>
       </c>
       <c r="D22" t="n">
-        <v>110.9174757594851</v>
+        <v>0</v>
       </c>
       <c r="E22" t="n">
         <v>0</v>
@@ -2263,7 +2263,7 @@
         <v>0</v>
       </c>
       <c r="K22" t="n">
-        <v>22.26949182588285</v>
+        <v>0</v>
       </c>
       <c r="L22" t="n">
         <v>0</v>
@@ -2284,7 +2284,7 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>0</v>
+        <v>133.186967585368</v>
       </c>
       <c r="S22" t="n">
         <v>0</v>
@@ -2324,61 +2324,61 @@
         <v>0</v>
       </c>
       <c r="E23" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="F23" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="G23" t="n">
+        <v>0</v>
+      </c>
+      <c r="H23" t="n">
+        <v>0</v>
+      </c>
+      <c r="I23" t="n">
+        <v>0</v>
+      </c>
+      <c r="J23" t="n">
+        <v>0</v>
+      </c>
+      <c r="K23" t="n">
+        <v>0</v>
+      </c>
+      <c r="L23" t="n">
+        <v>0</v>
+      </c>
+      <c r="M23" t="n">
+        <v>0</v>
+      </c>
+      <c r="N23" t="n">
+        <v>0</v>
+      </c>
+      <c r="O23" t="n">
+        <v>0</v>
+      </c>
+      <c r="P23" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q23" t="n">
+        <v>0</v>
+      </c>
+      <c r="R23" t="n">
+        <v>0</v>
+      </c>
+      <c r="S23" t="n">
+        <v>0</v>
+      </c>
+      <c r="T23" t="n">
+        <v>0</v>
+      </c>
+      <c r="U23" t="n">
+        <v>0</v>
+      </c>
+      <c r="V23" t="n">
         <v>241.0142888776591</v>
       </c>
-      <c r="H23" t="n">
-        <v>112.3289263072337</v>
-      </c>
-      <c r="I23" t="n">
-        <v>0</v>
-      </c>
-      <c r="J23" t="n">
-        <v>0</v>
-      </c>
-      <c r="K23" t="n">
-        <v>0</v>
-      </c>
-      <c r="L23" t="n">
-        <v>0</v>
-      </c>
-      <c r="M23" t="n">
-        <v>0</v>
-      </c>
-      <c r="N23" t="n">
-        <v>0</v>
-      </c>
-      <c r="O23" t="n">
-        <v>0</v>
-      </c>
-      <c r="P23" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q23" t="n">
-        <v>0</v>
-      </c>
-      <c r="R23" t="n">
-        <v>149.8691179411497</v>
-      </c>
-      <c r="S23" t="n">
-        <v>209.0200695862453</v>
-      </c>
-      <c r="T23" t="n">
-        <v>223.0958495641314</v>
-      </c>
-      <c r="U23" t="n">
-        <v>0</v>
-      </c>
-      <c r="V23" t="n">
-        <v>0</v>
-      </c>
       <c r="W23" t="n">
-        <v>0</v>
+        <v>212.2853856434421</v>
       </c>
       <c r="X23" t="n">
         <v>0</v>
@@ -2394,31 +2394,31 @@
         </is>
       </c>
       <c r="B24" t="n">
-        <v>0</v>
+        <v>166.5331836498673</v>
       </c>
       <c r="C24" t="n">
-        <v>172.7084989883157</v>
+        <v>0</v>
       </c>
       <c r="D24" t="n">
-        <v>147.4450655646388</v>
+        <v>0</v>
       </c>
       <c r="E24" t="n">
-        <v>148.2190167648309</v>
+        <v>0</v>
       </c>
       <c r="F24" t="n">
         <v>0</v>
       </c>
       <c r="G24" t="n">
-        <v>0</v>
+        <v>137.3435171632106</v>
       </c>
       <c r="H24" t="n">
-        <v>0</v>
+        <v>112.2354442364965</v>
       </c>
       <c r="I24" t="n">
-        <v>0</v>
+        <v>89.39663285141508</v>
       </c>
       <c r="J24" t="n">
-        <v>0</v>
+        <v>0.7465913262578567</v>
       </c>
       <c r="K24" t="n">
         <v>0</v>
@@ -2451,19 +2451,19 @@
         <v>0</v>
       </c>
       <c r="U24" t="n">
-        <v>225.9413820809748</v>
+        <v>0</v>
       </c>
       <c r="V24" t="n">
-        <v>0</v>
+        <v>17.61720206838995</v>
       </c>
       <c r="W24" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
       <c r="X24" t="n">
-        <v>0</v>
+        <v>205.7729852034775</v>
       </c>
       <c r="Y24" t="n">
-        <v>0</v>
+        <v>205.6826957773044</v>
       </c>
     </row>
     <row r="25">
@@ -2482,7 +2482,7 @@
         <v>0</v>
       </c>
       <c r="E25" t="n">
-        <v>0</v>
+        <v>47.02492433367365</v>
       </c>
       <c r="F25" t="n">
         <v>0</v>
@@ -2518,13 +2518,13 @@
         <v>0</v>
       </c>
       <c r="Q25" t="n">
-        <v>0</v>
+        <v>86.16204325169439</v>
       </c>
       <c r="R25" t="n">
         <v>0</v>
       </c>
       <c r="S25" t="n">
-        <v>133.186967585368</v>
+        <v>0</v>
       </c>
       <c r="T25" t="n">
         <v>0</v>
@@ -2552,31 +2552,31 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="C26" t="n">
         <v>0</v>
       </c>
       <c r="D26" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="E26" t="n">
         <v>0</v>
       </c>
       <c r="F26" t="n">
+        <v>0</v>
+      </c>
+      <c r="G26" t="n">
+        <v>212.2853856434421</v>
+      </c>
+      <c r="H26" t="n">
         <v>241.0142888776591</v>
       </c>
-      <c r="G26" t="n">
-        <v>241.0142888776591</v>
-      </c>
-      <c r="H26" t="n">
-        <v>0</v>
-      </c>
       <c r="I26" t="n">
-        <v>208.2638363878124</v>
+        <v>0</v>
       </c>
       <c r="J26" t="n">
-        <v>11.94928935461252</v>
+        <v>0</v>
       </c>
       <c r="K26" t="n">
         <v>0</v>
@@ -2597,7 +2597,7 @@
         <v>0</v>
       </c>
       <c r="Q26" t="n">
-        <v>9.990699214544804</v>
+        <v>0</v>
       </c>
       <c r="R26" t="n">
         <v>0</v>
@@ -2606,7 +2606,7 @@
         <v>0</v>
       </c>
       <c r="T26" t="n">
-        <v>223.0958495641314</v>
+        <v>0</v>
       </c>
       <c r="U26" t="n">
         <v>0</v>
@@ -2634,25 +2634,25 @@
         <v>0</v>
       </c>
       <c r="C27" t="n">
-        <v>119.3888130423743</v>
+        <v>0</v>
       </c>
       <c r="D27" t="n">
-        <v>0</v>
+        <v>147.4450655646388</v>
       </c>
       <c r="E27" t="n">
-        <v>0</v>
+        <v>157.6450804554009</v>
       </c>
       <c r="F27" t="n">
-        <v>0</v>
+        <v>145.0692123933839</v>
       </c>
       <c r="G27" t="n">
-        <v>0</v>
+        <v>137.3435171632106</v>
       </c>
       <c r="H27" t="n">
-        <v>0</v>
+        <v>32.4873617673952</v>
       </c>
       <c r="I27" t="n">
-        <v>0</v>
+        <v>89.39663285141508</v>
       </c>
       <c r="J27" t="n">
         <v>0</v>
@@ -2682,25 +2682,25 @@
         <v>0</v>
       </c>
       <c r="S27" t="n">
-        <v>171.6831711038378</v>
+        <v>0</v>
       </c>
       <c r="T27" t="n">
         <v>0</v>
       </c>
       <c r="U27" t="n">
-        <v>0</v>
+        <v>225.9413820809748</v>
       </c>
       <c r="V27" t="n">
-        <v>232.8005871494253</v>
+        <v>0</v>
       </c>
       <c r="W27" t="n">
         <v>0</v>
       </c>
       <c r="X27" t="n">
-        <v>205.7729852034775</v>
+        <v>0</v>
       </c>
       <c r="Y27" t="n">
-        <v>205.6826957773044</v>
+        <v>0</v>
       </c>
     </row>
     <row r="28">
@@ -2710,73 +2710,73 @@
         </is>
       </c>
       <c r="B28" t="n">
+        <v>0</v>
+      </c>
+      <c r="C28" t="n">
+        <v>0</v>
+      </c>
+      <c r="D28" t="n">
+        <v>0</v>
+      </c>
+      <c r="E28" t="n">
+        <v>0</v>
+      </c>
+      <c r="F28" t="n">
+        <v>0</v>
+      </c>
+      <c r="G28" t="n">
+        <v>0</v>
+      </c>
+      <c r="H28" t="n">
+        <v>0</v>
+      </c>
+      <c r="I28" t="n">
+        <v>0</v>
+      </c>
+      <c r="J28" t="n">
+        <v>0</v>
+      </c>
+      <c r="K28" t="n">
+        <v>0</v>
+      </c>
+      <c r="L28" t="n">
+        <v>0</v>
+      </c>
+      <c r="M28" t="n">
+        <v>0</v>
+      </c>
+      <c r="N28" t="n">
+        <v>0</v>
+      </c>
+      <c r="O28" t="n">
+        <v>0</v>
+      </c>
+      <c r="P28" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q28" t="n">
+        <v>0</v>
+      </c>
+      <c r="R28" t="n">
+        <v>0</v>
+      </c>
+      <c r="S28" t="n">
+        <v>0</v>
+      </c>
+      <c r="T28" t="n">
+        <v>0</v>
+      </c>
+      <c r="U28" t="n">
+        <v>0</v>
+      </c>
+      <c r="V28" t="n">
+        <v>0</v>
+      </c>
+      <c r="W28" t="n">
+        <v>0</v>
+      </c>
+      <c r="X28" t="n">
         <v>133.186967585368</v>
-      </c>
-      <c r="C28" t="n">
-        <v>0</v>
-      </c>
-      <c r="D28" t="n">
-        <v>0</v>
-      </c>
-      <c r="E28" t="n">
-        <v>0</v>
-      </c>
-      <c r="F28" t="n">
-        <v>0</v>
-      </c>
-      <c r="G28" t="n">
-        <v>0</v>
-      </c>
-      <c r="H28" t="n">
-        <v>0</v>
-      </c>
-      <c r="I28" t="n">
-        <v>0</v>
-      </c>
-      <c r="J28" t="n">
-        <v>0</v>
-      </c>
-      <c r="K28" t="n">
-        <v>0</v>
-      </c>
-      <c r="L28" t="n">
-        <v>0</v>
-      </c>
-      <c r="M28" t="n">
-        <v>0</v>
-      </c>
-      <c r="N28" t="n">
-        <v>0</v>
-      </c>
-      <c r="O28" t="n">
-        <v>0</v>
-      </c>
-      <c r="P28" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q28" t="n">
-        <v>0</v>
-      </c>
-      <c r="R28" t="n">
-        <v>0</v>
-      </c>
-      <c r="S28" t="n">
-        <v>0</v>
-      </c>
-      <c r="T28" t="n">
-        <v>0</v>
-      </c>
-      <c r="U28" t="n">
-        <v>0</v>
-      </c>
-      <c r="V28" t="n">
-        <v>0</v>
-      </c>
-      <c r="W28" t="n">
-        <v>0</v>
-      </c>
-      <c r="X28" t="n">
-        <v>0</v>
       </c>
       <c r="Y28" t="n">
         <v>0</v>
@@ -2789,22 +2789,22 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
       <c r="C29" t="n">
-        <v>212.2853856434421</v>
+        <v>0</v>
       </c>
       <c r="D29" t="n">
         <v>0</v>
       </c>
       <c r="E29" t="n">
-        <v>0</v>
+        <v>202.2946864288972</v>
       </c>
       <c r="F29" t="n">
         <v>241.0142888776591</v>
       </c>
       <c r="G29" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="H29" t="n">
         <v>0</v>
@@ -2834,7 +2834,7 @@
         <v>0</v>
       </c>
       <c r="Q29" t="n">
-        <v>0</v>
+        <v>9.990699214544804</v>
       </c>
       <c r="R29" t="n">
         <v>0</v>
@@ -2855,10 +2855,10 @@
         <v>0</v>
       </c>
       <c r="X29" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="Y29" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
     </row>
     <row r="30">
@@ -2880,10 +2880,10 @@
         <v>0</v>
       </c>
       <c r="F30" t="n">
-        <v>145.0692123933839</v>
+        <v>0</v>
       </c>
       <c r="G30" t="n">
-        <v>12.53407431812273</v>
+        <v>0</v>
       </c>
       <c r="H30" t="n">
         <v>0</v>
@@ -2916,19 +2916,19 @@
         <v>0</v>
       </c>
       <c r="R30" t="n">
-        <v>0</v>
+        <v>100.1578341526431</v>
       </c>
       <c r="S30" t="n">
-        <v>0</v>
+        <v>171.6831711038378</v>
       </c>
       <c r="T30" t="n">
-        <v>0</v>
+        <v>98.30418230078025</v>
       </c>
       <c r="U30" t="n">
-        <v>0</v>
+        <v>225.9413820809748</v>
       </c>
       <c r="V30" t="n">
-        <v>232.8005871494253</v>
+        <v>0</v>
       </c>
       <c r="W30" t="n">
         <v>0</v>
@@ -2937,7 +2937,7 @@
         <v>0</v>
       </c>
       <c r="Y30" t="n">
-        <v>205.6826957773044</v>
+        <v>0</v>
       </c>
     </row>
     <row r="31">
@@ -2947,7 +2947,7 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>0</v>
+        <v>133.186967585368</v>
       </c>
       <c r="C31" t="n">
         <v>0</v>
@@ -3016,7 +3016,7 @@
         <v>0</v>
       </c>
       <c r="Y31" t="n">
-        <v>133.186967585368</v>
+        <v>0</v>
       </c>
     </row>
     <row r="32">
@@ -3026,25 +3026,25 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>0</v>
+        <v>52.42556848774752</v>
       </c>
       <c r="C32" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="D32" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="E32" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="F32" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
       <c r="G32" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
       <c r="H32" t="n">
-        <v>212.2853856434421</v>
+        <v>0</v>
       </c>
       <c r="I32" t="n">
         <v>0</v>
@@ -3071,10 +3071,10 @@
         <v>0</v>
       </c>
       <c r="Q32" t="n">
-        <v>0</v>
+        <v>9.990699214544804</v>
       </c>
       <c r="R32" t="n">
-        <v>0</v>
+        <v>149.8691179411497</v>
       </c>
       <c r="S32" t="n">
         <v>0</v>
@@ -3089,7 +3089,7 @@
         <v>0</v>
       </c>
       <c r="W32" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
       <c r="X32" t="n">
         <v>0</v>
@@ -3108,25 +3108,25 @@
         <v>0</v>
       </c>
       <c r="C33" t="n">
-        <v>0</v>
+        <v>172.7084989883157</v>
       </c>
       <c r="D33" t="n">
-        <v>0</v>
+        <v>120.9298661881966</v>
       </c>
       <c r="E33" t="n">
-        <v>0</v>
+        <v>157.6450804554009</v>
       </c>
       <c r="F33" t="n">
-        <v>0</v>
+        <v>145.0692123933839</v>
       </c>
       <c r="G33" t="n">
-        <v>0</v>
+        <v>137.3435171632106</v>
       </c>
       <c r="H33" t="n">
-        <v>0</v>
+        <v>112.2354442364965</v>
       </c>
       <c r="I33" t="n">
-        <v>0</v>
+        <v>89.39663285141508</v>
       </c>
       <c r="J33" t="n">
         <v>0</v>
@@ -3162,19 +3162,19 @@
         <v>0</v>
       </c>
       <c r="U33" t="n">
-        <v>50.05769526855297</v>
+        <v>0</v>
       </c>
       <c r="V33" t="n">
-        <v>232.8005871494253</v>
+        <v>0</v>
       </c>
       <c r="W33" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
       <c r="X33" t="n">
-        <v>205.7729852034775</v>
+        <v>0</v>
       </c>
       <c r="Y33" t="n">
-        <v>205.6826957773044</v>
+        <v>0</v>
       </c>
     </row>
     <row r="34">
@@ -3205,34 +3205,34 @@
         <v>0</v>
       </c>
       <c r="I34" t="n">
+        <v>0</v>
+      </c>
+      <c r="J34" t="n">
+        <v>0</v>
+      </c>
+      <c r="K34" t="n">
+        <v>0</v>
+      </c>
+      <c r="L34" t="n">
+        <v>0</v>
+      </c>
+      <c r="M34" t="n">
+        <v>0</v>
+      </c>
+      <c r="N34" t="n">
+        <v>0</v>
+      </c>
+      <c r="O34" t="n">
+        <v>0</v>
+      </c>
+      <c r="P34" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q34" t="n">
+        <v>0</v>
+      </c>
+      <c r="R34" t="n">
         <v>133.186967585368</v>
-      </c>
-      <c r="J34" t="n">
-        <v>0</v>
-      </c>
-      <c r="K34" t="n">
-        <v>0</v>
-      </c>
-      <c r="L34" t="n">
-        <v>0</v>
-      </c>
-      <c r="M34" t="n">
-        <v>0</v>
-      </c>
-      <c r="N34" t="n">
-        <v>0</v>
-      </c>
-      <c r="O34" t="n">
-        <v>0</v>
-      </c>
-      <c r="P34" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q34" t="n">
-        <v>0</v>
-      </c>
-      <c r="R34" t="n">
-        <v>0</v>
       </c>
       <c r="S34" t="n">
         <v>0</v>
@@ -3266,28 +3266,28 @@
         <v>0</v>
       </c>
       <c r="C35" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="D35" t="n">
         <v>0</v>
       </c>
       <c r="E35" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="F35" t="n">
         <v>0</v>
       </c>
       <c r="G35" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="H35" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
       <c r="I35" t="n">
-        <v>210.4758895704059</v>
+        <v>0</v>
       </c>
       <c r="J35" t="n">
-        <v>0</v>
+        <v>11.94928935461252</v>
       </c>
       <c r="K35" t="n">
         <v>0</v>
@@ -3314,13 +3314,13 @@
         <v>149.8691179411497</v>
       </c>
       <c r="S35" t="n">
-        <v>0</v>
+        <v>40.47627913313517</v>
       </c>
       <c r="T35" t="n">
-        <v>223.0958495641314</v>
+        <v>0</v>
       </c>
       <c r="U35" t="n">
-        <v>100.8824071085284</v>
+        <v>0</v>
       </c>
       <c r="V35" t="n">
         <v>0</v>
@@ -3342,10 +3342,10 @@
         </is>
       </c>
       <c r="B36" t="n">
-        <v>0</v>
+        <v>166.5331836498673</v>
       </c>
       <c r="C36" t="n">
-        <v>0</v>
+        <v>172.7084989883157</v>
       </c>
       <c r="D36" t="n">
         <v>0</v>
@@ -3366,7 +3366,7 @@
         <v>0</v>
       </c>
       <c r="J36" t="n">
-        <v>0</v>
+        <v>0.7465913262578567</v>
       </c>
       <c r="K36" t="n">
         <v>0</v>
@@ -3390,25 +3390,25 @@
         <v>0</v>
       </c>
       <c r="R36" t="n">
-        <v>0</v>
+        <v>100.1578341526431</v>
       </c>
       <c r="S36" t="n">
-        <v>0</v>
+        <v>48.48515950437162</v>
       </c>
       <c r="T36" t="n">
         <v>0</v>
       </c>
       <c r="U36" t="n">
-        <v>50.05769526855297</v>
+        <v>0</v>
       </c>
       <c r="V36" t="n">
-        <v>232.8005871494253</v>
+        <v>0</v>
       </c>
       <c r="W36" t="n">
         <v>241.0142888776591</v>
       </c>
       <c r="X36" t="n">
-        <v>205.7729852034775</v>
+        <v>0</v>
       </c>
       <c r="Y36" t="n">
         <v>205.6826957773044</v>
@@ -3475,7 +3475,7 @@
         <v>0</v>
       </c>
       <c r="T37" t="n">
-        <v>0</v>
+        <v>133.186967585368</v>
       </c>
       <c r="U37" t="n">
         <v>0</v>
@@ -3484,7 +3484,7 @@
         <v>0</v>
       </c>
       <c r="W37" t="n">
-        <v>133.186967585368</v>
+        <v>0</v>
       </c>
       <c r="X37" t="n">
         <v>0</v>
@@ -3500,73 +3500,73 @@
         </is>
       </c>
       <c r="B38" t="n">
+        <v>0</v>
+      </c>
+      <c r="C38" t="n">
+        <v>0</v>
+      </c>
+      <c r="D38" t="n">
+        <v>0</v>
+      </c>
+      <c r="E38" t="n">
+        <v>0</v>
+      </c>
+      <c r="F38" t="n">
+        <v>0</v>
+      </c>
+      <c r="G38" t="n">
         <v>241.0142888776591</v>
       </c>
-      <c r="C38" t="n">
+      <c r="H38" t="n">
         <v>241.0142888776591</v>
       </c>
-      <c r="D38" t="n">
-        <v>0</v>
-      </c>
-      <c r="E38" t="n">
-        <v>0</v>
-      </c>
-      <c r="F38" t="n">
+      <c r="I38" t="n">
+        <v>200.3360962888296</v>
+      </c>
+      <c r="J38" t="n">
+        <v>11.94928935461252</v>
+      </c>
+      <c r="K38" t="n">
+        <v>0</v>
+      </c>
+      <c r="L38" t="n">
+        <v>0</v>
+      </c>
+      <c r="M38" t="n">
+        <v>0</v>
+      </c>
+      <c r="N38" t="n">
+        <v>0</v>
+      </c>
+      <c r="O38" t="n">
+        <v>0</v>
+      </c>
+      <c r="P38" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q38" t="n">
+        <v>0</v>
+      </c>
+      <c r="R38" t="n">
+        <v>0</v>
+      </c>
+      <c r="S38" t="n">
+        <v>0</v>
+      </c>
+      <c r="T38" t="n">
+        <v>0</v>
+      </c>
+      <c r="U38" t="n">
+        <v>0</v>
+      </c>
+      <c r="V38" t="n">
+        <v>0</v>
+      </c>
+      <c r="W38" t="n">
+        <v>0</v>
+      </c>
+      <c r="X38" t="n">
         <v>241.0142888776591</v>
-      </c>
-      <c r="G38" t="n">
-        <v>212.2853856434421</v>
-      </c>
-      <c r="H38" t="n">
-        <v>0</v>
-      </c>
-      <c r="I38" t="n">
-        <v>0</v>
-      </c>
-      <c r="J38" t="n">
-        <v>0</v>
-      </c>
-      <c r="K38" t="n">
-        <v>0</v>
-      </c>
-      <c r="L38" t="n">
-        <v>0</v>
-      </c>
-      <c r="M38" t="n">
-        <v>0</v>
-      </c>
-      <c r="N38" t="n">
-        <v>0</v>
-      </c>
-      <c r="O38" t="n">
-        <v>0</v>
-      </c>
-      <c r="P38" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q38" t="n">
-        <v>0</v>
-      </c>
-      <c r="R38" t="n">
-        <v>0</v>
-      </c>
-      <c r="S38" t="n">
-        <v>0</v>
-      </c>
-      <c r="T38" t="n">
-        <v>0</v>
-      </c>
-      <c r="U38" t="n">
-        <v>0</v>
-      </c>
-      <c r="V38" t="n">
-        <v>0</v>
-      </c>
-      <c r="W38" t="n">
-        <v>0</v>
-      </c>
-      <c r="X38" t="n">
-        <v>0</v>
       </c>
       <c r="Y38" t="n">
         <v>0</v>
@@ -3585,7 +3585,7 @@
         <v>0</v>
       </c>
       <c r="D39" t="n">
-        <v>0</v>
+        <v>70.64856914772001</v>
       </c>
       <c r="E39" t="n">
         <v>0</v>
@@ -3603,7 +3603,7 @@
         <v>0</v>
       </c>
       <c r="J39" t="n">
-        <v>0.7465913262578567</v>
+        <v>0</v>
       </c>
       <c r="K39" t="n">
         <v>0</v>
@@ -3627,13 +3627,13 @@
         <v>0</v>
       </c>
       <c r="R39" t="n">
-        <v>100.1578341526431</v>
+        <v>0</v>
       </c>
       <c r="S39" t="n">
         <v>0</v>
       </c>
       <c r="T39" t="n">
-        <v>0</v>
+        <v>200.1647286948216</v>
       </c>
       <c r="U39" t="n">
         <v>225.9413820809748</v>
@@ -3642,10 +3642,10 @@
         <v>232.8005871494253</v>
       </c>
       <c r="W39" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
       <c r="X39" t="n">
-        <v>134.667568689459</v>
+        <v>205.7729852034775</v>
       </c>
       <c r="Y39" t="n">
         <v>0</v>
@@ -3709,10 +3709,10 @@
         <v>0</v>
       </c>
       <c r="S40" t="n">
-        <v>0</v>
+        <v>133.186967585368</v>
       </c>
       <c r="T40" t="n">
-        <v>133.186967585368</v>
+        <v>0</v>
       </c>
       <c r="U40" t="n">
         <v>0</v>
@@ -3749,13 +3749,13 @@
         <v>0</v>
       </c>
       <c r="F41" t="n">
-        <v>0</v>
+        <v>236.4659934602711</v>
       </c>
       <c r="G41" t="n">
-        <v>236.4659934602711</v>
+        <v>0</v>
       </c>
       <c r="H41" t="n">
-        <v>236.4659934602711</v>
+        <v>0</v>
       </c>
       <c r="I41" t="n">
         <v>0</v>
@@ -3785,10 +3785,10 @@
         <v>9.990699214544804</v>
       </c>
       <c r="R41" t="n">
-        <v>149.8691179411497</v>
+        <v>0</v>
       </c>
       <c r="S41" t="n">
-        <v>48.41942988411217</v>
+        <v>0</v>
       </c>
       <c r="T41" t="n">
         <v>0</v>
@@ -3803,10 +3803,10 @@
         <v>0</v>
       </c>
       <c r="X41" t="n">
-        <v>0</v>
+        <v>198.2885478252619</v>
       </c>
       <c r="Y41" t="n">
-        <v>0</v>
+        <v>236.4659934602711</v>
       </c>
     </row>
     <row r="42">
@@ -3816,16 +3816,16 @@
         </is>
       </c>
       <c r="B42" t="n">
-        <v>0</v>
+        <v>166.5331836498673</v>
       </c>
       <c r="C42" t="n">
-        <v>0</v>
+        <v>3.905208513137393</v>
       </c>
       <c r="D42" t="n">
-        <v>0</v>
+        <v>147.4450655646388</v>
       </c>
       <c r="E42" t="n">
-        <v>0</v>
+        <v>157.6450804554009</v>
       </c>
       <c r="F42" t="n">
         <v>0</v>
@@ -3867,25 +3867,25 @@
         <v>0</v>
       </c>
       <c r="S42" t="n">
-        <v>16.69627952647125</v>
+        <v>0</v>
       </c>
       <c r="T42" t="n">
         <v>0</v>
       </c>
       <c r="U42" t="n">
-        <v>225.9413820809748</v>
+        <v>0</v>
       </c>
       <c r="V42" t="n">
-        <v>232.8005871494253</v>
+        <v>0</v>
       </c>
       <c r="W42" t="n">
         <v>236.4659934602711</v>
       </c>
       <c r="X42" t="n">
-        <v>205.7729852034775</v>
+        <v>0</v>
       </c>
       <c r="Y42" t="n">
-        <v>0</v>
+        <v>205.6826957773044</v>
       </c>
     </row>
     <row r="43">
@@ -3913,7 +3913,7 @@
         <v>0</v>
       </c>
       <c r="H43" t="n">
-        <v>0</v>
+        <v>133.186967585368</v>
       </c>
       <c r="I43" t="n">
         <v>0</v>
@@ -3964,7 +3964,7 @@
         <v>0</v>
       </c>
       <c r="Y43" t="n">
-        <v>133.186967585368</v>
+        <v>0</v>
       </c>
     </row>
     <row r="44">
@@ -3986,13 +3986,13 @@
         <v>0</v>
       </c>
       <c r="F44" t="n">
-        <v>0</v>
+        <v>39.58387696184059</v>
       </c>
       <c r="G44" t="n">
-        <v>39.58387696184059</v>
+        <v>24.87477961344436</v>
       </c>
       <c r="H44" t="n">
-        <v>24.87477961344436</v>
+        <v>0</v>
       </c>
       <c r="I44" t="n">
         <v>0</v>
@@ -4022,7 +4022,7 @@
         <v>9.990699214544804</v>
       </c>
       <c r="R44" t="n">
-        <v>39.58387696184059</v>
+        <v>0</v>
       </c>
       <c r="S44" t="n">
         <v>39.58387696184059</v>
@@ -4031,7 +4031,7 @@
         <v>0</v>
       </c>
       <c r="U44" t="n">
-        <v>0</v>
+        <v>39.58387696184059</v>
       </c>
       <c r="V44" t="n">
         <v>0</v>
@@ -4107,10 +4107,10 @@
         <v>0</v>
       </c>
       <c r="T45" t="n">
+        <v>0</v>
+      </c>
+      <c r="U45" t="n">
         <v>39.58387696184059</v>
-      </c>
-      <c r="U45" t="n">
-        <v>34.86547882798917</v>
       </c>
       <c r="V45" t="n">
         <v>39.58387696184059</v>
@@ -4119,7 +4119,7 @@
         <v>39.58387696184059</v>
       </c>
       <c r="X45" t="n">
-        <v>0</v>
+        <v>34.86547882798917</v>
       </c>
       <c r="Y45" t="n">
         <v>0</v>
@@ -4141,10 +4141,10 @@
         <v>0</v>
       </c>
       <c r="E46" t="n">
-        <v>0</v>
+        <v>39.58387696184059</v>
       </c>
       <c r="F46" t="n">
-        <v>0</v>
+        <v>39.58387696184059</v>
       </c>
       <c r="G46" t="n">
         <v>0</v>
@@ -4174,25 +4174,25 @@
         <v>0</v>
       </c>
       <c r="P46" t="n">
-        <v>0</v>
+        <v>2.721440735106512</v>
       </c>
       <c r="Q46" t="n">
-        <v>9.977552361264268</v>
+        <v>0</v>
       </c>
       <c r="R46" t="n">
         <v>0</v>
       </c>
       <c r="S46" t="n">
-        <v>0</v>
+        <v>7.256111626157765</v>
       </c>
       <c r="T46" t="n">
         <v>0</v>
       </c>
       <c r="U46" t="n">
-        <v>39.58387696184059</v>
+        <v>0</v>
       </c>
       <c r="V46" t="n">
-        <v>39.58387696184059</v>
+        <v>0</v>
       </c>
       <c r="W46" t="n">
         <v>39.58387696184059</v>
@@ -4352,13 +4352,13 @@
         <v>148.2438924791353</v>
       </c>
       <c r="R2" t="n">
-        <v>148.2438924791353</v>
+        <v>123.1178524655551</v>
       </c>
       <c r="S2" t="n">
-        <v>148.2438924791353</v>
+        <v>123.1178524655551</v>
       </c>
       <c r="T2" t="n">
-        <v>148.2438924791353</v>
+        <v>123.1178524655551</v>
       </c>
       <c r="U2" t="n">
         <v>123.1178524655551</v>
@@ -4410,19 +4410,19 @@
         <v>3.166710156947247</v>
       </c>
       <c r="K3" t="n">
+        <v>3.166710156947247</v>
+      </c>
+      <c r="L3" t="n">
         <v>42.35474834916943</v>
       </c>
-      <c r="L3" t="n">
+      <c r="M3" t="n">
         <v>81.54278654139161</v>
       </c>
-      <c r="M3" t="n">
-        <v>119.1474696551402</v>
-      </c>
       <c r="N3" t="n">
-        <v>119.1474696551402</v>
+        <v>81.54278654139161</v>
       </c>
       <c r="O3" t="n">
-        <v>119.1474696551402</v>
+        <v>81.54278654139161</v>
       </c>
       <c r="P3" t="n">
         <v>119.1474696551402</v>
@@ -4462,76 +4462,76 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>28.30602982030574</v>
+        <v>90.46354404567346</v>
       </c>
       <c r="C4" t="n">
-        <v>28.30602982030574</v>
+        <v>90.46354404567346</v>
       </c>
       <c r="D4" t="n">
-        <v>28.30602982030574</v>
+        <v>90.46354404567346</v>
       </c>
       <c r="E4" t="n">
-        <v>28.30602982030574</v>
+        <v>90.46354404567346</v>
       </c>
       <c r="F4" t="n">
-        <v>28.30602982030574</v>
+        <v>90.46354404567346</v>
       </c>
       <c r="G4" t="n">
-        <v>28.30602982030574</v>
+        <v>90.46354404567346</v>
       </c>
       <c r="H4" t="n">
-        <v>28.30602982030574</v>
+        <v>90.46354404567346</v>
       </c>
       <c r="I4" t="n">
-        <v>28.30602982030574</v>
+        <v>50.47982994280417</v>
       </c>
       <c r="J4" t="n">
-        <v>28.30602982030574</v>
+        <v>10.49611583993489</v>
       </c>
       <c r="K4" t="n">
-        <v>28.30602982030574</v>
+        <v>3.166710156947247</v>
       </c>
       <c r="L4" t="n">
-        <v>55.62015482801871</v>
+        <v>30.48083516466022</v>
       </c>
       <c r="M4" t="n">
-        <v>94.80819302024089</v>
+        <v>69.6688733568824</v>
       </c>
       <c r="N4" t="n">
-        <v>133.9962312124631</v>
+        <v>108.8569115491046</v>
       </c>
       <c r="O4" t="n">
-        <v>158.3355078473624</v>
+        <v>133.1961881840039</v>
       </c>
       <c r="P4" t="n">
-        <v>158.3355078473624</v>
+        <v>130.4472581485427</v>
       </c>
       <c r="Q4" t="n">
-        <v>158.3355078473624</v>
+        <v>90.46354404567346</v>
       </c>
       <c r="R4" t="n">
-        <v>158.3355078473624</v>
+        <v>90.46354404567346</v>
       </c>
       <c r="S4" t="n">
-        <v>158.3355078473624</v>
+        <v>90.46354404567346</v>
       </c>
       <c r="T4" t="n">
-        <v>148.2571721289136</v>
+        <v>90.46354404567346</v>
       </c>
       <c r="U4" t="n">
-        <v>108.2734580260443</v>
+        <v>90.46354404567346</v>
       </c>
       <c r="V4" t="n">
-        <v>68.28974392317502</v>
+        <v>90.46354404567346</v>
       </c>
       <c r="W4" t="n">
-        <v>28.30602982030574</v>
+        <v>90.46354404567346</v>
       </c>
       <c r="X4" t="n">
-        <v>28.30602982030574</v>
+        <v>90.46354404567346</v>
       </c>
       <c r="Y4" t="n">
-        <v>28.30602982030574</v>
+        <v>90.46354404567346</v>
       </c>
     </row>
     <row r="5">
@@ -4541,25 +4541,25 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>148.2438924791353</v>
+        <v>15.2366994040306</v>
       </c>
       <c r="C5" t="n">
-        <v>148.2438924791353</v>
+        <v>15.2366994040306</v>
       </c>
       <c r="D5" t="n">
-        <v>148.2438924791353</v>
+        <v>15.2366994040306</v>
       </c>
       <c r="E5" t="n">
-        <v>148.2438924791353</v>
+        <v>15.2366994040306</v>
       </c>
       <c r="F5" t="n">
-        <v>135.1878417126385</v>
+        <v>15.2366994040306</v>
       </c>
       <c r="G5" t="n">
-        <v>95.20412760976917</v>
+        <v>15.2366994040306</v>
       </c>
       <c r="H5" t="n">
-        <v>55.22041350689989</v>
+        <v>15.2366994040306</v>
       </c>
       <c r="I5" t="n">
         <v>15.2366994040306</v>
@@ -4589,28 +4589,28 @@
         <v>148.2438924791353</v>
       </c>
       <c r="R5" t="n">
-        <v>148.2438924791353</v>
+        <v>108.260178376266</v>
       </c>
       <c r="S5" t="n">
-        <v>148.2438924791353</v>
+        <v>68.2764642733967</v>
       </c>
       <c r="T5" t="n">
-        <v>148.2438924791353</v>
+        <v>28.29275017052741</v>
       </c>
       <c r="U5" t="n">
-        <v>148.2438924791353</v>
+        <v>15.2366994040306</v>
       </c>
       <c r="V5" t="n">
-        <v>148.2438924791353</v>
+        <v>15.2366994040306</v>
       </c>
       <c r="W5" t="n">
-        <v>148.2438924791353</v>
+        <v>15.2366994040306</v>
       </c>
       <c r="X5" t="n">
-        <v>148.2438924791353</v>
+        <v>15.2366994040306</v>
       </c>
       <c r="Y5" t="n">
-        <v>148.2438924791353</v>
+        <v>15.2366994040306</v>
       </c>
     </row>
     <row r="6">
@@ -4629,13 +4629,13 @@
         <v>158.3355078473624</v>
       </c>
       <c r="E6" t="n">
-        <v>118.3517937444931</v>
+        <v>158.3355078473624</v>
       </c>
       <c r="F6" t="n">
+        <v>123.8719851183408</v>
+      </c>
+      <c r="G6" t="n">
         <v>83.88827101547153</v>
-      </c>
-      <c r="G6" t="n">
-        <v>43.90455691260225</v>
       </c>
       <c r="H6" t="n">
         <v>43.90455691260225</v>
@@ -4647,13 +4647,13 @@
         <v>3.166710156947247</v>
       </c>
       <c r="K6" t="n">
-        <v>3.166710156947247</v>
+        <v>42.35474834916943</v>
       </c>
       <c r="L6" t="n">
-        <v>42.35474834916943</v>
+        <v>81.54278654139161</v>
       </c>
       <c r="M6" t="n">
-        <v>81.54278654139161</v>
+        <v>119.1474696551402</v>
       </c>
       <c r="N6" t="n">
         <v>119.1474696551402</v>
@@ -4699,31 +4699,31 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>3.166710156947247</v>
+        <v>90.46354404567346</v>
       </c>
       <c r="C7" t="n">
-        <v>3.166710156947247</v>
+        <v>90.46354404567346</v>
       </c>
       <c r="D7" t="n">
-        <v>3.166710156947247</v>
+        <v>90.46354404567346</v>
       </c>
       <c r="E7" t="n">
-        <v>3.166710156947247</v>
+        <v>90.46354404567346</v>
       </c>
       <c r="F7" t="n">
-        <v>3.166710156947247</v>
+        <v>90.46354404567346</v>
       </c>
       <c r="G7" t="n">
-        <v>3.166710156947247</v>
+        <v>90.46354404567346</v>
       </c>
       <c r="H7" t="n">
-        <v>3.166710156947247</v>
+        <v>90.46354404567346</v>
       </c>
       <c r="I7" t="n">
-        <v>3.166710156947247</v>
+        <v>50.47982994280417</v>
       </c>
       <c r="J7" t="n">
-        <v>3.166710156947247</v>
+        <v>10.49611583993489</v>
       </c>
       <c r="K7" t="n">
         <v>3.166710156947247</v>
@@ -4747,28 +4747,28 @@
         <v>90.46354404567346</v>
       </c>
       <c r="R7" t="n">
-        <v>50.47982994280417</v>
+        <v>90.46354404567346</v>
       </c>
       <c r="S7" t="n">
-        <v>10.49611583993489</v>
+        <v>90.46354404567346</v>
       </c>
       <c r="T7" t="n">
-        <v>3.166710156947247</v>
+        <v>90.46354404567346</v>
       </c>
       <c r="U7" t="n">
-        <v>3.166710156947247</v>
+        <v>90.46354404567346</v>
       </c>
       <c r="V7" t="n">
-        <v>3.166710156947247</v>
+        <v>90.46354404567346</v>
       </c>
       <c r="W7" t="n">
-        <v>3.166710156947247</v>
+        <v>90.46354404567346</v>
       </c>
       <c r="X7" t="n">
-        <v>3.166710156947247</v>
+        <v>90.46354404567346</v>
       </c>
       <c r="Y7" t="n">
-        <v>3.166710156947247</v>
+        <v>90.46354404567346</v>
       </c>
     </row>
     <row r="8">
@@ -4778,19 +4778,19 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>158.3355078473624</v>
+        <v>3.166710156947247</v>
       </c>
       <c r="C8" t="n">
-        <v>158.3355078473624</v>
+        <v>3.166710156947247</v>
       </c>
       <c r="D8" t="n">
-        <v>118.3517937444931</v>
+        <v>3.166710156947247</v>
       </c>
       <c r="E8" t="n">
-        <v>78.36807964162378</v>
+        <v>3.166710156947247</v>
       </c>
       <c r="F8" t="n">
-        <v>38.38436553875449</v>
+        <v>3.166710156947247</v>
       </c>
       <c r="G8" t="n">
         <v>3.166710156947247</v>
@@ -4808,13 +4808,13 @@
         <v>42.35474834916943</v>
       </c>
       <c r="L8" t="n">
-        <v>81.54278654139161</v>
+        <v>42.35474834916943</v>
       </c>
       <c r="M8" t="n">
-        <v>119.1474696551402</v>
+        <v>42.35474834916943</v>
       </c>
       <c r="N8" t="n">
-        <v>119.1474696551402</v>
+        <v>79.95943146291799</v>
       </c>
       <c r="O8" t="n">
         <v>119.1474696551402</v>
@@ -4823,31 +4823,31 @@
         <v>158.3355078473624</v>
       </c>
       <c r="Q8" t="n">
-        <v>158.3355078473624</v>
+        <v>148.2438924791353</v>
       </c>
       <c r="R8" t="n">
-        <v>158.3355078473624</v>
+        <v>108.260178376266</v>
       </c>
       <c r="S8" t="n">
-        <v>158.3355078473624</v>
+        <v>68.2764642733967</v>
       </c>
       <c r="T8" t="n">
-        <v>158.3355078473624</v>
+        <v>28.29275017052741</v>
       </c>
       <c r="U8" t="n">
-        <v>158.3355078473624</v>
+        <v>3.166710156947247</v>
       </c>
       <c r="V8" t="n">
-        <v>158.3355078473624</v>
+        <v>3.166710156947247</v>
       </c>
       <c r="W8" t="n">
-        <v>158.3355078473624</v>
+        <v>3.166710156947247</v>
       </c>
       <c r="X8" t="n">
-        <v>158.3355078473624</v>
+        <v>3.166710156947247</v>
       </c>
       <c r="Y8" t="n">
-        <v>158.3355078473624</v>
+        <v>3.166710156947247</v>
       </c>
     </row>
     <row r="9">
@@ -4857,43 +4857,43 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>3.166710156947247</v>
+        <v>158.3355078473624</v>
       </c>
       <c r="C9" t="n">
-        <v>3.166710156947247</v>
+        <v>158.3355078473624</v>
       </c>
       <c r="D9" t="n">
-        <v>3.166710156947247</v>
+        <v>158.3355078473624</v>
       </c>
       <c r="E9" t="n">
-        <v>3.166710156947247</v>
+        <v>158.3355078473624</v>
       </c>
       <c r="F9" t="n">
-        <v>3.166710156947247</v>
+        <v>123.8719851183408</v>
       </c>
       <c r="G9" t="n">
-        <v>3.166710156947247</v>
+        <v>83.88827101547153</v>
       </c>
       <c r="H9" t="n">
-        <v>3.166710156947247</v>
+        <v>43.90455691260225</v>
       </c>
       <c r="I9" t="n">
-        <v>3.166710156947247</v>
+        <v>3.920842809732961</v>
       </c>
       <c r="J9" t="n">
         <v>3.166710156947247</v>
       </c>
       <c r="K9" t="n">
-        <v>42.35474834916943</v>
+        <v>3.166710156947247</v>
       </c>
       <c r="L9" t="n">
-        <v>42.35474834916943</v>
+        <v>3.166710156947247</v>
       </c>
       <c r="M9" t="n">
-        <v>42.35474834916943</v>
+        <v>3.166710156947247</v>
       </c>
       <c r="N9" t="n">
-        <v>79.95943146291799</v>
+        <v>40.77139327069581</v>
       </c>
       <c r="O9" t="n">
         <v>79.95943146291799</v>
@@ -4905,28 +4905,28 @@
         <v>158.3355078473624</v>
       </c>
       <c r="R9" t="n">
-        <v>118.3517937444931</v>
+        <v>158.3355078473624</v>
       </c>
       <c r="S9" t="n">
-        <v>78.36807964162378</v>
+        <v>158.3355078473624</v>
       </c>
       <c r="T9" t="n">
-        <v>38.38436553875449</v>
+        <v>158.3355078473624</v>
       </c>
       <c r="U9" t="n">
-        <v>3.166710156947247</v>
+        <v>158.3355078473624</v>
       </c>
       <c r="V9" t="n">
-        <v>3.166710156947247</v>
+        <v>158.3355078473624</v>
       </c>
       <c r="W9" t="n">
-        <v>3.166710156947247</v>
+        <v>158.3355078473624</v>
       </c>
       <c r="X9" t="n">
-        <v>3.166710156947247</v>
+        <v>158.3355078473624</v>
       </c>
       <c r="Y9" t="n">
-        <v>3.166710156947247</v>
+        <v>158.3355078473624</v>
       </c>
     </row>
     <row r="10">
@@ -4936,31 +4936,31 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>133.1961881840039</v>
+        <v>25.66114634470771</v>
       </c>
       <c r="C10" t="n">
-        <v>133.1961881840039</v>
+        <v>25.66114634470771</v>
       </c>
       <c r="D10" t="n">
-        <v>133.1961881840039</v>
+        <v>25.66114634470771</v>
       </c>
       <c r="E10" t="n">
-        <v>133.1961881840039</v>
+        <v>25.66114634470771</v>
       </c>
       <c r="F10" t="n">
-        <v>133.1961881840039</v>
+        <v>25.66114634470771</v>
       </c>
       <c r="G10" t="n">
-        <v>133.1961881840039</v>
+        <v>25.66114634470771</v>
       </c>
       <c r="H10" t="n">
-        <v>93.21247408113457</v>
+        <v>25.66114634470771</v>
       </c>
       <c r="I10" t="n">
-        <v>53.22875997826529</v>
+        <v>25.66114634470771</v>
       </c>
       <c r="J10" t="n">
-        <v>13.245045875396</v>
+        <v>25.66114634470771</v>
       </c>
       <c r="K10" t="n">
         <v>3.166710156947247</v>
@@ -4978,34 +4978,34 @@
         <v>133.1961881840039</v>
       </c>
       <c r="P10" t="n">
-        <v>133.1961881840039</v>
+        <v>130.4472581485427</v>
       </c>
       <c r="Q10" t="n">
-        <v>133.1961881840039</v>
+        <v>90.46354404567346</v>
       </c>
       <c r="R10" t="n">
-        <v>133.1961881840039</v>
+        <v>50.47982994280417</v>
       </c>
       <c r="S10" t="n">
-        <v>133.1961881840039</v>
+        <v>25.66114634470771</v>
       </c>
       <c r="T10" t="n">
-        <v>133.1961881840039</v>
+        <v>25.66114634470771</v>
       </c>
       <c r="U10" t="n">
-        <v>133.1961881840039</v>
+        <v>25.66114634470771</v>
       </c>
       <c r="V10" t="n">
-        <v>133.1961881840039</v>
+        <v>25.66114634470771</v>
       </c>
       <c r="W10" t="n">
-        <v>133.1961881840039</v>
+        <v>25.66114634470771</v>
       </c>
       <c r="X10" t="n">
-        <v>133.1961881840039</v>
+        <v>25.66114634470771</v>
       </c>
       <c r="Y10" t="n">
-        <v>133.1961881840039</v>
+        <v>25.66114634470771</v>
       </c>
     </row>
     <row r="11">
@@ -5015,28 +5015,28 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>55.22041350689989</v>
+        <v>123.1178524655551</v>
       </c>
       <c r="C11" t="n">
-        <v>15.2366994040306</v>
+        <v>123.1178524655551</v>
       </c>
       <c r="D11" t="n">
-        <v>15.2366994040306</v>
+        <v>83.13413836268582</v>
       </c>
       <c r="E11" t="n">
-        <v>15.2366994040306</v>
+        <v>83.13413836268582</v>
       </c>
       <c r="F11" t="n">
-        <v>15.2366994040306</v>
+        <v>43.15042425981653</v>
       </c>
       <c r="G11" t="n">
-        <v>15.2366994040306</v>
+        <v>43.15042425981653</v>
       </c>
       <c r="H11" t="n">
-        <v>15.2366994040306</v>
+        <v>43.15042425981653</v>
       </c>
       <c r="I11" t="n">
-        <v>15.2366994040306</v>
+        <v>3.166710156947247</v>
       </c>
       <c r="J11" t="n">
         <v>3.166710156947247</v>
@@ -5048,7 +5048,7 @@
         <v>79.95943146291799</v>
       </c>
       <c r="M11" t="n">
-        <v>79.95943146291799</v>
+        <v>119.1474696551402</v>
       </c>
       <c r="N11" t="n">
         <v>119.1474696551402</v>
@@ -5060,31 +5060,31 @@
         <v>158.3355078473624</v>
       </c>
       <c r="Q11" t="n">
-        <v>158.3355078473624</v>
+        <v>148.2438924791353</v>
       </c>
       <c r="R11" t="n">
-        <v>158.3355078473624</v>
+        <v>148.2438924791353</v>
       </c>
       <c r="S11" t="n">
-        <v>158.3355078473624</v>
+        <v>148.2438924791353</v>
       </c>
       <c r="T11" t="n">
-        <v>158.3355078473624</v>
+        <v>148.2438924791353</v>
       </c>
       <c r="U11" t="n">
-        <v>135.1878417126385</v>
+        <v>148.2438924791353</v>
       </c>
       <c r="V11" t="n">
-        <v>135.1878417126385</v>
+        <v>148.2438924791353</v>
       </c>
       <c r="W11" t="n">
-        <v>95.20412760976917</v>
+        <v>148.2438924791353</v>
       </c>
       <c r="X11" t="n">
-        <v>95.20412760976917</v>
+        <v>148.2438924791353</v>
       </c>
       <c r="Y11" t="n">
-        <v>55.22041350689989</v>
+        <v>148.2438924791353</v>
       </c>
     </row>
     <row r="12">
@@ -5097,25 +5097,25 @@
         <v>158.3355078473624</v>
       </c>
       <c r="C12" t="n">
-        <v>118.3517937444931</v>
+        <v>158.3355078473624</v>
       </c>
       <c r="D12" t="n">
-        <v>78.36807964162378</v>
+        <v>158.3355078473624</v>
       </c>
       <c r="E12" t="n">
-        <v>38.38436553875449</v>
+        <v>158.3355078473624</v>
       </c>
       <c r="F12" t="n">
-        <v>3.920842809732961</v>
+        <v>123.1178524655551</v>
       </c>
       <c r="G12" t="n">
-        <v>3.920842809732961</v>
+        <v>83.13413836268582</v>
       </c>
       <c r="H12" t="n">
-        <v>3.920842809732961</v>
+        <v>43.15042425981653</v>
       </c>
       <c r="I12" t="n">
-        <v>3.920842809732961</v>
+        <v>3.166710156947247</v>
       </c>
       <c r="J12" t="n">
         <v>3.166710156947247</v>
@@ -5124,19 +5124,19 @@
         <v>42.35474834916943</v>
       </c>
       <c r="L12" t="n">
-        <v>42.35474834916943</v>
+        <v>81.54278654139161</v>
       </c>
       <c r="M12" t="n">
-        <v>42.35474834916943</v>
+        <v>120.7308247336138</v>
       </c>
       <c r="N12" t="n">
-        <v>79.95943146291799</v>
+        <v>120.7308247336138</v>
       </c>
       <c r="O12" t="n">
-        <v>119.1474696551402</v>
+        <v>120.7308247336138</v>
       </c>
       <c r="P12" t="n">
-        <v>158.3355078473624</v>
+        <v>120.7308247336138</v>
       </c>
       <c r="Q12" t="n">
         <v>158.3355078473624</v>
@@ -5173,31 +5173,31 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>3.166710156947247</v>
+        <v>90.46354404567346</v>
       </c>
       <c r="C13" t="n">
-        <v>3.166710156947247</v>
+        <v>90.46354404567346</v>
       </c>
       <c r="D13" t="n">
-        <v>3.166710156947247</v>
+        <v>90.46354404567346</v>
       </c>
       <c r="E13" t="n">
-        <v>3.166710156947247</v>
+        <v>90.46354404567346</v>
       </c>
       <c r="F13" t="n">
-        <v>3.166710156947247</v>
+        <v>90.46354404567346</v>
       </c>
       <c r="G13" t="n">
-        <v>3.166710156947247</v>
+        <v>90.46354404567346</v>
       </c>
       <c r="H13" t="n">
-        <v>3.166710156947247</v>
+        <v>90.46354404567346</v>
       </c>
       <c r="I13" t="n">
-        <v>3.166710156947247</v>
+        <v>65.64486044757699</v>
       </c>
       <c r="J13" t="n">
-        <v>3.166710156947247</v>
+        <v>25.66114634470771</v>
       </c>
       <c r="K13" t="n">
         <v>3.166710156947247</v>
@@ -5221,28 +5221,28 @@
         <v>90.46354404567346</v>
       </c>
       <c r="R13" t="n">
-        <v>50.47982994280417</v>
+        <v>90.46354404567346</v>
       </c>
       <c r="S13" t="n">
-        <v>10.49611583993489</v>
+        <v>90.46354404567346</v>
       </c>
       <c r="T13" t="n">
-        <v>3.166710156947247</v>
+        <v>90.46354404567346</v>
       </c>
       <c r="U13" t="n">
-        <v>3.166710156947247</v>
+        <v>90.46354404567346</v>
       </c>
       <c r="V13" t="n">
-        <v>3.166710156947247</v>
+        <v>90.46354404567346</v>
       </c>
       <c r="W13" t="n">
-        <v>3.166710156947247</v>
+        <v>90.46354404567346</v>
       </c>
       <c r="X13" t="n">
-        <v>3.166710156947247</v>
+        <v>90.46354404567346</v>
       </c>
       <c r="Y13" t="n">
-        <v>3.166710156947247</v>
+        <v>90.46354404567346</v>
       </c>
     </row>
     <row r="14">
@@ -5252,25 +5252,25 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>158.3355078473624</v>
+        <v>3.166710156947247</v>
       </c>
       <c r="C14" t="n">
-        <v>158.3355078473624</v>
+        <v>3.166710156947247</v>
       </c>
       <c r="D14" t="n">
-        <v>158.3355078473624</v>
+        <v>3.166710156947247</v>
       </c>
       <c r="E14" t="n">
-        <v>158.3355078473624</v>
+        <v>3.166710156947247</v>
       </c>
       <c r="F14" t="n">
-        <v>118.3517937444931</v>
+        <v>3.166710156947247</v>
       </c>
       <c r="G14" t="n">
-        <v>78.36807964162378</v>
+        <v>3.166710156947247</v>
       </c>
       <c r="H14" t="n">
-        <v>38.38436553875449</v>
+        <v>3.166710156947247</v>
       </c>
       <c r="I14" t="n">
         <v>3.166710156947247</v>
@@ -5285,43 +5285,43 @@
         <v>81.54278654139161</v>
       </c>
       <c r="M14" t="n">
+        <v>81.54278654139161</v>
+      </c>
+      <c r="N14" t="n">
+        <v>81.54278654139161</v>
+      </c>
+      <c r="O14" t="n">
         <v>119.1474696551402</v>
-      </c>
-      <c r="N14" t="n">
-        <v>119.1474696551402</v>
-      </c>
-      <c r="O14" t="n">
-        <v>158.3355078473624</v>
       </c>
       <c r="P14" t="n">
         <v>158.3355078473624</v>
       </c>
       <c r="Q14" t="n">
-        <v>158.3355078473624</v>
+        <v>148.2438924791353</v>
       </c>
       <c r="R14" t="n">
-        <v>158.3355078473624</v>
+        <v>123.1178524655551</v>
       </c>
       <c r="S14" t="n">
-        <v>158.3355078473624</v>
+        <v>83.13413836268582</v>
       </c>
       <c r="T14" t="n">
-        <v>158.3355078473624</v>
+        <v>43.15042425981653</v>
       </c>
       <c r="U14" t="n">
-        <v>158.3355078473624</v>
+        <v>3.166710156947247</v>
       </c>
       <c r="V14" t="n">
-        <v>158.3355078473624</v>
+        <v>3.166710156947247</v>
       </c>
       <c r="W14" t="n">
-        <v>158.3355078473624</v>
+        <v>3.166710156947247</v>
       </c>
       <c r="X14" t="n">
-        <v>158.3355078473624</v>
+        <v>3.166710156947247</v>
       </c>
       <c r="Y14" t="n">
-        <v>158.3355078473624</v>
+        <v>3.166710156947247</v>
       </c>
     </row>
     <row r="15">
@@ -5331,25 +5331,25 @@
         </is>
       </c>
       <c r="B15" t="n">
-        <v>158.3355078473624</v>
+        <v>3.166710156947247</v>
       </c>
       <c r="C15" t="n">
-        <v>158.3355078473624</v>
+        <v>3.166710156947247</v>
       </c>
       <c r="D15" t="n">
-        <v>158.3355078473624</v>
+        <v>3.166710156947247</v>
       </c>
       <c r="E15" t="n">
-        <v>158.3355078473624</v>
+        <v>3.166710156947247</v>
       </c>
       <c r="F15" t="n">
-        <v>123.1178524655551</v>
+        <v>3.166710156947247</v>
       </c>
       <c r="G15" t="n">
-        <v>83.13413836268582</v>
+        <v>3.166710156947247</v>
       </c>
       <c r="H15" t="n">
-        <v>43.15042425981653</v>
+        <v>3.166710156947247</v>
       </c>
       <c r="I15" t="n">
         <v>3.166710156947247</v>
@@ -5358,49 +5358,49 @@
         <v>3.166710156947247</v>
       </c>
       <c r="K15" t="n">
-        <v>3.166710156947247</v>
+        <v>42.35474834916943</v>
       </c>
       <c r="L15" t="n">
-        <v>3.166710156947247</v>
+        <v>81.54278654139161</v>
       </c>
       <c r="M15" t="n">
-        <v>3.166710156947247</v>
+        <v>120.7308247336138</v>
       </c>
       <c r="N15" t="n">
-        <v>40.77139327069581</v>
+        <v>120.7308247336138</v>
       </c>
       <c r="O15" t="n">
-        <v>79.95943146291799</v>
+        <v>120.7308247336138</v>
       </c>
       <c r="P15" t="n">
-        <v>119.1474696551402</v>
+        <v>120.7308247336138</v>
       </c>
       <c r="Q15" t="n">
         <v>158.3355078473624</v>
       </c>
       <c r="R15" t="n">
-        <v>158.3355078473624</v>
+        <v>118.3517937444931</v>
       </c>
       <c r="S15" t="n">
-        <v>158.3355078473624</v>
+        <v>78.36807964162378</v>
       </c>
       <c r="T15" t="n">
-        <v>158.3355078473624</v>
+        <v>38.38436553875449</v>
       </c>
       <c r="U15" t="n">
-        <v>158.3355078473624</v>
+        <v>3.166710156947247</v>
       </c>
       <c r="V15" t="n">
-        <v>158.3355078473624</v>
+        <v>3.166710156947247</v>
       </c>
       <c r="W15" t="n">
-        <v>158.3355078473624</v>
+        <v>3.166710156947247</v>
       </c>
       <c r="X15" t="n">
-        <v>158.3355078473624</v>
+        <v>3.166710156947247</v>
       </c>
       <c r="Y15" t="n">
-        <v>158.3355078473624</v>
+        <v>3.166710156947247</v>
       </c>
     </row>
     <row r="16">
@@ -5410,31 +5410,31 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>3.166710156947247</v>
+        <v>90.46354404567346</v>
       </c>
       <c r="C16" t="n">
-        <v>3.166710156947247</v>
+        <v>90.46354404567346</v>
       </c>
       <c r="D16" t="n">
-        <v>3.166710156947247</v>
+        <v>90.46354404567346</v>
       </c>
       <c r="E16" t="n">
-        <v>3.166710156947247</v>
+        <v>90.46354404567346</v>
       </c>
       <c r="F16" t="n">
-        <v>3.166710156947247</v>
+        <v>90.46354404567346</v>
       </c>
       <c r="G16" t="n">
-        <v>3.166710156947247</v>
+        <v>90.46354404567346</v>
       </c>
       <c r="H16" t="n">
-        <v>3.166710156947247</v>
+        <v>90.46354404567346</v>
       </c>
       <c r="I16" t="n">
-        <v>3.166710156947247</v>
+        <v>65.64486044757699</v>
       </c>
       <c r="J16" t="n">
-        <v>3.166710156947247</v>
+        <v>25.66114634470771</v>
       </c>
       <c r="K16" t="n">
         <v>3.166710156947247</v>
@@ -5458,28 +5458,28 @@
         <v>90.46354404567346</v>
       </c>
       <c r="R16" t="n">
-        <v>50.47982994280417</v>
+        <v>90.46354404567346</v>
       </c>
       <c r="S16" t="n">
-        <v>10.49611583993489</v>
+        <v>90.46354404567346</v>
       </c>
       <c r="T16" t="n">
-        <v>3.166710156947247</v>
+        <v>90.46354404567346</v>
       </c>
       <c r="U16" t="n">
-        <v>3.166710156947247</v>
+        <v>90.46354404567346</v>
       </c>
       <c r="V16" t="n">
-        <v>3.166710156947247</v>
+        <v>90.46354404567346</v>
       </c>
       <c r="W16" t="n">
-        <v>3.166710156947247</v>
+        <v>90.46354404567346</v>
       </c>
       <c r="X16" t="n">
-        <v>3.166710156947247</v>
+        <v>90.46354404567346</v>
       </c>
       <c r="Y16" t="n">
-        <v>3.166710156947247</v>
+        <v>90.46354404567346</v>
       </c>
     </row>
     <row r="17">
@@ -5516,19 +5516,19 @@
         <v>3.530573790338288</v>
       </c>
       <c r="K17" t="n">
-        <v>47.22142444577459</v>
+        <v>3.530573790338288</v>
       </c>
       <c r="L17" t="n">
-        <v>47.22142444577459</v>
+        <v>45.45613755060546</v>
       </c>
       <c r="M17" t="n">
-        <v>90.91227510121089</v>
+        <v>45.45613755060546</v>
       </c>
       <c r="N17" t="n">
-        <v>134.6031257566472</v>
+        <v>89.14698820604177</v>
       </c>
       <c r="O17" t="n">
-        <v>176.5286895169144</v>
+        <v>132.8378388614781</v>
       </c>
       <c r="P17" t="n">
         <v>176.5286895169144</v>
@@ -5540,10 +5540,10 @@
         <v>121.8591222504766</v>
       </c>
       <c r="S17" t="n">
-        <v>77.28117035226589</v>
+        <v>92.68647758675968</v>
       </c>
       <c r="T17" t="n">
-        <v>32.70321845405519</v>
+        <v>48.10852568854899</v>
       </c>
       <c r="U17" t="n">
         <v>3.530573790338288</v>
@@ -5568,25 +5568,25 @@
         </is>
       </c>
       <c r="B18" t="n">
-        <v>131.9507376187037</v>
+        <v>3.530573790338288</v>
       </c>
       <c r="C18" t="n">
-        <v>131.9507376187037</v>
+        <v>3.530573790338288</v>
       </c>
       <c r="D18" t="n">
-        <v>131.9507376187037</v>
+        <v>3.530573790338288</v>
       </c>
       <c r="E18" t="n">
-        <v>131.9507376187037</v>
+        <v>3.530573790338288</v>
       </c>
       <c r="F18" t="n">
-        <v>131.9507376187037</v>
+        <v>3.530573790338288</v>
       </c>
       <c r="G18" t="n">
-        <v>87.37278572049297</v>
+        <v>3.530573790338288</v>
       </c>
       <c r="H18" t="n">
-        <v>48.10852568854899</v>
+        <v>3.530573790338288</v>
       </c>
       <c r="I18" t="n">
         <v>3.530573790338288</v>
@@ -5598,46 +5598,46 @@
         <v>47.22142444577459</v>
       </c>
       <c r="L18" t="n">
-        <v>90.91227510121089</v>
+        <v>47.22142444577459</v>
       </c>
       <c r="M18" t="n">
-        <v>134.6031257566472</v>
+        <v>89.14698820604177</v>
       </c>
       <c r="N18" t="n">
-        <v>134.6031257566472</v>
+        <v>132.8378388614781</v>
       </c>
       <c r="O18" t="n">
-        <v>134.6031257566472</v>
+        <v>176.5286895169144</v>
       </c>
       <c r="P18" t="n">
-        <v>134.6031257566472</v>
+        <v>176.5286895169144</v>
       </c>
       <c r="Q18" t="n">
         <v>176.5286895169144</v>
       </c>
       <c r="R18" t="n">
-        <v>131.9507376187037</v>
+        <v>137.2644294849704</v>
       </c>
       <c r="S18" t="n">
-        <v>131.9507376187037</v>
+        <v>92.68647758675968</v>
       </c>
       <c r="T18" t="n">
-        <v>131.9507376187037</v>
+        <v>48.10852568854899</v>
       </c>
       <c r="U18" t="n">
-        <v>131.9507376187037</v>
+        <v>3.530573790338288</v>
       </c>
       <c r="V18" t="n">
-        <v>131.9507376187037</v>
+        <v>3.530573790338288</v>
       </c>
       <c r="W18" t="n">
-        <v>131.9507376187037</v>
+        <v>3.530573790338288</v>
       </c>
       <c r="X18" t="n">
-        <v>131.9507376187037</v>
+        <v>3.530573790338288</v>
       </c>
       <c r="Y18" t="n">
-        <v>131.9507376187037</v>
+        <v>3.530573790338288</v>
       </c>
     </row>
     <row r="19">
@@ -5647,7 +5647,7 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>4.329008585976936</v>
+        <v>3.530573790338288</v>
       </c>
       <c r="C19" t="n">
         <v>3.530573790338288</v>
@@ -5701,22 +5701,22 @@
         <v>138.062864280609</v>
       </c>
       <c r="T19" t="n">
-        <v>138.062864280609</v>
+        <v>93.48491238239833</v>
       </c>
       <c r="U19" t="n">
-        <v>138.062864280609</v>
+        <v>48.90696048418764</v>
       </c>
       <c r="V19" t="n">
-        <v>138.062864280609</v>
+        <v>4.329008585976936</v>
       </c>
       <c r="W19" t="n">
-        <v>138.062864280609</v>
+        <v>4.329008585976936</v>
       </c>
       <c r="X19" t="n">
-        <v>93.48491238239833</v>
+        <v>4.329008585976936</v>
       </c>
       <c r="Y19" t="n">
-        <v>48.90696048418764</v>
+        <v>4.329008585976936</v>
       </c>
     </row>
     <row r="20">
@@ -5771,28 +5771,28 @@
         <v>964.0571555106362</v>
       </c>
       <c r="Q20" t="n">
-        <v>953.9655401424092</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="R20" t="n">
-        <v>953.9655401424092</v>
+        <v>942.6594228129348</v>
       </c>
       <c r="S20" t="n">
-        <v>742.8341567219593</v>
+        <v>731.528039392485</v>
       </c>
       <c r="T20" t="n">
-        <v>517.4848137278872</v>
+        <v>506.1786963984129</v>
       </c>
       <c r="U20" t="n">
-        <v>517.4848137278872</v>
+        <v>262.7299197543128</v>
       </c>
       <c r="V20" t="n">
-        <v>517.4848137278872</v>
+        <v>262.7299197543128</v>
       </c>
       <c r="W20" t="n">
-        <v>274.0360370837871</v>
+        <v>262.7299197543128</v>
       </c>
       <c r="X20" t="n">
-        <v>30.58726043968704</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="Y20" t="n">
         <v>19.28114311021272</v>
@@ -5805,16 +5805,16 @@
         </is>
       </c>
       <c r="B21" t="n">
-        <v>19.28114311021272</v>
+        <v>340.2687303644548</v>
       </c>
       <c r="C21" t="n">
-        <v>19.28114311021272</v>
+        <v>165.8157010833278</v>
       </c>
       <c r="D21" t="n">
-        <v>19.28114311021272</v>
+        <v>165.8157010833278</v>
       </c>
       <c r="E21" t="n">
-        <v>19.28114311021272</v>
+        <v>165.8157010833278</v>
       </c>
       <c r="F21" t="n">
         <v>19.28114311021272</v>
@@ -5832,49 +5832,49 @@
         <v>19.28114311021272</v>
       </c>
       <c r="K21" t="n">
-        <v>144.6387031680501</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="L21" t="n">
-        <v>234.810827406191</v>
+        <v>249.2442489785619</v>
       </c>
       <c r="M21" t="n">
-        <v>234.810827406191</v>
+        <v>304.2053859195205</v>
       </c>
       <c r="N21" t="n">
-        <v>473.4149733950735</v>
+        <v>542.809531908403</v>
       </c>
       <c r="O21" t="n">
-        <v>712.019119383956</v>
+        <v>781.4136778972854</v>
       </c>
       <c r="P21" t="n">
-        <v>894.6625969973069</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="Q21" t="n">
         <v>964.0571555106362</v>
       </c>
       <c r="R21" t="n">
-        <v>964.0571555106362</v>
+        <v>862.8876260635219</v>
       </c>
       <c r="S21" t="n">
-        <v>964.0571555106362</v>
+        <v>777.6074332374315</v>
       </c>
       <c r="T21" t="n">
-        <v>964.0571555106362</v>
+        <v>575.4208385961974</v>
       </c>
       <c r="U21" t="n">
-        <v>735.8335372470253</v>
+        <v>575.4208385961974</v>
       </c>
       <c r="V21" t="n">
-        <v>500.6814290152826</v>
+        <v>340.2687303644548</v>
       </c>
       <c r="W21" t="n">
-        <v>257.2326523711826</v>
+        <v>340.2687303644548</v>
       </c>
       <c r="X21" t="n">
-        <v>49.38115216564972</v>
+        <v>340.2687303644548</v>
       </c>
       <c r="Y21" t="n">
-        <v>19.28114311021272</v>
+        <v>340.2687303644548</v>
       </c>
     </row>
     <row r="22">
@@ -5884,76 +5884,76 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>964.0571555106362</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="C22" t="n">
-        <v>964.0571555106362</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="D22" t="n">
-        <v>852.019301208126</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="E22" t="n">
-        <v>852.019301208126</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="F22" t="n">
-        <v>852.019301208126</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="G22" t="n">
-        <v>852.019301208126</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="H22" t="n">
-        <v>852.019301208126</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="I22" t="n">
-        <v>852.019301208126</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="J22" t="n">
-        <v>852.019301208126</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="K22" t="n">
-        <v>829.5248650203655</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="L22" t="n">
-        <v>856.8389900280785</v>
+        <v>46.5952681179257</v>
       </c>
       <c r="M22" t="n">
-        <v>896.0270282203006</v>
+        <v>85.78330631014788</v>
       </c>
       <c r="N22" t="n">
-        <v>939.7178788757369</v>
+        <v>129.4741569655842</v>
       </c>
       <c r="O22" t="n">
-        <v>964.0571555106362</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="P22" t="n">
-        <v>964.0571555106362</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="Q22" t="n">
-        <v>964.0571555106362</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="R22" t="n">
-        <v>964.0571555106362</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="S22" t="n">
-        <v>964.0571555106362</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="T22" t="n">
-        <v>964.0571555106362</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="U22" t="n">
-        <v>964.0571555106362</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="V22" t="n">
-        <v>964.0571555106362</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="W22" t="n">
-        <v>964.0571555106362</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="X22" t="n">
-        <v>964.0571555106362</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="Y22" t="n">
-        <v>964.0571555106362</v>
+        <v>19.28114311021272</v>
       </c>
     </row>
     <row r="23">
@@ -5963,22 +5963,22 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>376.1934816808115</v>
+        <v>506.1786963984129</v>
       </c>
       <c r="C23" t="n">
-        <v>376.1934816808115</v>
+        <v>506.1786963984129</v>
       </c>
       <c r="D23" t="n">
-        <v>376.1934816808115</v>
+        <v>506.1786963984129</v>
       </c>
       <c r="E23" t="n">
-        <v>376.1934816808115</v>
+        <v>262.7299197543128</v>
       </c>
       <c r="F23" t="n">
-        <v>376.1934816808115</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="G23" t="n">
-        <v>132.7447050367114</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="H23" t="n">
         <v>19.28114311021272</v>
@@ -6011,28 +6011,28 @@
         <v>964.0571555106362</v>
       </c>
       <c r="R23" t="n">
-        <v>812.6742080953335</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="S23" t="n">
-        <v>601.5428246748836</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="T23" t="n">
-        <v>376.1934816808115</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="U23" t="n">
-        <v>376.1934816808115</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="V23" t="n">
-        <v>376.1934816808115</v>
+        <v>720.6083788665362</v>
       </c>
       <c r="W23" t="n">
-        <v>376.1934816808115</v>
+        <v>506.1786963984129</v>
       </c>
       <c r="X23" t="n">
-        <v>376.1934816808115</v>
+        <v>506.1786963984129</v>
       </c>
       <c r="Y23" t="n">
-        <v>376.1934816808115</v>
+        <v>506.1786963984129</v>
       </c>
     </row>
     <row r="24">
@@ -6042,49 +6042,49 @@
         </is>
       </c>
       <c r="B24" t="n">
-        <v>492.3847606029253</v>
+        <v>362.4348659156472</v>
       </c>
       <c r="C24" t="n">
-        <v>317.9317313217982</v>
+        <v>362.4348659156472</v>
       </c>
       <c r="D24" t="n">
-        <v>168.997321660547</v>
+        <v>362.4348659156472</v>
       </c>
       <c r="E24" t="n">
-        <v>19.28114311021272</v>
+        <v>362.4348659156472</v>
       </c>
       <c r="F24" t="n">
-        <v>19.28114311021272</v>
+        <v>362.4348659156472</v>
       </c>
       <c r="G24" t="n">
-        <v>19.28114311021272</v>
+        <v>223.7040404982626</v>
       </c>
       <c r="H24" t="n">
-        <v>19.28114311021272</v>
+        <v>110.334904905842</v>
       </c>
       <c r="I24" t="n">
-        <v>19.28114311021272</v>
+        <v>20.03527576299844</v>
       </c>
       <c r="J24" t="n">
         <v>19.28114311021272</v>
       </c>
       <c r="K24" t="n">
-        <v>19.28114311021272</v>
+        <v>144.6387031680501</v>
       </c>
       <c r="L24" t="n">
-        <v>249.2442489785619</v>
+        <v>374.6018090363993</v>
       </c>
       <c r="M24" t="n">
-        <v>486.8488635328713</v>
+        <v>473.4149733950735</v>
       </c>
       <c r="N24" t="n">
-        <v>725.4530095217538</v>
+        <v>473.4149733950735</v>
       </c>
       <c r="O24" t="n">
-        <v>964.0571555106362</v>
+        <v>712.019119383956</v>
       </c>
       <c r="P24" t="n">
-        <v>964.0571555106362</v>
+        <v>894.6625969973069</v>
       </c>
       <c r="Q24" t="n">
         <v>964.0571555106362</v>
@@ -6099,19 +6099,19 @@
         <v>964.0571555106362</v>
       </c>
       <c r="U24" t="n">
-        <v>735.8335372470253</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="V24" t="n">
-        <v>735.8335372470253</v>
+        <v>946.2620019062019</v>
       </c>
       <c r="W24" t="n">
-        <v>492.3847606029253</v>
+        <v>946.2620019062019</v>
       </c>
       <c r="X24" t="n">
-        <v>492.3847606029253</v>
+        <v>738.4105017006691</v>
       </c>
       <c r="Y24" t="n">
-        <v>492.3847606029253</v>
+        <v>530.6502029357152</v>
       </c>
     </row>
     <row r="25">
@@ -6121,13 +6121,13 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>19.28114311021272</v>
+        <v>66.78106667958005</v>
       </c>
       <c r="C25" t="n">
-        <v>19.28114311021272</v>
+        <v>66.78106667958005</v>
       </c>
       <c r="D25" t="n">
-        <v>19.28114311021272</v>
+        <v>66.78106667958005</v>
       </c>
       <c r="E25" t="n">
         <v>19.28114311021272</v>
@@ -6166,31 +6166,31 @@
         <v>153.8134336004835</v>
       </c>
       <c r="Q25" t="n">
-        <v>153.8134336004835</v>
+        <v>66.78106667958005</v>
       </c>
       <c r="R25" t="n">
-        <v>153.8134336004835</v>
+        <v>66.78106667958005</v>
       </c>
       <c r="S25" t="n">
-        <v>19.28114311021272</v>
+        <v>66.78106667958005</v>
       </c>
       <c r="T25" t="n">
-        <v>19.28114311021272</v>
+        <v>66.78106667958005</v>
       </c>
       <c r="U25" t="n">
-        <v>19.28114311021272</v>
+        <v>66.78106667958005</v>
       </c>
       <c r="V25" t="n">
-        <v>19.28114311021272</v>
+        <v>66.78106667958005</v>
       </c>
       <c r="W25" t="n">
-        <v>19.28114311021272</v>
+        <v>66.78106667958005</v>
       </c>
       <c r="X25" t="n">
-        <v>19.28114311021272</v>
+        <v>66.78106667958005</v>
       </c>
       <c r="Y25" t="n">
-        <v>19.28114311021272</v>
+        <v>66.78106667958005</v>
       </c>
     </row>
     <row r="26">
@@ -6200,28 +6200,28 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>728.6161971483371</v>
+        <v>720.6083788665362</v>
       </c>
       <c r="C26" t="n">
-        <v>728.6161971483371</v>
+        <v>720.6083788665362</v>
       </c>
       <c r="D26" t="n">
-        <v>728.6161971483371</v>
+        <v>477.1596022224361</v>
       </c>
       <c r="E26" t="n">
-        <v>728.6161971483371</v>
+        <v>477.1596022224361</v>
       </c>
       <c r="F26" t="n">
-        <v>485.167420504237</v>
+        <v>477.1596022224361</v>
       </c>
       <c r="G26" t="n">
-        <v>241.7186438601369</v>
+        <v>262.7299197543128</v>
       </c>
       <c r="H26" t="n">
-        <v>241.7186438601369</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="I26" t="n">
-        <v>31.35113235729608</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="J26" t="n">
         <v>19.28114311021272</v>
@@ -6245,31 +6245,31 @@
         <v>964.0571555106362</v>
       </c>
       <c r="Q26" t="n">
-        <v>953.9655401424092</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="R26" t="n">
-        <v>953.9655401424092</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="S26" t="n">
-        <v>953.9655401424092</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="T26" t="n">
-        <v>728.6161971483371</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="U26" t="n">
-        <v>728.6161971483371</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="V26" t="n">
-        <v>728.6161971483371</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="W26" t="n">
-        <v>728.6161971483371</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="X26" t="n">
-        <v>728.6161971483371</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="Y26" t="n">
-        <v>728.6161971483371</v>
+        <v>964.0571555106362</v>
       </c>
     </row>
     <row r="27">
@@ -6279,25 +6279,25 @@
         </is>
       </c>
       <c r="B27" t="n">
-        <v>139.8759037590757</v>
+        <v>735.8335372470253</v>
       </c>
       <c r="C27" t="n">
-        <v>19.28114311021272</v>
+        <v>735.8335372470253</v>
       </c>
       <c r="D27" t="n">
-        <v>19.28114311021272</v>
+        <v>586.8991275857741</v>
       </c>
       <c r="E27" t="n">
-        <v>19.28114311021272</v>
+        <v>427.6616725803186</v>
       </c>
       <c r="F27" t="n">
-        <v>19.28114311021272</v>
+        <v>281.1271146072036</v>
       </c>
       <c r="G27" t="n">
-        <v>19.28114311021272</v>
+        <v>142.3962891898191</v>
       </c>
       <c r="H27" t="n">
-        <v>19.28114311021272</v>
+        <v>109.5807722530562</v>
       </c>
       <c r="I27" t="n">
         <v>19.28114311021272</v>
@@ -6306,22 +6306,22 @@
         <v>19.28114311021272</v>
       </c>
       <c r="K27" t="n">
-        <v>19.28114311021272</v>
+        <v>144.6387031680501</v>
       </c>
       <c r="L27" t="n">
-        <v>249.2442489785619</v>
+        <v>144.6387031680501</v>
       </c>
       <c r="M27" t="n">
-        <v>487.8483949674443</v>
+        <v>383.2428491569326</v>
       </c>
       <c r="N27" t="n">
-        <v>725.4530095217538</v>
+        <v>621.8469951458151</v>
       </c>
       <c r="O27" t="n">
-        <v>964.0571555106362</v>
+        <v>712.019119383956</v>
       </c>
       <c r="P27" t="n">
-        <v>964.0571555106362</v>
+        <v>894.6625969973069</v>
       </c>
       <c r="Q27" t="n">
         <v>964.0571555106362</v>
@@ -6330,25 +6330,25 @@
         <v>964.0571555106362</v>
       </c>
       <c r="S27" t="n">
-        <v>790.6398109613051</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="T27" t="n">
-        <v>790.6398109613051</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="U27" t="n">
-        <v>790.6398109613051</v>
+        <v>735.8335372470253</v>
       </c>
       <c r="V27" t="n">
-        <v>555.4877027295624</v>
+        <v>735.8335372470253</v>
       </c>
       <c r="W27" t="n">
-        <v>555.4877027295624</v>
+        <v>735.8335372470253</v>
       </c>
       <c r="X27" t="n">
-        <v>347.6362025240296</v>
+        <v>735.8335372470253</v>
       </c>
       <c r="Y27" t="n">
-        <v>139.8759037590757</v>
+        <v>735.8335372470253</v>
       </c>
     </row>
     <row r="28">
@@ -6424,10 +6424,10 @@
         <v>153.8134336004835</v>
       </c>
       <c r="X28" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="Y28" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
     </row>
     <row r="29">
@@ -6437,19 +6437,19 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>477.1596022224361</v>
+        <v>710.516763498309</v>
       </c>
       <c r="C29" t="n">
+        <v>710.516763498309</v>
+      </c>
+      <c r="D29" t="n">
+        <v>710.516763498309</v>
+      </c>
+      <c r="E29" t="n">
+        <v>506.1786963984129</v>
+      </c>
+      <c r="F29" t="n">
         <v>262.7299197543128</v>
-      </c>
-      <c r="D29" t="n">
-        <v>262.7299197543128</v>
-      </c>
-      <c r="E29" t="n">
-        <v>262.7299197543128</v>
-      </c>
-      <c r="F29" t="n">
-        <v>19.28114311021272</v>
       </c>
       <c r="G29" t="n">
         <v>19.28114311021272</v>
@@ -6482,31 +6482,31 @@
         <v>964.0571555106362</v>
       </c>
       <c r="Q29" t="n">
-        <v>964.0571555106362</v>
+        <v>953.9655401424092</v>
       </c>
       <c r="R29" t="n">
-        <v>964.0571555106362</v>
+        <v>953.9655401424092</v>
       </c>
       <c r="S29" t="n">
-        <v>964.0571555106362</v>
+        <v>953.9655401424092</v>
       </c>
       <c r="T29" t="n">
-        <v>964.0571555106362</v>
+        <v>953.9655401424092</v>
       </c>
       <c r="U29" t="n">
-        <v>964.0571555106362</v>
+        <v>953.9655401424092</v>
       </c>
       <c r="V29" t="n">
-        <v>964.0571555106362</v>
+        <v>953.9655401424092</v>
       </c>
       <c r="W29" t="n">
-        <v>964.0571555106362</v>
+        <v>953.9655401424092</v>
       </c>
       <c r="X29" t="n">
-        <v>964.0571555106362</v>
+        <v>710.516763498309</v>
       </c>
       <c r="Y29" t="n">
-        <v>720.6083788665362</v>
+        <v>710.516763498309</v>
       </c>
     </row>
     <row r="30">
@@ -6516,19 +6516,19 @@
         </is>
       </c>
       <c r="B30" t="n">
-        <v>352.9294114938717</v>
+        <v>193.7341723913397</v>
       </c>
       <c r="C30" t="n">
-        <v>178.4763822127447</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="D30" t="n">
-        <v>178.4763822127447</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="E30" t="n">
-        <v>178.4763822127447</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="F30" t="n">
-        <v>31.94182423962963</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="G30" t="n">
         <v>19.28114311021272</v>
@@ -6564,28 +6564,28 @@
         <v>964.0571555106362</v>
       </c>
       <c r="R30" t="n">
-        <v>964.0571555106362</v>
+        <v>862.8876260635219</v>
       </c>
       <c r="S30" t="n">
-        <v>964.0571555106362</v>
+        <v>689.4702815141908</v>
       </c>
       <c r="T30" t="n">
-        <v>964.0571555106362</v>
+        <v>590.1731276750188</v>
       </c>
       <c r="U30" t="n">
-        <v>964.0571555106362</v>
+        <v>361.9495094114078</v>
       </c>
       <c r="V30" t="n">
-        <v>728.9050472788936</v>
+        <v>361.9495094114078</v>
       </c>
       <c r="W30" t="n">
-        <v>728.9050472788936</v>
+        <v>361.9495094114078</v>
       </c>
       <c r="X30" t="n">
-        <v>728.9050472788936</v>
+        <v>361.9495094114078</v>
       </c>
       <c r="Y30" t="n">
-        <v>521.1447485139397</v>
+        <v>361.9495094114078</v>
       </c>
     </row>
     <row r="31">
@@ -6664,7 +6664,7 @@
         <v>153.8134336004835</v>
       </c>
       <c r="Y31" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
     </row>
     <row r="32">
@@ -6674,22 +6674,22 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>720.6083788665362</v>
+        <v>749.627473042513</v>
       </c>
       <c r="C32" t="n">
-        <v>720.6083788665362</v>
+        <v>506.1786963984129</v>
       </c>
       <c r="D32" t="n">
-        <v>720.6083788665362</v>
+        <v>262.7299197543128</v>
       </c>
       <c r="E32" t="n">
-        <v>720.6083788665362</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="F32" t="n">
-        <v>477.1596022224361</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="G32" t="n">
-        <v>233.7108255783361</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="H32" t="n">
         <v>19.28114311021272</v>
@@ -6719,31 +6719,31 @@
         <v>964.0571555106362</v>
       </c>
       <c r="Q32" t="n">
-        <v>964.0571555106362</v>
+        <v>953.9655401424092</v>
       </c>
       <c r="R32" t="n">
-        <v>964.0571555106362</v>
+        <v>802.5825927271064</v>
       </c>
       <c r="S32" t="n">
-        <v>964.0571555106362</v>
+        <v>802.5825927271064</v>
       </c>
       <c r="T32" t="n">
-        <v>964.0571555106362</v>
+        <v>802.5825927271064</v>
       </c>
       <c r="U32" t="n">
-        <v>964.0571555106362</v>
+        <v>802.5825927271064</v>
       </c>
       <c r="V32" t="n">
-        <v>964.0571555106362</v>
+        <v>802.5825927271064</v>
       </c>
       <c r="W32" t="n">
-        <v>720.6083788665362</v>
+        <v>802.5825927271064</v>
       </c>
       <c r="X32" t="n">
-        <v>720.6083788665362</v>
+        <v>802.5825927271064</v>
       </c>
       <c r="Y32" t="n">
-        <v>720.6083788665362</v>
+        <v>802.5825927271064</v>
       </c>
     </row>
     <row r="33">
@@ -6753,25 +6753,25 @@
         </is>
       </c>
       <c r="B33" t="n">
-        <v>19.28114311021272</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="C33" t="n">
-        <v>19.28114311021272</v>
+        <v>789.6041262295092</v>
       </c>
       <c r="D33" t="n">
-        <v>19.28114311021272</v>
+        <v>667.4527462414319</v>
       </c>
       <c r="E33" t="n">
-        <v>19.28114311021272</v>
+        <v>508.2152912359765</v>
       </c>
       <c r="F33" t="n">
-        <v>19.28114311021272</v>
+        <v>361.6807332628614</v>
       </c>
       <c r="G33" t="n">
-        <v>19.28114311021272</v>
+        <v>222.9499078454769</v>
       </c>
       <c r="H33" t="n">
-        <v>19.28114311021272</v>
+        <v>109.5807722530562</v>
       </c>
       <c r="I33" t="n">
         <v>19.28114311021272</v>
@@ -6780,19 +6780,19 @@
         <v>19.28114311021272</v>
       </c>
       <c r="K33" t="n">
-        <v>19.28114311021272</v>
+        <v>144.6387031680501</v>
       </c>
       <c r="L33" t="n">
-        <v>249.2442489785619</v>
+        <v>374.6018090363993</v>
       </c>
       <c r="M33" t="n">
-        <v>487.8483949674443</v>
+        <v>542.809531908403</v>
       </c>
       <c r="N33" t="n">
-        <v>726.4525409563269</v>
+        <v>781.4136778972854</v>
       </c>
       <c r="O33" t="n">
-        <v>964.0571555106362</v>
+        <v>781.4136778972854</v>
       </c>
       <c r="P33" t="n">
         <v>964.0571555106362</v>
@@ -6810,19 +6810,19 @@
         <v>964.0571555106362</v>
       </c>
       <c r="U33" t="n">
-        <v>913.4938269565423</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="V33" t="n">
-        <v>678.3417187247995</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="W33" t="n">
-        <v>434.8929420806995</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="X33" t="n">
-        <v>227.0414418751666</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="Y33" t="n">
-        <v>19.28114311021272</v>
+        <v>964.0571555106362</v>
       </c>
     </row>
     <row r="34">
@@ -6832,25 +6832,25 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>964.0571555106362</v>
+        <v>829.5248650203655</v>
       </c>
       <c r="C34" t="n">
-        <v>964.0571555106362</v>
+        <v>829.5248650203655</v>
       </c>
       <c r="D34" t="n">
-        <v>964.0571555106362</v>
+        <v>829.5248650203655</v>
       </c>
       <c r="E34" t="n">
-        <v>964.0571555106362</v>
+        <v>829.5248650203655</v>
       </c>
       <c r="F34" t="n">
-        <v>964.0571555106362</v>
+        <v>829.5248650203655</v>
       </c>
       <c r="G34" t="n">
-        <v>964.0571555106362</v>
+        <v>829.5248650203655</v>
       </c>
       <c r="H34" t="n">
-        <v>964.0571555106362</v>
+        <v>829.5248650203655</v>
       </c>
       <c r="I34" t="n">
         <v>829.5248650203655</v>
@@ -6880,28 +6880,28 @@
         <v>964.0571555106362</v>
       </c>
       <c r="R34" t="n">
-        <v>964.0571555106362</v>
+        <v>829.5248650203655</v>
       </c>
       <c r="S34" t="n">
-        <v>964.0571555106362</v>
+        <v>829.5248650203655</v>
       </c>
       <c r="T34" t="n">
-        <v>964.0571555106362</v>
+        <v>829.5248650203655</v>
       </c>
       <c r="U34" t="n">
-        <v>964.0571555106362</v>
+        <v>829.5248650203655</v>
       </c>
       <c r="V34" t="n">
-        <v>964.0571555106362</v>
+        <v>829.5248650203655</v>
       </c>
       <c r="W34" t="n">
-        <v>964.0571555106362</v>
+        <v>829.5248650203655</v>
       </c>
       <c r="X34" t="n">
-        <v>964.0571555106362</v>
+        <v>829.5248650203655</v>
       </c>
       <c r="Y34" t="n">
-        <v>964.0571555106362</v>
+        <v>829.5248650203655</v>
       </c>
     </row>
     <row r="35">
@@ -6911,28 +6911,28 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>475.3318284112885</v>
+        <v>761.6974622895962</v>
       </c>
       <c r="C35" t="n">
-        <v>475.3318284112885</v>
+        <v>518.2486856454962</v>
       </c>
       <c r="D35" t="n">
-        <v>475.3318284112885</v>
+        <v>518.2486856454962</v>
       </c>
       <c r="E35" t="n">
-        <v>475.3318284112885</v>
+        <v>274.7999090013961</v>
       </c>
       <c r="F35" t="n">
-        <v>475.3318284112885</v>
+        <v>274.7999090013961</v>
       </c>
       <c r="G35" t="n">
-        <v>475.3318284112885</v>
+        <v>31.35113235729608</v>
       </c>
       <c r="H35" t="n">
-        <v>231.8830517671884</v>
+        <v>31.35113235729608</v>
       </c>
       <c r="I35" t="n">
-        <v>19.28114311021272</v>
+        <v>31.35113235729608</v>
       </c>
       <c r="J35" t="n">
         <v>19.28114311021272</v>
@@ -6962,25 +6962,25 @@
         <v>802.5825927271064</v>
       </c>
       <c r="S35" t="n">
-        <v>802.5825927271064</v>
+        <v>761.6974622895962</v>
       </c>
       <c r="T35" t="n">
-        <v>577.2332497330343</v>
+        <v>761.6974622895962</v>
       </c>
       <c r="U35" t="n">
-        <v>475.3318284112885</v>
+        <v>761.6974622895962</v>
       </c>
       <c r="V35" t="n">
-        <v>475.3318284112885</v>
+        <v>761.6974622895962</v>
       </c>
       <c r="W35" t="n">
-        <v>475.3318284112885</v>
+        <v>761.6974622895962</v>
       </c>
       <c r="X35" t="n">
-        <v>475.3318284112885</v>
+        <v>761.6974622895962</v>
       </c>
       <c r="Y35" t="n">
-        <v>475.3318284112885</v>
+        <v>761.6974622895962</v>
       </c>
     </row>
     <row r="36">
@@ -6990,43 +6990,43 @@
         </is>
       </c>
       <c r="B36" t="n">
-        <v>19.28114311021272</v>
+        <v>194.4883050441255</v>
       </c>
       <c r="C36" t="n">
-        <v>19.28114311021272</v>
+        <v>20.03527576299844</v>
       </c>
       <c r="D36" t="n">
-        <v>19.28114311021272</v>
+        <v>20.03527576299844</v>
       </c>
       <c r="E36" t="n">
-        <v>19.28114311021272</v>
+        <v>20.03527576299844</v>
       </c>
       <c r="F36" t="n">
-        <v>19.28114311021272</v>
+        <v>20.03527576299844</v>
       </c>
       <c r="G36" t="n">
-        <v>19.28114311021272</v>
+        <v>20.03527576299844</v>
       </c>
       <c r="H36" t="n">
-        <v>19.28114311021272</v>
+        <v>20.03527576299844</v>
       </c>
       <c r="I36" t="n">
-        <v>19.28114311021272</v>
+        <v>20.03527576299844</v>
       </c>
       <c r="J36" t="n">
         <v>19.28114311021272</v>
       </c>
       <c r="K36" t="n">
-        <v>144.6387031680501</v>
+        <v>74.24228005117135</v>
       </c>
       <c r="L36" t="n">
-        <v>374.6018090363993</v>
+        <v>304.2053859195205</v>
       </c>
       <c r="M36" t="n">
-        <v>374.6018090363993</v>
+        <v>542.809531908403</v>
       </c>
       <c r="N36" t="n">
-        <v>542.809531908403</v>
+        <v>781.4136778972854</v>
       </c>
       <c r="O36" t="n">
         <v>781.4136778972854</v>
@@ -7038,28 +7038,28 @@
         <v>964.0571555106362</v>
       </c>
       <c r="R36" t="n">
-        <v>964.0571555106362</v>
+        <v>862.8876260635219</v>
       </c>
       <c r="S36" t="n">
-        <v>964.0571555106362</v>
+        <v>813.9127174732475</v>
       </c>
       <c r="T36" t="n">
-        <v>964.0571555106362</v>
+        <v>813.9127174732475</v>
       </c>
       <c r="U36" t="n">
-        <v>913.4938269565423</v>
+        <v>813.9127174732475</v>
       </c>
       <c r="V36" t="n">
-        <v>678.3417187247995</v>
+        <v>813.9127174732475</v>
       </c>
       <c r="W36" t="n">
-        <v>434.8929420806995</v>
+        <v>570.4639408291474</v>
       </c>
       <c r="X36" t="n">
-        <v>227.0414418751666</v>
+        <v>570.4639408291474</v>
       </c>
       <c r="Y36" t="n">
-        <v>19.28114311021272</v>
+        <v>362.7036420641935</v>
       </c>
     </row>
     <row r="37">
@@ -7069,76 +7069,76 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>19.28114311021272</v>
+        <v>829.5248650203655</v>
       </c>
       <c r="C37" t="n">
-        <v>19.28114311021272</v>
+        <v>829.5248650203655</v>
       </c>
       <c r="D37" t="n">
-        <v>19.28114311021272</v>
+        <v>829.5248650203655</v>
       </c>
       <c r="E37" t="n">
-        <v>19.28114311021272</v>
+        <v>829.5248650203655</v>
       </c>
       <c r="F37" t="n">
-        <v>19.28114311021272</v>
+        <v>829.5248650203655</v>
       </c>
       <c r="G37" t="n">
-        <v>19.28114311021272</v>
+        <v>829.5248650203655</v>
       </c>
       <c r="H37" t="n">
-        <v>19.28114311021272</v>
+        <v>829.5248650203655</v>
       </c>
       <c r="I37" t="n">
-        <v>19.28114311021272</v>
+        <v>829.5248650203655</v>
       </c>
       <c r="J37" t="n">
-        <v>19.28114311021272</v>
+        <v>829.5248650203655</v>
       </c>
       <c r="K37" t="n">
-        <v>19.28114311021272</v>
+        <v>829.5248650203655</v>
       </c>
       <c r="L37" t="n">
-        <v>46.5952681179257</v>
+        <v>856.8389900280785</v>
       </c>
       <c r="M37" t="n">
-        <v>85.78330631014788</v>
+        <v>896.0270282203006</v>
       </c>
       <c r="N37" t="n">
-        <v>129.4741569655842</v>
+        <v>939.7178788757369</v>
       </c>
       <c r="O37" t="n">
-        <v>153.8134336004835</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="P37" t="n">
-        <v>153.8134336004835</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="Q37" t="n">
-        <v>153.8134336004835</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="R37" t="n">
-        <v>153.8134336004835</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="S37" t="n">
-        <v>153.8134336004835</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="T37" t="n">
-        <v>153.8134336004835</v>
+        <v>829.5248650203655</v>
       </c>
       <c r="U37" t="n">
-        <v>153.8134336004835</v>
+        <v>829.5248650203655</v>
       </c>
       <c r="V37" t="n">
-        <v>153.8134336004835</v>
+        <v>829.5248650203655</v>
       </c>
       <c r="W37" t="n">
-        <v>19.28114311021272</v>
+        <v>829.5248650203655</v>
       </c>
       <c r="X37" t="n">
-        <v>19.28114311021272</v>
+        <v>829.5248650203655</v>
       </c>
       <c r="Y37" t="n">
-        <v>19.28114311021272</v>
+        <v>829.5248650203655</v>
       </c>
     </row>
     <row r="38">
@@ -7151,25 +7151,25 @@
         <v>720.6083788665362</v>
       </c>
       <c r="C38" t="n">
+        <v>720.6083788665362</v>
+      </c>
+      <c r="D38" t="n">
+        <v>720.6083788665362</v>
+      </c>
+      <c r="E38" t="n">
+        <v>720.6083788665362</v>
+      </c>
+      <c r="F38" t="n">
+        <v>720.6083788665362</v>
+      </c>
+      <c r="G38" t="n">
         <v>477.1596022224361</v>
       </c>
-      <c r="D38" t="n">
-        <v>477.1596022224361</v>
-      </c>
-      <c r="E38" t="n">
-        <v>477.1596022224361</v>
-      </c>
-      <c r="F38" t="n">
+      <c r="H38" t="n">
         <v>233.7108255783361</v>
       </c>
-      <c r="G38" t="n">
-        <v>19.28114311021272</v>
-      </c>
-      <c r="H38" t="n">
-        <v>19.28114311021272</v>
-      </c>
       <c r="I38" t="n">
-        <v>19.28114311021272</v>
+        <v>31.35113235729608</v>
       </c>
       <c r="J38" t="n">
         <v>19.28114311021272</v>
@@ -7214,10 +7214,10 @@
         <v>964.0571555106362</v>
       </c>
       <c r="X38" t="n">
-        <v>964.0571555106362</v>
+        <v>720.6083788665362</v>
       </c>
       <c r="Y38" t="n">
-        <v>964.0571555106362</v>
+        <v>720.6083788665362</v>
       </c>
     </row>
     <row r="39">
@@ -7227,46 +7227,46 @@
         </is>
       </c>
       <c r="B39" t="n">
-        <v>20.03527576299844</v>
+        <v>90.64333416851576</v>
       </c>
       <c r="C39" t="n">
-        <v>20.03527576299844</v>
+        <v>90.64333416851576</v>
       </c>
       <c r="D39" t="n">
-        <v>20.03527576299844</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="E39" t="n">
-        <v>20.03527576299844</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="F39" t="n">
-        <v>20.03527576299844</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="G39" t="n">
-        <v>20.03527576299844</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="H39" t="n">
-        <v>20.03527576299844</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="I39" t="n">
-        <v>20.03527576299844</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="J39" t="n">
         <v>19.28114311021272</v>
       </c>
       <c r="K39" t="n">
-        <v>19.28114311021272</v>
+        <v>144.6387031680501</v>
       </c>
       <c r="L39" t="n">
-        <v>249.2442489785619</v>
+        <v>144.6387031680501</v>
       </c>
       <c r="M39" t="n">
-        <v>486.8488635328713</v>
+        <v>383.2428491569326</v>
       </c>
       <c r="N39" t="n">
-        <v>725.4530095217538</v>
+        <v>621.8469951458151</v>
       </c>
       <c r="O39" t="n">
-        <v>964.0571555106362</v>
+        <v>781.4136778972854</v>
       </c>
       <c r="P39" t="n">
         <v>964.0571555106362</v>
@@ -7275,28 +7275,28 @@
         <v>964.0571555106362</v>
       </c>
       <c r="R39" t="n">
-        <v>862.8876260635219</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="S39" t="n">
-        <v>862.8876260635219</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="T39" t="n">
-        <v>862.8876260635219</v>
+        <v>761.8705608694022</v>
       </c>
       <c r="U39" t="n">
-        <v>634.6640077999109</v>
+        <v>533.6469426057913</v>
       </c>
       <c r="V39" t="n">
-        <v>399.5118995681682</v>
+        <v>298.4948343740486</v>
       </c>
       <c r="W39" t="n">
-        <v>156.0631229240681</v>
+        <v>298.4948343740486</v>
       </c>
       <c r="X39" t="n">
-        <v>20.03527576299844</v>
+        <v>90.64333416851576</v>
       </c>
       <c r="Y39" t="n">
-        <v>20.03527576299844</v>
+        <v>90.64333416851576</v>
       </c>
     </row>
     <row r="40">
@@ -7306,76 +7306,76 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>19.28114311021272</v>
+        <v>829.5248650203655</v>
       </c>
       <c r="C40" t="n">
-        <v>19.28114311021272</v>
+        <v>829.5248650203655</v>
       </c>
       <c r="D40" t="n">
-        <v>19.28114311021272</v>
+        <v>829.5248650203655</v>
       </c>
       <c r="E40" t="n">
-        <v>19.28114311021272</v>
+        <v>829.5248650203655</v>
       </c>
       <c r="F40" t="n">
-        <v>19.28114311021272</v>
+        <v>829.5248650203655</v>
       </c>
       <c r="G40" t="n">
-        <v>19.28114311021272</v>
+        <v>829.5248650203655</v>
       </c>
       <c r="H40" t="n">
-        <v>19.28114311021272</v>
+        <v>829.5248650203655</v>
       </c>
       <c r="I40" t="n">
-        <v>19.28114311021272</v>
+        <v>829.5248650203655</v>
       </c>
       <c r="J40" t="n">
-        <v>19.28114311021272</v>
+        <v>829.5248650203655</v>
       </c>
       <c r="K40" t="n">
-        <v>19.28114311021272</v>
+        <v>829.5248650203655</v>
       </c>
       <c r="L40" t="n">
-        <v>46.5952681179257</v>
+        <v>856.8389900280785</v>
       </c>
       <c r="M40" t="n">
-        <v>85.78330631014788</v>
+        <v>896.0270282203006</v>
       </c>
       <c r="N40" t="n">
-        <v>129.4741569655842</v>
+        <v>939.7178788757369</v>
       </c>
       <c r="O40" t="n">
-        <v>153.8134336004835</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="P40" t="n">
-        <v>153.8134336004835</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="Q40" t="n">
-        <v>153.8134336004835</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="R40" t="n">
-        <v>153.8134336004835</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="S40" t="n">
-        <v>153.8134336004835</v>
+        <v>829.5248650203655</v>
       </c>
       <c r="T40" t="n">
-        <v>19.28114311021272</v>
+        <v>829.5248650203655</v>
       </c>
       <c r="U40" t="n">
-        <v>19.28114311021272</v>
+        <v>829.5248650203655</v>
       </c>
       <c r="V40" t="n">
-        <v>19.28114311021272</v>
+        <v>829.5248650203655</v>
       </c>
       <c r="W40" t="n">
-        <v>19.28114311021272</v>
+        <v>829.5248650203655</v>
       </c>
       <c r="X40" t="n">
-        <v>19.28114311021272</v>
+        <v>829.5248650203655</v>
       </c>
       <c r="Y40" t="n">
-        <v>19.28114311021272</v>
+        <v>829.5248650203655</v>
       </c>
     </row>
     <row r="41">
@@ -7385,22 +7385,22 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>496.626357174339</v>
+        <v>257.7718183255803</v>
       </c>
       <c r="C41" t="n">
-        <v>496.626357174339</v>
+        <v>257.7718183255803</v>
       </c>
       <c r="D41" t="n">
-        <v>496.626357174339</v>
+        <v>257.7718183255803</v>
       </c>
       <c r="E41" t="n">
-        <v>496.626357174339</v>
+        <v>257.7718183255803</v>
       </c>
       <c r="F41" t="n">
-        <v>496.626357174339</v>
+        <v>18.91727947682168</v>
       </c>
       <c r="G41" t="n">
-        <v>257.7718183255803</v>
+        <v>18.91727947682168</v>
       </c>
       <c r="H41" t="n">
         <v>18.91727947682168</v>
@@ -7412,10 +7412,10 @@
         <v>18.91727947682168</v>
       </c>
       <c r="K41" t="n">
-        <v>104.1029673515831</v>
+        <v>121.932285387744</v>
       </c>
       <c r="L41" t="n">
-        <v>284.1788189362417</v>
+        <v>302.0081369724026</v>
       </c>
       <c r="M41" t="n">
         <v>501.1544461991459</v>
@@ -7433,28 +7433,28 @@
         <v>935.7723584728571</v>
       </c>
       <c r="R41" t="n">
-        <v>784.3894110575544</v>
+        <v>935.7723584728571</v>
       </c>
       <c r="S41" t="n">
-        <v>735.4808960230977</v>
+        <v>935.7723584728571</v>
       </c>
       <c r="T41" t="n">
-        <v>735.4808960230977</v>
+        <v>935.7723584728571</v>
       </c>
       <c r="U41" t="n">
-        <v>735.4808960230977</v>
+        <v>935.7723584728571</v>
       </c>
       <c r="V41" t="n">
-        <v>735.4808960230977</v>
+        <v>935.7723584728571</v>
       </c>
       <c r="W41" t="n">
-        <v>735.4808960230977</v>
+        <v>935.7723584728571</v>
       </c>
       <c r="X41" t="n">
         <v>735.4808960230977</v>
       </c>
       <c r="Y41" t="n">
-        <v>735.4808960230977</v>
+        <v>496.626357174339</v>
       </c>
     </row>
     <row r="42">
@@ -7464,13 +7464,13 @@
         </is>
       </c>
       <c r="B42" t="n">
-        <v>18.91727947682168</v>
+        <v>331.0337992073036</v>
       </c>
       <c r="C42" t="n">
-        <v>18.91727947682168</v>
+        <v>327.0891441435284</v>
       </c>
       <c r="D42" t="n">
-        <v>18.91727947682168</v>
+        <v>178.1547344822772</v>
       </c>
       <c r="E42" t="n">
         <v>18.91727947682168</v>
@@ -7494,13 +7494,13 @@
         <v>144.2748395346591</v>
       </c>
       <c r="L42" t="n">
-        <v>374.2379454030082</v>
+        <v>144.2748395346591</v>
       </c>
       <c r="M42" t="n">
-        <v>608.3392789286765</v>
+        <v>378.3761730603275</v>
       </c>
       <c r="N42" t="n">
-        <v>608.3392789286765</v>
+        <v>459.7246041887357</v>
       </c>
       <c r="O42" t="n">
         <v>693.8259377144041</v>
@@ -7515,25 +7515,25 @@
         <v>945.8639738410842</v>
       </c>
       <c r="S42" t="n">
-        <v>928.9990450264668</v>
+        <v>945.8639738410842</v>
       </c>
       <c r="T42" t="n">
-        <v>928.9990450264668</v>
+        <v>945.8639738410842</v>
       </c>
       <c r="U42" t="n">
-        <v>700.7754267628559</v>
+        <v>945.8639738410842</v>
       </c>
       <c r="V42" t="n">
-        <v>465.6233185311132</v>
+        <v>945.8639738410842</v>
       </c>
       <c r="W42" t="n">
-        <v>226.7687796823545</v>
+        <v>707.0094349923255</v>
       </c>
       <c r="X42" t="n">
-        <v>18.91727947682168</v>
+        <v>707.0094349923255</v>
       </c>
       <c r="Y42" t="n">
-        <v>18.91727947682168</v>
+        <v>499.2491362273716</v>
       </c>
     </row>
     <row r="43">
@@ -7543,76 +7543,76 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>18.91727947682168</v>
+        <v>945.8639738410842</v>
       </c>
       <c r="C43" t="n">
-        <v>18.91727947682168</v>
+        <v>945.8639738410842</v>
       </c>
       <c r="D43" t="n">
-        <v>18.91727947682168</v>
+        <v>945.8639738410842</v>
       </c>
       <c r="E43" t="n">
-        <v>18.91727947682168</v>
+        <v>945.8639738410842</v>
       </c>
       <c r="F43" t="n">
-        <v>18.91727947682168</v>
+        <v>945.8639738410842</v>
       </c>
       <c r="G43" t="n">
-        <v>18.91727947682168</v>
+        <v>945.8639738410842</v>
       </c>
       <c r="H43" t="n">
-        <v>18.91727947682168</v>
+        <v>811.3316833508135</v>
       </c>
       <c r="I43" t="n">
-        <v>18.91727947682168</v>
+        <v>811.3316833508135</v>
       </c>
       <c r="J43" t="n">
-        <v>18.91727947682168</v>
+        <v>811.3316833508135</v>
       </c>
       <c r="K43" t="n">
-        <v>18.91727947682168</v>
+        <v>811.3316833508135</v>
       </c>
       <c r="L43" t="n">
-        <v>46.23140448453466</v>
+        <v>838.6458083585264</v>
       </c>
       <c r="M43" t="n">
-        <v>85.41944267675684</v>
+        <v>877.8338465507486</v>
       </c>
       <c r="N43" t="n">
-        <v>129.1102933321932</v>
+        <v>921.5246972061849</v>
       </c>
       <c r="O43" t="n">
-        <v>153.4495699670924</v>
+        <v>945.8639738410842</v>
       </c>
       <c r="P43" t="n">
-        <v>153.4495699670924</v>
+        <v>945.8639738410842</v>
       </c>
       <c r="Q43" t="n">
-        <v>153.4495699670924</v>
+        <v>945.8639738410842</v>
       </c>
       <c r="R43" t="n">
-        <v>153.4495699670924</v>
+        <v>945.8639738410842</v>
       </c>
       <c r="S43" t="n">
-        <v>153.4495699670924</v>
+        <v>945.8639738410842</v>
       </c>
       <c r="T43" t="n">
-        <v>153.4495699670924</v>
+        <v>945.8639738410842</v>
       </c>
       <c r="U43" t="n">
-        <v>153.4495699670924</v>
+        <v>945.8639738410842</v>
       </c>
       <c r="V43" t="n">
-        <v>153.4495699670924</v>
+        <v>945.8639738410842</v>
       </c>
       <c r="W43" t="n">
-        <v>153.4495699670924</v>
+        <v>945.8639738410842</v>
       </c>
       <c r="X43" t="n">
-        <v>153.4495699670924</v>
+        <v>945.8639738410842</v>
       </c>
       <c r="Y43" t="n">
-        <v>18.91727947682168</v>
+        <v>945.8639738410842</v>
       </c>
     </row>
     <row r="44">
@@ -7634,10 +7634,10 @@
         <v>68.2764642733967</v>
       </c>
       <c r="F44" t="n">
-        <v>68.2764642733967</v>
+        <v>28.29275017052741</v>
       </c>
       <c r="G44" t="n">
-        <v>28.29275017052741</v>
+        <v>3.166710156947247</v>
       </c>
       <c r="H44" t="n">
         <v>3.166710156947247</v>
@@ -7649,19 +7649,19 @@
         <v>3.166710156947247</v>
       </c>
       <c r="K44" t="n">
-        <v>42.35474834916943</v>
+        <v>3.166710156947247</v>
       </c>
       <c r="L44" t="n">
-        <v>81.54278654139161</v>
+        <v>3.166710156947247</v>
       </c>
       <c r="M44" t="n">
+        <v>40.77139327069581</v>
+      </c>
+      <c r="N44" t="n">
+        <v>79.95943146291799</v>
+      </c>
+      <c r="O44" t="n">
         <v>119.1474696551402</v>
-      </c>
-      <c r="N44" t="n">
-        <v>158.3355078473624</v>
-      </c>
-      <c r="O44" t="n">
-        <v>158.3355078473624</v>
       </c>
       <c r="P44" t="n">
         <v>158.3355078473624</v>
@@ -7670,13 +7670,13 @@
         <v>148.2438924791353</v>
       </c>
       <c r="R44" t="n">
+        <v>148.2438924791353</v>
+      </c>
+      <c r="S44" t="n">
         <v>108.260178376266</v>
       </c>
-      <c r="S44" t="n">
-        <v>68.2764642733967</v>
-      </c>
       <c r="T44" t="n">
-        <v>68.2764642733967</v>
+        <v>108.260178376266</v>
       </c>
       <c r="U44" t="n">
         <v>68.2764642733967</v>
@@ -7728,19 +7728,19 @@
         <v>3.166710156947247</v>
       </c>
       <c r="K45" t="n">
-        <v>40.77139327069581</v>
+        <v>3.166710156947247</v>
       </c>
       <c r="L45" t="n">
-        <v>79.95943146291799</v>
+        <v>42.35474834916943</v>
       </c>
       <c r="M45" t="n">
-        <v>119.1474696551402</v>
+        <v>81.54278654139161</v>
       </c>
       <c r="N45" t="n">
-        <v>158.3355078473624</v>
+        <v>120.7308247336138</v>
       </c>
       <c r="O45" t="n">
-        <v>158.3355078473624</v>
+        <v>120.7308247336138</v>
       </c>
       <c r="P45" t="n">
         <v>158.3355078473624</v>
@@ -7755,16 +7755,16 @@
         <v>158.3355078473624</v>
       </c>
       <c r="T45" t="n">
+        <v>158.3355078473624</v>
+      </c>
+      <c r="U45" t="n">
         <v>118.3517937444931</v>
       </c>
-      <c r="U45" t="n">
-        <v>83.13413836268582</v>
-      </c>
       <c r="V45" t="n">
-        <v>43.15042425981653</v>
+        <v>78.36807964162378</v>
       </c>
       <c r="W45" t="n">
-        <v>3.166710156947247</v>
+        <v>38.38436553875449</v>
       </c>
       <c r="X45" t="n">
         <v>3.166710156947247</v>
@@ -7780,16 +7780,16 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>3.166710156947247</v>
+        <v>83.13413836268582</v>
       </c>
       <c r="C46" t="n">
-        <v>3.166710156947247</v>
+        <v>83.13413836268582</v>
       </c>
       <c r="D46" t="n">
-        <v>3.166710156947247</v>
+        <v>83.13413836268582</v>
       </c>
       <c r="E46" t="n">
-        <v>3.166710156947247</v>
+        <v>43.15042425981653</v>
       </c>
       <c r="F46" t="n">
         <v>3.166710156947247</v>
@@ -7822,13 +7822,13 @@
         <v>133.1961881840039</v>
       </c>
       <c r="P46" t="n">
-        <v>133.1961881840039</v>
+        <v>130.4472581485427</v>
       </c>
       <c r="Q46" t="n">
-        <v>123.1178524655551</v>
+        <v>130.4472581485427</v>
       </c>
       <c r="R46" t="n">
-        <v>123.1178524655551</v>
+        <v>130.4472581485427</v>
       </c>
       <c r="S46" t="n">
         <v>123.1178524655551</v>
@@ -7837,19 +7837,19 @@
         <v>123.1178524655551</v>
       </c>
       <c r="U46" t="n">
+        <v>123.1178524655551</v>
+      </c>
+      <c r="V46" t="n">
+        <v>123.1178524655551</v>
+      </c>
+      <c r="W46" t="n">
         <v>83.13413836268582</v>
       </c>
-      <c r="V46" t="n">
-        <v>43.15042425981653</v>
-      </c>
-      <c r="W46" t="n">
-        <v>3.166710156947247</v>
-      </c>
       <c r="X46" t="n">
-        <v>3.166710156947247</v>
+        <v>83.13413836268582</v>
       </c>
       <c r="Y46" t="n">
-        <v>3.166710156947247</v>
+        <v>83.13413836268582</v>
       </c>
     </row>
   </sheetData>
@@ -8058,13 +8058,13 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K3" t="n">
-        <v>177.4253159361996</v>
+        <v>137.841438974359</v>
       </c>
       <c r="L3" t="n">
         <v>178.1382567417148</v>
       </c>
       <c r="M3" t="n">
-        <v>180.1185623197441</v>
+        <v>181.7179108838589</v>
       </c>
       <c r="N3" t="n">
         <v>131.3417120833333</v>
@@ -8073,7 +8073,7 @@
         <v>142.5962444444444</v>
       </c>
       <c r="P3" t="n">
-        <v>133.9744074143302</v>
+        <v>171.9589358120561</v>
       </c>
       <c r="Q3" t="n">
         <v>179.5656510478621</v>
@@ -8295,16 +8295,16 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K6" t="n">
-        <v>137.841438974359</v>
+        <v>177.4253159361996</v>
       </c>
       <c r="L6" t="n">
         <v>178.1382567417148</v>
       </c>
       <c r="M6" t="n">
-        <v>181.7179108838589</v>
+        <v>180.1185623197441</v>
       </c>
       <c r="N6" t="n">
-        <v>169.3262404810591</v>
+        <v>131.3417120833333</v>
       </c>
       <c r="O6" t="n">
         <v>142.5962444444444</v>
@@ -8456,16 +8456,16 @@
         <v>259.6737280068211</v>
       </c>
       <c r="L8" t="n">
-        <v>275.3502919318278</v>
+        <v>235.7664149699872</v>
       </c>
       <c r="M8" t="n">
-        <v>268.3307616249986</v>
+        <v>230.3462332272727</v>
       </c>
       <c r="N8" t="n">
-        <v>229.4130635965909</v>
+        <v>267.3975919943167</v>
       </c>
       <c r="O8" t="n">
-        <v>230.0982114216867</v>
+        <v>269.6820883835273</v>
       </c>
       <c r="P8" t="n">
         <v>270.8168727171101</v>
@@ -8532,7 +8532,7 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K9" t="n">
-        <v>177.4253159361996</v>
+        <v>137.841438974359</v>
       </c>
       <c r="L9" t="n">
         <v>138.5543797798742</v>
@@ -8544,7 +8544,7 @@
         <v>169.3262404810591</v>
       </c>
       <c r="O9" t="n">
-        <v>142.5962444444444</v>
+        <v>182.180121406285</v>
       </c>
       <c r="P9" t="n">
         <v>173.5582843761708</v>
@@ -8696,10 +8696,10 @@
         <v>273.750943367713</v>
       </c>
       <c r="M11" t="n">
-        <v>230.3462332272727</v>
+        <v>269.9301101891133</v>
       </c>
       <c r="N11" t="n">
-        <v>268.9969405584315</v>
+        <v>229.4130635965909</v>
       </c>
       <c r="O11" t="n">
         <v>269.6820883835273</v>
@@ -8772,22 +8772,22 @@
         <v>177.4253159361996</v>
       </c>
       <c r="L12" t="n">
-        <v>138.5543797798742</v>
+        <v>178.1382567417148</v>
       </c>
       <c r="M12" t="n">
-        <v>142.1340339220183</v>
+        <v>181.7179108838589</v>
       </c>
       <c r="N12" t="n">
-        <v>169.3262404810591</v>
+        <v>131.3417120833333</v>
       </c>
       <c r="O12" t="n">
-        <v>182.180121406285</v>
+        <v>142.5962444444444</v>
       </c>
       <c r="P12" t="n">
-        <v>173.5582843761708</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q12" t="n">
-        <v>139.9817740860215</v>
+        <v>177.9663024837473</v>
       </c>
       <c r="R12" t="n">
         <v>45.52166981132082</v>
@@ -8933,16 +8933,16 @@
         <v>275.3502919318278</v>
       </c>
       <c r="M14" t="n">
-        <v>268.3307616249986</v>
+        <v>230.3462332272727</v>
       </c>
       <c r="N14" t="n">
         <v>229.4130635965909</v>
       </c>
       <c r="O14" t="n">
-        <v>269.6820883835273</v>
+        <v>268.0827398194126</v>
       </c>
       <c r="P14" t="n">
-        <v>231.2329957552695</v>
+        <v>270.8168727171101</v>
       </c>
       <c r="Q14" t="n">
         <v>212.3149906599047</v>
@@ -9006,25 +9006,25 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K15" t="n">
-        <v>137.841438974359</v>
+        <v>177.4253159361996</v>
       </c>
       <c r="L15" t="n">
-        <v>138.5543797798742</v>
+        <v>178.1382567417148</v>
       </c>
       <c r="M15" t="n">
-        <v>142.1340339220183</v>
+        <v>181.7179108838589</v>
       </c>
       <c r="N15" t="n">
-        <v>169.3262404810591</v>
+        <v>131.3417120833333</v>
       </c>
       <c r="O15" t="n">
-        <v>182.180121406285</v>
+        <v>142.5962444444444</v>
       </c>
       <c r="P15" t="n">
-        <v>173.5582843761708</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q15" t="n">
-        <v>179.5656510478621</v>
+        <v>177.9663024837473</v>
       </c>
       <c r="R15" t="n">
         <v>45.52166981132082</v>
@@ -9164,22 +9164,22 @@
         <v>169.0966151720738</v>
       </c>
       <c r="K17" t="n">
-        <v>264.2220234242092</v>
+        <v>220.0898510449805</v>
       </c>
       <c r="L17" t="n">
-        <v>235.7664149699872</v>
+        <v>278.1154692732874</v>
       </c>
       <c r="M17" t="n">
-        <v>274.4784056065013</v>
+        <v>230.3462332272727</v>
       </c>
       <c r="N17" t="n">
         <v>273.5452359758195</v>
       </c>
       <c r="O17" t="n">
-        <v>272.4472657249869</v>
+        <v>274.2303838009153</v>
       </c>
       <c r="P17" t="n">
-        <v>231.2329957552695</v>
+        <v>275.3651681344982</v>
       </c>
       <c r="Q17" t="n">
         <v>212.3149906599047</v>
@@ -9246,22 +9246,22 @@
         <v>181.9736113535876</v>
       </c>
       <c r="L18" t="n">
-        <v>182.6865521591028</v>
+        <v>138.5543797798742</v>
       </c>
       <c r="M18" t="n">
-        <v>186.2662063012469</v>
+        <v>184.4830882253185</v>
       </c>
       <c r="N18" t="n">
-        <v>131.3417120833333</v>
+        <v>175.4738844625619</v>
       </c>
       <c r="O18" t="n">
-        <v>142.5962444444444</v>
+        <v>186.728416823673</v>
       </c>
       <c r="P18" t="n">
         <v>133.9744074143302</v>
       </c>
       <c r="Q18" t="n">
-        <v>182.3308283893217</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R18" t="n">
         <v>45.52166981132082</v>
@@ -9480,13 +9480,13 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K21" t="n">
-        <v>264.4652370125786</v>
+        <v>137.841438974359</v>
       </c>
       <c r="L21" t="n">
-        <v>229.6373335557741</v>
+        <v>370.8403453034592</v>
       </c>
       <c r="M21" t="n">
-        <v>142.1340339220183</v>
+        <v>197.6503338623806</v>
       </c>
       <c r="N21" t="n">
         <v>372.3560009609923</v>
@@ -9498,7 +9498,7 @@
         <v>318.4627686399372</v>
       </c>
       <c r="Q21" t="n">
-        <v>210.0772877358491</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R21" t="n">
         <v>45.52166981132082</v>
@@ -9717,25 +9717,25 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K24" t="n">
-        <v>137.841438974359</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L24" t="n">
         <v>370.8403453034592</v>
       </c>
       <c r="M24" t="n">
-        <v>382.1386950879875</v>
+        <v>241.9453110519923</v>
       </c>
       <c r="N24" t="n">
-        <v>372.3560009609923</v>
+        <v>131.3417120833333</v>
       </c>
       <c r="O24" t="n">
         <v>383.6105333221035</v>
       </c>
       <c r="P24" t="n">
-        <v>133.9744074143302</v>
+        <v>318.4627686399372</v>
       </c>
       <c r="Q24" t="n">
-        <v>139.9817740860215</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R24" t="n">
         <v>45.52166981132082</v>
@@ -9954,25 +9954,25 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K27" t="n">
-        <v>137.841438974359</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L27" t="n">
-        <v>370.8403453034592</v>
+        <v>138.5543797798742</v>
       </c>
       <c r="M27" t="n">
         <v>383.1483227996774</v>
       </c>
       <c r="N27" t="n">
-        <v>371.3463732493024</v>
+        <v>372.3560009609923</v>
       </c>
       <c r="O27" t="n">
-        <v>383.6105333221035</v>
+        <v>233.6791982203443</v>
       </c>
       <c r="P27" t="n">
-        <v>133.9744074143302</v>
+        <v>318.4627686399372</v>
       </c>
       <c r="Q27" t="n">
-        <v>139.9817740860215</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R27" t="n">
         <v>45.52166981132082</v>
@@ -10428,22 +10428,22 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K33" t="n">
-        <v>137.841438974359</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L33" t="n">
         <v>370.8403453034592</v>
       </c>
       <c r="M33" t="n">
-        <v>383.1483227996774</v>
+        <v>312.04082470182</v>
       </c>
       <c r="N33" t="n">
         <v>372.3560009609923</v>
       </c>
       <c r="O33" t="n">
-        <v>382.6009056104135</v>
+        <v>142.5962444444444</v>
       </c>
       <c r="P33" t="n">
-        <v>133.9744074143302</v>
+        <v>318.4627686399372</v>
       </c>
       <c r="Q33" t="n">
         <v>139.9817740860215</v>
@@ -10665,19 +10665,19 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K36" t="n">
-        <v>264.4652370125786</v>
+        <v>193.3577389147212</v>
       </c>
       <c r="L36" t="n">
         <v>370.8403453034592</v>
       </c>
       <c r="M36" t="n">
-        <v>142.1340339220183</v>
+        <v>383.1483227996774</v>
       </c>
       <c r="N36" t="n">
-        <v>301.248502863135</v>
+        <v>372.3560009609923</v>
       </c>
       <c r="O36" t="n">
-        <v>383.6105333221035</v>
+        <v>142.5962444444444</v>
       </c>
       <c r="P36" t="n">
         <v>318.4627686399372</v>
@@ -10902,22 +10902,22 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K39" t="n">
-        <v>137.841438974359</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L39" t="n">
-        <v>370.8403453034592</v>
+        <v>138.5543797798742</v>
       </c>
       <c r="M39" t="n">
-        <v>382.1386950879875</v>
+        <v>383.1483227996774</v>
       </c>
       <c r="N39" t="n">
         <v>372.3560009609923</v>
       </c>
       <c r="O39" t="n">
-        <v>383.6105333221035</v>
+        <v>303.774711870172</v>
       </c>
       <c r="P39" t="n">
-        <v>133.9744074143302</v>
+        <v>318.4627686399372</v>
       </c>
       <c r="Q39" t="n">
         <v>139.9817740860215</v>
@@ -11060,13 +11060,13 @@
         <v>169.0966151720738</v>
       </c>
       <c r="K41" t="n">
-        <v>306.1360004134264</v>
+        <v>324.1454125711647</v>
       </c>
       <c r="L41" t="n">
         <v>417.6612145504504</v>
       </c>
       <c r="M41" t="n">
-        <v>449.5135334928325</v>
+        <v>431.5041213350942</v>
       </c>
       <c r="N41" t="n">
         <v>437.3469244119842</v>
@@ -11142,16 +11142,16 @@
         <v>264.4652370125786</v>
       </c>
       <c r="L42" t="n">
-        <v>370.8403453034592</v>
+        <v>138.5543797798742</v>
       </c>
       <c r="M42" t="n">
         <v>378.6000273822893</v>
       </c>
       <c r="N42" t="n">
-        <v>131.3417120833333</v>
+        <v>213.5118445362709</v>
       </c>
       <c r="O42" t="n">
-        <v>228.9464048340682</v>
+        <v>379.0622379047155</v>
       </c>
       <c r="P42" t="n">
         <v>318.4627686399372</v>
@@ -11297,10 +11297,10 @@
         <v>169.0966151720738</v>
       </c>
       <c r="K44" t="n">
-        <v>259.6737280068211</v>
+        <v>220.0898510449805</v>
       </c>
       <c r="L44" t="n">
-        <v>275.3502919318278</v>
+        <v>235.7664149699872</v>
       </c>
       <c r="M44" t="n">
         <v>268.3307616249986</v>
@@ -11309,10 +11309,10 @@
         <v>268.9969405584315</v>
       </c>
       <c r="O44" t="n">
-        <v>230.0982114216867</v>
+        <v>269.6820883835273</v>
       </c>
       <c r="P44" t="n">
-        <v>231.2329957552695</v>
+        <v>270.8168727171101</v>
       </c>
       <c r="Q44" t="n">
         <v>212.3149906599047</v>
@@ -11376,7 +11376,7 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K45" t="n">
-        <v>175.8259673720848</v>
+        <v>137.841438974359</v>
       </c>
       <c r="L45" t="n">
         <v>178.1382567417148</v>
@@ -11391,7 +11391,7 @@
         <v>142.5962444444444</v>
       </c>
       <c r="P45" t="n">
-        <v>133.9744074143302</v>
+        <v>171.9589358120561</v>
       </c>
       <c r="Q45" t="n">
         <v>139.9817740860215</v>
@@ -22592,7 +22592,7 @@
         <v>0</v>
       </c>
       <c r="R2" t="n">
-        <v>149.8691179411497</v>
+        <v>124.9943383277053</v>
       </c>
       <c r="S2" t="n">
         <v>209.0200695862453</v>
@@ -22601,7 +22601,7 @@
         <v>223.0958495641314</v>
       </c>
       <c r="U2" t="n">
-        <v>226.4708732943921</v>
+        <v>251.3456529078365</v>
       </c>
       <c r="V2" t="n">
         <v>327.7522584701349</v>
@@ -22723,13 +22723,13 @@
         <v>162.2271725074396</v>
       </c>
       <c r="I4" t="n">
-        <v>155.4504749272583</v>
+        <v>115.8665979654177</v>
       </c>
       <c r="J4" t="n">
-        <v>93.35918011667277</v>
+        <v>53.77530315483219</v>
       </c>
       <c r="K4" t="n">
-        <v>22.26949182588285</v>
+        <v>15.01338019972509</v>
       </c>
       <c r="L4" t="n">
         <v>0</v>
@@ -22744,10 +22744,10 @@
         <v>0</v>
       </c>
       <c r="P4" t="n">
-        <v>2.721440735106512</v>
+        <v>0</v>
       </c>
       <c r="Q4" t="n">
-        <v>86.16204325169439</v>
+        <v>46.5781662898538</v>
       </c>
       <c r="R4" t="n">
         <v>177.2933913771695</v>
@@ -22756,16 +22756,16 @@
         <v>224.0165980369723</v>
       </c>
       <c r="T4" t="n">
-        <v>217.9680370670172</v>
+        <v>227.9455894282815</v>
       </c>
       <c r="U4" t="n">
-        <v>246.7351523946503</v>
+        <v>286.3190293564909</v>
       </c>
       <c r="V4" t="n">
-        <v>212.5537663619874</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W4" t="n">
-        <v>246.9391213747504</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X4" t="n">
         <v>225.7096553890372</v>
@@ -22793,16 +22793,16 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F5" t="n">
-        <v>393.9505554828796</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G5" t="n">
-        <v>375.7188605532945</v>
+        <v>415.302737515135</v>
       </c>
       <c r="H5" t="n">
-        <v>299.8909251539266</v>
+        <v>339.4748021157671</v>
       </c>
       <c r="I5" t="n">
-        <v>170.8920126085653</v>
+        <v>210.4758895704059</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -22829,16 +22829,16 @@
         <v>0</v>
       </c>
       <c r="R5" t="n">
-        <v>149.8691179411497</v>
+        <v>110.2852409793091</v>
       </c>
       <c r="S5" t="n">
-        <v>209.0200695862453</v>
+        <v>169.4361926244048</v>
       </c>
       <c r="T5" t="n">
-        <v>223.0958495641314</v>
+        <v>183.5119726022908</v>
       </c>
       <c r="U5" t="n">
-        <v>251.3456529078365</v>
+        <v>238.4201626490047</v>
       </c>
       <c r="V5" t="n">
         <v>327.7522584701349</v>
@@ -22869,7 +22869,7 @@
         <v>147.4450655646388</v>
       </c>
       <c r="E6" t="n">
-        <v>118.0612034935604</v>
+        <v>157.6450804554009</v>
       </c>
       <c r="F6" t="n">
         <v>110.9503248916526</v>
@@ -22878,7 +22878,7 @@
         <v>97.75964020137005</v>
       </c>
       <c r="H6" t="n">
-        <v>112.2354442364965</v>
+        <v>72.65156727465587</v>
       </c>
       <c r="I6" t="n">
         <v>49.81275588957449</v>
@@ -22960,13 +22960,13 @@
         <v>162.2271725074396</v>
       </c>
       <c r="I7" t="n">
-        <v>155.4504749272583</v>
+        <v>115.8665979654177</v>
       </c>
       <c r="J7" t="n">
-        <v>93.35918011667277</v>
+        <v>53.77530315483219</v>
       </c>
       <c r="K7" t="n">
-        <v>22.26949182588285</v>
+        <v>15.01338019972509</v>
       </c>
       <c r="L7" t="n">
         <v>0</v>
@@ -22987,13 +22987,13 @@
         <v>46.5781662898538</v>
       </c>
       <c r="R7" t="n">
-        <v>137.7095144153289</v>
+        <v>177.2933913771695</v>
       </c>
       <c r="S7" t="n">
-        <v>184.4327210751317</v>
+        <v>224.0165980369723</v>
       </c>
       <c r="T7" t="n">
-        <v>220.6894778021237</v>
+        <v>227.9455894282815</v>
       </c>
       <c r="U7" t="n">
         <v>286.3190293564909</v>
@@ -23024,16 +23024,16 @@
         <v>365.2728917710076</v>
       </c>
       <c r="D8" t="n">
-        <v>315.0991646588424</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E8" t="n">
-        <v>342.3464931104212</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F8" t="n">
-        <v>367.2921687798708</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G8" t="n">
-        <v>380.4372586871459</v>
+        <v>415.302737515135</v>
       </c>
       <c r="H8" t="n">
         <v>339.4748021157671</v>
@@ -23063,19 +23063,19 @@
         <v>0</v>
       </c>
       <c r="Q8" t="n">
-        <v>9.990699214544804</v>
+        <v>0</v>
       </c>
       <c r="R8" t="n">
-        <v>149.8691179411497</v>
+        <v>110.2852409793091</v>
       </c>
       <c r="S8" t="n">
-        <v>209.0200695862453</v>
+        <v>169.4361926244048</v>
       </c>
       <c r="T8" t="n">
-        <v>223.0958495641314</v>
+        <v>183.5119726022908</v>
       </c>
       <c r="U8" t="n">
-        <v>251.3456529078365</v>
+        <v>226.4708732943921</v>
       </c>
       <c r="V8" t="n">
         <v>327.7522584701349</v>
@@ -23109,19 +23109,19 @@
         <v>157.6450804554009</v>
       </c>
       <c r="F9" t="n">
-        <v>145.0692123933839</v>
+        <v>110.9503248916526</v>
       </c>
       <c r="G9" t="n">
-        <v>137.3435171632106</v>
+        <v>97.75964020137005</v>
       </c>
       <c r="H9" t="n">
-        <v>112.2354442364965</v>
+        <v>72.65156727465587</v>
       </c>
       <c r="I9" t="n">
-        <v>89.39663285141508</v>
+        <v>49.81275588957449</v>
       </c>
       <c r="J9" t="n">
-        <v>0.7465913262578567</v>
+        <v>0</v>
       </c>
       <c r="K9" t="n">
         <v>0</v>
@@ -23145,16 +23145,16 @@
         <v>0</v>
       </c>
       <c r="R9" t="n">
-        <v>60.57395719080255</v>
+        <v>100.1578341526431</v>
       </c>
       <c r="S9" t="n">
-        <v>132.0992941419972</v>
+        <v>171.6831711038378</v>
       </c>
       <c r="T9" t="n">
-        <v>160.580851732981</v>
+        <v>200.1647286948216</v>
       </c>
       <c r="U9" t="n">
-        <v>191.0759032529857</v>
+        <v>225.9413820809748</v>
       </c>
       <c r="V9" t="n">
         <v>232.8005871494253</v>
@@ -23194,16 +23194,16 @@
         <v>167.9909793584588</v>
       </c>
       <c r="H10" t="n">
-        <v>122.643295545599</v>
+        <v>162.2271725074396</v>
       </c>
       <c r="I10" t="n">
-        <v>115.8665979654177</v>
+        <v>155.4504749272583</v>
       </c>
       <c r="J10" t="n">
-        <v>53.77530315483219</v>
+        <v>93.35918011667277</v>
       </c>
       <c r="K10" t="n">
-        <v>12.29193946461858</v>
+        <v>0</v>
       </c>
       <c r="L10" t="n">
         <v>0</v>
@@ -23218,16 +23218,16 @@
         <v>0</v>
       </c>
       <c r="P10" t="n">
-        <v>2.721440735106512</v>
+        <v>0</v>
       </c>
       <c r="Q10" t="n">
-        <v>86.16204325169439</v>
+        <v>46.5781662898538</v>
       </c>
       <c r="R10" t="n">
-        <v>177.2933913771695</v>
+        <v>137.7095144153289</v>
       </c>
       <c r="S10" t="n">
-        <v>224.0165980369723</v>
+        <v>199.4461012748567</v>
       </c>
       <c r="T10" t="n">
         <v>227.9455894282815</v>
@@ -23255,19 +23255,19 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>382.7338416634806</v>
+        <v>357.8590620500362</v>
       </c>
       <c r="C11" t="n">
-        <v>325.689014809167</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D11" t="n">
-        <v>354.683041620683</v>
+        <v>315.0991646588424</v>
       </c>
       <c r="E11" t="n">
         <v>381.9303700722618</v>
       </c>
       <c r="F11" t="n">
-        <v>406.8760457417114</v>
+        <v>367.2921687798708</v>
       </c>
       <c r="G11" t="n">
         <v>415.302737515135</v>
@@ -23276,10 +23276,10 @@
         <v>339.4748021157671</v>
       </c>
       <c r="I11" t="n">
-        <v>210.4758895704059</v>
+        <v>170.8920126085653</v>
       </c>
       <c r="J11" t="n">
-        <v>0</v>
+        <v>11.94928935461252</v>
       </c>
       <c r="K11" t="n">
         <v>0</v>
@@ -23300,7 +23300,7 @@
         <v>0</v>
       </c>
       <c r="Q11" t="n">
-        <v>9.990699214544804</v>
+        <v>0</v>
       </c>
       <c r="R11" t="n">
         <v>149.8691179411497</v>
@@ -23312,19 +23312,19 @@
         <v>223.0958495641314</v>
       </c>
       <c r="U11" t="n">
-        <v>228.4294634344598</v>
+        <v>251.3456529078365</v>
       </c>
       <c r="V11" t="n">
         <v>327.7522584701349</v>
       </c>
       <c r="W11" t="n">
-        <v>309.6570917555724</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X11" t="n">
         <v>369.731100678469</v>
       </c>
       <c r="Y11" t="n">
-        <v>346.654061694213</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="12">
@@ -23337,28 +23337,28 @@
         <v>166.5331836498673</v>
       </c>
       <c r="C12" t="n">
-        <v>133.1246220264752</v>
+        <v>172.7084989883157</v>
       </c>
       <c r="D12" t="n">
-        <v>107.8611886027982</v>
+        <v>147.4450655646388</v>
       </c>
       <c r="E12" t="n">
-        <v>118.0612034935604</v>
+        <v>157.6450804554009</v>
       </c>
       <c r="F12" t="n">
-        <v>110.9503248916526</v>
+        <v>110.2037335653947</v>
       </c>
       <c r="G12" t="n">
-        <v>137.3435171632106</v>
+        <v>97.75964020137005</v>
       </c>
       <c r="H12" t="n">
-        <v>112.2354442364965</v>
+        <v>72.65156727465587</v>
       </c>
       <c r="I12" t="n">
-        <v>89.39663285141508</v>
+        <v>49.81275588957449</v>
       </c>
       <c r="J12" t="n">
-        <v>0</v>
+        <v>0.7465913262578567</v>
       </c>
       <c r="K12" t="n">
         <v>0</v>
@@ -23434,13 +23434,13 @@
         <v>162.2271725074396</v>
       </c>
       <c r="I13" t="n">
-        <v>155.4504749272583</v>
+        <v>130.8799781651428</v>
       </c>
       <c r="J13" t="n">
-        <v>93.35918011667277</v>
+        <v>53.77530315483219</v>
       </c>
       <c r="K13" t="n">
-        <v>22.26949182588285</v>
+        <v>0</v>
       </c>
       <c r="L13" t="n">
         <v>0</v>
@@ -23461,13 +23461,13 @@
         <v>46.5781662898538</v>
       </c>
       <c r="R13" t="n">
-        <v>137.7095144153289</v>
+        <v>177.2933913771695</v>
       </c>
       <c r="S13" t="n">
-        <v>184.4327210751317</v>
+        <v>224.0165980369723</v>
       </c>
       <c r="T13" t="n">
-        <v>220.6894778021237</v>
+        <v>227.9455894282815</v>
       </c>
       <c r="U13" t="n">
         <v>286.3190293564909</v>
@@ -23504,16 +23504,16 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F14" t="n">
-        <v>367.2921687798708</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G14" t="n">
-        <v>375.7188605532945</v>
+        <v>415.302737515135</v>
       </c>
       <c r="H14" t="n">
-        <v>299.8909251539266</v>
+        <v>339.4748021157671</v>
       </c>
       <c r="I14" t="n">
-        <v>175.6104107424167</v>
+        <v>210.4758895704059</v>
       </c>
       <c r="J14" t="n">
         <v>11.94928935461252</v>
@@ -23537,19 +23537,19 @@
         <v>0</v>
       </c>
       <c r="Q14" t="n">
-        <v>9.990699214544804</v>
+        <v>0</v>
       </c>
       <c r="R14" t="n">
-        <v>149.8691179411497</v>
+        <v>124.9943383277053</v>
       </c>
       <c r="S14" t="n">
-        <v>209.0200695862453</v>
+        <v>169.4361926244048</v>
       </c>
       <c r="T14" t="n">
-        <v>223.0958495641314</v>
+        <v>183.5119726022908</v>
       </c>
       <c r="U14" t="n">
-        <v>251.3456529078365</v>
+        <v>211.7617759459959</v>
       </c>
       <c r="V14" t="n">
         <v>327.7522584701349</v>
@@ -23583,16 +23583,16 @@
         <v>157.6450804554009</v>
       </c>
       <c r="F15" t="n">
-        <v>110.2037335653947</v>
+        <v>145.0692123933839</v>
       </c>
       <c r="G15" t="n">
-        <v>97.75964020137005</v>
+        <v>137.3435171632106</v>
       </c>
       <c r="H15" t="n">
-        <v>72.65156727465587</v>
+        <v>112.2354442364965</v>
       </c>
       <c r="I15" t="n">
-        <v>49.81275588957449</v>
+        <v>89.39663285141508</v>
       </c>
       <c r="J15" t="n">
         <v>0.7465913262578567</v>
@@ -23619,16 +23619,16 @@
         <v>0</v>
       </c>
       <c r="R15" t="n">
-        <v>100.1578341526431</v>
+        <v>60.57395719080255</v>
       </c>
       <c r="S15" t="n">
-        <v>171.6831711038378</v>
+        <v>132.0992941419972</v>
       </c>
       <c r="T15" t="n">
-        <v>200.1647286948216</v>
+        <v>160.580851732981</v>
       </c>
       <c r="U15" t="n">
-        <v>225.9413820809748</v>
+        <v>191.0759032529857</v>
       </c>
       <c r="V15" t="n">
         <v>232.8005871494253</v>
@@ -23671,13 +23671,13 @@
         <v>162.2271725074396</v>
       </c>
       <c r="I16" t="n">
-        <v>155.4504749272583</v>
+        <v>130.8799781651428</v>
       </c>
       <c r="J16" t="n">
-        <v>93.35918011667277</v>
+        <v>53.77530315483219</v>
       </c>
       <c r="K16" t="n">
-        <v>22.26949182588285</v>
+        <v>0</v>
       </c>
       <c r="L16" t="n">
         <v>0</v>
@@ -23698,13 +23698,13 @@
         <v>46.5781662898538</v>
       </c>
       <c r="R16" t="n">
-        <v>137.7095144153289</v>
+        <v>177.2933913771695</v>
       </c>
       <c r="S16" t="n">
-        <v>184.4327210751317</v>
+        <v>224.0165980369723</v>
       </c>
       <c r="T16" t="n">
-        <v>220.6894778021237</v>
+        <v>227.9455894282815</v>
       </c>
       <c r="U16" t="n">
         <v>286.3190293564909</v>
@@ -23780,13 +23780,13 @@
         <v>105.7369455619211</v>
       </c>
       <c r="S17" t="n">
-        <v>164.8878972070167</v>
+        <v>180.1391513691656</v>
       </c>
       <c r="T17" t="n">
         <v>178.9636771849028</v>
       </c>
       <c r="U17" t="n">
-        <v>222.4647346907568</v>
+        <v>207.2134805286079</v>
       </c>
       <c r="V17" t="n">
         <v>327.7522584701349</v>
@@ -23823,13 +23823,13 @@
         <v>145.0692123933839</v>
       </c>
       <c r="G18" t="n">
-        <v>93.21134478398204</v>
+        <v>137.3435171632106</v>
       </c>
       <c r="H18" t="n">
-        <v>73.36382680487192</v>
+        <v>112.2354442364965</v>
       </c>
       <c r="I18" t="n">
-        <v>45.26446047218649</v>
+        <v>89.39663285141508</v>
       </c>
       <c r="J18" t="n">
         <v>0.7465913262578567</v>
@@ -23856,16 +23856,16 @@
         <v>0</v>
       </c>
       <c r="R18" t="n">
-        <v>56.02566177341454</v>
+        <v>61.28621672101858</v>
       </c>
       <c r="S18" t="n">
-        <v>171.6831711038378</v>
+        <v>127.5509987246092</v>
       </c>
       <c r="T18" t="n">
-        <v>200.1647286948216</v>
+        <v>156.032556315593</v>
       </c>
       <c r="U18" t="n">
-        <v>225.9413820809748</v>
+        <v>181.8092097017462</v>
       </c>
       <c r="V18" t="n">
         <v>232.8005871494253</v>
@@ -23887,10 +23887,10 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>135.6998078027087</v>
+        <v>179.041529734255</v>
       </c>
       <c r="C19" t="n">
-        <v>166.4563706509456</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D19" t="n">
         <v>148.6154730182124</v>
@@ -23941,22 +23941,22 @@
         <v>224.0165980369723</v>
       </c>
       <c r="T19" t="n">
-        <v>227.9455894282815</v>
+        <v>183.8134170490529</v>
       </c>
       <c r="U19" t="n">
-        <v>286.3190293564909</v>
+        <v>242.1868569772623</v>
       </c>
       <c r="V19" t="n">
-        <v>252.137643323828</v>
+        <v>208.0054709445994</v>
       </c>
       <c r="W19" t="n">
         <v>286.522998336591</v>
       </c>
       <c r="X19" t="n">
-        <v>181.5774830098086</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y19" t="n">
-        <v>174.4524809728662</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="20">
@@ -24011,10 +24011,10 @@
         <v>0</v>
       </c>
       <c r="Q20" t="n">
-        <v>0</v>
+        <v>9.990699214544804</v>
       </c>
       <c r="R20" t="n">
-        <v>149.8691179411497</v>
+        <v>128.6853625704253</v>
       </c>
       <c r="S20" t="n">
         <v>0</v>
@@ -24023,19 +24023,19 @@
         <v>0</v>
       </c>
       <c r="U20" t="n">
-        <v>251.3456529078365</v>
+        <v>10.33136403017744</v>
       </c>
       <c r="V20" t="n">
         <v>327.7522584701349</v>
       </c>
       <c r="W20" t="n">
-        <v>108.226679839754</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X20" t="n">
         <v>128.71681180081</v>
       </c>
       <c r="Y20" t="n">
-        <v>375.044882499874</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="21">
@@ -24048,7 +24048,7 @@
         <v>166.5331836498673</v>
       </c>
       <c r="C21" t="n">
-        <v>172.7084989883157</v>
+        <v>0</v>
       </c>
       <c r="D21" t="n">
         <v>147.4450655646388</v>
@@ -24057,7 +24057,7 @@
         <v>157.6450804554009</v>
       </c>
       <c r="F21" t="n">
-        <v>145.0692123933839</v>
+        <v>0</v>
       </c>
       <c r="G21" t="n">
         <v>137.3435171632106</v>
@@ -24093,28 +24093,28 @@
         <v>0</v>
       </c>
       <c r="R21" t="n">
-        <v>100.1578341526431</v>
+        <v>0</v>
       </c>
       <c r="S21" t="n">
-        <v>171.6831711038378</v>
+        <v>87.25578020600828</v>
       </c>
       <c r="T21" t="n">
-        <v>200.1647286948216</v>
+        <v>0</v>
       </c>
       <c r="U21" t="n">
-        <v>0</v>
+        <v>225.9413820809748</v>
       </c>
       <c r="V21" t="n">
         <v>0</v>
       </c>
       <c r="W21" t="n">
-        <v>10.68069428326055</v>
+        <v>251.6949831609196</v>
       </c>
       <c r="X21" t="n">
-        <v>0</v>
+        <v>205.7729852034775</v>
       </c>
       <c r="Y21" t="n">
-        <v>175.8836868124217</v>
+        <v>205.6826957773044</v>
       </c>
     </row>
     <row r="22">
@@ -24130,7 +24130,7 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D22" t="n">
-        <v>37.69799725872721</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E22" t="n">
         <v>146.4339626465692</v>
@@ -24151,7 +24151,7 @@
         <v>93.35918011667277</v>
       </c>
       <c r="K22" t="n">
-        <v>0</v>
+        <v>22.26949182588285</v>
       </c>
       <c r="L22" t="n">
         <v>0</v>
@@ -24172,7 +24172,7 @@
         <v>86.16204325169439</v>
       </c>
       <c r="R22" t="n">
-        <v>177.2933913771695</v>
+        <v>44.10642379180146</v>
       </c>
       <c r="S22" t="n">
         <v>224.0165980369723</v>
@@ -24212,16 +24212,16 @@
         <v>354.683041620683</v>
       </c>
       <c r="E23" t="n">
-        <v>381.9303700722618</v>
+        <v>140.9160811946027</v>
       </c>
       <c r="F23" t="n">
-        <v>406.8760457417114</v>
+        <v>165.8617568640524</v>
       </c>
       <c r="G23" t="n">
-        <v>174.288448637476</v>
+        <v>415.302737515135</v>
       </c>
       <c r="H23" t="n">
-        <v>227.1458758085334</v>
+        <v>339.4748021157671</v>
       </c>
       <c r="I23" t="n">
         <v>210.4758895704059</v>
@@ -24251,22 +24251,22 @@
         <v>9.990699214544804</v>
       </c>
       <c r="R23" t="n">
-        <v>0</v>
+        <v>149.8691179411497</v>
       </c>
       <c r="S23" t="n">
-        <v>0</v>
+        <v>209.0200695862453</v>
       </c>
       <c r="T23" t="n">
-        <v>0</v>
+        <v>223.0958495641314</v>
       </c>
       <c r="U23" t="n">
         <v>251.3456529078365</v>
       </c>
       <c r="V23" t="n">
-        <v>327.7522584701349</v>
+        <v>86.73796959247585</v>
       </c>
       <c r="W23" t="n">
-        <v>349.240968717413</v>
+        <v>136.9555830739709</v>
       </c>
       <c r="X23" t="n">
         <v>369.731100678469</v>
@@ -24282,31 +24282,31 @@
         </is>
       </c>
       <c r="B24" t="n">
-        <v>166.5331836498673</v>
+        <v>0</v>
       </c>
       <c r="C24" t="n">
-        <v>0</v>
+        <v>172.7084989883157</v>
       </c>
       <c r="D24" t="n">
-        <v>0</v>
+        <v>147.4450655646388</v>
       </c>
       <c r="E24" t="n">
-        <v>9.426063690570061</v>
+        <v>157.6450804554009</v>
       </c>
       <c r="F24" t="n">
         <v>145.0692123933839</v>
       </c>
       <c r="G24" t="n">
-        <v>137.3435171632106</v>
+        <v>0</v>
       </c>
       <c r="H24" t="n">
-        <v>112.2354442364965</v>
+        <v>0</v>
       </c>
       <c r="I24" t="n">
-        <v>89.39663285141508</v>
+        <v>0</v>
       </c>
       <c r="J24" t="n">
-        <v>0.7465913262578567</v>
+        <v>0</v>
       </c>
       <c r="K24" t="n">
         <v>0</v>
@@ -24339,19 +24339,19 @@
         <v>200.1647286948216</v>
       </c>
       <c r="U24" t="n">
-        <v>0</v>
+        <v>225.9413820809748</v>
       </c>
       <c r="V24" t="n">
-        <v>232.8005871494253</v>
+        <v>215.1833850810353</v>
       </c>
       <c r="W24" t="n">
-        <v>10.68069428326055</v>
+        <v>251.6949831609196</v>
       </c>
       <c r="X24" t="n">
-        <v>205.7729852034775</v>
+        <v>0</v>
       </c>
       <c r="Y24" t="n">
-        <v>205.6826957773044</v>
+        <v>0</v>
       </c>
     </row>
     <row r="25">
@@ -24370,7 +24370,7 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E25" t="n">
-        <v>146.4339626465692</v>
+        <v>99.40903831289552</v>
       </c>
       <c r="F25" t="n">
         <v>145.4210480229312</v>
@@ -24406,13 +24406,13 @@
         <v>2.721440735106512</v>
       </c>
       <c r="Q25" t="n">
-        <v>86.16204325169439</v>
+        <v>0</v>
       </c>
       <c r="R25" t="n">
         <v>177.2933913771695</v>
       </c>
       <c r="S25" t="n">
-        <v>90.82963045160423</v>
+        <v>224.0165980369723</v>
       </c>
       <c r="T25" t="n">
         <v>227.9455894282815</v>
@@ -24440,31 +24440,31 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>382.7338416634806</v>
+        <v>141.7195527858215</v>
       </c>
       <c r="C26" t="n">
         <v>365.2728917710076</v>
       </c>
       <c r="D26" t="n">
-        <v>354.683041620683</v>
+        <v>113.6687527430239</v>
       </c>
       <c r="E26" t="n">
         <v>381.9303700722618</v>
       </c>
       <c r="F26" t="n">
-        <v>165.8617568640524</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G26" t="n">
-        <v>174.288448637476</v>
+        <v>203.0173518716929</v>
       </c>
       <c r="H26" t="n">
-        <v>339.4748021157671</v>
+        <v>98.46051323810809</v>
       </c>
       <c r="I26" t="n">
-        <v>2.212053182593479</v>
+        <v>210.4758895704059</v>
       </c>
       <c r="J26" t="n">
-        <v>0</v>
+        <v>11.94928935461252</v>
       </c>
       <c r="K26" t="n">
         <v>0</v>
@@ -24485,7 +24485,7 @@
         <v>0</v>
       </c>
       <c r="Q26" t="n">
-        <v>0</v>
+        <v>9.990699214544804</v>
       </c>
       <c r="R26" t="n">
         <v>149.8691179411497</v>
@@ -24494,7 +24494,7 @@
         <v>209.0200695862453</v>
       </c>
       <c r="T26" t="n">
-        <v>0</v>
+        <v>223.0958495641314</v>
       </c>
       <c r="U26" t="n">
         <v>251.3456529078365</v>
@@ -24522,25 +24522,25 @@
         <v>166.5331836498673</v>
       </c>
       <c r="C27" t="n">
-        <v>53.3196859459414</v>
+        <v>172.7084989883157</v>
       </c>
       <c r="D27" t="n">
-        <v>147.4450655646388</v>
+        <v>0</v>
       </c>
       <c r="E27" t="n">
-        <v>157.6450804554009</v>
+        <v>0</v>
       </c>
       <c r="F27" t="n">
-        <v>145.0692123933839</v>
+        <v>0</v>
       </c>
       <c r="G27" t="n">
-        <v>137.3435171632106</v>
+        <v>0</v>
       </c>
       <c r="H27" t="n">
-        <v>112.2354442364965</v>
+        <v>79.74808246910126</v>
       </c>
       <c r="I27" t="n">
-        <v>89.39663285141508</v>
+        <v>0</v>
       </c>
       <c r="J27" t="n">
         <v>0.7465913262578567</v>
@@ -24570,25 +24570,25 @@
         <v>100.1578341526431</v>
       </c>
       <c r="S27" t="n">
-        <v>0</v>
+        <v>171.6831711038378</v>
       </c>
       <c r="T27" t="n">
         <v>200.1647286948216</v>
       </c>
       <c r="U27" t="n">
-        <v>225.9413820809748</v>
+        <v>0</v>
       </c>
       <c r="V27" t="n">
-        <v>0</v>
+        <v>232.8005871494253</v>
       </c>
       <c r="W27" t="n">
         <v>251.6949831609196</v>
       </c>
       <c r="X27" t="n">
-        <v>0</v>
+        <v>205.7729852034775</v>
       </c>
       <c r="Y27" t="n">
-        <v>0</v>
+        <v>205.6826957773044</v>
       </c>
     </row>
     <row r="28">
@@ -24598,7 +24598,7 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>46.64501259656927</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C28" t="n">
         <v>167.2468210986278</v>
@@ -24664,7 +24664,7 @@
         <v>286.522998336591</v>
       </c>
       <c r="X28" t="n">
-        <v>225.7096553890372</v>
+        <v>92.52268780366913</v>
       </c>
       <c r="Y28" t="n">
         <v>218.5846533520948</v>
@@ -24677,22 +24677,22 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>141.7195527858215</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C29" t="n">
-        <v>152.9875061275654</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D29" t="n">
         <v>354.683041620683</v>
       </c>
       <c r="E29" t="n">
-        <v>381.9303700722618</v>
+        <v>179.6356836433646</v>
       </c>
       <c r="F29" t="n">
         <v>165.8617568640524</v>
       </c>
       <c r="G29" t="n">
-        <v>415.302737515135</v>
+        <v>174.288448637476</v>
       </c>
       <c r="H29" t="n">
         <v>339.4748021157671</v>
@@ -24722,7 +24722,7 @@
         <v>0</v>
       </c>
       <c r="Q29" t="n">
-        <v>9.990699214544804</v>
+        <v>0</v>
       </c>
       <c r="R29" t="n">
         <v>149.8691179411497</v>
@@ -24743,10 +24743,10 @@
         <v>349.240968717413</v>
       </c>
       <c r="X29" t="n">
-        <v>369.731100678469</v>
+        <v>128.71681180081</v>
       </c>
       <c r="Y29" t="n">
-        <v>145.2236497783945</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="30">
@@ -24768,10 +24768,10 @@
         <v>157.6450804554009</v>
       </c>
       <c r="F30" t="n">
-        <v>0</v>
+        <v>145.0692123933839</v>
       </c>
       <c r="G30" t="n">
-        <v>124.8094428450879</v>
+        <v>137.3435171632106</v>
       </c>
       <c r="H30" t="n">
         <v>112.2354442364965</v>
@@ -24804,19 +24804,19 @@
         <v>0</v>
       </c>
       <c r="R30" t="n">
-        <v>100.1578341526431</v>
+        <v>0</v>
       </c>
       <c r="S30" t="n">
-        <v>171.6831711038378</v>
+        <v>0</v>
       </c>
       <c r="T30" t="n">
-        <v>200.1647286948216</v>
+        <v>101.8605463940414</v>
       </c>
       <c r="U30" t="n">
-        <v>225.9413820809748</v>
+        <v>0</v>
       </c>
       <c r="V30" t="n">
-        <v>0</v>
+        <v>232.8005871494253</v>
       </c>
       <c r="W30" t="n">
         <v>251.6949831609196</v>
@@ -24825,7 +24825,7 @@
         <v>205.7729852034775</v>
       </c>
       <c r="Y30" t="n">
-        <v>0</v>
+        <v>205.6826957773044</v>
       </c>
     </row>
     <row r="31">
@@ -24835,7 +24835,7 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>179.8319801819373</v>
+        <v>46.64501259656927</v>
       </c>
       <c r="C31" t="n">
         <v>167.2468210986278</v>
@@ -24904,7 +24904,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y31" t="n">
-        <v>85.39768576672677</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="32">
@@ -24914,25 +24914,25 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>382.7338416634806</v>
+        <v>330.3082731757331</v>
       </c>
       <c r="C32" t="n">
-        <v>365.2728917710076</v>
+        <v>124.2586028933485</v>
       </c>
       <c r="D32" t="n">
-        <v>354.683041620683</v>
+        <v>113.6687527430239</v>
       </c>
       <c r="E32" t="n">
-        <v>381.9303700722618</v>
+        <v>140.9160811946027</v>
       </c>
       <c r="F32" t="n">
-        <v>165.8617568640524</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G32" t="n">
-        <v>174.288448637476</v>
+        <v>415.302737515135</v>
       </c>
       <c r="H32" t="n">
-        <v>127.189416472325</v>
+        <v>339.4748021157671</v>
       </c>
       <c r="I32" t="n">
         <v>210.4758895704059</v>
@@ -24959,10 +24959,10 @@
         <v>0</v>
       </c>
       <c r="Q32" t="n">
-        <v>9.990699214544804</v>
+        <v>0</v>
       </c>
       <c r="R32" t="n">
-        <v>149.8691179411497</v>
+        <v>0</v>
       </c>
       <c r="S32" t="n">
         <v>209.0200695862453</v>
@@ -24977,7 +24977,7 @@
         <v>327.7522584701349</v>
       </c>
       <c r="W32" t="n">
-        <v>108.226679839754</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X32" t="n">
         <v>369.731100678469</v>
@@ -24996,25 +24996,25 @@
         <v>166.5331836498673</v>
       </c>
       <c r="C33" t="n">
-        <v>172.7084989883157</v>
+        <v>0</v>
       </c>
       <c r="D33" t="n">
-        <v>147.4450655646388</v>
+        <v>26.5151993764422</v>
       </c>
       <c r="E33" t="n">
-        <v>157.6450804554009</v>
+        <v>0</v>
       </c>
       <c r="F33" t="n">
-        <v>145.0692123933839</v>
+        <v>0</v>
       </c>
       <c r="G33" t="n">
-        <v>137.3435171632106</v>
+        <v>0</v>
       </c>
       <c r="H33" t="n">
-        <v>112.2354442364965</v>
+        <v>0</v>
       </c>
       <c r="I33" t="n">
-        <v>89.39663285141508</v>
+        <v>0</v>
       </c>
       <c r="J33" t="n">
         <v>0.7465913262578567</v>
@@ -25050,19 +25050,19 @@
         <v>200.1647286948216</v>
       </c>
       <c r="U33" t="n">
-        <v>175.8836868124218</v>
+        <v>225.9413820809748</v>
       </c>
       <c r="V33" t="n">
-        <v>0</v>
+        <v>232.8005871494253</v>
       </c>
       <c r="W33" t="n">
-        <v>10.68069428326055</v>
+        <v>251.6949831609196</v>
       </c>
       <c r="X33" t="n">
-        <v>0</v>
+        <v>205.7729852034775</v>
       </c>
       <c r="Y33" t="n">
-        <v>0</v>
+        <v>205.6826957773044</v>
       </c>
     </row>
     <row r="34">
@@ -25093,7 +25093,7 @@
         <v>162.2271725074396</v>
       </c>
       <c r="I34" t="n">
-        <v>22.26350734189029</v>
+        <v>155.4504749272583</v>
       </c>
       <c r="J34" t="n">
         <v>93.35918011667277</v>
@@ -25120,7 +25120,7 @@
         <v>86.16204325169439</v>
       </c>
       <c r="R34" t="n">
-        <v>177.2933913771695</v>
+        <v>44.10642379180149</v>
       </c>
       <c r="S34" t="n">
         <v>224.0165980369723</v>
@@ -25154,28 +25154,28 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C35" t="n">
-        <v>365.2728917710076</v>
+        <v>124.2586028933485</v>
       </c>
       <c r="D35" t="n">
         <v>354.683041620683</v>
       </c>
       <c r="E35" t="n">
-        <v>381.9303700722618</v>
+        <v>140.9160811946027</v>
       </c>
       <c r="F35" t="n">
         <v>406.8760457417114</v>
       </c>
       <c r="G35" t="n">
-        <v>415.302737515135</v>
+        <v>174.288448637476</v>
       </c>
       <c r="H35" t="n">
-        <v>98.46051323810809</v>
+        <v>339.4748021157671</v>
       </c>
       <c r="I35" t="n">
-        <v>0</v>
+        <v>210.4758895704059</v>
       </c>
       <c r="J35" t="n">
-        <v>11.94928935461252</v>
+        <v>0</v>
       </c>
       <c r="K35" t="n">
         <v>0</v>
@@ -25202,13 +25202,13 @@
         <v>0</v>
       </c>
       <c r="S35" t="n">
-        <v>209.0200695862453</v>
+        <v>168.5437904531102</v>
       </c>
       <c r="T35" t="n">
-        <v>0</v>
+        <v>223.0958495641314</v>
       </c>
       <c r="U35" t="n">
-        <v>150.4632457993081</v>
+        <v>251.3456529078365</v>
       </c>
       <c r="V35" t="n">
         <v>327.7522584701349</v>
@@ -25230,10 +25230,10 @@
         </is>
       </c>
       <c r="B36" t="n">
-        <v>166.5331836498673</v>
+        <v>0</v>
       </c>
       <c r="C36" t="n">
-        <v>172.7084989883157</v>
+        <v>0</v>
       </c>
       <c r="D36" t="n">
         <v>147.4450655646388</v>
@@ -25254,7 +25254,7 @@
         <v>89.39663285141508</v>
       </c>
       <c r="J36" t="n">
-        <v>0.7465913262578567</v>
+        <v>0</v>
       </c>
       <c r="K36" t="n">
         <v>0</v>
@@ -25278,25 +25278,25 @@
         <v>0</v>
       </c>
       <c r="R36" t="n">
-        <v>100.1578341526431</v>
+        <v>0</v>
       </c>
       <c r="S36" t="n">
-        <v>171.6831711038378</v>
+        <v>123.1980115994662</v>
       </c>
       <c r="T36" t="n">
         <v>200.1647286948216</v>
       </c>
       <c r="U36" t="n">
-        <v>175.8836868124218</v>
+        <v>225.9413820809748</v>
       </c>
       <c r="V36" t="n">
-        <v>0</v>
+        <v>232.8005871494253</v>
       </c>
       <c r="W36" t="n">
         <v>10.68069428326055</v>
       </c>
       <c r="X36" t="n">
-        <v>0</v>
+        <v>205.7729852034775</v>
       </c>
       <c r="Y36" t="n">
         <v>0</v>
@@ -25363,7 +25363,7 @@
         <v>224.0165980369723</v>
       </c>
       <c r="T37" t="n">
-        <v>227.9455894282815</v>
+        <v>94.7586218429135</v>
       </c>
       <c r="U37" t="n">
         <v>286.3190293564909</v>
@@ -25372,7 +25372,7 @@
         <v>252.137643323828</v>
       </c>
       <c r="W37" t="n">
-        <v>153.336030751223</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X37" t="n">
         <v>225.7096553890372</v>
@@ -25388,10 +25388,10 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>141.7195527858215</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C38" t="n">
-        <v>124.2586028933485</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D38" t="n">
         <v>354.683041620683</v>
@@ -25400,19 +25400,19 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F38" t="n">
-        <v>165.8617568640524</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G38" t="n">
-        <v>203.0173518716929</v>
+        <v>174.288448637476</v>
       </c>
       <c r="H38" t="n">
-        <v>339.4748021157671</v>
+        <v>98.46051323810809</v>
       </c>
       <c r="I38" t="n">
-        <v>210.4758895704059</v>
+        <v>10.13979328157632</v>
       </c>
       <c r="J38" t="n">
-        <v>11.94928935461252</v>
+        <v>0</v>
       </c>
       <c r="K38" t="n">
         <v>0</v>
@@ -25454,7 +25454,7 @@
         <v>349.240968717413</v>
       </c>
       <c r="X38" t="n">
-        <v>369.731100678469</v>
+        <v>128.71681180081</v>
       </c>
       <c r="Y38" t="n">
         <v>386.2379386560536</v>
@@ -25473,7 +25473,7 @@
         <v>172.7084989883157</v>
       </c>
       <c r="D39" t="n">
-        <v>147.4450655646388</v>
+        <v>76.79649641691874</v>
       </c>
       <c r="E39" t="n">
         <v>157.6450804554009</v>
@@ -25491,7 +25491,7 @@
         <v>89.39663285141508</v>
       </c>
       <c r="J39" t="n">
-        <v>0</v>
+        <v>0.7465913262578567</v>
       </c>
       <c r="K39" t="n">
         <v>0</v>
@@ -25515,13 +25515,13 @@
         <v>0</v>
       </c>
       <c r="R39" t="n">
-        <v>0</v>
+        <v>100.1578341526431</v>
       </c>
       <c r="S39" t="n">
         <v>171.6831711038378</v>
       </c>
       <c r="T39" t="n">
-        <v>200.1647286948216</v>
+        <v>0</v>
       </c>
       <c r="U39" t="n">
         <v>0</v>
@@ -25530,10 +25530,10 @@
         <v>0</v>
       </c>
       <c r="W39" t="n">
-        <v>10.68069428326055</v>
+        <v>251.6949831609196</v>
       </c>
       <c r="X39" t="n">
-        <v>71.10541651401849</v>
+        <v>0</v>
       </c>
       <c r="Y39" t="n">
         <v>205.6826957773044</v>
@@ -25597,10 +25597,10 @@
         <v>177.2933913771695</v>
       </c>
       <c r="S40" t="n">
-        <v>224.0165980369723</v>
+        <v>90.82963045160426</v>
       </c>
       <c r="T40" t="n">
-        <v>94.75862184291347</v>
+        <v>227.9455894282815</v>
       </c>
       <c r="U40" t="n">
         <v>286.3190293564909</v>
@@ -25637,13 +25637,13 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F41" t="n">
-        <v>406.8760457417114</v>
+        <v>170.4100522814404</v>
       </c>
       <c r="G41" t="n">
-        <v>178.836744054864</v>
+        <v>415.302737515135</v>
       </c>
       <c r="H41" t="n">
-        <v>103.0088086554961</v>
+        <v>339.4748021157671</v>
       </c>
       <c r="I41" t="n">
         <v>210.4758895704059</v>
@@ -25673,10 +25673,10 @@
         <v>0</v>
       </c>
       <c r="R41" t="n">
-        <v>0</v>
+        <v>149.8691179411497</v>
       </c>
       <c r="S41" t="n">
-        <v>160.6006397021332</v>
+        <v>209.0200695862453</v>
       </c>
       <c r="T41" t="n">
         <v>223.0958495641314</v>
@@ -25691,10 +25691,10 @@
         <v>349.240968717413</v>
       </c>
       <c r="X41" t="n">
-        <v>369.731100678469</v>
+        <v>171.4425528532072</v>
       </c>
       <c r="Y41" t="n">
-        <v>386.2379386560536</v>
+        <v>149.7719451957825</v>
       </c>
     </row>
     <row r="42">
@@ -25704,16 +25704,16 @@
         </is>
       </c>
       <c r="B42" t="n">
-        <v>166.5331836498673</v>
+        <v>0</v>
       </c>
       <c r="C42" t="n">
-        <v>172.7084989883157</v>
+        <v>168.8032904751784</v>
       </c>
       <c r="D42" t="n">
-        <v>147.4450655646388</v>
+        <v>0</v>
       </c>
       <c r="E42" t="n">
-        <v>157.6450804554009</v>
+        <v>0</v>
       </c>
       <c r="F42" t="n">
         <v>145.0692123933839</v>
@@ -25755,25 +25755,25 @@
         <v>100.1578341526431</v>
       </c>
       <c r="S42" t="n">
-        <v>154.9868915773666</v>
+        <v>171.6831711038378</v>
       </c>
       <c r="T42" t="n">
         <v>200.1647286948216</v>
       </c>
       <c r="U42" t="n">
-        <v>0</v>
+        <v>225.9413820809748</v>
       </c>
       <c r="V42" t="n">
-        <v>0</v>
+        <v>232.8005871494253</v>
       </c>
       <c r="W42" t="n">
         <v>15.22898970064855</v>
       </c>
       <c r="X42" t="n">
-        <v>0</v>
+        <v>205.7729852034775</v>
       </c>
       <c r="Y42" t="n">
-        <v>205.6826957773044</v>
+        <v>0</v>
       </c>
     </row>
     <row r="43">
@@ -25801,7 +25801,7 @@
         <v>167.9909793584588</v>
       </c>
       <c r="H43" t="n">
-        <v>162.2271725074396</v>
+        <v>29.04020492207158</v>
       </c>
       <c r="I43" t="n">
         <v>155.4504749272583</v>
@@ -25852,7 +25852,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y43" t="n">
-        <v>85.39768576672677</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="44">
@@ -25874,13 +25874,13 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F44" t="n">
-        <v>406.8760457417114</v>
+        <v>367.2921687798708</v>
       </c>
       <c r="G44" t="n">
-        <v>375.7188605532945</v>
+        <v>390.4279579016907</v>
       </c>
       <c r="H44" t="n">
-        <v>314.6000225023228</v>
+        <v>339.4748021157671</v>
       </c>
       <c r="I44" t="n">
         <v>210.4758895704059</v>
@@ -25910,7 +25910,7 @@
         <v>0</v>
       </c>
       <c r="R44" t="n">
-        <v>110.2852409793091</v>
+        <v>149.8691179411497</v>
       </c>
       <c r="S44" t="n">
         <v>169.4361926244048</v>
@@ -25919,7 +25919,7 @@
         <v>223.0958495641314</v>
       </c>
       <c r="U44" t="n">
-        <v>251.3456529078365</v>
+        <v>211.7617759459959</v>
       </c>
       <c r="V44" t="n">
         <v>327.7522584701349</v>
@@ -25995,10 +25995,10 @@
         <v>171.6831711038378</v>
       </c>
       <c r="T45" t="n">
-        <v>160.580851732981</v>
+        <v>200.1647286948216</v>
       </c>
       <c r="U45" t="n">
-        <v>191.0759032529857</v>
+        <v>186.3575051191342</v>
       </c>
       <c r="V45" t="n">
         <v>193.2167101875847</v>
@@ -26007,7 +26007,7 @@
         <v>212.111106199079</v>
       </c>
       <c r="X45" t="n">
-        <v>205.7729852034775</v>
+        <v>170.9075063754883</v>
       </c>
       <c r="Y45" t="n">
         <v>205.6826957773044</v>
@@ -26029,10 +26029,10 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E46" t="n">
-        <v>146.4339626465692</v>
+        <v>106.8500856847286</v>
       </c>
       <c r="F46" t="n">
-        <v>145.4210480229312</v>
+        <v>105.8371710610907</v>
       </c>
       <c r="G46" t="n">
         <v>167.9909793584588</v>
@@ -26062,25 +26062,25 @@
         <v>0</v>
       </c>
       <c r="P46" t="n">
-        <v>2.721440735106512</v>
+        <v>0</v>
       </c>
       <c r="Q46" t="n">
-        <v>76.18449089043011</v>
+        <v>86.16204325169439</v>
       </c>
       <c r="R46" t="n">
         <v>177.2933913771695</v>
       </c>
       <c r="S46" t="n">
-        <v>224.0165980369723</v>
+        <v>216.7604864108145</v>
       </c>
       <c r="T46" t="n">
         <v>227.9455894282815</v>
       </c>
       <c r="U46" t="n">
-        <v>246.7351523946503</v>
+        <v>286.3190293564909</v>
       </c>
       <c r="V46" t="n">
-        <v>212.5537663619874</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W46" t="n">
         <v>246.9391213747504</v>
@@ -26123,7 +26123,7 @@
         <v>0</v>
       </c>
       <c r="B2" t="n">
-        <v>355268.3982687963</v>
+        <v>355268.3982687964</v>
       </c>
     </row>
     <row r="3">
@@ -26131,7 +26131,7 @@
         <v>1</v>
       </c>
       <c r="B3" t="n">
-        <v>355268.3982687964</v>
+        <v>355268.3982687963</v>
       </c>
     </row>
     <row r="4">
@@ -26139,7 +26139,7 @@
         <v>2</v>
       </c>
       <c r="B4" t="n">
-        <v>355268.3982687963</v>
+        <v>355268.3982687964</v>
       </c>
     </row>
     <row r="5">
@@ -26147,7 +26147,7 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>355268.3982687963</v>
+        <v>355268.3982687964</v>
       </c>
     </row>
     <row r="6">
@@ -26155,7 +26155,7 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>355268.3982687964</v>
+        <v>355268.3982687963</v>
       </c>
     </row>
     <row r="7">
@@ -26187,7 +26187,7 @@
         <v>8</v>
       </c>
       <c r="B10" t="n">
-        <v>498482.0175939975</v>
+        <v>498482.0175939976</v>
       </c>
     </row>
     <row r="11">
@@ -26195,7 +26195,7 @@
         <v>9</v>
       </c>
       <c r="B11" t="n">
-        <v>498482.0175939976</v>
+        <v>498482.0175939975</v>
       </c>
     </row>
     <row r="12">
@@ -26203,7 +26203,7 @@
         <v>10</v>
       </c>
       <c r="B12" t="n">
-        <v>498482.0175939975</v>
+        <v>498482.0175939976</v>
       </c>
     </row>
     <row r="13">
@@ -26211,7 +26211,7 @@
         <v>11</v>
       </c>
       <c r="B13" t="n">
-        <v>498482.0175939975</v>
+        <v>498482.0175939976</v>
       </c>
     </row>
     <row r="14">
@@ -26227,7 +26227,7 @@
         <v>13</v>
       </c>
       <c r="B15" t="n">
-        <v>495251.8800453862</v>
+        <v>495251.8800453863</v>
       </c>
     </row>
     <row r="16">
@@ -26311,7 +26311,7 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>59211.39971146603</v>
+        <v>59211.39971146601</v>
       </c>
       <c r="C2" t="n">
         <v>59211.39971146602</v>
@@ -26323,37 +26323,37 @@
         <v>59211.399711466</v>
       </c>
       <c r="F2" t="n">
-        <v>59211.39971146602</v>
+        <v>59211.39971146601</v>
       </c>
       <c r="G2" t="n">
-        <v>59776.50267559939</v>
+        <v>59776.50267559938</v>
       </c>
       <c r="H2" t="n">
+        <v>83080.33626566618</v>
+      </c>
+      <c r="I2" t="n">
+        <v>83080.33626566616</v>
+      </c>
+      <c r="J2" t="n">
+        <v>83080.33626566618</v>
+      </c>
+      <c r="K2" t="n">
         <v>83080.33626566621</v>
       </c>
-      <c r="I2" t="n">
-        <v>83080.33626566618</v>
-      </c>
-      <c r="J2" t="n">
-        <v>83080.33626566621</v>
-      </c>
-      <c r="K2" t="n">
-        <v>83080.33626566615</v>
-      </c>
       <c r="L2" t="n">
-        <v>83080.33626566621</v>
+        <v>83080.33626566616</v>
       </c>
       <c r="M2" t="n">
         <v>83080.33626566618</v>
       </c>
       <c r="N2" t="n">
-        <v>83080.33626566621</v>
+        <v>83080.33626566618</v>
       </c>
       <c r="O2" t="n">
-        <v>82541.9800075643</v>
+        <v>82541.98000756431</v>
       </c>
       <c r="P2" t="n">
-        <v>59211.39971146601</v>
+        <v>59211.39971146603</v>
       </c>
     </row>
     <row r="3">
@@ -26363,7 +26363,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>13265.4675990829</v>
+        <v>13265.46759908291</v>
       </c>
       <c r="C3" t="n">
         <v>0</v>
@@ -26421,7 +26421,7 @@
         <v>33.41106180436364</v>
       </c>
       <c r="D4" t="n">
-        <v>33.41106180436364</v>
+        <v>33.41106180436363</v>
       </c>
       <c r="E4" t="n">
         <v>33.41106180436364</v>
@@ -26430,7 +26430,7 @@
         <v>33.41106180436364</v>
       </c>
       <c r="G4" t="n">
-        <v>36.87052286425572</v>
+        <v>36.87052286425573</v>
       </c>
       <c r="H4" t="n">
         <v>179.5324977039669</v>
@@ -26519,7 +26519,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>9878.221331298853</v>
+        <v>9878.221331298824</v>
       </c>
       <c r="C6" t="n">
         <v>23143.68893038174</v>
@@ -26537,31 +26537,31 @@
         <v>55809.77652260324</v>
       </c>
       <c r="H6" t="n">
-        <v>15126.56803387554</v>
+        <v>15126.56803387551</v>
       </c>
       <c r="I6" t="n">
-        <v>68247.13500420054</v>
+        <v>68247.13500420052</v>
       </c>
       <c r="J6" t="n">
-        <v>57890.25110039675</v>
+        <v>57890.25110039672</v>
       </c>
       <c r="K6" t="n">
-        <v>68247.13500420051</v>
+        <v>68247.13500420057</v>
       </c>
       <c r="L6" t="n">
-        <v>68247.13500420057</v>
+        <v>68247.13500420052</v>
       </c>
       <c r="M6" t="n">
         <v>68247.13500420054</v>
       </c>
       <c r="N6" t="n">
-        <v>68247.13500420057</v>
+        <v>68247.13500420054</v>
       </c>
       <c r="O6" t="n">
-        <v>67988.61082990072</v>
+        <v>67988.61082990073</v>
       </c>
       <c r="P6" t="n">
-        <v>56771.28893038174</v>
+        <v>56771.28893038176</v>
       </c>
     </row>
   </sheetData>
@@ -34778,22 +34778,22 @@
         <v>0</v>
       </c>
       <c r="K3" t="n">
-        <v>39.58387696184059</v>
+        <v>0</v>
       </c>
       <c r="L3" t="n">
         <v>39.58387696184059</v>
       </c>
       <c r="M3" t="n">
+        <v>39.58387696184059</v>
+      </c>
+      <c r="N3" t="n">
+        <v>0</v>
+      </c>
+      <c r="O3" t="n">
+        <v>0</v>
+      </c>
+      <c r="P3" t="n">
         <v>37.98452839772582</v>
-      </c>
-      <c r="N3" t="n">
-        <v>0</v>
-      </c>
-      <c r="O3" t="n">
-        <v>0</v>
-      </c>
-      <c r="P3" t="n">
-        <v>0</v>
       </c>
       <c r="Q3" t="n">
         <v>39.58387696184059</v>
@@ -35015,16 +35015,16 @@
         <v>0</v>
       </c>
       <c r="K6" t="n">
-        <v>0</v>
+        <v>39.58387696184059</v>
       </c>
       <c r="L6" t="n">
         <v>39.58387696184059</v>
       </c>
       <c r="M6" t="n">
-        <v>39.58387696184059</v>
+        <v>37.98452839772582</v>
       </c>
       <c r="N6" t="n">
-        <v>37.98452839772582</v>
+        <v>0</v>
       </c>
       <c r="O6" t="n">
         <v>0</v>
@@ -35176,16 +35176,16 @@
         <v>39.58387696184059</v>
       </c>
       <c r="L8" t="n">
+        <v>0</v>
+      </c>
+      <c r="M8" t="n">
+        <v>0</v>
+      </c>
+      <c r="N8" t="n">
+        <v>37.98452839772582</v>
+      </c>
+      <c r="O8" t="n">
         <v>39.58387696184059</v>
-      </c>
-      <c r="M8" t="n">
-        <v>37.98452839772582</v>
-      </c>
-      <c r="N8" t="n">
-        <v>0</v>
-      </c>
-      <c r="O8" t="n">
-        <v>0</v>
       </c>
       <c r="P8" t="n">
         <v>39.58387696184059</v>
@@ -35252,7 +35252,7 @@
         <v>0</v>
       </c>
       <c r="K9" t="n">
-        <v>39.58387696184059</v>
+        <v>0</v>
       </c>
       <c r="L9" t="n">
         <v>0</v>
@@ -35264,7 +35264,7 @@
         <v>37.98452839772582</v>
       </c>
       <c r="O9" t="n">
-        <v>0</v>
+        <v>39.58387696184059</v>
       </c>
       <c r="P9" t="n">
         <v>39.58387696184059</v>
@@ -35416,10 +35416,10 @@
         <v>37.98452839772582</v>
       </c>
       <c r="M11" t="n">
-        <v>0</v>
+        <v>39.58387696184059</v>
       </c>
       <c r="N11" t="n">
-        <v>39.58387696184059</v>
+        <v>0</v>
       </c>
       <c r="O11" t="n">
         <v>39.58387696184059</v>
@@ -35492,22 +35492,22 @@
         <v>39.58387696184059</v>
       </c>
       <c r="L12" t="n">
-        <v>0</v>
+        <v>39.58387696184059</v>
       </c>
       <c r="M12" t="n">
-        <v>0</v>
+        <v>39.58387696184059</v>
       </c>
       <c r="N12" t="n">
+        <v>0</v>
+      </c>
+      <c r="O12" t="n">
+        <v>0</v>
+      </c>
+      <c r="P12" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q12" t="n">
         <v>37.98452839772582</v>
-      </c>
-      <c r="O12" t="n">
-        <v>39.58387696184059</v>
-      </c>
-      <c r="P12" t="n">
-        <v>39.58387696184059</v>
-      </c>
-      <c r="Q12" t="n">
-        <v>0</v>
       </c>
       <c r="R12" t="n">
         <v>0</v>
@@ -35653,16 +35653,16 @@
         <v>39.58387696184059</v>
       </c>
       <c r="M14" t="n">
+        <v>0</v>
+      </c>
+      <c r="N14" t="n">
+        <v>0</v>
+      </c>
+      <c r="O14" t="n">
         <v>37.98452839772582</v>
       </c>
-      <c r="N14" t="n">
-        <v>0</v>
-      </c>
-      <c r="O14" t="n">
+      <c r="P14" t="n">
         <v>39.58387696184059</v>
-      </c>
-      <c r="P14" t="n">
-        <v>0</v>
       </c>
       <c r="Q14" t="n">
         <v>0</v>
@@ -35726,25 +35726,25 @@
         <v>0</v>
       </c>
       <c r="K15" t="n">
-        <v>0</v>
+        <v>39.58387696184059</v>
       </c>
       <c r="L15" t="n">
-        <v>0</v>
+        <v>39.58387696184059</v>
       </c>
       <c r="M15" t="n">
-        <v>0</v>
+        <v>39.58387696184059</v>
       </c>
       <c r="N15" t="n">
+        <v>0</v>
+      </c>
+      <c r="O15" t="n">
+        <v>0</v>
+      </c>
+      <c r="P15" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q15" t="n">
         <v>37.98452839772582</v>
-      </c>
-      <c r="O15" t="n">
-        <v>39.58387696184059</v>
-      </c>
-      <c r="P15" t="n">
-        <v>39.58387696184059</v>
-      </c>
-      <c r="Q15" t="n">
-        <v>39.58387696184059</v>
       </c>
       <c r="R15" t="n">
         <v>0</v>
@@ -35884,22 +35884,22 @@
         <v>0</v>
       </c>
       <c r="K17" t="n">
-        <v>44.13217237922859</v>
+        <v>0</v>
       </c>
       <c r="L17" t="n">
-        <v>0</v>
+        <v>42.34905430330018</v>
       </c>
       <c r="M17" t="n">
-        <v>44.13217237922859</v>
+        <v>0</v>
       </c>
       <c r="N17" t="n">
         <v>44.13217237922859</v>
       </c>
       <c r="O17" t="n">
-        <v>42.34905430330016</v>
+        <v>44.13217237922859</v>
       </c>
       <c r="P17" t="n">
-        <v>0</v>
+        <v>44.13217237922859</v>
       </c>
       <c r="Q17" t="n">
         <v>0</v>
@@ -35966,22 +35966,22 @@
         <v>44.13217237922859</v>
       </c>
       <c r="L18" t="n">
+        <v>0</v>
+      </c>
+      <c r="M18" t="n">
+        <v>42.34905430330018</v>
+      </c>
+      <c r="N18" t="n">
         <v>44.13217237922859</v>
       </c>
-      <c r="M18" t="n">
+      <c r="O18" t="n">
         <v>44.13217237922859</v>
       </c>
-      <c r="N18" t="n">
-        <v>0</v>
-      </c>
-      <c r="O18" t="n">
-        <v>0</v>
-      </c>
       <c r="P18" t="n">
         <v>0</v>
       </c>
       <c r="Q18" t="n">
-        <v>42.34905430330016</v>
+        <v>0</v>
       </c>
       <c r="R18" t="n">
         <v>0</v>
@@ -36127,7 +36127,7 @@
         <v>181.8947995804632</v>
       </c>
       <c r="M20" t="n">
-        <v>219.1673002655598</v>
+        <v>219.1673002655597</v>
       </c>
       <c r="N20" t="n">
         <v>207.9338608153932</v>
@@ -36200,13 +36200,13 @@
         <v>0</v>
       </c>
       <c r="K21" t="n">
-        <v>126.6237980382196</v>
+        <v>0</v>
       </c>
       <c r="L21" t="n">
-        <v>91.0829537758999</v>
+        <v>232.285965523585</v>
       </c>
       <c r="M21" t="n">
-        <v>0</v>
+        <v>55.51629994036225</v>
       </c>
       <c r="N21" t="n">
         <v>241.0142888776591</v>
@@ -36218,7 +36218,7 @@
         <v>184.4883612256069</v>
       </c>
       <c r="Q21" t="n">
-        <v>70.09551364982758</v>
+        <v>0</v>
       </c>
       <c r="R21" t="n">
         <v>0</v>
@@ -36437,25 +36437,25 @@
         <v>0</v>
       </c>
       <c r="K24" t="n">
-        <v>0</v>
+        <v>126.6237980382196</v>
       </c>
       <c r="L24" t="n">
         <v>232.285965523585</v>
       </c>
       <c r="M24" t="n">
-        <v>240.0046611659691</v>
+        <v>99.81127712997396</v>
       </c>
       <c r="N24" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
       <c r="O24" t="n">
         <v>241.0142888776591</v>
       </c>
       <c r="P24" t="n">
-        <v>0</v>
+        <v>184.4883612256069</v>
       </c>
       <c r="Q24" t="n">
-        <v>0</v>
+        <v>70.09551364982758</v>
       </c>
       <c r="R24" t="n">
         <v>0</v>
@@ -36674,25 +36674,25 @@
         <v>0</v>
       </c>
       <c r="K27" t="n">
-        <v>0</v>
+        <v>126.6237980382196</v>
       </c>
       <c r="L27" t="n">
-        <v>232.285965523585</v>
+        <v>0</v>
       </c>
       <c r="M27" t="n">
         <v>241.0142888776591</v>
       </c>
       <c r="N27" t="n">
-        <v>240.0046611659691</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="O27" t="n">
-        <v>241.0142888776591</v>
+        <v>91.0829537758999</v>
       </c>
       <c r="P27" t="n">
-        <v>0</v>
+        <v>184.4883612256069</v>
       </c>
       <c r="Q27" t="n">
-        <v>0</v>
+        <v>70.09551364982758</v>
       </c>
       <c r="R27" t="n">
         <v>0</v>
@@ -37148,22 +37148,22 @@
         <v>0</v>
       </c>
       <c r="K33" t="n">
-        <v>0</v>
+        <v>126.6237980382196</v>
       </c>
       <c r="L33" t="n">
         <v>232.285965523585</v>
       </c>
       <c r="M33" t="n">
-        <v>241.0142888776591</v>
+        <v>169.9067907798017</v>
       </c>
       <c r="N33" t="n">
         <v>241.0142888776591</v>
       </c>
       <c r="O33" t="n">
-        <v>240.0046611659691</v>
+        <v>0</v>
       </c>
       <c r="P33" t="n">
-        <v>0</v>
+        <v>184.4883612256069</v>
       </c>
       <c r="Q33" t="n">
         <v>0</v>
@@ -37385,19 +37385,19 @@
         <v>0</v>
       </c>
       <c r="K36" t="n">
-        <v>126.6237980382196</v>
+        <v>55.51629994036225</v>
       </c>
       <c r="L36" t="n">
         <v>232.285965523585</v>
       </c>
       <c r="M36" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="N36" t="n">
-        <v>169.9067907798017</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="O36" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
       <c r="P36" t="n">
         <v>184.4883612256069</v>
@@ -37549,7 +37549,7 @@
         <v>181.8947995804632</v>
       </c>
       <c r="M38" t="n">
-        <v>219.1673002655598</v>
+        <v>219.1673002655597</v>
       </c>
       <c r="N38" t="n">
         <v>207.9338608153932</v>
@@ -37622,22 +37622,22 @@
         <v>0</v>
       </c>
       <c r="K39" t="n">
-        <v>0</v>
+        <v>126.6237980382196</v>
       </c>
       <c r="L39" t="n">
-        <v>232.285965523585</v>
+        <v>0</v>
       </c>
       <c r="M39" t="n">
-        <v>240.0046611659691</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="N39" t="n">
         <v>241.0142888776591</v>
       </c>
       <c r="O39" t="n">
-        <v>241.0142888776591</v>
+        <v>161.1784674257276</v>
       </c>
       <c r="P39" t="n">
-        <v>0</v>
+        <v>184.4883612256069</v>
       </c>
       <c r="Q39" t="n">
         <v>0</v>
@@ -37780,13 +37780,13 @@
         <v>0</v>
       </c>
       <c r="K41" t="n">
-        <v>86.04614936844587</v>
+        <v>104.0555615261842</v>
       </c>
       <c r="L41" t="n">
         <v>181.8947995804632</v>
       </c>
       <c r="M41" t="n">
-        <v>219.1673002655598</v>
+        <v>201.1578881078215</v>
       </c>
       <c r="N41" t="n">
         <v>207.9338608153932</v>
@@ -37862,16 +37862,16 @@
         <v>126.6237980382196</v>
       </c>
       <c r="L42" t="n">
-        <v>232.285965523585</v>
+        <v>0</v>
       </c>
       <c r="M42" t="n">
         <v>236.4659934602711</v>
       </c>
       <c r="N42" t="n">
-        <v>0</v>
+        <v>82.17013245293764</v>
       </c>
       <c r="O42" t="n">
-        <v>86.35016038962375</v>
+        <v>236.4659934602711</v>
       </c>
       <c r="P42" t="n">
         <v>184.4883612256069</v>
@@ -38017,10 +38017,10 @@
         <v>0</v>
       </c>
       <c r="K44" t="n">
-        <v>39.58387696184059</v>
+        <v>0</v>
       </c>
       <c r="L44" t="n">
-        <v>39.58387696184059</v>
+        <v>0</v>
       </c>
       <c r="M44" t="n">
         <v>37.98452839772582</v>
@@ -38029,10 +38029,10 @@
         <v>39.58387696184059</v>
       </c>
       <c r="O44" t="n">
-        <v>0</v>
+        <v>39.58387696184059</v>
       </c>
       <c r="P44" t="n">
-        <v>0</v>
+        <v>39.58387696184059</v>
       </c>
       <c r="Q44" t="n">
         <v>0</v>
@@ -38096,7 +38096,7 @@
         <v>0</v>
       </c>
       <c r="K45" t="n">
-        <v>37.98452839772582</v>
+        <v>0</v>
       </c>
       <c r="L45" t="n">
         <v>39.58387696184059</v>
@@ -38111,7 +38111,7 @@
         <v>0</v>
       </c>
       <c r="P45" t="n">
-        <v>0</v>
+        <v>37.98452839772582</v>
       </c>
       <c r="Q45" t="n">
         <v>0</v>

--- a/Outputs/1. Budget/Grid Search/Output Files/1500000/Output_0_10.xlsx
+++ b/Outputs/1. Budget/Grid Search/Output Files/1500000/Output_0_10.xlsx
@@ -480,8 +480,10 @@
           <t>Required Level of Met Demand</t>
         </is>
       </c>
-      <c r="B4" t="n">
-        <v>0</v>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>inf</t>
+        </is>
       </c>
     </row>
     <row r="5">
@@ -501,7 +503,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>376800.6061809955</v>
+        <v>373609.6494672063</v>
       </c>
     </row>
     <row r="7">
@@ -511,7 +513,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>2629876.587221765</v>
+        <v>2114249.189782366</v>
       </c>
     </row>
     <row r="8">
@@ -521,7 +523,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>19997574.02179436</v>
+        <v>19492207.60956401</v>
       </c>
     </row>
     <row r="9">
@@ -541,7 +543,7 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>4901378.246697891</v>
+        <v>5116643.000488906</v>
       </c>
     </row>
     <row r="11">
@@ -668,19 +670,19 @@
         <v>0</v>
       </c>
       <c r="F2" t="n">
-        <v>0</v>
+        <v>26.92232807701203</v>
       </c>
       <c r="G2" t="n">
-        <v>0</v>
+        <v>44.13217237922859</v>
       </c>
       <c r="H2" t="n">
-        <v>0</v>
+        <v>44.13217237922859</v>
       </c>
       <c r="I2" t="n">
-        <v>0</v>
+        <v>44.13217237922859</v>
       </c>
       <c r="J2" t="n">
-        <v>0</v>
+        <v>11.94928935461252</v>
       </c>
       <c r="K2" t="n">
         <v>0</v>
@@ -701,10 +703,10 @@
         <v>0</v>
       </c>
       <c r="Q2" t="n">
-        <v>9.990699214544804</v>
+        <v>0</v>
       </c>
       <c r="R2" t="n">
-        <v>24.87477961344436</v>
+        <v>0</v>
       </c>
       <c r="S2" t="n">
         <v>0</v>
@@ -719,13 +721,13 @@
         <v>0</v>
       </c>
       <c r="W2" t="n">
-        <v>39.58387696184059</v>
+        <v>0</v>
       </c>
       <c r="X2" t="n">
-        <v>39.58387696184059</v>
+        <v>0</v>
       </c>
       <c r="Y2" t="n">
-        <v>39.58387696184059</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3">
@@ -747,19 +749,19 @@
         <v>0</v>
       </c>
       <c r="F3" t="n">
-        <v>34.11888750173132</v>
+        <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>39.58387696184059</v>
+        <v>0</v>
       </c>
       <c r="H3" t="n">
-        <v>39.58387696184059</v>
+        <v>0</v>
       </c>
       <c r="I3" t="n">
-        <v>39.58387696184059</v>
+        <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>0.7465913262578567</v>
+        <v>0</v>
       </c>
       <c r="K3" t="n">
         <v>0</v>
@@ -783,16 +785,16 @@
         <v>0</v>
       </c>
       <c r="R3" t="n">
-        <v>0</v>
+        <v>44.13217237922859</v>
       </c>
       <c r="S3" t="n">
-        <v>0</v>
+        <v>44.13217237922859</v>
       </c>
       <c r="T3" t="n">
-        <v>0</v>
+        <v>44.13217237922859</v>
       </c>
       <c r="U3" t="n">
-        <v>0</v>
+        <v>38.87161743162454</v>
       </c>
       <c r="V3" t="n">
         <v>0</v>
@@ -835,13 +837,13 @@
         <v>0</v>
       </c>
       <c r="I4" t="n">
-        <v>39.58387696184059</v>
+        <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>39.58387696184059</v>
+        <v>0</v>
       </c>
       <c r="K4" t="n">
-        <v>7.256111626157765</v>
+        <v>0</v>
       </c>
       <c r="L4" t="n">
         <v>0</v>
@@ -856,16 +858,16 @@
         <v>0</v>
       </c>
       <c r="P4" t="n">
-        <v>2.721440735106512</v>
+        <v>0.7904504476822691</v>
       </c>
       <c r="Q4" t="n">
-        <v>39.58387696184059</v>
+        <v>44.13217237922859</v>
       </c>
       <c r="R4" t="n">
-        <v>0</v>
+        <v>44.13217237922859</v>
       </c>
       <c r="S4" t="n">
-        <v>0</v>
+        <v>44.13217237922859</v>
       </c>
       <c r="T4" t="n">
         <v>0</v>
@@ -905,16 +907,16 @@
         <v>0</v>
       </c>
       <c r="F5" t="n">
-        <v>0</v>
+        <v>16.93162886246722</v>
       </c>
       <c r="G5" t="n">
-        <v>0</v>
+        <v>44.13217237922859</v>
       </c>
       <c r="H5" t="n">
-        <v>0</v>
+        <v>44.13217237922859</v>
       </c>
       <c r="I5" t="n">
-        <v>0</v>
+        <v>44.13217237922859</v>
       </c>
       <c r="J5" t="n">
         <v>11.94928935461252</v>
@@ -941,16 +943,16 @@
         <v>9.990699214544804</v>
       </c>
       <c r="R5" t="n">
-        <v>39.58387696184059</v>
+        <v>0</v>
       </c>
       <c r="S5" t="n">
-        <v>39.58387696184059</v>
+        <v>0</v>
       </c>
       <c r="T5" t="n">
-        <v>39.58387696184059</v>
+        <v>0</v>
       </c>
       <c r="U5" t="n">
-        <v>12.92549025883184</v>
+        <v>0</v>
       </c>
       <c r="V5" t="n">
         <v>0</v>
@@ -981,22 +983,22 @@
         <v>0</v>
       </c>
       <c r="E6" t="n">
-        <v>0</v>
+        <v>44.13217237922859</v>
       </c>
       <c r="F6" t="n">
-        <v>34.11888750173132</v>
+        <v>44.13217237922859</v>
       </c>
       <c r="G6" t="n">
-        <v>39.58387696184059</v>
+        <v>44.13217237922859</v>
       </c>
       <c r="H6" t="n">
-        <v>39.58387696184059</v>
+        <v>38.87161743162454</v>
       </c>
       <c r="I6" t="n">
-        <v>39.58387696184059</v>
+        <v>0</v>
       </c>
       <c r="J6" t="n">
-        <v>0.7465913262578567</v>
+        <v>0</v>
       </c>
       <c r="K6" t="n">
         <v>0</v>
@@ -1072,13 +1074,13 @@
         <v>0</v>
       </c>
       <c r="I7" t="n">
-        <v>39.58387696184059</v>
+        <v>0</v>
       </c>
       <c r="J7" t="n">
-        <v>39.58387696184059</v>
+        <v>0</v>
       </c>
       <c r="K7" t="n">
-        <v>7.256111626157765</v>
+        <v>0</v>
       </c>
       <c r="L7" t="n">
         <v>0</v>
@@ -1096,13 +1098,13 @@
         <v>2.721440735106512</v>
       </c>
       <c r="Q7" t="n">
-        <v>39.58387696184059</v>
+        <v>44.13217237922859</v>
       </c>
       <c r="R7" t="n">
-        <v>0</v>
+        <v>44.13217237922859</v>
       </c>
       <c r="S7" t="n">
-        <v>0</v>
+        <v>42.20118209180435</v>
       </c>
       <c r="T7" t="n">
         <v>0</v>
@@ -1154,7 +1156,7 @@
         <v>0</v>
       </c>
       <c r="J8" t="n">
-        <v>0</v>
+        <v>11.94928935461252</v>
       </c>
       <c r="K8" t="n">
         <v>0</v>
@@ -1178,16 +1180,16 @@
         <v>9.990699214544804</v>
       </c>
       <c r="R8" t="n">
-        <v>39.58387696184059</v>
+        <v>44.13217237922859</v>
       </c>
       <c r="S8" t="n">
-        <v>39.58387696184059</v>
+        <v>44.13217237922859</v>
       </c>
       <c r="T8" t="n">
-        <v>39.58387696184059</v>
+        <v>44.13217237922859</v>
       </c>
       <c r="U8" t="n">
-        <v>24.87477961344436</v>
+        <v>16.93162886246721</v>
       </c>
       <c r="V8" t="n">
         <v>0</v>
@@ -1221,19 +1223,19 @@
         <v>0</v>
       </c>
       <c r="F9" t="n">
-        <v>34.11888750173132</v>
+        <v>44.13217237922859</v>
       </c>
       <c r="G9" t="n">
-        <v>39.58387696184059</v>
+        <v>44.13217237922859</v>
       </c>
       <c r="H9" t="n">
-        <v>39.58387696184059</v>
+        <v>44.13217237922859</v>
       </c>
       <c r="I9" t="n">
-        <v>39.58387696184059</v>
+        <v>0</v>
       </c>
       <c r="J9" t="n">
-        <v>0.7465913262578567</v>
+        <v>0</v>
       </c>
       <c r="K9" t="n">
         <v>0</v>
@@ -1257,7 +1259,7 @@
         <v>0</v>
       </c>
       <c r="R9" t="n">
-        <v>0</v>
+        <v>38.87161743162455</v>
       </c>
       <c r="S9" t="n">
         <v>0</v>
@@ -1306,13 +1308,13 @@
         <v>0</v>
       </c>
       <c r="H10" t="n">
-        <v>0</v>
+        <v>22.65313100102799</v>
       </c>
       <c r="I10" t="n">
-        <v>0</v>
+        <v>44.13217237922859</v>
       </c>
       <c r="J10" t="n">
-        <v>0</v>
+        <v>44.13217237922859</v>
       </c>
       <c r="K10" t="n">
         <v>22.26949182588285</v>
@@ -1330,16 +1332,16 @@
         <v>0</v>
       </c>
       <c r="P10" t="n">
-        <v>2.721440735106512</v>
+        <v>0</v>
       </c>
       <c r="Q10" t="n">
-        <v>39.58387696184059</v>
+        <v>0</v>
       </c>
       <c r="R10" t="n">
-        <v>39.58387696184059</v>
+        <v>0</v>
       </c>
       <c r="S10" t="n">
-        <v>24.5704967621155</v>
+        <v>0</v>
       </c>
       <c r="T10" t="n">
         <v>0</v>
@@ -1367,19 +1369,19 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>24.87477961344436</v>
+        <v>0</v>
       </c>
       <c r="C11" t="n">
         <v>0</v>
       </c>
       <c r="D11" t="n">
-        <v>39.58387696184059</v>
+        <v>0</v>
       </c>
       <c r="E11" t="n">
         <v>0</v>
       </c>
       <c r="F11" t="n">
-        <v>39.58387696184059</v>
+        <v>0</v>
       </c>
       <c r="G11" t="n">
         <v>0</v>
@@ -1388,10 +1390,10 @@
         <v>0</v>
       </c>
       <c r="I11" t="n">
-        <v>39.58387696184059</v>
+        <v>26.92232807701202</v>
       </c>
       <c r="J11" t="n">
-        <v>0</v>
+        <v>11.94928935461252</v>
       </c>
       <c r="K11" t="n">
         <v>0</v>
@@ -1412,7 +1414,7 @@
         <v>0</v>
       </c>
       <c r="Q11" t="n">
-        <v>9.990699214544804</v>
+        <v>0</v>
       </c>
       <c r="R11" t="n">
         <v>0</v>
@@ -1424,13 +1426,13 @@
         <v>0</v>
       </c>
       <c r="U11" t="n">
-        <v>0</v>
+        <v>44.13217237922859</v>
       </c>
       <c r="V11" t="n">
-        <v>0</v>
+        <v>44.13217237922859</v>
       </c>
       <c r="W11" t="n">
-        <v>0</v>
+        <v>44.13217237922859</v>
       </c>
       <c r="X11" t="n">
         <v>0</v>
@@ -1458,16 +1460,16 @@
         <v>0</v>
       </c>
       <c r="F12" t="n">
-        <v>34.86547882798917</v>
+        <v>0</v>
       </c>
       <c r="G12" t="n">
-        <v>39.58387696184059</v>
+        <v>0</v>
       </c>
       <c r="H12" t="n">
-        <v>39.58387696184059</v>
+        <v>0</v>
       </c>
       <c r="I12" t="n">
-        <v>39.58387696184059</v>
+        <v>38.87161743162454</v>
       </c>
       <c r="J12" t="n">
         <v>0</v>
@@ -1494,13 +1496,13 @@
         <v>0</v>
       </c>
       <c r="R12" t="n">
-        <v>0</v>
+        <v>44.13217237922859</v>
       </c>
       <c r="S12" t="n">
-        <v>0</v>
+        <v>44.13217237922859</v>
       </c>
       <c r="T12" t="n">
-        <v>0</v>
+        <v>44.13217237922859</v>
       </c>
       <c r="U12" t="n">
         <v>0</v>
@@ -1546,13 +1548,13 @@
         <v>0</v>
       </c>
       <c r="I13" t="n">
-        <v>24.5704967621155</v>
+        <v>0</v>
       </c>
       <c r="J13" t="n">
-        <v>39.58387696184059</v>
+        <v>0</v>
       </c>
       <c r="K13" t="n">
-        <v>22.26949182588285</v>
+        <v>0</v>
       </c>
       <c r="L13" t="n">
         <v>0</v>
@@ -1570,13 +1572,13 @@
         <v>2.721440735106512</v>
       </c>
       <c r="Q13" t="n">
-        <v>39.58387696184059</v>
+        <v>44.13217237922859</v>
       </c>
       <c r="R13" t="n">
-        <v>0</v>
+        <v>44.13217237922859</v>
       </c>
       <c r="S13" t="n">
-        <v>0</v>
+        <v>42.20118209180435</v>
       </c>
       <c r="T13" t="n">
         <v>0</v>
@@ -1619,13 +1621,13 @@
         <v>0</v>
       </c>
       <c r="G14" t="n">
-        <v>0</v>
+        <v>44.13217237922859</v>
       </c>
       <c r="H14" t="n">
-        <v>0</v>
+        <v>38.87161743162454</v>
       </c>
       <c r="I14" t="n">
-        <v>0</v>
+        <v>44.13217237922859</v>
       </c>
       <c r="J14" t="n">
         <v>0</v>
@@ -1649,19 +1651,19 @@
         <v>0</v>
       </c>
       <c r="Q14" t="n">
-        <v>9.990699214544804</v>
+        <v>0</v>
       </c>
       <c r="R14" t="n">
-        <v>24.87477961344436</v>
+        <v>44.13217237922859</v>
       </c>
       <c r="S14" t="n">
-        <v>39.58387696184059</v>
+        <v>0</v>
       </c>
       <c r="T14" t="n">
-        <v>39.58387696184059</v>
+        <v>0</v>
       </c>
       <c r="U14" t="n">
-        <v>39.58387696184059</v>
+        <v>0</v>
       </c>
       <c r="V14" t="n">
         <v>0</v>
@@ -1701,10 +1703,10 @@
         <v>0</v>
       </c>
       <c r="H15" t="n">
-        <v>0</v>
+        <v>44.13217237922859</v>
       </c>
       <c r="I15" t="n">
-        <v>0</v>
+        <v>44.13217237922859</v>
       </c>
       <c r="J15" t="n">
         <v>0</v>
@@ -1731,16 +1733,16 @@
         <v>0</v>
       </c>
       <c r="R15" t="n">
-        <v>39.58387696184059</v>
+        <v>44.13217237922859</v>
       </c>
       <c r="S15" t="n">
-        <v>39.58387696184059</v>
+        <v>38.87161743162455</v>
       </c>
       <c r="T15" t="n">
-        <v>39.58387696184059</v>
+        <v>0</v>
       </c>
       <c r="U15" t="n">
-        <v>34.86547882798917</v>
+        <v>0</v>
       </c>
       <c r="V15" t="n">
         <v>0</v>
@@ -1783,10 +1785,10 @@
         <v>0</v>
       </c>
       <c r="I16" t="n">
-        <v>24.5704967621155</v>
+        <v>0</v>
       </c>
       <c r="J16" t="n">
-        <v>39.58387696184059</v>
+        <v>19.9316902659215</v>
       </c>
       <c r="K16" t="n">
         <v>22.26949182588285</v>
@@ -1807,10 +1809,10 @@
         <v>2.721440735106512</v>
       </c>
       <c r="Q16" t="n">
-        <v>39.58387696184059</v>
+        <v>44.13217237922859</v>
       </c>
       <c r="R16" t="n">
-        <v>0</v>
+        <v>44.13217237922859</v>
       </c>
       <c r="S16" t="n">
         <v>0</v>
@@ -1889,19 +1891,19 @@
         <v>9.990699214544804</v>
       </c>
       <c r="R17" t="n">
-        <v>44.13217237922859</v>
+        <v>149.8691179411497</v>
       </c>
       <c r="S17" t="n">
-        <v>28.88091821707974</v>
+        <v>209.0200695862453</v>
       </c>
       <c r="T17" t="n">
-        <v>44.13217237922859</v>
+        <v>223.0958495641314</v>
       </c>
       <c r="U17" t="n">
-        <v>44.13217237922859</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="V17" t="n">
-        <v>0</v>
+        <v>102.3382270926889</v>
       </c>
       <c r="W17" t="n">
         <v>0</v>
@@ -1923,28 +1925,28 @@
         <v>0</v>
       </c>
       <c r="C18" t="n">
-        <v>0</v>
+        <v>145.4467082856156</v>
       </c>
       <c r="D18" t="n">
-        <v>0</v>
+        <v>147.4450655646388</v>
       </c>
       <c r="E18" t="n">
-        <v>0</v>
+        <v>157.6450804554009</v>
       </c>
       <c r="F18" t="n">
-        <v>0</v>
+        <v>145.0692123933839</v>
       </c>
       <c r="G18" t="n">
-        <v>0</v>
+        <v>137.3435171632106</v>
       </c>
       <c r="H18" t="n">
-        <v>0</v>
+        <v>112.2354442364965</v>
       </c>
       <c r="I18" t="n">
-        <v>0</v>
+        <v>89.39663285141508</v>
       </c>
       <c r="J18" t="n">
-        <v>0</v>
+        <v>0.7465913262578567</v>
       </c>
       <c r="K18" t="n">
         <v>0</v>
@@ -1968,16 +1970,16 @@
         <v>0</v>
       </c>
       <c r="R18" t="n">
-        <v>38.87161743162455</v>
+        <v>0</v>
       </c>
       <c r="S18" t="n">
-        <v>44.13217237922859</v>
+        <v>0</v>
       </c>
       <c r="T18" t="n">
-        <v>44.13217237922859</v>
+        <v>0</v>
       </c>
       <c r="U18" t="n">
-        <v>44.13217237922859</v>
+        <v>0</v>
       </c>
       <c r="V18" t="n">
         <v>0</v>
@@ -1999,7 +2001,7 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>0.790450447682262</v>
+        <v>0</v>
       </c>
       <c r="C19" t="n">
         <v>0</v>
@@ -2053,13 +2055,13 @@
         <v>0</v>
       </c>
       <c r="T19" t="n">
-        <v>44.13217237922859</v>
+        <v>0</v>
       </c>
       <c r="U19" t="n">
-        <v>44.13217237922859</v>
+        <v>0</v>
       </c>
       <c r="V19" t="n">
-        <v>44.13217237922859</v>
+        <v>133.186967585368</v>
       </c>
       <c r="W19" t="n">
         <v>0</v>
@@ -2087,13 +2089,13 @@
         <v>0</v>
       </c>
       <c r="E20" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="F20" t="n">
         <v>0</v>
       </c>
       <c r="G20" t="n">
-        <v>0</v>
+        <v>234.288905720311</v>
       </c>
       <c r="H20" t="n">
         <v>0</v>
@@ -2123,16 +2125,16 @@
         <v>0</v>
       </c>
       <c r="Q20" t="n">
-        <v>0</v>
+        <v>9.990699214544804</v>
       </c>
       <c r="R20" t="n">
-        <v>21.18375537072436</v>
+        <v>0</v>
       </c>
       <c r="S20" t="n">
         <v>209.0200695862453</v>
       </c>
       <c r="T20" t="n">
-        <v>223.0958495641314</v>
+        <v>0</v>
       </c>
       <c r="U20" t="n">
         <v>241.0142888776591</v>
@@ -2144,7 +2146,7 @@
         <v>0</v>
       </c>
       <c r="X20" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
       <c r="Y20" t="n">
         <v>0</v>
@@ -2160,7 +2162,7 @@
         <v>0</v>
       </c>
       <c r="C21" t="n">
-        <v>172.7084989883157</v>
+        <v>0</v>
       </c>
       <c r="D21" t="n">
         <v>0</v>
@@ -2169,19 +2171,19 @@
         <v>0</v>
       </c>
       <c r="F21" t="n">
-        <v>145.0692123933839</v>
+        <v>0</v>
       </c>
       <c r="G21" t="n">
-        <v>0</v>
+        <v>53.36172263168805</v>
       </c>
       <c r="H21" t="n">
-        <v>0</v>
+        <v>112.2354442364965</v>
       </c>
       <c r="I21" t="n">
-        <v>0</v>
+        <v>89.39663285141508</v>
       </c>
       <c r="J21" t="n">
-        <v>0</v>
+        <v>0.7465913262578567</v>
       </c>
       <c r="K21" t="n">
         <v>0</v>
@@ -2205,13 +2207,13 @@
         <v>0</v>
       </c>
       <c r="R21" t="n">
-        <v>100.1578341526431</v>
+        <v>0</v>
       </c>
       <c r="S21" t="n">
-        <v>84.42739089782954</v>
+        <v>0</v>
       </c>
       <c r="T21" t="n">
-        <v>200.1647286948216</v>
+        <v>0</v>
       </c>
       <c r="U21" t="n">
         <v>0</v>
@@ -2220,10 +2222,10 @@
         <v>232.8005871494253</v>
       </c>
       <c r="W21" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="X21" t="n">
-        <v>0</v>
+        <v>205.7729852034775</v>
       </c>
       <c r="Y21" t="n">
         <v>0</v>
@@ -2284,28 +2286,28 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
+        <v>0</v>
+      </c>
+      <c r="S22" t="n">
+        <v>0</v>
+      </c>
+      <c r="T22" t="n">
+        <v>0</v>
+      </c>
+      <c r="U22" t="n">
+        <v>0</v>
+      </c>
+      <c r="V22" t="n">
+        <v>0</v>
+      </c>
+      <c r="W22" t="n">
+        <v>0</v>
+      </c>
+      <c r="X22" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y22" t="n">
         <v>133.186967585368</v>
-      </c>
-      <c r="S22" t="n">
-        <v>0</v>
-      </c>
-      <c r="T22" t="n">
-        <v>0</v>
-      </c>
-      <c r="U22" t="n">
-        <v>0</v>
-      </c>
-      <c r="V22" t="n">
-        <v>0</v>
-      </c>
-      <c r="W22" t="n">
-        <v>0</v>
-      </c>
-      <c r="X22" t="n">
-        <v>0</v>
-      </c>
-      <c r="Y22" t="n">
-        <v>0</v>
       </c>
     </row>
     <row r="23">
@@ -2324,61 +2326,61 @@
         <v>0</v>
       </c>
       <c r="E23" t="n">
+        <v>0</v>
+      </c>
+      <c r="F23" t="n">
+        <v>0</v>
+      </c>
+      <c r="G23" t="n">
+        <v>0</v>
+      </c>
+      <c r="H23" t="n">
+        <v>0</v>
+      </c>
+      <c r="I23" t="n">
+        <v>0</v>
+      </c>
+      <c r="J23" t="n">
+        <v>0</v>
+      </c>
+      <c r="K23" t="n">
+        <v>0</v>
+      </c>
+      <c r="L23" t="n">
+        <v>0</v>
+      </c>
+      <c r="M23" t="n">
+        <v>0</v>
+      </c>
+      <c r="N23" t="n">
+        <v>0</v>
+      </c>
+      <c r="O23" t="n">
+        <v>0</v>
+      </c>
+      <c r="P23" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q23" t="n">
+        <v>0</v>
+      </c>
+      <c r="R23" t="n">
+        <v>149.8691179411497</v>
+      </c>
+      <c r="S23" t="n">
+        <v>209.0200695862453</v>
+      </c>
+      <c r="T23" t="n">
+        <v>0</v>
+      </c>
+      <c r="U23" t="n">
         <v>241.0142888776591</v>
-      </c>
-      <c r="F23" t="n">
-        <v>241.0142888776591</v>
-      </c>
-      <c r="G23" t="n">
-        <v>0</v>
-      </c>
-      <c r="H23" t="n">
-        <v>0</v>
-      </c>
-      <c r="I23" t="n">
-        <v>0</v>
-      </c>
-      <c r="J23" t="n">
-        <v>0</v>
-      </c>
-      <c r="K23" t="n">
-        <v>0</v>
-      </c>
-      <c r="L23" t="n">
-        <v>0</v>
-      </c>
-      <c r="M23" t="n">
-        <v>0</v>
-      </c>
-      <c r="N23" t="n">
-        <v>0</v>
-      </c>
-      <c r="O23" t="n">
-        <v>0</v>
-      </c>
-      <c r="P23" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q23" t="n">
-        <v>0</v>
-      </c>
-      <c r="R23" t="n">
-        <v>0</v>
-      </c>
-      <c r="S23" t="n">
-        <v>0</v>
-      </c>
-      <c r="T23" t="n">
-        <v>0</v>
-      </c>
-      <c r="U23" t="n">
-        <v>0</v>
       </c>
       <c r="V23" t="n">
         <v>241.0142888776591</v>
       </c>
       <c r="W23" t="n">
-        <v>212.2853856434421</v>
+        <v>94.41048699370604</v>
       </c>
       <c r="X23" t="n">
         <v>0</v>
@@ -2394,7 +2396,7 @@
         </is>
       </c>
       <c r="B24" t="n">
-        <v>166.5331836498673</v>
+        <v>0</v>
       </c>
       <c r="C24" t="n">
         <v>0</v>
@@ -2403,22 +2405,22 @@
         <v>0</v>
       </c>
       <c r="E24" t="n">
-        <v>0</v>
+        <v>157.6450804554009</v>
       </c>
       <c r="F24" t="n">
         <v>0</v>
       </c>
       <c r="G24" t="n">
-        <v>137.3435171632106</v>
+        <v>60.79924063643708</v>
       </c>
       <c r="H24" t="n">
         <v>112.2354442364965</v>
       </c>
       <c r="I24" t="n">
-        <v>89.39663285141508</v>
+        <v>0</v>
       </c>
       <c r="J24" t="n">
-        <v>0.7465913262578567</v>
+        <v>0</v>
       </c>
       <c r="K24" t="n">
         <v>0</v>
@@ -2445,25 +2447,25 @@
         <v>0</v>
       </c>
       <c r="S24" t="n">
-        <v>0</v>
+        <v>171.6831711038378</v>
       </c>
       <c r="T24" t="n">
-        <v>0</v>
+        <v>200.1647286948216</v>
       </c>
       <c r="U24" t="n">
         <v>0</v>
       </c>
       <c r="V24" t="n">
-        <v>17.61720206838995</v>
+        <v>232.8005871494253</v>
       </c>
       <c r="W24" t="n">
         <v>0</v>
       </c>
       <c r="X24" t="n">
-        <v>205.7729852034775</v>
+        <v>0</v>
       </c>
       <c r="Y24" t="n">
-        <v>205.6826957773044</v>
+        <v>0</v>
       </c>
     </row>
     <row r="25">
@@ -2482,7 +2484,7 @@
         <v>0</v>
       </c>
       <c r="E25" t="n">
-        <v>47.02492433367365</v>
+        <v>0</v>
       </c>
       <c r="F25" t="n">
         <v>0</v>
@@ -2518,7 +2520,7 @@
         <v>0</v>
       </c>
       <c r="Q25" t="n">
-        <v>86.16204325169439</v>
+        <v>0</v>
       </c>
       <c r="R25" t="n">
         <v>0</v>
@@ -2542,7 +2544,7 @@
         <v>0</v>
       </c>
       <c r="Y25" t="n">
-        <v>0</v>
+        <v>133.186967585368</v>
       </c>
     </row>
     <row r="26">
@@ -2552,10 +2554,10 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
       <c r="C26" t="n">
-        <v>0</v>
+        <v>212.2853856434421</v>
       </c>
       <c r="D26" t="n">
         <v>241.0142888776591</v>
@@ -2567,7 +2569,7 @@
         <v>0</v>
       </c>
       <c r="G26" t="n">
-        <v>212.2853856434421</v>
+        <v>0</v>
       </c>
       <c r="H26" t="n">
         <v>241.0142888776591</v>
@@ -2618,7 +2620,7 @@
         <v>0</v>
       </c>
       <c r="X26" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="Y26" t="n">
         <v>0</v>
@@ -2634,7 +2636,7 @@
         <v>0</v>
       </c>
       <c r="C27" t="n">
-        <v>0</v>
+        <v>145.4467082856156</v>
       </c>
       <c r="D27" t="n">
         <v>147.4450655646388</v>
@@ -2649,13 +2651,13 @@
         <v>137.3435171632106</v>
       </c>
       <c r="H27" t="n">
-        <v>32.4873617673952</v>
+        <v>112.2354442364965</v>
       </c>
       <c r="I27" t="n">
         <v>89.39663285141508</v>
       </c>
       <c r="J27" t="n">
-        <v>0</v>
+        <v>0.7465913262578567</v>
       </c>
       <c r="K27" t="n">
         <v>0</v>
@@ -2688,7 +2690,7 @@
         <v>0</v>
       </c>
       <c r="U27" t="n">
-        <v>225.9413820809748</v>
+        <v>0</v>
       </c>
       <c r="V27" t="n">
         <v>0</v>
@@ -2761,7 +2763,7 @@
         <v>0</v>
       </c>
       <c r="S28" t="n">
-        <v>0</v>
+        <v>133.186967585368</v>
       </c>
       <c r="T28" t="n">
         <v>0</v>
@@ -2776,7 +2778,7 @@
         <v>0</v>
       </c>
       <c r="X28" t="n">
-        <v>133.186967585368</v>
+        <v>0</v>
       </c>
       <c r="Y28" t="n">
         <v>0</v>
@@ -2798,64 +2800,64 @@
         <v>0</v>
       </c>
       <c r="E29" t="n">
-        <v>202.2946864288972</v>
+        <v>0</v>
       </c>
       <c r="F29" t="n">
+        <v>0</v>
+      </c>
+      <c r="G29" t="n">
+        <v>232.3303155802432</v>
+      </c>
+      <c r="H29" t="n">
+        <v>0</v>
+      </c>
+      <c r="I29" t="n">
+        <v>0</v>
+      </c>
+      <c r="J29" t="n">
+        <v>11.94928935461252</v>
+      </c>
+      <c r="K29" t="n">
+        <v>0</v>
+      </c>
+      <c r="L29" t="n">
+        <v>0</v>
+      </c>
+      <c r="M29" t="n">
+        <v>0</v>
+      </c>
+      <c r="N29" t="n">
+        <v>0</v>
+      </c>
+      <c r="O29" t="n">
+        <v>0</v>
+      </c>
+      <c r="P29" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q29" t="n">
+        <v>0</v>
+      </c>
+      <c r="R29" t="n">
+        <v>0</v>
+      </c>
+      <c r="S29" t="n">
+        <v>209.0200695862453</v>
+      </c>
+      <c r="T29" t="n">
+        <v>0</v>
+      </c>
+      <c r="U29" t="n">
         <v>241.0142888776591</v>
       </c>
-      <c r="G29" t="n">
+      <c r="V29" t="n">
         <v>241.0142888776591</v>
       </c>
-      <c r="H29" t="n">
-        <v>0</v>
-      </c>
-      <c r="I29" t="n">
-        <v>0</v>
-      </c>
-      <c r="J29" t="n">
-        <v>0</v>
-      </c>
-      <c r="K29" t="n">
-        <v>0</v>
-      </c>
-      <c r="L29" t="n">
-        <v>0</v>
-      </c>
-      <c r="M29" t="n">
-        <v>0</v>
-      </c>
-      <c r="N29" t="n">
-        <v>0</v>
-      </c>
-      <c r="O29" t="n">
-        <v>0</v>
-      </c>
-      <c r="P29" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q29" t="n">
-        <v>9.990699214544804</v>
-      </c>
-      <c r="R29" t="n">
-        <v>0</v>
-      </c>
-      <c r="S29" t="n">
-        <v>0</v>
-      </c>
-      <c r="T29" t="n">
-        <v>0</v>
-      </c>
-      <c r="U29" t="n">
-        <v>0</v>
-      </c>
-      <c r="V29" t="n">
-        <v>0</v>
-      </c>
       <c r="W29" t="n">
         <v>0</v>
       </c>
       <c r="X29" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
       <c r="Y29" t="n">
         <v>0</v>
@@ -2868,19 +2870,19 @@
         </is>
       </c>
       <c r="B30" t="n">
-        <v>166.5331836498673</v>
+        <v>0</v>
       </c>
       <c r="C30" t="n">
-        <v>172.7084989883157</v>
+        <v>0</v>
       </c>
       <c r="D30" t="n">
-        <v>0</v>
+        <v>147.4450655646388</v>
       </c>
       <c r="E30" t="n">
         <v>0</v>
       </c>
       <c r="F30" t="n">
-        <v>0</v>
+        <v>135.4132168533396</v>
       </c>
       <c r="G30" t="n">
         <v>0</v>
@@ -2916,28 +2918,28 @@
         <v>0</v>
       </c>
       <c r="R30" t="n">
-        <v>100.1578341526431</v>
+        <v>0</v>
       </c>
       <c r="S30" t="n">
-        <v>171.6831711038378</v>
+        <v>0</v>
       </c>
       <c r="T30" t="n">
-        <v>98.30418230078025</v>
+        <v>0</v>
       </c>
       <c r="U30" t="n">
-        <v>225.9413820809748</v>
+        <v>0</v>
       </c>
       <c r="V30" t="n">
         <v>0</v>
       </c>
       <c r="W30" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="X30" t="n">
-        <v>0</v>
+        <v>205.7729852034775</v>
       </c>
       <c r="Y30" t="n">
-        <v>0</v>
+        <v>205.6826957773044</v>
       </c>
     </row>
     <row r="31">
@@ -2947,19 +2949,19 @@
         </is>
       </c>
       <c r="B31" t="n">
+        <v>0</v>
+      </c>
+      <c r="C31" t="n">
+        <v>0</v>
+      </c>
+      <c r="D31" t="n">
+        <v>0</v>
+      </c>
+      <c r="E31" t="n">
+        <v>0</v>
+      </c>
+      <c r="F31" t="n">
         <v>133.186967585368</v>
-      </c>
-      <c r="C31" t="n">
-        <v>0</v>
-      </c>
-      <c r="D31" t="n">
-        <v>0</v>
-      </c>
-      <c r="E31" t="n">
-        <v>0</v>
-      </c>
-      <c r="F31" t="n">
-        <v>0</v>
       </c>
       <c r="G31" t="n">
         <v>0</v>
@@ -3026,22 +3028,22 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>52.42556848774752</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="C32" t="n">
+        <v>0</v>
+      </c>
+      <c r="D32" t="n">
+        <v>0</v>
+      </c>
+      <c r="E32" t="n">
+        <v>0</v>
+      </c>
+      <c r="F32" t="n">
+        <v>0</v>
+      </c>
+      <c r="G32" t="n">
         <v>241.0142888776591</v>
-      </c>
-      <c r="D32" t="n">
-        <v>241.0142888776591</v>
-      </c>
-      <c r="E32" t="n">
-        <v>241.0142888776591</v>
-      </c>
-      <c r="F32" t="n">
-        <v>0</v>
-      </c>
-      <c r="G32" t="n">
-        <v>0</v>
       </c>
       <c r="H32" t="n">
         <v>0</v>
@@ -3074,10 +3076,10 @@
         <v>9.990699214544804</v>
       </c>
       <c r="R32" t="n">
-        <v>149.8691179411497</v>
+        <v>0</v>
       </c>
       <c r="S32" t="n">
-        <v>0</v>
+        <v>202.2946864288972</v>
       </c>
       <c r="T32" t="n">
         <v>0</v>
@@ -3095,7 +3097,7 @@
         <v>0</v>
       </c>
       <c r="Y32" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
     </row>
     <row r="33">
@@ -3108,25 +3110,25 @@
         <v>0</v>
       </c>
       <c r="C33" t="n">
-        <v>172.7084989883157</v>
+        <v>0</v>
       </c>
       <c r="D33" t="n">
-        <v>120.9298661881966</v>
+        <v>0</v>
       </c>
       <c r="E33" t="n">
-        <v>157.6450804554009</v>
+        <v>0</v>
       </c>
       <c r="F33" t="n">
-        <v>145.0692123933839</v>
+        <v>0</v>
       </c>
       <c r="G33" t="n">
-        <v>137.3435171632106</v>
+        <v>0</v>
       </c>
       <c r="H33" t="n">
-        <v>112.2354442364965</v>
+        <v>0</v>
       </c>
       <c r="I33" t="n">
-        <v>89.39663285141508</v>
+        <v>0</v>
       </c>
       <c r="J33" t="n">
         <v>0</v>
@@ -3153,22 +3155,22 @@
         <v>0</v>
       </c>
       <c r="R33" t="n">
-        <v>0</v>
+        <v>100.1578341526431</v>
       </c>
       <c r="S33" t="n">
-        <v>0</v>
+        <v>171.6831711038378</v>
       </c>
       <c r="T33" t="n">
         <v>0</v>
       </c>
       <c r="U33" t="n">
-        <v>0</v>
+        <v>225.9413820809748</v>
       </c>
       <c r="V33" t="n">
-        <v>0</v>
+        <v>232.8005871494253</v>
       </c>
       <c r="W33" t="n">
-        <v>0</v>
+        <v>204.7452777895381</v>
       </c>
       <c r="X33" t="n">
         <v>0</v>
@@ -3232,13 +3234,13 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
+        <v>0</v>
+      </c>
+      <c r="S34" t="n">
+        <v>0</v>
+      </c>
+      <c r="T34" t="n">
         <v>133.186967585368</v>
-      </c>
-      <c r="S34" t="n">
-        <v>0</v>
-      </c>
-      <c r="T34" t="n">
-        <v>0</v>
       </c>
       <c r="U34" t="n">
         <v>0</v>
@@ -3269,7 +3271,7 @@
         <v>241.0142888776591</v>
       </c>
       <c r="D35" t="n">
-        <v>0</v>
+        <v>212.2853856434421</v>
       </c>
       <c r="E35" t="n">
         <v>241.0142888776591</v>
@@ -3287,7 +3289,7 @@
         <v>0</v>
       </c>
       <c r="J35" t="n">
-        <v>11.94928935461252</v>
+        <v>0</v>
       </c>
       <c r="K35" t="n">
         <v>0</v>
@@ -3308,13 +3310,13 @@
         <v>0</v>
       </c>
       <c r="Q35" t="n">
-        <v>9.990699214544804</v>
+        <v>0</v>
       </c>
       <c r="R35" t="n">
-        <v>149.8691179411497</v>
+        <v>0</v>
       </c>
       <c r="S35" t="n">
-        <v>40.47627913313517</v>
+        <v>0</v>
       </c>
       <c r="T35" t="n">
         <v>0</v>
@@ -3342,10 +3344,10 @@
         </is>
       </c>
       <c r="B36" t="n">
-        <v>166.5331836498673</v>
+        <v>0</v>
       </c>
       <c r="C36" t="n">
-        <v>172.7084989883157</v>
+        <v>48.26703577173992</v>
       </c>
       <c r="D36" t="n">
         <v>0</v>
@@ -3354,10 +3356,10 @@
         <v>0</v>
       </c>
       <c r="F36" t="n">
-        <v>0</v>
+        <v>145.0692123933839</v>
       </c>
       <c r="G36" t="n">
-        <v>0</v>
+        <v>137.3435171632106</v>
       </c>
       <c r="H36" t="n">
         <v>0</v>
@@ -3366,7 +3368,7 @@
         <v>0</v>
       </c>
       <c r="J36" t="n">
-        <v>0.7465913262578567</v>
+        <v>0</v>
       </c>
       <c r="K36" t="n">
         <v>0</v>
@@ -3390,28 +3392,28 @@
         <v>0</v>
       </c>
       <c r="R36" t="n">
-        <v>100.1578341526431</v>
+        <v>0</v>
       </c>
       <c r="S36" t="n">
-        <v>48.48515950437162</v>
+        <v>171.6831711038378</v>
       </c>
       <c r="T36" t="n">
-        <v>0</v>
+        <v>200.1647286948216</v>
       </c>
       <c r="U36" t="n">
         <v>0</v>
       </c>
       <c r="V36" t="n">
-        <v>0</v>
+        <v>232.8005871494253</v>
       </c>
       <c r="W36" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
       <c r="X36" t="n">
         <v>0</v>
       </c>
       <c r="Y36" t="n">
-        <v>205.6826957773044</v>
+        <v>0</v>
       </c>
     </row>
     <row r="37">
@@ -3475,13 +3477,13 @@
         <v>0</v>
       </c>
       <c r="T37" t="n">
+        <v>0</v>
+      </c>
+      <c r="U37" t="n">
+        <v>0</v>
+      </c>
+      <c r="V37" t="n">
         <v>133.186967585368</v>
-      </c>
-      <c r="U37" t="n">
-        <v>0</v>
-      </c>
-      <c r="V37" t="n">
-        <v>0</v>
       </c>
       <c r="W37" t="n">
         <v>0</v>
@@ -3500,31 +3502,31 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="C38" t="n">
         <v>0</v>
       </c>
       <c r="D38" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="E38" t="n">
         <v>0</v>
       </c>
       <c r="F38" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="G38" t="n">
-        <v>241.0142888776591</v>
+        <v>202.2946864288972</v>
       </c>
       <c r="H38" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
       <c r="I38" t="n">
-        <v>200.3360962888296</v>
+        <v>0</v>
       </c>
       <c r="J38" t="n">
-        <v>11.94928935461252</v>
+        <v>0</v>
       </c>
       <c r="K38" t="n">
         <v>0</v>
@@ -3545,7 +3547,7 @@
         <v>0</v>
       </c>
       <c r="Q38" t="n">
-        <v>0</v>
+        <v>9.990699214544804</v>
       </c>
       <c r="R38" t="n">
         <v>0</v>
@@ -3566,7 +3568,7 @@
         <v>0</v>
       </c>
       <c r="X38" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
       <c r="Y38" t="n">
         <v>0</v>
@@ -3579,19 +3581,19 @@
         </is>
       </c>
       <c r="B39" t="n">
-        <v>0</v>
+        <v>166.5331836498673</v>
       </c>
       <c r="C39" t="n">
         <v>0</v>
       </c>
       <c r="D39" t="n">
-        <v>70.64856914772001</v>
+        <v>0</v>
       </c>
       <c r="E39" t="n">
-        <v>0</v>
+        <v>157.6450804554009</v>
       </c>
       <c r="F39" t="n">
-        <v>0</v>
+        <v>145.0692123933839</v>
       </c>
       <c r="G39" t="n">
         <v>0</v>
@@ -3633,13 +3635,13 @@
         <v>0</v>
       </c>
       <c r="T39" t="n">
-        <v>200.1647286948216</v>
+        <v>54.62509479698523</v>
       </c>
       <c r="U39" t="n">
-        <v>225.9413820809748</v>
+        <v>0</v>
       </c>
       <c r="V39" t="n">
-        <v>232.8005871494253</v>
+        <v>0</v>
       </c>
       <c r="W39" t="n">
         <v>0</v>
@@ -3648,7 +3650,7 @@
         <v>205.7729852034775</v>
       </c>
       <c r="Y39" t="n">
-        <v>0</v>
+        <v>205.6826957773044</v>
       </c>
     </row>
     <row r="40">
@@ -3667,7 +3669,7 @@
         <v>0</v>
       </c>
       <c r="E40" t="n">
-        <v>0</v>
+        <v>133.186967585368</v>
       </c>
       <c r="F40" t="n">
         <v>0</v>
@@ -3709,7 +3711,7 @@
         <v>0</v>
       </c>
       <c r="S40" t="n">
-        <v>133.186967585368</v>
+        <v>0</v>
       </c>
       <c r="T40" t="n">
         <v>0</v>
@@ -3737,7 +3739,7 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>236.4659934602711</v>
+        <v>202.2946864288972</v>
       </c>
       <c r="C41" t="n">
         <v>0</v>
@@ -3749,7 +3751,7 @@
         <v>0</v>
       </c>
       <c r="F41" t="n">
-        <v>236.4659934602711</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="G41" t="n">
         <v>0</v>
@@ -3803,10 +3805,10 @@
         <v>0</v>
       </c>
       <c r="X41" t="n">
-        <v>198.2885478252619</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="Y41" t="n">
-        <v>236.4659934602711</v>
+        <v>241.0142888776591</v>
       </c>
     </row>
     <row r="42">
@@ -3819,13 +3821,13 @@
         <v>166.5331836498673</v>
       </c>
       <c r="C42" t="n">
-        <v>3.905208513137393</v>
+        <v>38.17946863125426</v>
       </c>
       <c r="D42" t="n">
-        <v>147.4450655646388</v>
+        <v>0</v>
       </c>
       <c r="E42" t="n">
-        <v>157.6450804554009</v>
+        <v>0</v>
       </c>
       <c r="F42" t="n">
         <v>0</v>
@@ -3834,7 +3836,7 @@
         <v>0</v>
       </c>
       <c r="H42" t="n">
-        <v>0</v>
+        <v>112.2354442364965</v>
       </c>
       <c r="I42" t="n">
         <v>0</v>
@@ -3867,7 +3869,7 @@
         <v>0</v>
       </c>
       <c r="S42" t="n">
-        <v>0</v>
+        <v>171.6831711038378</v>
       </c>
       <c r="T42" t="n">
         <v>0</v>
@@ -3879,7 +3881,7 @@
         <v>0</v>
       </c>
       <c r="W42" t="n">
-        <v>236.4659934602711</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="X42" t="n">
         <v>0</v>
@@ -3913,46 +3915,46 @@
         <v>0</v>
       </c>
       <c r="H43" t="n">
+        <v>0</v>
+      </c>
+      <c r="I43" t="n">
+        <v>0</v>
+      </c>
+      <c r="J43" t="n">
+        <v>0</v>
+      </c>
+      <c r="K43" t="n">
+        <v>0</v>
+      </c>
+      <c r="L43" t="n">
+        <v>0</v>
+      </c>
+      <c r="M43" t="n">
+        <v>0</v>
+      </c>
+      <c r="N43" t="n">
+        <v>0</v>
+      </c>
+      <c r="O43" t="n">
+        <v>0</v>
+      </c>
+      <c r="P43" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q43" t="n">
+        <v>0</v>
+      </c>
+      <c r="R43" t="n">
+        <v>0</v>
+      </c>
+      <c r="S43" t="n">
+        <v>0</v>
+      </c>
+      <c r="T43" t="n">
+        <v>0</v>
+      </c>
+      <c r="U43" t="n">
         <v>133.186967585368</v>
-      </c>
-      <c r="I43" t="n">
-        <v>0</v>
-      </c>
-      <c r="J43" t="n">
-        <v>0</v>
-      </c>
-      <c r="K43" t="n">
-        <v>0</v>
-      </c>
-      <c r="L43" t="n">
-        <v>0</v>
-      </c>
-      <c r="M43" t="n">
-        <v>0</v>
-      </c>
-      <c r="N43" t="n">
-        <v>0</v>
-      </c>
-      <c r="O43" t="n">
-        <v>0</v>
-      </c>
-      <c r="P43" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q43" t="n">
-        <v>0</v>
-      </c>
-      <c r="R43" t="n">
-        <v>0</v>
-      </c>
-      <c r="S43" t="n">
-        <v>0</v>
-      </c>
-      <c r="T43" t="n">
-        <v>0</v>
-      </c>
-      <c r="U43" t="n">
-        <v>0</v>
       </c>
       <c r="V43" t="n">
         <v>0</v>
@@ -3974,7 +3976,7 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>0</v>
+        <v>202.2946864288972</v>
       </c>
       <c r="C44" t="n">
         <v>0</v>
@@ -3986,10 +3988,10 @@
         <v>0</v>
       </c>
       <c r="F44" t="n">
-        <v>39.58387696184059</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="G44" t="n">
-        <v>24.87477961344436</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="H44" t="n">
         <v>0</v>
@@ -4025,13 +4027,13 @@
         <v>0</v>
       </c>
       <c r="S44" t="n">
-        <v>39.58387696184059</v>
+        <v>0</v>
       </c>
       <c r="T44" t="n">
         <v>0</v>
       </c>
       <c r="U44" t="n">
-        <v>39.58387696184059</v>
+        <v>0</v>
       </c>
       <c r="V44" t="n">
         <v>0</v>
@@ -4043,7 +4045,7 @@
         <v>0</v>
       </c>
       <c r="Y44" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
     </row>
     <row r="45">
@@ -4056,7 +4058,7 @@
         <v>0</v>
       </c>
       <c r="C45" t="n">
-        <v>0</v>
+        <v>116.0367764965385</v>
       </c>
       <c r="D45" t="n">
         <v>0</v>
@@ -4077,7 +4079,7 @@
         <v>0</v>
       </c>
       <c r="J45" t="n">
-        <v>0</v>
+        <v>0.7465913262578567</v>
       </c>
       <c r="K45" t="n">
         <v>0</v>
@@ -4104,25 +4106,25 @@
         <v>0</v>
       </c>
       <c r="S45" t="n">
-        <v>0</v>
+        <v>171.6831711038378</v>
       </c>
       <c r="T45" t="n">
-        <v>0</v>
+        <v>200.1647286948216</v>
       </c>
       <c r="U45" t="n">
-        <v>39.58387696184059</v>
+        <v>0</v>
       </c>
       <c r="V45" t="n">
-        <v>39.58387696184059</v>
+        <v>0</v>
       </c>
       <c r="W45" t="n">
-        <v>39.58387696184059</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="X45" t="n">
-        <v>34.86547882798917</v>
+        <v>0</v>
       </c>
       <c r="Y45" t="n">
-        <v>0</v>
+        <v>205.6826957773044</v>
       </c>
     </row>
     <row r="46">
@@ -4141,10 +4143,10 @@
         <v>0</v>
       </c>
       <c r="E46" t="n">
-        <v>39.58387696184059</v>
+        <v>0</v>
       </c>
       <c r="F46" t="n">
-        <v>39.58387696184059</v>
+        <v>0</v>
       </c>
       <c r="G46" t="n">
         <v>0</v>
@@ -4174,16 +4176,16 @@
         <v>0</v>
       </c>
       <c r="P46" t="n">
-        <v>2.721440735106512</v>
+        <v>0</v>
       </c>
       <c r="Q46" t="n">
-        <v>0</v>
+        <v>86.16204325169439</v>
       </c>
       <c r="R46" t="n">
         <v>0</v>
       </c>
       <c r="S46" t="n">
-        <v>7.256111626157765</v>
+        <v>0</v>
       </c>
       <c r="T46" t="n">
         <v>0</v>
@@ -4195,7 +4197,7 @@
         <v>0</v>
       </c>
       <c r="W46" t="n">
-        <v>39.58387696184059</v>
+        <v>47.02492433367365</v>
       </c>
       <c r="X46" t="n">
         <v>0</v>
@@ -4304,76 +4306,76 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>3.166710156947247</v>
+        <v>176.5286895169144</v>
       </c>
       <c r="C2" t="n">
-        <v>3.166710156947247</v>
+        <v>176.5286895169144</v>
       </c>
       <c r="D2" t="n">
-        <v>3.166710156947247</v>
+        <v>176.5286895169144</v>
       </c>
       <c r="E2" t="n">
-        <v>3.166710156947247</v>
+        <v>176.5286895169144</v>
       </c>
       <c r="F2" t="n">
-        <v>3.166710156947247</v>
+        <v>149.3344187320537</v>
       </c>
       <c r="G2" t="n">
-        <v>3.166710156947247</v>
+        <v>104.756466833843</v>
       </c>
       <c r="H2" t="n">
-        <v>3.166710156947247</v>
+        <v>60.17851493563234</v>
       </c>
       <c r="I2" t="n">
-        <v>3.166710156947247</v>
+        <v>15.60056303742164</v>
       </c>
       <c r="J2" t="n">
-        <v>3.166710156947247</v>
+        <v>3.530573790338288</v>
       </c>
       <c r="K2" t="n">
-        <v>3.166710156947247</v>
+        <v>47.22142444577459</v>
       </c>
       <c r="L2" t="n">
-        <v>3.166710156947247</v>
+        <v>90.91227510121089</v>
       </c>
       <c r="M2" t="n">
-        <v>40.77139327069581</v>
+        <v>90.91227510121089</v>
       </c>
       <c r="N2" t="n">
-        <v>79.95943146291799</v>
+        <v>132.8378388614781</v>
       </c>
       <c r="O2" t="n">
-        <v>119.1474696551402</v>
+        <v>176.5286895169144</v>
       </c>
       <c r="P2" t="n">
-        <v>158.3355078473624</v>
+        <v>176.5286895169144</v>
       </c>
       <c r="Q2" t="n">
-        <v>148.2438924791353</v>
+        <v>176.5286895169144</v>
       </c>
       <c r="R2" t="n">
-        <v>123.1178524655551</v>
+        <v>176.5286895169144</v>
       </c>
       <c r="S2" t="n">
-        <v>123.1178524655551</v>
+        <v>176.5286895169144</v>
       </c>
       <c r="T2" t="n">
-        <v>123.1178524655551</v>
+        <v>176.5286895169144</v>
       </c>
       <c r="U2" t="n">
-        <v>123.1178524655551</v>
+        <v>176.5286895169144</v>
       </c>
       <c r="V2" t="n">
-        <v>123.1178524655551</v>
+        <v>176.5286895169144</v>
       </c>
       <c r="W2" t="n">
-        <v>83.13413836268582</v>
+        <v>176.5286895169144</v>
       </c>
       <c r="X2" t="n">
-        <v>43.15042425981653</v>
+        <v>176.5286895169144</v>
       </c>
       <c r="Y2" t="n">
-        <v>3.166710156947247</v>
+        <v>176.5286895169144</v>
       </c>
     </row>
     <row r="3">
@@ -4383,76 +4385,76 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>158.3355078473624</v>
+        <v>3.530573790338288</v>
       </c>
       <c r="C3" t="n">
-        <v>158.3355078473624</v>
+        <v>3.530573790338288</v>
       </c>
       <c r="D3" t="n">
-        <v>158.3355078473624</v>
+        <v>3.530573790338288</v>
       </c>
       <c r="E3" t="n">
-        <v>158.3355078473624</v>
+        <v>3.530573790338288</v>
       </c>
       <c r="F3" t="n">
-        <v>123.8719851183408</v>
+        <v>3.530573790338288</v>
       </c>
       <c r="G3" t="n">
-        <v>83.88827101547153</v>
+        <v>3.530573790338288</v>
       </c>
       <c r="H3" t="n">
-        <v>43.90455691260225</v>
+        <v>3.530573790338288</v>
       </c>
       <c r="I3" t="n">
-        <v>3.920842809732961</v>
+        <v>3.530573790338288</v>
       </c>
       <c r="J3" t="n">
-        <v>3.166710156947247</v>
+        <v>3.530573790338288</v>
       </c>
       <c r="K3" t="n">
-        <v>3.166710156947247</v>
+        <v>3.530573790338288</v>
       </c>
       <c r="L3" t="n">
-        <v>42.35474834916943</v>
+        <v>3.530573790338288</v>
       </c>
       <c r="M3" t="n">
-        <v>81.54278654139161</v>
+        <v>45.45613755060546</v>
       </c>
       <c r="N3" t="n">
-        <v>81.54278654139161</v>
+        <v>89.14698820604177</v>
       </c>
       <c r="O3" t="n">
-        <v>81.54278654139161</v>
+        <v>132.8378388614781</v>
       </c>
       <c r="P3" t="n">
-        <v>119.1474696551402</v>
+        <v>132.8378388614781</v>
       </c>
       <c r="Q3" t="n">
-        <v>158.3355078473624</v>
+        <v>176.5286895169144</v>
       </c>
       <c r="R3" t="n">
-        <v>158.3355078473624</v>
+        <v>131.9507376187037</v>
       </c>
       <c r="S3" t="n">
-        <v>158.3355078473624</v>
+        <v>87.37278572049297</v>
       </c>
       <c r="T3" t="n">
-        <v>158.3355078473624</v>
+        <v>42.79483382228227</v>
       </c>
       <c r="U3" t="n">
-        <v>158.3355078473624</v>
+        <v>3.530573790338288</v>
       </c>
       <c r="V3" t="n">
-        <v>158.3355078473624</v>
+        <v>3.530573790338288</v>
       </c>
       <c r="W3" t="n">
-        <v>158.3355078473624</v>
+        <v>3.530573790338288</v>
       </c>
       <c r="X3" t="n">
-        <v>158.3355078473624</v>
+        <v>3.530573790338288</v>
       </c>
       <c r="Y3" t="n">
-        <v>158.3355078473624</v>
+        <v>3.530573790338288</v>
       </c>
     </row>
     <row r="4">
@@ -4462,76 +4464,76 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>90.46354404567346</v>
+        <v>3.530573790338288</v>
       </c>
       <c r="C4" t="n">
-        <v>90.46354404567346</v>
+        <v>3.530573790338288</v>
       </c>
       <c r="D4" t="n">
-        <v>90.46354404567346</v>
+        <v>3.530573790338288</v>
       </c>
       <c r="E4" t="n">
-        <v>90.46354404567346</v>
+        <v>3.530573790338288</v>
       </c>
       <c r="F4" t="n">
-        <v>90.46354404567346</v>
+        <v>3.530573790338288</v>
       </c>
       <c r="G4" t="n">
-        <v>90.46354404567346</v>
+        <v>3.530573790338288</v>
       </c>
       <c r="H4" t="n">
-        <v>90.46354404567346</v>
+        <v>3.530573790338288</v>
       </c>
       <c r="I4" t="n">
-        <v>50.47982994280417</v>
+        <v>3.530573790338288</v>
       </c>
       <c r="J4" t="n">
-        <v>10.49611583993489</v>
+        <v>3.530573790338288</v>
       </c>
       <c r="K4" t="n">
-        <v>3.166710156947247</v>
+        <v>3.530573790338288</v>
       </c>
       <c r="L4" t="n">
-        <v>30.48083516466022</v>
+        <v>30.84469879805127</v>
       </c>
       <c r="M4" t="n">
-        <v>69.6688733568824</v>
+        <v>70.03273699027345</v>
       </c>
       <c r="N4" t="n">
-        <v>108.8569115491046</v>
+        <v>113.7235876457098</v>
       </c>
       <c r="O4" t="n">
-        <v>133.1961881840039</v>
+        <v>138.062864280609</v>
       </c>
       <c r="P4" t="n">
-        <v>130.4472581485427</v>
+        <v>137.2644294849704</v>
       </c>
       <c r="Q4" t="n">
-        <v>90.46354404567346</v>
+        <v>92.68647758675968</v>
       </c>
       <c r="R4" t="n">
-        <v>90.46354404567346</v>
+        <v>48.10852568854899</v>
       </c>
       <c r="S4" t="n">
-        <v>90.46354404567346</v>
+        <v>3.530573790338288</v>
       </c>
       <c r="T4" t="n">
-        <v>90.46354404567346</v>
+        <v>3.530573790338288</v>
       </c>
       <c r="U4" t="n">
-        <v>90.46354404567346</v>
+        <v>3.530573790338288</v>
       </c>
       <c r="V4" t="n">
-        <v>90.46354404567346</v>
+        <v>3.530573790338288</v>
       </c>
       <c r="W4" t="n">
-        <v>90.46354404567346</v>
+        <v>3.530573790338288</v>
       </c>
       <c r="X4" t="n">
-        <v>90.46354404567346</v>
+        <v>3.530573790338288</v>
       </c>
       <c r="Y4" t="n">
-        <v>90.46354404567346</v>
+        <v>3.530573790338288</v>
       </c>
     </row>
     <row r="5">
@@ -4541,76 +4543,76 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>15.2366994040306</v>
+        <v>166.4370741486873</v>
       </c>
       <c r="C5" t="n">
-        <v>15.2366994040306</v>
+        <v>166.4370741486873</v>
       </c>
       <c r="D5" t="n">
-        <v>15.2366994040306</v>
+        <v>166.4370741486873</v>
       </c>
       <c r="E5" t="n">
-        <v>15.2366994040306</v>
+        <v>166.4370741486873</v>
       </c>
       <c r="F5" t="n">
-        <v>15.2366994040306</v>
+        <v>149.3344187320537</v>
       </c>
       <c r="G5" t="n">
-        <v>15.2366994040306</v>
+        <v>104.756466833843</v>
       </c>
       <c r="H5" t="n">
-        <v>15.2366994040306</v>
+        <v>60.17851493563234</v>
       </c>
       <c r="I5" t="n">
-        <v>15.2366994040306</v>
+        <v>15.60056303742164</v>
       </c>
       <c r="J5" t="n">
-        <v>3.166710156947247</v>
+        <v>3.530573790338288</v>
       </c>
       <c r="K5" t="n">
-        <v>42.35474834916943</v>
+        <v>45.45613755060546</v>
       </c>
       <c r="L5" t="n">
-        <v>79.95943146291799</v>
+        <v>89.14698820604177</v>
       </c>
       <c r="M5" t="n">
-        <v>79.95943146291799</v>
+        <v>132.8378388614781</v>
       </c>
       <c r="N5" t="n">
-        <v>79.95943146291799</v>
+        <v>176.5286895169144</v>
       </c>
       <c r="O5" t="n">
-        <v>119.1474696551402</v>
+        <v>176.5286895169144</v>
       </c>
       <c r="P5" t="n">
-        <v>158.3355078473624</v>
+        <v>176.5286895169144</v>
       </c>
       <c r="Q5" t="n">
-        <v>148.2438924791353</v>
+        <v>166.4370741486873</v>
       </c>
       <c r="R5" t="n">
-        <v>108.260178376266</v>
+        <v>166.4370741486873</v>
       </c>
       <c r="S5" t="n">
-        <v>68.2764642733967</v>
+        <v>166.4370741486873</v>
       </c>
       <c r="T5" t="n">
-        <v>28.29275017052741</v>
+        <v>166.4370741486873</v>
       </c>
       <c r="U5" t="n">
-        <v>15.2366994040306</v>
+        <v>166.4370741486873</v>
       </c>
       <c r="V5" t="n">
-        <v>15.2366994040306</v>
+        <v>166.4370741486873</v>
       </c>
       <c r="W5" t="n">
-        <v>15.2366994040306</v>
+        <v>166.4370741486873</v>
       </c>
       <c r="X5" t="n">
-        <v>15.2366994040306</v>
+        <v>166.4370741486873</v>
       </c>
       <c r="Y5" t="n">
-        <v>15.2366994040306</v>
+        <v>166.4370741486873</v>
       </c>
     </row>
     <row r="6">
@@ -4620,76 +4622,76 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>158.3355078473624</v>
+        <v>176.5286895169144</v>
       </c>
       <c r="C6" t="n">
-        <v>158.3355078473624</v>
+        <v>176.5286895169144</v>
       </c>
       <c r="D6" t="n">
-        <v>158.3355078473624</v>
+        <v>176.5286895169144</v>
       </c>
       <c r="E6" t="n">
-        <v>158.3355078473624</v>
+        <v>131.9507376187037</v>
       </c>
       <c r="F6" t="n">
-        <v>123.8719851183408</v>
+        <v>87.37278572049297</v>
       </c>
       <c r="G6" t="n">
-        <v>83.88827101547153</v>
+        <v>42.79483382228227</v>
       </c>
       <c r="H6" t="n">
-        <v>43.90455691260225</v>
+        <v>3.530573790338288</v>
       </c>
       <c r="I6" t="n">
-        <v>3.920842809732961</v>
+        <v>3.530573790338288</v>
       </c>
       <c r="J6" t="n">
-        <v>3.166710156947247</v>
+        <v>3.530573790338288</v>
       </c>
       <c r="K6" t="n">
-        <v>42.35474834916943</v>
+        <v>47.22142444577459</v>
       </c>
       <c r="L6" t="n">
-        <v>81.54278654139161</v>
+        <v>90.91227510121089</v>
       </c>
       <c r="M6" t="n">
-        <v>119.1474696551402</v>
+        <v>132.8378388614781</v>
       </c>
       <c r="N6" t="n">
-        <v>119.1474696551402</v>
+        <v>132.8378388614781</v>
       </c>
       <c r="O6" t="n">
-        <v>119.1474696551402</v>
+        <v>132.8378388614781</v>
       </c>
       <c r="P6" t="n">
-        <v>119.1474696551402</v>
+        <v>132.8378388614781</v>
       </c>
       <c r="Q6" t="n">
-        <v>158.3355078473624</v>
+        <v>176.5286895169144</v>
       </c>
       <c r="R6" t="n">
-        <v>158.3355078473624</v>
+        <v>176.5286895169144</v>
       </c>
       <c r="S6" t="n">
-        <v>158.3355078473624</v>
+        <v>176.5286895169144</v>
       </c>
       <c r="T6" t="n">
-        <v>158.3355078473624</v>
+        <v>176.5286895169144</v>
       </c>
       <c r="U6" t="n">
-        <v>158.3355078473624</v>
+        <v>176.5286895169144</v>
       </c>
       <c r="V6" t="n">
-        <v>158.3355078473624</v>
+        <v>176.5286895169144</v>
       </c>
       <c r="W6" t="n">
-        <v>158.3355078473624</v>
+        <v>176.5286895169144</v>
       </c>
       <c r="X6" t="n">
-        <v>158.3355078473624</v>
+        <v>176.5286895169144</v>
       </c>
       <c r="Y6" t="n">
-        <v>158.3355078473624</v>
+        <v>176.5286895169144</v>
       </c>
     </row>
     <row r="7">
@@ -4699,76 +4701,76 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>90.46354404567346</v>
+        <v>3.530573790338288</v>
       </c>
       <c r="C7" t="n">
-        <v>90.46354404567346</v>
+        <v>3.530573790338288</v>
       </c>
       <c r="D7" t="n">
-        <v>90.46354404567346</v>
+        <v>3.530573790338288</v>
       </c>
       <c r="E7" t="n">
-        <v>90.46354404567346</v>
+        <v>3.530573790338288</v>
       </c>
       <c r="F7" t="n">
-        <v>90.46354404567346</v>
+        <v>3.530573790338288</v>
       </c>
       <c r="G7" t="n">
-        <v>90.46354404567346</v>
+        <v>3.530573790338288</v>
       </c>
       <c r="H7" t="n">
-        <v>90.46354404567346</v>
+        <v>3.530573790338288</v>
       </c>
       <c r="I7" t="n">
-        <v>50.47982994280417</v>
+        <v>3.530573790338288</v>
       </c>
       <c r="J7" t="n">
-        <v>10.49611583993489</v>
+        <v>3.530573790338288</v>
       </c>
       <c r="K7" t="n">
-        <v>3.166710156947247</v>
+        <v>3.530573790338288</v>
       </c>
       <c r="L7" t="n">
-        <v>30.48083516466022</v>
+        <v>30.84469879805127</v>
       </c>
       <c r="M7" t="n">
-        <v>69.6688733568824</v>
+        <v>70.03273699027345</v>
       </c>
       <c r="N7" t="n">
-        <v>108.8569115491046</v>
+        <v>113.7235876457098</v>
       </c>
       <c r="O7" t="n">
-        <v>133.1961881840039</v>
+        <v>138.062864280609</v>
       </c>
       <c r="P7" t="n">
-        <v>130.4472581485427</v>
+        <v>135.3139342451479</v>
       </c>
       <c r="Q7" t="n">
-        <v>90.46354404567346</v>
+        <v>90.73598234693722</v>
       </c>
       <c r="R7" t="n">
-        <v>90.46354404567346</v>
+        <v>46.15803044872652</v>
       </c>
       <c r="S7" t="n">
-        <v>90.46354404567346</v>
+        <v>3.530573790338288</v>
       </c>
       <c r="T7" t="n">
-        <v>90.46354404567346</v>
+        <v>3.530573790338288</v>
       </c>
       <c r="U7" t="n">
-        <v>90.46354404567346</v>
+        <v>3.530573790338288</v>
       </c>
       <c r="V7" t="n">
-        <v>90.46354404567346</v>
+        <v>3.530573790338288</v>
       </c>
       <c r="W7" t="n">
-        <v>90.46354404567346</v>
+        <v>3.530573790338288</v>
       </c>
       <c r="X7" t="n">
-        <v>90.46354404567346</v>
+        <v>3.530573790338288</v>
       </c>
       <c r="Y7" t="n">
-        <v>90.46354404567346</v>
+        <v>3.530573790338288</v>
       </c>
     </row>
     <row r="8">
@@ -4778,76 +4780,76 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>3.166710156947247</v>
+        <v>15.60056303742164</v>
       </c>
       <c r="C8" t="n">
-        <v>3.166710156947247</v>
+        <v>15.60056303742164</v>
       </c>
       <c r="D8" t="n">
-        <v>3.166710156947247</v>
+        <v>15.60056303742164</v>
       </c>
       <c r="E8" t="n">
-        <v>3.166710156947247</v>
+        <v>15.60056303742164</v>
       </c>
       <c r="F8" t="n">
-        <v>3.166710156947247</v>
+        <v>15.60056303742164</v>
       </c>
       <c r="G8" t="n">
-        <v>3.166710156947247</v>
+        <v>15.60056303742164</v>
       </c>
       <c r="H8" t="n">
-        <v>3.166710156947247</v>
+        <v>15.60056303742164</v>
       </c>
       <c r="I8" t="n">
-        <v>3.166710156947247</v>
+        <v>15.60056303742164</v>
       </c>
       <c r="J8" t="n">
-        <v>3.166710156947247</v>
+        <v>3.530573790338288</v>
       </c>
       <c r="K8" t="n">
-        <v>42.35474834916943</v>
+        <v>3.530573790338288</v>
       </c>
       <c r="L8" t="n">
-        <v>42.35474834916943</v>
+        <v>47.22142444577459</v>
       </c>
       <c r="M8" t="n">
-        <v>42.35474834916943</v>
+        <v>89.14698820604177</v>
       </c>
       <c r="N8" t="n">
-        <v>79.95943146291799</v>
+        <v>132.8378388614781</v>
       </c>
       <c r="O8" t="n">
-        <v>119.1474696551402</v>
+        <v>176.5286895169144</v>
       </c>
       <c r="P8" t="n">
-        <v>158.3355078473624</v>
+        <v>176.5286895169144</v>
       </c>
       <c r="Q8" t="n">
-        <v>148.2438924791353</v>
+        <v>166.4370741486873</v>
       </c>
       <c r="R8" t="n">
-        <v>108.260178376266</v>
+        <v>121.8591222504766</v>
       </c>
       <c r="S8" t="n">
-        <v>68.2764642733967</v>
+        <v>77.28117035226589</v>
       </c>
       <c r="T8" t="n">
-        <v>28.29275017052741</v>
+        <v>32.70321845405519</v>
       </c>
       <c r="U8" t="n">
-        <v>3.166710156947247</v>
+        <v>15.60056303742164</v>
       </c>
       <c r="V8" t="n">
-        <v>3.166710156947247</v>
+        <v>15.60056303742164</v>
       </c>
       <c r="W8" t="n">
-        <v>3.166710156947247</v>
+        <v>15.60056303742164</v>
       </c>
       <c r="X8" t="n">
-        <v>3.166710156947247</v>
+        <v>15.60056303742164</v>
       </c>
       <c r="Y8" t="n">
-        <v>3.166710156947247</v>
+        <v>15.60056303742164</v>
       </c>
     </row>
     <row r="9">
@@ -4857,76 +4859,76 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>158.3355078473624</v>
+        <v>137.2644294849704</v>
       </c>
       <c r="C9" t="n">
-        <v>158.3355078473624</v>
+        <v>137.2644294849704</v>
       </c>
       <c r="D9" t="n">
-        <v>158.3355078473624</v>
+        <v>137.2644294849704</v>
       </c>
       <c r="E9" t="n">
-        <v>158.3355078473624</v>
+        <v>137.2644294849704</v>
       </c>
       <c r="F9" t="n">
-        <v>123.8719851183408</v>
+        <v>92.68647758675968</v>
       </c>
       <c r="G9" t="n">
-        <v>83.88827101547153</v>
+        <v>48.10852568854899</v>
       </c>
       <c r="H9" t="n">
-        <v>43.90455691260225</v>
+        <v>3.530573790338288</v>
       </c>
       <c r="I9" t="n">
-        <v>3.920842809732961</v>
+        <v>3.530573790338288</v>
       </c>
       <c r="J9" t="n">
-        <v>3.166710156947247</v>
+        <v>3.530573790338288</v>
       </c>
       <c r="K9" t="n">
-        <v>3.166710156947247</v>
+        <v>3.530573790338288</v>
       </c>
       <c r="L9" t="n">
-        <v>3.166710156947247</v>
+        <v>3.530573790338288</v>
       </c>
       <c r="M9" t="n">
-        <v>3.166710156947247</v>
+        <v>47.22142444577459</v>
       </c>
       <c r="N9" t="n">
-        <v>40.77139327069581</v>
+        <v>47.22142444577459</v>
       </c>
       <c r="O9" t="n">
-        <v>79.95943146291799</v>
+        <v>90.91227510121089</v>
       </c>
       <c r="P9" t="n">
-        <v>119.1474696551402</v>
+        <v>134.6031257566472</v>
       </c>
       <c r="Q9" t="n">
-        <v>158.3355078473624</v>
+        <v>176.5286895169144</v>
       </c>
       <c r="R9" t="n">
-        <v>158.3355078473624</v>
+        <v>137.2644294849704</v>
       </c>
       <c r="S9" t="n">
-        <v>158.3355078473624</v>
+        <v>137.2644294849704</v>
       </c>
       <c r="T9" t="n">
-        <v>158.3355078473624</v>
+        <v>137.2644294849704</v>
       </c>
       <c r="U9" t="n">
-        <v>158.3355078473624</v>
+        <v>137.2644294849704</v>
       </c>
       <c r="V9" t="n">
-        <v>158.3355078473624</v>
+        <v>137.2644294849704</v>
       </c>
       <c r="W9" t="n">
-        <v>158.3355078473624</v>
+        <v>137.2644294849704</v>
       </c>
       <c r="X9" t="n">
-        <v>158.3355078473624</v>
+        <v>137.2644294849704</v>
       </c>
       <c r="Y9" t="n">
-        <v>158.3355078473624</v>
+        <v>137.2644294849704</v>
       </c>
     </row>
     <row r="10">
@@ -4936,76 +4938,76 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>25.66114634470771</v>
+        <v>138.062864280609</v>
       </c>
       <c r="C10" t="n">
-        <v>25.66114634470771</v>
+        <v>138.062864280609</v>
       </c>
       <c r="D10" t="n">
-        <v>25.66114634470771</v>
+        <v>138.062864280609</v>
       </c>
       <c r="E10" t="n">
-        <v>25.66114634470771</v>
+        <v>138.062864280609</v>
       </c>
       <c r="F10" t="n">
-        <v>25.66114634470771</v>
+        <v>138.062864280609</v>
       </c>
       <c r="G10" t="n">
-        <v>25.66114634470771</v>
+        <v>138.062864280609</v>
       </c>
       <c r="H10" t="n">
-        <v>25.66114634470771</v>
+        <v>115.1809137745201</v>
       </c>
       <c r="I10" t="n">
-        <v>25.66114634470771</v>
+        <v>70.60296187630945</v>
       </c>
       <c r="J10" t="n">
-        <v>25.66114634470771</v>
+        <v>26.02500997809875</v>
       </c>
       <c r="K10" t="n">
-        <v>3.166710156947247</v>
+        <v>3.530573790338288</v>
       </c>
       <c r="L10" t="n">
-        <v>30.48083516466022</v>
+        <v>30.84469879805127</v>
       </c>
       <c r="M10" t="n">
-        <v>69.6688733568824</v>
+        <v>70.03273699027345</v>
       </c>
       <c r="N10" t="n">
-        <v>108.8569115491046</v>
+        <v>113.7235876457098</v>
       </c>
       <c r="O10" t="n">
-        <v>133.1961881840039</v>
+        <v>138.062864280609</v>
       </c>
       <c r="P10" t="n">
-        <v>130.4472581485427</v>
+        <v>138.062864280609</v>
       </c>
       <c r="Q10" t="n">
-        <v>90.46354404567346</v>
+        <v>138.062864280609</v>
       </c>
       <c r="R10" t="n">
-        <v>50.47982994280417</v>
+        <v>138.062864280609</v>
       </c>
       <c r="S10" t="n">
-        <v>25.66114634470771</v>
+        <v>138.062864280609</v>
       </c>
       <c r="T10" t="n">
-        <v>25.66114634470771</v>
+        <v>138.062864280609</v>
       </c>
       <c r="U10" t="n">
-        <v>25.66114634470771</v>
+        <v>138.062864280609</v>
       </c>
       <c r="V10" t="n">
-        <v>25.66114634470771</v>
+        <v>138.062864280609</v>
       </c>
       <c r="W10" t="n">
-        <v>25.66114634470771</v>
+        <v>138.062864280609</v>
       </c>
       <c r="X10" t="n">
-        <v>25.66114634470771</v>
+        <v>138.062864280609</v>
       </c>
       <c r="Y10" t="n">
-        <v>25.66114634470771</v>
+        <v>138.062864280609</v>
       </c>
     </row>
     <row r="11">
@@ -5015,76 +5017,76 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>123.1178524655551</v>
+        <v>42.79483382228227</v>
       </c>
       <c r="C11" t="n">
-        <v>123.1178524655551</v>
+        <v>42.79483382228227</v>
       </c>
       <c r="D11" t="n">
-        <v>83.13413836268582</v>
+        <v>42.79483382228227</v>
       </c>
       <c r="E11" t="n">
-        <v>83.13413836268582</v>
+        <v>42.79483382228227</v>
       </c>
       <c r="F11" t="n">
-        <v>43.15042425981653</v>
+        <v>42.79483382228227</v>
       </c>
       <c r="G11" t="n">
-        <v>43.15042425981653</v>
+        <v>42.79483382228227</v>
       </c>
       <c r="H11" t="n">
-        <v>43.15042425981653</v>
+        <v>42.79483382228227</v>
       </c>
       <c r="I11" t="n">
-        <v>3.166710156947247</v>
+        <v>15.60056303742164</v>
       </c>
       <c r="J11" t="n">
-        <v>3.166710156947247</v>
+        <v>3.530573790338288</v>
       </c>
       <c r="K11" t="n">
-        <v>42.35474834916943</v>
+        <v>47.22142444577459</v>
       </c>
       <c r="L11" t="n">
-        <v>79.95943146291799</v>
+        <v>90.91227510121089</v>
       </c>
       <c r="M11" t="n">
-        <v>119.1474696551402</v>
+        <v>90.91227510121089</v>
       </c>
       <c r="N11" t="n">
-        <v>119.1474696551402</v>
+        <v>134.6031257566472</v>
       </c>
       <c r="O11" t="n">
-        <v>158.3355078473624</v>
+        <v>176.5286895169144</v>
       </c>
       <c r="P11" t="n">
-        <v>158.3355078473624</v>
+        <v>176.5286895169144</v>
       </c>
       <c r="Q11" t="n">
-        <v>148.2438924791353</v>
+        <v>176.5286895169144</v>
       </c>
       <c r="R11" t="n">
-        <v>148.2438924791353</v>
+        <v>176.5286895169144</v>
       </c>
       <c r="S11" t="n">
-        <v>148.2438924791353</v>
+        <v>176.5286895169144</v>
       </c>
       <c r="T11" t="n">
-        <v>148.2438924791353</v>
+        <v>176.5286895169144</v>
       </c>
       <c r="U11" t="n">
-        <v>148.2438924791353</v>
+        <v>131.9507376187037</v>
       </c>
       <c r="V11" t="n">
-        <v>148.2438924791353</v>
+        <v>87.37278572049297</v>
       </c>
       <c r="W11" t="n">
-        <v>148.2438924791353</v>
+        <v>42.79483382228227</v>
       </c>
       <c r="X11" t="n">
-        <v>148.2438924791353</v>
+        <v>42.79483382228227</v>
       </c>
       <c r="Y11" t="n">
-        <v>148.2438924791353</v>
+        <v>42.79483382228227</v>
       </c>
     </row>
     <row r="12">
@@ -5094,76 +5096,76 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>158.3355078473624</v>
+        <v>42.79483382228227</v>
       </c>
       <c r="C12" t="n">
-        <v>158.3355078473624</v>
+        <v>42.79483382228227</v>
       </c>
       <c r="D12" t="n">
-        <v>158.3355078473624</v>
+        <v>42.79483382228227</v>
       </c>
       <c r="E12" t="n">
-        <v>158.3355078473624</v>
+        <v>42.79483382228227</v>
       </c>
       <c r="F12" t="n">
-        <v>123.1178524655551</v>
+        <v>42.79483382228227</v>
       </c>
       <c r="G12" t="n">
-        <v>83.13413836268582</v>
+        <v>42.79483382228227</v>
       </c>
       <c r="H12" t="n">
-        <v>43.15042425981653</v>
+        <v>42.79483382228227</v>
       </c>
       <c r="I12" t="n">
-        <v>3.166710156947247</v>
+        <v>3.530573790338288</v>
       </c>
       <c r="J12" t="n">
-        <v>3.166710156947247</v>
+        <v>3.530573790338288</v>
       </c>
       <c r="K12" t="n">
-        <v>42.35474834916943</v>
+        <v>45.45613755060546</v>
       </c>
       <c r="L12" t="n">
-        <v>81.54278654139161</v>
+        <v>45.45613755060546</v>
       </c>
       <c r="M12" t="n">
-        <v>120.7308247336138</v>
+        <v>45.45613755060546</v>
       </c>
       <c r="N12" t="n">
-        <v>120.7308247336138</v>
+        <v>89.14698820604177</v>
       </c>
       <c r="O12" t="n">
-        <v>120.7308247336138</v>
+        <v>132.8378388614781</v>
       </c>
       <c r="P12" t="n">
-        <v>120.7308247336138</v>
+        <v>176.5286895169144</v>
       </c>
       <c r="Q12" t="n">
-        <v>158.3355078473624</v>
+        <v>176.5286895169144</v>
       </c>
       <c r="R12" t="n">
-        <v>158.3355078473624</v>
+        <v>131.9507376187037</v>
       </c>
       <c r="S12" t="n">
-        <v>158.3355078473624</v>
+        <v>87.37278572049297</v>
       </c>
       <c r="T12" t="n">
-        <v>158.3355078473624</v>
+        <v>42.79483382228227</v>
       </c>
       <c r="U12" t="n">
-        <v>158.3355078473624</v>
+        <v>42.79483382228227</v>
       </c>
       <c r="V12" t="n">
-        <v>158.3355078473624</v>
+        <v>42.79483382228227</v>
       </c>
       <c r="W12" t="n">
-        <v>158.3355078473624</v>
+        <v>42.79483382228227</v>
       </c>
       <c r="X12" t="n">
-        <v>158.3355078473624</v>
+        <v>42.79483382228227</v>
       </c>
       <c r="Y12" t="n">
-        <v>158.3355078473624</v>
+        <v>42.79483382228227</v>
       </c>
     </row>
     <row r="13">
@@ -5173,76 +5175,76 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>90.46354404567346</v>
+        <v>3.530573790338288</v>
       </c>
       <c r="C13" t="n">
-        <v>90.46354404567346</v>
+        <v>3.530573790338288</v>
       </c>
       <c r="D13" t="n">
-        <v>90.46354404567346</v>
+        <v>3.530573790338288</v>
       </c>
       <c r="E13" t="n">
-        <v>90.46354404567346</v>
+        <v>3.530573790338288</v>
       </c>
       <c r="F13" t="n">
-        <v>90.46354404567346</v>
+        <v>3.530573790338288</v>
       </c>
       <c r="G13" t="n">
-        <v>90.46354404567346</v>
+        <v>3.530573790338288</v>
       </c>
       <c r="H13" t="n">
-        <v>90.46354404567346</v>
+        <v>3.530573790338288</v>
       </c>
       <c r="I13" t="n">
-        <v>65.64486044757699</v>
+        <v>3.530573790338288</v>
       </c>
       <c r="J13" t="n">
-        <v>25.66114634470771</v>
+        <v>3.530573790338288</v>
       </c>
       <c r="K13" t="n">
-        <v>3.166710156947247</v>
+        <v>3.530573790338288</v>
       </c>
       <c r="L13" t="n">
-        <v>30.48083516466022</v>
+        <v>30.84469879805127</v>
       </c>
       <c r="M13" t="n">
-        <v>69.6688733568824</v>
+        <v>70.03273699027345</v>
       </c>
       <c r="N13" t="n">
-        <v>108.8569115491046</v>
+        <v>113.7235876457098</v>
       </c>
       <c r="O13" t="n">
-        <v>133.1961881840039</v>
+        <v>138.062864280609</v>
       </c>
       <c r="P13" t="n">
-        <v>130.4472581485427</v>
+        <v>135.3139342451479</v>
       </c>
       <c r="Q13" t="n">
-        <v>90.46354404567346</v>
+        <v>90.73598234693722</v>
       </c>
       <c r="R13" t="n">
-        <v>90.46354404567346</v>
+        <v>46.15803044872652</v>
       </c>
       <c r="S13" t="n">
-        <v>90.46354404567346</v>
+        <v>3.530573790338288</v>
       </c>
       <c r="T13" t="n">
-        <v>90.46354404567346</v>
+        <v>3.530573790338288</v>
       </c>
       <c r="U13" t="n">
-        <v>90.46354404567346</v>
+        <v>3.530573790338288</v>
       </c>
       <c r="V13" t="n">
-        <v>90.46354404567346</v>
+        <v>3.530573790338288</v>
       </c>
       <c r="W13" t="n">
-        <v>90.46354404567346</v>
+        <v>3.530573790338288</v>
       </c>
       <c r="X13" t="n">
-        <v>90.46354404567346</v>
+        <v>3.530573790338288</v>
       </c>
       <c r="Y13" t="n">
-        <v>90.46354404567346</v>
+        <v>3.530573790338288</v>
       </c>
     </row>
     <row r="14">
@@ -5252,76 +5254,76 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>3.166710156947247</v>
+        <v>131.9507376187037</v>
       </c>
       <c r="C14" t="n">
-        <v>3.166710156947247</v>
+        <v>131.9507376187037</v>
       </c>
       <c r="D14" t="n">
-        <v>3.166710156947247</v>
+        <v>131.9507376187037</v>
       </c>
       <c r="E14" t="n">
-        <v>3.166710156947247</v>
+        <v>131.9507376187037</v>
       </c>
       <c r="F14" t="n">
-        <v>3.166710156947247</v>
+        <v>131.9507376187037</v>
       </c>
       <c r="G14" t="n">
-        <v>3.166710156947247</v>
+        <v>87.37278572049297</v>
       </c>
       <c r="H14" t="n">
-        <v>3.166710156947247</v>
+        <v>48.10852568854899</v>
       </c>
       <c r="I14" t="n">
-        <v>3.166710156947247</v>
+        <v>3.530573790338288</v>
       </c>
       <c r="J14" t="n">
-        <v>3.166710156947247</v>
+        <v>3.530573790338288</v>
       </c>
       <c r="K14" t="n">
-        <v>42.35474834916943</v>
+        <v>45.45613755060546</v>
       </c>
       <c r="L14" t="n">
-        <v>81.54278654139161</v>
+        <v>89.14698820604177</v>
       </c>
       <c r="M14" t="n">
-        <v>81.54278654139161</v>
+        <v>132.8378388614781</v>
       </c>
       <c r="N14" t="n">
-        <v>81.54278654139161</v>
+        <v>132.8378388614781</v>
       </c>
       <c r="O14" t="n">
-        <v>119.1474696551402</v>
+        <v>132.8378388614781</v>
       </c>
       <c r="P14" t="n">
-        <v>158.3355078473624</v>
+        <v>176.5286895169144</v>
       </c>
       <c r="Q14" t="n">
-        <v>148.2438924791353</v>
+        <v>176.5286895169144</v>
       </c>
       <c r="R14" t="n">
-        <v>123.1178524655551</v>
+        <v>131.9507376187037</v>
       </c>
       <c r="S14" t="n">
-        <v>83.13413836268582</v>
+        <v>131.9507376187037</v>
       </c>
       <c r="T14" t="n">
-        <v>43.15042425981653</v>
+        <v>131.9507376187037</v>
       </c>
       <c r="U14" t="n">
-        <v>3.166710156947247</v>
+        <v>131.9507376187037</v>
       </c>
       <c r="V14" t="n">
-        <v>3.166710156947247</v>
+        <v>131.9507376187037</v>
       </c>
       <c r="W14" t="n">
-        <v>3.166710156947247</v>
+        <v>131.9507376187037</v>
       </c>
       <c r="X14" t="n">
-        <v>3.166710156947247</v>
+        <v>131.9507376187037</v>
       </c>
       <c r="Y14" t="n">
-        <v>3.166710156947247</v>
+        <v>131.9507376187037</v>
       </c>
     </row>
     <row r="15">
@@ -5331,76 +5333,76 @@
         </is>
       </c>
       <c r="B15" t="n">
-        <v>3.166710156947247</v>
+        <v>92.68647758675968</v>
       </c>
       <c r="C15" t="n">
-        <v>3.166710156947247</v>
+        <v>92.68647758675968</v>
       </c>
       <c r="D15" t="n">
-        <v>3.166710156947247</v>
+        <v>92.68647758675968</v>
       </c>
       <c r="E15" t="n">
-        <v>3.166710156947247</v>
+        <v>92.68647758675968</v>
       </c>
       <c r="F15" t="n">
-        <v>3.166710156947247</v>
+        <v>92.68647758675968</v>
       </c>
       <c r="G15" t="n">
-        <v>3.166710156947247</v>
+        <v>92.68647758675968</v>
       </c>
       <c r="H15" t="n">
-        <v>3.166710156947247</v>
+        <v>48.10852568854899</v>
       </c>
       <c r="I15" t="n">
-        <v>3.166710156947247</v>
+        <v>3.530573790338288</v>
       </c>
       <c r="J15" t="n">
-        <v>3.166710156947247</v>
+        <v>3.530573790338288</v>
       </c>
       <c r="K15" t="n">
-        <v>42.35474834916943</v>
+        <v>3.530573790338288</v>
       </c>
       <c r="L15" t="n">
-        <v>81.54278654139161</v>
+        <v>3.530573790338288</v>
       </c>
       <c r="M15" t="n">
-        <v>120.7308247336138</v>
+        <v>47.22142444577459</v>
       </c>
       <c r="N15" t="n">
-        <v>120.7308247336138</v>
+        <v>89.14698820604177</v>
       </c>
       <c r="O15" t="n">
-        <v>120.7308247336138</v>
+        <v>132.8378388614781</v>
       </c>
       <c r="P15" t="n">
-        <v>120.7308247336138</v>
+        <v>176.5286895169144</v>
       </c>
       <c r="Q15" t="n">
-        <v>158.3355078473624</v>
+        <v>176.5286895169144</v>
       </c>
       <c r="R15" t="n">
-        <v>118.3517937444931</v>
+        <v>131.9507376187037</v>
       </c>
       <c r="S15" t="n">
-        <v>78.36807964162378</v>
+        <v>92.68647758675968</v>
       </c>
       <c r="T15" t="n">
-        <v>38.38436553875449</v>
+        <v>92.68647758675968</v>
       </c>
       <c r="U15" t="n">
-        <v>3.166710156947247</v>
+        <v>92.68647758675968</v>
       </c>
       <c r="V15" t="n">
-        <v>3.166710156947247</v>
+        <v>92.68647758675968</v>
       </c>
       <c r="W15" t="n">
-        <v>3.166710156947247</v>
+        <v>92.68647758675968</v>
       </c>
       <c r="X15" t="n">
-        <v>3.166710156947247</v>
+        <v>92.68647758675968</v>
       </c>
       <c r="Y15" t="n">
-        <v>3.166710156947247</v>
+        <v>92.68647758675968</v>
       </c>
     </row>
     <row r="16">
@@ -5410,76 +5412,76 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>90.46354404567346</v>
+        <v>46.15803044872652</v>
       </c>
       <c r="C16" t="n">
-        <v>90.46354404567346</v>
+        <v>46.15803044872652</v>
       </c>
       <c r="D16" t="n">
-        <v>90.46354404567346</v>
+        <v>46.15803044872652</v>
       </c>
       <c r="E16" t="n">
-        <v>90.46354404567346</v>
+        <v>46.15803044872652</v>
       </c>
       <c r="F16" t="n">
-        <v>90.46354404567346</v>
+        <v>46.15803044872652</v>
       </c>
       <c r="G16" t="n">
-        <v>90.46354404567346</v>
+        <v>46.15803044872652</v>
       </c>
       <c r="H16" t="n">
-        <v>90.46354404567346</v>
+        <v>46.15803044872652</v>
       </c>
       <c r="I16" t="n">
-        <v>65.64486044757699</v>
+        <v>46.15803044872652</v>
       </c>
       <c r="J16" t="n">
-        <v>25.66114634470771</v>
+        <v>26.02500997809875</v>
       </c>
       <c r="K16" t="n">
-        <v>3.166710156947247</v>
+        <v>3.530573790338288</v>
       </c>
       <c r="L16" t="n">
-        <v>30.48083516466022</v>
+        <v>30.84469879805127</v>
       </c>
       <c r="M16" t="n">
-        <v>69.6688733568824</v>
+        <v>70.03273699027345</v>
       </c>
       <c r="N16" t="n">
-        <v>108.8569115491046</v>
+        <v>113.7235876457098</v>
       </c>
       <c r="O16" t="n">
-        <v>133.1961881840039</v>
+        <v>138.062864280609</v>
       </c>
       <c r="P16" t="n">
-        <v>130.4472581485427</v>
+        <v>135.3139342451479</v>
       </c>
       <c r="Q16" t="n">
-        <v>90.46354404567346</v>
+        <v>90.73598234693722</v>
       </c>
       <c r="R16" t="n">
-        <v>90.46354404567346</v>
+        <v>46.15803044872652</v>
       </c>
       <c r="S16" t="n">
-        <v>90.46354404567346</v>
+        <v>46.15803044872652</v>
       </c>
       <c r="T16" t="n">
-        <v>90.46354404567346</v>
+        <v>46.15803044872652</v>
       </c>
       <c r="U16" t="n">
-        <v>90.46354404567346</v>
+        <v>46.15803044872652</v>
       </c>
       <c r="V16" t="n">
-        <v>90.46354404567346</v>
+        <v>46.15803044872652</v>
       </c>
       <c r="W16" t="n">
-        <v>90.46354404567346</v>
+        <v>46.15803044872652</v>
       </c>
       <c r="X16" t="n">
-        <v>90.46354404567346</v>
+        <v>46.15803044872652</v>
       </c>
       <c r="Y16" t="n">
-        <v>90.46354404567346</v>
+        <v>46.15803044872652</v>
       </c>
     </row>
     <row r="17">
@@ -5489,76 +5491,76 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>3.530573790338288</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="C17" t="n">
-        <v>3.530573790338288</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="D17" t="n">
-        <v>3.530573790338288</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="E17" t="n">
-        <v>3.530573790338288</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="F17" t="n">
-        <v>3.530573790338288</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="G17" t="n">
-        <v>3.530573790338288</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="H17" t="n">
-        <v>3.530573790338288</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="I17" t="n">
-        <v>3.530573790338288</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="J17" t="n">
-        <v>3.530573790338288</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="K17" t="n">
-        <v>3.530573790338288</v>
+        <v>122.2961490211351</v>
       </c>
       <c r="L17" t="n">
-        <v>45.45613755060546</v>
+        <v>302.3720006057937</v>
       </c>
       <c r="M17" t="n">
-        <v>45.45613755060546</v>
+        <v>519.3476278686978</v>
       </c>
       <c r="N17" t="n">
-        <v>89.14698820604177</v>
+        <v>725.2021500759372</v>
       </c>
       <c r="O17" t="n">
-        <v>132.8378388614781</v>
+        <v>874.3971002185853</v>
       </c>
       <c r="P17" t="n">
-        <v>176.5286895169144</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="Q17" t="n">
-        <v>166.4370741486873</v>
+        <v>953.9655401424092</v>
       </c>
       <c r="R17" t="n">
-        <v>121.8591222504766</v>
+        <v>802.5825927271064</v>
       </c>
       <c r="S17" t="n">
-        <v>92.68647758675968</v>
+        <v>591.4512093066566</v>
       </c>
       <c r="T17" t="n">
-        <v>48.10852568854899</v>
+        <v>366.1018663125844</v>
       </c>
       <c r="U17" t="n">
-        <v>3.530573790338288</v>
+        <v>122.6530896684844</v>
       </c>
       <c r="V17" t="n">
-        <v>3.530573790338288</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="W17" t="n">
-        <v>3.530573790338288</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="X17" t="n">
-        <v>3.530573790338288</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="Y17" t="n">
-        <v>3.530573790338288</v>
+        <v>19.28114311021272</v>
       </c>
     </row>
     <row r="18">
@@ -5568,76 +5570,76 @@
         </is>
       </c>
       <c r="B18" t="n">
-        <v>3.530573790338288</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="C18" t="n">
-        <v>3.530573790338288</v>
+        <v>817.1412885554689</v>
       </c>
       <c r="D18" t="n">
-        <v>3.530573790338288</v>
+        <v>668.2068788942177</v>
       </c>
       <c r="E18" t="n">
-        <v>3.530573790338288</v>
+        <v>508.9694238887622</v>
       </c>
       <c r="F18" t="n">
-        <v>3.530573790338288</v>
+        <v>362.4348659156472</v>
       </c>
       <c r="G18" t="n">
-        <v>3.530573790338288</v>
+        <v>223.7040404982626</v>
       </c>
       <c r="H18" t="n">
-        <v>3.530573790338288</v>
+        <v>110.334904905842</v>
       </c>
       <c r="I18" t="n">
-        <v>3.530573790338288</v>
+        <v>20.03527576299844</v>
       </c>
       <c r="J18" t="n">
-        <v>3.530573790338288</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="K18" t="n">
-        <v>47.22142444577459</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="L18" t="n">
-        <v>47.22142444577459</v>
+        <v>249.2442489785619</v>
       </c>
       <c r="M18" t="n">
-        <v>89.14698820604177</v>
+        <v>417.4543050195419</v>
       </c>
       <c r="N18" t="n">
-        <v>132.8378388614781</v>
+        <v>656.0584510084244</v>
       </c>
       <c r="O18" t="n">
-        <v>176.5286895169144</v>
+        <v>894.6625969973069</v>
       </c>
       <c r="P18" t="n">
-        <v>176.5286895169144</v>
+        <v>894.6625969973069</v>
       </c>
       <c r="Q18" t="n">
-        <v>176.5286895169144</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="R18" t="n">
-        <v>137.2644294849704</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="S18" t="n">
-        <v>92.68647758675968</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="T18" t="n">
-        <v>48.10852568854899</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="U18" t="n">
-        <v>3.530573790338288</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="V18" t="n">
-        <v>3.530573790338288</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="W18" t="n">
-        <v>3.530573790338288</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="X18" t="n">
-        <v>3.530573790338288</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="Y18" t="n">
-        <v>3.530573790338288</v>
+        <v>964.0571555106362</v>
       </c>
     </row>
     <row r="19">
@@ -5647,76 +5649,76 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>3.530573790338288</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="C19" t="n">
-        <v>3.530573790338288</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="D19" t="n">
-        <v>3.530573790338288</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="E19" t="n">
-        <v>3.530573790338288</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="F19" t="n">
-        <v>3.530573790338288</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="G19" t="n">
-        <v>3.530573790338288</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="H19" t="n">
-        <v>3.530573790338288</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="I19" t="n">
-        <v>3.530573790338288</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="J19" t="n">
-        <v>3.530573790338288</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="K19" t="n">
-        <v>3.530573790338288</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="L19" t="n">
-        <v>30.84469879805127</v>
+        <v>46.5952681179257</v>
       </c>
       <c r="M19" t="n">
-        <v>70.03273699027345</v>
+        <v>85.78330631014788</v>
       </c>
       <c r="N19" t="n">
-        <v>113.7235876457098</v>
+        <v>129.4741569655842</v>
       </c>
       <c r="O19" t="n">
-        <v>138.062864280609</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="P19" t="n">
-        <v>138.062864280609</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="Q19" t="n">
-        <v>138.062864280609</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="R19" t="n">
-        <v>138.062864280609</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="S19" t="n">
-        <v>138.062864280609</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="T19" t="n">
-        <v>93.48491238239833</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="U19" t="n">
-        <v>48.90696048418764</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="V19" t="n">
-        <v>4.329008585976936</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="W19" t="n">
-        <v>4.329008585976936</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="X19" t="n">
-        <v>4.329008585976936</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="Y19" t="n">
-        <v>4.329008585976936</v>
+        <v>19.28114311021272</v>
       </c>
     </row>
     <row r="20">
@@ -5726,19 +5728,19 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>19.28114311021272</v>
+        <v>499.3853800778592</v>
       </c>
       <c r="C20" t="n">
-        <v>19.28114311021272</v>
+        <v>499.3853800778592</v>
       </c>
       <c r="D20" t="n">
-        <v>19.28114311021272</v>
+        <v>499.3853800778592</v>
       </c>
       <c r="E20" t="n">
-        <v>19.28114311021272</v>
+        <v>255.9366034337592</v>
       </c>
       <c r="F20" t="n">
-        <v>19.28114311021272</v>
+        <v>255.9366034337592</v>
       </c>
       <c r="G20" t="n">
         <v>19.28114311021272</v>
@@ -5771,31 +5773,31 @@
         <v>964.0571555106362</v>
       </c>
       <c r="Q20" t="n">
-        <v>964.0571555106362</v>
+        <v>953.9655401424092</v>
       </c>
       <c r="R20" t="n">
-        <v>942.6594228129348</v>
+        <v>953.9655401424092</v>
       </c>
       <c r="S20" t="n">
-        <v>731.528039392485</v>
+        <v>742.8341567219593</v>
       </c>
       <c r="T20" t="n">
-        <v>506.1786963984129</v>
+        <v>742.8341567219593</v>
       </c>
       <c r="U20" t="n">
-        <v>262.7299197543128</v>
+        <v>499.3853800778592</v>
       </c>
       <c r="V20" t="n">
-        <v>262.7299197543128</v>
+        <v>499.3853800778592</v>
       </c>
       <c r="W20" t="n">
-        <v>262.7299197543128</v>
+        <v>499.3853800778592</v>
       </c>
       <c r="X20" t="n">
-        <v>19.28114311021272</v>
+        <v>499.3853800778592</v>
       </c>
       <c r="Y20" t="n">
-        <v>19.28114311021272</v>
+        <v>499.3853800778592</v>
       </c>
     </row>
     <row r="21">
@@ -5805,28 +5807,28 @@
         </is>
       </c>
       <c r="B21" t="n">
-        <v>340.2687303644548</v>
+        <v>277.6047704292607</v>
       </c>
       <c r="C21" t="n">
-        <v>165.8157010833278</v>
+        <v>277.6047704292607</v>
       </c>
       <c r="D21" t="n">
-        <v>165.8157010833278</v>
+        <v>277.6047704292607</v>
       </c>
       <c r="E21" t="n">
-        <v>165.8157010833278</v>
+        <v>277.6047704292607</v>
       </c>
       <c r="F21" t="n">
-        <v>19.28114311021272</v>
+        <v>277.6047704292607</v>
       </c>
       <c r="G21" t="n">
-        <v>19.28114311021272</v>
+        <v>223.7040404982626</v>
       </c>
       <c r="H21" t="n">
-        <v>19.28114311021272</v>
+        <v>110.334904905842</v>
       </c>
       <c r="I21" t="n">
-        <v>19.28114311021272</v>
+        <v>20.03527576299844</v>
       </c>
       <c r="J21" t="n">
         <v>19.28114311021272</v>
@@ -5838,43 +5840,43 @@
         <v>249.2442489785619</v>
       </c>
       <c r="M21" t="n">
-        <v>304.2053859195205</v>
+        <v>473.4149733950735</v>
       </c>
       <c r="N21" t="n">
-        <v>542.809531908403</v>
+        <v>473.4149733950735</v>
       </c>
       <c r="O21" t="n">
-        <v>781.4136778972854</v>
+        <v>712.019119383956</v>
       </c>
       <c r="P21" t="n">
-        <v>964.0571555106362</v>
+        <v>894.6625969973069</v>
       </c>
       <c r="Q21" t="n">
         <v>964.0571555106362</v>
       </c>
       <c r="R21" t="n">
-        <v>862.8876260635219</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="S21" t="n">
-        <v>777.6074332374315</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="T21" t="n">
-        <v>575.4208385961974</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="U21" t="n">
-        <v>575.4208385961974</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="V21" t="n">
-        <v>340.2687303644548</v>
+        <v>728.9050472788936</v>
       </c>
       <c r="W21" t="n">
-        <v>340.2687303644548</v>
+        <v>485.4562706347935</v>
       </c>
       <c r="X21" t="n">
-        <v>340.2687303644548</v>
+        <v>277.6047704292607</v>
       </c>
       <c r="Y21" t="n">
-        <v>340.2687303644548</v>
+        <v>277.6047704292607</v>
       </c>
     </row>
     <row r="22">
@@ -5932,25 +5934,25 @@
         <v>153.8134336004835</v>
       </c>
       <c r="R22" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="S22" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="T22" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="U22" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="V22" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="W22" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="X22" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="Y22" t="n">
         <v>19.28114311021272</v>
@@ -5963,16 +5965,16 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>506.1786963984129</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="C23" t="n">
-        <v>506.1786963984129</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="D23" t="n">
-        <v>506.1786963984129</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="E23" t="n">
-        <v>262.7299197543128</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="F23" t="n">
         <v>19.28114311021272</v>
@@ -6011,28 +6013,28 @@
         <v>964.0571555106362</v>
       </c>
       <c r="R23" t="n">
-        <v>964.0571555106362</v>
+        <v>812.6742080953335</v>
       </c>
       <c r="S23" t="n">
-        <v>964.0571555106362</v>
+        <v>601.5428246748836</v>
       </c>
       <c r="T23" t="n">
-        <v>964.0571555106362</v>
+        <v>601.5428246748836</v>
       </c>
       <c r="U23" t="n">
-        <v>964.0571555106362</v>
+        <v>358.0940480307835</v>
       </c>
       <c r="V23" t="n">
-        <v>720.6083788665362</v>
+        <v>114.6452713866835</v>
       </c>
       <c r="W23" t="n">
-        <v>506.1786963984129</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="X23" t="n">
-        <v>506.1786963984129</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="Y23" t="n">
-        <v>506.1786963984129</v>
+        <v>19.28114311021272</v>
       </c>
     </row>
     <row r="24">
@@ -6042,49 +6044,49 @@
         </is>
       </c>
       <c r="B24" t="n">
-        <v>362.4348659156472</v>
+        <v>353.3011080883284</v>
       </c>
       <c r="C24" t="n">
-        <v>362.4348659156472</v>
+        <v>353.3011080883284</v>
       </c>
       <c r="D24" t="n">
-        <v>362.4348659156472</v>
+        <v>353.3011080883284</v>
       </c>
       <c r="E24" t="n">
-        <v>362.4348659156472</v>
+        <v>194.0636530828729</v>
       </c>
       <c r="F24" t="n">
-        <v>362.4348659156472</v>
+        <v>194.0636530828729</v>
       </c>
       <c r="G24" t="n">
-        <v>223.7040404982626</v>
+        <v>132.6502787026334</v>
       </c>
       <c r="H24" t="n">
-        <v>110.334904905842</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="I24" t="n">
-        <v>20.03527576299844</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="J24" t="n">
         <v>19.28114311021272</v>
       </c>
       <c r="K24" t="n">
-        <v>144.6387031680501</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="L24" t="n">
-        <v>374.6018090363993</v>
+        <v>249.2442489785619</v>
       </c>
       <c r="M24" t="n">
-        <v>473.4149733950735</v>
+        <v>486.8488635328713</v>
       </c>
       <c r="N24" t="n">
-        <v>473.4149733950735</v>
+        <v>725.4530095217538</v>
       </c>
       <c r="O24" t="n">
-        <v>712.019119383956</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="P24" t="n">
-        <v>894.6625969973069</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="Q24" t="n">
         <v>964.0571555106362</v>
@@ -6093,25 +6095,25 @@
         <v>964.0571555106362</v>
       </c>
       <c r="S24" t="n">
-        <v>964.0571555106362</v>
+        <v>790.6398109613051</v>
       </c>
       <c r="T24" t="n">
-        <v>964.0571555106362</v>
+        <v>588.4532163200711</v>
       </c>
       <c r="U24" t="n">
-        <v>964.0571555106362</v>
+        <v>588.4532163200711</v>
       </c>
       <c r="V24" t="n">
-        <v>946.2620019062019</v>
+        <v>353.3011080883284</v>
       </c>
       <c r="W24" t="n">
-        <v>946.2620019062019</v>
+        <v>353.3011080883284</v>
       </c>
       <c r="X24" t="n">
-        <v>738.4105017006691</v>
+        <v>353.3011080883284</v>
       </c>
       <c r="Y24" t="n">
-        <v>530.6502029357152</v>
+        <v>353.3011080883284</v>
       </c>
     </row>
     <row r="25">
@@ -6121,76 +6123,76 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>66.78106667958005</v>
+        <v>829.5248650203655</v>
       </c>
       <c r="C25" t="n">
-        <v>66.78106667958005</v>
+        <v>829.5248650203655</v>
       </c>
       <c r="D25" t="n">
-        <v>66.78106667958005</v>
+        <v>829.5248650203655</v>
       </c>
       <c r="E25" t="n">
-        <v>19.28114311021272</v>
+        <v>829.5248650203655</v>
       </c>
       <c r="F25" t="n">
-        <v>19.28114311021272</v>
+        <v>829.5248650203655</v>
       </c>
       <c r="G25" t="n">
-        <v>19.28114311021272</v>
+        <v>829.5248650203655</v>
       </c>
       <c r="H25" t="n">
-        <v>19.28114311021272</v>
+        <v>829.5248650203655</v>
       </c>
       <c r="I25" t="n">
-        <v>19.28114311021272</v>
+        <v>829.5248650203655</v>
       </c>
       <c r="J25" t="n">
-        <v>19.28114311021272</v>
+        <v>829.5248650203655</v>
       </c>
       <c r="K25" t="n">
-        <v>19.28114311021272</v>
+        <v>829.5248650203655</v>
       </c>
       <c r="L25" t="n">
-        <v>46.5952681179257</v>
+        <v>856.8389900280785</v>
       </c>
       <c r="M25" t="n">
-        <v>85.78330631014788</v>
+        <v>896.0270282203006</v>
       </c>
       <c r="N25" t="n">
-        <v>129.4741569655842</v>
+        <v>939.7178788757369</v>
       </c>
       <c r="O25" t="n">
-        <v>153.8134336004835</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="P25" t="n">
-        <v>153.8134336004835</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="Q25" t="n">
-        <v>66.78106667958005</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="R25" t="n">
-        <v>66.78106667958005</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="S25" t="n">
-        <v>66.78106667958005</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="T25" t="n">
-        <v>66.78106667958005</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="U25" t="n">
-        <v>66.78106667958005</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="V25" t="n">
-        <v>66.78106667958005</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="W25" t="n">
-        <v>66.78106667958005</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="X25" t="n">
-        <v>66.78106667958005</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="Y25" t="n">
-        <v>66.78106667958005</v>
+        <v>829.5248650203655</v>
       </c>
     </row>
     <row r="26">
@@ -6203,16 +6205,16 @@
         <v>720.6083788665362</v>
       </c>
       <c r="C26" t="n">
-        <v>720.6083788665362</v>
+        <v>506.1786963984129</v>
       </c>
       <c r="D26" t="n">
-        <v>477.1596022224361</v>
+        <v>262.7299197543128</v>
       </c>
       <c r="E26" t="n">
-        <v>477.1596022224361</v>
+        <v>262.7299197543128</v>
       </c>
       <c r="F26" t="n">
-        <v>477.1596022224361</v>
+        <v>262.7299197543128</v>
       </c>
       <c r="G26" t="n">
         <v>262.7299197543128</v>
@@ -6266,10 +6268,10 @@
         <v>964.0571555106362</v>
       </c>
       <c r="X26" t="n">
-        <v>964.0571555106362</v>
+        <v>720.6083788665362</v>
       </c>
       <c r="Y26" t="n">
-        <v>964.0571555106362</v>
+        <v>720.6083788665362</v>
       </c>
     </row>
     <row r="27">
@@ -6279,28 +6281,28 @@
         </is>
       </c>
       <c r="B27" t="n">
-        <v>735.8335372470253</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="C27" t="n">
-        <v>735.8335372470253</v>
+        <v>817.1412885554689</v>
       </c>
       <c r="D27" t="n">
-        <v>586.8991275857741</v>
+        <v>668.2068788942177</v>
       </c>
       <c r="E27" t="n">
-        <v>427.6616725803186</v>
+        <v>508.9694238887622</v>
       </c>
       <c r="F27" t="n">
-        <v>281.1271146072036</v>
+        <v>362.4348659156472</v>
       </c>
       <c r="G27" t="n">
-        <v>142.3962891898191</v>
+        <v>223.7040404982626</v>
       </c>
       <c r="H27" t="n">
-        <v>109.5807722530562</v>
+        <v>110.334904905842</v>
       </c>
       <c r="I27" t="n">
-        <v>19.28114311021272</v>
+        <v>20.03527576299844</v>
       </c>
       <c r="J27" t="n">
         <v>19.28114311021272</v>
@@ -6309,16 +6311,16 @@
         <v>144.6387031680501</v>
       </c>
       <c r="L27" t="n">
-        <v>144.6387031680501</v>
+        <v>374.6018090363993</v>
       </c>
       <c r="M27" t="n">
-        <v>383.2428491569326</v>
+        <v>613.2059550252818</v>
       </c>
       <c r="N27" t="n">
-        <v>621.8469951458151</v>
+        <v>851.8101010141643</v>
       </c>
       <c r="O27" t="n">
-        <v>712.019119383956</v>
+        <v>894.6625969973069</v>
       </c>
       <c r="P27" t="n">
         <v>894.6625969973069</v>
@@ -6336,19 +6338,19 @@
         <v>964.0571555106362</v>
       </c>
       <c r="U27" t="n">
-        <v>735.8335372470253</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="V27" t="n">
-        <v>735.8335372470253</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="W27" t="n">
-        <v>735.8335372470253</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="X27" t="n">
-        <v>735.8335372470253</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="Y27" t="n">
-        <v>735.8335372470253</v>
+        <v>964.0571555106362</v>
       </c>
     </row>
     <row r="28">
@@ -6409,19 +6411,19 @@
         <v>153.8134336004835</v>
       </c>
       <c r="S28" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="T28" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="U28" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="V28" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="W28" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="X28" t="n">
         <v>19.28114311021272</v>
@@ -6437,28 +6439,28 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>710.516763498309</v>
+        <v>266.0282188019862</v>
       </c>
       <c r="C29" t="n">
-        <v>710.516763498309</v>
+        <v>266.0282188019862</v>
       </c>
       <c r="D29" t="n">
-        <v>710.516763498309</v>
+        <v>266.0282188019862</v>
       </c>
       <c r="E29" t="n">
-        <v>506.1786963984129</v>
+        <v>266.0282188019862</v>
       </c>
       <c r="F29" t="n">
-        <v>262.7299197543128</v>
+        <v>266.0282188019862</v>
       </c>
       <c r="G29" t="n">
-        <v>19.28114311021272</v>
+        <v>31.35113235729608</v>
       </c>
       <c r="H29" t="n">
-        <v>19.28114311021272</v>
+        <v>31.35113235729608</v>
       </c>
       <c r="I29" t="n">
-        <v>19.28114311021272</v>
+        <v>31.35113235729608</v>
       </c>
       <c r="J29" t="n">
         <v>19.28114311021272</v>
@@ -6482,31 +6484,31 @@
         <v>964.0571555106362</v>
       </c>
       <c r="Q29" t="n">
-        <v>953.9655401424092</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="R29" t="n">
-        <v>953.9655401424092</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="S29" t="n">
-        <v>953.9655401424092</v>
+        <v>752.9257720901863</v>
       </c>
       <c r="T29" t="n">
-        <v>953.9655401424092</v>
+        <v>752.9257720901863</v>
       </c>
       <c r="U29" t="n">
-        <v>953.9655401424092</v>
+        <v>509.4769954460863</v>
       </c>
       <c r="V29" t="n">
-        <v>953.9655401424092</v>
+        <v>266.0282188019862</v>
       </c>
       <c r="W29" t="n">
-        <v>953.9655401424092</v>
+        <v>266.0282188019862</v>
       </c>
       <c r="X29" t="n">
-        <v>710.516763498309</v>
+        <v>266.0282188019862</v>
       </c>
       <c r="Y29" t="n">
-        <v>710.516763498309</v>
+        <v>266.0282188019862</v>
       </c>
     </row>
     <row r="30">
@@ -6516,16 +6518,16 @@
         </is>
       </c>
       <c r="B30" t="n">
-        <v>193.7341723913397</v>
+        <v>304.9965798960495</v>
       </c>
       <c r="C30" t="n">
-        <v>19.28114311021272</v>
+        <v>304.9965798960495</v>
       </c>
       <c r="D30" t="n">
-        <v>19.28114311021272</v>
+        <v>156.0621702347982</v>
       </c>
       <c r="E30" t="n">
-        <v>19.28114311021272</v>
+        <v>156.0621702347982</v>
       </c>
       <c r="F30" t="n">
         <v>19.28114311021272</v>
@@ -6549,7 +6551,7 @@
         <v>374.6018090363993</v>
       </c>
       <c r="M30" t="n">
-        <v>542.809531908403</v>
+        <v>374.6018090363993</v>
       </c>
       <c r="N30" t="n">
         <v>542.809531908403</v>
@@ -6564,28 +6566,28 @@
         <v>964.0571555106362</v>
       </c>
       <c r="R30" t="n">
-        <v>862.8876260635219</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="S30" t="n">
-        <v>689.4702815141908</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="T30" t="n">
-        <v>590.1731276750188</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="U30" t="n">
-        <v>361.9495094114078</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="V30" t="n">
-        <v>361.9495094114078</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="W30" t="n">
-        <v>361.9495094114078</v>
+        <v>720.6083788665362</v>
       </c>
       <c r="X30" t="n">
-        <v>361.9495094114078</v>
+        <v>512.7568786610034</v>
       </c>
       <c r="Y30" t="n">
-        <v>361.9495094114078</v>
+        <v>304.9965798960495</v>
       </c>
     </row>
     <row r="31">
@@ -6595,76 +6597,76 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>19.28114311021272</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="C31" t="n">
-        <v>19.28114311021272</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="D31" t="n">
-        <v>19.28114311021272</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="E31" t="n">
-        <v>19.28114311021272</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="F31" t="n">
-        <v>19.28114311021272</v>
+        <v>829.5248650203655</v>
       </c>
       <c r="G31" t="n">
-        <v>19.28114311021272</v>
+        <v>829.5248650203655</v>
       </c>
       <c r="H31" t="n">
-        <v>19.28114311021272</v>
+        <v>829.5248650203655</v>
       </c>
       <c r="I31" t="n">
-        <v>19.28114311021272</v>
+        <v>829.5248650203655</v>
       </c>
       <c r="J31" t="n">
-        <v>19.28114311021272</v>
+        <v>829.5248650203655</v>
       </c>
       <c r="K31" t="n">
-        <v>19.28114311021272</v>
+        <v>829.5248650203655</v>
       </c>
       <c r="L31" t="n">
-        <v>46.5952681179257</v>
+        <v>856.8389900280785</v>
       </c>
       <c r="M31" t="n">
-        <v>85.78330631014788</v>
+        <v>896.0270282203006</v>
       </c>
       <c r="N31" t="n">
-        <v>129.4741569655842</v>
+        <v>939.7178788757369</v>
       </c>
       <c r="O31" t="n">
-        <v>153.8134336004835</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="P31" t="n">
-        <v>153.8134336004835</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="Q31" t="n">
-        <v>153.8134336004835</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="R31" t="n">
-        <v>153.8134336004835</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="S31" t="n">
-        <v>153.8134336004835</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="T31" t="n">
-        <v>153.8134336004835</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="U31" t="n">
-        <v>153.8134336004835</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="V31" t="n">
-        <v>153.8134336004835</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="W31" t="n">
-        <v>153.8134336004835</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="X31" t="n">
-        <v>153.8134336004835</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="Y31" t="n">
-        <v>153.8134336004835</v>
+        <v>964.0571555106362</v>
       </c>
     </row>
     <row r="32">
@@ -6674,19 +6676,19 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>749.627473042513</v>
+        <v>262.7299197543128</v>
       </c>
       <c r="C32" t="n">
-        <v>506.1786963984129</v>
+        <v>262.7299197543128</v>
       </c>
       <c r="D32" t="n">
         <v>262.7299197543128</v>
       </c>
       <c r="E32" t="n">
-        <v>19.28114311021272</v>
+        <v>262.7299197543128</v>
       </c>
       <c r="F32" t="n">
-        <v>19.28114311021272</v>
+        <v>262.7299197543128</v>
       </c>
       <c r="G32" t="n">
         <v>19.28114311021272</v>
@@ -6722,28 +6724,28 @@
         <v>953.9655401424092</v>
       </c>
       <c r="R32" t="n">
-        <v>802.5825927271064</v>
+        <v>953.9655401424092</v>
       </c>
       <c r="S32" t="n">
-        <v>802.5825927271064</v>
+        <v>749.627473042513</v>
       </c>
       <c r="T32" t="n">
-        <v>802.5825927271064</v>
+        <v>749.627473042513</v>
       </c>
       <c r="U32" t="n">
-        <v>802.5825927271064</v>
+        <v>749.627473042513</v>
       </c>
       <c r="V32" t="n">
-        <v>802.5825927271064</v>
+        <v>749.627473042513</v>
       </c>
       <c r="W32" t="n">
-        <v>802.5825927271064</v>
+        <v>749.627473042513</v>
       </c>
       <c r="X32" t="n">
-        <v>802.5825927271064</v>
+        <v>749.627473042513</v>
       </c>
       <c r="Y32" t="n">
-        <v>802.5825927271064</v>
+        <v>506.1786963984129</v>
       </c>
     </row>
     <row r="33">
@@ -6753,25 +6755,25 @@
         </is>
       </c>
       <c r="B33" t="n">
-        <v>964.0571555106362</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="C33" t="n">
-        <v>789.6041262295092</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="D33" t="n">
-        <v>667.4527462414319</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="E33" t="n">
-        <v>508.2152912359765</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="F33" t="n">
-        <v>361.6807332628614</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="G33" t="n">
-        <v>222.9499078454769</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="H33" t="n">
-        <v>109.5807722530562</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="I33" t="n">
         <v>19.28114311021272</v>
@@ -6780,19 +6782,19 @@
         <v>19.28114311021272</v>
       </c>
       <c r="K33" t="n">
-        <v>144.6387031680501</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="L33" t="n">
-        <v>374.6018090363993</v>
+        <v>249.2442489785619</v>
       </c>
       <c r="M33" t="n">
-        <v>542.809531908403</v>
+        <v>487.8483949674443</v>
       </c>
       <c r="N33" t="n">
-        <v>781.4136778972854</v>
+        <v>725.4530095217538</v>
       </c>
       <c r="O33" t="n">
-        <v>781.4136778972854</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="P33" t="n">
         <v>964.0571555106362</v>
@@ -6801,28 +6803,28 @@
         <v>964.0571555106362</v>
       </c>
       <c r="R33" t="n">
-        <v>964.0571555106362</v>
+        <v>862.8876260635219</v>
       </c>
       <c r="S33" t="n">
-        <v>964.0571555106362</v>
+        <v>689.4702815141908</v>
       </c>
       <c r="T33" t="n">
-        <v>964.0571555106362</v>
+        <v>689.4702815141908</v>
       </c>
       <c r="U33" t="n">
-        <v>964.0571555106362</v>
+        <v>461.2466632505798</v>
       </c>
       <c r="V33" t="n">
-        <v>964.0571555106362</v>
+        <v>226.0945550188371</v>
       </c>
       <c r="W33" t="n">
-        <v>964.0571555106362</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="X33" t="n">
-        <v>964.0571555106362</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="Y33" t="n">
-        <v>964.0571555106362</v>
+        <v>19.28114311021272</v>
       </c>
     </row>
     <row r="34">
@@ -6832,76 +6834,76 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>829.5248650203655</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="C34" t="n">
-        <v>829.5248650203655</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="D34" t="n">
-        <v>829.5248650203655</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="E34" t="n">
-        <v>829.5248650203655</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="F34" t="n">
-        <v>829.5248650203655</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="G34" t="n">
-        <v>829.5248650203655</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="H34" t="n">
-        <v>829.5248650203655</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="I34" t="n">
-        <v>829.5248650203655</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="J34" t="n">
-        <v>829.5248650203655</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="K34" t="n">
-        <v>829.5248650203655</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="L34" t="n">
-        <v>856.8389900280785</v>
+        <v>46.5952681179257</v>
       </c>
       <c r="M34" t="n">
-        <v>896.0270282203006</v>
+        <v>85.78330631014788</v>
       </c>
       <c r="N34" t="n">
-        <v>939.7178788757369</v>
+        <v>129.4741569655842</v>
       </c>
       <c r="O34" t="n">
-        <v>964.0571555106362</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="P34" t="n">
-        <v>964.0571555106362</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="Q34" t="n">
-        <v>964.0571555106362</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="R34" t="n">
-        <v>829.5248650203655</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="S34" t="n">
-        <v>829.5248650203655</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="T34" t="n">
-        <v>829.5248650203655</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="U34" t="n">
-        <v>829.5248650203655</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="V34" t="n">
-        <v>829.5248650203655</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="W34" t="n">
-        <v>829.5248650203655</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="X34" t="n">
-        <v>829.5248650203655</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="Y34" t="n">
-        <v>829.5248650203655</v>
+        <v>19.28114311021272</v>
       </c>
     </row>
     <row r="35">
@@ -6911,28 +6913,28 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>761.6974622895962</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="C35" t="n">
-        <v>518.2486856454962</v>
+        <v>720.6083788665362</v>
       </c>
       <c r="D35" t="n">
-        <v>518.2486856454962</v>
+        <v>506.1786963984129</v>
       </c>
       <c r="E35" t="n">
-        <v>274.7999090013961</v>
+        <v>262.7299197543128</v>
       </c>
       <c r="F35" t="n">
-        <v>274.7999090013961</v>
+        <v>262.7299197543128</v>
       </c>
       <c r="G35" t="n">
-        <v>31.35113235729608</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="H35" t="n">
-        <v>31.35113235729608</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="I35" t="n">
-        <v>31.35113235729608</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="J35" t="n">
         <v>19.28114311021272</v>
@@ -6956,31 +6958,31 @@
         <v>964.0571555106362</v>
       </c>
       <c r="Q35" t="n">
-        <v>953.9655401424092</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="R35" t="n">
-        <v>802.5825927271064</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="S35" t="n">
-        <v>761.6974622895962</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="T35" t="n">
-        <v>761.6974622895962</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="U35" t="n">
-        <v>761.6974622895962</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="V35" t="n">
-        <v>761.6974622895962</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="W35" t="n">
-        <v>761.6974622895962</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="X35" t="n">
-        <v>761.6974622895962</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="Y35" t="n">
-        <v>761.6974622895962</v>
+        <v>964.0571555106362</v>
       </c>
     </row>
     <row r="36">
@@ -6990,76 +6992,76 @@
         </is>
       </c>
       <c r="B36" t="n">
-        <v>194.4883050441255</v>
+        <v>353.3011080883284</v>
       </c>
       <c r="C36" t="n">
-        <v>20.03527576299844</v>
+        <v>304.5465265007123</v>
       </c>
       <c r="D36" t="n">
-        <v>20.03527576299844</v>
+        <v>304.5465265007123</v>
       </c>
       <c r="E36" t="n">
-        <v>20.03527576299844</v>
+        <v>304.5465265007123</v>
       </c>
       <c r="F36" t="n">
-        <v>20.03527576299844</v>
+        <v>158.0119685275972</v>
       </c>
       <c r="G36" t="n">
-        <v>20.03527576299844</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="H36" t="n">
-        <v>20.03527576299844</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="I36" t="n">
-        <v>20.03527576299844</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="J36" t="n">
         <v>19.28114311021272</v>
       </c>
       <c r="K36" t="n">
-        <v>74.24228005117135</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="L36" t="n">
-        <v>304.2053859195205</v>
+        <v>249.2442489785619</v>
       </c>
       <c r="M36" t="n">
-        <v>542.809531908403</v>
+        <v>417.4543050195419</v>
       </c>
       <c r="N36" t="n">
-        <v>781.4136778972854</v>
+        <v>656.0584510084244</v>
       </c>
       <c r="O36" t="n">
-        <v>781.4136778972854</v>
+        <v>894.6625969973069</v>
       </c>
       <c r="P36" t="n">
-        <v>964.0571555106362</v>
+        <v>894.6625969973069</v>
       </c>
       <c r="Q36" t="n">
         <v>964.0571555106362</v>
       </c>
       <c r="R36" t="n">
-        <v>862.8876260635219</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="S36" t="n">
-        <v>813.9127174732475</v>
+        <v>790.6398109613051</v>
       </c>
       <c r="T36" t="n">
-        <v>813.9127174732475</v>
+        <v>588.4532163200711</v>
       </c>
       <c r="U36" t="n">
-        <v>813.9127174732475</v>
+        <v>588.4532163200711</v>
       </c>
       <c r="V36" t="n">
-        <v>813.9127174732475</v>
+        <v>353.3011080883284</v>
       </c>
       <c r="W36" t="n">
-        <v>570.4639408291474</v>
+        <v>353.3011080883284</v>
       </c>
       <c r="X36" t="n">
-        <v>570.4639408291474</v>
+        <v>353.3011080883284</v>
       </c>
       <c r="Y36" t="n">
-        <v>362.7036420641935</v>
+        <v>353.3011080883284</v>
       </c>
     </row>
     <row r="37">
@@ -7069,76 +7071,76 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>829.5248650203655</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="C37" t="n">
-        <v>829.5248650203655</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="D37" t="n">
-        <v>829.5248650203655</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="E37" t="n">
-        <v>829.5248650203655</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="F37" t="n">
-        <v>829.5248650203655</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="G37" t="n">
-        <v>829.5248650203655</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="H37" t="n">
-        <v>829.5248650203655</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="I37" t="n">
-        <v>829.5248650203655</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="J37" t="n">
-        <v>829.5248650203655</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="K37" t="n">
-        <v>829.5248650203655</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="L37" t="n">
-        <v>856.8389900280785</v>
+        <v>46.5952681179257</v>
       </c>
       <c r="M37" t="n">
-        <v>896.0270282203006</v>
+        <v>85.78330631014788</v>
       </c>
       <c r="N37" t="n">
-        <v>939.7178788757369</v>
+        <v>129.4741569655842</v>
       </c>
       <c r="O37" t="n">
-        <v>964.0571555106362</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="P37" t="n">
-        <v>964.0571555106362</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="Q37" t="n">
-        <v>964.0571555106362</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="R37" t="n">
-        <v>964.0571555106362</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="S37" t="n">
-        <v>964.0571555106362</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="T37" t="n">
-        <v>829.5248650203655</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="U37" t="n">
-        <v>829.5248650203655</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="V37" t="n">
-        <v>829.5248650203655</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="W37" t="n">
-        <v>829.5248650203655</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="X37" t="n">
-        <v>829.5248650203655</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="Y37" t="n">
-        <v>829.5248650203655</v>
+        <v>19.28114311021272</v>
       </c>
     </row>
     <row r="38">
@@ -7148,28 +7150,28 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>720.6083788665362</v>
+        <v>710.516763498309</v>
       </c>
       <c r="C38" t="n">
-        <v>720.6083788665362</v>
+        <v>710.516763498309</v>
       </c>
       <c r="D38" t="n">
-        <v>720.6083788665362</v>
+        <v>467.067986854209</v>
       </c>
       <c r="E38" t="n">
-        <v>720.6083788665362</v>
+        <v>467.067986854209</v>
       </c>
       <c r="F38" t="n">
-        <v>720.6083788665362</v>
+        <v>223.6192102101089</v>
       </c>
       <c r="G38" t="n">
-        <v>477.1596022224361</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="H38" t="n">
-        <v>233.7108255783361</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="I38" t="n">
-        <v>31.35113235729608</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="J38" t="n">
         <v>19.28114311021272</v>
@@ -7193,31 +7195,31 @@
         <v>964.0571555106362</v>
       </c>
       <c r="Q38" t="n">
-        <v>964.0571555106362</v>
+        <v>953.9655401424092</v>
       </c>
       <c r="R38" t="n">
-        <v>964.0571555106362</v>
+        <v>953.9655401424092</v>
       </c>
       <c r="S38" t="n">
-        <v>964.0571555106362</v>
+        <v>953.9655401424092</v>
       </c>
       <c r="T38" t="n">
-        <v>964.0571555106362</v>
+        <v>953.9655401424092</v>
       </c>
       <c r="U38" t="n">
-        <v>964.0571555106362</v>
+        <v>953.9655401424092</v>
       </c>
       <c r="V38" t="n">
-        <v>964.0571555106362</v>
+        <v>953.9655401424092</v>
       </c>
       <c r="W38" t="n">
-        <v>964.0571555106362</v>
+        <v>953.9655401424092</v>
       </c>
       <c r="X38" t="n">
-        <v>720.6083788665362</v>
+        <v>953.9655401424092</v>
       </c>
       <c r="Y38" t="n">
-        <v>720.6083788665362</v>
+        <v>953.9655401424092</v>
       </c>
     </row>
     <row r="39">
@@ -7227,16 +7229,16 @@
         </is>
       </c>
       <c r="B39" t="n">
-        <v>90.64333416851576</v>
+        <v>325.0531560887832</v>
       </c>
       <c r="C39" t="n">
-        <v>90.64333416851576</v>
+        <v>325.0531560887832</v>
       </c>
       <c r="D39" t="n">
-        <v>19.28114311021272</v>
+        <v>325.0531560887832</v>
       </c>
       <c r="E39" t="n">
-        <v>19.28114311021272</v>
+        <v>165.8157010833278</v>
       </c>
       <c r="F39" t="n">
         <v>19.28114311021272</v>
@@ -7254,22 +7256,22 @@
         <v>19.28114311021272</v>
       </c>
       <c r="K39" t="n">
-        <v>144.6387031680501</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="L39" t="n">
-        <v>144.6387031680501</v>
+        <v>249.2442489785619</v>
       </c>
       <c r="M39" t="n">
-        <v>383.2428491569326</v>
+        <v>487.8483949674443</v>
       </c>
       <c r="N39" t="n">
-        <v>621.8469951458151</v>
+        <v>487.8483949674443</v>
       </c>
       <c r="O39" t="n">
-        <v>781.4136778972854</v>
+        <v>712.019119383956</v>
       </c>
       <c r="P39" t="n">
-        <v>964.0571555106362</v>
+        <v>894.6625969973069</v>
       </c>
       <c r="Q39" t="n">
         <v>964.0571555106362</v>
@@ -7281,22 +7283,22 @@
         <v>964.0571555106362</v>
       </c>
       <c r="T39" t="n">
-        <v>761.8705608694022</v>
+        <v>908.880292079338</v>
       </c>
       <c r="U39" t="n">
-        <v>533.6469426057913</v>
+        <v>908.880292079338</v>
       </c>
       <c r="V39" t="n">
-        <v>298.4948343740486</v>
+        <v>908.880292079338</v>
       </c>
       <c r="W39" t="n">
-        <v>298.4948343740486</v>
+        <v>908.880292079338</v>
       </c>
       <c r="X39" t="n">
-        <v>90.64333416851576</v>
+        <v>701.0287918738052</v>
       </c>
       <c r="Y39" t="n">
-        <v>90.64333416851576</v>
+        <v>493.2684931088513</v>
       </c>
     </row>
     <row r="40">
@@ -7306,13 +7308,13 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>829.5248650203655</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="C40" t="n">
-        <v>829.5248650203655</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="D40" t="n">
-        <v>829.5248650203655</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="E40" t="n">
         <v>829.5248650203655</v>
@@ -7357,25 +7359,25 @@
         <v>964.0571555106362</v>
       </c>
       <c r="S40" t="n">
-        <v>829.5248650203655</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="T40" t="n">
-        <v>829.5248650203655</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="U40" t="n">
-        <v>829.5248650203655</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="V40" t="n">
-        <v>829.5248650203655</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="W40" t="n">
-        <v>829.5248650203655</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="X40" t="n">
-        <v>829.5248650203655</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="Y40" t="n">
-        <v>829.5248650203655</v>
+        <v>964.0571555106362</v>
       </c>
     </row>
     <row r="41">
@@ -7385,76 +7387,76 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>257.7718183255803</v>
+        <v>262.7299197543128</v>
       </c>
       <c r="C41" t="n">
-        <v>257.7718183255803</v>
+        <v>262.7299197543128</v>
       </c>
       <c r="D41" t="n">
-        <v>257.7718183255803</v>
+        <v>262.7299197543128</v>
       </c>
       <c r="E41" t="n">
-        <v>257.7718183255803</v>
+        <v>262.7299197543128</v>
       </c>
       <c r="F41" t="n">
-        <v>18.91727947682168</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="G41" t="n">
-        <v>18.91727947682168</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="H41" t="n">
-        <v>18.91727947682168</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="I41" t="n">
-        <v>18.91727947682168</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="J41" t="n">
-        <v>18.91727947682168</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="K41" t="n">
-        <v>121.932285387744</v>
+        <v>122.2961490211351</v>
       </c>
       <c r="L41" t="n">
-        <v>302.0081369724026</v>
+        <v>302.3720006057937</v>
       </c>
       <c r="M41" t="n">
-        <v>501.1544461991459</v>
+        <v>519.3476278686978</v>
       </c>
       <c r="N41" t="n">
-        <v>707.0089684063852</v>
+        <v>725.2021500759372</v>
       </c>
       <c r="O41" t="n">
-        <v>856.2039185490332</v>
+        <v>874.3971002185853</v>
       </c>
       <c r="P41" t="n">
-        <v>945.8639738410842</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="Q41" t="n">
-        <v>935.7723584728571</v>
+        <v>953.9655401424092</v>
       </c>
       <c r="R41" t="n">
-        <v>935.7723584728571</v>
+        <v>953.9655401424092</v>
       </c>
       <c r="S41" t="n">
-        <v>935.7723584728571</v>
+        <v>953.9655401424092</v>
       </c>
       <c r="T41" t="n">
-        <v>935.7723584728571</v>
+        <v>953.9655401424092</v>
       </c>
       <c r="U41" t="n">
-        <v>935.7723584728571</v>
+        <v>953.9655401424092</v>
       </c>
       <c r="V41" t="n">
-        <v>935.7723584728571</v>
+        <v>953.9655401424092</v>
       </c>
       <c r="W41" t="n">
-        <v>935.7723584728571</v>
+        <v>953.9655401424092</v>
       </c>
       <c r="X41" t="n">
-        <v>735.4808960230977</v>
+        <v>710.516763498309</v>
       </c>
       <c r="Y41" t="n">
-        <v>496.626357174339</v>
+        <v>467.067986854209</v>
       </c>
     </row>
     <row r="42">
@@ -7464,76 +7466,76 @@
         </is>
       </c>
       <c r="B42" t="n">
-        <v>331.0337992073036</v>
+        <v>171.2153985321831</v>
       </c>
       <c r="C42" t="n">
-        <v>327.0891441435284</v>
+        <v>132.6502787026334</v>
       </c>
       <c r="D42" t="n">
-        <v>178.1547344822772</v>
+        <v>132.6502787026334</v>
       </c>
       <c r="E42" t="n">
-        <v>18.91727947682168</v>
+        <v>132.6502787026334</v>
       </c>
       <c r="F42" t="n">
-        <v>18.91727947682168</v>
+        <v>132.6502787026334</v>
       </c>
       <c r="G42" t="n">
-        <v>18.91727947682168</v>
+        <v>132.6502787026334</v>
       </c>
       <c r="H42" t="n">
-        <v>18.91727947682168</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="I42" t="n">
-        <v>18.91727947682168</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="J42" t="n">
-        <v>18.91727947682168</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="K42" t="n">
-        <v>144.2748395346591</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="L42" t="n">
-        <v>144.2748395346591</v>
+        <v>249.2442489785619</v>
       </c>
       <c r="M42" t="n">
-        <v>378.3761730603275</v>
+        <v>473.4149733950735</v>
       </c>
       <c r="N42" t="n">
-        <v>459.7246041887357</v>
+        <v>712.019119383956</v>
       </c>
       <c r="O42" t="n">
-        <v>693.8259377144041</v>
+        <v>712.019119383956</v>
       </c>
       <c r="P42" t="n">
-        <v>876.4694153277549</v>
+        <v>894.6625969973069</v>
       </c>
       <c r="Q42" t="n">
-        <v>945.8639738410842</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="R42" t="n">
-        <v>945.8639738410842</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="S42" t="n">
-        <v>945.8639738410842</v>
+        <v>790.6398109613051</v>
       </c>
       <c r="T42" t="n">
-        <v>945.8639738410842</v>
+        <v>790.6398109613051</v>
       </c>
       <c r="U42" t="n">
-        <v>945.8639738410842</v>
+        <v>790.6398109613051</v>
       </c>
       <c r="V42" t="n">
-        <v>945.8639738410842</v>
+        <v>790.6398109613051</v>
       </c>
       <c r="W42" t="n">
-        <v>707.0094349923255</v>
+        <v>547.1910343172051</v>
       </c>
       <c r="X42" t="n">
-        <v>707.0094349923255</v>
+        <v>547.1910343172051</v>
       </c>
       <c r="Y42" t="n">
-        <v>499.2491362273716</v>
+        <v>339.4307355522512</v>
       </c>
     </row>
     <row r="43">
@@ -7543,76 +7545,76 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>945.8639738410842</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="C43" t="n">
-        <v>945.8639738410842</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="D43" t="n">
-        <v>945.8639738410842</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="E43" t="n">
-        <v>945.8639738410842</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="F43" t="n">
-        <v>945.8639738410842</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="G43" t="n">
-        <v>945.8639738410842</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="H43" t="n">
-        <v>811.3316833508135</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="I43" t="n">
-        <v>811.3316833508135</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="J43" t="n">
-        <v>811.3316833508135</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="K43" t="n">
-        <v>811.3316833508135</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="L43" t="n">
-        <v>838.6458083585264</v>
+        <v>46.5952681179257</v>
       </c>
       <c r="M43" t="n">
-        <v>877.8338465507486</v>
+        <v>85.78330631014788</v>
       </c>
       <c r="N43" t="n">
-        <v>921.5246972061849</v>
+        <v>129.4741569655842</v>
       </c>
       <c r="O43" t="n">
-        <v>945.8639738410842</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="P43" t="n">
-        <v>945.8639738410842</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="Q43" t="n">
-        <v>945.8639738410842</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="R43" t="n">
-        <v>945.8639738410842</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="S43" t="n">
-        <v>945.8639738410842</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="T43" t="n">
-        <v>945.8639738410842</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="U43" t="n">
-        <v>945.8639738410842</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="V43" t="n">
-        <v>945.8639738410842</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="W43" t="n">
-        <v>945.8639738410842</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="X43" t="n">
-        <v>945.8639738410842</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="Y43" t="n">
-        <v>945.8639738410842</v>
+        <v>19.28114311021272</v>
       </c>
     </row>
     <row r="44">
@@ -7622,76 +7624,76 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>68.2764642733967</v>
+        <v>506.1786963984129</v>
       </c>
       <c r="C44" t="n">
-        <v>68.2764642733967</v>
+        <v>506.1786963984129</v>
       </c>
       <c r="D44" t="n">
-        <v>68.2764642733967</v>
+        <v>506.1786963984129</v>
       </c>
       <c r="E44" t="n">
-        <v>68.2764642733967</v>
+        <v>506.1786963984129</v>
       </c>
       <c r="F44" t="n">
-        <v>28.29275017052741</v>
+        <v>262.7299197543128</v>
       </c>
       <c r="G44" t="n">
-        <v>3.166710156947247</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="H44" t="n">
-        <v>3.166710156947247</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="I44" t="n">
-        <v>3.166710156947247</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="J44" t="n">
-        <v>3.166710156947247</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="K44" t="n">
-        <v>3.166710156947247</v>
+        <v>122.2961490211351</v>
       </c>
       <c r="L44" t="n">
-        <v>3.166710156947247</v>
+        <v>302.3720006057937</v>
       </c>
       <c r="M44" t="n">
-        <v>40.77139327069581</v>
+        <v>519.3476278686978</v>
       </c>
       <c r="N44" t="n">
-        <v>79.95943146291799</v>
+        <v>725.2021500759372</v>
       </c>
       <c r="O44" t="n">
-        <v>119.1474696551402</v>
+        <v>874.3971002185853</v>
       </c>
       <c r="P44" t="n">
-        <v>158.3355078473624</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="Q44" t="n">
-        <v>148.2438924791353</v>
+        <v>953.9655401424092</v>
       </c>
       <c r="R44" t="n">
-        <v>148.2438924791353</v>
+        <v>953.9655401424092</v>
       </c>
       <c r="S44" t="n">
-        <v>108.260178376266</v>
+        <v>953.9655401424092</v>
       </c>
       <c r="T44" t="n">
-        <v>108.260178376266</v>
+        <v>953.9655401424092</v>
       </c>
       <c r="U44" t="n">
-        <v>68.2764642733967</v>
+        <v>953.9655401424092</v>
       </c>
       <c r="V44" t="n">
-        <v>68.2764642733967</v>
+        <v>953.9655401424092</v>
       </c>
       <c r="W44" t="n">
-        <v>68.2764642733967</v>
+        <v>953.9655401424092</v>
       </c>
       <c r="X44" t="n">
-        <v>68.2764642733967</v>
+        <v>953.9655401424092</v>
       </c>
       <c r="Y44" t="n">
-        <v>68.2764642733967</v>
+        <v>710.516763498309</v>
       </c>
     </row>
     <row r="45">
@@ -7701,76 +7703,76 @@
         </is>
       </c>
       <c r="B45" t="n">
-        <v>3.166710156947247</v>
+        <v>137.2441409110171</v>
       </c>
       <c r="C45" t="n">
-        <v>3.166710156947247</v>
+        <v>20.03527576299844</v>
       </c>
       <c r="D45" t="n">
-        <v>3.166710156947247</v>
+        <v>20.03527576299844</v>
       </c>
       <c r="E45" t="n">
-        <v>3.166710156947247</v>
+        <v>20.03527576299844</v>
       </c>
       <c r="F45" t="n">
-        <v>3.166710156947247</v>
+        <v>20.03527576299844</v>
       </c>
       <c r="G45" t="n">
-        <v>3.166710156947247</v>
+        <v>20.03527576299844</v>
       </c>
       <c r="H45" t="n">
-        <v>3.166710156947247</v>
+        <v>20.03527576299844</v>
       </c>
       <c r="I45" t="n">
-        <v>3.166710156947247</v>
+        <v>20.03527576299844</v>
       </c>
       <c r="J45" t="n">
-        <v>3.166710156947247</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="K45" t="n">
-        <v>3.166710156947247</v>
+        <v>65.60123993063803</v>
       </c>
       <c r="L45" t="n">
-        <v>42.35474834916943</v>
+        <v>65.60123993063803</v>
       </c>
       <c r="M45" t="n">
-        <v>81.54278654139161</v>
+        <v>304.2053859195205</v>
       </c>
       <c r="N45" t="n">
-        <v>120.7308247336138</v>
+        <v>542.809531908403</v>
       </c>
       <c r="O45" t="n">
-        <v>120.7308247336138</v>
+        <v>781.4136778972854</v>
       </c>
       <c r="P45" t="n">
-        <v>158.3355078473624</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="Q45" t="n">
-        <v>158.3355078473624</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="R45" t="n">
-        <v>158.3355078473624</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="S45" t="n">
-        <v>158.3355078473624</v>
+        <v>790.6398109613051</v>
       </c>
       <c r="T45" t="n">
-        <v>158.3355078473624</v>
+        <v>588.4532163200711</v>
       </c>
       <c r="U45" t="n">
-        <v>118.3517937444931</v>
+        <v>588.4532163200711</v>
       </c>
       <c r="V45" t="n">
-        <v>78.36807964162378</v>
+        <v>588.4532163200711</v>
       </c>
       <c r="W45" t="n">
-        <v>38.38436553875449</v>
+        <v>345.004439675971</v>
       </c>
       <c r="X45" t="n">
-        <v>3.166710156947247</v>
+        <v>345.004439675971</v>
       </c>
       <c r="Y45" t="n">
-        <v>3.166710156947247</v>
+        <v>137.2441409110171</v>
       </c>
     </row>
     <row r="46">
@@ -7780,76 +7782,76 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>83.13413836268582</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="C46" t="n">
-        <v>83.13413836268582</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="D46" t="n">
-        <v>83.13413836268582</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="E46" t="n">
-        <v>43.15042425981653</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="F46" t="n">
-        <v>3.166710156947247</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="G46" t="n">
-        <v>3.166710156947247</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="H46" t="n">
-        <v>3.166710156947247</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="I46" t="n">
-        <v>3.166710156947247</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="J46" t="n">
-        <v>3.166710156947247</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="K46" t="n">
-        <v>3.166710156947247</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="L46" t="n">
-        <v>30.48083516466022</v>
+        <v>46.5952681179257</v>
       </c>
       <c r="M46" t="n">
-        <v>69.6688733568824</v>
+        <v>85.78330631014788</v>
       </c>
       <c r="N46" t="n">
-        <v>108.8569115491046</v>
+        <v>129.4741569655842</v>
       </c>
       <c r="O46" t="n">
-        <v>133.1961881840039</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="P46" t="n">
-        <v>130.4472581485427</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="Q46" t="n">
-        <v>130.4472581485427</v>
+        <v>66.78106667958005</v>
       </c>
       <c r="R46" t="n">
-        <v>130.4472581485427</v>
+        <v>66.78106667958005</v>
       </c>
       <c r="S46" t="n">
-        <v>123.1178524655551</v>
+        <v>66.78106667958005</v>
       </c>
       <c r="T46" t="n">
-        <v>123.1178524655551</v>
+        <v>66.78106667958005</v>
       </c>
       <c r="U46" t="n">
-        <v>123.1178524655551</v>
+        <v>66.78106667958005</v>
       </c>
       <c r="V46" t="n">
-        <v>123.1178524655551</v>
+        <v>66.78106667958005</v>
       </c>
       <c r="W46" t="n">
-        <v>83.13413836268582</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="X46" t="n">
-        <v>83.13413836268582</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="Y46" t="n">
-        <v>83.13413836268582</v>
+        <v>19.28114311021272</v>
       </c>
     </row>
   </sheetData>
@@ -7979,22 +7981,22 @@
         <v>169.0966151720738</v>
       </c>
       <c r="K2" t="n">
-        <v>220.0898510449805</v>
+        <v>264.2220234242092</v>
       </c>
       <c r="L2" t="n">
-        <v>235.7664149699872</v>
+        <v>279.8985873492159</v>
       </c>
       <c r="M2" t="n">
-        <v>268.3307616249986</v>
+        <v>230.3462332272727</v>
       </c>
       <c r="N2" t="n">
-        <v>268.9969405584315</v>
+        <v>271.7621178998911</v>
       </c>
       <c r="O2" t="n">
-        <v>269.6820883835273</v>
+        <v>274.2303838009153</v>
       </c>
       <c r="P2" t="n">
-        <v>270.8168727171101</v>
+        <v>231.2329957552695</v>
       </c>
       <c r="Q2" t="n">
         <v>212.3149906599047</v>
@@ -8061,22 +8063,22 @@
         <v>137.841438974359</v>
       </c>
       <c r="L3" t="n">
-        <v>178.1382567417148</v>
+        <v>138.5543797798742</v>
       </c>
       <c r="M3" t="n">
-        <v>181.7179108838589</v>
+        <v>184.4830882253185</v>
       </c>
       <c r="N3" t="n">
-        <v>131.3417120833333</v>
+        <v>175.4738844625619</v>
       </c>
       <c r="O3" t="n">
-        <v>142.5962444444444</v>
+        <v>186.728416823673</v>
       </c>
       <c r="P3" t="n">
-        <v>171.9589358120561</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q3" t="n">
-        <v>179.5656510478621</v>
+        <v>184.1139464652501</v>
       </c>
       <c r="R3" t="n">
         <v>45.52166981132082</v>
@@ -8146,7 +8148,7 @@
         <v>178.5096609094456</v>
       </c>
       <c r="N4" t="n">
-        <v>167.2694214270738</v>
+        <v>171.8177168444618</v>
       </c>
       <c r="O4" t="n">
         <v>163.0416663658825</v>
@@ -8216,22 +8218,22 @@
         <v>169.0966151720738</v>
       </c>
       <c r="K5" t="n">
-        <v>259.6737280068211</v>
+        <v>262.4389053482807</v>
       </c>
       <c r="L5" t="n">
-        <v>273.750943367713</v>
+        <v>279.8985873492159</v>
       </c>
       <c r="M5" t="n">
-        <v>230.3462332272727</v>
+        <v>274.4784056065013</v>
       </c>
       <c r="N5" t="n">
-        <v>229.4130635965909</v>
+        <v>273.5452359758195</v>
       </c>
       <c r="O5" t="n">
-        <v>269.6820883835273</v>
+        <v>230.0982114216867</v>
       </c>
       <c r="P5" t="n">
-        <v>270.8168727171101</v>
+        <v>231.2329957552695</v>
       </c>
       <c r="Q5" t="n">
         <v>212.3149906599047</v>
@@ -8295,13 +8297,13 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K6" t="n">
-        <v>177.4253159361996</v>
+        <v>181.9736113535876</v>
       </c>
       <c r="L6" t="n">
-        <v>178.1382567417148</v>
+        <v>182.6865521591028</v>
       </c>
       <c r="M6" t="n">
-        <v>180.1185623197441</v>
+        <v>184.4830882253185</v>
       </c>
       <c r="N6" t="n">
         <v>131.3417120833333</v>
@@ -8313,7 +8315,7 @@
         <v>133.9744074143302</v>
       </c>
       <c r="Q6" t="n">
-        <v>179.5656510478621</v>
+        <v>184.1139464652501</v>
       </c>
       <c r="R6" t="n">
         <v>45.52166981132082</v>
@@ -8383,7 +8385,7 @@
         <v>178.5096609094456</v>
       </c>
       <c r="N7" t="n">
-        <v>167.2694214270738</v>
+        <v>171.8177168444618</v>
       </c>
       <c r="O7" t="n">
         <v>163.0416663658825</v>
@@ -8453,22 +8455,22 @@
         <v>169.0966151720738</v>
       </c>
       <c r="K8" t="n">
-        <v>259.6737280068211</v>
+        <v>220.0898510449805</v>
       </c>
       <c r="L8" t="n">
-        <v>235.7664149699872</v>
+        <v>279.8985873492159</v>
       </c>
       <c r="M8" t="n">
-        <v>230.3462332272727</v>
+        <v>272.6952875305729</v>
       </c>
       <c r="N8" t="n">
-        <v>267.3975919943167</v>
+        <v>273.5452359758195</v>
       </c>
       <c r="O8" t="n">
-        <v>269.6820883835273</v>
+        <v>274.2303838009153</v>
       </c>
       <c r="P8" t="n">
-        <v>270.8168727171101</v>
+        <v>231.2329957552695</v>
       </c>
       <c r="Q8" t="n">
         <v>212.3149906599047</v>
@@ -8538,19 +8540,19 @@
         <v>138.5543797798742</v>
       </c>
       <c r="M9" t="n">
-        <v>142.1340339220183</v>
+        <v>186.2662063012469</v>
       </c>
       <c r="N9" t="n">
-        <v>169.3262404810591</v>
+        <v>131.3417120833333</v>
       </c>
       <c r="O9" t="n">
-        <v>182.180121406285</v>
+        <v>186.728416823673</v>
       </c>
       <c r="P9" t="n">
-        <v>173.5582843761708</v>
+        <v>178.1065797935588</v>
       </c>
       <c r="Q9" t="n">
-        <v>179.5656510478621</v>
+        <v>182.3308283893217</v>
       </c>
       <c r="R9" t="n">
         <v>45.52166981132082</v>
@@ -8620,7 +8622,7 @@
         <v>178.5096609094456</v>
       </c>
       <c r="N10" t="n">
-        <v>167.2694214270738</v>
+        <v>171.8177168444618</v>
       </c>
       <c r="O10" t="n">
         <v>163.0416663658825</v>
@@ -8690,19 +8692,19 @@
         <v>169.0966151720738</v>
       </c>
       <c r="K11" t="n">
-        <v>259.6737280068211</v>
+        <v>264.2220234242092</v>
       </c>
       <c r="L11" t="n">
-        <v>273.750943367713</v>
+        <v>279.8985873492159</v>
       </c>
       <c r="M11" t="n">
-        <v>269.9301101891133</v>
+        <v>230.3462332272727</v>
       </c>
       <c r="N11" t="n">
-        <v>229.4130635965909</v>
+        <v>273.5452359758195</v>
       </c>
       <c r="O11" t="n">
-        <v>269.6820883835273</v>
+        <v>272.4472657249869</v>
       </c>
       <c r="P11" t="n">
         <v>231.2329957552695</v>
@@ -8769,25 +8771,25 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K12" t="n">
-        <v>177.4253159361996</v>
+        <v>180.1904932776592</v>
       </c>
       <c r="L12" t="n">
-        <v>178.1382567417148</v>
+        <v>138.5543797798742</v>
       </c>
       <c r="M12" t="n">
-        <v>181.7179108838589</v>
+        <v>142.1340339220183</v>
       </c>
       <c r="N12" t="n">
-        <v>131.3417120833333</v>
+        <v>175.4738844625619</v>
       </c>
       <c r="O12" t="n">
-        <v>142.5962444444444</v>
+        <v>186.728416823673</v>
       </c>
       <c r="P12" t="n">
-        <v>133.9744074143302</v>
+        <v>178.1065797935588</v>
       </c>
       <c r="Q12" t="n">
-        <v>177.9663024837473</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R12" t="n">
         <v>45.52166981132082</v>
@@ -8857,7 +8859,7 @@
         <v>178.5096609094456</v>
       </c>
       <c r="N13" t="n">
-        <v>167.2694214270738</v>
+        <v>171.8177168444618</v>
       </c>
       <c r="O13" t="n">
         <v>163.0416663658825</v>
@@ -8927,22 +8929,22 @@
         <v>169.0966151720738</v>
       </c>
       <c r="K14" t="n">
-        <v>259.6737280068211</v>
+        <v>262.4389053482807</v>
       </c>
       <c r="L14" t="n">
-        <v>275.3502919318278</v>
+        <v>279.8985873492159</v>
       </c>
       <c r="M14" t="n">
-        <v>230.3462332272727</v>
+        <v>274.4784056065013</v>
       </c>
       <c r="N14" t="n">
         <v>229.4130635965909</v>
       </c>
       <c r="O14" t="n">
-        <v>268.0827398194126</v>
+        <v>230.0982114216867</v>
       </c>
       <c r="P14" t="n">
-        <v>270.8168727171101</v>
+        <v>275.3651681344982</v>
       </c>
       <c r="Q14" t="n">
         <v>212.3149906599047</v>
@@ -9006,25 +9008,25 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K15" t="n">
-        <v>177.4253159361996</v>
+        <v>137.841438974359</v>
       </c>
       <c r="L15" t="n">
-        <v>178.1382567417148</v>
+        <v>138.5543797798742</v>
       </c>
       <c r="M15" t="n">
-        <v>181.7179108838589</v>
+        <v>186.2662063012469</v>
       </c>
       <c r="N15" t="n">
-        <v>131.3417120833333</v>
+        <v>173.6907663866335</v>
       </c>
       <c r="O15" t="n">
-        <v>142.5962444444444</v>
+        <v>186.728416823673</v>
       </c>
       <c r="P15" t="n">
-        <v>133.9744074143302</v>
+        <v>178.1065797935588</v>
       </c>
       <c r="Q15" t="n">
-        <v>177.9663024837473</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R15" t="n">
         <v>45.52166981132082</v>
@@ -9094,7 +9096,7 @@
         <v>178.5096609094456</v>
       </c>
       <c r="N16" t="n">
-        <v>167.2694214270738</v>
+        <v>171.8177168444618</v>
       </c>
       <c r="O16" t="n">
         <v>163.0416663658825</v>
@@ -9164,22 +9166,22 @@
         <v>169.0966151720738</v>
       </c>
       <c r="K17" t="n">
-        <v>220.0898510449805</v>
+        <v>324.1454125711647</v>
       </c>
       <c r="L17" t="n">
-        <v>278.1154692732874</v>
+        <v>417.6612145504504</v>
       </c>
       <c r="M17" t="n">
-        <v>230.3462332272727</v>
+        <v>449.5135334928325</v>
       </c>
       <c r="N17" t="n">
-        <v>273.5452359758195</v>
+        <v>437.3469244119842</v>
       </c>
       <c r="O17" t="n">
-        <v>274.2303838009153</v>
+        <v>380.8001812627454</v>
       </c>
       <c r="P17" t="n">
-        <v>275.3651681344982</v>
+        <v>321.7987081714826</v>
       </c>
       <c r="Q17" t="n">
         <v>212.3149906599047</v>
@@ -9243,25 +9245,25 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K18" t="n">
-        <v>181.9736113535876</v>
+        <v>137.841438974359</v>
       </c>
       <c r="L18" t="n">
-        <v>138.5543797798742</v>
+        <v>370.8403453034592</v>
       </c>
       <c r="M18" t="n">
-        <v>184.4830882253185</v>
+        <v>312.0431814381598</v>
       </c>
       <c r="N18" t="n">
-        <v>175.4738844625619</v>
+        <v>372.3560009609923</v>
       </c>
       <c r="O18" t="n">
-        <v>186.728416823673</v>
+        <v>383.6105333221035</v>
       </c>
       <c r="P18" t="n">
         <v>133.9744074143302</v>
       </c>
       <c r="Q18" t="n">
-        <v>139.9817740860215</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R18" t="n">
         <v>45.52166981132082</v>
@@ -9486,10 +9488,10 @@
         <v>370.8403453034592</v>
       </c>
       <c r="M21" t="n">
-        <v>197.6503338623806</v>
+        <v>368.5691090902119</v>
       </c>
       <c r="N21" t="n">
-        <v>372.3560009609923</v>
+        <v>131.3417120833333</v>
       </c>
       <c r="O21" t="n">
         <v>383.6105333221035</v>
@@ -9498,7 +9500,7 @@
         <v>318.4627686399372</v>
       </c>
       <c r="Q21" t="n">
-        <v>139.9817740860215</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R21" t="n">
         <v>45.52166981132082</v>
@@ -9717,25 +9719,25 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K24" t="n">
-        <v>264.4652370125786</v>
+        <v>137.841438974359</v>
       </c>
       <c r="L24" t="n">
         <v>370.8403453034592</v>
       </c>
       <c r="M24" t="n">
-        <v>241.9453110519923</v>
+        <v>382.1386950879875</v>
       </c>
       <c r="N24" t="n">
-        <v>131.3417120833333</v>
+        <v>372.3560009609923</v>
       </c>
       <c r="O24" t="n">
         <v>383.6105333221035</v>
       </c>
       <c r="P24" t="n">
-        <v>318.4627686399372</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q24" t="n">
-        <v>210.0772877358491</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R24" t="n">
         <v>45.52166981132082</v>
@@ -9957,7 +9959,7 @@
         <v>264.4652370125786</v>
       </c>
       <c r="L27" t="n">
-        <v>138.5543797798742</v>
+        <v>370.8403453034592</v>
       </c>
       <c r="M27" t="n">
         <v>383.1483227996774</v>
@@ -9966,10 +9968,10 @@
         <v>372.3560009609923</v>
       </c>
       <c r="O27" t="n">
-        <v>233.6791982203443</v>
+        <v>185.8815939223662</v>
       </c>
       <c r="P27" t="n">
-        <v>318.4627686399372</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q27" t="n">
         <v>210.0772877358491</v>
@@ -10197,10 +10199,10 @@
         <v>370.8403453034592</v>
       </c>
       <c r="M30" t="n">
-        <v>312.04082470182</v>
+        <v>142.1340339220183</v>
       </c>
       <c r="N30" t="n">
-        <v>131.3417120833333</v>
+        <v>301.248502863135</v>
       </c>
       <c r="O30" t="n">
         <v>383.6105333221035</v>
@@ -10428,22 +10430,22 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K33" t="n">
-        <v>264.4652370125786</v>
+        <v>137.841438974359</v>
       </c>
       <c r="L33" t="n">
         <v>370.8403453034592</v>
       </c>
       <c r="M33" t="n">
-        <v>312.04082470182</v>
+        <v>383.1483227996774</v>
       </c>
       <c r="N33" t="n">
-        <v>372.3560009609923</v>
+        <v>371.3463732493024</v>
       </c>
       <c r="O33" t="n">
-        <v>142.5962444444444</v>
+        <v>383.6105333221035</v>
       </c>
       <c r="P33" t="n">
-        <v>318.4627686399372</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q33" t="n">
         <v>139.9817740860215</v>
@@ -10665,25 +10667,25 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K36" t="n">
-        <v>193.3577389147212</v>
+        <v>137.841438974359</v>
       </c>
       <c r="L36" t="n">
         <v>370.8403453034592</v>
       </c>
       <c r="M36" t="n">
-        <v>383.1483227996774</v>
+        <v>312.0431814381598</v>
       </c>
       <c r="N36" t="n">
         <v>372.3560009609923</v>
       </c>
       <c r="O36" t="n">
-        <v>142.5962444444444</v>
+        <v>383.6105333221035</v>
       </c>
       <c r="P36" t="n">
-        <v>318.4627686399372</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q36" t="n">
-        <v>139.9817740860215</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R36" t="n">
         <v>45.52166981132082</v>
@@ -10902,25 +10904,25 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K39" t="n">
-        <v>264.4652370125786</v>
+        <v>137.841438974359</v>
       </c>
       <c r="L39" t="n">
-        <v>138.5543797798742</v>
+        <v>370.8403453034592</v>
       </c>
       <c r="M39" t="n">
         <v>383.1483227996774</v>
       </c>
       <c r="N39" t="n">
-        <v>372.3560009609923</v>
+        <v>131.3417120833333</v>
       </c>
       <c r="O39" t="n">
-        <v>303.774711870172</v>
+        <v>369.031319612638</v>
       </c>
       <c r="P39" t="n">
         <v>318.4627686399372</v>
       </c>
       <c r="Q39" t="n">
-        <v>139.9817740860215</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R39" t="n">
         <v>45.52166981132082</v>
@@ -11066,7 +11068,7 @@
         <v>417.6612145504504</v>
       </c>
       <c r="M41" t="n">
-        <v>431.5041213350942</v>
+        <v>449.5135334928325</v>
       </c>
       <c r="N41" t="n">
         <v>437.3469244119842</v>
@@ -11139,19 +11141,19 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K42" t="n">
-        <v>264.4652370125786</v>
+        <v>137.841438974359</v>
       </c>
       <c r="L42" t="n">
-        <v>138.5543797798742</v>
+        <v>370.8403453034592</v>
       </c>
       <c r="M42" t="n">
-        <v>378.6000273822893</v>
+        <v>368.5691090902119</v>
       </c>
       <c r="N42" t="n">
-        <v>213.5118445362709</v>
+        <v>372.3560009609923</v>
       </c>
       <c r="O42" t="n">
-        <v>379.0622379047155</v>
+        <v>142.5962444444444</v>
       </c>
       <c r="P42" t="n">
         <v>318.4627686399372</v>
@@ -11297,22 +11299,22 @@
         <v>169.0966151720738</v>
       </c>
       <c r="K44" t="n">
-        <v>220.0898510449805</v>
+        <v>324.1454125711647</v>
       </c>
       <c r="L44" t="n">
-        <v>235.7664149699872</v>
+        <v>417.6612145504504</v>
       </c>
       <c r="M44" t="n">
-        <v>268.3307616249986</v>
+        <v>449.5135334928325</v>
       </c>
       <c r="N44" t="n">
-        <v>268.9969405584315</v>
+        <v>437.3469244119842</v>
       </c>
       <c r="O44" t="n">
-        <v>269.6820883835273</v>
+        <v>380.8001812627454</v>
       </c>
       <c r="P44" t="n">
-        <v>270.8168727171101</v>
+        <v>321.7987081714826</v>
       </c>
       <c r="Q44" t="n">
         <v>212.3149906599047</v>
@@ -11376,22 +11378,22 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K45" t="n">
-        <v>137.841438974359</v>
+        <v>184.6294155606472</v>
       </c>
       <c r="L45" t="n">
-        <v>178.1382567417148</v>
+        <v>138.5543797798742</v>
       </c>
       <c r="M45" t="n">
-        <v>181.7179108838589</v>
+        <v>383.1483227996774</v>
       </c>
       <c r="N45" t="n">
-        <v>170.9255890451739</v>
+        <v>372.3560009609923</v>
       </c>
       <c r="O45" t="n">
-        <v>142.5962444444444</v>
+        <v>383.6105333221035</v>
       </c>
       <c r="P45" t="n">
-        <v>171.9589358120561</v>
+        <v>318.4627686399372</v>
       </c>
       <c r="Q45" t="n">
         <v>139.9817740860215</v>
@@ -11464,7 +11466,7 @@
         <v>178.5096609094456</v>
       </c>
       <c r="N46" t="n">
-        <v>167.2694214270738</v>
+        <v>171.8177168444618</v>
       </c>
       <c r="O46" t="n">
         <v>163.0416663658825</v>
@@ -22556,19 +22558,19 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F2" t="n">
-        <v>406.8760457417114</v>
+        <v>379.9537176646994</v>
       </c>
       <c r="G2" t="n">
-        <v>415.302737515135</v>
+        <v>371.1705651359065</v>
       </c>
       <c r="H2" t="n">
-        <v>339.4748021157671</v>
+        <v>295.3426297365386</v>
       </c>
       <c r="I2" t="n">
-        <v>210.4758895704059</v>
+        <v>166.3437171911773</v>
       </c>
       <c r="J2" t="n">
-        <v>11.94928935461252</v>
+        <v>0</v>
       </c>
       <c r="K2" t="n">
         <v>0</v>
@@ -22589,10 +22591,10 @@
         <v>0</v>
       </c>
       <c r="Q2" t="n">
-        <v>0</v>
+        <v>9.990699214544804</v>
       </c>
       <c r="R2" t="n">
-        <v>124.9943383277053</v>
+        <v>149.8691179411497</v>
       </c>
       <c r="S2" t="n">
         <v>209.0200695862453</v>
@@ -22607,13 +22609,13 @@
         <v>327.7522584701349</v>
       </c>
       <c r="W2" t="n">
-        <v>309.6570917555724</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X2" t="n">
-        <v>330.1472237166284</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y2" t="n">
-        <v>346.654061694213</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="3">
@@ -22635,19 +22637,19 @@
         <v>157.6450804554009</v>
       </c>
       <c r="F3" t="n">
-        <v>110.9503248916526</v>
+        <v>145.0692123933839</v>
       </c>
       <c r="G3" t="n">
-        <v>97.75964020137005</v>
+        <v>137.3435171632106</v>
       </c>
       <c r="H3" t="n">
-        <v>72.65156727465587</v>
+        <v>112.2354442364965</v>
       </c>
       <c r="I3" t="n">
-        <v>49.81275588957449</v>
+        <v>89.39663285141508</v>
       </c>
       <c r="J3" t="n">
-        <v>0</v>
+        <v>0.7465913262578567</v>
       </c>
       <c r="K3" t="n">
         <v>0</v>
@@ -22671,16 +22673,16 @@
         <v>0</v>
       </c>
       <c r="R3" t="n">
-        <v>100.1578341526431</v>
+        <v>56.02566177341454</v>
       </c>
       <c r="S3" t="n">
-        <v>171.6831711038378</v>
+        <v>127.5509987246092</v>
       </c>
       <c r="T3" t="n">
-        <v>200.1647286948216</v>
+        <v>156.032556315593</v>
       </c>
       <c r="U3" t="n">
-        <v>225.9413820809748</v>
+        <v>187.0697646493503</v>
       </c>
       <c r="V3" t="n">
         <v>232.8005871494253</v>
@@ -22723,13 +22725,13 @@
         <v>162.2271725074396</v>
       </c>
       <c r="I4" t="n">
-        <v>115.8665979654177</v>
+        <v>155.4504749272583</v>
       </c>
       <c r="J4" t="n">
-        <v>53.77530315483219</v>
+        <v>93.35918011667277</v>
       </c>
       <c r="K4" t="n">
-        <v>15.01338019972509</v>
+        <v>22.26949182588285</v>
       </c>
       <c r="L4" t="n">
         <v>0</v>
@@ -22744,16 +22746,16 @@
         <v>0</v>
       </c>
       <c r="P4" t="n">
-        <v>0</v>
+        <v>1.930990287424243</v>
       </c>
       <c r="Q4" t="n">
-        <v>46.5781662898538</v>
+        <v>42.02987087246579</v>
       </c>
       <c r="R4" t="n">
-        <v>177.2933913771695</v>
+        <v>133.1612189979409</v>
       </c>
       <c r="S4" t="n">
-        <v>224.0165980369723</v>
+        <v>179.8844256577437</v>
       </c>
       <c r="T4" t="n">
         <v>227.9455894282815</v>
@@ -22793,16 +22795,16 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F5" t="n">
-        <v>406.8760457417114</v>
+        <v>389.9444168792442</v>
       </c>
       <c r="G5" t="n">
-        <v>415.302737515135</v>
+        <v>371.1705651359065</v>
       </c>
       <c r="H5" t="n">
-        <v>339.4748021157671</v>
+        <v>295.3426297365386</v>
       </c>
       <c r="I5" t="n">
-        <v>210.4758895704059</v>
+        <v>166.3437171911773</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -22829,16 +22831,16 @@
         <v>0</v>
       </c>
       <c r="R5" t="n">
-        <v>110.2852409793091</v>
+        <v>149.8691179411497</v>
       </c>
       <c r="S5" t="n">
-        <v>169.4361926244048</v>
+        <v>209.0200695862453</v>
       </c>
       <c r="T5" t="n">
-        <v>183.5119726022908</v>
+        <v>223.0958495641314</v>
       </c>
       <c r="U5" t="n">
-        <v>238.4201626490047</v>
+        <v>251.3456529078365</v>
       </c>
       <c r="V5" t="n">
         <v>327.7522584701349</v>
@@ -22869,22 +22871,22 @@
         <v>147.4450655646388</v>
       </c>
       <c r="E6" t="n">
-        <v>157.6450804554009</v>
+        <v>113.5129080761724</v>
       </c>
       <c r="F6" t="n">
-        <v>110.9503248916526</v>
+        <v>100.9370400141553</v>
       </c>
       <c r="G6" t="n">
-        <v>97.75964020137005</v>
+        <v>93.21134478398204</v>
       </c>
       <c r="H6" t="n">
-        <v>72.65156727465587</v>
+        <v>73.36382680487192</v>
       </c>
       <c r="I6" t="n">
-        <v>49.81275588957449</v>
+        <v>89.39663285141508</v>
       </c>
       <c r="J6" t="n">
-        <v>0</v>
+        <v>0.7465913262578567</v>
       </c>
       <c r="K6" t="n">
         <v>0</v>
@@ -22960,13 +22962,13 @@
         <v>162.2271725074396</v>
       </c>
       <c r="I7" t="n">
-        <v>115.8665979654177</v>
+        <v>155.4504749272583</v>
       </c>
       <c r="J7" t="n">
-        <v>53.77530315483219</v>
+        <v>93.35918011667277</v>
       </c>
       <c r="K7" t="n">
-        <v>15.01338019972509</v>
+        <v>22.26949182588285</v>
       </c>
       <c r="L7" t="n">
         <v>0</v>
@@ -22984,13 +22986,13 @@
         <v>0</v>
       </c>
       <c r="Q7" t="n">
-        <v>46.5781662898538</v>
+        <v>42.02987087246579</v>
       </c>
       <c r="R7" t="n">
-        <v>177.2933913771695</v>
+        <v>133.1612189979409</v>
       </c>
       <c r="S7" t="n">
-        <v>224.0165980369723</v>
+        <v>181.8154159451679</v>
       </c>
       <c r="T7" t="n">
         <v>227.9455894282815</v>
@@ -23042,7 +23044,7 @@
         <v>210.4758895704059</v>
       </c>
       <c r="J8" t="n">
-        <v>11.94928935461252</v>
+        <v>0</v>
       </c>
       <c r="K8" t="n">
         <v>0</v>
@@ -23066,16 +23068,16 @@
         <v>0</v>
       </c>
       <c r="R8" t="n">
-        <v>110.2852409793091</v>
+        <v>105.7369455619211</v>
       </c>
       <c r="S8" t="n">
-        <v>169.4361926244048</v>
+        <v>164.8878972070167</v>
       </c>
       <c r="T8" t="n">
-        <v>183.5119726022908</v>
+        <v>178.9636771849028</v>
       </c>
       <c r="U8" t="n">
-        <v>226.4708732943921</v>
+        <v>234.4140240453693</v>
       </c>
       <c r="V8" t="n">
         <v>327.7522584701349</v>
@@ -23109,19 +23111,19 @@
         <v>157.6450804554009</v>
       </c>
       <c r="F9" t="n">
-        <v>110.9503248916526</v>
+        <v>100.9370400141553</v>
       </c>
       <c r="G9" t="n">
-        <v>97.75964020137005</v>
+        <v>93.21134478398204</v>
       </c>
       <c r="H9" t="n">
-        <v>72.65156727465587</v>
+        <v>68.10327185726787</v>
       </c>
       <c r="I9" t="n">
-        <v>49.81275588957449</v>
+        <v>89.39663285141508</v>
       </c>
       <c r="J9" t="n">
-        <v>0</v>
+        <v>0.7465913262578567</v>
       </c>
       <c r="K9" t="n">
         <v>0</v>
@@ -23145,7 +23147,7 @@
         <v>0</v>
       </c>
       <c r="R9" t="n">
-        <v>100.1578341526431</v>
+        <v>61.28621672101858</v>
       </c>
       <c r="S9" t="n">
         <v>171.6831711038378</v>
@@ -23194,13 +23196,13 @@
         <v>167.9909793584588</v>
       </c>
       <c r="H10" t="n">
-        <v>162.2271725074396</v>
+        <v>139.5740415064116</v>
       </c>
       <c r="I10" t="n">
-        <v>155.4504749272583</v>
+        <v>111.3183025480297</v>
       </c>
       <c r="J10" t="n">
-        <v>93.35918011667277</v>
+        <v>49.22700773744418</v>
       </c>
       <c r="K10" t="n">
         <v>0</v>
@@ -23218,16 +23220,16 @@
         <v>0</v>
       </c>
       <c r="P10" t="n">
-        <v>0</v>
+        <v>2.721440735106512</v>
       </c>
       <c r="Q10" t="n">
-        <v>46.5781662898538</v>
+        <v>86.16204325169439</v>
       </c>
       <c r="R10" t="n">
-        <v>137.7095144153289</v>
+        <v>177.2933913771695</v>
       </c>
       <c r="S10" t="n">
-        <v>199.4461012748567</v>
+        <v>224.0165980369723</v>
       </c>
       <c r="T10" t="n">
         <v>227.9455894282815</v>
@@ -23255,19 +23257,19 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>357.8590620500362</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C11" t="n">
         <v>365.2728917710076</v>
       </c>
       <c r="D11" t="n">
-        <v>315.0991646588424</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E11" t="n">
         <v>381.9303700722618</v>
       </c>
       <c r="F11" t="n">
-        <v>367.2921687798708</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G11" t="n">
         <v>415.302737515135</v>
@@ -23276,10 +23278,10 @@
         <v>339.4748021157671</v>
       </c>
       <c r="I11" t="n">
-        <v>170.8920126085653</v>
+        <v>183.5535614933939</v>
       </c>
       <c r="J11" t="n">
-        <v>11.94928935461252</v>
+        <v>0</v>
       </c>
       <c r="K11" t="n">
         <v>0</v>
@@ -23300,7 +23302,7 @@
         <v>0</v>
       </c>
       <c r="Q11" t="n">
-        <v>0</v>
+        <v>9.990699214544804</v>
       </c>
       <c r="R11" t="n">
         <v>149.8691179411497</v>
@@ -23312,13 +23314,13 @@
         <v>223.0958495641314</v>
       </c>
       <c r="U11" t="n">
-        <v>251.3456529078365</v>
+        <v>207.2134805286079</v>
       </c>
       <c r="V11" t="n">
-        <v>327.7522584701349</v>
+        <v>283.6200860909063</v>
       </c>
       <c r="W11" t="n">
-        <v>349.240968717413</v>
+        <v>305.1087963381844</v>
       </c>
       <c r="X11" t="n">
         <v>369.731100678469</v>
@@ -23346,16 +23348,16 @@
         <v>157.6450804554009</v>
       </c>
       <c r="F12" t="n">
-        <v>110.2037335653947</v>
+        <v>145.0692123933839</v>
       </c>
       <c r="G12" t="n">
-        <v>97.75964020137005</v>
+        <v>137.3435171632106</v>
       </c>
       <c r="H12" t="n">
-        <v>72.65156727465587</v>
+        <v>112.2354442364965</v>
       </c>
       <c r="I12" t="n">
-        <v>49.81275588957449</v>
+        <v>50.52501541979053</v>
       </c>
       <c r="J12" t="n">
         <v>0.7465913262578567</v>
@@ -23382,13 +23384,13 @@
         <v>0</v>
       </c>
       <c r="R12" t="n">
-        <v>100.1578341526431</v>
+        <v>56.02566177341454</v>
       </c>
       <c r="S12" t="n">
-        <v>171.6831711038378</v>
+        <v>127.5509987246092</v>
       </c>
       <c r="T12" t="n">
-        <v>200.1647286948216</v>
+        <v>156.032556315593</v>
       </c>
       <c r="U12" t="n">
         <v>225.9413820809748</v>
@@ -23434,13 +23436,13 @@
         <v>162.2271725074396</v>
       </c>
       <c r="I13" t="n">
-        <v>130.8799781651428</v>
+        <v>155.4504749272583</v>
       </c>
       <c r="J13" t="n">
-        <v>53.77530315483219</v>
+        <v>93.35918011667277</v>
       </c>
       <c r="K13" t="n">
-        <v>0</v>
+        <v>22.26949182588285</v>
       </c>
       <c r="L13" t="n">
         <v>0</v>
@@ -23458,13 +23460,13 @@
         <v>0</v>
       </c>
       <c r="Q13" t="n">
-        <v>46.5781662898538</v>
+        <v>42.02987087246579</v>
       </c>
       <c r="R13" t="n">
-        <v>177.2933913771695</v>
+        <v>133.1612189979409</v>
       </c>
       <c r="S13" t="n">
-        <v>224.0165980369723</v>
+        <v>181.8154159451679</v>
       </c>
       <c r="T13" t="n">
         <v>227.9455894282815</v>
@@ -23507,13 +23509,13 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G14" t="n">
-        <v>415.302737515135</v>
+        <v>371.1705651359065</v>
       </c>
       <c r="H14" t="n">
-        <v>339.4748021157671</v>
+        <v>300.6031846841426</v>
       </c>
       <c r="I14" t="n">
-        <v>210.4758895704059</v>
+        <v>166.3437171911773</v>
       </c>
       <c r="J14" t="n">
         <v>11.94928935461252</v>
@@ -23537,19 +23539,19 @@
         <v>0</v>
       </c>
       <c r="Q14" t="n">
-        <v>0</v>
+        <v>9.990699214544804</v>
       </c>
       <c r="R14" t="n">
-        <v>124.9943383277053</v>
+        <v>105.7369455619211</v>
       </c>
       <c r="S14" t="n">
-        <v>169.4361926244048</v>
+        <v>209.0200695862453</v>
       </c>
       <c r="T14" t="n">
-        <v>183.5119726022908</v>
+        <v>223.0958495641314</v>
       </c>
       <c r="U14" t="n">
-        <v>211.7617759459959</v>
+        <v>251.3456529078365</v>
       </c>
       <c r="V14" t="n">
         <v>327.7522584701349</v>
@@ -23589,10 +23591,10 @@
         <v>137.3435171632106</v>
       </c>
       <c r="H15" t="n">
-        <v>112.2354442364965</v>
+        <v>68.10327185726787</v>
       </c>
       <c r="I15" t="n">
-        <v>89.39663285141508</v>
+        <v>45.26446047218649</v>
       </c>
       <c r="J15" t="n">
         <v>0.7465913262578567</v>
@@ -23619,16 +23621,16 @@
         <v>0</v>
       </c>
       <c r="R15" t="n">
-        <v>60.57395719080255</v>
+        <v>56.02566177341454</v>
       </c>
       <c r="S15" t="n">
-        <v>132.0992941419972</v>
+        <v>132.8115536722133</v>
       </c>
       <c r="T15" t="n">
-        <v>160.580851732981</v>
+        <v>200.1647286948216</v>
       </c>
       <c r="U15" t="n">
-        <v>191.0759032529857</v>
+        <v>225.9413820809748</v>
       </c>
       <c r="V15" t="n">
         <v>232.8005871494253</v>
@@ -23671,10 +23673,10 @@
         <v>162.2271725074396</v>
       </c>
       <c r="I16" t="n">
-        <v>130.8799781651428</v>
+        <v>155.4504749272583</v>
       </c>
       <c r="J16" t="n">
-        <v>53.77530315483219</v>
+        <v>73.42748985075127</v>
       </c>
       <c r="K16" t="n">
         <v>0</v>
@@ -23695,10 +23697,10 @@
         <v>0</v>
       </c>
       <c r="Q16" t="n">
-        <v>46.5781662898538</v>
+        <v>42.02987087246579</v>
       </c>
       <c r="R16" t="n">
-        <v>177.2933913771695</v>
+        <v>133.1612189979409</v>
       </c>
       <c r="S16" t="n">
         <v>224.0165980369723</v>
@@ -23777,19 +23779,19 @@
         <v>0</v>
       </c>
       <c r="R17" t="n">
-        <v>105.7369455619211</v>
+        <v>0</v>
       </c>
       <c r="S17" t="n">
-        <v>180.1391513691656</v>
+        <v>0</v>
       </c>
       <c r="T17" t="n">
-        <v>178.9636771849028</v>
+        <v>0</v>
       </c>
       <c r="U17" t="n">
-        <v>207.2134805286079</v>
+        <v>10.33136403017744</v>
       </c>
       <c r="V17" t="n">
-        <v>327.7522584701349</v>
+        <v>225.414031377446</v>
       </c>
       <c r="W17" t="n">
         <v>349.240968717413</v>
@@ -23811,28 +23813,28 @@
         <v>166.5331836498673</v>
       </c>
       <c r="C18" t="n">
-        <v>172.7084989883157</v>
+        <v>27.26179070270013</v>
       </c>
       <c r="D18" t="n">
-        <v>147.4450655646388</v>
+        <v>0</v>
       </c>
       <c r="E18" t="n">
-        <v>157.6450804554009</v>
+        <v>0</v>
       </c>
       <c r="F18" t="n">
-        <v>145.0692123933839</v>
+        <v>0</v>
       </c>
       <c r="G18" t="n">
-        <v>137.3435171632106</v>
+        <v>0</v>
       </c>
       <c r="H18" t="n">
-        <v>112.2354442364965</v>
+        <v>0</v>
       </c>
       <c r="I18" t="n">
-        <v>89.39663285141508</v>
+        <v>0</v>
       </c>
       <c r="J18" t="n">
-        <v>0.7465913262578567</v>
+        <v>0</v>
       </c>
       <c r="K18" t="n">
         <v>0</v>
@@ -23856,16 +23858,16 @@
         <v>0</v>
       </c>
       <c r="R18" t="n">
-        <v>61.28621672101858</v>
+        <v>100.1578341526431</v>
       </c>
       <c r="S18" t="n">
-        <v>127.5509987246092</v>
+        <v>171.6831711038378</v>
       </c>
       <c r="T18" t="n">
-        <v>156.032556315593</v>
+        <v>200.1647286948216</v>
       </c>
       <c r="U18" t="n">
-        <v>181.8092097017462</v>
+        <v>225.9413820809748</v>
       </c>
       <c r="V18" t="n">
         <v>232.8005871494253</v>
@@ -23887,7 +23889,7 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>179.041529734255</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C19" t="n">
         <v>167.2468210986278</v>
@@ -23941,13 +23943,13 @@
         <v>224.0165980369723</v>
       </c>
       <c r="T19" t="n">
-        <v>183.8134170490529</v>
+        <v>227.9455894282815</v>
       </c>
       <c r="U19" t="n">
-        <v>242.1868569772623</v>
+        <v>286.3190293564909</v>
       </c>
       <c r="V19" t="n">
-        <v>208.0054709445994</v>
+        <v>118.95067573846</v>
       </c>
       <c r="W19" t="n">
         <v>286.522998336591</v>
@@ -23975,13 +23977,13 @@
         <v>354.683041620683</v>
       </c>
       <c r="E20" t="n">
-        <v>381.9303700722618</v>
+        <v>140.9160811946027</v>
       </c>
       <c r="F20" t="n">
         <v>406.8760457417114</v>
       </c>
       <c r="G20" t="n">
-        <v>415.302737515135</v>
+        <v>181.0138317948241</v>
       </c>
       <c r="H20" t="n">
         <v>339.4748021157671</v>
@@ -24011,16 +24013,16 @@
         <v>0</v>
       </c>
       <c r="Q20" t="n">
-        <v>9.990699214544804</v>
+        <v>0</v>
       </c>
       <c r="R20" t="n">
-        <v>128.6853625704253</v>
+        <v>149.8691179411497</v>
       </c>
       <c r="S20" t="n">
         <v>0</v>
       </c>
       <c r="T20" t="n">
-        <v>0</v>
+        <v>223.0958495641314</v>
       </c>
       <c r="U20" t="n">
         <v>10.33136403017744</v>
@@ -24032,7 +24034,7 @@
         <v>349.240968717413</v>
       </c>
       <c r="X20" t="n">
-        <v>128.71681180081</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y20" t="n">
         <v>386.2379386560536</v>
@@ -24048,7 +24050,7 @@
         <v>166.5331836498673</v>
       </c>
       <c r="C21" t="n">
-        <v>0</v>
+        <v>172.7084989883157</v>
       </c>
       <c r="D21" t="n">
         <v>147.4450655646388</v>
@@ -24057,19 +24059,19 @@
         <v>157.6450804554009</v>
       </c>
       <c r="F21" t="n">
-        <v>0</v>
+        <v>145.0692123933839</v>
       </c>
       <c r="G21" t="n">
-        <v>137.3435171632106</v>
+        <v>83.98179453152258</v>
       </c>
       <c r="H21" t="n">
-        <v>112.2354442364965</v>
+        <v>0</v>
       </c>
       <c r="I21" t="n">
-        <v>89.39663285141508</v>
+        <v>0</v>
       </c>
       <c r="J21" t="n">
-        <v>0.7465913262578567</v>
+        <v>0</v>
       </c>
       <c r="K21" t="n">
         <v>0</v>
@@ -24093,13 +24095,13 @@
         <v>0</v>
       </c>
       <c r="R21" t="n">
-        <v>0</v>
+        <v>100.1578341526431</v>
       </c>
       <c r="S21" t="n">
-        <v>87.25578020600828</v>
+        <v>171.6831711038378</v>
       </c>
       <c r="T21" t="n">
-        <v>0</v>
+        <v>200.1647286948216</v>
       </c>
       <c r="U21" t="n">
         <v>225.9413820809748</v>
@@ -24108,10 +24110,10 @@
         <v>0</v>
       </c>
       <c r="W21" t="n">
-        <v>251.6949831609196</v>
+        <v>10.68069428326055</v>
       </c>
       <c r="X21" t="n">
-        <v>205.7729852034775</v>
+        <v>0</v>
       </c>
       <c r="Y21" t="n">
         <v>205.6826957773044</v>
@@ -24172,7 +24174,7 @@
         <v>86.16204325169439</v>
       </c>
       <c r="R22" t="n">
-        <v>44.10642379180146</v>
+        <v>177.2933913771695</v>
       </c>
       <c r="S22" t="n">
         <v>224.0165980369723</v>
@@ -24193,7 +24195,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y22" t="n">
-        <v>218.5846533520948</v>
+        <v>85.39768576672677</v>
       </c>
     </row>
     <row r="23">
@@ -24212,10 +24214,10 @@
         <v>354.683041620683</v>
       </c>
       <c r="E23" t="n">
-        <v>140.9160811946027</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F23" t="n">
-        <v>165.8617568640524</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G23" t="n">
         <v>415.302737515135</v>
@@ -24251,22 +24253,22 @@
         <v>9.990699214544804</v>
       </c>
       <c r="R23" t="n">
-        <v>149.8691179411497</v>
+        <v>0</v>
       </c>
       <c r="S23" t="n">
-        <v>209.0200695862453</v>
+        <v>0</v>
       </c>
       <c r="T23" t="n">
         <v>223.0958495641314</v>
       </c>
       <c r="U23" t="n">
-        <v>251.3456529078365</v>
+        <v>10.33136403017744</v>
       </c>
       <c r="V23" t="n">
         <v>86.73796959247585</v>
       </c>
       <c r="W23" t="n">
-        <v>136.9555830739709</v>
+        <v>254.830481723707</v>
       </c>
       <c r="X23" t="n">
         <v>369.731100678469</v>
@@ -24282,7 +24284,7 @@
         </is>
       </c>
       <c r="B24" t="n">
-        <v>0</v>
+        <v>166.5331836498673</v>
       </c>
       <c r="C24" t="n">
         <v>172.7084989883157</v>
@@ -24291,22 +24293,22 @@
         <v>147.4450655646388</v>
       </c>
       <c r="E24" t="n">
-        <v>157.6450804554009</v>
+        <v>0</v>
       </c>
       <c r="F24" t="n">
         <v>145.0692123933839</v>
       </c>
       <c r="G24" t="n">
-        <v>0</v>
+        <v>76.54427652677356</v>
       </c>
       <c r="H24" t="n">
         <v>0</v>
       </c>
       <c r="I24" t="n">
-        <v>0</v>
+        <v>89.39663285141508</v>
       </c>
       <c r="J24" t="n">
-        <v>0</v>
+        <v>0.7465913262578567</v>
       </c>
       <c r="K24" t="n">
         <v>0</v>
@@ -24333,25 +24335,25 @@
         <v>100.1578341526431</v>
       </c>
       <c r="S24" t="n">
-        <v>171.6831711038378</v>
+        <v>0</v>
       </c>
       <c r="T24" t="n">
-        <v>200.1647286948216</v>
+        <v>0</v>
       </c>
       <c r="U24" t="n">
         <v>225.9413820809748</v>
       </c>
       <c r="V24" t="n">
-        <v>215.1833850810353</v>
+        <v>0</v>
       </c>
       <c r="W24" t="n">
         <v>251.6949831609196</v>
       </c>
       <c r="X24" t="n">
-        <v>0</v>
+        <v>205.7729852034775</v>
       </c>
       <c r="Y24" t="n">
-        <v>0</v>
+        <v>205.6826957773044</v>
       </c>
     </row>
     <row r="25">
@@ -24370,7 +24372,7 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E25" t="n">
-        <v>99.40903831289552</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F25" t="n">
         <v>145.4210480229312</v>
@@ -24406,7 +24408,7 @@
         <v>2.721440735106512</v>
       </c>
       <c r="Q25" t="n">
-        <v>0</v>
+        <v>86.16204325169439</v>
       </c>
       <c r="R25" t="n">
         <v>177.2933913771695</v>
@@ -24430,7 +24432,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y25" t="n">
-        <v>218.5846533520948</v>
+        <v>85.3976857667268</v>
       </c>
     </row>
     <row r="26">
@@ -24440,10 +24442,10 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>141.7195527858215</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C26" t="n">
-        <v>365.2728917710076</v>
+        <v>152.9875061275654</v>
       </c>
       <c r="D26" t="n">
         <v>113.6687527430239</v>
@@ -24455,7 +24457,7 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G26" t="n">
-        <v>203.0173518716929</v>
+        <v>415.302737515135</v>
       </c>
       <c r="H26" t="n">
         <v>98.46051323810809</v>
@@ -24506,7 +24508,7 @@
         <v>349.240968717413</v>
       </c>
       <c r="X26" t="n">
-        <v>369.731100678469</v>
+        <v>128.71681180081</v>
       </c>
       <c r="Y26" t="n">
         <v>386.2379386560536</v>
@@ -24522,7 +24524,7 @@
         <v>166.5331836498673</v>
       </c>
       <c r="C27" t="n">
-        <v>172.7084989883157</v>
+        <v>27.26179070270013</v>
       </c>
       <c r="D27" t="n">
         <v>0</v>
@@ -24537,13 +24539,13 @@
         <v>0</v>
       </c>
       <c r="H27" t="n">
-        <v>79.74808246910126</v>
+        <v>0</v>
       </c>
       <c r="I27" t="n">
         <v>0</v>
       </c>
       <c r="J27" t="n">
-        <v>0.7465913262578567</v>
+        <v>0</v>
       </c>
       <c r="K27" t="n">
         <v>0</v>
@@ -24576,7 +24578,7 @@
         <v>200.1647286948216</v>
       </c>
       <c r="U27" t="n">
-        <v>0</v>
+        <v>225.9413820809748</v>
       </c>
       <c r="V27" t="n">
         <v>232.8005871494253</v>
@@ -24649,7 +24651,7 @@
         <v>177.2933913771695</v>
       </c>
       <c r="S28" t="n">
-        <v>224.0165980369723</v>
+        <v>90.82963045160423</v>
       </c>
       <c r="T28" t="n">
         <v>227.9455894282815</v>
@@ -24664,7 +24666,7 @@
         <v>286.522998336591</v>
       </c>
       <c r="X28" t="n">
-        <v>92.52268780366913</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y28" t="n">
         <v>218.5846533520948</v>
@@ -24686,13 +24688,13 @@
         <v>354.683041620683</v>
       </c>
       <c r="E29" t="n">
-        <v>179.6356836433646</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F29" t="n">
-        <v>165.8617568640524</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G29" t="n">
-        <v>174.288448637476</v>
+        <v>182.9724219348918</v>
       </c>
       <c r="H29" t="n">
         <v>339.4748021157671</v>
@@ -24701,7 +24703,7 @@
         <v>210.4758895704059</v>
       </c>
       <c r="J29" t="n">
-        <v>11.94928935461252</v>
+        <v>0</v>
       </c>
       <c r="K29" t="n">
         <v>0</v>
@@ -24722,28 +24724,28 @@
         <v>0</v>
       </c>
       <c r="Q29" t="n">
-        <v>0</v>
+        <v>9.990699214544804</v>
       </c>
       <c r="R29" t="n">
         <v>149.8691179411497</v>
       </c>
       <c r="S29" t="n">
-        <v>209.0200695862453</v>
+        <v>0</v>
       </c>
       <c r="T29" t="n">
         <v>223.0958495641314</v>
       </c>
       <c r="U29" t="n">
-        <v>251.3456529078365</v>
+        <v>10.33136403017744</v>
       </c>
       <c r="V29" t="n">
-        <v>327.7522584701349</v>
+        <v>86.73796959247585</v>
       </c>
       <c r="W29" t="n">
         <v>349.240968717413</v>
       </c>
       <c r="X29" t="n">
-        <v>128.71681180081</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y29" t="n">
         <v>386.2379386560536</v>
@@ -24756,19 +24758,19 @@
         </is>
       </c>
       <c r="B30" t="n">
-        <v>0</v>
+        <v>166.5331836498673</v>
       </c>
       <c r="C30" t="n">
-        <v>0</v>
+        <v>172.7084989883157</v>
       </c>
       <c r="D30" t="n">
-        <v>147.4450655646388</v>
+        <v>0</v>
       </c>
       <c r="E30" t="n">
         <v>157.6450804554009</v>
       </c>
       <c r="F30" t="n">
-        <v>145.0692123933839</v>
+        <v>9.655995540044273</v>
       </c>
       <c r="G30" t="n">
         <v>137.3435171632106</v>
@@ -24804,28 +24806,28 @@
         <v>0</v>
       </c>
       <c r="R30" t="n">
-        <v>0</v>
+        <v>100.1578341526431</v>
       </c>
       <c r="S30" t="n">
-        <v>0</v>
+        <v>171.6831711038378</v>
       </c>
       <c r="T30" t="n">
-        <v>101.8605463940414</v>
+        <v>200.1647286948216</v>
       </c>
       <c r="U30" t="n">
-        <v>0</v>
+        <v>225.9413820809748</v>
       </c>
       <c r="V30" t="n">
         <v>232.8005871494253</v>
       </c>
       <c r="W30" t="n">
-        <v>251.6949831609196</v>
+        <v>10.68069428326055</v>
       </c>
       <c r="X30" t="n">
-        <v>205.7729852034775</v>
+        <v>0</v>
       </c>
       <c r="Y30" t="n">
-        <v>205.6826957773044</v>
+        <v>0</v>
       </c>
     </row>
     <row r="31">
@@ -24835,7 +24837,7 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>46.64501259656927</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C31" t="n">
         <v>167.2468210986278</v>
@@ -24847,7 +24849,7 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F31" t="n">
-        <v>145.4210480229312</v>
+        <v>12.23408043756325</v>
       </c>
       <c r="G31" t="n">
         <v>167.9909793584588</v>
@@ -24914,22 +24916,22 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>330.3082731757331</v>
+        <v>141.7195527858215</v>
       </c>
       <c r="C32" t="n">
-        <v>124.2586028933485</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D32" t="n">
-        <v>113.6687527430239</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E32" t="n">
-        <v>140.9160811946027</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F32" t="n">
         <v>406.8760457417114</v>
       </c>
       <c r="G32" t="n">
-        <v>415.302737515135</v>
+        <v>174.288448637476</v>
       </c>
       <c r="H32" t="n">
         <v>339.4748021157671</v>
@@ -24962,10 +24964,10 @@
         <v>0</v>
       </c>
       <c r="R32" t="n">
-        <v>0</v>
+        <v>149.8691179411497</v>
       </c>
       <c r="S32" t="n">
-        <v>209.0200695862453</v>
+        <v>6.725383157348119</v>
       </c>
       <c r="T32" t="n">
         <v>223.0958495641314</v>
@@ -24983,7 +24985,7 @@
         <v>369.731100678469</v>
       </c>
       <c r="Y32" t="n">
-        <v>386.2379386560536</v>
+        <v>145.2236497783945</v>
       </c>
     </row>
     <row r="33">
@@ -24996,25 +24998,25 @@
         <v>166.5331836498673</v>
       </c>
       <c r="C33" t="n">
-        <v>0</v>
+        <v>172.7084989883157</v>
       </c>
       <c r="D33" t="n">
-        <v>26.5151993764422</v>
+        <v>147.4450655646388</v>
       </c>
       <c r="E33" t="n">
-        <v>0</v>
+        <v>157.6450804554009</v>
       </c>
       <c r="F33" t="n">
-        <v>0</v>
+        <v>145.0692123933839</v>
       </c>
       <c r="G33" t="n">
-        <v>0</v>
+        <v>137.3435171632106</v>
       </c>
       <c r="H33" t="n">
-        <v>0</v>
+        <v>112.2354442364965</v>
       </c>
       <c r="I33" t="n">
-        <v>0</v>
+        <v>89.39663285141508</v>
       </c>
       <c r="J33" t="n">
         <v>0.7465913262578567</v>
@@ -25041,22 +25043,22 @@
         <v>0</v>
       </c>
       <c r="R33" t="n">
-        <v>100.1578341526431</v>
+        <v>0</v>
       </c>
       <c r="S33" t="n">
-        <v>171.6831711038378</v>
+        <v>0</v>
       </c>
       <c r="T33" t="n">
         <v>200.1647286948216</v>
       </c>
       <c r="U33" t="n">
-        <v>225.9413820809748</v>
+        <v>0</v>
       </c>
       <c r="V33" t="n">
-        <v>232.8005871494253</v>
+        <v>0</v>
       </c>
       <c r="W33" t="n">
-        <v>251.6949831609196</v>
+        <v>46.94970537138147</v>
       </c>
       <c r="X33" t="n">
         <v>205.7729852034775</v>
@@ -25120,13 +25122,13 @@
         <v>86.16204325169439</v>
       </c>
       <c r="R34" t="n">
-        <v>44.10642379180149</v>
+        <v>177.2933913771695</v>
       </c>
       <c r="S34" t="n">
         <v>224.0165980369723</v>
       </c>
       <c r="T34" t="n">
-        <v>227.9455894282815</v>
+        <v>94.75862184291347</v>
       </c>
       <c r="U34" t="n">
         <v>286.3190293564909</v>
@@ -25157,7 +25159,7 @@
         <v>124.2586028933485</v>
       </c>
       <c r="D35" t="n">
-        <v>354.683041620683</v>
+        <v>142.3976559772408</v>
       </c>
       <c r="E35" t="n">
         <v>140.9160811946027</v>
@@ -25175,7 +25177,7 @@
         <v>210.4758895704059</v>
       </c>
       <c r="J35" t="n">
-        <v>0</v>
+        <v>11.94928935461252</v>
       </c>
       <c r="K35" t="n">
         <v>0</v>
@@ -25196,13 +25198,13 @@
         <v>0</v>
       </c>
       <c r="Q35" t="n">
-        <v>0</v>
+        <v>9.990699214544804</v>
       </c>
       <c r="R35" t="n">
-        <v>0</v>
+        <v>149.8691179411497</v>
       </c>
       <c r="S35" t="n">
-        <v>168.5437904531102</v>
+        <v>209.0200695862453</v>
       </c>
       <c r="T35" t="n">
         <v>223.0958495641314</v>
@@ -25230,10 +25232,10 @@
         </is>
       </c>
       <c r="B36" t="n">
-        <v>0</v>
+        <v>166.5331836498673</v>
       </c>
       <c r="C36" t="n">
-        <v>0</v>
+        <v>124.4414632165758</v>
       </c>
       <c r="D36" t="n">
         <v>147.4450655646388</v>
@@ -25242,10 +25244,10 @@
         <v>157.6450804554009</v>
       </c>
       <c r="F36" t="n">
-        <v>145.0692123933839</v>
+        <v>0</v>
       </c>
       <c r="G36" t="n">
-        <v>137.3435171632106</v>
+        <v>0</v>
       </c>
       <c r="H36" t="n">
         <v>112.2354442364965</v>
@@ -25254,7 +25256,7 @@
         <v>89.39663285141508</v>
       </c>
       <c r="J36" t="n">
-        <v>0</v>
+        <v>0.7465913262578567</v>
       </c>
       <c r="K36" t="n">
         <v>0</v>
@@ -25278,28 +25280,28 @@
         <v>0</v>
       </c>
       <c r="R36" t="n">
-        <v>0</v>
+        <v>100.1578341526431</v>
       </c>
       <c r="S36" t="n">
-        <v>123.1980115994662</v>
+        <v>0</v>
       </c>
       <c r="T36" t="n">
-        <v>200.1647286948216</v>
+        <v>0</v>
       </c>
       <c r="U36" t="n">
         <v>225.9413820809748</v>
       </c>
       <c r="V36" t="n">
-        <v>232.8005871494253</v>
+        <v>0</v>
       </c>
       <c r="W36" t="n">
-        <v>10.68069428326055</v>
+        <v>251.6949831609196</v>
       </c>
       <c r="X36" t="n">
         <v>205.7729852034775</v>
       </c>
       <c r="Y36" t="n">
-        <v>0</v>
+        <v>205.6826957773044</v>
       </c>
     </row>
     <row r="37">
@@ -25363,13 +25365,13 @@
         <v>224.0165980369723</v>
       </c>
       <c r="T37" t="n">
-        <v>94.7586218429135</v>
+        <v>227.9455894282815</v>
       </c>
       <c r="U37" t="n">
         <v>286.3190293564909</v>
       </c>
       <c r="V37" t="n">
-        <v>252.137643323828</v>
+        <v>118.95067573846</v>
       </c>
       <c r="W37" t="n">
         <v>286.522998336591</v>
@@ -25388,31 +25390,31 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>382.7338416634806</v>
+        <v>141.7195527858215</v>
       </c>
       <c r="C38" t="n">
         <v>365.2728917710076</v>
       </c>
       <c r="D38" t="n">
-        <v>354.683041620683</v>
+        <v>113.6687527430239</v>
       </c>
       <c r="E38" t="n">
         <v>381.9303700722618</v>
       </c>
       <c r="F38" t="n">
-        <v>406.8760457417114</v>
+        <v>165.8617568640524</v>
       </c>
       <c r="G38" t="n">
-        <v>174.288448637476</v>
+        <v>213.0080510862378</v>
       </c>
       <c r="H38" t="n">
-        <v>98.46051323810809</v>
+        <v>339.4748021157671</v>
       </c>
       <c r="I38" t="n">
-        <v>10.13979328157632</v>
+        <v>210.4758895704059</v>
       </c>
       <c r="J38" t="n">
-        <v>0</v>
+        <v>11.94928935461252</v>
       </c>
       <c r="K38" t="n">
         <v>0</v>
@@ -25433,7 +25435,7 @@
         <v>0</v>
       </c>
       <c r="Q38" t="n">
-        <v>9.990699214544804</v>
+        <v>0</v>
       </c>
       <c r="R38" t="n">
         <v>149.8691179411497</v>
@@ -25454,7 +25456,7 @@
         <v>349.240968717413</v>
       </c>
       <c r="X38" t="n">
-        <v>128.71681180081</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y38" t="n">
         <v>386.2379386560536</v>
@@ -25467,19 +25469,19 @@
         </is>
       </c>
       <c r="B39" t="n">
-        <v>166.5331836498673</v>
+        <v>0</v>
       </c>
       <c r="C39" t="n">
         <v>172.7084989883157</v>
       </c>
       <c r="D39" t="n">
-        <v>76.79649641691874</v>
+        <v>147.4450655646388</v>
       </c>
       <c r="E39" t="n">
-        <v>157.6450804554009</v>
+        <v>0</v>
       </c>
       <c r="F39" t="n">
-        <v>145.0692123933839</v>
+        <v>0</v>
       </c>
       <c r="G39" t="n">
         <v>137.3435171632106</v>
@@ -25521,13 +25523,13 @@
         <v>171.6831711038378</v>
       </c>
       <c r="T39" t="n">
-        <v>0</v>
+        <v>145.5396338978364</v>
       </c>
       <c r="U39" t="n">
-        <v>0</v>
+        <v>225.9413820809748</v>
       </c>
       <c r="V39" t="n">
-        <v>0</v>
+        <v>232.8005871494253</v>
       </c>
       <c r="W39" t="n">
         <v>251.6949831609196</v>
@@ -25536,7 +25538,7 @@
         <v>0</v>
       </c>
       <c r="Y39" t="n">
-        <v>205.6826957773044</v>
+        <v>0</v>
       </c>
     </row>
     <row r="40">
@@ -25555,7 +25557,7 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E40" t="n">
-        <v>146.4339626465692</v>
+        <v>13.24699506120118</v>
       </c>
       <c r="F40" t="n">
         <v>145.4210480229312</v>
@@ -25597,7 +25599,7 @@
         <v>177.2933913771695</v>
       </c>
       <c r="S40" t="n">
-        <v>90.82963045160426</v>
+        <v>224.0165980369723</v>
       </c>
       <c r="T40" t="n">
         <v>227.9455894282815</v>
@@ -25625,7 +25627,7 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>146.2678482032095</v>
+        <v>180.4391552345834</v>
       </c>
       <c r="C41" t="n">
         <v>365.2728917710076</v>
@@ -25637,7 +25639,7 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F41" t="n">
-        <v>170.4100522814404</v>
+        <v>165.8617568640524</v>
       </c>
       <c r="G41" t="n">
         <v>415.302737515135</v>
@@ -25691,10 +25693,10 @@
         <v>349.240968717413</v>
       </c>
       <c r="X41" t="n">
-        <v>171.4425528532072</v>
+        <v>128.71681180081</v>
       </c>
       <c r="Y41" t="n">
-        <v>149.7719451957825</v>
+        <v>145.2236497783945</v>
       </c>
     </row>
     <row r="42">
@@ -25707,13 +25709,13 @@
         <v>0</v>
       </c>
       <c r="C42" t="n">
-        <v>168.8032904751784</v>
+        <v>134.5290303570615</v>
       </c>
       <c r="D42" t="n">
-        <v>0</v>
+        <v>147.4450655646388</v>
       </c>
       <c r="E42" t="n">
-        <v>0</v>
+        <v>157.6450804554009</v>
       </c>
       <c r="F42" t="n">
         <v>145.0692123933839</v>
@@ -25722,7 +25724,7 @@
         <v>137.3435171632106</v>
       </c>
       <c r="H42" t="n">
-        <v>112.2354442364965</v>
+        <v>0</v>
       </c>
       <c r="I42" t="n">
         <v>89.39663285141508</v>
@@ -25755,7 +25757,7 @@
         <v>100.1578341526431</v>
       </c>
       <c r="S42" t="n">
-        <v>171.6831711038378</v>
+        <v>0</v>
       </c>
       <c r="T42" t="n">
         <v>200.1647286948216</v>
@@ -25767,7 +25769,7 @@
         <v>232.8005871494253</v>
       </c>
       <c r="W42" t="n">
-        <v>15.22898970064855</v>
+        <v>10.68069428326055</v>
       </c>
       <c r="X42" t="n">
         <v>205.7729852034775</v>
@@ -25801,7 +25803,7 @@
         <v>167.9909793584588</v>
       </c>
       <c r="H43" t="n">
-        <v>29.04020492207158</v>
+        <v>162.2271725074396</v>
       </c>
       <c r="I43" t="n">
         <v>155.4504749272583</v>
@@ -25840,7 +25842,7 @@
         <v>227.9455894282815</v>
       </c>
       <c r="U43" t="n">
-        <v>286.3190293564909</v>
+        <v>153.1320617711229</v>
       </c>
       <c r="V43" t="n">
         <v>252.137643323828</v>
@@ -25862,7 +25864,7 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>382.7338416634806</v>
+        <v>180.4391552345834</v>
       </c>
       <c r="C44" t="n">
         <v>365.2728917710076</v>
@@ -25874,10 +25876,10 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F44" t="n">
-        <v>367.2921687798708</v>
+        <v>165.8617568640524</v>
       </c>
       <c r="G44" t="n">
-        <v>390.4279579016907</v>
+        <v>174.288448637476</v>
       </c>
       <c r="H44" t="n">
         <v>339.4748021157671</v>
@@ -25913,13 +25915,13 @@
         <v>149.8691179411497</v>
       </c>
       <c r="S44" t="n">
-        <v>169.4361926244048</v>
+        <v>209.0200695862453</v>
       </c>
       <c r="T44" t="n">
         <v>223.0958495641314</v>
       </c>
       <c r="U44" t="n">
-        <v>211.7617759459959</v>
+        <v>251.3456529078365</v>
       </c>
       <c r="V44" t="n">
         <v>327.7522584701349</v>
@@ -25931,7 +25933,7 @@
         <v>369.731100678469</v>
       </c>
       <c r="Y44" t="n">
-        <v>386.2379386560536</v>
+        <v>145.2236497783945</v>
       </c>
     </row>
     <row r="45">
@@ -25944,7 +25946,7 @@
         <v>166.5331836498673</v>
       </c>
       <c r="C45" t="n">
-        <v>172.7084989883157</v>
+        <v>56.67172249177727</v>
       </c>
       <c r="D45" t="n">
         <v>147.4450655646388</v>
@@ -25965,7 +25967,7 @@
         <v>89.39663285141508</v>
       </c>
       <c r="J45" t="n">
-        <v>0.7465913262578567</v>
+        <v>0</v>
       </c>
       <c r="K45" t="n">
         <v>0</v>
@@ -25992,25 +25994,25 @@
         <v>100.1578341526431</v>
       </c>
       <c r="S45" t="n">
-        <v>171.6831711038378</v>
+        <v>0</v>
       </c>
       <c r="T45" t="n">
-        <v>200.1647286948216</v>
+        <v>0</v>
       </c>
       <c r="U45" t="n">
-        <v>186.3575051191342</v>
+        <v>225.9413820809748</v>
       </c>
       <c r="V45" t="n">
-        <v>193.2167101875847</v>
+        <v>232.8005871494253</v>
       </c>
       <c r="W45" t="n">
-        <v>212.111106199079</v>
+        <v>10.68069428326055</v>
       </c>
       <c r="X45" t="n">
-        <v>170.9075063754883</v>
+        <v>205.7729852034775</v>
       </c>
       <c r="Y45" t="n">
-        <v>205.6826957773044</v>
+        <v>0</v>
       </c>
     </row>
     <row r="46">
@@ -26029,10 +26031,10 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E46" t="n">
-        <v>106.8500856847286</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F46" t="n">
-        <v>105.8371710610907</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G46" t="n">
         <v>167.9909793584588</v>
@@ -26062,16 +26064,16 @@
         <v>0</v>
       </c>
       <c r="P46" t="n">
-        <v>0</v>
+        <v>2.721440735106512</v>
       </c>
       <c r="Q46" t="n">
-        <v>86.16204325169439</v>
+        <v>0</v>
       </c>
       <c r="R46" t="n">
         <v>177.2933913771695</v>
       </c>
       <c r="S46" t="n">
-        <v>216.7604864108145</v>
+        <v>224.0165980369723</v>
       </c>
       <c r="T46" t="n">
         <v>227.9455894282815</v>
@@ -26083,7 +26085,7 @@
         <v>252.137643323828</v>
       </c>
       <c r="W46" t="n">
-        <v>246.9391213747504</v>
+        <v>239.4980740029173</v>
       </c>
       <c r="X46" t="n">
         <v>225.7096553890372</v>
@@ -26123,7 +26125,7 @@
         <v>0</v>
       </c>
       <c r="B2" t="n">
-        <v>355268.3982687964</v>
+        <v>358659.0160535968</v>
       </c>
     </row>
     <row r="3">
@@ -26131,7 +26133,7 @@
         <v>1</v>
       </c>
       <c r="B3" t="n">
-        <v>355268.3982687963</v>
+        <v>358659.0160535968</v>
       </c>
     </row>
     <row r="4">
@@ -26139,7 +26141,7 @@
         <v>2</v>
       </c>
       <c r="B4" t="n">
-        <v>355268.3982687964</v>
+        <v>358659.0160535966</v>
       </c>
     </row>
     <row r="5">
@@ -26147,7 +26149,7 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>355268.3982687964</v>
+        <v>358659.0160535968</v>
       </c>
     </row>
     <row r="6">
@@ -26155,7 +26157,7 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>355268.3982687963</v>
+        <v>358659.0160535968</v>
       </c>
     </row>
     <row r="7">
@@ -26163,7 +26165,7 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>358659.0160535966</v>
+        <v>498482.0175939975</v>
       </c>
     </row>
     <row r="8">
@@ -26171,7 +26173,7 @@
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>498482.0175939975</v>
+        <v>498482.0175939973</v>
       </c>
     </row>
     <row r="9">
@@ -26179,7 +26181,7 @@
         <v>7</v>
       </c>
       <c r="B9" t="n">
-        <v>498482.0175939975</v>
+        <v>498482.0175939973</v>
       </c>
     </row>
     <row r="10">
@@ -26187,7 +26189,7 @@
         <v>8</v>
       </c>
       <c r="B10" t="n">
-        <v>498482.0175939976</v>
+        <v>498482.0175939975</v>
       </c>
     </row>
     <row r="11">
@@ -26203,7 +26205,7 @@
         <v>10</v>
       </c>
       <c r="B12" t="n">
-        <v>498482.0175939976</v>
+        <v>498482.0175939975</v>
       </c>
     </row>
     <row r="13">
@@ -26219,7 +26221,7 @@
         <v>12</v>
       </c>
       <c r="B14" t="n">
-        <v>498482.0175939975</v>
+        <v>498482.0175939976</v>
       </c>
     </row>
     <row r="15">
@@ -26227,7 +26229,7 @@
         <v>13</v>
       </c>
       <c r="B15" t="n">
-        <v>495251.8800453863</v>
+        <v>498482.0175939976</v>
       </c>
     </row>
     <row r="16">
@@ -26235,7 +26237,7 @@
         <v>14</v>
       </c>
       <c r="B16" t="n">
-        <v>355268.3982687963</v>
+        <v>498482.0175939976</v>
       </c>
     </row>
   </sheetData>
@@ -26311,25 +26313,25 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>59211.39971146601</v>
+        <v>59776.50267559937</v>
       </c>
       <c r="C2" t="n">
-        <v>59211.39971146602</v>
+        <v>59776.50267559939</v>
       </c>
       <c r="D2" t="n">
-        <v>59211.39971146601</v>
+        <v>59776.50267559939</v>
       </c>
       <c r="E2" t="n">
-        <v>59211.399711466</v>
+        <v>59776.50267559938</v>
       </c>
       <c r="F2" t="n">
-        <v>59211.39971146601</v>
+        <v>59776.50267559938</v>
       </c>
       <c r="G2" t="n">
-        <v>59776.50267559938</v>
+        <v>83080.33626566621</v>
       </c>
       <c r="H2" t="n">
-        <v>83080.33626566618</v>
+        <v>83080.33626566621</v>
       </c>
       <c r="I2" t="n">
         <v>83080.33626566616</v>
@@ -26338,22 +26340,22 @@
         <v>83080.33626566618</v>
       </c>
       <c r="K2" t="n">
+        <v>83080.33626566618</v>
+      </c>
+      <c r="L2" t="n">
         <v>83080.33626566621</v>
       </c>
-      <c r="L2" t="n">
-        <v>83080.33626566616</v>
-      </c>
       <c r="M2" t="n">
-        <v>83080.33626566618</v>
+        <v>83080.33626566624</v>
       </c>
       <c r="N2" t="n">
         <v>83080.33626566618</v>
       </c>
       <c r="O2" t="n">
-        <v>82541.98000756431</v>
+        <v>83080.33626566621</v>
       </c>
       <c r="P2" t="n">
-        <v>59211.39971146603</v>
+        <v>83080.33626566621</v>
       </c>
     </row>
     <row r="3">
@@ -26363,7 +26365,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>13265.46759908291</v>
+        <v>14789.70600424422</v>
       </c>
       <c r="C3" t="n">
         <v>0</v>
@@ -26378,16 +26380,16 @@
         <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>1246.619549474791</v>
+        <v>53962.43490047232</v>
       </c>
       <c r="H3" t="n">
-        <v>53120.56697032503</v>
+        <v>0</v>
       </c>
       <c r="I3" t="n">
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>10356.88390380382</v>
+        <v>11546.91810999089</v>
       </c>
       <c r="K3" t="n">
         <v>0</v>
@@ -26402,7 +26404,7 @@
         <v>0</v>
       </c>
       <c r="O3" t="n">
-        <v>0</v>
+        <v>47379.87821746379</v>
       </c>
       <c r="P3" t="n">
         <v>0</v>
@@ -26415,22 +26417,22 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>33.41106180436364</v>
+        <v>36.87052286425573</v>
       </c>
       <c r="C4" t="n">
-        <v>33.41106180436364</v>
+        <v>36.87052286425572</v>
       </c>
       <c r="D4" t="n">
-        <v>33.41106180436363</v>
+        <v>36.87052286425573</v>
       </c>
       <c r="E4" t="n">
-        <v>33.41106180436364</v>
+        <v>36.87052286425573</v>
       </c>
       <c r="F4" t="n">
-        <v>33.41106180436364</v>
+        <v>36.87052286425573</v>
       </c>
       <c r="G4" t="n">
-        <v>36.87052286425573</v>
+        <v>179.5324977039669</v>
       </c>
       <c r="H4" t="n">
         <v>179.5324977039669</v>
@@ -26454,10 +26456,10 @@
         <v>179.5324977039669</v>
       </c>
       <c r="O4" t="n">
-        <v>176.2367752791008</v>
+        <v>179.5324977039669</v>
       </c>
       <c r="P4" t="n">
-        <v>33.41106180436364</v>
+        <v>179.5324977039669</v>
       </c>
     </row>
     <row r="5">
@@ -26467,22 +26469,22 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>36034.29971927991</v>
+        <v>36310.8360806571</v>
       </c>
       <c r="C5" t="n">
-        <v>36034.29971927991</v>
+        <v>36310.8360806571</v>
       </c>
       <c r="D5" t="n">
-        <v>36034.29971927991</v>
+        <v>36310.8360806571</v>
       </c>
       <c r="E5" t="n">
-        <v>2406.699719279908</v>
+        <v>2683.236080657098</v>
       </c>
       <c r="F5" t="n">
-        <v>2406.699719279908</v>
+        <v>2683.236080657098</v>
       </c>
       <c r="G5" t="n">
-        <v>2683.236080657098</v>
+        <v>14653.66876376167</v>
       </c>
       <c r="H5" t="n">
         <v>14653.66876376167</v>
@@ -26506,10 +26508,10 @@
         <v>14653.66876376167</v>
       </c>
       <c r="O5" t="n">
-        <v>14377.13240238448</v>
+        <v>14653.66876376167</v>
       </c>
       <c r="P5" t="n">
-        <v>2406.699719279908</v>
+        <v>14653.66876376167</v>
       </c>
     </row>
     <row r="6">
@@ -26519,49 +26521,49 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>9878.221331298824</v>
+        <v>8639.090067833793</v>
       </c>
       <c r="C6" t="n">
-        <v>23143.68893038174</v>
+        <v>23428.79607207803</v>
       </c>
       <c r="D6" t="n">
-        <v>23143.68893038174</v>
+        <v>23428.79607207803</v>
       </c>
       <c r="E6" t="n">
-        <v>56771.28893038173</v>
+        <v>57056.39607207802</v>
       </c>
       <c r="F6" t="n">
-        <v>56771.28893038174</v>
+        <v>57056.39607207802</v>
       </c>
       <c r="G6" t="n">
-        <v>55809.77652260324</v>
+        <v>14284.70010372825</v>
       </c>
       <c r="H6" t="n">
-        <v>15126.56803387551</v>
+        <v>68247.13500420057</v>
       </c>
       <c r="I6" t="n">
         <v>68247.13500420052</v>
       </c>
       <c r="J6" t="n">
-        <v>57890.25110039672</v>
+        <v>56700.21689420965</v>
       </c>
       <c r="K6" t="n">
+        <v>68247.13500420054</v>
+      </c>
+      <c r="L6" t="n">
         <v>68247.13500420057</v>
       </c>
-      <c r="L6" t="n">
-        <v>68247.13500420052</v>
-      </c>
       <c r="M6" t="n">
-        <v>68247.13500420054</v>
+        <v>68247.13500420059</v>
       </c>
       <c r="N6" t="n">
         <v>68247.13500420054</v>
       </c>
       <c r="O6" t="n">
-        <v>67988.61082990073</v>
+        <v>20867.25678673678</v>
       </c>
       <c r="P6" t="n">
-        <v>56771.28893038176</v>
+        <v>68247.13500420057</v>
       </c>
     </row>
   </sheetData>
@@ -26787,22 +26789,22 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>39.58387696184059</v>
+        <v>44.13217237922859</v>
       </c>
       <c r="C4" t="n">
-        <v>39.58387696184059</v>
+        <v>44.13217237922859</v>
       </c>
       <c r="D4" t="n">
-        <v>39.58387696184059</v>
+        <v>44.13217237922859</v>
       </c>
       <c r="E4" t="n">
-        <v>39.58387696184059</v>
+        <v>44.13217237922859</v>
       </c>
       <c r="F4" t="n">
-        <v>39.58387696184059</v>
+        <v>44.13217237922859</v>
       </c>
       <c r="G4" t="n">
-        <v>44.13217237922859</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="H4" t="n">
         <v>241.0142888776591</v>
@@ -26826,10 +26828,10 @@
         <v>241.0142888776591</v>
       </c>
       <c r="O4" t="n">
-        <v>236.4659934602711</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="P4" t="n">
-        <v>39.58387696184059</v>
+        <v>241.0142888776591</v>
       </c>
     </row>
   </sheetData>
@@ -27009,7 +27011,7 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>39.58387696184059</v>
+        <v>44.13217237922859</v>
       </c>
       <c r="C4" t="n">
         <v>0</v>
@@ -27024,31 +27026,31 @@
         <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>4.548295417388005</v>
+        <v>196.8821164984305</v>
       </c>
       <c r="H4" t="n">
+        <v>0</v>
+      </c>
+      <c r="I4" t="n">
+        <v>0</v>
+      </c>
+      <c r="J4" t="n">
+        <v>44.13217237922859</v>
+      </c>
+      <c r="K4" t="n">
+        <v>0</v>
+      </c>
+      <c r="L4" t="n">
+        <v>0</v>
+      </c>
+      <c r="M4" t="n">
+        <v>0</v>
+      </c>
+      <c r="N4" t="n">
+        <v>0</v>
+      </c>
+      <c r="O4" t="n">
         <v>196.8821164984305</v>
-      </c>
-      <c r="I4" t="n">
-        <v>0</v>
-      </c>
-      <c r="J4" t="n">
-        <v>39.58387696184059</v>
-      </c>
-      <c r="K4" t="n">
-        <v>0</v>
-      </c>
-      <c r="L4" t="n">
-        <v>0</v>
-      </c>
-      <c r="M4" t="n">
-        <v>0</v>
-      </c>
-      <c r="N4" t="n">
-        <v>0</v>
-      </c>
-      <c r="O4" t="n">
-        <v>0</v>
       </c>
       <c r="P4" t="n">
         <v>0</v>
@@ -27255,7 +27257,7 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>39.58387696184059</v>
+        <v>44.13217237922859</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27270,10 +27272,10 @@
         <v>0</v>
       </c>
       <c r="O4" t="n">
-        <v>4.548295417388005</v>
+        <v>196.8821164984305</v>
       </c>
       <c r="P4" t="n">
-        <v>196.8821164984305</v>
+        <v>0</v>
       </c>
     </row>
   </sheetData>
@@ -34699,22 +34701,22 @@
         <v>0</v>
       </c>
       <c r="K2" t="n">
-        <v>0</v>
+        <v>44.13217237922859</v>
       </c>
       <c r="L2" t="n">
-        <v>0</v>
+        <v>44.13217237922859</v>
       </c>
       <c r="M2" t="n">
-        <v>37.98452839772582</v>
+        <v>0</v>
       </c>
       <c r="N2" t="n">
-        <v>39.58387696184059</v>
+        <v>42.34905430330019</v>
       </c>
       <c r="O2" t="n">
-        <v>39.58387696184059</v>
+        <v>44.13217237922859</v>
       </c>
       <c r="P2" t="n">
-        <v>39.58387696184059</v>
+        <v>0</v>
       </c>
       <c r="Q2" t="n">
         <v>0</v>
@@ -34781,22 +34783,22 @@
         <v>0</v>
       </c>
       <c r="L3" t="n">
-        <v>39.58387696184059</v>
+        <v>0</v>
       </c>
       <c r="M3" t="n">
-        <v>39.58387696184059</v>
+        <v>42.34905430330018</v>
       </c>
       <c r="N3" t="n">
-        <v>0</v>
+        <v>44.13217237922859</v>
       </c>
       <c r="O3" t="n">
-        <v>0</v>
+        <v>44.13217237922859</v>
       </c>
       <c r="P3" t="n">
-        <v>37.98452839772582</v>
+        <v>0</v>
       </c>
       <c r="Q3" t="n">
-        <v>39.58387696184059</v>
+        <v>44.13217237922859</v>
       </c>
       <c r="R3" t="n">
         <v>0</v>
@@ -34866,7 +34868,7 @@
         <v>39.58387696184059</v>
       </c>
       <c r="N4" t="n">
-        <v>39.58387696184059</v>
+        <v>44.13217237922859</v>
       </c>
       <c r="O4" t="n">
         <v>24.58512791403967</v>
@@ -34936,22 +34938,22 @@
         <v>0</v>
       </c>
       <c r="K5" t="n">
-        <v>39.58387696184059</v>
+        <v>42.34905430330018</v>
       </c>
       <c r="L5" t="n">
-        <v>37.98452839772582</v>
+        <v>44.13217237922859</v>
       </c>
       <c r="M5" t="n">
-        <v>0</v>
+        <v>44.13217237922859</v>
       </c>
       <c r="N5" t="n">
-        <v>0</v>
+        <v>44.13217237922859</v>
       </c>
       <c r="O5" t="n">
-        <v>39.58387696184059</v>
+        <v>0</v>
       </c>
       <c r="P5" t="n">
-        <v>39.58387696184059</v>
+        <v>0</v>
       </c>
       <c r="Q5" t="n">
         <v>0</v>
@@ -35015,13 +35017,13 @@
         <v>0</v>
       </c>
       <c r="K6" t="n">
-        <v>39.58387696184059</v>
+        <v>44.13217237922859</v>
       </c>
       <c r="L6" t="n">
-        <v>39.58387696184059</v>
+        <v>44.13217237922859</v>
       </c>
       <c r="M6" t="n">
-        <v>37.98452839772582</v>
+        <v>42.34905430330019</v>
       </c>
       <c r="N6" t="n">
         <v>0</v>
@@ -35033,7 +35035,7 @@
         <v>0</v>
       </c>
       <c r="Q6" t="n">
-        <v>39.58387696184059</v>
+        <v>44.13217237922859</v>
       </c>
       <c r="R6" t="n">
         <v>0</v>
@@ -35103,7 +35105,7 @@
         <v>39.58387696184059</v>
       </c>
       <c r="N7" t="n">
-        <v>39.58387696184059</v>
+        <v>44.13217237922859</v>
       </c>
       <c r="O7" t="n">
         <v>24.58512791403967</v>
@@ -35173,22 +35175,22 @@
         <v>0</v>
       </c>
       <c r="K8" t="n">
-        <v>39.58387696184059</v>
+        <v>0</v>
       </c>
       <c r="L8" t="n">
-        <v>0</v>
+        <v>44.13217237922859</v>
       </c>
       <c r="M8" t="n">
-        <v>0</v>
+        <v>42.34905430330018</v>
       </c>
       <c r="N8" t="n">
-        <v>37.98452839772582</v>
+        <v>44.13217237922859</v>
       </c>
       <c r="O8" t="n">
-        <v>39.58387696184059</v>
+        <v>44.13217237922859</v>
       </c>
       <c r="P8" t="n">
-        <v>39.58387696184059</v>
+        <v>0</v>
       </c>
       <c r="Q8" t="n">
         <v>0</v>
@@ -35258,19 +35260,19 @@
         <v>0</v>
       </c>
       <c r="M9" t="n">
-        <v>0</v>
+        <v>44.13217237922859</v>
       </c>
       <c r="N9" t="n">
-        <v>37.98452839772582</v>
+        <v>0</v>
       </c>
       <c r="O9" t="n">
-        <v>39.58387696184059</v>
+        <v>44.13217237922859</v>
       </c>
       <c r="P9" t="n">
-        <v>39.58387696184059</v>
+        <v>44.13217237922859</v>
       </c>
       <c r="Q9" t="n">
-        <v>39.58387696184059</v>
+        <v>42.34905430330016</v>
       </c>
       <c r="R9" t="n">
         <v>0</v>
@@ -35340,7 +35342,7 @@
         <v>39.58387696184059</v>
       </c>
       <c r="N10" t="n">
-        <v>39.58387696184059</v>
+        <v>44.13217237922859</v>
       </c>
       <c r="O10" t="n">
         <v>24.58512791403967</v>
@@ -35410,19 +35412,19 @@
         <v>0</v>
       </c>
       <c r="K11" t="n">
-        <v>39.58387696184059</v>
+        <v>44.13217237922859</v>
       </c>
       <c r="L11" t="n">
-        <v>37.98452839772582</v>
+        <v>44.13217237922859</v>
       </c>
       <c r="M11" t="n">
-        <v>39.58387696184059</v>
+        <v>0</v>
       </c>
       <c r="N11" t="n">
-        <v>0</v>
+        <v>44.13217237922859</v>
       </c>
       <c r="O11" t="n">
-        <v>39.58387696184059</v>
+        <v>42.34905430330016</v>
       </c>
       <c r="P11" t="n">
         <v>0</v>
@@ -35489,25 +35491,25 @@
         <v>0</v>
       </c>
       <c r="K12" t="n">
-        <v>39.58387696184059</v>
+        <v>42.34905430330018</v>
       </c>
       <c r="L12" t="n">
-        <v>39.58387696184059</v>
+        <v>0</v>
       </c>
       <c r="M12" t="n">
-        <v>39.58387696184059</v>
+        <v>0</v>
       </c>
       <c r="N12" t="n">
-        <v>0</v>
+        <v>44.13217237922859</v>
       </c>
       <c r="O12" t="n">
-        <v>0</v>
+        <v>44.13217237922859</v>
       </c>
       <c r="P12" t="n">
-        <v>0</v>
+        <v>44.13217237922859</v>
       </c>
       <c r="Q12" t="n">
-        <v>37.98452839772582</v>
+        <v>0</v>
       </c>
       <c r="R12" t="n">
         <v>0</v>
@@ -35577,7 +35579,7 @@
         <v>39.58387696184059</v>
       </c>
       <c r="N13" t="n">
-        <v>39.58387696184059</v>
+        <v>44.13217237922859</v>
       </c>
       <c r="O13" t="n">
         <v>24.58512791403967</v>
@@ -35647,22 +35649,22 @@
         <v>0</v>
       </c>
       <c r="K14" t="n">
-        <v>39.58387696184059</v>
+        <v>42.34905430330018</v>
       </c>
       <c r="L14" t="n">
-        <v>39.58387696184059</v>
+        <v>44.13217237922859</v>
       </c>
       <c r="M14" t="n">
-        <v>0</v>
+        <v>44.13217237922859</v>
       </c>
       <c r="N14" t="n">
         <v>0</v>
       </c>
       <c r="O14" t="n">
-        <v>37.98452839772582</v>
+        <v>0</v>
       </c>
       <c r="P14" t="n">
-        <v>39.58387696184059</v>
+        <v>44.13217237922859</v>
       </c>
       <c r="Q14" t="n">
         <v>0</v>
@@ -35726,25 +35728,25 @@
         <v>0</v>
       </c>
       <c r="K15" t="n">
-        <v>39.58387696184059</v>
+        <v>0</v>
       </c>
       <c r="L15" t="n">
-        <v>39.58387696184059</v>
+        <v>0</v>
       </c>
       <c r="M15" t="n">
-        <v>39.58387696184059</v>
+        <v>44.13217237922859</v>
       </c>
       <c r="N15" t="n">
-        <v>0</v>
+        <v>42.34905430330018</v>
       </c>
       <c r="O15" t="n">
-        <v>0</v>
+        <v>44.13217237922859</v>
       </c>
       <c r="P15" t="n">
-        <v>0</v>
+        <v>44.13217237922859</v>
       </c>
       <c r="Q15" t="n">
-        <v>37.98452839772582</v>
+        <v>0</v>
       </c>
       <c r="R15" t="n">
         <v>0</v>
@@ -35814,7 +35816,7 @@
         <v>39.58387696184059</v>
       </c>
       <c r="N16" t="n">
-        <v>39.58387696184059</v>
+        <v>44.13217237922859</v>
       </c>
       <c r="O16" t="n">
         <v>24.58512791403967</v>
@@ -35884,22 +35886,22 @@
         <v>0</v>
       </c>
       <c r="K17" t="n">
-        <v>0</v>
+        <v>104.0555615261842</v>
       </c>
       <c r="L17" t="n">
-        <v>42.34905430330018</v>
+        <v>181.8947995804632</v>
       </c>
       <c r="M17" t="n">
-        <v>0</v>
+        <v>219.1673002655597</v>
       </c>
       <c r="N17" t="n">
-        <v>44.13217237922859</v>
+        <v>207.9338608153932</v>
       </c>
       <c r="O17" t="n">
-        <v>44.13217237922859</v>
+        <v>150.7019698410586</v>
       </c>
       <c r="P17" t="n">
-        <v>44.13217237922859</v>
+        <v>90.5657124162131</v>
       </c>
       <c r="Q17" t="n">
         <v>0</v>
@@ -35963,25 +35965,25 @@
         <v>0</v>
       </c>
       <c r="K18" t="n">
-        <v>44.13217237922859</v>
+        <v>0</v>
       </c>
       <c r="L18" t="n">
-        <v>0</v>
+        <v>232.285965523585</v>
       </c>
       <c r="M18" t="n">
-        <v>42.34905430330018</v>
+        <v>169.9091475161415</v>
       </c>
       <c r="N18" t="n">
-        <v>44.13217237922859</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="O18" t="n">
-        <v>44.13217237922859</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="P18" t="n">
         <v>0</v>
       </c>
       <c r="Q18" t="n">
-        <v>0</v>
+        <v>70.09551364982758</v>
       </c>
       <c r="R18" t="n">
         <v>0</v>
@@ -36127,7 +36129,7 @@
         <v>181.8947995804632</v>
       </c>
       <c r="M20" t="n">
-        <v>219.1673002655597</v>
+        <v>219.1673002655598</v>
       </c>
       <c r="N20" t="n">
         <v>207.9338608153932</v>
@@ -36206,10 +36208,10 @@
         <v>232.285965523585</v>
       </c>
       <c r="M21" t="n">
-        <v>55.51629994036225</v>
+        <v>226.4350751681936</v>
       </c>
       <c r="N21" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
       <c r="O21" t="n">
         <v>241.0142888776591</v>
@@ -36218,7 +36220,7 @@
         <v>184.4883612256069</v>
       </c>
       <c r="Q21" t="n">
-        <v>0</v>
+        <v>70.09551364982758</v>
       </c>
       <c r="R21" t="n">
         <v>0</v>
@@ -36437,25 +36439,25 @@
         <v>0</v>
       </c>
       <c r="K24" t="n">
-        <v>126.6237980382196</v>
+        <v>0</v>
       </c>
       <c r="L24" t="n">
         <v>232.285965523585</v>
       </c>
       <c r="M24" t="n">
-        <v>99.81127712997396</v>
+        <v>240.0046611659691</v>
       </c>
       <c r="N24" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="O24" t="n">
         <v>241.0142888776591</v>
       </c>
       <c r="P24" t="n">
-        <v>184.4883612256069</v>
+        <v>0</v>
       </c>
       <c r="Q24" t="n">
-        <v>70.09551364982758</v>
+        <v>0</v>
       </c>
       <c r="R24" t="n">
         <v>0</v>
@@ -36677,7 +36679,7 @@
         <v>126.6237980382196</v>
       </c>
       <c r="L27" t="n">
-        <v>0</v>
+        <v>232.285965523585</v>
       </c>
       <c r="M27" t="n">
         <v>241.0142888776591</v>
@@ -36686,10 +36688,10 @@
         <v>241.0142888776591</v>
       </c>
       <c r="O27" t="n">
-        <v>91.0829537758999</v>
+        <v>43.28534947792182</v>
       </c>
       <c r="P27" t="n">
-        <v>184.4883612256069</v>
+        <v>0</v>
       </c>
       <c r="Q27" t="n">
         <v>70.09551364982758</v>
@@ -36917,10 +36919,10 @@
         <v>232.285965523585</v>
       </c>
       <c r="M30" t="n">
+        <v>0</v>
+      </c>
+      <c r="N30" t="n">
         <v>169.9067907798017</v>
-      </c>
-      <c r="N30" t="n">
-        <v>0</v>
       </c>
       <c r="O30" t="n">
         <v>241.0142888776591</v>
@@ -37148,22 +37150,22 @@
         <v>0</v>
       </c>
       <c r="K33" t="n">
-        <v>126.6237980382196</v>
+        <v>0</v>
       </c>
       <c r="L33" t="n">
         <v>232.285965523585</v>
       </c>
       <c r="M33" t="n">
-        <v>169.9067907798017</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="N33" t="n">
+        <v>240.0046611659691</v>
+      </c>
+      <c r="O33" t="n">
         <v>241.0142888776591</v>
       </c>
-      <c r="O33" t="n">
-        <v>0</v>
-      </c>
       <c r="P33" t="n">
-        <v>184.4883612256069</v>
+        <v>0</v>
       </c>
       <c r="Q33" t="n">
         <v>0</v>
@@ -37385,25 +37387,25 @@
         <v>0</v>
       </c>
       <c r="K36" t="n">
-        <v>55.51629994036225</v>
+        <v>0</v>
       </c>
       <c r="L36" t="n">
         <v>232.285965523585</v>
       </c>
       <c r="M36" t="n">
-        <v>241.0142888776591</v>
+        <v>169.9091475161415</v>
       </c>
       <c r="N36" t="n">
         <v>241.0142888776591</v>
       </c>
       <c r="O36" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="P36" t="n">
-        <v>184.4883612256069</v>
+        <v>0</v>
       </c>
       <c r="Q36" t="n">
-        <v>0</v>
+        <v>70.09551364982758</v>
       </c>
       <c r="R36" t="n">
         <v>0</v>
@@ -37549,7 +37551,7 @@
         <v>181.8947995804632</v>
       </c>
       <c r="M38" t="n">
-        <v>219.1673002655597</v>
+        <v>219.1673002655598</v>
       </c>
       <c r="N38" t="n">
         <v>207.9338608153932</v>
@@ -37622,25 +37624,25 @@
         <v>0</v>
       </c>
       <c r="K39" t="n">
-        <v>126.6237980382196</v>
+        <v>0</v>
       </c>
       <c r="L39" t="n">
-        <v>0</v>
+        <v>232.285965523585</v>
       </c>
       <c r="M39" t="n">
         <v>241.0142888776591</v>
       </c>
       <c r="N39" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
       <c r="O39" t="n">
-        <v>161.1784674257276</v>
+        <v>226.4350751681936</v>
       </c>
       <c r="P39" t="n">
         <v>184.4883612256069</v>
       </c>
       <c r="Q39" t="n">
-        <v>0</v>
+        <v>70.09551364982758</v>
       </c>
       <c r="R39" t="n">
         <v>0</v>
@@ -37786,7 +37788,7 @@
         <v>181.8947995804632</v>
       </c>
       <c r="M41" t="n">
-        <v>201.1578881078215</v>
+        <v>219.1673002655597</v>
       </c>
       <c r="N41" t="n">
         <v>207.9338608153932</v>
@@ -37859,19 +37861,19 @@
         <v>0</v>
       </c>
       <c r="K42" t="n">
-        <v>126.6237980382196</v>
+        <v>0</v>
       </c>
       <c r="L42" t="n">
-        <v>0</v>
+        <v>232.285965523585</v>
       </c>
       <c r="M42" t="n">
-        <v>236.4659934602711</v>
+        <v>226.4350751681936</v>
       </c>
       <c r="N42" t="n">
-        <v>82.17013245293764</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="O42" t="n">
-        <v>236.4659934602711</v>
+        <v>0</v>
       </c>
       <c r="P42" t="n">
         <v>184.4883612256069</v>
@@ -38017,22 +38019,22 @@
         <v>0</v>
       </c>
       <c r="K44" t="n">
-        <v>0</v>
+        <v>104.0555615261842</v>
       </c>
       <c r="L44" t="n">
-        <v>0</v>
+        <v>181.8947995804632</v>
       </c>
       <c r="M44" t="n">
-        <v>37.98452839772582</v>
+        <v>219.1673002655598</v>
       </c>
       <c r="N44" t="n">
-        <v>39.58387696184059</v>
+        <v>207.9338608153932</v>
       </c>
       <c r="O44" t="n">
-        <v>39.58387696184059</v>
+        <v>150.7019698410586</v>
       </c>
       <c r="P44" t="n">
-        <v>39.58387696184059</v>
+        <v>90.5657124162131</v>
       </c>
       <c r="Q44" t="n">
         <v>0</v>
@@ -38096,22 +38098,22 @@
         <v>0</v>
       </c>
       <c r="K45" t="n">
-        <v>0</v>
+        <v>46.78797658628819</v>
       </c>
       <c r="L45" t="n">
-        <v>39.58387696184059</v>
+        <v>0</v>
       </c>
       <c r="M45" t="n">
-        <v>39.58387696184059</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="N45" t="n">
-        <v>39.58387696184059</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="O45" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="P45" t="n">
-        <v>37.98452839772582</v>
+        <v>184.4883612256069</v>
       </c>
       <c r="Q45" t="n">
         <v>0</v>
@@ -38184,7 +38186,7 @@
         <v>39.58387696184059</v>
       </c>
       <c r="N46" t="n">
-        <v>39.58387696184059</v>
+        <v>44.13217237922859</v>
       </c>
       <c r="O46" t="n">
         <v>24.58512791403967</v>

--- a/Outputs/1. Budget/Grid Search/Output Files/1500000/Output_0_10.xlsx
+++ b/Outputs/1. Budget/Grid Search/Output Files/1500000/Output_0_10.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>0.01</v>
       </c>
     </row>
     <row r="4">
@@ -503,7 +503,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>373609.6494672063</v>
+        <v>268277.9841761547</v>
       </c>
     </row>
     <row r="7">
@@ -513,7 +513,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>2114249.189782366</v>
+        <v>925399.3994514378</v>
       </c>
     </row>
     <row r="8">
@@ -523,7 +523,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>19492207.60956401</v>
+        <v>18327015.93006066</v>
       </c>
     </row>
     <row r="9">
@@ -543,7 +543,7 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>5116643.000488906</v>
+        <v>5764008.847562066</v>
       </c>
     </row>
     <row r="11">
@@ -670,19 +670,19 @@
         <v>0</v>
       </c>
       <c r="F2" t="n">
-        <v>26.92232807701203</v>
+        <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>44.13217237922859</v>
+        <v>0</v>
       </c>
       <c r="H2" t="n">
-        <v>44.13217237922859</v>
+        <v>0</v>
       </c>
       <c r="I2" t="n">
-        <v>44.13217237922859</v>
+        <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>11.94928935461252</v>
+        <v>0</v>
       </c>
       <c r="K2" t="n">
         <v>0</v>
@@ -703,28 +703,28 @@
         <v>0</v>
       </c>
       <c r="Q2" t="n">
-        <v>0</v>
+        <v>9.990699214544804</v>
       </c>
       <c r="R2" t="n">
         <v>0</v>
       </c>
       <c r="S2" t="n">
-        <v>0</v>
+        <v>202.2946864288972</v>
       </c>
       <c r="T2" t="n">
         <v>0</v>
       </c>
       <c r="U2" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="V2" t="n">
         <v>0</v>
       </c>
       <c r="W2" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="X2" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="Y2" t="n">
         <v>0</v>
@@ -737,7 +737,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>166.5331836498673</v>
       </c>
       <c r="C3" t="n">
         <v>0</v>
@@ -761,7 +761,7 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>0</v>
+        <v>0.7465913262578567</v>
       </c>
       <c r="K3" t="n">
         <v>0</v>
@@ -785,22 +785,22 @@
         <v>0</v>
       </c>
       <c r="R3" t="n">
-        <v>44.13217237922859</v>
+        <v>0</v>
       </c>
       <c r="S3" t="n">
-        <v>44.13217237922859</v>
+        <v>171.6831711038378</v>
       </c>
       <c r="T3" t="n">
-        <v>44.13217237922859</v>
+        <v>0</v>
       </c>
       <c r="U3" t="n">
-        <v>38.87161743162454</v>
+        <v>122.5504301693719</v>
       </c>
       <c r="V3" t="n">
-        <v>0</v>
+        <v>232.8005871494253</v>
       </c>
       <c r="W3" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="X3" t="n">
         <v>0</v>
@@ -858,16 +858,16 @@
         <v>0</v>
       </c>
       <c r="P4" t="n">
-        <v>0.7904504476822691</v>
+        <v>0</v>
       </c>
       <c r="Q4" t="n">
-        <v>44.13217237922859</v>
+        <v>0</v>
       </c>
       <c r="R4" t="n">
-        <v>44.13217237922859</v>
+        <v>133.186967585368</v>
       </c>
       <c r="S4" t="n">
-        <v>44.13217237922859</v>
+        <v>0</v>
       </c>
       <c r="T4" t="n">
         <v>0</v>
@@ -898,7 +898,7 @@
         <v>0</v>
       </c>
       <c r="C5" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="D5" t="n">
         <v>0</v>
@@ -907,19 +907,19 @@
         <v>0</v>
       </c>
       <c r="F5" t="n">
-        <v>16.93162886246722</v>
+        <v>84.41978777916125</v>
       </c>
       <c r="G5" t="n">
-        <v>44.13217237922859</v>
+        <v>0</v>
       </c>
       <c r="H5" t="n">
-        <v>44.13217237922859</v>
+        <v>0</v>
       </c>
       <c r="I5" t="n">
-        <v>44.13217237922859</v>
+        <v>0</v>
       </c>
       <c r="J5" t="n">
-        <v>11.94928935461252</v>
+        <v>0</v>
       </c>
       <c r="K5" t="n">
         <v>0</v>
@@ -943,10 +943,10 @@
         <v>9.990699214544804</v>
       </c>
       <c r="R5" t="n">
-        <v>0</v>
+        <v>149.8691179411497</v>
       </c>
       <c r="S5" t="n">
-        <v>0</v>
+        <v>209.0200695862453</v>
       </c>
       <c r="T5" t="n">
         <v>0</v>
@@ -964,7 +964,7 @@
         <v>0</v>
       </c>
       <c r="Y5" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
     </row>
     <row r="6">
@@ -983,16 +983,16 @@
         <v>0</v>
       </c>
       <c r="E6" t="n">
-        <v>44.13217237922859</v>
+        <v>0</v>
       </c>
       <c r="F6" t="n">
-        <v>44.13217237922859</v>
+        <v>145.0692123933839</v>
       </c>
       <c r="G6" t="n">
-        <v>44.13217237922859</v>
+        <v>131.0784874127591</v>
       </c>
       <c r="H6" t="n">
-        <v>38.87161743162454</v>
+        <v>112.2354442364965</v>
       </c>
       <c r="I6" t="n">
         <v>0</v>
@@ -1022,7 +1022,7 @@
         <v>0</v>
       </c>
       <c r="R6" t="n">
-        <v>0</v>
+        <v>100.1578341526431</v>
       </c>
       <c r="S6" t="n">
         <v>0</v>
@@ -1037,10 +1037,10 @@
         <v>0</v>
       </c>
       <c r="W6" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="X6" t="n">
-        <v>0</v>
+        <v>205.7729852034775</v>
       </c>
       <c r="Y6" t="n">
         <v>0</v>
@@ -1095,19 +1095,19 @@
         <v>0</v>
       </c>
       <c r="P7" t="n">
-        <v>2.721440735106512</v>
+        <v>0</v>
       </c>
       <c r="Q7" t="n">
-        <v>44.13217237922859</v>
+        <v>0</v>
       </c>
       <c r="R7" t="n">
-        <v>44.13217237922859</v>
+        <v>0</v>
       </c>
       <c r="S7" t="n">
-        <v>42.20118209180435</v>
+        <v>0</v>
       </c>
       <c r="T7" t="n">
-        <v>0</v>
+        <v>133.186967585368</v>
       </c>
       <c r="U7" t="n">
         <v>0</v>
@@ -1132,7 +1132,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="C8" t="n">
         <v>0</v>
@@ -1156,7 +1156,7 @@
         <v>0</v>
       </c>
       <c r="J8" t="n">
-        <v>11.94928935461252</v>
+        <v>0</v>
       </c>
       <c r="K8" t="n">
         <v>0</v>
@@ -1180,19 +1180,19 @@
         <v>9.990699214544804</v>
       </c>
       <c r="R8" t="n">
-        <v>44.13217237922859</v>
+        <v>0</v>
       </c>
       <c r="S8" t="n">
-        <v>44.13217237922859</v>
+        <v>0</v>
       </c>
       <c r="T8" t="n">
-        <v>44.13217237922859</v>
+        <v>0</v>
       </c>
       <c r="U8" t="n">
-        <v>16.93162886246721</v>
+        <v>202.2946864288972</v>
       </c>
       <c r="V8" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="W8" t="n">
         <v>0</v>
@@ -1201,7 +1201,7 @@
         <v>0</v>
       </c>
       <c r="Y8" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
     </row>
     <row r="9">
@@ -1223,13 +1223,13 @@
         <v>0</v>
       </c>
       <c r="F9" t="n">
-        <v>44.13217237922859</v>
+        <v>0</v>
       </c>
       <c r="G9" t="n">
-        <v>44.13217237922859</v>
+        <v>0</v>
       </c>
       <c r="H9" t="n">
-        <v>44.13217237922859</v>
+        <v>0</v>
       </c>
       <c r="I9" t="n">
         <v>0</v>
@@ -1259,7 +1259,7 @@
         <v>0</v>
       </c>
       <c r="R9" t="n">
-        <v>38.87161743162455</v>
+        <v>29.79900896488251</v>
       </c>
       <c r="S9" t="n">
         <v>0</v>
@@ -1268,16 +1268,16 @@
         <v>0</v>
       </c>
       <c r="U9" t="n">
-        <v>0</v>
+        <v>225.9413820809748</v>
       </c>
       <c r="V9" t="n">
-        <v>0</v>
+        <v>232.8005871494253</v>
       </c>
       <c r="W9" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="X9" t="n">
-        <v>0</v>
+        <v>205.7729852034775</v>
       </c>
       <c r="Y9" t="n">
         <v>0</v>
@@ -1308,16 +1308,16 @@
         <v>0</v>
       </c>
       <c r="H10" t="n">
-        <v>22.65313100102799</v>
+        <v>0</v>
       </c>
       <c r="I10" t="n">
-        <v>44.13217237922859</v>
+        <v>0</v>
       </c>
       <c r="J10" t="n">
-        <v>44.13217237922859</v>
+        <v>0</v>
       </c>
       <c r="K10" t="n">
-        <v>22.26949182588285</v>
+        <v>0</v>
       </c>
       <c r="L10" t="n">
         <v>0</v>
@@ -1353,7 +1353,7 @@
         <v>0</v>
       </c>
       <c r="W10" t="n">
-        <v>0</v>
+        <v>133.186967585368</v>
       </c>
       <c r="X10" t="n">
         <v>0</v>
@@ -1369,7 +1369,7 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="C11" t="n">
         <v>0</v>
@@ -1381,7 +1381,7 @@
         <v>0</v>
       </c>
       <c r="F11" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="G11" t="n">
         <v>0</v>
@@ -1390,10 +1390,10 @@
         <v>0</v>
       </c>
       <c r="I11" t="n">
-        <v>26.92232807701202</v>
+        <v>52.42556848774763</v>
       </c>
       <c r="J11" t="n">
-        <v>11.94928935461252</v>
+        <v>0</v>
       </c>
       <c r="K11" t="n">
         <v>0</v>
@@ -1414,10 +1414,10 @@
         <v>0</v>
       </c>
       <c r="Q11" t="n">
-        <v>0</v>
+        <v>9.990699214544804</v>
       </c>
       <c r="R11" t="n">
-        <v>0</v>
+        <v>149.8691179411497</v>
       </c>
       <c r="S11" t="n">
         <v>0</v>
@@ -1426,13 +1426,13 @@
         <v>0</v>
       </c>
       <c r="U11" t="n">
-        <v>44.13217237922859</v>
+        <v>0</v>
       </c>
       <c r="V11" t="n">
-        <v>44.13217237922859</v>
+        <v>0</v>
       </c>
       <c r="W11" t="n">
-        <v>44.13217237922859</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="X11" t="n">
         <v>0</v>
@@ -1469,7 +1469,7 @@
         <v>0</v>
       </c>
       <c r="I12" t="n">
-        <v>38.87161743162454</v>
+        <v>0</v>
       </c>
       <c r="J12" t="n">
         <v>0</v>
@@ -1496,28 +1496,28 @@
         <v>0</v>
       </c>
       <c r="R12" t="n">
-        <v>44.13217237922859</v>
+        <v>100.1578341526431</v>
       </c>
       <c r="S12" t="n">
-        <v>44.13217237922859</v>
+        <v>162.5320513878378</v>
       </c>
       <c r="T12" t="n">
-        <v>44.13217237922859</v>
+        <v>0</v>
       </c>
       <c r="U12" t="n">
-        <v>0</v>
+        <v>225.9413820809748</v>
       </c>
       <c r="V12" t="n">
         <v>0</v>
       </c>
       <c r="W12" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="X12" t="n">
         <v>0</v>
       </c>
       <c r="Y12" t="n">
-        <v>0</v>
+        <v>205.6826957773044</v>
       </c>
     </row>
     <row r="13">
@@ -1569,16 +1569,16 @@
         <v>0</v>
       </c>
       <c r="P13" t="n">
-        <v>2.721440735106512</v>
+        <v>0</v>
       </c>
       <c r="Q13" t="n">
-        <v>44.13217237922859</v>
+        <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>44.13217237922859</v>
+        <v>133.186967585368</v>
       </c>
       <c r="S13" t="n">
-        <v>42.20118209180435</v>
+        <v>0</v>
       </c>
       <c r="T13" t="n">
         <v>0</v>
@@ -1621,13 +1621,13 @@
         <v>0</v>
       </c>
       <c r="G14" t="n">
-        <v>44.13217237922859</v>
+        <v>0</v>
       </c>
       <c r="H14" t="n">
-        <v>38.87161743162454</v>
+        <v>0</v>
       </c>
       <c r="I14" t="n">
-        <v>44.13217237922859</v>
+        <v>52.42556848774763</v>
       </c>
       <c r="J14" t="n">
         <v>0</v>
@@ -1651,10 +1651,10 @@
         <v>0</v>
       </c>
       <c r="Q14" t="n">
-        <v>0</v>
+        <v>9.990699214544804</v>
       </c>
       <c r="R14" t="n">
-        <v>44.13217237922859</v>
+        <v>149.8691179411497</v>
       </c>
       <c r="S14" t="n">
         <v>0</v>
@@ -1663,19 +1663,19 @@
         <v>0</v>
       </c>
       <c r="U14" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="V14" t="n">
         <v>0</v>
       </c>
       <c r="W14" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="X14" t="n">
         <v>0</v>
       </c>
       <c r="Y14" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
     </row>
     <row r="15">
@@ -1703,10 +1703,10 @@
         <v>0</v>
       </c>
       <c r="H15" t="n">
-        <v>44.13217237922859</v>
+        <v>0</v>
       </c>
       <c r="I15" t="n">
-        <v>44.13217237922859</v>
+        <v>0</v>
       </c>
       <c r="J15" t="n">
         <v>0</v>
@@ -1733,22 +1733,22 @@
         <v>0</v>
       </c>
       <c r="R15" t="n">
-        <v>44.13217237922859</v>
+        <v>0</v>
       </c>
       <c r="S15" t="n">
-        <v>38.87161743162455</v>
+        <v>35.40726547353833</v>
       </c>
       <c r="T15" t="n">
-        <v>0</v>
+        <v>200.1647286948216</v>
       </c>
       <c r="U15" t="n">
-        <v>0</v>
+        <v>225.9413820809748</v>
       </c>
       <c r="V15" t="n">
-        <v>0</v>
+        <v>232.8005871494253</v>
       </c>
       <c r="W15" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="X15" t="n">
         <v>0</v>
@@ -1788,10 +1788,10 @@
         <v>0</v>
       </c>
       <c r="J16" t="n">
-        <v>19.9316902659215</v>
+        <v>0</v>
       </c>
       <c r="K16" t="n">
-        <v>22.26949182588285</v>
+        <v>0</v>
       </c>
       <c r="L16" t="n">
         <v>0</v>
@@ -1806,19 +1806,19 @@
         <v>0</v>
       </c>
       <c r="P16" t="n">
-        <v>2.721440735106512</v>
+        <v>0</v>
       </c>
       <c r="Q16" t="n">
-        <v>44.13217237922859</v>
+        <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>44.13217237922859</v>
+        <v>0</v>
       </c>
       <c r="S16" t="n">
         <v>0</v>
       </c>
       <c r="T16" t="n">
-        <v>0</v>
+        <v>133.186967585368</v>
       </c>
       <c r="U16" t="n">
         <v>0</v>
@@ -1855,16 +1855,16 @@
         <v>0</v>
       </c>
       <c r="F17" t="n">
-        <v>0</v>
+        <v>92.95466700954542</v>
       </c>
       <c r="G17" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="H17" t="n">
         <v>0</v>
       </c>
       <c r="I17" t="n">
-        <v>0</v>
+        <v>210.4758895704059</v>
       </c>
       <c r="J17" t="n">
         <v>0</v>
@@ -1888,31 +1888,31 @@
         <v>0</v>
       </c>
       <c r="Q17" t="n">
-        <v>9.990699214544804</v>
+        <v>0</v>
       </c>
       <c r="R17" t="n">
         <v>149.8691179411497</v>
       </c>
       <c r="S17" t="n">
-        <v>209.0200695862453</v>
+        <v>0</v>
       </c>
       <c r="T17" t="n">
-        <v>223.0958495641314</v>
+        <v>0</v>
       </c>
       <c r="U17" t="n">
+        <v>0</v>
+      </c>
+      <c r="V17" t="n">
+        <v>0</v>
+      </c>
+      <c r="W17" t="n">
+        <v>0</v>
+      </c>
+      <c r="X17" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y17" t="n">
         <v>241.0142888776591</v>
-      </c>
-      <c r="V17" t="n">
-        <v>102.3382270926889</v>
-      </c>
-      <c r="W17" t="n">
-        <v>0</v>
-      </c>
-      <c r="X17" t="n">
-        <v>0</v>
-      </c>
-      <c r="Y17" t="n">
-        <v>0</v>
       </c>
     </row>
     <row r="18">
@@ -1925,22 +1925,22 @@
         <v>0</v>
       </c>
       <c r="C18" t="n">
-        <v>145.4467082856156</v>
+        <v>0</v>
       </c>
       <c r="D18" t="n">
-        <v>147.4450655646388</v>
+        <v>0</v>
       </c>
       <c r="E18" t="n">
-        <v>157.6450804554009</v>
+        <v>0</v>
       </c>
       <c r="F18" t="n">
-        <v>145.0692123933839</v>
+        <v>0</v>
       </c>
       <c r="G18" t="n">
-        <v>137.3435171632106</v>
+        <v>0</v>
       </c>
       <c r="H18" t="n">
-        <v>112.2354442364965</v>
+        <v>0</v>
       </c>
       <c r="I18" t="n">
         <v>89.39663285141508</v>
@@ -1979,16 +1979,16 @@
         <v>0</v>
       </c>
       <c r="U18" t="n">
-        <v>0</v>
+        <v>225.9413820809748</v>
       </c>
       <c r="V18" t="n">
-        <v>0</v>
+        <v>232.8005871494253</v>
       </c>
       <c r="W18" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="X18" t="n">
-        <v>0</v>
+        <v>145.4287699906872</v>
       </c>
       <c r="Y18" t="n">
         <v>0</v>
@@ -2061,10 +2061,10 @@
         <v>0</v>
       </c>
       <c r="V19" t="n">
+        <v>0</v>
+      </c>
+      <c r="W19" t="n">
         <v>133.186967585368</v>
-      </c>
-      <c r="W19" t="n">
-        <v>0</v>
       </c>
       <c r="X19" t="n">
         <v>0</v>
@@ -2083,19 +2083,19 @@
         <v>0</v>
       </c>
       <c r="C20" t="n">
-        <v>0</v>
+        <v>40.47627913313517</v>
       </c>
       <c r="D20" t="n">
         <v>0</v>
       </c>
       <c r="E20" t="n">
+        <v>0</v>
+      </c>
+      <c r="F20" t="n">
         <v>241.0142888776591</v>
       </c>
-      <c r="F20" t="n">
-        <v>0</v>
-      </c>
       <c r="G20" t="n">
-        <v>234.288905720311</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="H20" t="n">
         <v>0</v>
@@ -2104,7 +2104,7 @@
         <v>0</v>
       </c>
       <c r="J20" t="n">
-        <v>0</v>
+        <v>11.94928935461252</v>
       </c>
       <c r="K20" t="n">
         <v>0</v>
@@ -2128,28 +2128,28 @@
         <v>9.990699214544804</v>
       </c>
       <c r="R20" t="n">
-        <v>0</v>
+        <v>149.8691179411497</v>
       </c>
       <c r="S20" t="n">
-        <v>209.0200695862453</v>
+        <v>0</v>
       </c>
       <c r="T20" t="n">
         <v>0</v>
       </c>
       <c r="U20" t="n">
+        <v>0</v>
+      </c>
+      <c r="V20" t="n">
+        <v>0</v>
+      </c>
+      <c r="W20" t="n">
+        <v>0</v>
+      </c>
+      <c r="X20" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y20" t="n">
         <v>241.0142888776591</v>
-      </c>
-      <c r="V20" t="n">
-        <v>0</v>
-      </c>
-      <c r="W20" t="n">
-        <v>0</v>
-      </c>
-      <c r="X20" t="n">
-        <v>0</v>
-      </c>
-      <c r="Y20" t="n">
-        <v>0</v>
       </c>
     </row>
     <row r="21">
@@ -2168,13 +2168,13 @@
         <v>0</v>
       </c>
       <c r="E21" t="n">
-        <v>0</v>
+        <v>114.0654954417817</v>
       </c>
       <c r="F21" t="n">
-        <v>0</v>
+        <v>145.0692123933839</v>
       </c>
       <c r="G21" t="n">
-        <v>53.36172263168805</v>
+        <v>0</v>
       </c>
       <c r="H21" t="n">
         <v>112.2354442364965</v>
@@ -2225,7 +2225,7 @@
         <v>241.0142888776591</v>
       </c>
       <c r="X21" t="n">
-        <v>205.7729852034775</v>
+        <v>0</v>
       </c>
       <c r="Y21" t="n">
         <v>0</v>
@@ -2286,7 +2286,7 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>0</v>
+        <v>133.186967585368</v>
       </c>
       <c r="S22" t="n">
         <v>0</v>
@@ -2307,7 +2307,7 @@
         <v>0</v>
       </c>
       <c r="Y22" t="n">
-        <v>133.186967585368</v>
+        <v>0</v>
       </c>
     </row>
     <row r="23">
@@ -2323,19 +2323,19 @@
         <v>0</v>
       </c>
       <c r="D23" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="E23" t="n">
         <v>0</v>
       </c>
       <c r="F23" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="G23" t="n">
         <v>0</v>
       </c>
       <c r="H23" t="n">
-        <v>0</v>
+        <v>3.26531605719669</v>
       </c>
       <c r="I23" t="n">
         <v>0</v>
@@ -2365,7 +2365,7 @@
         <v>0</v>
       </c>
       <c r="R23" t="n">
-        <v>149.8691179411497</v>
+        <v>0</v>
       </c>
       <c r="S23" t="n">
         <v>209.0200695862453</v>
@@ -2374,13 +2374,13 @@
         <v>0</v>
       </c>
       <c r="U23" t="n">
+        <v>0</v>
+      </c>
+      <c r="V23" t="n">
+        <v>0</v>
+      </c>
+      <c r="W23" t="n">
         <v>241.0142888776591</v>
-      </c>
-      <c r="V23" t="n">
-        <v>241.0142888776591</v>
-      </c>
-      <c r="W23" t="n">
-        <v>94.41048699370604</v>
       </c>
       <c r="X23" t="n">
         <v>0</v>
@@ -2405,19 +2405,19 @@
         <v>0</v>
       </c>
       <c r="E24" t="n">
-        <v>157.6450804554009</v>
+        <v>0</v>
       </c>
       <c r="F24" t="n">
         <v>0</v>
       </c>
       <c r="G24" t="n">
-        <v>60.79924063643708</v>
+        <v>0</v>
       </c>
       <c r="H24" t="n">
-        <v>112.2354442364965</v>
+        <v>0</v>
       </c>
       <c r="I24" t="n">
-        <v>0</v>
+        <v>89.39663285141508</v>
       </c>
       <c r="J24" t="n">
         <v>0</v>
@@ -2447,22 +2447,22 @@
         <v>0</v>
       </c>
       <c r="S24" t="n">
-        <v>171.6831711038378</v>
+        <v>0</v>
       </c>
       <c r="T24" t="n">
-        <v>200.1647286948216</v>
+        <v>0</v>
       </c>
       <c r="U24" t="n">
-        <v>0</v>
+        <v>225.9413820809748</v>
       </c>
       <c r="V24" t="n">
         <v>232.8005871494253</v>
       </c>
       <c r="W24" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="X24" t="n">
-        <v>0</v>
+        <v>146.175361316945</v>
       </c>
       <c r="Y24" t="n">
         <v>0</v>
@@ -2538,13 +2538,13 @@
         <v>0</v>
       </c>
       <c r="W25" t="n">
-        <v>0</v>
+        <v>133.186967585368</v>
       </c>
       <c r="X25" t="n">
         <v>0</v>
       </c>
       <c r="Y25" t="n">
-        <v>133.186967585368</v>
+        <v>0</v>
       </c>
     </row>
     <row r="26">
@@ -2557,7 +2557,7 @@
         <v>0</v>
       </c>
       <c r="C26" t="n">
-        <v>212.2853856434421</v>
+        <v>0</v>
       </c>
       <c r="D26" t="n">
         <v>241.0142888776591</v>
@@ -2602,7 +2602,7 @@
         <v>0</v>
       </c>
       <c r="R26" t="n">
-        <v>0</v>
+        <v>149.8691179411497</v>
       </c>
       <c r="S26" t="n">
         <v>0</v>
@@ -2614,13 +2614,13 @@
         <v>0</v>
       </c>
       <c r="V26" t="n">
-        <v>0</v>
+        <v>62.4162677022923</v>
       </c>
       <c r="W26" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="X26" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
       <c r="Y26" t="n">
         <v>0</v>
@@ -2636,28 +2636,28 @@
         <v>0</v>
       </c>
       <c r="C27" t="n">
-        <v>145.4467082856156</v>
+        <v>0</v>
       </c>
       <c r="D27" t="n">
-        <v>147.4450655646388</v>
+        <v>0</v>
       </c>
       <c r="E27" t="n">
-        <v>157.6450804554009</v>
+        <v>0</v>
       </c>
       <c r="F27" t="n">
-        <v>145.0692123933839</v>
+        <v>0</v>
       </c>
       <c r="G27" t="n">
-        <v>137.3435171632106</v>
+        <v>0</v>
       </c>
       <c r="H27" t="n">
-        <v>112.2354442364965</v>
+        <v>0</v>
       </c>
       <c r="I27" t="n">
-        <v>89.39663285141508</v>
+        <v>0</v>
       </c>
       <c r="J27" t="n">
-        <v>0.7465913262578567</v>
+        <v>0</v>
       </c>
       <c r="K27" t="n">
         <v>0</v>
@@ -2690,19 +2690,19 @@
         <v>0</v>
       </c>
       <c r="U27" t="n">
-        <v>0</v>
+        <v>225.9413820809748</v>
       </c>
       <c r="V27" t="n">
-        <v>0</v>
+        <v>232.8005871494253</v>
       </c>
       <c r="W27" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="X27" t="n">
-        <v>0</v>
+        <v>29.88929839105575</v>
       </c>
       <c r="Y27" t="n">
-        <v>0</v>
+        <v>205.6826957773044</v>
       </c>
     </row>
     <row r="28">
@@ -2730,7 +2730,7 @@
         <v>0</v>
       </c>
       <c r="H28" t="n">
-        <v>0</v>
+        <v>133.186967585368</v>
       </c>
       <c r="I28" t="n">
         <v>0</v>
@@ -2763,7 +2763,7 @@
         <v>0</v>
       </c>
       <c r="S28" t="n">
-        <v>133.186967585368</v>
+        <v>0</v>
       </c>
       <c r="T28" t="n">
         <v>0</v>
@@ -2794,7 +2794,7 @@
         <v>0</v>
       </c>
       <c r="C29" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="D29" t="n">
         <v>0</v>
@@ -2806,7 +2806,7 @@
         <v>0</v>
       </c>
       <c r="G29" t="n">
-        <v>232.3303155802432</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="H29" t="n">
         <v>0</v>
@@ -2815,7 +2815,7 @@
         <v>0</v>
       </c>
       <c r="J29" t="n">
-        <v>11.94928935461252</v>
+        <v>0</v>
       </c>
       <c r="K29" t="n">
         <v>0</v>
@@ -2836,13 +2836,13 @@
         <v>0</v>
       </c>
       <c r="Q29" t="n">
-        <v>0</v>
+        <v>9.990699214544804</v>
       </c>
       <c r="R29" t="n">
         <v>0</v>
       </c>
       <c r="S29" t="n">
-        <v>209.0200695862453</v>
+        <v>0</v>
       </c>
       <c r="T29" t="n">
         <v>0</v>
@@ -2851,13 +2851,13 @@
         <v>241.0142888776591</v>
       </c>
       <c r="V29" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
       <c r="W29" t="n">
         <v>0</v>
       </c>
       <c r="X29" t="n">
-        <v>0</v>
+        <v>202.2946864288972</v>
       </c>
       <c r="Y29" t="n">
         <v>0</v>
@@ -2870,25 +2870,25 @@
         </is>
       </c>
       <c r="B30" t="n">
-        <v>0</v>
+        <v>54.16565624330335</v>
       </c>
       <c r="C30" t="n">
-        <v>0</v>
+        <v>172.7084989883157</v>
       </c>
       <c r="D30" t="n">
-        <v>147.4450655646388</v>
+        <v>0</v>
       </c>
       <c r="E30" t="n">
-        <v>0</v>
+        <v>157.6450804554009</v>
       </c>
       <c r="F30" t="n">
-        <v>135.4132168533396</v>
+        <v>0</v>
       </c>
       <c r="G30" t="n">
         <v>0</v>
       </c>
       <c r="H30" t="n">
-        <v>0</v>
+        <v>112.2354442364965</v>
       </c>
       <c r="I30" t="n">
         <v>0</v>
@@ -2930,16 +2930,16 @@
         <v>0</v>
       </c>
       <c r="V30" t="n">
-        <v>0</v>
+        <v>232.8005871494253</v>
       </c>
       <c r="W30" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
       <c r="X30" t="n">
         <v>205.7729852034775</v>
       </c>
       <c r="Y30" t="n">
-        <v>205.6826957773044</v>
+        <v>0</v>
       </c>
     </row>
     <row r="31">
@@ -2961,58 +2961,58 @@
         <v>0</v>
       </c>
       <c r="F31" t="n">
+        <v>0</v>
+      </c>
+      <c r="G31" t="n">
+        <v>0</v>
+      </c>
+      <c r="H31" t="n">
+        <v>0</v>
+      </c>
+      <c r="I31" t="n">
+        <v>0</v>
+      </c>
+      <c r="J31" t="n">
+        <v>0</v>
+      </c>
+      <c r="K31" t="n">
+        <v>0</v>
+      </c>
+      <c r="L31" t="n">
+        <v>0</v>
+      </c>
+      <c r="M31" t="n">
+        <v>0</v>
+      </c>
+      <c r="N31" t="n">
+        <v>0</v>
+      </c>
+      <c r="O31" t="n">
+        <v>0</v>
+      </c>
+      <c r="P31" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q31" t="n">
+        <v>0</v>
+      </c>
+      <c r="R31" t="n">
+        <v>0</v>
+      </c>
+      <c r="S31" t="n">
+        <v>0</v>
+      </c>
+      <c r="T31" t="n">
+        <v>0</v>
+      </c>
+      <c r="U31" t="n">
+        <v>0</v>
+      </c>
+      <c r="V31" t="n">
+        <v>0</v>
+      </c>
+      <c r="W31" t="n">
         <v>133.186967585368</v>
-      </c>
-      <c r="G31" t="n">
-        <v>0</v>
-      </c>
-      <c r="H31" t="n">
-        <v>0</v>
-      </c>
-      <c r="I31" t="n">
-        <v>0</v>
-      </c>
-      <c r="J31" t="n">
-        <v>0</v>
-      </c>
-      <c r="K31" t="n">
-        <v>0</v>
-      </c>
-      <c r="L31" t="n">
-        <v>0</v>
-      </c>
-      <c r="M31" t="n">
-        <v>0</v>
-      </c>
-      <c r="N31" t="n">
-        <v>0</v>
-      </c>
-      <c r="O31" t="n">
-        <v>0</v>
-      </c>
-      <c r="P31" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q31" t="n">
-        <v>0</v>
-      </c>
-      <c r="R31" t="n">
-        <v>0</v>
-      </c>
-      <c r="S31" t="n">
-        <v>0</v>
-      </c>
-      <c r="T31" t="n">
-        <v>0</v>
-      </c>
-      <c r="U31" t="n">
-        <v>0</v>
-      </c>
-      <c r="V31" t="n">
-        <v>0</v>
-      </c>
-      <c r="W31" t="n">
-        <v>0</v>
       </c>
       <c r="X31" t="n">
         <v>0</v>
@@ -3028,65 +3028,65 @@
         </is>
       </c>
       <c r="B32" t="n">
+        <v>0</v>
+      </c>
+      <c r="C32" t="n">
+        <v>0</v>
+      </c>
+      <c r="D32" t="n">
+        <v>0</v>
+      </c>
+      <c r="E32" t="n">
+        <v>0</v>
+      </c>
+      <c r="F32" t="n">
+        <v>0</v>
+      </c>
+      <c r="G32" t="n">
+        <v>0</v>
+      </c>
+      <c r="H32" t="n">
+        <v>0</v>
+      </c>
+      <c r="I32" t="n">
+        <v>0</v>
+      </c>
+      <c r="J32" t="n">
+        <v>0</v>
+      </c>
+      <c r="K32" t="n">
+        <v>0</v>
+      </c>
+      <c r="L32" t="n">
+        <v>0</v>
+      </c>
+      <c r="M32" t="n">
+        <v>0</v>
+      </c>
+      <c r="N32" t="n">
+        <v>0</v>
+      </c>
+      <c r="O32" t="n">
+        <v>0</v>
+      </c>
+      <c r="P32" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q32" t="n">
+        <v>0</v>
+      </c>
+      <c r="R32" t="n">
+        <v>149.8691179411497</v>
+      </c>
+      <c r="S32" t="n">
+        <v>209.0200695862453</v>
+      </c>
+      <c r="T32" t="n">
+        <v>223.0958495641314</v>
+      </c>
+      <c r="U32" t="n">
         <v>241.0142888776591</v>
       </c>
-      <c r="C32" t="n">
-        <v>0</v>
-      </c>
-      <c r="D32" t="n">
-        <v>0</v>
-      </c>
-      <c r="E32" t="n">
-        <v>0</v>
-      </c>
-      <c r="F32" t="n">
-        <v>0</v>
-      </c>
-      <c r="G32" t="n">
-        <v>241.0142888776591</v>
-      </c>
-      <c r="H32" t="n">
-        <v>0</v>
-      </c>
-      <c r="I32" t="n">
-        <v>0</v>
-      </c>
-      <c r="J32" t="n">
-        <v>0</v>
-      </c>
-      <c r="K32" t="n">
-        <v>0</v>
-      </c>
-      <c r="L32" t="n">
-        <v>0</v>
-      </c>
-      <c r="M32" t="n">
-        <v>0</v>
-      </c>
-      <c r="N32" t="n">
-        <v>0</v>
-      </c>
-      <c r="O32" t="n">
-        <v>0</v>
-      </c>
-      <c r="P32" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q32" t="n">
-        <v>9.990699214544804</v>
-      </c>
-      <c r="R32" t="n">
-        <v>0</v>
-      </c>
-      <c r="S32" t="n">
-        <v>202.2946864288972</v>
-      </c>
-      <c r="T32" t="n">
-        <v>0</v>
-      </c>
-      <c r="U32" t="n">
-        <v>0</v>
-      </c>
       <c r="V32" t="n">
         <v>0</v>
       </c>
@@ -3097,7 +3097,7 @@
         <v>0</v>
       </c>
       <c r="Y32" t="n">
-        <v>241.0142888776591</v>
+        <v>112.3289263072337</v>
       </c>
     </row>
     <row r="33">
@@ -3128,10 +3128,10 @@
         <v>0</v>
       </c>
       <c r="I33" t="n">
-        <v>0</v>
+        <v>29.1427070647979</v>
       </c>
       <c r="J33" t="n">
-        <v>0</v>
+        <v>0.7465913262578567</v>
       </c>
       <c r="K33" t="n">
         <v>0</v>
@@ -3155,10 +3155,10 @@
         <v>0</v>
       </c>
       <c r="R33" t="n">
-        <v>100.1578341526431</v>
+        <v>0</v>
       </c>
       <c r="S33" t="n">
-        <v>171.6831711038378</v>
+        <v>0</v>
       </c>
       <c r="T33" t="n">
         <v>0</v>
@@ -3170,13 +3170,13 @@
         <v>232.8005871494253</v>
       </c>
       <c r="W33" t="n">
-        <v>204.7452777895381</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="X33" t="n">
         <v>0</v>
       </c>
       <c r="Y33" t="n">
-        <v>0</v>
+        <v>205.6826957773044</v>
       </c>
     </row>
     <row r="34">
@@ -3240,22 +3240,22 @@
         <v>0</v>
       </c>
       <c r="T34" t="n">
+        <v>0</v>
+      </c>
+      <c r="U34" t="n">
+        <v>0</v>
+      </c>
+      <c r="V34" t="n">
+        <v>0</v>
+      </c>
+      <c r="W34" t="n">
+        <v>0</v>
+      </c>
+      <c r="X34" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y34" t="n">
         <v>133.186967585368</v>
-      </c>
-      <c r="U34" t="n">
-        <v>0</v>
-      </c>
-      <c r="V34" t="n">
-        <v>0</v>
-      </c>
-      <c r="W34" t="n">
-        <v>0</v>
-      </c>
-      <c r="X34" t="n">
-        <v>0</v>
-      </c>
-      <c r="Y34" t="n">
-        <v>0</v>
       </c>
     </row>
     <row r="35">
@@ -3268,13 +3268,13 @@
         <v>0</v>
       </c>
       <c r="C35" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
       <c r="D35" t="n">
-        <v>212.2853856434421</v>
+        <v>0</v>
       </c>
       <c r="E35" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
       <c r="F35" t="n">
         <v>0</v>
@@ -3283,10 +3283,10 @@
         <v>241.0142888776591</v>
       </c>
       <c r="H35" t="n">
-        <v>0</v>
+        <v>9.737236172019017</v>
       </c>
       <c r="I35" t="n">
-        <v>0</v>
+        <v>210.4758895704059</v>
       </c>
       <c r="J35" t="n">
         <v>0</v>
@@ -3310,7 +3310,7 @@
         <v>0</v>
       </c>
       <c r="Q35" t="n">
-        <v>0</v>
+        <v>9.990699214544804</v>
       </c>
       <c r="R35" t="n">
         <v>0</v>
@@ -3319,10 +3319,10 @@
         <v>0</v>
       </c>
       <c r="T35" t="n">
-        <v>0</v>
+        <v>223.0958495641314</v>
       </c>
       <c r="U35" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="V35" t="n">
         <v>0</v>
@@ -3347,7 +3347,7 @@
         <v>0</v>
       </c>
       <c r="C36" t="n">
-        <v>48.26703577173992</v>
+        <v>0</v>
       </c>
       <c r="D36" t="n">
         <v>0</v>
@@ -3356,10 +3356,10 @@
         <v>0</v>
       </c>
       <c r="F36" t="n">
-        <v>145.0692123933839</v>
+        <v>0</v>
       </c>
       <c r="G36" t="n">
-        <v>137.3435171632106</v>
+        <v>0</v>
       </c>
       <c r="H36" t="n">
         <v>0</v>
@@ -3392,28 +3392,28 @@
         <v>0</v>
       </c>
       <c r="R36" t="n">
-        <v>0</v>
+        <v>100.1578341526431</v>
       </c>
       <c r="S36" t="n">
-        <v>171.6831711038378</v>
+        <v>0</v>
       </c>
       <c r="T36" t="n">
-        <v>200.1647286948216</v>
+        <v>0</v>
       </c>
       <c r="U36" t="n">
-        <v>0</v>
+        <v>155.6728463193873</v>
       </c>
       <c r="V36" t="n">
         <v>232.8005871494253</v>
       </c>
       <c r="W36" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="X36" t="n">
         <v>0</v>
       </c>
       <c r="Y36" t="n">
-        <v>0</v>
+        <v>205.6826957773044</v>
       </c>
     </row>
     <row r="37">
@@ -3483,16 +3483,16 @@
         <v>0</v>
       </c>
       <c r="V37" t="n">
+        <v>0</v>
+      </c>
+      <c r="W37" t="n">
+        <v>0</v>
+      </c>
+      <c r="X37" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y37" t="n">
         <v>133.186967585368</v>
-      </c>
-      <c r="W37" t="n">
-        <v>0</v>
-      </c>
-      <c r="X37" t="n">
-        <v>0</v>
-      </c>
-      <c r="Y37" t="n">
-        <v>0</v>
       </c>
     </row>
     <row r="38">
@@ -3502,22 +3502,22 @@
         </is>
       </c>
       <c r="B38" t="n">
+        <v>0</v>
+      </c>
+      <c r="C38" t="n">
+        <v>0</v>
+      </c>
+      <c r="D38" t="n">
+        <v>0</v>
+      </c>
+      <c r="E38" t="n">
+        <v>0</v>
+      </c>
+      <c r="F38" t="n">
+        <v>0</v>
+      </c>
+      <c r="G38" t="n">
         <v>241.0142888776591</v>
-      </c>
-      <c r="C38" t="n">
-        <v>0</v>
-      </c>
-      <c r="D38" t="n">
-        <v>241.0142888776591</v>
-      </c>
-      <c r="E38" t="n">
-        <v>0</v>
-      </c>
-      <c r="F38" t="n">
-        <v>241.0142888776591</v>
-      </c>
-      <c r="G38" t="n">
-        <v>202.2946864288972</v>
       </c>
       <c r="H38" t="n">
         <v>0</v>
@@ -3556,13 +3556,13 @@
         <v>0</v>
       </c>
       <c r="T38" t="n">
-        <v>0</v>
+        <v>223.0958495641314</v>
       </c>
       <c r="U38" t="n">
-        <v>0</v>
+        <v>220.2131257424249</v>
       </c>
       <c r="V38" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="W38" t="n">
         <v>0</v>
@@ -3581,7 +3581,7 @@
         </is>
       </c>
       <c r="B39" t="n">
-        <v>166.5331836498673</v>
+        <v>0</v>
       </c>
       <c r="C39" t="n">
         <v>0</v>
@@ -3590,10 +3590,10 @@
         <v>0</v>
       </c>
       <c r="E39" t="n">
-        <v>157.6450804554009</v>
+        <v>0</v>
       </c>
       <c r="F39" t="n">
-        <v>145.0692123933839</v>
+        <v>0</v>
       </c>
       <c r="G39" t="n">
         <v>0</v>
@@ -3605,7 +3605,7 @@
         <v>0</v>
       </c>
       <c r="J39" t="n">
-        <v>0</v>
+        <v>0.7465913262578567</v>
       </c>
       <c r="K39" t="n">
         <v>0</v>
@@ -3629,28 +3629,28 @@
         <v>0</v>
       </c>
       <c r="R39" t="n">
-        <v>0</v>
+        <v>100.1578341526431</v>
       </c>
       <c r="S39" t="n">
         <v>0</v>
       </c>
       <c r="T39" t="n">
-        <v>54.62509479698523</v>
+        <v>0</v>
       </c>
       <c r="U39" t="n">
-        <v>0</v>
+        <v>154.8359655669564</v>
       </c>
       <c r="V39" t="n">
-        <v>0</v>
+        <v>232.8005871494253</v>
       </c>
       <c r="W39" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="X39" t="n">
         <v>205.7729852034775</v>
       </c>
       <c r="Y39" t="n">
-        <v>205.6826957773044</v>
+        <v>0</v>
       </c>
     </row>
     <row r="40">
@@ -3669,7 +3669,7 @@
         <v>0</v>
       </c>
       <c r="E40" t="n">
-        <v>133.186967585368</v>
+        <v>0</v>
       </c>
       <c r="F40" t="n">
         <v>0</v>
@@ -3705,7 +3705,7 @@
         <v>0</v>
       </c>
       <c r="Q40" t="n">
-        <v>0</v>
+        <v>86.16204325169439</v>
       </c>
       <c r="R40" t="n">
         <v>0</v>
@@ -3729,7 +3729,7 @@
         <v>0</v>
       </c>
       <c r="Y40" t="n">
-        <v>0</v>
+        <v>47.02492433367365</v>
       </c>
     </row>
     <row r="41">
@@ -3739,7 +3739,7 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>202.2946864288972</v>
+        <v>0</v>
       </c>
       <c r="C41" t="n">
         <v>0</v>
@@ -3754,10 +3754,10 @@
         <v>241.0142888776591</v>
       </c>
       <c r="G41" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="H41" t="n">
-        <v>0</v>
+        <v>94.41048699370604</v>
       </c>
       <c r="I41" t="n">
         <v>0</v>
@@ -3784,13 +3784,13 @@
         <v>0</v>
       </c>
       <c r="Q41" t="n">
-        <v>9.990699214544804</v>
+        <v>0</v>
       </c>
       <c r="R41" t="n">
-        <v>0</v>
+        <v>149.8691179411497</v>
       </c>
       <c r="S41" t="n">
-        <v>0</v>
+        <v>209.0200695862453</v>
       </c>
       <c r="T41" t="n">
         <v>0</v>
@@ -3805,10 +3805,10 @@
         <v>0</v>
       </c>
       <c r="X41" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
       <c r="Y41" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
     </row>
     <row r="42">
@@ -3818,10 +3818,10 @@
         </is>
       </c>
       <c r="B42" t="n">
-        <v>166.5331836498673</v>
+        <v>0</v>
       </c>
       <c r="C42" t="n">
-        <v>38.17946863125426</v>
+        <v>0</v>
       </c>
       <c r="D42" t="n">
         <v>0</v>
@@ -3833,10 +3833,10 @@
         <v>0</v>
       </c>
       <c r="G42" t="n">
-        <v>0</v>
+        <v>137.3435171632106</v>
       </c>
       <c r="H42" t="n">
-        <v>112.2354442364965</v>
+        <v>0</v>
       </c>
       <c r="I42" t="n">
         <v>0</v>
@@ -3866,19 +3866,19 @@
         <v>0</v>
       </c>
       <c r="R42" t="n">
-        <v>0</v>
+        <v>100.1578341526431</v>
       </c>
       <c r="S42" t="n">
-        <v>171.6831711038378</v>
+        <v>0</v>
       </c>
       <c r="T42" t="n">
         <v>0</v>
       </c>
       <c r="U42" t="n">
-        <v>0</v>
+        <v>225.9413820809748</v>
       </c>
       <c r="V42" t="n">
-        <v>0</v>
+        <v>230.8712300019315</v>
       </c>
       <c r="W42" t="n">
         <v>241.0142888776591</v>
@@ -3887,7 +3887,7 @@
         <v>0</v>
       </c>
       <c r="Y42" t="n">
-        <v>205.6826957773044</v>
+        <v>0</v>
       </c>
     </row>
     <row r="43">
@@ -3976,7 +3976,7 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>202.2946864288972</v>
+        <v>0</v>
       </c>
       <c r="C44" t="n">
         <v>0</v>
@@ -3988,7 +3988,7 @@
         <v>0</v>
       </c>
       <c r="F44" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
       <c r="G44" t="n">
         <v>241.0142888776591</v>
@@ -3997,7 +3997,7 @@
         <v>0</v>
       </c>
       <c r="I44" t="n">
-        <v>0</v>
+        <v>210.4758895704059</v>
       </c>
       <c r="J44" t="n">
         <v>0</v>
@@ -4021,19 +4021,19 @@
         <v>0</v>
       </c>
       <c r="Q44" t="n">
-        <v>9.990699214544804</v>
+        <v>0</v>
       </c>
       <c r="R44" t="n">
-        <v>0</v>
+        <v>149.8691179411497</v>
       </c>
       <c r="S44" t="n">
         <v>0</v>
       </c>
       <c r="T44" t="n">
-        <v>0</v>
+        <v>223.0958495641314</v>
       </c>
       <c r="U44" t="n">
-        <v>0</v>
+        <v>110.8731063230731</v>
       </c>
       <c r="V44" t="n">
         <v>0</v>
@@ -4045,7 +4045,7 @@
         <v>0</v>
       </c>
       <c r="Y44" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
     </row>
     <row r="45">
@@ -4058,7 +4058,7 @@
         <v>0</v>
       </c>
       <c r="C45" t="n">
-        <v>116.0367764965385</v>
+        <v>0</v>
       </c>
       <c r="D45" t="n">
         <v>0</v>
@@ -4073,13 +4073,13 @@
         <v>0</v>
       </c>
       <c r="H45" t="n">
-        <v>0</v>
+        <v>112.2354442364965</v>
       </c>
       <c r="I45" t="n">
         <v>0</v>
       </c>
       <c r="J45" t="n">
-        <v>0.7465913262578567</v>
+        <v>0</v>
       </c>
       <c r="K45" t="n">
         <v>0</v>
@@ -4103,19 +4103,19 @@
         <v>0</v>
       </c>
       <c r="R45" t="n">
-        <v>0</v>
+        <v>100.1578341526431</v>
       </c>
       <c r="S45" t="n">
-        <v>171.6831711038378</v>
+        <v>0</v>
       </c>
       <c r="T45" t="n">
-        <v>200.1647286948216</v>
+        <v>23.17871577922039</v>
       </c>
       <c r="U45" t="n">
-        <v>0</v>
+        <v>225.9413820809748</v>
       </c>
       <c r="V45" t="n">
-        <v>0</v>
+        <v>232.8005871494253</v>
       </c>
       <c r="W45" t="n">
         <v>241.0142888776591</v>
@@ -4124,7 +4124,7 @@
         <v>0</v>
       </c>
       <c r="Y45" t="n">
-        <v>205.6826957773044</v>
+        <v>0</v>
       </c>
     </row>
     <row r="46">
@@ -4179,7 +4179,7 @@
         <v>0</v>
       </c>
       <c r="Q46" t="n">
-        <v>86.16204325169439</v>
+        <v>0</v>
       </c>
       <c r="R46" t="n">
         <v>0</v>
@@ -4194,10 +4194,10 @@
         <v>0</v>
       </c>
       <c r="V46" t="n">
-        <v>0</v>
+        <v>133.186967585368</v>
       </c>
       <c r="W46" t="n">
-        <v>47.02492433367365</v>
+        <v>0</v>
       </c>
       <c r="X46" t="n">
         <v>0</v>
@@ -4306,76 +4306,76 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>176.5286895169144</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="C2" t="n">
-        <v>176.5286895169144</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="D2" t="n">
-        <v>176.5286895169144</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="E2" t="n">
-        <v>176.5286895169144</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="F2" t="n">
-        <v>149.3344187320537</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="G2" t="n">
-        <v>104.756466833843</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="H2" t="n">
-        <v>60.17851493563234</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="I2" t="n">
-        <v>15.60056303742164</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="J2" t="n">
-        <v>3.530573790338288</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="K2" t="n">
-        <v>47.22142444577459</v>
+        <v>122.2961490211351</v>
       </c>
       <c r="L2" t="n">
-        <v>90.91227510121089</v>
+        <v>302.3720006057937</v>
       </c>
       <c r="M2" t="n">
-        <v>90.91227510121089</v>
+        <v>519.3476278686978</v>
       </c>
       <c r="N2" t="n">
-        <v>132.8378388614781</v>
+        <v>725.2021500759372</v>
       </c>
       <c r="O2" t="n">
-        <v>176.5286895169144</v>
+        <v>874.3971002185853</v>
       </c>
       <c r="P2" t="n">
-        <v>176.5286895169144</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="Q2" t="n">
-        <v>176.5286895169144</v>
+        <v>953.9655401424092</v>
       </c>
       <c r="R2" t="n">
-        <v>176.5286895169144</v>
+        <v>953.9655401424092</v>
       </c>
       <c r="S2" t="n">
-        <v>176.5286895169144</v>
+        <v>749.627473042513</v>
       </c>
       <c r="T2" t="n">
-        <v>176.5286895169144</v>
+        <v>749.627473042513</v>
       </c>
       <c r="U2" t="n">
-        <v>176.5286895169144</v>
+        <v>506.1786963984129</v>
       </c>
       <c r="V2" t="n">
-        <v>176.5286895169144</v>
+        <v>506.1786963984129</v>
       </c>
       <c r="W2" t="n">
-        <v>176.5286895169144</v>
+        <v>262.7299197543128</v>
       </c>
       <c r="X2" t="n">
-        <v>176.5286895169144</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="Y2" t="n">
-        <v>176.5286895169144</v>
+        <v>19.28114311021272</v>
       </c>
     </row>
     <row r="3">
@@ -4385,76 +4385,76 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>3.530573790338288</v>
+        <v>20.03527576299844</v>
       </c>
       <c r="C3" t="n">
-        <v>3.530573790338288</v>
+        <v>20.03527576299844</v>
       </c>
       <c r="D3" t="n">
-        <v>3.530573790338288</v>
+        <v>20.03527576299844</v>
       </c>
       <c r="E3" t="n">
-        <v>3.530573790338288</v>
+        <v>20.03527576299844</v>
       </c>
       <c r="F3" t="n">
-        <v>3.530573790338288</v>
+        <v>20.03527576299844</v>
       </c>
       <c r="G3" t="n">
-        <v>3.530573790338288</v>
+        <v>20.03527576299844</v>
       </c>
       <c r="H3" t="n">
-        <v>3.530573790338288</v>
+        <v>20.03527576299844</v>
       </c>
       <c r="I3" t="n">
-        <v>3.530573790338288</v>
+        <v>20.03527576299844</v>
       </c>
       <c r="J3" t="n">
-        <v>3.530573790338288</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="K3" t="n">
-        <v>3.530573790338288</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="L3" t="n">
-        <v>3.530573790338288</v>
+        <v>65.60123993063803</v>
       </c>
       <c r="M3" t="n">
-        <v>45.45613755060546</v>
+        <v>304.2053859195205</v>
       </c>
       <c r="N3" t="n">
-        <v>89.14698820604177</v>
+        <v>542.809531908403</v>
       </c>
       <c r="O3" t="n">
-        <v>132.8378388614781</v>
+        <v>781.4136778972854</v>
       </c>
       <c r="P3" t="n">
-        <v>132.8378388614781</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="Q3" t="n">
-        <v>176.5286895169144</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="R3" t="n">
-        <v>131.9507376187037</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="S3" t="n">
-        <v>87.37278572049297</v>
+        <v>790.6398109613051</v>
       </c>
       <c r="T3" t="n">
-        <v>42.79483382228227</v>
+        <v>790.6398109613051</v>
       </c>
       <c r="U3" t="n">
-        <v>3.530573790338288</v>
+        <v>666.8514976589092</v>
       </c>
       <c r="V3" t="n">
-        <v>3.530573790338288</v>
+        <v>431.6993894271665</v>
       </c>
       <c r="W3" t="n">
-        <v>3.530573790338288</v>
+        <v>188.2506127830665</v>
       </c>
       <c r="X3" t="n">
-        <v>3.530573790338288</v>
+        <v>188.2506127830665</v>
       </c>
       <c r="Y3" t="n">
-        <v>3.530573790338288</v>
+        <v>188.2506127830665</v>
       </c>
     </row>
     <row r="4">
@@ -4464,76 +4464,76 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>3.530573790338288</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="C4" t="n">
-        <v>3.530573790338288</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="D4" t="n">
-        <v>3.530573790338288</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="E4" t="n">
-        <v>3.530573790338288</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="F4" t="n">
-        <v>3.530573790338288</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="G4" t="n">
-        <v>3.530573790338288</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="H4" t="n">
-        <v>3.530573790338288</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="I4" t="n">
-        <v>3.530573790338288</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="J4" t="n">
-        <v>3.530573790338288</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="K4" t="n">
-        <v>3.530573790338288</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="L4" t="n">
-        <v>30.84469879805127</v>
+        <v>46.5952681179257</v>
       </c>
       <c r="M4" t="n">
-        <v>70.03273699027345</v>
+        <v>85.78330631014788</v>
       </c>
       <c r="N4" t="n">
-        <v>113.7235876457098</v>
+        <v>129.4741569655842</v>
       </c>
       <c r="O4" t="n">
-        <v>138.062864280609</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="P4" t="n">
-        <v>137.2644294849704</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="Q4" t="n">
-        <v>92.68647758675968</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="R4" t="n">
-        <v>48.10852568854899</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="S4" t="n">
-        <v>3.530573790338288</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="T4" t="n">
-        <v>3.530573790338288</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="U4" t="n">
-        <v>3.530573790338288</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="V4" t="n">
-        <v>3.530573790338288</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="W4" t="n">
-        <v>3.530573790338288</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="X4" t="n">
-        <v>3.530573790338288</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="Y4" t="n">
-        <v>3.530573790338288</v>
+        <v>19.28114311021272</v>
       </c>
     </row>
     <row r="5">
@@ -4543,76 +4543,76 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>166.4370741486873</v>
+        <v>348.0024326625565</v>
       </c>
       <c r="C5" t="n">
-        <v>166.4370741486873</v>
+        <v>104.5536560184564</v>
       </c>
       <c r="D5" t="n">
-        <v>166.4370741486873</v>
+        <v>104.5536560184564</v>
       </c>
       <c r="E5" t="n">
-        <v>166.4370741486873</v>
+        <v>104.5536560184564</v>
       </c>
       <c r="F5" t="n">
-        <v>149.3344187320537</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="G5" t="n">
-        <v>104.756466833843</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="H5" t="n">
-        <v>60.17851493563234</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="I5" t="n">
-        <v>15.60056303742164</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="J5" t="n">
-        <v>3.530573790338288</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="K5" t="n">
-        <v>45.45613755060546</v>
+        <v>122.2961490211351</v>
       </c>
       <c r="L5" t="n">
-        <v>89.14698820604177</v>
+        <v>302.3720006057937</v>
       </c>
       <c r="M5" t="n">
-        <v>132.8378388614781</v>
+        <v>519.3476278686978</v>
       </c>
       <c r="N5" t="n">
-        <v>176.5286895169144</v>
+        <v>725.2021500759372</v>
       </c>
       <c r="O5" t="n">
-        <v>176.5286895169144</v>
+        <v>874.3971002185853</v>
       </c>
       <c r="P5" t="n">
-        <v>176.5286895169144</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="Q5" t="n">
-        <v>166.4370741486873</v>
+        <v>953.9655401424092</v>
       </c>
       <c r="R5" t="n">
-        <v>166.4370741486873</v>
+        <v>802.5825927271064</v>
       </c>
       <c r="S5" t="n">
-        <v>166.4370741486873</v>
+        <v>591.4512093066566</v>
       </c>
       <c r="T5" t="n">
-        <v>166.4370741486873</v>
+        <v>591.4512093066566</v>
       </c>
       <c r="U5" t="n">
-        <v>166.4370741486873</v>
+        <v>591.4512093066566</v>
       </c>
       <c r="V5" t="n">
-        <v>166.4370741486873</v>
+        <v>591.4512093066566</v>
       </c>
       <c r="W5" t="n">
-        <v>166.4370741486873</v>
+        <v>591.4512093066566</v>
       </c>
       <c r="X5" t="n">
-        <v>166.4370741486873</v>
+        <v>591.4512093066566</v>
       </c>
       <c r="Y5" t="n">
-        <v>166.4370741486873</v>
+        <v>348.0024326625565</v>
       </c>
     </row>
     <row r="6">
@@ -4622,76 +4622,76 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>176.5286895169144</v>
+        <v>411.587349213889</v>
       </c>
       <c r="C6" t="n">
-        <v>176.5286895169144</v>
+        <v>411.587349213889</v>
       </c>
       <c r="D6" t="n">
-        <v>176.5286895169144</v>
+        <v>411.587349213889</v>
       </c>
       <c r="E6" t="n">
-        <v>131.9507376187037</v>
+        <v>411.587349213889</v>
       </c>
       <c r="F6" t="n">
-        <v>87.37278572049297</v>
+        <v>265.0527912407739</v>
       </c>
       <c r="G6" t="n">
-        <v>42.79483382228227</v>
+        <v>132.6502787026334</v>
       </c>
       <c r="H6" t="n">
-        <v>3.530573790338288</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="I6" t="n">
-        <v>3.530573790338288</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="J6" t="n">
-        <v>3.530573790338288</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="K6" t="n">
-        <v>47.22142444577459</v>
+        <v>144.6387031680501</v>
       </c>
       <c r="L6" t="n">
-        <v>90.91227510121089</v>
+        <v>144.6387031680501</v>
       </c>
       <c r="M6" t="n">
-        <v>132.8378388614781</v>
+        <v>383.2428491569326</v>
       </c>
       <c r="N6" t="n">
-        <v>132.8378388614781</v>
+        <v>473.4149733950735</v>
       </c>
       <c r="O6" t="n">
-        <v>132.8378388614781</v>
+        <v>712.019119383956</v>
       </c>
       <c r="P6" t="n">
-        <v>132.8378388614781</v>
+        <v>894.6625969973069</v>
       </c>
       <c r="Q6" t="n">
-        <v>176.5286895169144</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="R6" t="n">
-        <v>176.5286895169144</v>
+        <v>862.8876260635219</v>
       </c>
       <c r="S6" t="n">
-        <v>176.5286895169144</v>
+        <v>862.8876260635219</v>
       </c>
       <c r="T6" t="n">
-        <v>176.5286895169144</v>
+        <v>862.8876260635219</v>
       </c>
       <c r="U6" t="n">
-        <v>176.5286895169144</v>
+        <v>862.8876260635219</v>
       </c>
       <c r="V6" t="n">
-        <v>176.5286895169144</v>
+        <v>862.8876260635219</v>
       </c>
       <c r="W6" t="n">
-        <v>176.5286895169144</v>
+        <v>619.4388494194218</v>
       </c>
       <c r="X6" t="n">
-        <v>176.5286895169144</v>
+        <v>411.587349213889</v>
       </c>
       <c r="Y6" t="n">
-        <v>176.5286895169144</v>
+        <v>411.587349213889</v>
       </c>
     </row>
     <row r="7">
@@ -4701,76 +4701,76 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>3.530573790338288</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="C7" t="n">
-        <v>3.530573790338288</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="D7" t="n">
-        <v>3.530573790338288</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="E7" t="n">
-        <v>3.530573790338288</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="F7" t="n">
-        <v>3.530573790338288</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="G7" t="n">
-        <v>3.530573790338288</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="H7" t="n">
-        <v>3.530573790338288</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="I7" t="n">
-        <v>3.530573790338288</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="J7" t="n">
-        <v>3.530573790338288</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="K7" t="n">
-        <v>3.530573790338288</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="L7" t="n">
-        <v>30.84469879805127</v>
+        <v>46.5952681179257</v>
       </c>
       <c r="M7" t="n">
-        <v>70.03273699027345</v>
+        <v>85.78330631014788</v>
       </c>
       <c r="N7" t="n">
-        <v>113.7235876457098</v>
+        <v>129.4741569655842</v>
       </c>
       <c r="O7" t="n">
-        <v>138.062864280609</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="P7" t="n">
-        <v>135.3139342451479</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="Q7" t="n">
-        <v>90.73598234693722</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="R7" t="n">
-        <v>46.15803044872652</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="S7" t="n">
-        <v>3.530573790338288</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="T7" t="n">
-        <v>3.530573790338288</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="U7" t="n">
-        <v>3.530573790338288</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="V7" t="n">
-        <v>3.530573790338288</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="W7" t="n">
-        <v>3.530573790338288</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="X7" t="n">
-        <v>3.530573790338288</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="Y7" t="n">
-        <v>3.530573790338288</v>
+        <v>19.28114311021272</v>
       </c>
     </row>
     <row r="8">
@@ -4780,76 +4780,76 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>15.60056303742164</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="C8" t="n">
-        <v>15.60056303742164</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="D8" t="n">
-        <v>15.60056303742164</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="E8" t="n">
-        <v>15.60056303742164</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="F8" t="n">
-        <v>15.60056303742164</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="G8" t="n">
-        <v>15.60056303742164</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="H8" t="n">
-        <v>15.60056303742164</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="I8" t="n">
-        <v>15.60056303742164</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="J8" t="n">
-        <v>3.530573790338288</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="K8" t="n">
-        <v>3.530573790338288</v>
+        <v>122.2961490211351</v>
       </c>
       <c r="L8" t="n">
-        <v>47.22142444577459</v>
+        <v>302.3720006057937</v>
       </c>
       <c r="M8" t="n">
-        <v>89.14698820604177</v>
+        <v>519.3476278686978</v>
       </c>
       <c r="N8" t="n">
-        <v>132.8378388614781</v>
+        <v>725.2021500759372</v>
       </c>
       <c r="O8" t="n">
-        <v>176.5286895169144</v>
+        <v>874.3971002185853</v>
       </c>
       <c r="P8" t="n">
-        <v>176.5286895169144</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="Q8" t="n">
-        <v>166.4370741486873</v>
+        <v>953.9655401424092</v>
       </c>
       <c r="R8" t="n">
-        <v>121.8591222504766</v>
+        <v>953.9655401424092</v>
       </c>
       <c r="S8" t="n">
-        <v>77.28117035226589</v>
+        <v>953.9655401424092</v>
       </c>
       <c r="T8" t="n">
-        <v>32.70321845405519</v>
+        <v>953.9655401424092</v>
       </c>
       <c r="U8" t="n">
-        <v>15.60056303742164</v>
+        <v>749.627473042513</v>
       </c>
       <c r="V8" t="n">
-        <v>15.60056303742164</v>
+        <v>506.1786963984129</v>
       </c>
       <c r="W8" t="n">
-        <v>15.60056303742164</v>
+        <v>506.1786963984129</v>
       </c>
       <c r="X8" t="n">
-        <v>15.60056303742164</v>
+        <v>506.1786963984129</v>
       </c>
       <c r="Y8" t="n">
-        <v>15.60056303742164</v>
+        <v>262.7299197543128</v>
       </c>
     </row>
     <row r="9">
@@ -4859,76 +4859,76 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>137.2644294849704</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="C9" t="n">
-        <v>137.2644294849704</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="D9" t="n">
-        <v>137.2644294849704</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="E9" t="n">
-        <v>137.2644294849704</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="F9" t="n">
-        <v>92.68647758675968</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="G9" t="n">
-        <v>48.10852568854899</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="H9" t="n">
-        <v>3.530573790338288</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="I9" t="n">
-        <v>3.530573790338288</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="J9" t="n">
-        <v>3.530573790338288</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="K9" t="n">
-        <v>3.530573790338288</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="L9" t="n">
-        <v>3.530573790338288</v>
+        <v>249.2442489785619</v>
       </c>
       <c r="M9" t="n">
-        <v>47.22142444577459</v>
+        <v>487.8483949674443</v>
       </c>
       <c r="N9" t="n">
-        <v>47.22142444577459</v>
+        <v>542.809531908403</v>
       </c>
       <c r="O9" t="n">
-        <v>90.91227510121089</v>
+        <v>781.4136778972854</v>
       </c>
       <c r="P9" t="n">
-        <v>134.6031257566472</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="Q9" t="n">
-        <v>176.5286895169144</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="R9" t="n">
-        <v>137.2644294849704</v>
+        <v>933.9571464551993</v>
       </c>
       <c r="S9" t="n">
-        <v>137.2644294849704</v>
+        <v>933.9571464551993</v>
       </c>
       <c r="T9" t="n">
-        <v>137.2644294849704</v>
+        <v>933.9571464551993</v>
       </c>
       <c r="U9" t="n">
-        <v>137.2644294849704</v>
+        <v>705.7335281915883</v>
       </c>
       <c r="V9" t="n">
-        <v>137.2644294849704</v>
+        <v>470.5814199598456</v>
       </c>
       <c r="W9" t="n">
-        <v>137.2644294849704</v>
+        <v>227.1326433157456</v>
       </c>
       <c r="X9" t="n">
-        <v>137.2644294849704</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="Y9" t="n">
-        <v>137.2644294849704</v>
+        <v>19.28114311021272</v>
       </c>
     </row>
     <row r="10">
@@ -4938,76 +4938,76 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>138.062864280609</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="C10" t="n">
-        <v>138.062864280609</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="D10" t="n">
-        <v>138.062864280609</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="E10" t="n">
-        <v>138.062864280609</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="F10" t="n">
-        <v>138.062864280609</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="G10" t="n">
-        <v>138.062864280609</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="H10" t="n">
-        <v>115.1809137745201</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="I10" t="n">
-        <v>70.60296187630945</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="J10" t="n">
-        <v>26.02500997809875</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="K10" t="n">
-        <v>3.530573790338288</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="L10" t="n">
-        <v>30.84469879805127</v>
+        <v>46.5952681179257</v>
       </c>
       <c r="M10" t="n">
-        <v>70.03273699027345</v>
+        <v>85.78330631014788</v>
       </c>
       <c r="N10" t="n">
-        <v>113.7235876457098</v>
+        <v>129.4741569655842</v>
       </c>
       <c r="O10" t="n">
-        <v>138.062864280609</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="P10" t="n">
-        <v>138.062864280609</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="Q10" t="n">
-        <v>138.062864280609</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="R10" t="n">
-        <v>138.062864280609</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="S10" t="n">
-        <v>138.062864280609</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="T10" t="n">
-        <v>138.062864280609</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="U10" t="n">
-        <v>138.062864280609</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="V10" t="n">
-        <v>138.062864280609</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="W10" t="n">
-        <v>138.062864280609</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="X10" t="n">
-        <v>138.062864280609</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="Y10" t="n">
-        <v>138.062864280609</v>
+        <v>19.28114311021272</v>
       </c>
     </row>
     <row r="11">
@@ -5017,76 +5017,76 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>42.79483382228227</v>
+        <v>315.6850394389064</v>
       </c>
       <c r="C11" t="n">
-        <v>42.79483382228227</v>
+        <v>315.6850394389064</v>
       </c>
       <c r="D11" t="n">
-        <v>42.79483382228227</v>
+        <v>315.6850394389064</v>
       </c>
       <c r="E11" t="n">
-        <v>42.79483382228227</v>
+        <v>315.6850394389064</v>
       </c>
       <c r="F11" t="n">
-        <v>42.79483382228227</v>
+        <v>72.23626279480629</v>
       </c>
       <c r="G11" t="n">
-        <v>42.79483382228227</v>
+        <v>72.23626279480629</v>
       </c>
       <c r="H11" t="n">
-        <v>42.79483382228227</v>
+        <v>72.23626279480629</v>
       </c>
       <c r="I11" t="n">
-        <v>15.60056303742164</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="J11" t="n">
-        <v>3.530573790338288</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="K11" t="n">
-        <v>47.22142444577459</v>
+        <v>122.2961490211351</v>
       </c>
       <c r="L11" t="n">
-        <v>90.91227510121089</v>
+        <v>302.3720006057937</v>
       </c>
       <c r="M11" t="n">
-        <v>90.91227510121089</v>
+        <v>519.3476278686978</v>
       </c>
       <c r="N11" t="n">
-        <v>134.6031257566472</v>
+        <v>725.2021500759372</v>
       </c>
       <c r="O11" t="n">
-        <v>176.5286895169144</v>
+        <v>874.3971002185853</v>
       </c>
       <c r="P11" t="n">
-        <v>176.5286895169144</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="Q11" t="n">
-        <v>176.5286895169144</v>
+        <v>953.9655401424092</v>
       </c>
       <c r="R11" t="n">
-        <v>176.5286895169144</v>
+        <v>802.5825927271064</v>
       </c>
       <c r="S11" t="n">
-        <v>176.5286895169144</v>
+        <v>802.5825927271064</v>
       </c>
       <c r="T11" t="n">
-        <v>176.5286895169144</v>
+        <v>802.5825927271064</v>
       </c>
       <c r="U11" t="n">
-        <v>131.9507376187037</v>
+        <v>802.5825927271064</v>
       </c>
       <c r="V11" t="n">
-        <v>87.37278572049297</v>
+        <v>802.5825927271064</v>
       </c>
       <c r="W11" t="n">
-        <v>42.79483382228227</v>
+        <v>559.1338160830064</v>
       </c>
       <c r="X11" t="n">
-        <v>42.79483382228227</v>
+        <v>559.1338160830064</v>
       </c>
       <c r="Y11" t="n">
-        <v>42.79483382228227</v>
+        <v>559.1338160830064</v>
       </c>
     </row>
     <row r="12">
@@ -5096,76 +5096,76 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>42.79483382228227</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="C12" t="n">
-        <v>42.79483382228227</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="D12" t="n">
-        <v>42.79483382228227</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="E12" t="n">
-        <v>42.79483382228227</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="F12" t="n">
-        <v>42.79483382228227</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="G12" t="n">
-        <v>42.79483382228227</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="H12" t="n">
-        <v>42.79483382228227</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="I12" t="n">
-        <v>3.530573790338288</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="J12" t="n">
-        <v>3.530573790338288</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="K12" t="n">
-        <v>45.45613755060546</v>
+        <v>144.6387031680501</v>
       </c>
       <c r="L12" t="n">
-        <v>45.45613755060546</v>
+        <v>374.6018090363993</v>
       </c>
       <c r="M12" t="n">
-        <v>45.45613755060546</v>
+        <v>613.2059550252818</v>
       </c>
       <c r="N12" t="n">
-        <v>89.14698820604177</v>
+        <v>851.8101010141643</v>
       </c>
       <c r="O12" t="n">
-        <v>132.8378388614781</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="P12" t="n">
-        <v>176.5286895169144</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="Q12" t="n">
-        <v>176.5286895169144</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="R12" t="n">
-        <v>131.9507376187037</v>
+        <v>862.8876260635219</v>
       </c>
       <c r="S12" t="n">
-        <v>87.37278572049297</v>
+        <v>698.7138367828777</v>
       </c>
       <c r="T12" t="n">
-        <v>42.79483382228227</v>
+        <v>698.7138367828777</v>
       </c>
       <c r="U12" t="n">
-        <v>42.79483382228227</v>
+        <v>470.4902185192667</v>
       </c>
       <c r="V12" t="n">
-        <v>42.79483382228227</v>
+        <v>470.4902185192667</v>
       </c>
       <c r="W12" t="n">
-        <v>42.79483382228227</v>
+        <v>227.0414418751666</v>
       </c>
       <c r="X12" t="n">
-        <v>42.79483382228227</v>
+        <v>227.0414418751666</v>
       </c>
       <c r="Y12" t="n">
-        <v>42.79483382228227</v>
+        <v>19.28114311021272</v>
       </c>
     </row>
     <row r="13">
@@ -5175,76 +5175,76 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>3.530573790338288</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="C13" t="n">
-        <v>3.530573790338288</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="D13" t="n">
-        <v>3.530573790338288</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="E13" t="n">
-        <v>3.530573790338288</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="F13" t="n">
-        <v>3.530573790338288</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="G13" t="n">
-        <v>3.530573790338288</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="H13" t="n">
-        <v>3.530573790338288</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="I13" t="n">
-        <v>3.530573790338288</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="J13" t="n">
-        <v>3.530573790338288</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="K13" t="n">
-        <v>3.530573790338288</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="L13" t="n">
-        <v>30.84469879805127</v>
+        <v>46.5952681179257</v>
       </c>
       <c r="M13" t="n">
-        <v>70.03273699027345</v>
+        <v>85.78330631014788</v>
       </c>
       <c r="N13" t="n">
-        <v>113.7235876457098</v>
+        <v>129.4741569655842</v>
       </c>
       <c r="O13" t="n">
-        <v>138.062864280609</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="P13" t="n">
-        <v>135.3139342451479</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="Q13" t="n">
-        <v>90.73598234693722</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="R13" t="n">
-        <v>46.15803044872652</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="S13" t="n">
-        <v>3.530573790338288</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="T13" t="n">
-        <v>3.530573790338288</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="U13" t="n">
-        <v>3.530573790338288</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="V13" t="n">
-        <v>3.530573790338288</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="W13" t="n">
-        <v>3.530573790338288</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="X13" t="n">
-        <v>3.530573790338288</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="Y13" t="n">
-        <v>3.530573790338288</v>
+        <v>19.28114311021272</v>
       </c>
     </row>
     <row r="14">
@@ -5254,76 +5254,76 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>131.9507376187037</v>
+        <v>72.23626279480629</v>
       </c>
       <c r="C14" t="n">
-        <v>131.9507376187037</v>
+        <v>72.23626279480629</v>
       </c>
       <c r="D14" t="n">
-        <v>131.9507376187037</v>
+        <v>72.23626279480629</v>
       </c>
       <c r="E14" t="n">
-        <v>131.9507376187037</v>
+        <v>72.23626279480629</v>
       </c>
       <c r="F14" t="n">
-        <v>131.9507376187037</v>
+        <v>72.23626279480629</v>
       </c>
       <c r="G14" t="n">
-        <v>87.37278572049297</v>
+        <v>72.23626279480629</v>
       </c>
       <c r="H14" t="n">
-        <v>48.10852568854899</v>
+        <v>72.23626279480629</v>
       </c>
       <c r="I14" t="n">
-        <v>3.530573790338288</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="J14" t="n">
-        <v>3.530573790338288</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="K14" t="n">
-        <v>45.45613755060546</v>
+        <v>122.2961490211351</v>
       </c>
       <c r="L14" t="n">
-        <v>89.14698820604177</v>
+        <v>302.3720006057937</v>
       </c>
       <c r="M14" t="n">
-        <v>132.8378388614781</v>
+        <v>519.3476278686978</v>
       </c>
       <c r="N14" t="n">
-        <v>132.8378388614781</v>
+        <v>725.2021500759372</v>
       </c>
       <c r="O14" t="n">
-        <v>132.8378388614781</v>
+        <v>874.3971002185853</v>
       </c>
       <c r="P14" t="n">
-        <v>176.5286895169144</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="Q14" t="n">
-        <v>176.5286895169144</v>
+        <v>953.9655401424092</v>
       </c>
       <c r="R14" t="n">
-        <v>131.9507376187037</v>
+        <v>802.5825927271064</v>
       </c>
       <c r="S14" t="n">
-        <v>131.9507376187037</v>
+        <v>802.5825927271064</v>
       </c>
       <c r="T14" t="n">
-        <v>131.9507376187037</v>
+        <v>802.5825927271064</v>
       </c>
       <c r="U14" t="n">
-        <v>131.9507376187037</v>
+        <v>559.1338160830064</v>
       </c>
       <c r="V14" t="n">
-        <v>131.9507376187037</v>
+        <v>559.1338160830064</v>
       </c>
       <c r="W14" t="n">
-        <v>131.9507376187037</v>
+        <v>315.6850394389064</v>
       </c>
       <c r="X14" t="n">
-        <v>131.9507376187037</v>
+        <v>315.6850394389064</v>
       </c>
       <c r="Y14" t="n">
-        <v>131.9507376187037</v>
+        <v>72.23626279480629</v>
       </c>
     </row>
     <row r="15">
@@ -5333,76 +5333,76 @@
         </is>
       </c>
       <c r="B15" t="n">
-        <v>92.68647758675968</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="C15" t="n">
-        <v>92.68647758675968</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="D15" t="n">
-        <v>92.68647758675968</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="E15" t="n">
-        <v>92.68647758675968</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="F15" t="n">
-        <v>92.68647758675968</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="G15" t="n">
-        <v>92.68647758675968</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="H15" t="n">
-        <v>48.10852568854899</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="I15" t="n">
-        <v>3.530573790338288</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="J15" t="n">
-        <v>3.530573790338288</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="K15" t="n">
-        <v>3.530573790338288</v>
+        <v>144.6387031680501</v>
       </c>
       <c r="L15" t="n">
-        <v>3.530573790338288</v>
+        <v>374.6018090363993</v>
       </c>
       <c r="M15" t="n">
-        <v>47.22142444577459</v>
+        <v>542.809531908403</v>
       </c>
       <c r="N15" t="n">
-        <v>89.14698820604177</v>
+        <v>542.809531908403</v>
       </c>
       <c r="O15" t="n">
-        <v>132.8378388614781</v>
+        <v>781.4136778972854</v>
       </c>
       <c r="P15" t="n">
-        <v>176.5286895169144</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="Q15" t="n">
-        <v>176.5286895169144</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="R15" t="n">
-        <v>131.9507376187037</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="S15" t="n">
-        <v>92.68647758675968</v>
+        <v>928.2922408909005</v>
       </c>
       <c r="T15" t="n">
-        <v>92.68647758675968</v>
+        <v>726.1056462496665</v>
       </c>
       <c r="U15" t="n">
-        <v>92.68647758675968</v>
+        <v>497.8820279860555</v>
       </c>
       <c r="V15" t="n">
-        <v>92.68647758675968</v>
+        <v>262.7299197543128</v>
       </c>
       <c r="W15" t="n">
-        <v>92.68647758675968</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="X15" t="n">
-        <v>92.68647758675968</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="Y15" t="n">
-        <v>92.68647758675968</v>
+        <v>19.28114311021272</v>
       </c>
     </row>
     <row r="16">
@@ -5412,76 +5412,76 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>46.15803044872652</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="C16" t="n">
-        <v>46.15803044872652</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="D16" t="n">
-        <v>46.15803044872652</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="E16" t="n">
-        <v>46.15803044872652</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="F16" t="n">
-        <v>46.15803044872652</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="G16" t="n">
-        <v>46.15803044872652</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="H16" t="n">
-        <v>46.15803044872652</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="I16" t="n">
-        <v>46.15803044872652</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="J16" t="n">
-        <v>26.02500997809875</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="K16" t="n">
-        <v>3.530573790338288</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="L16" t="n">
-        <v>30.84469879805127</v>
+        <v>46.5952681179257</v>
       </c>
       <c r="M16" t="n">
-        <v>70.03273699027345</v>
+        <v>85.78330631014788</v>
       </c>
       <c r="N16" t="n">
-        <v>113.7235876457098</v>
+        <v>129.4741569655842</v>
       </c>
       <c r="O16" t="n">
-        <v>138.062864280609</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="P16" t="n">
-        <v>135.3139342451479</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="Q16" t="n">
-        <v>90.73598234693722</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="R16" t="n">
-        <v>46.15803044872652</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="S16" t="n">
-        <v>46.15803044872652</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="T16" t="n">
-        <v>46.15803044872652</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="U16" t="n">
-        <v>46.15803044872652</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="V16" t="n">
-        <v>46.15803044872652</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="W16" t="n">
-        <v>46.15803044872652</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="X16" t="n">
-        <v>46.15803044872652</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="Y16" t="n">
-        <v>46.15803044872652</v>
+        <v>19.28114311021272</v>
       </c>
     </row>
     <row r="17">
@@ -5491,25 +5491,25 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>19.28114311021272</v>
+        <v>569.2254314512334</v>
       </c>
       <c r="C17" t="n">
-        <v>19.28114311021272</v>
+        <v>569.2254314512334</v>
       </c>
       <c r="D17" t="n">
-        <v>19.28114311021272</v>
+        <v>569.2254314512334</v>
       </c>
       <c r="E17" t="n">
-        <v>19.28114311021272</v>
+        <v>569.2254314512334</v>
       </c>
       <c r="F17" t="n">
-        <v>19.28114311021272</v>
+        <v>475.3318284112885</v>
       </c>
       <c r="G17" t="n">
-        <v>19.28114311021272</v>
+        <v>231.8830517671884</v>
       </c>
       <c r="H17" t="n">
-        <v>19.28114311021272</v>
+        <v>231.8830517671884</v>
       </c>
       <c r="I17" t="n">
         <v>19.28114311021272</v>
@@ -5536,31 +5536,31 @@
         <v>964.0571555106362</v>
       </c>
       <c r="Q17" t="n">
-        <v>953.9655401424092</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="R17" t="n">
-        <v>802.5825927271064</v>
+        <v>812.6742080953335</v>
       </c>
       <c r="S17" t="n">
-        <v>591.4512093066566</v>
+        <v>812.6742080953335</v>
       </c>
       <c r="T17" t="n">
-        <v>366.1018663125844</v>
+        <v>812.6742080953335</v>
       </c>
       <c r="U17" t="n">
-        <v>122.6530896684844</v>
+        <v>812.6742080953335</v>
       </c>
       <c r="V17" t="n">
-        <v>19.28114311021272</v>
+        <v>812.6742080953335</v>
       </c>
       <c r="W17" t="n">
-        <v>19.28114311021272</v>
+        <v>812.6742080953335</v>
       </c>
       <c r="X17" t="n">
-        <v>19.28114311021272</v>
+        <v>812.6742080953335</v>
       </c>
       <c r="Y17" t="n">
-        <v>19.28114311021272</v>
+        <v>569.2254314512334</v>
       </c>
     </row>
     <row r="18">
@@ -5570,22 +5570,22 @@
         </is>
       </c>
       <c r="B18" t="n">
-        <v>964.0571555106362</v>
+        <v>110.334904905842</v>
       </c>
       <c r="C18" t="n">
-        <v>817.1412885554689</v>
+        <v>110.334904905842</v>
       </c>
       <c r="D18" t="n">
-        <v>668.2068788942177</v>
+        <v>110.334904905842</v>
       </c>
       <c r="E18" t="n">
-        <v>508.9694238887622</v>
+        <v>110.334904905842</v>
       </c>
       <c r="F18" t="n">
-        <v>362.4348659156472</v>
+        <v>110.334904905842</v>
       </c>
       <c r="G18" t="n">
-        <v>223.7040404982626</v>
+        <v>110.334904905842</v>
       </c>
       <c r="H18" t="n">
         <v>110.334904905842</v>
@@ -5597,22 +5597,22 @@
         <v>19.28114311021272</v>
       </c>
       <c r="K18" t="n">
-        <v>19.28114311021272</v>
+        <v>144.6387031680501</v>
       </c>
       <c r="L18" t="n">
-        <v>249.2442489785619</v>
+        <v>374.6018090363993</v>
       </c>
       <c r="M18" t="n">
-        <v>417.4543050195419</v>
+        <v>374.6018090363993</v>
       </c>
       <c r="N18" t="n">
-        <v>656.0584510084244</v>
+        <v>542.809531908403</v>
       </c>
       <c r="O18" t="n">
-        <v>894.6625969973069</v>
+        <v>781.4136778972854</v>
       </c>
       <c r="P18" t="n">
-        <v>894.6625969973069</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="Q18" t="n">
         <v>964.0571555106362</v>
@@ -5627,19 +5627,19 @@
         <v>964.0571555106362</v>
       </c>
       <c r="U18" t="n">
-        <v>964.0571555106362</v>
+        <v>735.8335372470253</v>
       </c>
       <c r="V18" t="n">
-        <v>964.0571555106362</v>
+        <v>500.6814290152826</v>
       </c>
       <c r="W18" t="n">
-        <v>964.0571555106362</v>
+        <v>257.2326523711826</v>
       </c>
       <c r="X18" t="n">
-        <v>964.0571555106362</v>
+        <v>110.334904905842</v>
       </c>
       <c r="Y18" t="n">
-        <v>964.0571555106362</v>
+        <v>110.334904905842</v>
       </c>
     </row>
     <row r="19">
@@ -5709,7 +5709,7 @@
         <v>153.8134336004835</v>
       </c>
       <c r="V19" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="W19" t="n">
         <v>19.28114311021272</v>
@@ -5728,28 +5728,28 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>499.3853800778592</v>
+        <v>559.1338160830064</v>
       </c>
       <c r="C20" t="n">
-        <v>499.3853800778592</v>
+        <v>518.2486856454962</v>
       </c>
       <c r="D20" t="n">
-        <v>499.3853800778592</v>
+        <v>518.2486856454962</v>
       </c>
       <c r="E20" t="n">
-        <v>255.9366034337592</v>
+        <v>518.2486856454962</v>
       </c>
       <c r="F20" t="n">
-        <v>255.9366034337592</v>
+        <v>274.7999090013961</v>
       </c>
       <c r="G20" t="n">
-        <v>19.28114311021272</v>
+        <v>31.35113235729608</v>
       </c>
       <c r="H20" t="n">
-        <v>19.28114311021272</v>
+        <v>31.35113235729608</v>
       </c>
       <c r="I20" t="n">
-        <v>19.28114311021272</v>
+        <v>31.35113235729608</v>
       </c>
       <c r="J20" t="n">
         <v>19.28114311021272</v>
@@ -5776,28 +5776,28 @@
         <v>953.9655401424092</v>
       </c>
       <c r="R20" t="n">
-        <v>953.9655401424092</v>
+        <v>802.5825927271064</v>
       </c>
       <c r="S20" t="n">
-        <v>742.8341567219593</v>
+        <v>802.5825927271064</v>
       </c>
       <c r="T20" t="n">
-        <v>742.8341567219593</v>
+        <v>802.5825927271064</v>
       </c>
       <c r="U20" t="n">
-        <v>499.3853800778592</v>
+        <v>802.5825927271064</v>
       </c>
       <c r="V20" t="n">
-        <v>499.3853800778592</v>
+        <v>802.5825927271064</v>
       </c>
       <c r="W20" t="n">
-        <v>499.3853800778592</v>
+        <v>802.5825927271064</v>
       </c>
       <c r="X20" t="n">
-        <v>499.3853800778592</v>
+        <v>802.5825927271064</v>
       </c>
       <c r="Y20" t="n">
-        <v>499.3853800778592</v>
+        <v>559.1338160830064</v>
       </c>
     </row>
     <row r="21">
@@ -5807,19 +5807,19 @@
         </is>
       </c>
       <c r="B21" t="n">
-        <v>277.6047704292607</v>
+        <v>485.4562706347935</v>
       </c>
       <c r="C21" t="n">
-        <v>277.6047704292607</v>
+        <v>485.4562706347935</v>
       </c>
       <c r="D21" t="n">
-        <v>277.6047704292607</v>
+        <v>485.4562706347935</v>
       </c>
       <c r="E21" t="n">
-        <v>277.6047704292607</v>
+        <v>370.2385984713777</v>
       </c>
       <c r="F21" t="n">
-        <v>277.6047704292607</v>
+        <v>223.7040404982626</v>
       </c>
       <c r="G21" t="n">
         <v>223.7040404982626</v>
@@ -5834,13 +5834,13 @@
         <v>19.28114311021272</v>
       </c>
       <c r="K21" t="n">
-        <v>19.28114311021272</v>
+        <v>144.6387031680501</v>
       </c>
       <c r="L21" t="n">
-        <v>249.2442489785619</v>
+        <v>374.6018090363993</v>
       </c>
       <c r="M21" t="n">
-        <v>473.4149733950735</v>
+        <v>374.6018090363993</v>
       </c>
       <c r="N21" t="n">
         <v>473.4149733950735</v>
@@ -5873,10 +5873,10 @@
         <v>485.4562706347935</v>
       </c>
       <c r="X21" t="n">
-        <v>277.6047704292607</v>
+        <v>485.4562706347935</v>
       </c>
       <c r="Y21" t="n">
-        <v>277.6047704292607</v>
+        <v>485.4562706347935</v>
       </c>
     </row>
     <row r="22">
@@ -5934,25 +5934,25 @@
         <v>153.8134336004835</v>
       </c>
       <c r="R22" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="S22" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="T22" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="U22" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="V22" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="W22" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="X22" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="Y22" t="n">
         <v>19.28114311021272</v>
@@ -5965,22 +5965,22 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>19.28114311021272</v>
+        <v>509.4769954460863</v>
       </c>
       <c r="C23" t="n">
-        <v>19.28114311021272</v>
+        <v>509.4769954460863</v>
       </c>
       <c r="D23" t="n">
-        <v>19.28114311021272</v>
+        <v>266.0282188019862</v>
       </c>
       <c r="E23" t="n">
-        <v>19.28114311021272</v>
+        <v>266.0282188019862</v>
       </c>
       <c r="F23" t="n">
-        <v>19.28114311021272</v>
+        <v>22.57944215788615</v>
       </c>
       <c r="G23" t="n">
-        <v>19.28114311021272</v>
+        <v>22.57944215788615</v>
       </c>
       <c r="H23" t="n">
         <v>19.28114311021272</v>
@@ -6013,28 +6013,28 @@
         <v>964.0571555106362</v>
       </c>
       <c r="R23" t="n">
-        <v>812.6742080953335</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="S23" t="n">
-        <v>601.5428246748836</v>
+        <v>752.9257720901863</v>
       </c>
       <c r="T23" t="n">
-        <v>601.5428246748836</v>
+        <v>752.9257720901863</v>
       </c>
       <c r="U23" t="n">
-        <v>358.0940480307835</v>
+        <v>752.9257720901863</v>
       </c>
       <c r="V23" t="n">
-        <v>114.6452713866835</v>
+        <v>752.9257720901863</v>
       </c>
       <c r="W23" t="n">
-        <v>19.28114311021272</v>
+        <v>509.4769954460863</v>
       </c>
       <c r="X23" t="n">
-        <v>19.28114311021272</v>
+        <v>509.4769954460863</v>
       </c>
       <c r="Y23" t="n">
-        <v>19.28114311021272</v>
+        <v>509.4769954460863</v>
       </c>
     </row>
     <row r="24">
@@ -6044,25 +6044,25 @@
         </is>
       </c>
       <c r="B24" t="n">
-        <v>353.3011080883284</v>
+        <v>109.5807722530562</v>
       </c>
       <c r="C24" t="n">
-        <v>353.3011080883284</v>
+        <v>109.5807722530562</v>
       </c>
       <c r="D24" t="n">
-        <v>353.3011080883284</v>
+        <v>109.5807722530562</v>
       </c>
       <c r="E24" t="n">
-        <v>194.0636530828729</v>
+        <v>109.5807722530562</v>
       </c>
       <c r="F24" t="n">
-        <v>194.0636530828729</v>
+        <v>109.5807722530562</v>
       </c>
       <c r="G24" t="n">
-        <v>132.6502787026334</v>
+        <v>109.5807722530562</v>
       </c>
       <c r="H24" t="n">
-        <v>19.28114311021272</v>
+        <v>109.5807722530562</v>
       </c>
       <c r="I24" t="n">
         <v>19.28114311021272</v>
@@ -6071,10 +6071,10 @@
         <v>19.28114311021272</v>
       </c>
       <c r="K24" t="n">
-        <v>19.28114311021272</v>
+        <v>144.6387031680501</v>
       </c>
       <c r="L24" t="n">
-        <v>249.2442489785619</v>
+        <v>374.6018090363993</v>
       </c>
       <c r="M24" t="n">
         <v>486.8488635328713</v>
@@ -6095,25 +6095,25 @@
         <v>964.0571555106362</v>
       </c>
       <c r="S24" t="n">
-        <v>790.6398109613051</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="T24" t="n">
-        <v>588.4532163200711</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="U24" t="n">
-        <v>588.4532163200711</v>
+        <v>735.8335372470253</v>
       </c>
       <c r="V24" t="n">
-        <v>353.3011080883284</v>
+        <v>500.6814290152826</v>
       </c>
       <c r="W24" t="n">
-        <v>353.3011080883284</v>
+        <v>257.2326523711826</v>
       </c>
       <c r="X24" t="n">
-        <v>353.3011080883284</v>
+        <v>109.5807722530562</v>
       </c>
       <c r="Y24" t="n">
-        <v>353.3011080883284</v>
+        <v>109.5807722530562</v>
       </c>
     </row>
     <row r="25">
@@ -6123,76 +6123,76 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>829.5248650203655</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="C25" t="n">
-        <v>829.5248650203655</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="D25" t="n">
-        <v>829.5248650203655</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="E25" t="n">
-        <v>829.5248650203655</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="F25" t="n">
-        <v>829.5248650203655</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="G25" t="n">
-        <v>829.5248650203655</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="H25" t="n">
-        <v>829.5248650203655</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="I25" t="n">
-        <v>829.5248650203655</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="J25" t="n">
-        <v>829.5248650203655</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="K25" t="n">
-        <v>829.5248650203655</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="L25" t="n">
-        <v>856.8389900280785</v>
+        <v>46.5952681179257</v>
       </c>
       <c r="M25" t="n">
-        <v>896.0270282203006</v>
+        <v>85.78330631014788</v>
       </c>
       <c r="N25" t="n">
-        <v>939.7178788757369</v>
+        <v>129.4741569655842</v>
       </c>
       <c r="O25" t="n">
-        <v>964.0571555106362</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="P25" t="n">
-        <v>964.0571555106362</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="Q25" t="n">
-        <v>964.0571555106362</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="R25" t="n">
-        <v>964.0571555106362</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="S25" t="n">
-        <v>964.0571555106362</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="T25" t="n">
-        <v>964.0571555106362</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="U25" t="n">
-        <v>964.0571555106362</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="V25" t="n">
-        <v>964.0571555106362</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="W25" t="n">
-        <v>964.0571555106362</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="X25" t="n">
-        <v>964.0571555106362</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="Y25" t="n">
-        <v>829.5248650203655</v>
+        <v>19.28114311021272</v>
       </c>
     </row>
     <row r="26">
@@ -6202,7 +6202,7 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>720.6083788665362</v>
+        <v>506.1786963984129</v>
       </c>
       <c r="C26" t="n">
         <v>506.1786963984129</v>
@@ -6250,28 +6250,28 @@
         <v>964.0571555106362</v>
       </c>
       <c r="R26" t="n">
-        <v>964.0571555106362</v>
+        <v>812.6742080953335</v>
       </c>
       <c r="S26" t="n">
-        <v>964.0571555106362</v>
+        <v>812.6742080953335</v>
       </c>
       <c r="T26" t="n">
-        <v>964.0571555106362</v>
+        <v>812.6742080953335</v>
       </c>
       <c r="U26" t="n">
-        <v>964.0571555106362</v>
+        <v>812.6742080953335</v>
       </c>
       <c r="V26" t="n">
-        <v>964.0571555106362</v>
+        <v>749.627473042513</v>
       </c>
       <c r="W26" t="n">
-        <v>964.0571555106362</v>
+        <v>506.1786963984129</v>
       </c>
       <c r="X26" t="n">
-        <v>720.6083788665362</v>
+        <v>506.1786963984129</v>
       </c>
       <c r="Y26" t="n">
-        <v>720.6083788665362</v>
+        <v>506.1786963984129</v>
       </c>
     </row>
     <row r="27">
@@ -6281,28 +6281,28 @@
         </is>
       </c>
       <c r="B27" t="n">
-        <v>964.0571555106362</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="C27" t="n">
-        <v>817.1412885554689</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="D27" t="n">
-        <v>668.2068788942177</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="E27" t="n">
-        <v>508.9694238887622</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="F27" t="n">
-        <v>362.4348659156472</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="G27" t="n">
-        <v>223.7040404982626</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="H27" t="n">
-        <v>110.334904905842</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="I27" t="n">
-        <v>20.03527576299844</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="J27" t="n">
         <v>19.28114311021272</v>
@@ -6314,13 +6314,13 @@
         <v>374.6018090363993</v>
       </c>
       <c r="M27" t="n">
-        <v>613.2059550252818</v>
+        <v>374.6018090363993</v>
       </c>
       <c r="N27" t="n">
-        <v>851.8101010141643</v>
+        <v>473.4149733950735</v>
       </c>
       <c r="O27" t="n">
-        <v>894.6625969973069</v>
+        <v>712.019119383956</v>
       </c>
       <c r="P27" t="n">
         <v>894.6625969973069</v>
@@ -6338,19 +6338,19 @@
         <v>964.0571555106362</v>
       </c>
       <c r="U27" t="n">
-        <v>964.0571555106362</v>
+        <v>735.8335372470253</v>
       </c>
       <c r="V27" t="n">
-        <v>964.0571555106362</v>
+        <v>500.6814290152826</v>
       </c>
       <c r="W27" t="n">
-        <v>964.0571555106362</v>
+        <v>257.2326523711826</v>
       </c>
       <c r="X27" t="n">
-        <v>964.0571555106362</v>
+        <v>227.0414418751666</v>
       </c>
       <c r="Y27" t="n">
-        <v>964.0571555106362</v>
+        <v>19.28114311021272</v>
       </c>
     </row>
     <row r="28">
@@ -6360,22 +6360,22 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="C28" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="D28" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="E28" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="F28" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="G28" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="H28" t="n">
         <v>19.28114311021272</v>
@@ -6411,25 +6411,25 @@
         <v>153.8134336004835</v>
       </c>
       <c r="S28" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="T28" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="U28" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="V28" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="W28" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="X28" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="Y28" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
     </row>
     <row r="29">
@@ -6439,28 +6439,28 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>266.0282188019862</v>
+        <v>506.1786963984129</v>
       </c>
       <c r="C29" t="n">
-        <v>266.0282188019862</v>
+        <v>262.7299197543128</v>
       </c>
       <c r="D29" t="n">
-        <v>266.0282188019862</v>
+        <v>262.7299197543128</v>
       </c>
       <c r="E29" t="n">
-        <v>266.0282188019862</v>
+        <v>262.7299197543128</v>
       </c>
       <c r="F29" t="n">
-        <v>266.0282188019862</v>
+        <v>262.7299197543128</v>
       </c>
       <c r="G29" t="n">
-        <v>31.35113235729608</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="H29" t="n">
-        <v>31.35113235729608</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="I29" t="n">
-        <v>31.35113235729608</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="J29" t="n">
         <v>19.28114311021272</v>
@@ -6484,31 +6484,31 @@
         <v>964.0571555106362</v>
       </c>
       <c r="Q29" t="n">
-        <v>964.0571555106362</v>
+        <v>953.9655401424092</v>
       </c>
       <c r="R29" t="n">
-        <v>964.0571555106362</v>
+        <v>953.9655401424092</v>
       </c>
       <c r="S29" t="n">
-        <v>752.9257720901863</v>
+        <v>953.9655401424092</v>
       </c>
       <c r="T29" t="n">
-        <v>752.9257720901863</v>
+        <v>953.9655401424092</v>
       </c>
       <c r="U29" t="n">
-        <v>509.4769954460863</v>
+        <v>710.516763498309</v>
       </c>
       <c r="V29" t="n">
-        <v>266.0282188019862</v>
+        <v>710.516763498309</v>
       </c>
       <c r="W29" t="n">
-        <v>266.0282188019862</v>
+        <v>710.516763498309</v>
       </c>
       <c r="X29" t="n">
-        <v>266.0282188019862</v>
+        <v>506.1786963984129</v>
       </c>
       <c r="Y29" t="n">
-        <v>266.0282188019862</v>
+        <v>506.1786963984129</v>
       </c>
     </row>
     <row r="30">
@@ -6518,22 +6518,22 @@
         </is>
       </c>
       <c r="B30" t="n">
-        <v>304.9965798960495</v>
+        <v>466.3407629892159</v>
       </c>
       <c r="C30" t="n">
-        <v>304.9965798960495</v>
+        <v>291.8877337080889</v>
       </c>
       <c r="D30" t="n">
-        <v>156.0621702347982</v>
+        <v>291.8877337080889</v>
       </c>
       <c r="E30" t="n">
-        <v>156.0621702347982</v>
+        <v>132.6502787026334</v>
       </c>
       <c r="F30" t="n">
-        <v>19.28114311021272</v>
+        <v>132.6502787026334</v>
       </c>
       <c r="G30" t="n">
-        <v>19.28114311021272</v>
+        <v>132.6502787026334</v>
       </c>
       <c r="H30" t="n">
         <v>19.28114311021272</v>
@@ -6548,19 +6548,19 @@
         <v>144.6387031680501</v>
       </c>
       <c r="L30" t="n">
-        <v>374.6018090363993</v>
+        <v>144.6387031680501</v>
       </c>
       <c r="M30" t="n">
-        <v>374.6018090363993</v>
+        <v>234.810827406191</v>
       </c>
       <c r="N30" t="n">
-        <v>542.809531908403</v>
+        <v>473.4149733950735</v>
       </c>
       <c r="O30" t="n">
-        <v>781.4136778972854</v>
+        <v>712.019119383956</v>
       </c>
       <c r="P30" t="n">
-        <v>964.0571555106362</v>
+        <v>894.6625969973069</v>
       </c>
       <c r="Q30" t="n">
         <v>964.0571555106362</v>
@@ -6578,16 +6578,16 @@
         <v>964.0571555106362</v>
       </c>
       <c r="V30" t="n">
-        <v>964.0571555106362</v>
+        <v>728.9050472788936</v>
       </c>
       <c r="W30" t="n">
-        <v>720.6083788665362</v>
+        <v>728.9050472788936</v>
       </c>
       <c r="X30" t="n">
-        <v>512.7568786610034</v>
+        <v>521.0535470733607</v>
       </c>
       <c r="Y30" t="n">
-        <v>304.9965798960495</v>
+        <v>521.0535470733607</v>
       </c>
     </row>
     <row r="31">
@@ -6597,76 +6597,76 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>964.0571555106362</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="C31" t="n">
-        <v>964.0571555106362</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="D31" t="n">
-        <v>964.0571555106362</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="E31" t="n">
-        <v>964.0571555106362</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="F31" t="n">
-        <v>829.5248650203655</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="G31" t="n">
-        <v>829.5248650203655</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="H31" t="n">
-        <v>829.5248650203655</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="I31" t="n">
-        <v>829.5248650203655</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="J31" t="n">
-        <v>829.5248650203655</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="K31" t="n">
-        <v>829.5248650203655</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="L31" t="n">
-        <v>856.8389900280785</v>
+        <v>46.5952681179257</v>
       </c>
       <c r="M31" t="n">
-        <v>896.0270282203006</v>
+        <v>85.78330631014788</v>
       </c>
       <c r="N31" t="n">
-        <v>939.7178788757369</v>
+        <v>129.4741569655842</v>
       </c>
       <c r="O31" t="n">
-        <v>964.0571555106362</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="P31" t="n">
-        <v>964.0571555106362</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="Q31" t="n">
-        <v>964.0571555106362</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="R31" t="n">
-        <v>964.0571555106362</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="S31" t="n">
-        <v>964.0571555106362</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="T31" t="n">
-        <v>964.0571555106362</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="U31" t="n">
-        <v>964.0571555106362</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="V31" t="n">
-        <v>964.0571555106362</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="W31" t="n">
-        <v>964.0571555106362</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="X31" t="n">
-        <v>964.0571555106362</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="Y31" t="n">
-        <v>964.0571555106362</v>
+        <v>19.28114311021272</v>
       </c>
     </row>
     <row r="32">
@@ -6676,19 +6676,19 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>262.7299197543128</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="C32" t="n">
-        <v>262.7299197543128</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="D32" t="n">
-        <v>262.7299197543128</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="E32" t="n">
-        <v>262.7299197543128</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="F32" t="n">
-        <v>262.7299197543128</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="G32" t="n">
         <v>19.28114311021272</v>
@@ -6721,31 +6721,31 @@
         <v>964.0571555106362</v>
       </c>
       <c r="Q32" t="n">
-        <v>953.9655401424092</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="R32" t="n">
-        <v>953.9655401424092</v>
+        <v>812.6742080953335</v>
       </c>
       <c r="S32" t="n">
-        <v>749.627473042513</v>
+        <v>601.5428246748836</v>
       </c>
       <c r="T32" t="n">
-        <v>749.627473042513</v>
+        <v>376.1934816808115</v>
       </c>
       <c r="U32" t="n">
-        <v>749.627473042513</v>
+        <v>132.7447050367114</v>
       </c>
       <c r="V32" t="n">
-        <v>749.627473042513</v>
+        <v>132.7447050367114</v>
       </c>
       <c r="W32" t="n">
-        <v>749.627473042513</v>
+        <v>132.7447050367114</v>
       </c>
       <c r="X32" t="n">
-        <v>749.627473042513</v>
+        <v>132.7447050367114</v>
       </c>
       <c r="Y32" t="n">
-        <v>506.1786963984129</v>
+        <v>19.28114311021272</v>
       </c>
     </row>
     <row r="33">
@@ -6755,43 +6755,43 @@
         </is>
       </c>
       <c r="B33" t="n">
-        <v>19.28114311021272</v>
+        <v>49.47235360622864</v>
       </c>
       <c r="C33" t="n">
-        <v>19.28114311021272</v>
+        <v>49.47235360622864</v>
       </c>
       <c r="D33" t="n">
-        <v>19.28114311021272</v>
+        <v>49.47235360622864</v>
       </c>
       <c r="E33" t="n">
-        <v>19.28114311021272</v>
+        <v>49.47235360622864</v>
       </c>
       <c r="F33" t="n">
-        <v>19.28114311021272</v>
+        <v>49.47235360622864</v>
       </c>
       <c r="G33" t="n">
-        <v>19.28114311021272</v>
+        <v>49.47235360622864</v>
       </c>
       <c r="H33" t="n">
-        <v>19.28114311021272</v>
+        <v>49.47235360622864</v>
       </c>
       <c r="I33" t="n">
-        <v>19.28114311021272</v>
+        <v>20.03527576299844</v>
       </c>
       <c r="J33" t="n">
         <v>19.28114311021272</v>
       </c>
       <c r="K33" t="n">
-        <v>19.28114311021272</v>
+        <v>144.6387031680501</v>
       </c>
       <c r="L33" t="n">
-        <v>249.2442489785619</v>
+        <v>374.6018090363993</v>
       </c>
       <c r="M33" t="n">
-        <v>487.8483949674443</v>
+        <v>613.2059550252818</v>
       </c>
       <c r="N33" t="n">
-        <v>725.4530095217538</v>
+        <v>851.8101010141643</v>
       </c>
       <c r="O33" t="n">
         <v>964.0571555106362</v>
@@ -6803,28 +6803,28 @@
         <v>964.0571555106362</v>
       </c>
       <c r="R33" t="n">
-        <v>862.8876260635219</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="S33" t="n">
-        <v>689.4702815141908</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="T33" t="n">
-        <v>689.4702815141908</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="U33" t="n">
-        <v>461.2466632505798</v>
+        <v>735.8335372470253</v>
       </c>
       <c r="V33" t="n">
-        <v>226.0945550188371</v>
+        <v>500.6814290152826</v>
       </c>
       <c r="W33" t="n">
-        <v>19.28114311021272</v>
+        <v>257.2326523711826</v>
       </c>
       <c r="X33" t="n">
-        <v>19.28114311021272</v>
+        <v>257.2326523711826</v>
       </c>
       <c r="Y33" t="n">
-        <v>19.28114311021272</v>
+        <v>49.47235360622864</v>
       </c>
     </row>
     <row r="34">
@@ -6888,19 +6888,19 @@
         <v>153.8134336004835</v>
       </c>
       <c r="T34" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="U34" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="V34" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="W34" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="X34" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="Y34" t="n">
         <v>19.28114311021272</v>
@@ -6913,25 +6913,25 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>964.0571555106362</v>
+        <v>485.167420504237</v>
       </c>
       <c r="C35" t="n">
-        <v>720.6083788665362</v>
+        <v>485.167420504237</v>
       </c>
       <c r="D35" t="n">
-        <v>506.1786963984129</v>
+        <v>485.167420504237</v>
       </c>
       <c r="E35" t="n">
-        <v>262.7299197543128</v>
+        <v>485.167420504237</v>
       </c>
       <c r="F35" t="n">
-        <v>262.7299197543128</v>
+        <v>485.167420504237</v>
       </c>
       <c r="G35" t="n">
-        <v>19.28114311021272</v>
+        <v>241.7186438601369</v>
       </c>
       <c r="H35" t="n">
-        <v>19.28114311021272</v>
+        <v>231.8830517671884</v>
       </c>
       <c r="I35" t="n">
         <v>19.28114311021272</v>
@@ -6958,31 +6958,31 @@
         <v>964.0571555106362</v>
       </c>
       <c r="Q35" t="n">
-        <v>964.0571555106362</v>
+        <v>953.9655401424092</v>
       </c>
       <c r="R35" t="n">
-        <v>964.0571555106362</v>
+        <v>953.9655401424092</v>
       </c>
       <c r="S35" t="n">
-        <v>964.0571555106362</v>
+        <v>953.9655401424092</v>
       </c>
       <c r="T35" t="n">
-        <v>964.0571555106362</v>
+        <v>728.6161971483371</v>
       </c>
       <c r="U35" t="n">
-        <v>964.0571555106362</v>
+        <v>485.167420504237</v>
       </c>
       <c r="V35" t="n">
-        <v>964.0571555106362</v>
+        <v>485.167420504237</v>
       </c>
       <c r="W35" t="n">
-        <v>964.0571555106362</v>
+        <v>485.167420504237</v>
       </c>
       <c r="X35" t="n">
-        <v>964.0571555106362</v>
+        <v>485.167420504237</v>
       </c>
       <c r="Y35" t="n">
-        <v>964.0571555106362</v>
+        <v>485.167420504237</v>
       </c>
     </row>
     <row r="36">
@@ -6992,19 +6992,19 @@
         </is>
       </c>
       <c r="B36" t="n">
-        <v>353.3011080883284</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="C36" t="n">
-        <v>304.5465265007123</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="D36" t="n">
-        <v>304.5465265007123</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="E36" t="n">
-        <v>304.5465265007123</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="F36" t="n">
-        <v>158.0119685275972</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="G36" t="n">
         <v>19.28114311021272</v>
@@ -7019,49 +7019,49 @@
         <v>19.28114311021272</v>
       </c>
       <c r="K36" t="n">
-        <v>19.28114311021272</v>
+        <v>144.6387031680501</v>
       </c>
       <c r="L36" t="n">
-        <v>249.2442489785619</v>
+        <v>374.6018090363993</v>
       </c>
       <c r="M36" t="n">
-        <v>417.4543050195419</v>
+        <v>542.809531908403</v>
       </c>
       <c r="N36" t="n">
-        <v>656.0584510084244</v>
+        <v>542.809531908403</v>
       </c>
       <c r="O36" t="n">
-        <v>894.6625969973069</v>
+        <v>781.4136778972854</v>
       </c>
       <c r="P36" t="n">
-        <v>894.6625969973069</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="Q36" t="n">
         <v>964.0571555106362</v>
       </c>
       <c r="R36" t="n">
-        <v>964.0571555106362</v>
+        <v>862.8876260635219</v>
       </c>
       <c r="S36" t="n">
-        <v>790.6398109613051</v>
+        <v>862.8876260635219</v>
       </c>
       <c r="T36" t="n">
-        <v>588.4532163200711</v>
+        <v>862.8876260635219</v>
       </c>
       <c r="U36" t="n">
-        <v>588.4532163200711</v>
+        <v>705.6423267510095</v>
       </c>
       <c r="V36" t="n">
-        <v>353.3011080883284</v>
+        <v>470.4902185192667</v>
       </c>
       <c r="W36" t="n">
-        <v>353.3011080883284</v>
+        <v>227.0414418751666</v>
       </c>
       <c r="X36" t="n">
-        <v>353.3011080883284</v>
+        <v>227.0414418751666</v>
       </c>
       <c r="Y36" t="n">
-        <v>353.3011080883284</v>
+        <v>19.28114311021272</v>
       </c>
     </row>
     <row r="37">
@@ -7131,13 +7131,13 @@
         <v>153.8134336004835</v>
       </c>
       <c r="V37" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="W37" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="X37" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="Y37" t="n">
         <v>19.28114311021272</v>
@@ -7150,19 +7150,19 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>710.516763498309</v>
+        <v>262.7299197543128</v>
       </c>
       <c r="C38" t="n">
-        <v>710.516763498309</v>
+        <v>262.7299197543128</v>
       </c>
       <c r="D38" t="n">
-        <v>467.067986854209</v>
+        <v>262.7299197543128</v>
       </c>
       <c r="E38" t="n">
-        <v>467.067986854209</v>
+        <v>262.7299197543128</v>
       </c>
       <c r="F38" t="n">
-        <v>223.6192102101089</v>
+        <v>262.7299197543128</v>
       </c>
       <c r="G38" t="n">
         <v>19.28114311021272</v>
@@ -7204,22 +7204,22 @@
         <v>953.9655401424092</v>
       </c>
       <c r="T38" t="n">
-        <v>953.9655401424092</v>
+        <v>728.6161971483371</v>
       </c>
       <c r="U38" t="n">
-        <v>953.9655401424092</v>
+        <v>506.1786963984129</v>
       </c>
       <c r="V38" t="n">
-        <v>953.9655401424092</v>
+        <v>262.7299197543128</v>
       </c>
       <c r="W38" t="n">
-        <v>953.9655401424092</v>
+        <v>262.7299197543128</v>
       </c>
       <c r="X38" t="n">
-        <v>953.9655401424092</v>
+        <v>262.7299197543128</v>
       </c>
       <c r="Y38" t="n">
-        <v>953.9655401424092</v>
+        <v>262.7299197543128</v>
       </c>
     </row>
     <row r="39">
@@ -7229,76 +7229,76 @@
         </is>
       </c>
       <c r="B39" t="n">
-        <v>325.0531560887832</v>
+        <v>20.03527576299844</v>
       </c>
       <c r="C39" t="n">
-        <v>325.0531560887832</v>
+        <v>20.03527576299844</v>
       </c>
       <c r="D39" t="n">
-        <v>325.0531560887832</v>
+        <v>20.03527576299844</v>
       </c>
       <c r="E39" t="n">
-        <v>165.8157010833278</v>
+        <v>20.03527576299844</v>
       </c>
       <c r="F39" t="n">
-        <v>19.28114311021272</v>
+        <v>20.03527576299844</v>
       </c>
       <c r="G39" t="n">
-        <v>19.28114311021272</v>
+        <v>20.03527576299844</v>
       </c>
       <c r="H39" t="n">
-        <v>19.28114311021272</v>
+        <v>20.03527576299844</v>
       </c>
       <c r="I39" t="n">
-        <v>19.28114311021272</v>
+        <v>20.03527576299844</v>
       </c>
       <c r="J39" t="n">
         <v>19.28114311021272</v>
       </c>
       <c r="K39" t="n">
-        <v>19.28114311021272</v>
+        <v>144.6387031680501</v>
       </c>
       <c r="L39" t="n">
-        <v>249.2442489785619</v>
+        <v>374.6018090363993</v>
       </c>
       <c r="M39" t="n">
-        <v>487.8483949674443</v>
+        <v>613.2059550252818</v>
       </c>
       <c r="N39" t="n">
-        <v>487.8483949674443</v>
+        <v>851.8101010141643</v>
       </c>
       <c r="O39" t="n">
-        <v>712.019119383956</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="P39" t="n">
-        <v>894.6625969973069</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="Q39" t="n">
         <v>964.0571555106362</v>
       </c>
       <c r="R39" t="n">
-        <v>964.0571555106362</v>
+        <v>862.8876260635219</v>
       </c>
       <c r="S39" t="n">
-        <v>964.0571555106362</v>
+        <v>862.8876260635219</v>
       </c>
       <c r="T39" t="n">
-        <v>908.880292079338</v>
+        <v>862.8876260635219</v>
       </c>
       <c r="U39" t="n">
-        <v>908.880292079338</v>
+        <v>706.487660844374</v>
       </c>
       <c r="V39" t="n">
-        <v>908.880292079338</v>
+        <v>471.3355526126313</v>
       </c>
       <c r="W39" t="n">
-        <v>908.880292079338</v>
+        <v>227.8867759685313</v>
       </c>
       <c r="X39" t="n">
-        <v>701.0287918738052</v>
+        <v>20.03527576299844</v>
       </c>
       <c r="Y39" t="n">
-        <v>493.2684931088513</v>
+        <v>20.03527576299844</v>
       </c>
     </row>
     <row r="40">
@@ -7308,76 +7308,76 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>964.0571555106362</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="C40" t="n">
-        <v>964.0571555106362</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="D40" t="n">
-        <v>964.0571555106362</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="E40" t="n">
-        <v>829.5248650203655</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="F40" t="n">
-        <v>829.5248650203655</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="G40" t="n">
-        <v>829.5248650203655</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="H40" t="n">
-        <v>829.5248650203655</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="I40" t="n">
-        <v>829.5248650203655</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="J40" t="n">
-        <v>829.5248650203655</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="K40" t="n">
-        <v>829.5248650203655</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="L40" t="n">
-        <v>856.8389900280785</v>
+        <v>46.5952681179257</v>
       </c>
       <c r="M40" t="n">
-        <v>896.0270282203006</v>
+        <v>85.78330631014788</v>
       </c>
       <c r="N40" t="n">
-        <v>939.7178788757369</v>
+        <v>129.4741569655842</v>
       </c>
       <c r="O40" t="n">
-        <v>964.0571555106362</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="P40" t="n">
-        <v>964.0571555106362</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="Q40" t="n">
-        <v>964.0571555106362</v>
+        <v>66.78106667958005</v>
       </c>
       <c r="R40" t="n">
-        <v>964.0571555106362</v>
+        <v>66.78106667958005</v>
       </c>
       <c r="S40" t="n">
-        <v>964.0571555106362</v>
+        <v>66.78106667958005</v>
       </c>
       <c r="T40" t="n">
-        <v>964.0571555106362</v>
+        <v>66.78106667958005</v>
       </c>
       <c r="U40" t="n">
-        <v>964.0571555106362</v>
+        <v>66.78106667958005</v>
       </c>
       <c r="V40" t="n">
-        <v>964.0571555106362</v>
+        <v>66.78106667958005</v>
       </c>
       <c r="W40" t="n">
-        <v>964.0571555106362</v>
+        <v>66.78106667958005</v>
       </c>
       <c r="X40" t="n">
-        <v>964.0571555106362</v>
+        <v>66.78106667958005</v>
       </c>
       <c r="Y40" t="n">
-        <v>964.0571555106362</v>
+        <v>19.28114311021272</v>
       </c>
     </row>
     <row r="41">
@@ -7387,22 +7387,22 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>262.7299197543128</v>
+        <v>601.5428246748836</v>
       </c>
       <c r="C41" t="n">
-        <v>262.7299197543128</v>
+        <v>601.5428246748836</v>
       </c>
       <c r="D41" t="n">
-        <v>262.7299197543128</v>
+        <v>601.5428246748836</v>
       </c>
       <c r="E41" t="n">
-        <v>262.7299197543128</v>
+        <v>601.5428246748836</v>
       </c>
       <c r="F41" t="n">
-        <v>19.28114311021272</v>
+        <v>358.0940480307835</v>
       </c>
       <c r="G41" t="n">
-        <v>19.28114311021272</v>
+        <v>114.6452713866835</v>
       </c>
       <c r="H41" t="n">
         <v>19.28114311021272</v>
@@ -7432,31 +7432,31 @@
         <v>964.0571555106362</v>
       </c>
       <c r="Q41" t="n">
-        <v>953.9655401424092</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="R41" t="n">
-        <v>953.9655401424092</v>
+        <v>812.6742080953335</v>
       </c>
       <c r="S41" t="n">
-        <v>953.9655401424092</v>
+        <v>601.5428246748836</v>
       </c>
       <c r="T41" t="n">
-        <v>953.9655401424092</v>
+        <v>601.5428246748836</v>
       </c>
       <c r="U41" t="n">
-        <v>953.9655401424092</v>
+        <v>601.5428246748836</v>
       </c>
       <c r="V41" t="n">
-        <v>953.9655401424092</v>
+        <v>601.5428246748836</v>
       </c>
       <c r="W41" t="n">
-        <v>953.9655401424092</v>
+        <v>601.5428246748836</v>
       </c>
       <c r="X41" t="n">
-        <v>710.516763498309</v>
+        <v>601.5428246748836</v>
       </c>
       <c r="Y41" t="n">
-        <v>467.067986854209</v>
+        <v>601.5428246748836</v>
       </c>
     </row>
     <row r="42">
@@ -7466,22 +7466,22 @@
         </is>
       </c>
       <c r="B42" t="n">
-        <v>171.2153985321831</v>
+        <v>158.0119685275972</v>
       </c>
       <c r="C42" t="n">
-        <v>132.6502787026334</v>
+        <v>158.0119685275972</v>
       </c>
       <c r="D42" t="n">
-        <v>132.6502787026334</v>
+        <v>158.0119685275972</v>
       </c>
       <c r="E42" t="n">
-        <v>132.6502787026334</v>
+        <v>158.0119685275972</v>
       </c>
       <c r="F42" t="n">
-        <v>132.6502787026334</v>
+        <v>158.0119685275972</v>
       </c>
       <c r="G42" t="n">
-        <v>132.6502787026334</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="H42" t="n">
         <v>19.28114311021272</v>
@@ -7493,49 +7493,49 @@
         <v>19.28114311021272</v>
       </c>
       <c r="K42" t="n">
-        <v>19.28114311021272</v>
+        <v>144.6387031680501</v>
       </c>
       <c r="L42" t="n">
-        <v>249.2442489785619</v>
+        <v>374.6018090363993</v>
       </c>
       <c r="M42" t="n">
-        <v>473.4149733950735</v>
+        <v>613.2059550252818</v>
       </c>
       <c r="N42" t="n">
-        <v>712.019119383956</v>
+        <v>725.4530095217538</v>
       </c>
       <c r="O42" t="n">
-        <v>712.019119383956</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="P42" t="n">
-        <v>894.6625969973069</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="Q42" t="n">
         <v>964.0571555106362</v>
       </c>
       <c r="R42" t="n">
-        <v>964.0571555106362</v>
+        <v>862.8876260635219</v>
       </c>
       <c r="S42" t="n">
-        <v>790.6398109613051</v>
+        <v>862.8876260635219</v>
       </c>
       <c r="T42" t="n">
-        <v>790.6398109613051</v>
+        <v>862.8876260635219</v>
       </c>
       <c r="U42" t="n">
-        <v>790.6398109613051</v>
+        <v>634.6640077999109</v>
       </c>
       <c r="V42" t="n">
-        <v>790.6398109613051</v>
+        <v>401.4607451716973</v>
       </c>
       <c r="W42" t="n">
-        <v>547.1910343172051</v>
+        <v>158.0119685275972</v>
       </c>
       <c r="X42" t="n">
-        <v>547.1910343172051</v>
+        <v>158.0119685275972</v>
       </c>
       <c r="Y42" t="n">
-        <v>339.4307355522512</v>
+        <v>158.0119685275972</v>
       </c>
     </row>
     <row r="43">
@@ -7624,25 +7624,25 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>506.1786963984129</v>
+        <v>475.3318284112885</v>
       </c>
       <c r="C44" t="n">
-        <v>506.1786963984129</v>
+        <v>475.3318284112885</v>
       </c>
       <c r="D44" t="n">
-        <v>506.1786963984129</v>
+        <v>475.3318284112885</v>
       </c>
       <c r="E44" t="n">
-        <v>506.1786963984129</v>
+        <v>475.3318284112885</v>
       </c>
       <c r="F44" t="n">
-        <v>262.7299197543128</v>
+        <v>475.3318284112885</v>
       </c>
       <c r="G44" t="n">
-        <v>19.28114311021272</v>
+        <v>231.8830517671884</v>
       </c>
       <c r="H44" t="n">
-        <v>19.28114311021272</v>
+        <v>231.8830517671884</v>
       </c>
       <c r="I44" t="n">
         <v>19.28114311021272</v>
@@ -7669,31 +7669,31 @@
         <v>964.0571555106362</v>
       </c>
       <c r="Q44" t="n">
-        <v>953.9655401424092</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="R44" t="n">
-        <v>953.9655401424092</v>
+        <v>812.6742080953335</v>
       </c>
       <c r="S44" t="n">
-        <v>953.9655401424092</v>
+        <v>812.6742080953335</v>
       </c>
       <c r="T44" t="n">
-        <v>953.9655401424092</v>
+        <v>587.3248651012614</v>
       </c>
       <c r="U44" t="n">
-        <v>953.9655401424092</v>
+        <v>475.3318284112885</v>
       </c>
       <c r="V44" t="n">
-        <v>953.9655401424092</v>
+        <v>475.3318284112885</v>
       </c>
       <c r="W44" t="n">
-        <v>953.9655401424092</v>
+        <v>475.3318284112885</v>
       </c>
       <c r="X44" t="n">
-        <v>953.9655401424092</v>
+        <v>475.3318284112885</v>
       </c>
       <c r="Y44" t="n">
-        <v>710.516763498309</v>
+        <v>475.3318284112885</v>
       </c>
     </row>
     <row r="45">
@@ -7703,46 +7703,46 @@
         </is>
       </c>
       <c r="B45" t="n">
-        <v>137.2441409110171</v>
+        <v>132.6502787026334</v>
       </c>
       <c r="C45" t="n">
-        <v>20.03527576299844</v>
+        <v>132.6502787026334</v>
       </c>
       <c r="D45" t="n">
-        <v>20.03527576299844</v>
+        <v>132.6502787026334</v>
       </c>
       <c r="E45" t="n">
-        <v>20.03527576299844</v>
+        <v>132.6502787026334</v>
       </c>
       <c r="F45" t="n">
-        <v>20.03527576299844</v>
+        <v>132.6502787026334</v>
       </c>
       <c r="G45" t="n">
-        <v>20.03527576299844</v>
+        <v>132.6502787026334</v>
       </c>
       <c r="H45" t="n">
-        <v>20.03527576299844</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="I45" t="n">
-        <v>20.03527576299844</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="J45" t="n">
         <v>19.28114311021272</v>
       </c>
       <c r="K45" t="n">
-        <v>65.60123993063803</v>
+        <v>144.6387031680501</v>
       </c>
       <c r="L45" t="n">
-        <v>65.60123993063803</v>
+        <v>374.6018090363993</v>
       </c>
       <c r="M45" t="n">
-        <v>304.2053859195205</v>
+        <v>486.8488635328713</v>
       </c>
       <c r="N45" t="n">
-        <v>542.809531908403</v>
+        <v>725.4530095217538</v>
       </c>
       <c r="O45" t="n">
-        <v>781.4136778972854</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="P45" t="n">
         <v>964.0571555106362</v>
@@ -7751,28 +7751,28 @@
         <v>964.0571555106362</v>
       </c>
       <c r="R45" t="n">
-        <v>964.0571555106362</v>
+        <v>862.8876260635219</v>
       </c>
       <c r="S45" t="n">
-        <v>790.6398109613051</v>
+        <v>862.8876260635219</v>
       </c>
       <c r="T45" t="n">
-        <v>588.4532163200711</v>
+        <v>839.4747818420872</v>
       </c>
       <c r="U45" t="n">
-        <v>588.4532163200711</v>
+        <v>611.2511635784762</v>
       </c>
       <c r="V45" t="n">
-        <v>588.4532163200711</v>
+        <v>376.0990553467335</v>
       </c>
       <c r="W45" t="n">
-        <v>345.004439675971</v>
+        <v>132.6502787026334</v>
       </c>
       <c r="X45" t="n">
-        <v>345.004439675971</v>
+        <v>132.6502787026334</v>
       </c>
       <c r="Y45" t="n">
-        <v>137.2441409110171</v>
+        <v>132.6502787026334</v>
       </c>
     </row>
     <row r="46">
@@ -7827,22 +7827,22 @@
         <v>153.8134336004835</v>
       </c>
       <c r="Q46" t="n">
-        <v>66.78106667958005</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="R46" t="n">
-        <v>66.78106667958005</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="S46" t="n">
-        <v>66.78106667958005</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="T46" t="n">
-        <v>66.78106667958005</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="U46" t="n">
-        <v>66.78106667958005</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="V46" t="n">
-        <v>66.78106667958005</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="W46" t="n">
         <v>19.28114311021272</v>
@@ -7981,22 +7981,22 @@
         <v>169.0966151720738</v>
       </c>
       <c r="K2" t="n">
-        <v>264.2220234242092</v>
+        <v>324.1454125711647</v>
       </c>
       <c r="L2" t="n">
-        <v>279.8985873492159</v>
+        <v>417.6612145504504</v>
       </c>
       <c r="M2" t="n">
-        <v>230.3462332272727</v>
+        <v>449.5135334928325</v>
       </c>
       <c r="N2" t="n">
-        <v>271.7621178998911</v>
+        <v>437.3469244119842</v>
       </c>
       <c r="O2" t="n">
-        <v>274.2303838009153</v>
+        <v>380.8001812627454</v>
       </c>
       <c r="P2" t="n">
-        <v>231.2329957552695</v>
+        <v>321.7987081714826</v>
       </c>
       <c r="Q2" t="n">
         <v>212.3149906599047</v>
@@ -8063,22 +8063,22 @@
         <v>137.841438974359</v>
       </c>
       <c r="L3" t="n">
-        <v>138.5543797798742</v>
+        <v>185.3423563661624</v>
       </c>
       <c r="M3" t="n">
-        <v>184.4830882253185</v>
+        <v>383.1483227996774</v>
       </c>
       <c r="N3" t="n">
-        <v>175.4738844625619</v>
+        <v>372.3560009609923</v>
       </c>
       <c r="O3" t="n">
-        <v>186.728416823673</v>
+        <v>383.6105333221035</v>
       </c>
       <c r="P3" t="n">
-        <v>133.9744074143302</v>
+        <v>318.4627686399372</v>
       </c>
       <c r="Q3" t="n">
-        <v>184.1139464652501</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R3" t="n">
         <v>45.52166981132082</v>
@@ -8218,22 +8218,22 @@
         <v>169.0966151720738</v>
       </c>
       <c r="K5" t="n">
-        <v>262.4389053482807</v>
+        <v>324.1454125711648</v>
       </c>
       <c r="L5" t="n">
-        <v>279.8985873492159</v>
+        <v>417.6612145504504</v>
       </c>
       <c r="M5" t="n">
-        <v>274.4784056065013</v>
+        <v>449.5135334928325</v>
       </c>
       <c r="N5" t="n">
-        <v>273.5452359758195</v>
+        <v>437.3469244119842</v>
       </c>
       <c r="O5" t="n">
-        <v>230.0982114216867</v>
+        <v>380.8001812627454</v>
       </c>
       <c r="P5" t="n">
-        <v>231.2329957552695</v>
+        <v>321.7987081714826</v>
       </c>
       <c r="Q5" t="n">
         <v>212.3149906599047</v>
@@ -8297,25 +8297,25 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K6" t="n">
-        <v>181.9736113535876</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L6" t="n">
-        <v>182.6865521591028</v>
+        <v>138.5543797798742</v>
       </c>
       <c r="M6" t="n">
-        <v>184.4830882253185</v>
+        <v>383.1483227996774</v>
       </c>
       <c r="N6" t="n">
-        <v>131.3417120833333</v>
+        <v>222.4246658592332</v>
       </c>
       <c r="O6" t="n">
-        <v>142.5962444444444</v>
+        <v>383.6105333221035</v>
       </c>
       <c r="P6" t="n">
-        <v>133.9744074143302</v>
+        <v>318.4627686399372</v>
       </c>
       <c r="Q6" t="n">
-        <v>184.1139464652501</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R6" t="n">
         <v>45.52166981132082</v>
@@ -8455,22 +8455,22 @@
         <v>169.0966151720738</v>
       </c>
       <c r="K8" t="n">
-        <v>220.0898510449805</v>
+        <v>324.1454125711647</v>
       </c>
       <c r="L8" t="n">
-        <v>279.8985873492159</v>
+        <v>417.6612145504504</v>
       </c>
       <c r="M8" t="n">
-        <v>272.6952875305729</v>
+        <v>449.5135334928325</v>
       </c>
       <c r="N8" t="n">
-        <v>273.5452359758195</v>
+        <v>437.3469244119842</v>
       </c>
       <c r="O8" t="n">
-        <v>274.2303838009153</v>
+        <v>380.8001812627454</v>
       </c>
       <c r="P8" t="n">
-        <v>231.2329957552695</v>
+        <v>321.7987081714826</v>
       </c>
       <c r="Q8" t="n">
         <v>212.3149906599047</v>
@@ -8537,22 +8537,22 @@
         <v>137.841438974359</v>
       </c>
       <c r="L9" t="n">
-        <v>138.5543797798742</v>
+        <v>370.8403453034592</v>
       </c>
       <c r="M9" t="n">
-        <v>186.2662063012469</v>
+        <v>383.1483227996774</v>
       </c>
       <c r="N9" t="n">
-        <v>131.3417120833333</v>
+        <v>186.8580120236956</v>
       </c>
       <c r="O9" t="n">
-        <v>186.728416823673</v>
+        <v>383.6105333221035</v>
       </c>
       <c r="P9" t="n">
-        <v>178.1065797935588</v>
+        <v>318.4627686399372</v>
       </c>
       <c r="Q9" t="n">
-        <v>182.3308283893217</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R9" t="n">
         <v>45.52166981132082</v>
@@ -8692,22 +8692,22 @@
         <v>169.0966151720738</v>
       </c>
       <c r="K11" t="n">
-        <v>264.2220234242092</v>
+        <v>324.1454125711647</v>
       </c>
       <c r="L11" t="n">
-        <v>279.8985873492159</v>
+        <v>417.6612145504504</v>
       </c>
       <c r="M11" t="n">
-        <v>230.3462332272727</v>
+        <v>449.5135334928325</v>
       </c>
       <c r="N11" t="n">
-        <v>273.5452359758195</v>
+        <v>437.3469244119842</v>
       </c>
       <c r="O11" t="n">
-        <v>272.4472657249869</v>
+        <v>380.8001812627454</v>
       </c>
       <c r="P11" t="n">
-        <v>231.2329957552695</v>
+        <v>321.7987081714826</v>
       </c>
       <c r="Q11" t="n">
         <v>212.3149906599047</v>
@@ -8771,22 +8771,22 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K12" t="n">
-        <v>180.1904932776592</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L12" t="n">
-        <v>138.5543797798742</v>
+        <v>370.8403453034592</v>
       </c>
       <c r="M12" t="n">
-        <v>142.1340339220183</v>
+        <v>383.1483227996774</v>
       </c>
       <c r="N12" t="n">
-        <v>175.4738844625619</v>
+        <v>372.3560009609923</v>
       </c>
       <c r="O12" t="n">
-        <v>186.728416823673</v>
+        <v>255.9771075721939</v>
       </c>
       <c r="P12" t="n">
-        <v>178.1065797935588</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q12" t="n">
         <v>139.9817740860215</v>
@@ -8929,22 +8929,22 @@
         <v>169.0966151720738</v>
       </c>
       <c r="K14" t="n">
-        <v>262.4389053482807</v>
+        <v>324.1454125711648</v>
       </c>
       <c r="L14" t="n">
-        <v>279.8985873492159</v>
+        <v>417.6612145504504</v>
       </c>
       <c r="M14" t="n">
-        <v>274.4784056065013</v>
+        <v>449.5135334928325</v>
       </c>
       <c r="N14" t="n">
-        <v>229.4130635965909</v>
+        <v>437.3469244119842</v>
       </c>
       <c r="O14" t="n">
-        <v>230.0982114216867</v>
+        <v>380.8001812627454</v>
       </c>
       <c r="P14" t="n">
-        <v>275.3651681344982</v>
+        <v>321.7987081714826</v>
       </c>
       <c r="Q14" t="n">
         <v>212.3149906599047</v>
@@ -9008,22 +9008,22 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K15" t="n">
-        <v>137.841438974359</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L15" t="n">
-        <v>138.5543797798742</v>
+        <v>370.8403453034592</v>
       </c>
       <c r="M15" t="n">
-        <v>186.2662063012469</v>
+        <v>312.04082470182</v>
       </c>
       <c r="N15" t="n">
-        <v>173.6907663866335</v>
+        <v>131.3417120833333</v>
       </c>
       <c r="O15" t="n">
-        <v>186.728416823673</v>
+        <v>383.6105333221035</v>
       </c>
       <c r="P15" t="n">
-        <v>178.1065797935588</v>
+        <v>318.4627686399372</v>
       </c>
       <c r="Q15" t="n">
         <v>139.9817740860215</v>
@@ -9245,25 +9245,25 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K18" t="n">
-        <v>137.841438974359</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L18" t="n">
         <v>370.8403453034592</v>
       </c>
       <c r="M18" t="n">
-        <v>312.0431814381598</v>
+        <v>142.1340339220183</v>
       </c>
       <c r="N18" t="n">
-        <v>372.3560009609923</v>
+        <v>301.248502863135</v>
       </c>
       <c r="O18" t="n">
         <v>383.6105333221035</v>
       </c>
       <c r="P18" t="n">
-        <v>133.9744074143302</v>
+        <v>318.4627686399372</v>
       </c>
       <c r="Q18" t="n">
-        <v>210.0772877358491</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R18" t="n">
         <v>45.52166981132082</v>
@@ -9482,16 +9482,16 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K21" t="n">
-        <v>137.841438974359</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L21" t="n">
         <v>370.8403453034592</v>
       </c>
       <c r="M21" t="n">
-        <v>368.5691090902119</v>
+        <v>142.1340339220183</v>
       </c>
       <c r="N21" t="n">
-        <v>131.3417120833333</v>
+        <v>231.1529892133073</v>
       </c>
       <c r="O21" t="n">
         <v>383.6105333221035</v>
@@ -9719,13 +9719,13 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K24" t="n">
-        <v>137.841438974359</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L24" t="n">
         <v>370.8403453034592</v>
       </c>
       <c r="M24" t="n">
-        <v>382.1386950879875</v>
+        <v>255.5148970497678</v>
       </c>
       <c r="N24" t="n">
         <v>372.3560009609923</v>
@@ -9962,16 +9962,16 @@
         <v>370.8403453034592</v>
       </c>
       <c r="M27" t="n">
-        <v>383.1483227996774</v>
+        <v>142.1340339220183</v>
       </c>
       <c r="N27" t="n">
-        <v>372.3560009609923</v>
+        <v>231.1529892133073</v>
       </c>
       <c r="O27" t="n">
-        <v>185.8815939223662</v>
+        <v>383.6105333221035</v>
       </c>
       <c r="P27" t="n">
-        <v>133.9744074143302</v>
+        <v>318.4627686399372</v>
       </c>
       <c r="Q27" t="n">
         <v>210.0772877358491</v>
@@ -10196,13 +10196,13 @@
         <v>264.4652370125786</v>
       </c>
       <c r="L30" t="n">
-        <v>370.8403453034592</v>
+        <v>138.5543797798742</v>
       </c>
       <c r="M30" t="n">
-        <v>142.1340339220183</v>
+        <v>233.2169876979182</v>
       </c>
       <c r="N30" t="n">
-        <v>301.248502863135</v>
+        <v>372.3560009609923</v>
       </c>
       <c r="O30" t="n">
         <v>383.6105333221035</v>
@@ -10211,7 +10211,7 @@
         <v>318.4627686399372</v>
       </c>
       <c r="Q30" t="n">
-        <v>139.9817740860215</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R30" t="n">
         <v>45.52166981132082</v>
@@ -10430,7 +10430,7 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K33" t="n">
-        <v>137.841438974359</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L33" t="n">
         <v>370.8403453034592</v>
@@ -10439,10 +10439,10 @@
         <v>383.1483227996774</v>
       </c>
       <c r="N33" t="n">
-        <v>371.3463732493024</v>
+        <v>372.3560009609923</v>
       </c>
       <c r="O33" t="n">
-        <v>383.6105333221035</v>
+        <v>255.9771075721939</v>
       </c>
       <c r="P33" t="n">
         <v>133.9744074143302</v>
@@ -10667,25 +10667,25 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K36" t="n">
-        <v>137.841438974359</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L36" t="n">
         <v>370.8403453034592</v>
       </c>
       <c r="M36" t="n">
-        <v>312.0431814381598</v>
+        <v>312.04082470182</v>
       </c>
       <c r="N36" t="n">
-        <v>372.3560009609923</v>
+        <v>131.3417120833333</v>
       </c>
       <c r="O36" t="n">
         <v>383.6105333221035</v>
       </c>
       <c r="P36" t="n">
-        <v>133.9744074143302</v>
+        <v>318.4627686399372</v>
       </c>
       <c r="Q36" t="n">
-        <v>210.0772877358491</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R36" t="n">
         <v>45.52166981132082</v>
@@ -10904,7 +10904,7 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K39" t="n">
-        <v>137.841438974359</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L39" t="n">
         <v>370.8403453034592</v>
@@ -10913,16 +10913,16 @@
         <v>383.1483227996774</v>
       </c>
       <c r="N39" t="n">
-        <v>131.3417120833333</v>
+        <v>372.3560009609923</v>
       </c>
       <c r="O39" t="n">
-        <v>369.031319612638</v>
+        <v>255.9771075721939</v>
       </c>
       <c r="P39" t="n">
-        <v>318.4627686399372</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q39" t="n">
-        <v>210.0772877358491</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R39" t="n">
         <v>45.52166981132082</v>
@@ -11141,25 +11141,25 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K42" t="n">
-        <v>137.841438974359</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L42" t="n">
         <v>370.8403453034592</v>
       </c>
       <c r="M42" t="n">
-        <v>368.5691090902119</v>
+        <v>383.1483227996774</v>
       </c>
       <c r="N42" t="n">
-        <v>372.3560009609923</v>
+        <v>244.7225752110828</v>
       </c>
       <c r="O42" t="n">
-        <v>142.5962444444444</v>
+        <v>383.6105333221035</v>
       </c>
       <c r="P42" t="n">
-        <v>318.4627686399372</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q42" t="n">
-        <v>210.0772877358491</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R42" t="n">
         <v>45.52166981132082</v>
@@ -11378,13 +11378,13 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K45" t="n">
-        <v>184.6294155606472</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L45" t="n">
-        <v>138.5543797798742</v>
+        <v>370.8403453034592</v>
       </c>
       <c r="M45" t="n">
-        <v>383.1483227996774</v>
+        <v>255.5148970497678</v>
       </c>
       <c r="N45" t="n">
         <v>372.3560009609923</v>
@@ -11393,7 +11393,7 @@
         <v>383.6105333221035</v>
       </c>
       <c r="P45" t="n">
-        <v>318.4627686399372</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q45" t="n">
         <v>139.9817740860215</v>
@@ -22558,19 +22558,19 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F2" t="n">
-        <v>379.9537176646994</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G2" t="n">
-        <v>371.1705651359065</v>
+        <v>415.302737515135</v>
       </c>
       <c r="H2" t="n">
-        <v>295.3426297365386</v>
+        <v>339.4748021157671</v>
       </c>
       <c r="I2" t="n">
-        <v>166.3437171911773</v>
+        <v>210.4758895704059</v>
       </c>
       <c r="J2" t="n">
-        <v>0</v>
+        <v>11.94928935461252</v>
       </c>
       <c r="K2" t="n">
         <v>0</v>
@@ -22591,28 +22591,28 @@
         <v>0</v>
       </c>
       <c r="Q2" t="n">
-        <v>9.990699214544804</v>
+        <v>0</v>
       </c>
       <c r="R2" t="n">
         <v>149.8691179411497</v>
       </c>
       <c r="S2" t="n">
-        <v>209.0200695862453</v>
+        <v>6.725383157348119</v>
       </c>
       <c r="T2" t="n">
         <v>223.0958495641314</v>
       </c>
       <c r="U2" t="n">
-        <v>251.3456529078365</v>
+        <v>10.33136403017744</v>
       </c>
       <c r="V2" t="n">
         <v>327.7522584701349</v>
       </c>
       <c r="W2" t="n">
-        <v>349.240968717413</v>
+        <v>108.226679839754</v>
       </c>
       <c r="X2" t="n">
-        <v>369.731100678469</v>
+        <v>128.71681180081</v>
       </c>
       <c r="Y2" t="n">
         <v>386.2379386560536</v>
@@ -22625,7 +22625,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>166.5331836498673</v>
+        <v>0</v>
       </c>
       <c r="C3" t="n">
         <v>172.7084989883157</v>
@@ -22649,7 +22649,7 @@
         <v>89.39663285141508</v>
       </c>
       <c r="J3" t="n">
-        <v>0.7465913262578567</v>
+        <v>0</v>
       </c>
       <c r="K3" t="n">
         <v>0</v>
@@ -22673,22 +22673,22 @@
         <v>0</v>
       </c>
       <c r="R3" t="n">
-        <v>56.02566177341454</v>
+        <v>100.1578341526431</v>
       </c>
       <c r="S3" t="n">
-        <v>127.5509987246092</v>
+        <v>0</v>
       </c>
       <c r="T3" t="n">
-        <v>156.032556315593</v>
+        <v>200.1647286948216</v>
       </c>
       <c r="U3" t="n">
-        <v>187.0697646493503</v>
+        <v>103.3909519116029</v>
       </c>
       <c r="V3" t="n">
-        <v>232.8005871494253</v>
+        <v>0</v>
       </c>
       <c r="W3" t="n">
-        <v>251.6949831609196</v>
+        <v>10.68069428326055</v>
       </c>
       <c r="X3" t="n">
         <v>205.7729852034775</v>
@@ -22746,16 +22746,16 @@
         <v>0</v>
       </c>
       <c r="P4" t="n">
-        <v>1.930990287424243</v>
+        <v>2.721440735106512</v>
       </c>
       <c r="Q4" t="n">
-        <v>42.02987087246579</v>
+        <v>86.16204325169439</v>
       </c>
       <c r="R4" t="n">
-        <v>133.1612189979409</v>
+        <v>44.10642379180146</v>
       </c>
       <c r="S4" t="n">
-        <v>179.8844256577437</v>
+        <v>224.0165980369723</v>
       </c>
       <c r="T4" t="n">
         <v>227.9455894282815</v>
@@ -22786,7 +22786,7 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C5" t="n">
-        <v>365.2728917710076</v>
+        <v>124.2586028933485</v>
       </c>
       <c r="D5" t="n">
         <v>354.683041620683</v>
@@ -22795,19 +22795,19 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F5" t="n">
-        <v>389.9444168792442</v>
+        <v>322.4562579625502</v>
       </c>
       <c r="G5" t="n">
-        <v>371.1705651359065</v>
+        <v>415.302737515135</v>
       </c>
       <c r="H5" t="n">
-        <v>295.3426297365386</v>
+        <v>339.4748021157671</v>
       </c>
       <c r="I5" t="n">
-        <v>166.3437171911773</v>
+        <v>210.4758895704059</v>
       </c>
       <c r="J5" t="n">
-        <v>0</v>
+        <v>11.94928935461252</v>
       </c>
       <c r="K5" t="n">
         <v>0</v>
@@ -22831,10 +22831,10 @@
         <v>0</v>
       </c>
       <c r="R5" t="n">
-        <v>149.8691179411497</v>
+        <v>0</v>
       </c>
       <c r="S5" t="n">
-        <v>209.0200695862453</v>
+        <v>0</v>
       </c>
       <c r="T5" t="n">
         <v>223.0958495641314</v>
@@ -22852,7 +22852,7 @@
         <v>369.731100678469</v>
       </c>
       <c r="Y5" t="n">
-        <v>386.2379386560536</v>
+        <v>145.2236497783945</v>
       </c>
     </row>
     <row r="6">
@@ -22871,16 +22871,16 @@
         <v>147.4450655646388</v>
       </c>
       <c r="E6" t="n">
-        <v>113.5129080761724</v>
+        <v>157.6450804554009</v>
       </c>
       <c r="F6" t="n">
-        <v>100.9370400141553</v>
+        <v>0</v>
       </c>
       <c r="G6" t="n">
-        <v>93.21134478398204</v>
+        <v>6.265029750451532</v>
       </c>
       <c r="H6" t="n">
-        <v>73.36382680487192</v>
+        <v>0</v>
       </c>
       <c r="I6" t="n">
         <v>89.39663285141508</v>
@@ -22910,7 +22910,7 @@
         <v>0</v>
       </c>
       <c r="R6" t="n">
-        <v>100.1578341526431</v>
+        <v>0</v>
       </c>
       <c r="S6" t="n">
         <v>171.6831711038378</v>
@@ -22925,10 +22925,10 @@
         <v>232.8005871494253</v>
       </c>
       <c r="W6" t="n">
-        <v>251.6949831609196</v>
+        <v>10.68069428326055</v>
       </c>
       <c r="X6" t="n">
-        <v>205.7729852034775</v>
+        <v>0</v>
       </c>
       <c r="Y6" t="n">
         <v>205.6826957773044</v>
@@ -22983,19 +22983,19 @@
         <v>0</v>
       </c>
       <c r="P7" t="n">
-        <v>0</v>
+        <v>2.721440735106512</v>
       </c>
       <c r="Q7" t="n">
-        <v>42.02987087246579</v>
+        <v>86.16204325169439</v>
       </c>
       <c r="R7" t="n">
-        <v>133.1612189979409</v>
+        <v>177.2933913771695</v>
       </c>
       <c r="S7" t="n">
-        <v>181.8154159451679</v>
+        <v>224.0165980369723</v>
       </c>
       <c r="T7" t="n">
-        <v>227.9455894282815</v>
+        <v>94.75862184291347</v>
       </c>
       <c r="U7" t="n">
         <v>286.3190293564909</v>
@@ -23020,7 +23020,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>382.7338416634806</v>
+        <v>141.7195527858215</v>
       </c>
       <c r="C8" t="n">
         <v>365.2728917710076</v>
@@ -23044,7 +23044,7 @@
         <v>210.4758895704059</v>
       </c>
       <c r="J8" t="n">
-        <v>0</v>
+        <v>11.94928935461252</v>
       </c>
       <c r="K8" t="n">
         <v>0</v>
@@ -23068,19 +23068,19 @@
         <v>0</v>
       </c>
       <c r="R8" t="n">
-        <v>105.7369455619211</v>
+        <v>149.8691179411497</v>
       </c>
       <c r="S8" t="n">
-        <v>164.8878972070167</v>
+        <v>209.0200695862453</v>
       </c>
       <c r="T8" t="n">
-        <v>178.9636771849028</v>
+        <v>223.0958495641314</v>
       </c>
       <c r="U8" t="n">
-        <v>234.4140240453693</v>
+        <v>49.05096647893927</v>
       </c>
       <c r="V8" t="n">
-        <v>327.7522584701349</v>
+        <v>86.73796959247585</v>
       </c>
       <c r="W8" t="n">
         <v>349.240968717413</v>
@@ -23089,7 +23089,7 @@
         <v>369.731100678469</v>
       </c>
       <c r="Y8" t="n">
-        <v>386.2379386560536</v>
+        <v>145.2236497783945</v>
       </c>
     </row>
     <row r="9">
@@ -23111,13 +23111,13 @@
         <v>157.6450804554009</v>
       </c>
       <c r="F9" t="n">
-        <v>100.9370400141553</v>
+        <v>145.0692123933839</v>
       </c>
       <c r="G9" t="n">
-        <v>93.21134478398204</v>
+        <v>137.3435171632106</v>
       </c>
       <c r="H9" t="n">
-        <v>68.10327185726787</v>
+        <v>112.2354442364965</v>
       </c>
       <c r="I9" t="n">
         <v>89.39663285141508</v>
@@ -23147,7 +23147,7 @@
         <v>0</v>
       </c>
       <c r="R9" t="n">
-        <v>61.28621672101858</v>
+        <v>70.35882518776062</v>
       </c>
       <c r="S9" t="n">
         <v>171.6831711038378</v>
@@ -23156,16 +23156,16 @@
         <v>200.1647286948216</v>
       </c>
       <c r="U9" t="n">
-        <v>225.9413820809748</v>
+        <v>0</v>
       </c>
       <c r="V9" t="n">
-        <v>232.8005871494253</v>
+        <v>0</v>
       </c>
       <c r="W9" t="n">
-        <v>251.6949831609196</v>
+        <v>10.68069428326055</v>
       </c>
       <c r="X9" t="n">
-        <v>205.7729852034775</v>
+        <v>0</v>
       </c>
       <c r="Y9" t="n">
         <v>205.6826957773044</v>
@@ -23196,16 +23196,16 @@
         <v>167.9909793584588</v>
       </c>
       <c r="H10" t="n">
-        <v>139.5740415064116</v>
+        <v>162.2271725074396</v>
       </c>
       <c r="I10" t="n">
-        <v>111.3183025480297</v>
+        <v>155.4504749272583</v>
       </c>
       <c r="J10" t="n">
-        <v>49.22700773744418</v>
+        <v>93.35918011667277</v>
       </c>
       <c r="K10" t="n">
-        <v>0</v>
+        <v>22.26949182588285</v>
       </c>
       <c r="L10" t="n">
         <v>0</v>
@@ -23241,7 +23241,7 @@
         <v>252.137643323828</v>
       </c>
       <c r="W10" t="n">
-        <v>286.522998336591</v>
+        <v>153.336030751223</v>
       </c>
       <c r="X10" t="n">
         <v>225.7096553890372</v>
@@ -23257,7 +23257,7 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>382.7338416634806</v>
+        <v>141.7195527858215</v>
       </c>
       <c r="C11" t="n">
         <v>365.2728917710076</v>
@@ -23269,7 +23269,7 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F11" t="n">
-        <v>406.8760457417114</v>
+        <v>165.8617568640524</v>
       </c>
       <c r="G11" t="n">
         <v>415.302737515135</v>
@@ -23278,10 +23278,10 @@
         <v>339.4748021157671</v>
       </c>
       <c r="I11" t="n">
-        <v>183.5535614933939</v>
+        <v>158.0503210826583</v>
       </c>
       <c r="J11" t="n">
-        <v>0</v>
+        <v>11.94928935461252</v>
       </c>
       <c r="K11" t="n">
         <v>0</v>
@@ -23302,10 +23302,10 @@
         <v>0</v>
       </c>
       <c r="Q11" t="n">
-        <v>9.990699214544804</v>
+        <v>0</v>
       </c>
       <c r="R11" t="n">
-        <v>149.8691179411497</v>
+        <v>0</v>
       </c>
       <c r="S11" t="n">
         <v>209.0200695862453</v>
@@ -23314,13 +23314,13 @@
         <v>223.0958495641314</v>
       </c>
       <c r="U11" t="n">
-        <v>207.2134805286079</v>
+        <v>251.3456529078365</v>
       </c>
       <c r="V11" t="n">
-        <v>283.6200860909063</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W11" t="n">
-        <v>305.1087963381844</v>
+        <v>108.226679839754</v>
       </c>
       <c r="X11" t="n">
         <v>369.731100678469</v>
@@ -23357,7 +23357,7 @@
         <v>112.2354442364965</v>
       </c>
       <c r="I12" t="n">
-        <v>50.52501541979053</v>
+        <v>89.39663285141508</v>
       </c>
       <c r="J12" t="n">
         <v>0.7465913262578567</v>
@@ -23384,28 +23384,28 @@
         <v>0</v>
       </c>
       <c r="R12" t="n">
-        <v>56.02566177341454</v>
+        <v>0</v>
       </c>
       <c r="S12" t="n">
-        <v>127.5509987246092</v>
+        <v>9.151119716000068</v>
       </c>
       <c r="T12" t="n">
-        <v>156.032556315593</v>
+        <v>200.1647286948216</v>
       </c>
       <c r="U12" t="n">
-        <v>225.9413820809748</v>
+        <v>0</v>
       </c>
       <c r="V12" t="n">
         <v>232.8005871494253</v>
       </c>
       <c r="W12" t="n">
-        <v>251.6949831609196</v>
+        <v>10.68069428326055</v>
       </c>
       <c r="X12" t="n">
         <v>205.7729852034775</v>
       </c>
       <c r="Y12" t="n">
-        <v>205.6826957773044</v>
+        <v>0</v>
       </c>
     </row>
     <row r="13">
@@ -23457,16 +23457,16 @@
         <v>0</v>
       </c>
       <c r="P13" t="n">
-        <v>0</v>
+        <v>2.721440735106512</v>
       </c>
       <c r="Q13" t="n">
-        <v>42.02987087246579</v>
+        <v>86.16204325169439</v>
       </c>
       <c r="R13" t="n">
-        <v>133.1612189979409</v>
+        <v>44.10642379180146</v>
       </c>
       <c r="S13" t="n">
-        <v>181.8154159451679</v>
+        <v>224.0165980369723</v>
       </c>
       <c r="T13" t="n">
         <v>227.9455894282815</v>
@@ -23509,13 +23509,13 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G14" t="n">
-        <v>371.1705651359065</v>
+        <v>415.302737515135</v>
       </c>
       <c r="H14" t="n">
-        <v>300.6031846841426</v>
+        <v>339.4748021157671</v>
       </c>
       <c r="I14" t="n">
-        <v>166.3437171911773</v>
+        <v>158.0503210826583</v>
       </c>
       <c r="J14" t="n">
         <v>11.94928935461252</v>
@@ -23539,10 +23539,10 @@
         <v>0</v>
       </c>
       <c r="Q14" t="n">
-        <v>9.990699214544804</v>
+        <v>0</v>
       </c>
       <c r="R14" t="n">
-        <v>105.7369455619211</v>
+        <v>0</v>
       </c>
       <c r="S14" t="n">
         <v>209.0200695862453</v>
@@ -23551,19 +23551,19 @@
         <v>223.0958495641314</v>
       </c>
       <c r="U14" t="n">
-        <v>251.3456529078365</v>
+        <v>10.33136403017744</v>
       </c>
       <c r="V14" t="n">
         <v>327.7522584701349</v>
       </c>
       <c r="W14" t="n">
-        <v>349.240968717413</v>
+        <v>108.226679839754</v>
       </c>
       <c r="X14" t="n">
         <v>369.731100678469</v>
       </c>
       <c r="Y14" t="n">
-        <v>386.2379386560536</v>
+        <v>145.2236497783945</v>
       </c>
     </row>
     <row r="15">
@@ -23591,10 +23591,10 @@
         <v>137.3435171632106</v>
       </c>
       <c r="H15" t="n">
-        <v>68.10327185726787</v>
+        <v>112.2354442364965</v>
       </c>
       <c r="I15" t="n">
-        <v>45.26446047218649</v>
+        <v>89.39663285141508</v>
       </c>
       <c r="J15" t="n">
         <v>0.7465913262578567</v>
@@ -23621,22 +23621,22 @@
         <v>0</v>
       </c>
       <c r="R15" t="n">
-        <v>56.02566177341454</v>
+        <v>100.1578341526431</v>
       </c>
       <c r="S15" t="n">
-        <v>132.8115536722133</v>
+        <v>136.2759056302995</v>
       </c>
       <c r="T15" t="n">
-        <v>200.1647286948216</v>
+        <v>0</v>
       </c>
       <c r="U15" t="n">
-        <v>225.9413820809748</v>
+        <v>0</v>
       </c>
       <c r="V15" t="n">
-        <v>232.8005871494253</v>
+        <v>0</v>
       </c>
       <c r="W15" t="n">
-        <v>251.6949831609196</v>
+        <v>10.68069428326055</v>
       </c>
       <c r="X15" t="n">
         <v>205.7729852034775</v>
@@ -23676,10 +23676,10 @@
         <v>155.4504749272583</v>
       </c>
       <c r="J16" t="n">
-        <v>73.42748985075127</v>
+        <v>93.35918011667277</v>
       </c>
       <c r="K16" t="n">
-        <v>0</v>
+        <v>22.26949182588285</v>
       </c>
       <c r="L16" t="n">
         <v>0</v>
@@ -23694,19 +23694,19 @@
         <v>0</v>
       </c>
       <c r="P16" t="n">
-        <v>0</v>
+        <v>2.721440735106512</v>
       </c>
       <c r="Q16" t="n">
-        <v>42.02987087246579</v>
+        <v>86.16204325169439</v>
       </c>
       <c r="R16" t="n">
-        <v>133.1612189979409</v>
+        <v>177.2933913771695</v>
       </c>
       <c r="S16" t="n">
         <v>224.0165980369723</v>
       </c>
       <c r="T16" t="n">
-        <v>227.9455894282815</v>
+        <v>94.75862184291347</v>
       </c>
       <c r="U16" t="n">
         <v>286.3190293564909</v>
@@ -23743,16 +23743,16 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F17" t="n">
-        <v>406.8760457417114</v>
+        <v>313.921378732166</v>
       </c>
       <c r="G17" t="n">
-        <v>415.302737515135</v>
+        <v>174.288448637476</v>
       </c>
       <c r="H17" t="n">
         <v>339.4748021157671</v>
       </c>
       <c r="I17" t="n">
-        <v>210.4758895704059</v>
+        <v>0</v>
       </c>
       <c r="J17" t="n">
         <v>11.94928935461252</v>
@@ -23776,22 +23776,22 @@
         <v>0</v>
       </c>
       <c r="Q17" t="n">
-        <v>0</v>
+        <v>9.990699214544804</v>
       </c>
       <c r="R17" t="n">
         <v>0</v>
       </c>
       <c r="S17" t="n">
-        <v>0</v>
+        <v>209.0200695862453</v>
       </c>
       <c r="T17" t="n">
-        <v>0</v>
+        <v>223.0958495641314</v>
       </c>
       <c r="U17" t="n">
-        <v>10.33136403017744</v>
+        <v>251.3456529078365</v>
       </c>
       <c r="V17" t="n">
-        <v>225.414031377446</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W17" t="n">
         <v>349.240968717413</v>
@@ -23800,7 +23800,7 @@
         <v>369.731100678469</v>
       </c>
       <c r="Y17" t="n">
-        <v>386.2379386560536</v>
+        <v>145.2236497783945</v>
       </c>
     </row>
     <row r="18">
@@ -23813,22 +23813,22 @@
         <v>166.5331836498673</v>
       </c>
       <c r="C18" t="n">
-        <v>27.26179070270013</v>
+        <v>172.7084989883157</v>
       </c>
       <c r="D18" t="n">
-        <v>0</v>
+        <v>147.4450655646388</v>
       </c>
       <c r="E18" t="n">
-        <v>0</v>
+        <v>157.6450804554009</v>
       </c>
       <c r="F18" t="n">
-        <v>0</v>
+        <v>145.0692123933839</v>
       </c>
       <c r="G18" t="n">
-        <v>0</v>
+        <v>137.3435171632106</v>
       </c>
       <c r="H18" t="n">
-        <v>0</v>
+        <v>112.2354442364965</v>
       </c>
       <c r="I18" t="n">
         <v>0</v>
@@ -23867,16 +23867,16 @@
         <v>200.1647286948216</v>
       </c>
       <c r="U18" t="n">
-        <v>225.9413820809748</v>
+        <v>0</v>
       </c>
       <c r="V18" t="n">
-        <v>232.8005871494253</v>
+        <v>0</v>
       </c>
       <c r="W18" t="n">
-        <v>251.6949831609196</v>
+        <v>10.68069428326055</v>
       </c>
       <c r="X18" t="n">
-        <v>205.7729852034775</v>
+        <v>60.34421521279029</v>
       </c>
       <c r="Y18" t="n">
         <v>205.6826957773044</v>
@@ -23949,10 +23949,10 @@
         <v>286.3190293564909</v>
       </c>
       <c r="V19" t="n">
-        <v>118.95067573846</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W19" t="n">
-        <v>286.522998336591</v>
+        <v>153.336030751223</v>
       </c>
       <c r="X19" t="n">
         <v>225.7096553890372</v>
@@ -23971,19 +23971,19 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C20" t="n">
-        <v>365.2728917710076</v>
+        <v>324.7966126378724</v>
       </c>
       <c r="D20" t="n">
         <v>354.683041620683</v>
       </c>
       <c r="E20" t="n">
-        <v>140.9160811946027</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F20" t="n">
-        <v>406.8760457417114</v>
+        <v>165.8617568640524</v>
       </c>
       <c r="G20" t="n">
-        <v>181.0138317948241</v>
+        <v>174.288448637476</v>
       </c>
       <c r="H20" t="n">
         <v>339.4748021157671</v>
@@ -23992,7 +23992,7 @@
         <v>210.4758895704059</v>
       </c>
       <c r="J20" t="n">
-        <v>11.94928935461252</v>
+        <v>0</v>
       </c>
       <c r="K20" t="n">
         <v>0</v>
@@ -24016,16 +24016,16 @@
         <v>0</v>
       </c>
       <c r="R20" t="n">
-        <v>149.8691179411497</v>
+        <v>0</v>
       </c>
       <c r="S20" t="n">
-        <v>0</v>
+        <v>209.0200695862453</v>
       </c>
       <c r="T20" t="n">
         <v>223.0958495641314</v>
       </c>
       <c r="U20" t="n">
-        <v>10.33136403017744</v>
+        <v>251.3456529078365</v>
       </c>
       <c r="V20" t="n">
         <v>327.7522584701349</v>
@@ -24037,7 +24037,7 @@
         <v>369.731100678469</v>
       </c>
       <c r="Y20" t="n">
-        <v>386.2379386560536</v>
+        <v>145.2236497783945</v>
       </c>
     </row>
     <row r="21">
@@ -24056,13 +24056,13 @@
         <v>147.4450655646388</v>
       </c>
       <c r="E21" t="n">
-        <v>157.6450804554009</v>
+        <v>43.57958501361927</v>
       </c>
       <c r="F21" t="n">
-        <v>145.0692123933839</v>
+        <v>0</v>
       </c>
       <c r="G21" t="n">
-        <v>83.98179453152258</v>
+        <v>137.3435171632106</v>
       </c>
       <c r="H21" t="n">
         <v>0</v>
@@ -24113,7 +24113,7 @@
         <v>10.68069428326055</v>
       </c>
       <c r="X21" t="n">
-        <v>0</v>
+        <v>205.7729852034775</v>
       </c>
       <c r="Y21" t="n">
         <v>205.6826957773044</v>
@@ -24174,7 +24174,7 @@
         <v>86.16204325169439</v>
       </c>
       <c r="R22" t="n">
-        <v>177.2933913771695</v>
+        <v>44.10642379180146</v>
       </c>
       <c r="S22" t="n">
         <v>224.0165980369723</v>
@@ -24195,7 +24195,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y22" t="n">
-        <v>85.39768576672677</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="23">
@@ -24211,19 +24211,19 @@
         <v>365.2728917710076</v>
       </c>
       <c r="D23" t="n">
-        <v>354.683041620683</v>
+        <v>113.6687527430239</v>
       </c>
       <c r="E23" t="n">
         <v>381.9303700722618</v>
       </c>
       <c r="F23" t="n">
-        <v>406.8760457417114</v>
+        <v>165.8617568640524</v>
       </c>
       <c r="G23" t="n">
         <v>415.302737515135</v>
       </c>
       <c r="H23" t="n">
-        <v>339.4748021157671</v>
+        <v>336.2094860585705</v>
       </c>
       <c r="I23" t="n">
         <v>210.4758895704059</v>
@@ -24253,7 +24253,7 @@
         <v>9.990699214544804</v>
       </c>
       <c r="R23" t="n">
-        <v>0</v>
+        <v>149.8691179411497</v>
       </c>
       <c r="S23" t="n">
         <v>0</v>
@@ -24262,13 +24262,13 @@
         <v>223.0958495641314</v>
       </c>
       <c r="U23" t="n">
-        <v>10.33136403017744</v>
+        <v>251.3456529078365</v>
       </c>
       <c r="V23" t="n">
-        <v>86.73796959247585</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W23" t="n">
-        <v>254.830481723707</v>
+        <v>108.226679839754</v>
       </c>
       <c r="X23" t="n">
         <v>369.731100678469</v>
@@ -24293,19 +24293,19 @@
         <v>147.4450655646388</v>
       </c>
       <c r="E24" t="n">
-        <v>0</v>
+        <v>157.6450804554009</v>
       </c>
       <c r="F24" t="n">
         <v>145.0692123933839</v>
       </c>
       <c r="G24" t="n">
-        <v>76.54427652677356</v>
+        <v>137.3435171632106</v>
       </c>
       <c r="H24" t="n">
-        <v>0</v>
+        <v>112.2354442364965</v>
       </c>
       <c r="I24" t="n">
-        <v>89.39663285141508</v>
+        <v>0</v>
       </c>
       <c r="J24" t="n">
         <v>0.7465913262578567</v>
@@ -24335,22 +24335,22 @@
         <v>100.1578341526431</v>
       </c>
       <c r="S24" t="n">
-        <v>0</v>
+        <v>171.6831711038378</v>
       </c>
       <c r="T24" t="n">
-        <v>0</v>
+        <v>200.1647286948216</v>
       </c>
       <c r="U24" t="n">
-        <v>225.9413820809748</v>
+        <v>0</v>
       </c>
       <c r="V24" t="n">
         <v>0</v>
       </c>
       <c r="W24" t="n">
-        <v>251.6949831609196</v>
+        <v>10.68069428326055</v>
       </c>
       <c r="X24" t="n">
-        <v>205.7729852034775</v>
+        <v>59.59762388653243</v>
       </c>
       <c r="Y24" t="n">
         <v>205.6826957773044</v>
@@ -24426,13 +24426,13 @@
         <v>252.137643323828</v>
       </c>
       <c r="W25" t="n">
-        <v>286.522998336591</v>
+        <v>153.336030751223</v>
       </c>
       <c r="X25" t="n">
         <v>225.7096553890372</v>
       </c>
       <c r="Y25" t="n">
-        <v>85.3976857667268</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="26">
@@ -24445,7 +24445,7 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C26" t="n">
-        <v>152.9875061275654</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D26" t="n">
         <v>113.6687527430239</v>
@@ -24490,7 +24490,7 @@
         <v>9.990699214544804</v>
       </c>
       <c r="R26" t="n">
-        <v>149.8691179411497</v>
+        <v>0</v>
       </c>
       <c r="S26" t="n">
         <v>209.0200695862453</v>
@@ -24502,13 +24502,13 @@
         <v>251.3456529078365</v>
       </c>
       <c r="V26" t="n">
-        <v>327.7522584701349</v>
+        <v>265.3359907678426</v>
       </c>
       <c r="W26" t="n">
-        <v>349.240968717413</v>
+        <v>108.226679839754</v>
       </c>
       <c r="X26" t="n">
-        <v>128.71681180081</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y26" t="n">
         <v>386.2379386560536</v>
@@ -24524,28 +24524,28 @@
         <v>166.5331836498673</v>
       </c>
       <c r="C27" t="n">
-        <v>27.26179070270013</v>
+        <v>172.7084989883157</v>
       </c>
       <c r="D27" t="n">
-        <v>0</v>
+        <v>147.4450655646388</v>
       </c>
       <c r="E27" t="n">
-        <v>0</v>
+        <v>157.6450804554009</v>
       </c>
       <c r="F27" t="n">
-        <v>0</v>
+        <v>145.0692123933839</v>
       </c>
       <c r="G27" t="n">
-        <v>0</v>
+        <v>137.3435171632106</v>
       </c>
       <c r="H27" t="n">
-        <v>0</v>
+        <v>112.2354442364965</v>
       </c>
       <c r="I27" t="n">
-        <v>0</v>
+        <v>89.39663285141508</v>
       </c>
       <c r="J27" t="n">
-        <v>0</v>
+        <v>0.7465913262578567</v>
       </c>
       <c r="K27" t="n">
         <v>0</v>
@@ -24578,19 +24578,19 @@
         <v>200.1647286948216</v>
       </c>
       <c r="U27" t="n">
-        <v>225.9413820809748</v>
+        <v>0</v>
       </c>
       <c r="V27" t="n">
-        <v>232.8005871494253</v>
+        <v>0</v>
       </c>
       <c r="W27" t="n">
-        <v>251.6949831609196</v>
+        <v>10.68069428326055</v>
       </c>
       <c r="X27" t="n">
-        <v>205.7729852034775</v>
+        <v>175.8836868124217</v>
       </c>
       <c r="Y27" t="n">
-        <v>205.6826957773044</v>
+        <v>0</v>
       </c>
     </row>
     <row r="28">
@@ -24618,7 +24618,7 @@
         <v>167.9909793584588</v>
       </c>
       <c r="H28" t="n">
-        <v>162.2271725074396</v>
+        <v>29.04020492207155</v>
       </c>
       <c r="I28" t="n">
         <v>155.4504749272583</v>
@@ -24651,7 +24651,7 @@
         <v>177.2933913771695</v>
       </c>
       <c r="S28" t="n">
-        <v>90.82963045160423</v>
+        <v>224.0165980369723</v>
       </c>
       <c r="T28" t="n">
         <v>227.9455894282815</v>
@@ -24682,7 +24682,7 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C29" t="n">
-        <v>365.2728917710076</v>
+        <v>124.2586028933485</v>
       </c>
       <c r="D29" t="n">
         <v>354.683041620683</v>
@@ -24694,7 +24694,7 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G29" t="n">
-        <v>182.9724219348918</v>
+        <v>174.288448637476</v>
       </c>
       <c r="H29" t="n">
         <v>339.4748021157671</v>
@@ -24703,7 +24703,7 @@
         <v>210.4758895704059</v>
       </c>
       <c r="J29" t="n">
-        <v>0</v>
+        <v>11.94928935461252</v>
       </c>
       <c r="K29" t="n">
         <v>0</v>
@@ -24724,13 +24724,13 @@
         <v>0</v>
       </c>
       <c r="Q29" t="n">
-        <v>9.990699214544804</v>
+        <v>0</v>
       </c>
       <c r="R29" t="n">
         <v>149.8691179411497</v>
       </c>
       <c r="S29" t="n">
-        <v>0</v>
+        <v>209.0200695862453</v>
       </c>
       <c r="T29" t="n">
         <v>223.0958495641314</v>
@@ -24739,13 +24739,13 @@
         <v>10.33136403017744</v>
       </c>
       <c r="V29" t="n">
-        <v>86.73796959247585</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W29" t="n">
         <v>349.240968717413</v>
       </c>
       <c r="X29" t="n">
-        <v>369.731100678469</v>
+        <v>167.4364142495718</v>
       </c>
       <c r="Y29" t="n">
         <v>386.2379386560536</v>
@@ -24758,25 +24758,25 @@
         </is>
       </c>
       <c r="B30" t="n">
-        <v>166.5331836498673</v>
+        <v>112.367527406564</v>
       </c>
       <c r="C30" t="n">
-        <v>172.7084989883157</v>
+        <v>0</v>
       </c>
       <c r="D30" t="n">
-        <v>0</v>
+        <v>147.4450655646388</v>
       </c>
       <c r="E30" t="n">
-        <v>157.6450804554009</v>
+        <v>0</v>
       </c>
       <c r="F30" t="n">
-        <v>9.655995540044273</v>
+        <v>145.0692123933839</v>
       </c>
       <c r="G30" t="n">
         <v>137.3435171632106</v>
       </c>
       <c r="H30" t="n">
-        <v>112.2354442364965</v>
+        <v>0</v>
       </c>
       <c r="I30" t="n">
         <v>89.39663285141508</v>
@@ -24818,16 +24818,16 @@
         <v>225.9413820809748</v>
       </c>
       <c r="V30" t="n">
-        <v>232.8005871494253</v>
+        <v>0</v>
       </c>
       <c r="W30" t="n">
-        <v>10.68069428326055</v>
+        <v>251.6949831609196</v>
       </c>
       <c r="X30" t="n">
         <v>0</v>
       </c>
       <c r="Y30" t="n">
-        <v>0</v>
+        <v>205.6826957773044</v>
       </c>
     </row>
     <row r="31">
@@ -24849,7 +24849,7 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F31" t="n">
-        <v>12.23408043756325</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G31" t="n">
         <v>167.9909793584588</v>
@@ -24900,7 +24900,7 @@
         <v>252.137643323828</v>
       </c>
       <c r="W31" t="n">
-        <v>286.522998336591</v>
+        <v>153.336030751223</v>
       </c>
       <c r="X31" t="n">
         <v>225.7096553890372</v>
@@ -24916,7 +24916,7 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>141.7195527858215</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C32" t="n">
         <v>365.2728917710076</v>
@@ -24931,7 +24931,7 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G32" t="n">
-        <v>174.288448637476</v>
+        <v>415.302737515135</v>
       </c>
       <c r="H32" t="n">
         <v>339.4748021157671</v>
@@ -24961,19 +24961,19 @@
         <v>0</v>
       </c>
       <c r="Q32" t="n">
-        <v>0</v>
+        <v>9.990699214544804</v>
       </c>
       <c r="R32" t="n">
-        <v>149.8691179411497</v>
+        <v>0</v>
       </c>
       <c r="S32" t="n">
-        <v>6.725383157348119</v>
+        <v>0</v>
       </c>
       <c r="T32" t="n">
-        <v>223.0958495641314</v>
+        <v>0</v>
       </c>
       <c r="U32" t="n">
-        <v>251.3456529078365</v>
+        <v>10.33136403017744</v>
       </c>
       <c r="V32" t="n">
         <v>327.7522584701349</v>
@@ -24985,7 +24985,7 @@
         <v>369.731100678469</v>
       </c>
       <c r="Y32" t="n">
-        <v>145.2236497783945</v>
+        <v>273.9090123488199</v>
       </c>
     </row>
     <row r="33">
@@ -25016,10 +25016,10 @@
         <v>112.2354442364965</v>
       </c>
       <c r="I33" t="n">
-        <v>89.39663285141508</v>
+        <v>60.25392578661718</v>
       </c>
       <c r="J33" t="n">
-        <v>0.7465913262578567</v>
+        <v>0</v>
       </c>
       <c r="K33" t="n">
         <v>0</v>
@@ -25043,10 +25043,10 @@
         <v>0</v>
       </c>
       <c r="R33" t="n">
-        <v>0</v>
+        <v>100.1578341526431</v>
       </c>
       <c r="S33" t="n">
-        <v>0</v>
+        <v>171.6831711038378</v>
       </c>
       <c r="T33" t="n">
         <v>200.1647286948216</v>
@@ -25058,13 +25058,13 @@
         <v>0</v>
       </c>
       <c r="W33" t="n">
-        <v>46.94970537138147</v>
+        <v>10.68069428326055</v>
       </c>
       <c r="X33" t="n">
         <v>205.7729852034775</v>
       </c>
       <c r="Y33" t="n">
-        <v>205.6826957773044</v>
+        <v>0</v>
       </c>
     </row>
     <row r="34">
@@ -25128,7 +25128,7 @@
         <v>224.0165980369723</v>
       </c>
       <c r="T34" t="n">
-        <v>94.75862184291347</v>
+        <v>227.9455894282815</v>
       </c>
       <c r="U34" t="n">
         <v>286.3190293564909</v>
@@ -25143,7 +25143,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y34" t="n">
-        <v>218.5846533520948</v>
+        <v>85.39768576672677</v>
       </c>
     </row>
     <row r="35">
@@ -25156,13 +25156,13 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C35" t="n">
-        <v>124.2586028933485</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D35" t="n">
-        <v>142.3976559772408</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E35" t="n">
-        <v>140.9160811946027</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F35" t="n">
         <v>406.8760457417114</v>
@@ -25171,10 +25171,10 @@
         <v>174.288448637476</v>
       </c>
       <c r="H35" t="n">
-        <v>339.4748021157671</v>
+        <v>329.7375659437481</v>
       </c>
       <c r="I35" t="n">
-        <v>210.4758895704059</v>
+        <v>0</v>
       </c>
       <c r="J35" t="n">
         <v>11.94928935461252</v>
@@ -25198,7 +25198,7 @@
         <v>0</v>
       </c>
       <c r="Q35" t="n">
-        <v>9.990699214544804</v>
+        <v>0</v>
       </c>
       <c r="R35" t="n">
         <v>149.8691179411497</v>
@@ -25207,10 +25207,10 @@
         <v>209.0200695862453</v>
       </c>
       <c r="T35" t="n">
-        <v>223.0958495641314</v>
+        <v>0</v>
       </c>
       <c r="U35" t="n">
-        <v>251.3456529078365</v>
+        <v>10.33136403017744</v>
       </c>
       <c r="V35" t="n">
         <v>327.7522584701349</v>
@@ -25235,7 +25235,7 @@
         <v>166.5331836498673</v>
       </c>
       <c r="C36" t="n">
-        <v>124.4414632165758</v>
+        <v>172.7084989883157</v>
       </c>
       <c r="D36" t="n">
         <v>147.4450655646388</v>
@@ -25244,10 +25244,10 @@
         <v>157.6450804554009</v>
       </c>
       <c r="F36" t="n">
-        <v>0</v>
+        <v>145.0692123933839</v>
       </c>
       <c r="G36" t="n">
-        <v>0</v>
+        <v>137.3435171632106</v>
       </c>
       <c r="H36" t="n">
         <v>112.2354442364965</v>
@@ -25280,28 +25280,28 @@
         <v>0</v>
       </c>
       <c r="R36" t="n">
-        <v>100.1578341526431</v>
+        <v>0</v>
       </c>
       <c r="S36" t="n">
-        <v>0</v>
+        <v>171.6831711038378</v>
       </c>
       <c r="T36" t="n">
-        <v>0</v>
+        <v>200.1647286948216</v>
       </c>
       <c r="U36" t="n">
-        <v>225.9413820809748</v>
+        <v>70.26853576158751</v>
       </c>
       <c r="V36" t="n">
         <v>0</v>
       </c>
       <c r="W36" t="n">
-        <v>251.6949831609196</v>
+        <v>10.68069428326055</v>
       </c>
       <c r="X36" t="n">
         <v>205.7729852034775</v>
       </c>
       <c r="Y36" t="n">
-        <v>205.6826957773044</v>
+        <v>0</v>
       </c>
     </row>
     <row r="37">
@@ -25371,7 +25371,7 @@
         <v>286.3190293564909</v>
       </c>
       <c r="V37" t="n">
-        <v>118.95067573846</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W37" t="n">
         <v>286.522998336591</v>
@@ -25380,7 +25380,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y37" t="n">
-        <v>218.5846533520948</v>
+        <v>85.39768576672677</v>
       </c>
     </row>
     <row r="38">
@@ -25390,22 +25390,22 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>141.7195527858215</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C38" t="n">
         <v>365.2728917710076</v>
       </c>
       <c r="D38" t="n">
-        <v>113.6687527430239</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E38" t="n">
         <v>381.9303700722618</v>
       </c>
       <c r="F38" t="n">
-        <v>165.8617568640524</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G38" t="n">
-        <v>213.0080510862378</v>
+        <v>174.288448637476</v>
       </c>
       <c r="H38" t="n">
         <v>339.4748021157671</v>
@@ -25444,13 +25444,13 @@
         <v>209.0200695862453</v>
       </c>
       <c r="T38" t="n">
-        <v>223.0958495641314</v>
+        <v>0</v>
       </c>
       <c r="U38" t="n">
-        <v>251.3456529078365</v>
+        <v>31.13252716541155</v>
       </c>
       <c r="V38" t="n">
-        <v>327.7522584701349</v>
+        <v>86.73796959247585</v>
       </c>
       <c r="W38" t="n">
         <v>349.240968717413</v>
@@ -25469,7 +25469,7 @@
         </is>
       </c>
       <c r="B39" t="n">
-        <v>0</v>
+        <v>166.5331836498673</v>
       </c>
       <c r="C39" t="n">
         <v>172.7084989883157</v>
@@ -25478,10 +25478,10 @@
         <v>147.4450655646388</v>
       </c>
       <c r="E39" t="n">
-        <v>0</v>
+        <v>157.6450804554009</v>
       </c>
       <c r="F39" t="n">
-        <v>0</v>
+        <v>145.0692123933839</v>
       </c>
       <c r="G39" t="n">
         <v>137.3435171632106</v>
@@ -25493,7 +25493,7 @@
         <v>89.39663285141508</v>
       </c>
       <c r="J39" t="n">
-        <v>0.7465913262578567</v>
+        <v>0</v>
       </c>
       <c r="K39" t="n">
         <v>0</v>
@@ -25517,28 +25517,28 @@
         <v>0</v>
       </c>
       <c r="R39" t="n">
-        <v>100.1578341526431</v>
+        <v>0</v>
       </c>
       <c r="S39" t="n">
         <v>171.6831711038378</v>
       </c>
       <c r="T39" t="n">
-        <v>145.5396338978364</v>
+        <v>200.1647286948216</v>
       </c>
       <c r="U39" t="n">
-        <v>225.9413820809748</v>
+        <v>71.10541651401837</v>
       </c>
       <c r="V39" t="n">
-        <v>232.8005871494253</v>
+        <v>0</v>
       </c>
       <c r="W39" t="n">
-        <v>251.6949831609196</v>
+        <v>10.68069428326055</v>
       </c>
       <c r="X39" t="n">
         <v>0</v>
       </c>
       <c r="Y39" t="n">
-        <v>0</v>
+        <v>205.6826957773044</v>
       </c>
     </row>
     <row r="40">
@@ -25557,7 +25557,7 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E40" t="n">
-        <v>13.24699506120118</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F40" t="n">
         <v>145.4210480229312</v>
@@ -25593,7 +25593,7 @@
         <v>2.721440735106512</v>
       </c>
       <c r="Q40" t="n">
-        <v>86.16204325169439</v>
+        <v>0</v>
       </c>
       <c r="R40" t="n">
         <v>177.2933913771695</v>
@@ -25617,7 +25617,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y40" t="n">
-        <v>218.5846533520948</v>
+        <v>171.5597290184211</v>
       </c>
     </row>
     <row r="41">
@@ -25627,7 +25627,7 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>180.4391552345834</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C41" t="n">
         <v>365.2728917710076</v>
@@ -25642,10 +25642,10 @@
         <v>165.8617568640524</v>
       </c>
       <c r="G41" t="n">
-        <v>415.302737515135</v>
+        <v>174.288448637476</v>
       </c>
       <c r="H41" t="n">
-        <v>339.4748021157671</v>
+        <v>245.0643151220611</v>
       </c>
       <c r="I41" t="n">
         <v>210.4758895704059</v>
@@ -25672,13 +25672,13 @@
         <v>0</v>
       </c>
       <c r="Q41" t="n">
-        <v>0</v>
+        <v>9.990699214544804</v>
       </c>
       <c r="R41" t="n">
-        <v>149.8691179411497</v>
+        <v>0</v>
       </c>
       <c r="S41" t="n">
-        <v>209.0200695862453</v>
+        <v>0</v>
       </c>
       <c r="T41" t="n">
         <v>223.0958495641314</v>
@@ -25693,10 +25693,10 @@
         <v>349.240968717413</v>
       </c>
       <c r="X41" t="n">
-        <v>128.71681180081</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y41" t="n">
-        <v>145.2236497783945</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="42">
@@ -25706,10 +25706,10 @@
         </is>
       </c>
       <c r="B42" t="n">
-        <v>0</v>
+        <v>166.5331836498673</v>
       </c>
       <c r="C42" t="n">
-        <v>134.5290303570615</v>
+        <v>172.7084989883157</v>
       </c>
       <c r="D42" t="n">
         <v>147.4450655646388</v>
@@ -25721,10 +25721,10 @@
         <v>145.0692123933839</v>
       </c>
       <c r="G42" t="n">
-        <v>137.3435171632106</v>
+        <v>0</v>
       </c>
       <c r="H42" t="n">
-        <v>0</v>
+        <v>112.2354442364965</v>
       </c>
       <c r="I42" t="n">
         <v>89.39663285141508</v>
@@ -25754,19 +25754,19 @@
         <v>0</v>
       </c>
       <c r="R42" t="n">
-        <v>100.1578341526431</v>
+        <v>0</v>
       </c>
       <c r="S42" t="n">
-        <v>0</v>
+        <v>171.6831711038378</v>
       </c>
       <c r="T42" t="n">
         <v>200.1647286948216</v>
       </c>
       <c r="U42" t="n">
-        <v>225.9413820809748</v>
+        <v>0</v>
       </c>
       <c r="V42" t="n">
-        <v>232.8005871494253</v>
+        <v>1.929357147493789</v>
       </c>
       <c r="W42" t="n">
         <v>10.68069428326055</v>
@@ -25775,7 +25775,7 @@
         <v>205.7729852034775</v>
       </c>
       <c r="Y42" t="n">
-        <v>0</v>
+        <v>205.6826957773044</v>
       </c>
     </row>
     <row r="43">
@@ -25864,7 +25864,7 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>180.4391552345834</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C44" t="n">
         <v>365.2728917710076</v>
@@ -25876,7 +25876,7 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F44" t="n">
-        <v>165.8617568640524</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G44" t="n">
         <v>174.288448637476</v>
@@ -25885,7 +25885,7 @@
         <v>339.4748021157671</v>
       </c>
       <c r="I44" t="n">
-        <v>210.4758895704059</v>
+        <v>0</v>
       </c>
       <c r="J44" t="n">
         <v>11.94928935461252</v>
@@ -25909,19 +25909,19 @@
         <v>0</v>
       </c>
       <c r="Q44" t="n">
-        <v>0</v>
+        <v>9.990699214544804</v>
       </c>
       <c r="R44" t="n">
-        <v>149.8691179411497</v>
+        <v>0</v>
       </c>
       <c r="S44" t="n">
         <v>209.0200695862453</v>
       </c>
       <c r="T44" t="n">
-        <v>223.0958495641314</v>
+        <v>0</v>
       </c>
       <c r="U44" t="n">
-        <v>251.3456529078365</v>
+        <v>140.4725465847633</v>
       </c>
       <c r="V44" t="n">
         <v>327.7522584701349</v>
@@ -25933,7 +25933,7 @@
         <v>369.731100678469</v>
       </c>
       <c r="Y44" t="n">
-        <v>145.2236497783945</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="45">
@@ -25946,7 +25946,7 @@
         <v>166.5331836498673</v>
       </c>
       <c r="C45" t="n">
-        <v>56.67172249177727</v>
+        <v>172.7084989883157</v>
       </c>
       <c r="D45" t="n">
         <v>147.4450655646388</v>
@@ -25961,13 +25961,13 @@
         <v>137.3435171632106</v>
       </c>
       <c r="H45" t="n">
-        <v>112.2354442364965</v>
+        <v>0</v>
       </c>
       <c r="I45" t="n">
         <v>89.39663285141508</v>
       </c>
       <c r="J45" t="n">
-        <v>0</v>
+        <v>0.7465913262578567</v>
       </c>
       <c r="K45" t="n">
         <v>0</v>
@@ -25991,19 +25991,19 @@
         <v>0</v>
       </c>
       <c r="R45" t="n">
-        <v>100.1578341526431</v>
+        <v>0</v>
       </c>
       <c r="S45" t="n">
-        <v>0</v>
+        <v>171.6831711038378</v>
       </c>
       <c r="T45" t="n">
-        <v>0</v>
+        <v>176.9860129156012</v>
       </c>
       <c r="U45" t="n">
-        <v>225.9413820809748</v>
+        <v>0</v>
       </c>
       <c r="V45" t="n">
-        <v>232.8005871494253</v>
+        <v>0</v>
       </c>
       <c r="W45" t="n">
         <v>10.68069428326055</v>
@@ -26012,7 +26012,7 @@
         <v>205.7729852034775</v>
       </c>
       <c r="Y45" t="n">
-        <v>0</v>
+        <v>205.6826957773044</v>
       </c>
     </row>
     <row r="46">
@@ -26067,7 +26067,7 @@
         <v>2.721440735106512</v>
       </c>
       <c r="Q46" t="n">
-        <v>0</v>
+        <v>86.16204325169439</v>
       </c>
       <c r="R46" t="n">
         <v>177.2933913771695</v>
@@ -26082,10 +26082,10 @@
         <v>286.3190293564909</v>
       </c>
       <c r="V46" t="n">
-        <v>252.137643323828</v>
+        <v>118.95067573846</v>
       </c>
       <c r="W46" t="n">
-        <v>239.4980740029173</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X46" t="n">
         <v>225.7096553890372</v>
@@ -26125,7 +26125,7 @@
         <v>0</v>
       </c>
       <c r="B2" t="n">
-        <v>358659.0160535968</v>
+        <v>498482.0175939976</v>
       </c>
     </row>
     <row r="3">
@@ -26133,7 +26133,7 @@
         <v>1</v>
       </c>
       <c r="B3" t="n">
-        <v>358659.0160535968</v>
+        <v>498482.0175939975</v>
       </c>
     </row>
     <row r="4">
@@ -26141,7 +26141,7 @@
         <v>2</v>
       </c>
       <c r="B4" t="n">
-        <v>358659.0160535966</v>
+        <v>498482.0175939974</v>
       </c>
     </row>
     <row r="5">
@@ -26149,7 +26149,7 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>358659.0160535968</v>
+        <v>498482.0175939976</v>
       </c>
     </row>
     <row r="6">
@@ -26157,7 +26157,7 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>358659.0160535968</v>
+        <v>498482.0175939975</v>
       </c>
     </row>
     <row r="7">
@@ -26173,7 +26173,7 @@
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>498482.0175939973</v>
+        <v>498482.0175939976</v>
       </c>
     </row>
     <row r="9">
@@ -26181,7 +26181,7 @@
         <v>7</v>
       </c>
       <c r="B9" t="n">
-        <v>498482.0175939973</v>
+        <v>498482.0175939975</v>
       </c>
     </row>
     <row r="10">
@@ -26197,7 +26197,7 @@
         <v>9</v>
       </c>
       <c r="B11" t="n">
-        <v>498482.0175939975</v>
+        <v>498482.0175939976</v>
       </c>
     </row>
     <row r="12">
@@ -26213,7 +26213,7 @@
         <v>11</v>
       </c>
       <c r="B13" t="n">
-        <v>498482.0175939976</v>
+        <v>498482.0175939975</v>
       </c>
     </row>
     <row r="14">
@@ -26221,7 +26221,7 @@
         <v>12</v>
       </c>
       <c r="B14" t="n">
-        <v>498482.0175939976</v>
+        <v>498482.0175939975</v>
       </c>
     </row>
     <row r="15">
@@ -26229,7 +26229,7 @@
         <v>13</v>
       </c>
       <c r="B15" t="n">
-        <v>498482.0175939976</v>
+        <v>498482.0175939975</v>
       </c>
     </row>
     <row r="16">
@@ -26237,7 +26237,7 @@
         <v>14</v>
       </c>
       <c r="B16" t="n">
-        <v>498482.0175939976</v>
+        <v>498482.0175939975</v>
       </c>
     </row>
   </sheetData>
@@ -26313,49 +26313,49 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>59776.50267559937</v>
+        <v>83080.33626566621</v>
       </c>
       <c r="C2" t="n">
-        <v>59776.50267559939</v>
+        <v>83080.33626566621</v>
       </c>
       <c r="D2" t="n">
-        <v>59776.50267559939</v>
+        <v>83080.33626566621</v>
       </c>
       <c r="E2" t="n">
-        <v>59776.50267559938</v>
+        <v>83080.33626566615</v>
       </c>
       <c r="F2" t="n">
-        <v>59776.50267559938</v>
+        <v>83080.33626566618</v>
       </c>
       <c r="G2" t="n">
-        <v>83080.33626566621</v>
+        <v>83080.33626566618</v>
       </c>
       <c r="H2" t="n">
-        <v>83080.33626566621</v>
+        <v>83080.33626566618</v>
       </c>
       <c r="I2" t="n">
-        <v>83080.33626566616</v>
+        <v>83080.33626566618</v>
       </c>
       <c r="J2" t="n">
-        <v>83080.33626566618</v>
+        <v>83080.33626566615</v>
       </c>
       <c r="K2" t="n">
         <v>83080.33626566618</v>
       </c>
       <c r="L2" t="n">
-        <v>83080.33626566621</v>
+        <v>83080.33626566615</v>
       </c>
       <c r="M2" t="n">
-        <v>83080.33626566624</v>
+        <v>83080.33626566618</v>
       </c>
       <c r="N2" t="n">
         <v>83080.33626566618</v>
       </c>
       <c r="O2" t="n">
-        <v>83080.33626566621</v>
+        <v>83080.33626566618</v>
       </c>
       <c r="P2" t="n">
-        <v>83080.33626566621</v>
+        <v>83080.33626566615</v>
       </c>
     </row>
     <row r="3">
@@ -26365,7 +26365,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>14789.70600424422</v>
+        <v>80769.43153154773</v>
       </c>
       <c r="C3" t="n">
         <v>0</v>
@@ -26380,7 +26380,7 @@
         <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>53962.43490047232</v>
+        <v>0</v>
       </c>
       <c r="H3" t="n">
         <v>0</v>
@@ -26389,7 +26389,7 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>11546.91810999089</v>
+        <v>63059.94259910623</v>
       </c>
       <c r="K3" t="n">
         <v>0</v>
@@ -26404,7 +26404,7 @@
         <v>0</v>
       </c>
       <c r="O3" t="n">
-        <v>47379.87821746379</v>
+        <v>0</v>
       </c>
       <c r="P3" t="n">
         <v>0</v>
@@ -26417,19 +26417,19 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>36.87052286425573</v>
+        <v>179.5324977039669</v>
       </c>
       <c r="C4" t="n">
-        <v>36.87052286425572</v>
+        <v>179.5324977039669</v>
       </c>
       <c r="D4" t="n">
-        <v>36.87052286425573</v>
+        <v>179.5324977039669</v>
       </c>
       <c r="E4" t="n">
-        <v>36.87052286425573</v>
+        <v>179.5324977039669</v>
       </c>
       <c r="F4" t="n">
-        <v>36.87052286425573</v>
+        <v>179.5324977039669</v>
       </c>
       <c r="G4" t="n">
         <v>179.5324977039669</v>
@@ -26469,19 +26469,19 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>36310.8360806571</v>
+        <v>48281.26876376167</v>
       </c>
       <c r="C5" t="n">
-        <v>36310.8360806571</v>
+        <v>48281.26876376167</v>
       </c>
       <c r="D5" t="n">
-        <v>36310.8360806571</v>
+        <v>48281.26876376167</v>
       </c>
       <c r="E5" t="n">
-        <v>2683.236080657098</v>
+        <v>14653.66876376167</v>
       </c>
       <c r="F5" t="n">
-        <v>2683.236080657098</v>
+        <v>14653.66876376167</v>
       </c>
       <c r="G5" t="n">
         <v>14653.66876376167</v>
@@ -26521,49 +26521,49 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>8639.090067833793</v>
+        <v>-58367.90714738762</v>
       </c>
       <c r="C6" t="n">
-        <v>23428.79607207803</v>
+        <v>22401.5243841601</v>
       </c>
       <c r="D6" t="n">
-        <v>23428.79607207803</v>
+        <v>22401.5243841601</v>
       </c>
       <c r="E6" t="n">
-        <v>57056.39607207802</v>
+        <v>56029.12438416004</v>
       </c>
       <c r="F6" t="n">
-        <v>57056.39607207802</v>
+        <v>56029.12438416007</v>
       </c>
       <c r="G6" t="n">
-        <v>14284.70010372825</v>
+        <v>56029.12438416007</v>
       </c>
       <c r="H6" t="n">
-        <v>68247.13500420057</v>
+        <v>56029.12438416007</v>
       </c>
       <c r="I6" t="n">
-        <v>68247.13500420052</v>
+        <v>56029.12438416007</v>
       </c>
       <c r="J6" t="n">
-        <v>56700.21689420965</v>
+        <v>-7030.818214946185</v>
       </c>
       <c r="K6" t="n">
-        <v>68247.13500420054</v>
+        <v>56029.12438416007</v>
       </c>
       <c r="L6" t="n">
-        <v>68247.13500420057</v>
+        <v>56029.12438416004</v>
       </c>
       <c r="M6" t="n">
-        <v>68247.13500420059</v>
+        <v>56029.12438416007</v>
       </c>
       <c r="N6" t="n">
-        <v>68247.13500420054</v>
+        <v>56029.12438416007</v>
       </c>
       <c r="O6" t="n">
-        <v>20867.25678673678</v>
+        <v>56029.12438416007</v>
       </c>
       <c r="P6" t="n">
-        <v>68247.13500420057</v>
+        <v>56029.12438416004</v>
       </c>
     </row>
   </sheetData>
@@ -26789,19 +26789,19 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>44.13217237922859</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="C4" t="n">
-        <v>44.13217237922859</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="D4" t="n">
-        <v>44.13217237922859</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="E4" t="n">
-        <v>44.13217237922859</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="F4" t="n">
-        <v>44.13217237922859</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="G4" t="n">
         <v>241.0142888776591</v>
@@ -27011,7 +27011,7 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>44.13217237922859</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="C4" t="n">
         <v>0</v>
@@ -27026,7 +27026,7 @@
         <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>196.8821164984305</v>
+        <v>0</v>
       </c>
       <c r="H4" t="n">
         <v>0</v>
@@ -27035,7 +27035,7 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>44.13217237922859</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27050,7 +27050,7 @@
         <v>0</v>
       </c>
       <c r="O4" t="n">
-        <v>196.8821164984305</v>
+        <v>0</v>
       </c>
       <c r="P4" t="n">
         <v>0</v>
@@ -27257,7 +27257,7 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>44.13217237922859</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27272,7 +27272,7 @@
         <v>0</v>
       </c>
       <c r="O4" t="n">
-        <v>196.8821164984305</v>
+        <v>0</v>
       </c>
       <c r="P4" t="n">
         <v>0</v>
@@ -34701,22 +34701,22 @@
         <v>0</v>
       </c>
       <c r="K2" t="n">
-        <v>44.13217237922859</v>
+        <v>104.0555615261842</v>
       </c>
       <c r="L2" t="n">
-        <v>44.13217237922859</v>
+        <v>181.8947995804632</v>
       </c>
       <c r="M2" t="n">
-        <v>0</v>
+        <v>219.1673002655598</v>
       </c>
       <c r="N2" t="n">
-        <v>42.34905430330019</v>
+        <v>207.9338608153933</v>
       </c>
       <c r="O2" t="n">
-        <v>44.13217237922859</v>
+        <v>150.7019698410586</v>
       </c>
       <c r="P2" t="n">
-        <v>0</v>
+        <v>90.5657124162131</v>
       </c>
       <c r="Q2" t="n">
         <v>0</v>
@@ -34783,22 +34783,22 @@
         <v>0</v>
       </c>
       <c r="L3" t="n">
-        <v>0</v>
+        <v>46.78797658628819</v>
       </c>
       <c r="M3" t="n">
-        <v>42.34905430330018</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="N3" t="n">
-        <v>44.13217237922859</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="O3" t="n">
-        <v>44.13217237922859</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="P3" t="n">
-        <v>0</v>
+        <v>184.4883612256069</v>
       </c>
       <c r="Q3" t="n">
-        <v>44.13217237922859</v>
+        <v>0</v>
       </c>
       <c r="R3" t="n">
         <v>0</v>
@@ -34938,22 +34938,22 @@
         <v>0</v>
       </c>
       <c r="K5" t="n">
-        <v>42.34905430330018</v>
+        <v>104.0555615261842</v>
       </c>
       <c r="L5" t="n">
-        <v>44.13217237922859</v>
+        <v>181.8947995804632</v>
       </c>
       <c r="M5" t="n">
-        <v>44.13217237922859</v>
+        <v>219.1673002655598</v>
       </c>
       <c r="N5" t="n">
-        <v>44.13217237922859</v>
+        <v>207.9338608153932</v>
       </c>
       <c r="O5" t="n">
-        <v>0</v>
+        <v>150.7019698410586</v>
       </c>
       <c r="P5" t="n">
-        <v>0</v>
+        <v>90.5657124162131</v>
       </c>
       <c r="Q5" t="n">
         <v>0</v>
@@ -35017,25 +35017,25 @@
         <v>0</v>
       </c>
       <c r="K6" t="n">
-        <v>44.13217237922859</v>
+        <v>126.6237980382196</v>
       </c>
       <c r="L6" t="n">
-        <v>44.13217237922859</v>
+        <v>0</v>
       </c>
       <c r="M6" t="n">
-        <v>42.34905430330019</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="N6" t="n">
-        <v>0</v>
+        <v>91.0829537758999</v>
       </c>
       <c r="O6" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="P6" t="n">
-        <v>0</v>
+        <v>184.4883612256069</v>
       </c>
       <c r="Q6" t="n">
-        <v>44.13217237922859</v>
+        <v>70.09551364982758</v>
       </c>
       <c r="R6" t="n">
         <v>0</v>
@@ -35175,22 +35175,22 @@
         <v>0</v>
       </c>
       <c r="K8" t="n">
-        <v>0</v>
+        <v>104.0555615261842</v>
       </c>
       <c r="L8" t="n">
-        <v>44.13217237922859</v>
+        <v>181.8947995804632</v>
       </c>
       <c r="M8" t="n">
-        <v>42.34905430330018</v>
+        <v>219.1673002655598</v>
       </c>
       <c r="N8" t="n">
-        <v>44.13217237922859</v>
+        <v>207.9338608153932</v>
       </c>
       <c r="O8" t="n">
-        <v>44.13217237922859</v>
+        <v>150.7019698410586</v>
       </c>
       <c r="P8" t="n">
-        <v>0</v>
+        <v>90.5657124162131</v>
       </c>
       <c r="Q8" t="n">
         <v>0</v>
@@ -35257,22 +35257,22 @@
         <v>0</v>
       </c>
       <c r="L9" t="n">
-        <v>0</v>
+        <v>232.285965523585</v>
       </c>
       <c r="M9" t="n">
-        <v>44.13217237922859</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="N9" t="n">
-        <v>0</v>
+        <v>55.51629994036225</v>
       </c>
       <c r="O9" t="n">
-        <v>44.13217237922859</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="P9" t="n">
-        <v>44.13217237922859</v>
+        <v>184.4883612256069</v>
       </c>
       <c r="Q9" t="n">
-        <v>42.34905430330016</v>
+        <v>0</v>
       </c>
       <c r="R9" t="n">
         <v>0</v>
@@ -35412,22 +35412,22 @@
         <v>0</v>
       </c>
       <c r="K11" t="n">
-        <v>44.13217237922859</v>
+        <v>104.0555615261842</v>
       </c>
       <c r="L11" t="n">
-        <v>44.13217237922859</v>
+        <v>181.8947995804632</v>
       </c>
       <c r="M11" t="n">
-        <v>0</v>
+        <v>219.1673002655598</v>
       </c>
       <c r="N11" t="n">
-        <v>44.13217237922859</v>
+        <v>207.9338608153932</v>
       </c>
       <c r="O11" t="n">
-        <v>42.34905430330016</v>
+        <v>150.7019698410586</v>
       </c>
       <c r="P11" t="n">
-        <v>0</v>
+        <v>90.5657124162131</v>
       </c>
       <c r="Q11" t="n">
         <v>0</v>
@@ -35491,22 +35491,22 @@
         <v>0</v>
       </c>
       <c r="K12" t="n">
-        <v>42.34905430330018</v>
+        <v>126.6237980382196</v>
       </c>
       <c r="L12" t="n">
-        <v>0</v>
+        <v>232.285965523585</v>
       </c>
       <c r="M12" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="N12" t="n">
-        <v>44.13217237922859</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="O12" t="n">
-        <v>44.13217237922859</v>
+        <v>113.3808631277494</v>
       </c>
       <c r="P12" t="n">
-        <v>44.13217237922859</v>
+        <v>0</v>
       </c>
       <c r="Q12" t="n">
         <v>0</v>
@@ -35649,22 +35649,22 @@
         <v>0</v>
       </c>
       <c r="K14" t="n">
-        <v>42.34905430330018</v>
+        <v>104.0555615261842</v>
       </c>
       <c r="L14" t="n">
-        <v>44.13217237922859</v>
+        <v>181.8947995804632</v>
       </c>
       <c r="M14" t="n">
-        <v>44.13217237922859</v>
+        <v>219.1673002655598</v>
       </c>
       <c r="N14" t="n">
-        <v>0</v>
+        <v>207.9338608153932</v>
       </c>
       <c r="O14" t="n">
-        <v>0</v>
+        <v>150.7019698410586</v>
       </c>
       <c r="P14" t="n">
-        <v>44.13217237922859</v>
+        <v>90.5657124162131</v>
       </c>
       <c r="Q14" t="n">
         <v>0</v>
@@ -35728,22 +35728,22 @@
         <v>0</v>
       </c>
       <c r="K15" t="n">
-        <v>0</v>
+        <v>126.6237980382196</v>
       </c>
       <c r="L15" t="n">
-        <v>0</v>
+        <v>232.285965523585</v>
       </c>
       <c r="M15" t="n">
-        <v>44.13217237922859</v>
+        <v>169.9067907798017</v>
       </c>
       <c r="N15" t="n">
-        <v>42.34905430330018</v>
+        <v>0</v>
       </c>
       <c r="O15" t="n">
-        <v>44.13217237922859</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="P15" t="n">
-        <v>44.13217237922859</v>
+        <v>184.4883612256069</v>
       </c>
       <c r="Q15" t="n">
         <v>0</v>
@@ -35892,10 +35892,10 @@
         <v>181.8947995804632</v>
       </c>
       <c r="M17" t="n">
-        <v>219.1673002655597</v>
+        <v>219.1673002655598</v>
       </c>
       <c r="N17" t="n">
-        <v>207.9338608153932</v>
+        <v>207.9338608153933</v>
       </c>
       <c r="O17" t="n">
         <v>150.7019698410586</v>
@@ -35965,25 +35965,25 @@
         <v>0</v>
       </c>
       <c r="K18" t="n">
-        <v>0</v>
+        <v>126.6237980382196</v>
       </c>
       <c r="L18" t="n">
         <v>232.285965523585</v>
       </c>
       <c r="M18" t="n">
-        <v>169.9091475161415</v>
+        <v>0</v>
       </c>
       <c r="N18" t="n">
-        <v>241.0142888776591</v>
+        <v>169.9067907798017</v>
       </c>
       <c r="O18" t="n">
         <v>241.0142888776591</v>
       </c>
       <c r="P18" t="n">
-        <v>0</v>
+        <v>184.4883612256069</v>
       </c>
       <c r="Q18" t="n">
-        <v>70.09551364982758</v>
+        <v>0</v>
       </c>
       <c r="R18" t="n">
         <v>0</v>
@@ -36202,16 +36202,16 @@
         <v>0</v>
       </c>
       <c r="K21" t="n">
-        <v>0</v>
+        <v>126.6237980382196</v>
       </c>
       <c r="L21" t="n">
         <v>232.285965523585</v>
       </c>
       <c r="M21" t="n">
-        <v>226.4350751681936</v>
+        <v>0</v>
       </c>
       <c r="N21" t="n">
-        <v>0</v>
+        <v>99.81127712997396</v>
       </c>
       <c r="O21" t="n">
         <v>241.0142888776591</v>
@@ -36439,13 +36439,13 @@
         <v>0</v>
       </c>
       <c r="K24" t="n">
-        <v>0</v>
+        <v>126.6237980382196</v>
       </c>
       <c r="L24" t="n">
         <v>232.285965523585</v>
       </c>
       <c r="M24" t="n">
-        <v>240.0046611659691</v>
+        <v>113.3808631277495</v>
       </c>
       <c r="N24" t="n">
         <v>241.0142888776591</v>
@@ -36682,16 +36682,16 @@
         <v>232.285965523585</v>
       </c>
       <c r="M27" t="n">
+        <v>0</v>
+      </c>
+      <c r="N27" t="n">
+        <v>99.81127712997396</v>
+      </c>
+      <c r="O27" t="n">
         <v>241.0142888776591</v>
       </c>
-      <c r="N27" t="n">
-        <v>241.0142888776591</v>
-      </c>
-      <c r="O27" t="n">
-        <v>43.28534947792182</v>
-      </c>
       <c r="P27" t="n">
-        <v>0</v>
+        <v>184.4883612256069</v>
       </c>
       <c r="Q27" t="n">
         <v>70.09551364982758</v>
@@ -36916,13 +36916,13 @@
         <v>126.6237980382196</v>
       </c>
       <c r="L30" t="n">
-        <v>232.285965523585</v>
+        <v>0</v>
       </c>
       <c r="M30" t="n">
-        <v>0</v>
+        <v>91.0829537758999</v>
       </c>
       <c r="N30" t="n">
-        <v>169.9067907798017</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="O30" t="n">
         <v>241.0142888776591</v>
@@ -36931,7 +36931,7 @@
         <v>184.4883612256069</v>
       </c>
       <c r="Q30" t="n">
-        <v>0</v>
+        <v>70.09551364982758</v>
       </c>
       <c r="R30" t="n">
         <v>0</v>
@@ -37150,7 +37150,7 @@
         <v>0</v>
       </c>
       <c r="K33" t="n">
-        <v>0</v>
+        <v>126.6237980382196</v>
       </c>
       <c r="L33" t="n">
         <v>232.285965523585</v>
@@ -37159,10 +37159,10 @@
         <v>241.0142888776591</v>
       </c>
       <c r="N33" t="n">
-        <v>240.0046611659691</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="O33" t="n">
-        <v>241.0142888776591</v>
+        <v>113.3808631277494</v>
       </c>
       <c r="P33" t="n">
         <v>0</v>
@@ -37387,25 +37387,25 @@
         <v>0</v>
       </c>
       <c r="K36" t="n">
-        <v>0</v>
+        <v>126.6237980382196</v>
       </c>
       <c r="L36" t="n">
         <v>232.285965523585</v>
       </c>
       <c r="M36" t="n">
-        <v>169.9091475161415</v>
+        <v>169.9067907798017</v>
       </c>
       <c r="N36" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
       <c r="O36" t="n">
         <v>241.0142888776591</v>
       </c>
       <c r="P36" t="n">
-        <v>0</v>
+        <v>184.4883612256069</v>
       </c>
       <c r="Q36" t="n">
-        <v>70.09551364982758</v>
+        <v>0</v>
       </c>
       <c r="R36" t="n">
         <v>0</v>
@@ -37624,7 +37624,7 @@
         <v>0</v>
       </c>
       <c r="K39" t="n">
-        <v>0</v>
+        <v>126.6237980382196</v>
       </c>
       <c r="L39" t="n">
         <v>232.285965523585</v>
@@ -37633,16 +37633,16 @@
         <v>241.0142888776591</v>
       </c>
       <c r="N39" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="O39" t="n">
-        <v>226.4350751681936</v>
+        <v>113.3808631277494</v>
       </c>
       <c r="P39" t="n">
-        <v>184.4883612256069</v>
+        <v>0</v>
       </c>
       <c r="Q39" t="n">
-        <v>70.09551364982758</v>
+        <v>0</v>
       </c>
       <c r="R39" t="n">
         <v>0</v>
@@ -37788,7 +37788,7 @@
         <v>181.8947995804632</v>
       </c>
       <c r="M41" t="n">
-        <v>219.1673002655597</v>
+        <v>219.1673002655598</v>
       </c>
       <c r="N41" t="n">
         <v>207.9338608153932</v>
@@ -37861,25 +37861,25 @@
         <v>0</v>
       </c>
       <c r="K42" t="n">
-        <v>0</v>
+        <v>126.6237980382196</v>
       </c>
       <c r="L42" t="n">
         <v>232.285965523585</v>
       </c>
       <c r="M42" t="n">
-        <v>226.4350751681936</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="N42" t="n">
+        <v>113.3808631277494</v>
+      </c>
+      <c r="O42" t="n">
         <v>241.0142888776591</v>
       </c>
-      <c r="O42" t="n">
-        <v>0</v>
-      </c>
       <c r="P42" t="n">
-        <v>184.4883612256069</v>
+        <v>0</v>
       </c>
       <c r="Q42" t="n">
-        <v>70.09551364982758</v>
+        <v>0</v>
       </c>
       <c r="R42" t="n">
         <v>0</v>
@@ -38098,13 +38098,13 @@
         <v>0</v>
       </c>
       <c r="K45" t="n">
-        <v>46.78797658628819</v>
+        <v>126.6237980382196</v>
       </c>
       <c r="L45" t="n">
-        <v>0</v>
+        <v>232.285965523585</v>
       </c>
       <c r="M45" t="n">
-        <v>241.0142888776591</v>
+        <v>113.3808631277495</v>
       </c>
       <c r="N45" t="n">
         <v>241.0142888776591</v>
@@ -38113,7 +38113,7 @@
         <v>241.0142888776591</v>
       </c>
       <c r="P45" t="n">
-        <v>184.4883612256069</v>
+        <v>0</v>
       </c>
       <c r="Q45" t="n">
         <v>0</v>

--- a/Outputs/1. Budget/Grid Search/Output Files/1500000/Output_0_10.xlsx
+++ b/Outputs/1. Budget/Grid Search/Output Files/1500000/Output_0_10.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0.01</v>
+        <v>0.001</v>
       </c>
     </row>
     <row r="4">
@@ -503,7 +503,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>268277.9841761547</v>
+        <v>362272.9485238821</v>
       </c>
     </row>
     <row r="7">
@@ -513,7 +513,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>925399.3994514378</v>
+        <v>2114249.189782367</v>
       </c>
     </row>
     <row r="8">
@@ -523,7 +523,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>18327015.93006066</v>
+        <v>19492207.60956401</v>
       </c>
     </row>
     <row r="9">
@@ -543,7 +543,7 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>5764008.847562066</v>
+        <v>5116643.000488906</v>
       </c>
     </row>
     <row r="11">
@@ -703,28 +703,28 @@
         <v>0</v>
       </c>
       <c r="Q2" t="n">
-        <v>9.990699214544804</v>
+        <v>0</v>
       </c>
       <c r="R2" t="n">
         <v>0</v>
       </c>
       <c r="S2" t="n">
-        <v>202.2946864288972</v>
+        <v>0</v>
       </c>
       <c r="T2" t="n">
-        <v>0</v>
+        <v>38.87161743162455</v>
       </c>
       <c r="U2" t="n">
-        <v>241.0142888776591</v>
+        <v>44.13217237922859</v>
       </c>
       <c r="V2" t="n">
-        <v>0</v>
+        <v>44.13217237922859</v>
       </c>
       <c r="W2" t="n">
-        <v>241.0142888776591</v>
+        <v>44.13217237922859</v>
       </c>
       <c r="X2" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
       <c r="Y2" t="n">
         <v>0</v>
@@ -737,7 +737,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>166.5331836498673</v>
+        <v>38.87161743162454</v>
       </c>
       <c r="C3" t="n">
         <v>0</v>
@@ -752,7 +752,7 @@
         <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>0</v>
+        <v>44.13217237922859</v>
       </c>
       <c r="H3" t="n">
         <v>0</v>
@@ -761,7 +761,7 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>0.7465913262578567</v>
+        <v>0</v>
       </c>
       <c r="K3" t="n">
         <v>0</v>
@@ -785,22 +785,22 @@
         <v>0</v>
       </c>
       <c r="R3" t="n">
-        <v>0</v>
+        <v>44.13217237922859</v>
       </c>
       <c r="S3" t="n">
-        <v>171.6831711038378</v>
+        <v>44.13217237922859</v>
       </c>
       <c r="T3" t="n">
         <v>0</v>
       </c>
       <c r="U3" t="n">
-        <v>122.5504301693719</v>
+        <v>0</v>
       </c>
       <c r="V3" t="n">
-        <v>232.8005871494253</v>
+        <v>0</v>
       </c>
       <c r="W3" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
       <c r="X3" t="n">
         <v>0</v>
@@ -837,7 +837,7 @@
         <v>0</v>
       </c>
       <c r="I4" t="n">
-        <v>0</v>
+        <v>0.790450447682262</v>
       </c>
       <c r="J4" t="n">
         <v>0</v>
@@ -864,7 +864,7 @@
         <v>0</v>
       </c>
       <c r="R4" t="n">
-        <v>133.186967585368</v>
+        <v>44.13217237922859</v>
       </c>
       <c r="S4" t="n">
         <v>0</v>
@@ -873,7 +873,7 @@
         <v>0</v>
       </c>
       <c r="U4" t="n">
-        <v>0</v>
+        <v>44.13217237922859</v>
       </c>
       <c r="V4" t="n">
         <v>0</v>
@@ -885,7 +885,7 @@
         <v>0</v>
       </c>
       <c r="Y4" t="n">
-        <v>0</v>
+        <v>44.13217237922859</v>
       </c>
     </row>
     <row r="5">
@@ -895,10 +895,10 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>0</v>
+        <v>44.13217237922859</v>
       </c>
       <c r="C5" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
       <c r="D5" t="n">
         <v>0</v>
@@ -907,7 +907,7 @@
         <v>0</v>
       </c>
       <c r="F5" t="n">
-        <v>84.41978777916125</v>
+        <v>0</v>
       </c>
       <c r="G5" t="n">
         <v>0</v>
@@ -940,13 +940,13 @@
         <v>0</v>
       </c>
       <c r="Q5" t="n">
-        <v>9.990699214544804</v>
+        <v>0</v>
       </c>
       <c r="R5" t="n">
-        <v>149.8691179411497</v>
+        <v>44.13217237922859</v>
       </c>
       <c r="S5" t="n">
-        <v>209.0200695862453</v>
+        <v>0</v>
       </c>
       <c r="T5" t="n">
         <v>0</v>
@@ -961,10 +961,10 @@
         <v>0</v>
       </c>
       <c r="X5" t="n">
-        <v>0</v>
+        <v>38.87161743162455</v>
       </c>
       <c r="Y5" t="n">
-        <v>241.0142888776591</v>
+        <v>44.13217237922859</v>
       </c>
     </row>
     <row r="6">
@@ -986,13 +986,13 @@
         <v>0</v>
       </c>
       <c r="F6" t="n">
-        <v>145.0692123933839</v>
+        <v>0</v>
       </c>
       <c r="G6" t="n">
-        <v>131.0784874127591</v>
+        <v>0</v>
       </c>
       <c r="H6" t="n">
-        <v>112.2354442364965</v>
+        <v>0</v>
       </c>
       <c r="I6" t="n">
         <v>0</v>
@@ -1022,13 +1022,13 @@
         <v>0</v>
       </c>
       <c r="R6" t="n">
-        <v>100.1578341526431</v>
+        <v>44.13217237922859</v>
       </c>
       <c r="S6" t="n">
-        <v>0</v>
+        <v>44.13217237922859</v>
       </c>
       <c r="T6" t="n">
-        <v>0</v>
+        <v>44.13217237922859</v>
       </c>
       <c r="U6" t="n">
         <v>0</v>
@@ -1037,10 +1037,10 @@
         <v>0</v>
       </c>
       <c r="W6" t="n">
-        <v>241.0142888776591</v>
+        <v>38.87161743162454</v>
       </c>
       <c r="X6" t="n">
-        <v>205.7729852034775</v>
+        <v>0</v>
       </c>
       <c r="Y6" t="n">
         <v>0</v>
@@ -1053,7 +1053,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>0</v>
+        <v>0.790450447682262</v>
       </c>
       <c r="C7" t="n">
         <v>0</v>
@@ -1104,10 +1104,10 @@
         <v>0</v>
       </c>
       <c r="S7" t="n">
-        <v>0</v>
+        <v>44.13217237922859</v>
       </c>
       <c r="T7" t="n">
-        <v>133.186967585368</v>
+        <v>0</v>
       </c>
       <c r="U7" t="n">
         <v>0</v>
@@ -1119,10 +1119,10 @@
         <v>0</v>
       </c>
       <c r="X7" t="n">
-        <v>0</v>
+        <v>44.13217237922859</v>
       </c>
       <c r="Y7" t="n">
-        <v>0</v>
+        <v>44.13217237922859</v>
       </c>
     </row>
     <row r="8">
@@ -1132,7 +1132,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>241.0142888776591</v>
+        <v>44.13217237922859</v>
       </c>
       <c r="C8" t="n">
         <v>0</v>
@@ -1180,7 +1180,7 @@
         <v>9.990699214544804</v>
       </c>
       <c r="R8" t="n">
-        <v>0</v>
+        <v>44.13217237922859</v>
       </c>
       <c r="S8" t="n">
         <v>0</v>
@@ -1189,19 +1189,19 @@
         <v>0</v>
       </c>
       <c r="U8" t="n">
-        <v>202.2946864288972</v>
+        <v>0</v>
       </c>
       <c r="V8" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
       <c r="W8" t="n">
         <v>0</v>
       </c>
       <c r="X8" t="n">
-        <v>0</v>
+        <v>28.88091821707974</v>
       </c>
       <c r="Y8" t="n">
-        <v>241.0142888776591</v>
+        <v>44.13217237922859</v>
       </c>
     </row>
     <row r="9">
@@ -1259,25 +1259,25 @@
         <v>0</v>
       </c>
       <c r="R9" t="n">
-        <v>29.79900896488251</v>
+        <v>0</v>
       </c>
       <c r="S9" t="n">
         <v>0</v>
       </c>
       <c r="T9" t="n">
-        <v>0</v>
+        <v>38.87161743162455</v>
       </c>
       <c r="U9" t="n">
-        <v>225.9413820809748</v>
+        <v>44.13217237922859</v>
       </c>
       <c r="V9" t="n">
-        <v>232.8005871494253</v>
+        <v>44.13217237922859</v>
       </c>
       <c r="W9" t="n">
-        <v>241.0142888776591</v>
+        <v>44.13217237922859</v>
       </c>
       <c r="X9" t="n">
-        <v>205.7729852034775</v>
+        <v>0</v>
       </c>
       <c r="Y9" t="n">
         <v>0</v>
@@ -1335,16 +1335,16 @@
         <v>0</v>
       </c>
       <c r="Q10" t="n">
-        <v>0</v>
+        <v>44.13217237922859</v>
       </c>
       <c r="R10" t="n">
-        <v>0</v>
+        <v>44.13217237922859</v>
       </c>
       <c r="S10" t="n">
         <v>0</v>
       </c>
       <c r="T10" t="n">
-        <v>0</v>
+        <v>44.13217237922859</v>
       </c>
       <c r="U10" t="n">
         <v>0</v>
@@ -1353,10 +1353,10 @@
         <v>0</v>
       </c>
       <c r="W10" t="n">
-        <v>133.186967585368</v>
+        <v>0</v>
       </c>
       <c r="X10" t="n">
-        <v>0</v>
+        <v>0.790450447682262</v>
       </c>
       <c r="Y10" t="n">
         <v>0</v>
@@ -1369,7 +1369,7 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
       <c r="C11" t="n">
         <v>0</v>
@@ -1381,16 +1381,16 @@
         <v>0</v>
       </c>
       <c r="F11" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
       <c r="G11" t="n">
-        <v>0</v>
+        <v>44.13217237922859</v>
       </c>
       <c r="H11" t="n">
         <v>0</v>
       </c>
       <c r="I11" t="n">
-        <v>52.42556848774763</v>
+        <v>0</v>
       </c>
       <c r="J11" t="n">
         <v>0</v>
@@ -1414,13 +1414,13 @@
         <v>0</v>
       </c>
       <c r="Q11" t="n">
-        <v>9.990699214544804</v>
+        <v>0</v>
       </c>
       <c r="R11" t="n">
-        <v>149.8691179411497</v>
+        <v>44.13217237922859</v>
       </c>
       <c r="S11" t="n">
-        <v>0</v>
+        <v>38.87161743162455</v>
       </c>
       <c r="T11" t="n">
         <v>0</v>
@@ -1432,13 +1432,13 @@
         <v>0</v>
       </c>
       <c r="W11" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
       <c r="X11" t="n">
         <v>0</v>
       </c>
       <c r="Y11" t="n">
-        <v>0</v>
+        <v>44.13217237922859</v>
       </c>
     </row>
     <row r="12">
@@ -1496,28 +1496,28 @@
         <v>0</v>
       </c>
       <c r="R12" t="n">
-        <v>100.1578341526431</v>
+        <v>38.87161743162455</v>
       </c>
       <c r="S12" t="n">
-        <v>162.5320513878378</v>
+        <v>0</v>
       </c>
       <c r="T12" t="n">
         <v>0</v>
       </c>
       <c r="U12" t="n">
-        <v>225.9413820809748</v>
+        <v>44.13217237922859</v>
       </c>
       <c r="V12" t="n">
         <v>0</v>
       </c>
       <c r="W12" t="n">
-        <v>241.0142888776591</v>
+        <v>44.13217237922859</v>
       </c>
       <c r="X12" t="n">
-        <v>0</v>
+        <v>44.13217237922859</v>
       </c>
       <c r="Y12" t="n">
-        <v>205.6826957773044</v>
+        <v>0</v>
       </c>
     </row>
     <row r="13">
@@ -1542,13 +1542,13 @@
         <v>0</v>
       </c>
       <c r="G13" t="n">
-        <v>0</v>
+        <v>44.13217237922859</v>
       </c>
       <c r="H13" t="n">
         <v>0</v>
       </c>
       <c r="I13" t="n">
-        <v>0</v>
+        <v>0.790450447682262</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -1575,7 +1575,7 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>133.186967585368</v>
+        <v>0</v>
       </c>
       <c r="S13" t="n">
         <v>0</v>
@@ -1590,10 +1590,10 @@
         <v>0</v>
       </c>
       <c r="W13" t="n">
-        <v>0</v>
+        <v>44.13217237922859</v>
       </c>
       <c r="X13" t="n">
-        <v>0</v>
+        <v>44.13217237922859</v>
       </c>
       <c r="Y13" t="n">
         <v>0</v>
@@ -1621,13 +1621,13 @@
         <v>0</v>
       </c>
       <c r="G14" t="n">
-        <v>0</v>
+        <v>44.13217237922859</v>
       </c>
       <c r="H14" t="n">
-        <v>0</v>
+        <v>38.87161743162454</v>
       </c>
       <c r="I14" t="n">
-        <v>52.42556848774763</v>
+        <v>0</v>
       </c>
       <c r="J14" t="n">
         <v>0</v>
@@ -1651,10 +1651,10 @@
         <v>0</v>
       </c>
       <c r="Q14" t="n">
-        <v>9.990699214544804</v>
+        <v>0</v>
       </c>
       <c r="R14" t="n">
-        <v>149.8691179411497</v>
+        <v>0</v>
       </c>
       <c r="S14" t="n">
         <v>0</v>
@@ -1663,19 +1663,19 @@
         <v>0</v>
       </c>
       <c r="U14" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
       <c r="V14" t="n">
-        <v>0</v>
+        <v>44.13217237922859</v>
       </c>
       <c r="W14" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
       <c r="X14" t="n">
         <v>0</v>
       </c>
       <c r="Y14" t="n">
-        <v>241.0142888776591</v>
+        <v>44.13217237922859</v>
       </c>
     </row>
     <row r="15">
@@ -1733,22 +1733,22 @@
         <v>0</v>
       </c>
       <c r="R15" t="n">
-        <v>0</v>
+        <v>44.13217237922859</v>
       </c>
       <c r="S15" t="n">
-        <v>35.40726547353833</v>
+        <v>0</v>
       </c>
       <c r="T15" t="n">
-        <v>200.1647286948216</v>
+        <v>0</v>
       </c>
       <c r="U15" t="n">
-        <v>225.9413820809748</v>
+        <v>44.13217237922859</v>
       </c>
       <c r="V15" t="n">
-        <v>232.8005871494253</v>
+        <v>38.87161743162454</v>
       </c>
       <c r="W15" t="n">
-        <v>241.0142888776591</v>
+        <v>44.13217237922859</v>
       </c>
       <c r="X15" t="n">
         <v>0</v>
@@ -1767,13 +1767,13 @@
         <v>0</v>
       </c>
       <c r="C16" t="n">
-        <v>0</v>
+        <v>0.7904504476822691</v>
       </c>
       <c r="D16" t="n">
-        <v>0</v>
+        <v>44.13217237922859</v>
       </c>
       <c r="E16" t="n">
-        <v>0</v>
+        <v>44.13217237922859</v>
       </c>
       <c r="F16" t="n">
         <v>0</v>
@@ -1782,7 +1782,7 @@
         <v>0</v>
       </c>
       <c r="H16" t="n">
-        <v>0</v>
+        <v>44.13217237922859</v>
       </c>
       <c r="I16" t="n">
         <v>0</v>
@@ -1818,7 +1818,7 @@
         <v>0</v>
       </c>
       <c r="T16" t="n">
-        <v>133.186967585368</v>
+        <v>0</v>
       </c>
       <c r="U16" t="n">
         <v>0</v>
@@ -1855,7 +1855,7 @@
         <v>0</v>
       </c>
       <c r="F17" t="n">
-        <v>92.95466700954542</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="G17" t="n">
         <v>241.0142888776591</v>
@@ -1864,7 +1864,7 @@
         <v>0</v>
       </c>
       <c r="I17" t="n">
-        <v>210.4758895704059</v>
+        <v>0</v>
       </c>
       <c r="J17" t="n">
         <v>0</v>
@@ -1888,10 +1888,10 @@
         <v>0</v>
       </c>
       <c r="Q17" t="n">
-        <v>0</v>
+        <v>9.990699214544804</v>
       </c>
       <c r="R17" t="n">
-        <v>149.8691179411497</v>
+        <v>0</v>
       </c>
       <c r="S17" t="n">
         <v>0</v>
@@ -1906,7 +1906,7 @@
         <v>0</v>
       </c>
       <c r="W17" t="n">
-        <v>0</v>
+        <v>202.2946864288972</v>
       </c>
       <c r="X17" t="n">
         <v>0</v>
@@ -1943,10 +1943,10 @@
         <v>0</v>
       </c>
       <c r="I18" t="n">
-        <v>89.39663285141508</v>
+        <v>0</v>
       </c>
       <c r="J18" t="n">
-        <v>0.7465913262578567</v>
+        <v>0</v>
       </c>
       <c r="K18" t="n">
         <v>0</v>
@@ -1970,25 +1970,25 @@
         <v>0</v>
       </c>
       <c r="R18" t="n">
-        <v>0</v>
+        <v>100.1578341526431</v>
       </c>
       <c r="S18" t="n">
-        <v>0</v>
+        <v>171.6831711038378</v>
       </c>
       <c r="T18" t="n">
-        <v>0</v>
+        <v>200.1647286948216</v>
       </c>
       <c r="U18" t="n">
-        <v>225.9413820809748</v>
+        <v>0</v>
       </c>
       <c r="V18" t="n">
-        <v>232.8005871494253</v>
+        <v>222.3082294474576</v>
       </c>
       <c r="W18" t="n">
         <v>241.0142888776591</v>
       </c>
       <c r="X18" t="n">
-        <v>145.4287699906872</v>
+        <v>0</v>
       </c>
       <c r="Y18" t="n">
         <v>0</v>
@@ -2019,7 +2019,7 @@
         <v>0</v>
       </c>
       <c r="H19" t="n">
-        <v>0</v>
+        <v>133.186967585368</v>
       </c>
       <c r="I19" t="n">
         <v>0</v>
@@ -2064,7 +2064,7 @@
         <v>0</v>
       </c>
       <c r="W19" t="n">
-        <v>133.186967585368</v>
+        <v>0</v>
       </c>
       <c r="X19" t="n">
         <v>0</v>
@@ -2083,7 +2083,7 @@
         <v>0</v>
       </c>
       <c r="C20" t="n">
-        <v>40.47627913313517</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="D20" t="n">
         <v>0</v>
@@ -2092,10 +2092,10 @@
         <v>0</v>
       </c>
       <c r="F20" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
       <c r="G20" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
       <c r="H20" t="n">
         <v>0</v>
@@ -2104,7 +2104,7 @@
         <v>0</v>
       </c>
       <c r="J20" t="n">
-        <v>11.94928935461252</v>
+        <v>0</v>
       </c>
       <c r="K20" t="n">
         <v>0</v>
@@ -2125,7 +2125,7 @@
         <v>0</v>
       </c>
       <c r="Q20" t="n">
-        <v>9.990699214544804</v>
+        <v>0</v>
       </c>
       <c r="R20" t="n">
         <v>149.8691179411497</v>
@@ -2134,22 +2134,22 @@
         <v>0</v>
       </c>
       <c r="T20" t="n">
-        <v>0</v>
+        <v>223.0958495641314</v>
       </c>
       <c r="U20" t="n">
         <v>0</v>
       </c>
       <c r="V20" t="n">
-        <v>0</v>
+        <v>80.33470701582003</v>
       </c>
       <c r="W20" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="X20" t="n">
         <v>0</v>
       </c>
       <c r="Y20" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
     </row>
     <row r="21">
@@ -2165,25 +2165,25 @@
         <v>0</v>
       </c>
       <c r="D21" t="n">
-        <v>0</v>
+        <v>147.4450655646388</v>
       </c>
       <c r="E21" t="n">
-        <v>114.0654954417817</v>
+        <v>0</v>
       </c>
       <c r="F21" t="n">
         <v>145.0692123933839</v>
       </c>
       <c r="G21" t="n">
-        <v>0</v>
+        <v>137.3435171632106</v>
       </c>
       <c r="H21" t="n">
         <v>112.2354442364965</v>
       </c>
       <c r="I21" t="n">
-        <v>89.39663285141508</v>
+        <v>0</v>
       </c>
       <c r="J21" t="n">
-        <v>0.7465913262578567</v>
+        <v>0</v>
       </c>
       <c r="K21" t="n">
         <v>0</v>
@@ -2210,19 +2210,19 @@
         <v>0</v>
       </c>
       <c r="S21" t="n">
-        <v>0</v>
+        <v>171.6831711038378</v>
       </c>
       <c r="T21" t="n">
         <v>0</v>
       </c>
       <c r="U21" t="n">
-        <v>0</v>
+        <v>221.5518418148517</v>
       </c>
       <c r="V21" t="n">
-        <v>232.8005871494253</v>
+        <v>0</v>
       </c>
       <c r="W21" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
       <c r="X21" t="n">
         <v>0</v>
@@ -2286,22 +2286,22 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
+        <v>0</v>
+      </c>
+      <c r="S22" t="n">
+        <v>0</v>
+      </c>
+      <c r="T22" t="n">
+        <v>0</v>
+      </c>
+      <c r="U22" t="n">
+        <v>0</v>
+      </c>
+      <c r="V22" t="n">
+        <v>0</v>
+      </c>
+      <c r="W22" t="n">
         <v>133.186967585368</v>
-      </c>
-      <c r="S22" t="n">
-        <v>0</v>
-      </c>
-      <c r="T22" t="n">
-        <v>0</v>
-      </c>
-      <c r="U22" t="n">
-        <v>0</v>
-      </c>
-      <c r="V22" t="n">
-        <v>0</v>
-      </c>
-      <c r="W22" t="n">
-        <v>0</v>
       </c>
       <c r="X22" t="n">
         <v>0</v>
@@ -2317,13 +2317,13 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>0</v>
+        <v>52.42556848774763</v>
       </c>
       <c r="C23" t="n">
         <v>0</v>
       </c>
       <c r="D23" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
       <c r="E23" t="n">
         <v>0</v>
@@ -2332,10 +2332,10 @@
         <v>241.0142888776591</v>
       </c>
       <c r="G23" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="H23" t="n">
-        <v>3.26531605719669</v>
+        <v>0</v>
       </c>
       <c r="I23" t="n">
         <v>0</v>
@@ -2362,13 +2362,13 @@
         <v>0</v>
       </c>
       <c r="Q23" t="n">
-        <v>0</v>
+        <v>9.990699214544804</v>
       </c>
       <c r="R23" t="n">
-        <v>0</v>
+        <v>149.8691179411497</v>
       </c>
       <c r="S23" t="n">
-        <v>209.0200695862453</v>
+        <v>0</v>
       </c>
       <c r="T23" t="n">
         <v>0</v>
@@ -2380,13 +2380,13 @@
         <v>0</v>
       </c>
       <c r="W23" t="n">
+        <v>0</v>
+      </c>
+      <c r="X23" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y23" t="n">
         <v>241.0142888776591</v>
-      </c>
-      <c r="X23" t="n">
-        <v>0</v>
-      </c>
-      <c r="Y23" t="n">
-        <v>0</v>
       </c>
     </row>
     <row r="24">
@@ -2417,7 +2417,7 @@
         <v>0</v>
       </c>
       <c r="I24" t="n">
-        <v>89.39663285141508</v>
+        <v>0</v>
       </c>
       <c r="J24" t="n">
         <v>0</v>
@@ -2447,7 +2447,7 @@
         <v>0</v>
       </c>
       <c r="S24" t="n">
-        <v>0</v>
+        <v>171.6831711038378</v>
       </c>
       <c r="T24" t="n">
         <v>0</v>
@@ -2462,7 +2462,7 @@
         <v>241.0142888776591</v>
       </c>
       <c r="X24" t="n">
-        <v>146.175361316945</v>
+        <v>63.88882306452232</v>
       </c>
       <c r="Y24" t="n">
         <v>0</v>
@@ -2526,7 +2526,7 @@
         <v>0</v>
       </c>
       <c r="S25" t="n">
-        <v>0</v>
+        <v>133.186967585368</v>
       </c>
       <c r="T25" t="n">
         <v>0</v>
@@ -2538,7 +2538,7 @@
         <v>0</v>
       </c>
       <c r="W25" t="n">
-        <v>133.186967585368</v>
+        <v>0</v>
       </c>
       <c r="X25" t="n">
         <v>0</v>
@@ -2554,25 +2554,25 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>0</v>
+        <v>62.4162677022923</v>
       </c>
       <c r="C26" t="n">
         <v>0</v>
       </c>
       <c r="D26" t="n">
+        <v>0</v>
+      </c>
+      <c r="E26" t="n">
+        <v>0</v>
+      </c>
+      <c r="F26" t="n">
         <v>241.0142888776591</v>
       </c>
-      <c r="E26" t="n">
-        <v>0</v>
-      </c>
-      <c r="F26" t="n">
-        <v>0</v>
-      </c>
       <c r="G26" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="H26" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
       <c r="I26" t="n">
         <v>0</v>
@@ -2614,16 +2614,16 @@
         <v>0</v>
       </c>
       <c r="V26" t="n">
-        <v>62.4162677022923</v>
+        <v>0</v>
       </c>
       <c r="W26" t="n">
+        <v>0</v>
+      </c>
+      <c r="X26" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y26" t="n">
         <v>241.0142888776591</v>
-      </c>
-      <c r="X26" t="n">
-        <v>0</v>
-      </c>
-      <c r="Y26" t="n">
-        <v>0</v>
       </c>
     </row>
     <row r="27">
@@ -2648,7 +2648,7 @@
         <v>0</v>
       </c>
       <c r="G27" t="n">
-        <v>0</v>
+        <v>137.3435171632106</v>
       </c>
       <c r="H27" t="n">
         <v>0</v>
@@ -2684,22 +2684,22 @@
         <v>0</v>
       </c>
       <c r="S27" t="n">
-        <v>0</v>
+        <v>151.1230217634236</v>
       </c>
       <c r="T27" t="n">
-        <v>0</v>
+        <v>200.1647286948216</v>
       </c>
       <c r="U27" t="n">
-        <v>225.9413820809748</v>
+        <v>0</v>
       </c>
       <c r="V27" t="n">
-        <v>232.8005871494253</v>
+        <v>0</v>
       </c>
       <c r="W27" t="n">
         <v>241.0142888776591</v>
       </c>
       <c r="X27" t="n">
-        <v>29.88929839105575</v>
+        <v>0</v>
       </c>
       <c r="Y27" t="n">
         <v>205.6826957773044</v>
@@ -2730,52 +2730,52 @@
         <v>0</v>
       </c>
       <c r="H28" t="n">
+        <v>0</v>
+      </c>
+      <c r="I28" t="n">
+        <v>0</v>
+      </c>
+      <c r="J28" t="n">
+        <v>0</v>
+      </c>
+      <c r="K28" t="n">
+        <v>0</v>
+      </c>
+      <c r="L28" t="n">
+        <v>0</v>
+      </c>
+      <c r="M28" t="n">
+        <v>0</v>
+      </c>
+      <c r="N28" t="n">
+        <v>0</v>
+      </c>
+      <c r="O28" t="n">
+        <v>0</v>
+      </c>
+      <c r="P28" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q28" t="n">
+        <v>0</v>
+      </c>
+      <c r="R28" t="n">
+        <v>0</v>
+      </c>
+      <c r="S28" t="n">
+        <v>0</v>
+      </c>
+      <c r="T28" t="n">
+        <v>0</v>
+      </c>
+      <c r="U28" t="n">
+        <v>0</v>
+      </c>
+      <c r="V28" t="n">
+        <v>0</v>
+      </c>
+      <c r="W28" t="n">
         <v>133.186967585368</v>
-      </c>
-      <c r="I28" t="n">
-        <v>0</v>
-      </c>
-      <c r="J28" t="n">
-        <v>0</v>
-      </c>
-      <c r="K28" t="n">
-        <v>0</v>
-      </c>
-      <c r="L28" t="n">
-        <v>0</v>
-      </c>
-      <c r="M28" t="n">
-        <v>0</v>
-      </c>
-      <c r="N28" t="n">
-        <v>0</v>
-      </c>
-      <c r="O28" t="n">
-        <v>0</v>
-      </c>
-      <c r="P28" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q28" t="n">
-        <v>0</v>
-      </c>
-      <c r="R28" t="n">
-        <v>0</v>
-      </c>
-      <c r="S28" t="n">
-        <v>0</v>
-      </c>
-      <c r="T28" t="n">
-        <v>0</v>
-      </c>
-      <c r="U28" t="n">
-        <v>0</v>
-      </c>
-      <c r="V28" t="n">
-        <v>0</v>
-      </c>
-      <c r="W28" t="n">
-        <v>0</v>
       </c>
       <c r="X28" t="n">
         <v>0</v>
@@ -2794,16 +2794,16 @@
         <v>0</v>
       </c>
       <c r="C29" t="n">
+        <v>0</v>
+      </c>
+      <c r="D29" t="n">
+        <v>0</v>
+      </c>
+      <c r="E29" t="n">
+        <v>0</v>
+      </c>
+      <c r="F29" t="n">
         <v>241.0142888776591</v>
-      </c>
-      <c r="D29" t="n">
-        <v>0</v>
-      </c>
-      <c r="E29" t="n">
-        <v>0</v>
-      </c>
-      <c r="F29" t="n">
-        <v>0</v>
       </c>
       <c r="G29" t="n">
         <v>241.0142888776591</v>
@@ -2836,7 +2836,7 @@
         <v>0</v>
       </c>
       <c r="Q29" t="n">
-        <v>9.990699214544804</v>
+        <v>0</v>
       </c>
       <c r="R29" t="n">
         <v>0</v>
@@ -2845,10 +2845,10 @@
         <v>0</v>
       </c>
       <c r="T29" t="n">
-        <v>0</v>
+        <v>223.0958495641314</v>
       </c>
       <c r="U29" t="n">
-        <v>241.0142888776591</v>
+        <v>230.2038249569697</v>
       </c>
       <c r="V29" t="n">
         <v>0</v>
@@ -2857,7 +2857,7 @@
         <v>0</v>
       </c>
       <c r="X29" t="n">
-        <v>202.2946864288972</v>
+        <v>0</v>
       </c>
       <c r="Y29" t="n">
         <v>0</v>
@@ -2870,31 +2870,31 @@
         </is>
       </c>
       <c r="B30" t="n">
-        <v>54.16565624330335</v>
+        <v>0</v>
       </c>
       <c r="C30" t="n">
-        <v>172.7084989883157</v>
+        <v>0</v>
       </c>
       <c r="D30" t="n">
-        <v>0</v>
+        <v>68.41774016236951</v>
       </c>
       <c r="E30" t="n">
         <v>157.6450804554009</v>
       </c>
       <c r="F30" t="n">
-        <v>0</v>
+        <v>145.0692123933839</v>
       </c>
       <c r="G30" t="n">
-        <v>0</v>
+        <v>137.3435171632106</v>
       </c>
       <c r="H30" t="n">
-        <v>112.2354442364965</v>
+        <v>0</v>
       </c>
       <c r="I30" t="n">
         <v>0</v>
       </c>
       <c r="J30" t="n">
-        <v>0</v>
+        <v>0.7465913262578567</v>
       </c>
       <c r="K30" t="n">
         <v>0</v>
@@ -2924,19 +2924,19 @@
         <v>0</v>
       </c>
       <c r="T30" t="n">
-        <v>0</v>
+        <v>200.1647286948216</v>
       </c>
       <c r="U30" t="n">
-        <v>0</v>
+        <v>225.9413820809748</v>
       </c>
       <c r="V30" t="n">
-        <v>232.8005871494253</v>
+        <v>0</v>
       </c>
       <c r="W30" t="n">
         <v>0</v>
       </c>
       <c r="X30" t="n">
-        <v>205.7729852034775</v>
+        <v>0</v>
       </c>
       <c r="Y30" t="n">
         <v>0</v>
@@ -3006,13 +3006,13 @@
         <v>0</v>
       </c>
       <c r="U31" t="n">
-        <v>0</v>
+        <v>133.186967585368</v>
       </c>
       <c r="V31" t="n">
         <v>0</v>
       </c>
       <c r="W31" t="n">
-        <v>133.186967585368</v>
+        <v>0</v>
       </c>
       <c r="X31" t="n">
         <v>0</v>
@@ -3088,7 +3088,7 @@
         <v>241.0142888776591</v>
       </c>
       <c r="V32" t="n">
-        <v>0</v>
+        <v>112.3289263072337</v>
       </c>
       <c r="W32" t="n">
         <v>0</v>
@@ -3097,7 +3097,7 @@
         <v>0</v>
       </c>
       <c r="Y32" t="n">
-        <v>112.3289263072337</v>
+        <v>0</v>
       </c>
     </row>
     <row r="33">
@@ -3107,7 +3107,7 @@
         </is>
       </c>
       <c r="B33" t="n">
-        <v>0</v>
+        <v>29.79900896488263</v>
       </c>
       <c r="C33" t="n">
         <v>0</v>
@@ -3128,10 +3128,10 @@
         <v>0</v>
       </c>
       <c r="I33" t="n">
-        <v>29.1427070647979</v>
+        <v>0</v>
       </c>
       <c r="J33" t="n">
-        <v>0.7465913262578567</v>
+        <v>0</v>
       </c>
       <c r="K33" t="n">
         <v>0</v>
@@ -3173,10 +3173,10 @@
         <v>241.0142888776591</v>
       </c>
       <c r="X33" t="n">
-        <v>0</v>
+        <v>205.7729852034775</v>
       </c>
       <c r="Y33" t="n">
-        <v>205.6826957773044</v>
+        <v>0</v>
       </c>
     </row>
     <row r="34">
@@ -3234,7 +3234,7 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>0</v>
+        <v>133.186967585368</v>
       </c>
       <c r="S34" t="n">
         <v>0</v>
@@ -3255,7 +3255,7 @@
         <v>0</v>
       </c>
       <c r="Y34" t="n">
-        <v>133.186967585368</v>
+        <v>0</v>
       </c>
     </row>
     <row r="35">
@@ -3283,10 +3283,10 @@
         <v>241.0142888776591</v>
       </c>
       <c r="H35" t="n">
-        <v>9.737236172019017</v>
+        <v>0</v>
       </c>
       <c r="I35" t="n">
-        <v>210.4758895704059</v>
+        <v>0</v>
       </c>
       <c r="J35" t="n">
         <v>0</v>
@@ -3310,22 +3310,22 @@
         <v>0</v>
       </c>
       <c r="Q35" t="n">
-        <v>9.990699214544804</v>
+        <v>0</v>
       </c>
       <c r="R35" t="n">
-        <v>0</v>
+        <v>149.8691179411497</v>
       </c>
       <c r="S35" t="n">
-        <v>0</v>
+        <v>80.33470701582003</v>
       </c>
       <c r="T35" t="n">
         <v>223.0958495641314</v>
       </c>
       <c r="U35" t="n">
+        <v>0</v>
+      </c>
+      <c r="V35" t="n">
         <v>241.0142888776591</v>
-      </c>
-      <c r="V35" t="n">
-        <v>0</v>
       </c>
       <c r="W35" t="n">
         <v>0</v>
@@ -3362,7 +3362,7 @@
         <v>0</v>
       </c>
       <c r="H36" t="n">
-        <v>0</v>
+        <v>112.2354442364965</v>
       </c>
       <c r="I36" t="n">
         <v>0</v>
@@ -3392,16 +3392,16 @@
         <v>0</v>
       </c>
       <c r="R36" t="n">
-        <v>100.1578341526431</v>
+        <v>0</v>
       </c>
       <c r="S36" t="n">
         <v>0</v>
       </c>
       <c r="T36" t="n">
-        <v>0</v>
+        <v>123.3365499318636</v>
       </c>
       <c r="U36" t="n">
-        <v>155.6728463193873</v>
+        <v>225.9413820809748</v>
       </c>
       <c r="V36" t="n">
         <v>232.8005871494253</v>
@@ -3413,7 +3413,7 @@
         <v>0</v>
       </c>
       <c r="Y36" t="n">
-        <v>205.6826957773044</v>
+        <v>0</v>
       </c>
     </row>
     <row r="37">
@@ -3517,7 +3517,7 @@
         <v>0</v>
       </c>
       <c r="G38" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
       <c r="H38" t="n">
         <v>0</v>
@@ -3550,25 +3550,25 @@
         <v>9.990699214544804</v>
       </c>
       <c r="R38" t="n">
-        <v>0</v>
+        <v>149.8691179411497</v>
       </c>
       <c r="S38" t="n">
         <v>0</v>
       </c>
       <c r="T38" t="n">
-        <v>223.0958495641314</v>
+        <v>52.42556848774752</v>
       </c>
       <c r="U38" t="n">
-        <v>220.2131257424249</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="V38" t="n">
+        <v>0</v>
+      </c>
+      <c r="W38" t="n">
         <v>241.0142888776591</v>
       </c>
-      <c r="W38" t="n">
-        <v>0</v>
-      </c>
       <c r="X38" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="Y38" t="n">
         <v>0</v>
@@ -3605,7 +3605,7 @@
         <v>0</v>
       </c>
       <c r="J39" t="n">
-        <v>0.7465913262578567</v>
+        <v>0</v>
       </c>
       <c r="K39" t="n">
         <v>0</v>
@@ -3632,22 +3632,22 @@
         <v>100.1578341526431</v>
       </c>
       <c r="S39" t="n">
-        <v>0</v>
+        <v>171.6831711038378</v>
       </c>
       <c r="T39" t="n">
-        <v>0</v>
+        <v>200.1647286948216</v>
       </c>
       <c r="U39" t="n">
-        <v>154.8359655669564</v>
+        <v>0</v>
       </c>
       <c r="V39" t="n">
         <v>232.8005871494253</v>
       </c>
       <c r="W39" t="n">
-        <v>241.0142888776591</v>
+        <v>230.5219311756913</v>
       </c>
       <c r="X39" t="n">
-        <v>205.7729852034775</v>
+        <v>0</v>
       </c>
       <c r="Y39" t="n">
         <v>0</v>
@@ -3681,7 +3681,7 @@
         <v>0</v>
       </c>
       <c r="I40" t="n">
-        <v>0</v>
+        <v>133.186967585368</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -3705,7 +3705,7 @@
         <v>0</v>
       </c>
       <c r="Q40" t="n">
-        <v>86.16204325169439</v>
+        <v>0</v>
       </c>
       <c r="R40" t="n">
         <v>0</v>
@@ -3729,7 +3729,7 @@
         <v>0</v>
       </c>
       <c r="Y40" t="n">
-        <v>47.02492433367365</v>
+        <v>0</v>
       </c>
     </row>
     <row r="41">
@@ -3751,13 +3751,13 @@
         <v>0</v>
       </c>
       <c r="F41" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
       <c r="G41" t="n">
         <v>241.0142888776591</v>
       </c>
       <c r="H41" t="n">
-        <v>94.41048699370604</v>
+        <v>0</v>
       </c>
       <c r="I41" t="n">
         <v>0</v>
@@ -3790,16 +3790,16 @@
         <v>149.8691179411497</v>
       </c>
       <c r="S41" t="n">
-        <v>209.0200695862453</v>
+        <v>0</v>
       </c>
       <c r="T41" t="n">
-        <v>0</v>
+        <v>223.0958495641314</v>
       </c>
       <c r="U41" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="V41" t="n">
-        <v>0</v>
+        <v>80.33470701582003</v>
       </c>
       <c r="W41" t="n">
         <v>0</v>
@@ -3833,7 +3833,7 @@
         <v>0</v>
       </c>
       <c r="G42" t="n">
-        <v>137.3435171632106</v>
+        <v>0</v>
       </c>
       <c r="H42" t="n">
         <v>0</v>
@@ -3866,10 +3866,10 @@
         <v>0</v>
       </c>
       <c r="R42" t="n">
-        <v>100.1578341526431</v>
+        <v>0</v>
       </c>
       <c r="S42" t="n">
-        <v>0</v>
+        <v>171.6831711038378</v>
       </c>
       <c r="T42" t="n">
         <v>0</v>
@@ -3878,13 +3878,13 @@
         <v>225.9413820809748</v>
       </c>
       <c r="V42" t="n">
-        <v>230.8712300019315</v>
+        <v>232.8005871494253</v>
       </c>
       <c r="W42" t="n">
         <v>241.0142888776591</v>
       </c>
       <c r="X42" t="n">
-        <v>0</v>
+        <v>63.88882306452232</v>
       </c>
       <c r="Y42" t="n">
         <v>0</v>
@@ -3954,13 +3954,13 @@
         <v>0</v>
       </c>
       <c r="U43" t="n">
+        <v>0</v>
+      </c>
+      <c r="V43" t="n">
+        <v>0</v>
+      </c>
+      <c r="W43" t="n">
         <v>133.186967585368</v>
-      </c>
-      <c r="V43" t="n">
-        <v>0</v>
-      </c>
-      <c r="W43" t="n">
-        <v>0</v>
       </c>
       <c r="X43" t="n">
         <v>0</v>
@@ -3976,10 +3976,10 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="C44" t="n">
-        <v>0</v>
+        <v>102.3382270926889</v>
       </c>
       <c r="D44" t="n">
         <v>0</v>
@@ -3991,13 +3991,13 @@
         <v>0</v>
       </c>
       <c r="G44" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
       <c r="H44" t="n">
         <v>0</v>
       </c>
       <c r="I44" t="n">
-        <v>210.4758895704059</v>
+        <v>0</v>
       </c>
       <c r="J44" t="n">
         <v>0</v>
@@ -4021,19 +4021,19 @@
         <v>0</v>
       </c>
       <c r="Q44" t="n">
-        <v>0</v>
+        <v>9.990699214544804</v>
       </c>
       <c r="R44" t="n">
         <v>149.8691179411497</v>
       </c>
       <c r="S44" t="n">
-        <v>0</v>
+        <v>209.0200695862453</v>
       </c>
       <c r="T44" t="n">
         <v>223.0958495641314</v>
       </c>
       <c r="U44" t="n">
-        <v>110.8731063230731</v>
+        <v>0</v>
       </c>
       <c r="V44" t="n">
         <v>0</v>
@@ -4064,13 +4064,13 @@
         <v>0</v>
       </c>
       <c r="E45" t="n">
-        <v>0</v>
+        <v>127.9826185018314</v>
       </c>
       <c r="F45" t="n">
-        <v>0</v>
+        <v>145.0692123933839</v>
       </c>
       <c r="G45" t="n">
-        <v>0</v>
+        <v>137.3435171632106</v>
       </c>
       <c r="H45" t="n">
         <v>112.2354442364965</v>
@@ -4103,19 +4103,19 @@
         <v>0</v>
       </c>
       <c r="R45" t="n">
-        <v>100.1578341526431</v>
+        <v>0</v>
       </c>
       <c r="S45" t="n">
-        <v>0</v>
+        <v>171.6831711038378</v>
       </c>
       <c r="T45" t="n">
-        <v>23.17871577922039</v>
+        <v>0</v>
       </c>
       <c r="U45" t="n">
-        <v>225.9413820809748</v>
+        <v>0</v>
       </c>
       <c r="V45" t="n">
-        <v>232.8005871494253</v>
+        <v>0</v>
       </c>
       <c r="W45" t="n">
         <v>241.0142888776591</v>
@@ -4146,7 +4146,7 @@
         <v>0</v>
       </c>
       <c r="F46" t="n">
-        <v>0</v>
+        <v>133.186967585368</v>
       </c>
       <c r="G46" t="n">
         <v>0</v>
@@ -4194,7 +4194,7 @@
         <v>0</v>
       </c>
       <c r="V46" t="n">
-        <v>133.186967585368</v>
+        <v>0</v>
       </c>
       <c r="W46" t="n">
         <v>0</v>
@@ -4306,76 +4306,76 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>19.28114311021272</v>
+        <v>3.530573790338288</v>
       </c>
       <c r="C2" t="n">
-        <v>19.28114311021272</v>
+        <v>3.530573790338288</v>
       </c>
       <c r="D2" t="n">
-        <v>19.28114311021272</v>
+        <v>3.530573790338288</v>
       </c>
       <c r="E2" t="n">
-        <v>19.28114311021272</v>
+        <v>3.530573790338288</v>
       </c>
       <c r="F2" t="n">
-        <v>19.28114311021272</v>
+        <v>3.530573790338288</v>
       </c>
       <c r="G2" t="n">
-        <v>19.28114311021272</v>
+        <v>3.530573790338288</v>
       </c>
       <c r="H2" t="n">
-        <v>19.28114311021272</v>
+        <v>3.530573790338288</v>
       </c>
       <c r="I2" t="n">
-        <v>19.28114311021272</v>
+        <v>3.530573790338288</v>
       </c>
       <c r="J2" t="n">
-        <v>19.28114311021272</v>
+        <v>3.530573790338288</v>
       </c>
       <c r="K2" t="n">
-        <v>122.2961490211351</v>
+        <v>47.22142444577459</v>
       </c>
       <c r="L2" t="n">
-        <v>302.3720006057937</v>
+        <v>90.91227510121089</v>
       </c>
       <c r="M2" t="n">
-        <v>519.3476278686978</v>
+        <v>134.6031257566472</v>
       </c>
       <c r="N2" t="n">
-        <v>725.2021500759372</v>
+        <v>134.6031257566472</v>
       </c>
       <c r="O2" t="n">
-        <v>874.3971002185853</v>
+        <v>134.6031257566472</v>
       </c>
       <c r="P2" t="n">
-        <v>964.0571555106362</v>
+        <v>176.5286895169144</v>
       </c>
       <c r="Q2" t="n">
-        <v>953.9655401424092</v>
+        <v>176.5286895169144</v>
       </c>
       <c r="R2" t="n">
-        <v>953.9655401424092</v>
+        <v>176.5286895169144</v>
       </c>
       <c r="S2" t="n">
-        <v>749.627473042513</v>
+        <v>176.5286895169144</v>
       </c>
       <c r="T2" t="n">
-        <v>749.627473042513</v>
+        <v>137.2644294849704</v>
       </c>
       <c r="U2" t="n">
-        <v>506.1786963984129</v>
+        <v>92.68647758675968</v>
       </c>
       <c r="V2" t="n">
-        <v>506.1786963984129</v>
+        <v>48.10852568854899</v>
       </c>
       <c r="W2" t="n">
-        <v>262.7299197543128</v>
+        <v>3.530573790338288</v>
       </c>
       <c r="X2" t="n">
-        <v>19.28114311021272</v>
+        <v>3.530573790338288</v>
       </c>
       <c r="Y2" t="n">
-        <v>19.28114311021272</v>
+        <v>3.530573790338288</v>
       </c>
     </row>
     <row r="3">
@@ -4385,76 +4385,76 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>20.03527576299844</v>
+        <v>48.10852568854899</v>
       </c>
       <c r="C3" t="n">
-        <v>20.03527576299844</v>
+        <v>48.10852568854899</v>
       </c>
       <c r="D3" t="n">
-        <v>20.03527576299844</v>
+        <v>48.10852568854899</v>
       </c>
       <c r="E3" t="n">
-        <v>20.03527576299844</v>
+        <v>48.10852568854899</v>
       </c>
       <c r="F3" t="n">
-        <v>20.03527576299844</v>
+        <v>48.10852568854899</v>
       </c>
       <c r="G3" t="n">
-        <v>20.03527576299844</v>
+        <v>3.530573790338288</v>
       </c>
       <c r="H3" t="n">
-        <v>20.03527576299844</v>
+        <v>3.530573790338288</v>
       </c>
       <c r="I3" t="n">
-        <v>20.03527576299844</v>
+        <v>3.530573790338288</v>
       </c>
       <c r="J3" t="n">
-        <v>19.28114311021272</v>
+        <v>3.530573790338288</v>
       </c>
       <c r="K3" t="n">
-        <v>19.28114311021272</v>
+        <v>3.530573790338288</v>
       </c>
       <c r="L3" t="n">
-        <v>65.60123993063803</v>
+        <v>45.45613755060546</v>
       </c>
       <c r="M3" t="n">
-        <v>304.2053859195205</v>
+        <v>89.14698820604177</v>
       </c>
       <c r="N3" t="n">
-        <v>542.809531908403</v>
+        <v>132.8378388614781</v>
       </c>
       <c r="O3" t="n">
-        <v>781.4136778972854</v>
+        <v>132.8378388614781</v>
       </c>
       <c r="P3" t="n">
-        <v>964.0571555106362</v>
+        <v>176.5286895169144</v>
       </c>
       <c r="Q3" t="n">
-        <v>964.0571555106362</v>
+        <v>176.5286895169144</v>
       </c>
       <c r="R3" t="n">
-        <v>964.0571555106362</v>
+        <v>131.9507376187037</v>
       </c>
       <c r="S3" t="n">
-        <v>790.6398109613051</v>
+        <v>87.37278572049297</v>
       </c>
       <c r="T3" t="n">
-        <v>790.6398109613051</v>
+        <v>87.37278572049297</v>
       </c>
       <c r="U3" t="n">
-        <v>666.8514976589092</v>
+        <v>87.37278572049297</v>
       </c>
       <c r="V3" t="n">
-        <v>431.6993894271665</v>
+        <v>87.37278572049297</v>
       </c>
       <c r="W3" t="n">
-        <v>188.2506127830665</v>
+        <v>87.37278572049297</v>
       </c>
       <c r="X3" t="n">
-        <v>188.2506127830665</v>
+        <v>87.37278572049297</v>
       </c>
       <c r="Y3" t="n">
-        <v>188.2506127830665</v>
+        <v>87.37278572049297</v>
       </c>
     </row>
     <row r="4">
@@ -4464,76 +4464,76 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>19.28114311021272</v>
+        <v>4.329008585976936</v>
       </c>
       <c r="C4" t="n">
-        <v>19.28114311021272</v>
+        <v>4.329008585976936</v>
       </c>
       <c r="D4" t="n">
-        <v>19.28114311021272</v>
+        <v>4.329008585976936</v>
       </c>
       <c r="E4" t="n">
-        <v>19.28114311021272</v>
+        <v>4.329008585976936</v>
       </c>
       <c r="F4" t="n">
-        <v>19.28114311021272</v>
+        <v>4.329008585976936</v>
       </c>
       <c r="G4" t="n">
-        <v>19.28114311021272</v>
+        <v>4.329008585976936</v>
       </c>
       <c r="H4" t="n">
-        <v>19.28114311021272</v>
+        <v>4.329008585976936</v>
       </c>
       <c r="I4" t="n">
-        <v>19.28114311021272</v>
+        <v>3.530573790338288</v>
       </c>
       <c r="J4" t="n">
-        <v>19.28114311021272</v>
+        <v>3.530573790338288</v>
       </c>
       <c r="K4" t="n">
-        <v>19.28114311021272</v>
+        <v>3.530573790338288</v>
       </c>
       <c r="L4" t="n">
-        <v>46.5952681179257</v>
+        <v>30.84469879805127</v>
       </c>
       <c r="M4" t="n">
-        <v>85.78330631014788</v>
+        <v>70.03273699027345</v>
       </c>
       <c r="N4" t="n">
-        <v>129.4741569655842</v>
+        <v>113.7235876457098</v>
       </c>
       <c r="O4" t="n">
-        <v>153.8134336004835</v>
+        <v>138.062864280609</v>
       </c>
       <c r="P4" t="n">
-        <v>153.8134336004835</v>
+        <v>138.062864280609</v>
       </c>
       <c r="Q4" t="n">
-        <v>153.8134336004835</v>
+        <v>138.062864280609</v>
       </c>
       <c r="R4" t="n">
-        <v>19.28114311021272</v>
+        <v>93.48491238239833</v>
       </c>
       <c r="S4" t="n">
-        <v>19.28114311021272</v>
+        <v>93.48491238239833</v>
       </c>
       <c r="T4" t="n">
-        <v>19.28114311021272</v>
+        <v>93.48491238239833</v>
       </c>
       <c r="U4" t="n">
-        <v>19.28114311021272</v>
+        <v>48.90696048418764</v>
       </c>
       <c r="V4" t="n">
-        <v>19.28114311021272</v>
+        <v>48.90696048418764</v>
       </c>
       <c r="W4" t="n">
-        <v>19.28114311021272</v>
+        <v>48.90696048418764</v>
       </c>
       <c r="X4" t="n">
-        <v>19.28114311021272</v>
+        <v>48.90696048418764</v>
       </c>
       <c r="Y4" t="n">
-        <v>19.28114311021272</v>
+        <v>4.329008585976936</v>
       </c>
     </row>
     <row r="5">
@@ -4543,76 +4543,76 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>348.0024326625565</v>
+        <v>3.530573790338288</v>
       </c>
       <c r="C5" t="n">
-        <v>104.5536560184564</v>
+        <v>3.530573790338288</v>
       </c>
       <c r="D5" t="n">
-        <v>104.5536560184564</v>
+        <v>3.530573790338288</v>
       </c>
       <c r="E5" t="n">
-        <v>104.5536560184564</v>
+        <v>3.530573790338288</v>
       </c>
       <c r="F5" t="n">
-        <v>19.28114311021272</v>
+        <v>3.530573790338288</v>
       </c>
       <c r="G5" t="n">
-        <v>19.28114311021272</v>
+        <v>3.530573790338288</v>
       </c>
       <c r="H5" t="n">
-        <v>19.28114311021272</v>
+        <v>3.530573790338288</v>
       </c>
       <c r="I5" t="n">
-        <v>19.28114311021272</v>
+        <v>3.530573790338288</v>
       </c>
       <c r="J5" t="n">
-        <v>19.28114311021272</v>
+        <v>3.530573790338288</v>
       </c>
       <c r="K5" t="n">
-        <v>122.2961490211351</v>
+        <v>3.530573790338288</v>
       </c>
       <c r="L5" t="n">
-        <v>302.3720006057937</v>
+        <v>47.22142444577459</v>
       </c>
       <c r="M5" t="n">
-        <v>519.3476278686978</v>
+        <v>47.22142444577459</v>
       </c>
       <c r="N5" t="n">
-        <v>725.2021500759372</v>
+        <v>89.14698820604177</v>
       </c>
       <c r="O5" t="n">
-        <v>874.3971002185853</v>
+        <v>132.8378388614781</v>
       </c>
       <c r="P5" t="n">
-        <v>964.0571555106362</v>
+        <v>176.5286895169144</v>
       </c>
       <c r="Q5" t="n">
-        <v>953.9655401424092</v>
+        <v>176.5286895169144</v>
       </c>
       <c r="R5" t="n">
-        <v>802.5825927271064</v>
+        <v>131.9507376187037</v>
       </c>
       <c r="S5" t="n">
-        <v>591.4512093066566</v>
+        <v>131.9507376187037</v>
       </c>
       <c r="T5" t="n">
-        <v>591.4512093066566</v>
+        <v>131.9507376187037</v>
       </c>
       <c r="U5" t="n">
-        <v>591.4512093066566</v>
+        <v>131.9507376187037</v>
       </c>
       <c r="V5" t="n">
-        <v>591.4512093066566</v>
+        <v>131.9507376187037</v>
       </c>
       <c r="W5" t="n">
-        <v>591.4512093066566</v>
+        <v>131.9507376187037</v>
       </c>
       <c r="X5" t="n">
-        <v>591.4512093066566</v>
+        <v>92.68647758675968</v>
       </c>
       <c r="Y5" t="n">
-        <v>348.0024326625565</v>
+        <v>48.10852568854899</v>
       </c>
     </row>
     <row r="6">
@@ -4622,76 +4622,76 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>411.587349213889</v>
+        <v>3.530573790338288</v>
       </c>
       <c r="C6" t="n">
-        <v>411.587349213889</v>
+        <v>3.530573790338288</v>
       </c>
       <c r="D6" t="n">
-        <v>411.587349213889</v>
+        <v>3.530573790338288</v>
       </c>
       <c r="E6" t="n">
-        <v>411.587349213889</v>
+        <v>3.530573790338288</v>
       </c>
       <c r="F6" t="n">
-        <v>265.0527912407739</v>
+        <v>3.530573790338288</v>
       </c>
       <c r="G6" t="n">
-        <v>132.6502787026334</v>
+        <v>3.530573790338288</v>
       </c>
       <c r="H6" t="n">
-        <v>19.28114311021272</v>
+        <v>3.530573790338288</v>
       </c>
       <c r="I6" t="n">
-        <v>19.28114311021272</v>
+        <v>3.530573790338288</v>
       </c>
       <c r="J6" t="n">
-        <v>19.28114311021272</v>
+        <v>3.530573790338288</v>
       </c>
       <c r="K6" t="n">
-        <v>144.6387031680501</v>
+        <v>3.530573790338288</v>
       </c>
       <c r="L6" t="n">
-        <v>144.6387031680501</v>
+        <v>45.45613755060546</v>
       </c>
       <c r="M6" t="n">
-        <v>383.2428491569326</v>
+        <v>89.14698820604177</v>
       </c>
       <c r="N6" t="n">
-        <v>473.4149733950735</v>
+        <v>132.8378388614781</v>
       </c>
       <c r="O6" t="n">
-        <v>712.019119383956</v>
+        <v>176.5286895169144</v>
       </c>
       <c r="P6" t="n">
-        <v>894.6625969973069</v>
+        <v>176.5286895169144</v>
       </c>
       <c r="Q6" t="n">
-        <v>964.0571555106362</v>
+        <v>176.5286895169144</v>
       </c>
       <c r="R6" t="n">
-        <v>862.8876260635219</v>
+        <v>131.9507376187037</v>
       </c>
       <c r="S6" t="n">
-        <v>862.8876260635219</v>
+        <v>87.37278572049297</v>
       </c>
       <c r="T6" t="n">
-        <v>862.8876260635219</v>
+        <v>42.79483382228227</v>
       </c>
       <c r="U6" t="n">
-        <v>862.8876260635219</v>
+        <v>42.79483382228227</v>
       </c>
       <c r="V6" t="n">
-        <v>862.8876260635219</v>
+        <v>42.79483382228227</v>
       </c>
       <c r="W6" t="n">
-        <v>619.4388494194218</v>
+        <v>3.530573790338288</v>
       </c>
       <c r="X6" t="n">
-        <v>411.587349213889</v>
+        <v>3.530573790338288</v>
       </c>
       <c r="Y6" t="n">
-        <v>411.587349213889</v>
+        <v>3.530573790338288</v>
       </c>
     </row>
     <row r="7">
@@ -4701,76 +4701,76 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>19.28114311021272</v>
+        <v>3.530573790338288</v>
       </c>
       <c r="C7" t="n">
-        <v>19.28114311021272</v>
+        <v>3.530573790338288</v>
       </c>
       <c r="D7" t="n">
-        <v>19.28114311021272</v>
+        <v>3.530573790338288</v>
       </c>
       <c r="E7" t="n">
-        <v>19.28114311021272</v>
+        <v>3.530573790338288</v>
       </c>
       <c r="F7" t="n">
-        <v>19.28114311021272</v>
+        <v>3.530573790338288</v>
       </c>
       <c r="G7" t="n">
-        <v>19.28114311021272</v>
+        <v>3.530573790338288</v>
       </c>
       <c r="H7" t="n">
-        <v>19.28114311021272</v>
+        <v>3.530573790338288</v>
       </c>
       <c r="I7" t="n">
-        <v>19.28114311021272</v>
+        <v>3.530573790338288</v>
       </c>
       <c r="J7" t="n">
-        <v>19.28114311021272</v>
+        <v>3.530573790338288</v>
       </c>
       <c r="K7" t="n">
-        <v>19.28114311021272</v>
+        <v>3.530573790338288</v>
       </c>
       <c r="L7" t="n">
-        <v>46.5952681179257</v>
+        <v>30.84469879805127</v>
       </c>
       <c r="M7" t="n">
-        <v>85.78330631014788</v>
+        <v>70.03273699027345</v>
       </c>
       <c r="N7" t="n">
-        <v>129.4741569655842</v>
+        <v>113.7235876457098</v>
       </c>
       <c r="O7" t="n">
-        <v>153.8134336004835</v>
+        <v>138.062864280609</v>
       </c>
       <c r="P7" t="n">
-        <v>153.8134336004835</v>
+        <v>138.062864280609</v>
       </c>
       <c r="Q7" t="n">
-        <v>153.8134336004835</v>
+        <v>138.062864280609</v>
       </c>
       <c r="R7" t="n">
-        <v>153.8134336004835</v>
+        <v>138.062864280609</v>
       </c>
       <c r="S7" t="n">
-        <v>153.8134336004835</v>
+        <v>93.48491238239833</v>
       </c>
       <c r="T7" t="n">
-        <v>19.28114311021272</v>
+        <v>93.48491238239833</v>
       </c>
       <c r="U7" t="n">
-        <v>19.28114311021272</v>
+        <v>93.48491238239833</v>
       </c>
       <c r="V7" t="n">
-        <v>19.28114311021272</v>
+        <v>93.48491238239833</v>
       </c>
       <c r="W7" t="n">
-        <v>19.28114311021272</v>
+        <v>93.48491238239833</v>
       </c>
       <c r="X7" t="n">
-        <v>19.28114311021272</v>
+        <v>48.90696048418764</v>
       </c>
       <c r="Y7" t="n">
-        <v>19.28114311021272</v>
+        <v>4.329008585976936</v>
       </c>
     </row>
     <row r="8">
@@ -4780,76 +4780,76 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>19.28114311021272</v>
+        <v>3.530573790338288</v>
       </c>
       <c r="C8" t="n">
-        <v>19.28114311021272</v>
+        <v>3.530573790338288</v>
       </c>
       <c r="D8" t="n">
-        <v>19.28114311021272</v>
+        <v>3.530573790338288</v>
       </c>
       <c r="E8" t="n">
-        <v>19.28114311021272</v>
+        <v>3.530573790338288</v>
       </c>
       <c r="F8" t="n">
-        <v>19.28114311021272</v>
+        <v>3.530573790338288</v>
       </c>
       <c r="G8" t="n">
-        <v>19.28114311021272</v>
+        <v>3.530573790338288</v>
       </c>
       <c r="H8" t="n">
-        <v>19.28114311021272</v>
+        <v>3.530573790338288</v>
       </c>
       <c r="I8" t="n">
-        <v>19.28114311021272</v>
+        <v>3.530573790338288</v>
       </c>
       <c r="J8" t="n">
-        <v>19.28114311021272</v>
+        <v>3.530573790338288</v>
       </c>
       <c r="K8" t="n">
-        <v>122.2961490211351</v>
+        <v>47.22142444577459</v>
       </c>
       <c r="L8" t="n">
-        <v>302.3720006057937</v>
+        <v>90.91227510121089</v>
       </c>
       <c r="M8" t="n">
-        <v>519.3476278686978</v>
+        <v>132.8378388614781</v>
       </c>
       <c r="N8" t="n">
-        <v>725.2021500759372</v>
+        <v>132.8378388614781</v>
       </c>
       <c r="O8" t="n">
-        <v>874.3971002185853</v>
+        <v>176.5286895169144</v>
       </c>
       <c r="P8" t="n">
-        <v>964.0571555106362</v>
+        <v>176.5286895169144</v>
       </c>
       <c r="Q8" t="n">
-        <v>953.9655401424092</v>
+        <v>166.4370741486873</v>
       </c>
       <c r="R8" t="n">
-        <v>953.9655401424092</v>
+        <v>121.8591222504766</v>
       </c>
       <c r="S8" t="n">
-        <v>953.9655401424092</v>
+        <v>121.8591222504766</v>
       </c>
       <c r="T8" t="n">
-        <v>953.9655401424092</v>
+        <v>121.8591222504766</v>
       </c>
       <c r="U8" t="n">
-        <v>749.627473042513</v>
+        <v>121.8591222504766</v>
       </c>
       <c r="V8" t="n">
-        <v>506.1786963984129</v>
+        <v>121.8591222504766</v>
       </c>
       <c r="W8" t="n">
-        <v>506.1786963984129</v>
+        <v>121.8591222504766</v>
       </c>
       <c r="X8" t="n">
-        <v>506.1786963984129</v>
+        <v>92.68647758675968</v>
       </c>
       <c r="Y8" t="n">
-        <v>262.7299197543128</v>
+        <v>48.10852568854899</v>
       </c>
     </row>
     <row r="9">
@@ -4859,76 +4859,76 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>19.28114311021272</v>
+        <v>3.530573790338288</v>
       </c>
       <c r="C9" t="n">
-        <v>19.28114311021272</v>
+        <v>3.530573790338288</v>
       </c>
       <c r="D9" t="n">
-        <v>19.28114311021272</v>
+        <v>3.530573790338288</v>
       </c>
       <c r="E9" t="n">
-        <v>19.28114311021272</v>
+        <v>3.530573790338288</v>
       </c>
       <c r="F9" t="n">
-        <v>19.28114311021272</v>
+        <v>3.530573790338288</v>
       </c>
       <c r="G9" t="n">
-        <v>19.28114311021272</v>
+        <v>3.530573790338288</v>
       </c>
       <c r="H9" t="n">
-        <v>19.28114311021272</v>
+        <v>3.530573790338288</v>
       </c>
       <c r="I9" t="n">
-        <v>19.28114311021272</v>
+        <v>3.530573790338288</v>
       </c>
       <c r="J9" t="n">
-        <v>19.28114311021272</v>
+        <v>3.530573790338288</v>
       </c>
       <c r="K9" t="n">
-        <v>19.28114311021272</v>
+        <v>47.22142444577459</v>
       </c>
       <c r="L9" t="n">
-        <v>249.2442489785619</v>
+        <v>90.91227510121089</v>
       </c>
       <c r="M9" t="n">
-        <v>487.8483949674443</v>
+        <v>132.8378388614781</v>
       </c>
       <c r="N9" t="n">
-        <v>542.809531908403</v>
+        <v>176.5286895169144</v>
       </c>
       <c r="O9" t="n">
-        <v>781.4136778972854</v>
+        <v>176.5286895169144</v>
       </c>
       <c r="P9" t="n">
-        <v>964.0571555106362</v>
+        <v>176.5286895169144</v>
       </c>
       <c r="Q9" t="n">
-        <v>964.0571555106362</v>
+        <v>176.5286895169144</v>
       </c>
       <c r="R9" t="n">
-        <v>933.9571464551993</v>
+        <v>176.5286895169144</v>
       </c>
       <c r="S9" t="n">
-        <v>933.9571464551993</v>
+        <v>176.5286895169144</v>
       </c>
       <c r="T9" t="n">
-        <v>933.9571464551993</v>
+        <v>137.2644294849704</v>
       </c>
       <c r="U9" t="n">
-        <v>705.7335281915883</v>
+        <v>92.68647758675968</v>
       </c>
       <c r="V9" t="n">
-        <v>470.5814199598456</v>
+        <v>48.10852568854899</v>
       </c>
       <c r="W9" t="n">
-        <v>227.1326433157456</v>
+        <v>3.530573790338288</v>
       </c>
       <c r="X9" t="n">
-        <v>19.28114311021272</v>
+        <v>3.530573790338288</v>
       </c>
       <c r="Y9" t="n">
-        <v>19.28114311021272</v>
+        <v>3.530573790338288</v>
       </c>
     </row>
     <row r="10">
@@ -4938,76 +4938,76 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>19.28114311021272</v>
+        <v>3.530573790338288</v>
       </c>
       <c r="C10" t="n">
-        <v>19.28114311021272</v>
+        <v>3.530573790338288</v>
       </c>
       <c r="D10" t="n">
-        <v>19.28114311021272</v>
+        <v>3.530573790338288</v>
       </c>
       <c r="E10" t="n">
-        <v>19.28114311021272</v>
+        <v>3.530573790338288</v>
       </c>
       <c r="F10" t="n">
-        <v>19.28114311021272</v>
+        <v>3.530573790338288</v>
       </c>
       <c r="G10" t="n">
-        <v>19.28114311021272</v>
+        <v>3.530573790338288</v>
       </c>
       <c r="H10" t="n">
-        <v>19.28114311021272</v>
+        <v>3.530573790338288</v>
       </c>
       <c r="I10" t="n">
-        <v>19.28114311021272</v>
+        <v>3.530573790338288</v>
       </c>
       <c r="J10" t="n">
-        <v>19.28114311021272</v>
+        <v>3.530573790338288</v>
       </c>
       <c r="K10" t="n">
-        <v>19.28114311021272</v>
+        <v>3.530573790338288</v>
       </c>
       <c r="L10" t="n">
-        <v>46.5952681179257</v>
+        <v>30.84469879805127</v>
       </c>
       <c r="M10" t="n">
-        <v>85.78330631014788</v>
+        <v>70.03273699027345</v>
       </c>
       <c r="N10" t="n">
-        <v>129.4741569655842</v>
+        <v>113.7235876457098</v>
       </c>
       <c r="O10" t="n">
-        <v>153.8134336004835</v>
+        <v>138.062864280609</v>
       </c>
       <c r="P10" t="n">
-        <v>153.8134336004835</v>
+        <v>138.062864280609</v>
       </c>
       <c r="Q10" t="n">
-        <v>153.8134336004835</v>
+        <v>93.48491238239833</v>
       </c>
       <c r="R10" t="n">
-        <v>153.8134336004835</v>
+        <v>48.90696048418764</v>
       </c>
       <c r="S10" t="n">
-        <v>153.8134336004835</v>
+        <v>48.90696048418764</v>
       </c>
       <c r="T10" t="n">
-        <v>153.8134336004835</v>
+        <v>4.329008585976936</v>
       </c>
       <c r="U10" t="n">
-        <v>153.8134336004835</v>
+        <v>4.329008585976936</v>
       </c>
       <c r="V10" t="n">
-        <v>153.8134336004835</v>
+        <v>4.329008585976936</v>
       </c>
       <c r="W10" t="n">
-        <v>19.28114311021272</v>
+        <v>4.329008585976936</v>
       </c>
       <c r="X10" t="n">
-        <v>19.28114311021272</v>
+        <v>3.530573790338288</v>
       </c>
       <c r="Y10" t="n">
-        <v>19.28114311021272</v>
+        <v>3.530573790338288</v>
       </c>
     </row>
     <row r="11">
@@ -5017,76 +5017,76 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>315.6850394389064</v>
+        <v>48.10852568854899</v>
       </c>
       <c r="C11" t="n">
-        <v>315.6850394389064</v>
+        <v>48.10852568854899</v>
       </c>
       <c r="D11" t="n">
-        <v>315.6850394389064</v>
+        <v>48.10852568854899</v>
       </c>
       <c r="E11" t="n">
-        <v>315.6850394389064</v>
+        <v>48.10852568854899</v>
       </c>
       <c r="F11" t="n">
-        <v>72.23626279480629</v>
+        <v>48.10852568854899</v>
       </c>
       <c r="G11" t="n">
-        <v>72.23626279480629</v>
+        <v>3.530573790338288</v>
       </c>
       <c r="H11" t="n">
-        <v>72.23626279480629</v>
+        <v>3.530573790338288</v>
       </c>
       <c r="I11" t="n">
-        <v>19.28114311021272</v>
+        <v>3.530573790338288</v>
       </c>
       <c r="J11" t="n">
-        <v>19.28114311021272</v>
+        <v>3.530573790338288</v>
       </c>
       <c r="K11" t="n">
-        <v>122.2961490211351</v>
+        <v>47.22142444577459</v>
       </c>
       <c r="L11" t="n">
-        <v>302.3720006057937</v>
+        <v>90.91227510121089</v>
       </c>
       <c r="M11" t="n">
-        <v>519.3476278686978</v>
+        <v>90.91227510121089</v>
       </c>
       <c r="N11" t="n">
-        <v>725.2021500759372</v>
+        <v>90.91227510121089</v>
       </c>
       <c r="O11" t="n">
-        <v>874.3971002185853</v>
+        <v>132.8378388614781</v>
       </c>
       <c r="P11" t="n">
-        <v>964.0571555106362</v>
+        <v>176.5286895169144</v>
       </c>
       <c r="Q11" t="n">
-        <v>953.9655401424092</v>
+        <v>176.5286895169144</v>
       </c>
       <c r="R11" t="n">
-        <v>802.5825927271064</v>
+        <v>131.9507376187037</v>
       </c>
       <c r="S11" t="n">
-        <v>802.5825927271064</v>
+        <v>92.68647758675968</v>
       </c>
       <c r="T11" t="n">
-        <v>802.5825927271064</v>
+        <v>92.68647758675968</v>
       </c>
       <c r="U11" t="n">
-        <v>802.5825927271064</v>
+        <v>92.68647758675968</v>
       </c>
       <c r="V11" t="n">
-        <v>802.5825927271064</v>
+        <v>92.68647758675968</v>
       </c>
       <c r="W11" t="n">
-        <v>559.1338160830064</v>
+        <v>92.68647758675968</v>
       </c>
       <c r="X11" t="n">
-        <v>559.1338160830064</v>
+        <v>92.68647758675968</v>
       </c>
       <c r="Y11" t="n">
-        <v>559.1338160830064</v>
+        <v>48.10852568854899</v>
       </c>
     </row>
     <row r="12">
@@ -5096,76 +5096,76 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>19.28114311021272</v>
+        <v>3.530573790338288</v>
       </c>
       <c r="C12" t="n">
-        <v>19.28114311021272</v>
+        <v>3.530573790338288</v>
       </c>
       <c r="D12" t="n">
-        <v>19.28114311021272</v>
+        <v>3.530573790338288</v>
       </c>
       <c r="E12" t="n">
-        <v>19.28114311021272</v>
+        <v>3.530573790338288</v>
       </c>
       <c r="F12" t="n">
-        <v>19.28114311021272</v>
+        <v>3.530573790338288</v>
       </c>
       <c r="G12" t="n">
-        <v>19.28114311021272</v>
+        <v>3.530573790338288</v>
       </c>
       <c r="H12" t="n">
-        <v>19.28114311021272</v>
+        <v>3.530573790338288</v>
       </c>
       <c r="I12" t="n">
-        <v>19.28114311021272</v>
+        <v>3.530573790338288</v>
       </c>
       <c r="J12" t="n">
-        <v>19.28114311021272</v>
+        <v>3.530573790338288</v>
       </c>
       <c r="K12" t="n">
-        <v>144.6387031680501</v>
+        <v>47.22142444577459</v>
       </c>
       <c r="L12" t="n">
-        <v>374.6018090363993</v>
+        <v>90.91227510121089</v>
       </c>
       <c r="M12" t="n">
-        <v>613.2059550252818</v>
+        <v>90.91227510121089</v>
       </c>
       <c r="N12" t="n">
-        <v>851.8101010141643</v>
+        <v>132.8378388614781</v>
       </c>
       <c r="O12" t="n">
-        <v>964.0571555106362</v>
+        <v>176.5286895169144</v>
       </c>
       <c r="P12" t="n">
-        <v>964.0571555106362</v>
+        <v>176.5286895169144</v>
       </c>
       <c r="Q12" t="n">
-        <v>964.0571555106362</v>
+        <v>176.5286895169144</v>
       </c>
       <c r="R12" t="n">
-        <v>862.8876260635219</v>
+        <v>137.2644294849704</v>
       </c>
       <c r="S12" t="n">
-        <v>698.7138367828777</v>
+        <v>137.2644294849704</v>
       </c>
       <c r="T12" t="n">
-        <v>698.7138367828777</v>
+        <v>137.2644294849704</v>
       </c>
       <c r="U12" t="n">
-        <v>470.4902185192667</v>
+        <v>92.68647758675968</v>
       </c>
       <c r="V12" t="n">
-        <v>470.4902185192667</v>
+        <v>92.68647758675968</v>
       </c>
       <c r="W12" t="n">
-        <v>227.0414418751666</v>
+        <v>48.10852568854899</v>
       </c>
       <c r="X12" t="n">
-        <v>227.0414418751666</v>
+        <v>3.530573790338288</v>
       </c>
       <c r="Y12" t="n">
-        <v>19.28114311021272</v>
+        <v>3.530573790338288</v>
       </c>
     </row>
     <row r="13">
@@ -5175,76 +5175,76 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>19.28114311021272</v>
+        <v>48.90696048418764</v>
       </c>
       <c r="C13" t="n">
-        <v>19.28114311021272</v>
+        <v>48.90696048418764</v>
       </c>
       <c r="D13" t="n">
-        <v>19.28114311021272</v>
+        <v>48.90696048418764</v>
       </c>
       <c r="E13" t="n">
-        <v>19.28114311021272</v>
+        <v>48.90696048418764</v>
       </c>
       <c r="F13" t="n">
-        <v>19.28114311021272</v>
+        <v>48.90696048418764</v>
       </c>
       <c r="G13" t="n">
-        <v>19.28114311021272</v>
+        <v>4.329008585976936</v>
       </c>
       <c r="H13" t="n">
-        <v>19.28114311021272</v>
+        <v>4.329008585976936</v>
       </c>
       <c r="I13" t="n">
-        <v>19.28114311021272</v>
+        <v>3.530573790338288</v>
       </c>
       <c r="J13" t="n">
-        <v>19.28114311021272</v>
+        <v>3.530573790338288</v>
       </c>
       <c r="K13" t="n">
-        <v>19.28114311021272</v>
+        <v>3.530573790338288</v>
       </c>
       <c r="L13" t="n">
-        <v>46.5952681179257</v>
+        <v>30.84469879805127</v>
       </c>
       <c r="M13" t="n">
-        <v>85.78330631014788</v>
+        <v>70.03273699027345</v>
       </c>
       <c r="N13" t="n">
-        <v>129.4741569655842</v>
+        <v>113.7235876457098</v>
       </c>
       <c r="O13" t="n">
-        <v>153.8134336004835</v>
+        <v>138.062864280609</v>
       </c>
       <c r="P13" t="n">
-        <v>153.8134336004835</v>
+        <v>138.062864280609</v>
       </c>
       <c r="Q13" t="n">
-        <v>153.8134336004835</v>
+        <v>138.062864280609</v>
       </c>
       <c r="R13" t="n">
-        <v>19.28114311021272</v>
+        <v>138.062864280609</v>
       </c>
       <c r="S13" t="n">
-        <v>19.28114311021272</v>
+        <v>138.062864280609</v>
       </c>
       <c r="T13" t="n">
-        <v>19.28114311021272</v>
+        <v>138.062864280609</v>
       </c>
       <c r="U13" t="n">
-        <v>19.28114311021272</v>
+        <v>138.062864280609</v>
       </c>
       <c r="V13" t="n">
-        <v>19.28114311021272</v>
+        <v>138.062864280609</v>
       </c>
       <c r="W13" t="n">
-        <v>19.28114311021272</v>
+        <v>93.48491238239833</v>
       </c>
       <c r="X13" t="n">
-        <v>19.28114311021272</v>
+        <v>48.90696048418764</v>
       </c>
       <c r="Y13" t="n">
-        <v>19.28114311021272</v>
+        <v>48.90696048418764</v>
       </c>
     </row>
     <row r="14">
@@ -5254,76 +5254,76 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>72.23626279480629</v>
+        <v>87.37278572049297</v>
       </c>
       <c r="C14" t="n">
-        <v>72.23626279480629</v>
+        <v>87.37278572049297</v>
       </c>
       <c r="D14" t="n">
-        <v>72.23626279480629</v>
+        <v>87.37278572049297</v>
       </c>
       <c r="E14" t="n">
-        <v>72.23626279480629</v>
+        <v>87.37278572049297</v>
       </c>
       <c r="F14" t="n">
-        <v>72.23626279480629</v>
+        <v>87.37278572049297</v>
       </c>
       <c r="G14" t="n">
-        <v>72.23626279480629</v>
+        <v>42.79483382228227</v>
       </c>
       <c r="H14" t="n">
-        <v>72.23626279480629</v>
+        <v>3.530573790338288</v>
       </c>
       <c r="I14" t="n">
-        <v>19.28114311021272</v>
+        <v>3.530573790338288</v>
       </c>
       <c r="J14" t="n">
-        <v>19.28114311021272</v>
+        <v>3.530573790338288</v>
       </c>
       <c r="K14" t="n">
-        <v>122.2961490211351</v>
+        <v>47.22142444577459</v>
       </c>
       <c r="L14" t="n">
-        <v>302.3720006057937</v>
+        <v>47.22142444577459</v>
       </c>
       <c r="M14" t="n">
-        <v>519.3476278686978</v>
+        <v>89.14698820604177</v>
       </c>
       <c r="N14" t="n">
-        <v>725.2021500759372</v>
+        <v>132.8378388614781</v>
       </c>
       <c r="O14" t="n">
-        <v>874.3971002185853</v>
+        <v>176.5286895169144</v>
       </c>
       <c r="P14" t="n">
-        <v>964.0571555106362</v>
+        <v>176.5286895169144</v>
       </c>
       <c r="Q14" t="n">
-        <v>953.9655401424092</v>
+        <v>176.5286895169144</v>
       </c>
       <c r="R14" t="n">
-        <v>802.5825927271064</v>
+        <v>176.5286895169144</v>
       </c>
       <c r="S14" t="n">
-        <v>802.5825927271064</v>
+        <v>176.5286895169144</v>
       </c>
       <c r="T14" t="n">
-        <v>802.5825927271064</v>
+        <v>176.5286895169144</v>
       </c>
       <c r="U14" t="n">
-        <v>559.1338160830064</v>
+        <v>176.5286895169144</v>
       </c>
       <c r="V14" t="n">
-        <v>559.1338160830064</v>
+        <v>131.9507376187037</v>
       </c>
       <c r="W14" t="n">
-        <v>315.6850394389064</v>
+        <v>131.9507376187037</v>
       </c>
       <c r="X14" t="n">
-        <v>315.6850394389064</v>
+        <v>131.9507376187037</v>
       </c>
       <c r="Y14" t="n">
-        <v>72.23626279480629</v>
+        <v>87.37278572049297</v>
       </c>
     </row>
     <row r="15">
@@ -5333,76 +5333,76 @@
         </is>
       </c>
       <c r="B15" t="n">
-        <v>19.28114311021272</v>
+        <v>3.530573790338288</v>
       </c>
       <c r="C15" t="n">
-        <v>19.28114311021272</v>
+        <v>3.530573790338288</v>
       </c>
       <c r="D15" t="n">
-        <v>19.28114311021272</v>
+        <v>3.530573790338288</v>
       </c>
       <c r="E15" t="n">
-        <v>19.28114311021272</v>
+        <v>3.530573790338288</v>
       </c>
       <c r="F15" t="n">
-        <v>19.28114311021272</v>
+        <v>3.530573790338288</v>
       </c>
       <c r="G15" t="n">
-        <v>19.28114311021272</v>
+        <v>3.530573790338288</v>
       </c>
       <c r="H15" t="n">
-        <v>19.28114311021272</v>
+        <v>3.530573790338288</v>
       </c>
       <c r="I15" t="n">
-        <v>19.28114311021272</v>
+        <v>3.530573790338288</v>
       </c>
       <c r="J15" t="n">
-        <v>19.28114311021272</v>
+        <v>3.530573790338288</v>
       </c>
       <c r="K15" t="n">
-        <v>144.6387031680501</v>
+        <v>47.22142444577459</v>
       </c>
       <c r="L15" t="n">
-        <v>374.6018090363993</v>
+        <v>89.14698820604177</v>
       </c>
       <c r="M15" t="n">
-        <v>542.809531908403</v>
+        <v>89.14698820604177</v>
       </c>
       <c r="N15" t="n">
-        <v>542.809531908403</v>
+        <v>132.8378388614781</v>
       </c>
       <c r="O15" t="n">
-        <v>781.4136778972854</v>
+        <v>176.5286895169144</v>
       </c>
       <c r="P15" t="n">
-        <v>964.0571555106362</v>
+        <v>176.5286895169144</v>
       </c>
       <c r="Q15" t="n">
-        <v>964.0571555106362</v>
+        <v>176.5286895169144</v>
       </c>
       <c r="R15" t="n">
-        <v>964.0571555106362</v>
+        <v>131.9507376187037</v>
       </c>
       <c r="S15" t="n">
-        <v>928.2922408909005</v>
+        <v>131.9507376187037</v>
       </c>
       <c r="T15" t="n">
-        <v>726.1056462496665</v>
+        <v>131.9507376187037</v>
       </c>
       <c r="U15" t="n">
-        <v>497.8820279860555</v>
+        <v>87.37278572049297</v>
       </c>
       <c r="V15" t="n">
-        <v>262.7299197543128</v>
+        <v>48.10852568854899</v>
       </c>
       <c r="W15" t="n">
-        <v>19.28114311021272</v>
+        <v>3.530573790338288</v>
       </c>
       <c r="X15" t="n">
-        <v>19.28114311021272</v>
+        <v>3.530573790338288</v>
       </c>
       <c r="Y15" t="n">
-        <v>19.28114311021272</v>
+        <v>3.530573790338288</v>
       </c>
     </row>
     <row r="16">
@@ -5412,76 +5412,76 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>19.28114311021272</v>
+        <v>138.062864280609</v>
       </c>
       <c r="C16" t="n">
-        <v>19.28114311021272</v>
+        <v>137.2644294849704</v>
       </c>
       <c r="D16" t="n">
-        <v>19.28114311021272</v>
+        <v>92.68647758675968</v>
       </c>
       <c r="E16" t="n">
-        <v>19.28114311021272</v>
+        <v>48.10852568854899</v>
       </c>
       <c r="F16" t="n">
-        <v>19.28114311021272</v>
+        <v>48.10852568854899</v>
       </c>
       <c r="G16" t="n">
-        <v>19.28114311021272</v>
+        <v>48.10852568854899</v>
       </c>
       <c r="H16" t="n">
-        <v>19.28114311021272</v>
+        <v>3.530573790338288</v>
       </c>
       <c r="I16" t="n">
-        <v>19.28114311021272</v>
+        <v>3.530573790338288</v>
       </c>
       <c r="J16" t="n">
-        <v>19.28114311021272</v>
+        <v>3.530573790338288</v>
       </c>
       <c r="K16" t="n">
-        <v>19.28114311021272</v>
+        <v>3.530573790338288</v>
       </c>
       <c r="L16" t="n">
-        <v>46.5952681179257</v>
+        <v>30.84469879805127</v>
       </c>
       <c r="M16" t="n">
-        <v>85.78330631014788</v>
+        <v>70.03273699027345</v>
       </c>
       <c r="N16" t="n">
-        <v>129.4741569655842</v>
+        <v>113.7235876457098</v>
       </c>
       <c r="O16" t="n">
-        <v>153.8134336004835</v>
+        <v>138.062864280609</v>
       </c>
       <c r="P16" t="n">
-        <v>153.8134336004835</v>
+        <v>138.062864280609</v>
       </c>
       <c r="Q16" t="n">
-        <v>153.8134336004835</v>
+        <v>138.062864280609</v>
       </c>
       <c r="R16" t="n">
-        <v>153.8134336004835</v>
+        <v>138.062864280609</v>
       </c>
       <c r="S16" t="n">
-        <v>153.8134336004835</v>
+        <v>138.062864280609</v>
       </c>
       <c r="T16" t="n">
-        <v>19.28114311021272</v>
+        <v>138.062864280609</v>
       </c>
       <c r="U16" t="n">
-        <v>19.28114311021272</v>
+        <v>138.062864280609</v>
       </c>
       <c r="V16" t="n">
-        <v>19.28114311021272</v>
+        <v>138.062864280609</v>
       </c>
       <c r="W16" t="n">
-        <v>19.28114311021272</v>
+        <v>138.062864280609</v>
       </c>
       <c r="X16" t="n">
-        <v>19.28114311021272</v>
+        <v>138.062864280609</v>
       </c>
       <c r="Y16" t="n">
-        <v>19.28114311021272</v>
+        <v>138.062864280609</v>
       </c>
     </row>
     <row r="17">
@@ -5491,25 +5491,25 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>569.2254314512334</v>
+        <v>506.1786963984129</v>
       </c>
       <c r="C17" t="n">
-        <v>569.2254314512334</v>
+        <v>506.1786963984129</v>
       </c>
       <c r="D17" t="n">
-        <v>569.2254314512334</v>
+        <v>506.1786963984129</v>
       </c>
       <c r="E17" t="n">
-        <v>569.2254314512334</v>
+        <v>506.1786963984129</v>
       </c>
       <c r="F17" t="n">
-        <v>475.3318284112885</v>
+        <v>262.7299197543128</v>
       </c>
       <c r="G17" t="n">
-        <v>231.8830517671884</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="H17" t="n">
-        <v>231.8830517671884</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="I17" t="n">
         <v>19.28114311021272</v>
@@ -5536,31 +5536,31 @@
         <v>964.0571555106362</v>
       </c>
       <c r="Q17" t="n">
-        <v>964.0571555106362</v>
+        <v>953.9655401424092</v>
       </c>
       <c r="R17" t="n">
-        <v>812.6742080953335</v>
+        <v>953.9655401424092</v>
       </c>
       <c r="S17" t="n">
-        <v>812.6742080953335</v>
+        <v>953.9655401424092</v>
       </c>
       <c r="T17" t="n">
-        <v>812.6742080953335</v>
+        <v>953.9655401424092</v>
       </c>
       <c r="U17" t="n">
-        <v>812.6742080953335</v>
+        <v>953.9655401424092</v>
       </c>
       <c r="V17" t="n">
-        <v>812.6742080953335</v>
+        <v>953.9655401424092</v>
       </c>
       <c r="W17" t="n">
-        <v>812.6742080953335</v>
+        <v>749.627473042513</v>
       </c>
       <c r="X17" t="n">
-        <v>812.6742080953335</v>
+        <v>749.627473042513</v>
       </c>
       <c r="Y17" t="n">
-        <v>569.2254314512334</v>
+        <v>506.1786963984129</v>
       </c>
     </row>
     <row r="18">
@@ -5570,46 +5570,46 @@
         </is>
       </c>
       <c r="B18" t="n">
-        <v>110.334904905842</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="C18" t="n">
-        <v>110.334904905842</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="D18" t="n">
-        <v>110.334904905842</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="E18" t="n">
-        <v>110.334904905842</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="F18" t="n">
-        <v>110.334904905842</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="G18" t="n">
-        <v>110.334904905842</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="H18" t="n">
-        <v>110.334904905842</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="I18" t="n">
-        <v>20.03527576299844</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="J18" t="n">
         <v>19.28114311021272</v>
       </c>
       <c r="K18" t="n">
-        <v>144.6387031680501</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="L18" t="n">
-        <v>374.6018090363993</v>
+        <v>249.2442489785619</v>
       </c>
       <c r="M18" t="n">
-        <v>374.6018090363993</v>
+        <v>487.8483949674443</v>
       </c>
       <c r="N18" t="n">
-        <v>542.809531908403</v>
+        <v>726.4525409563269</v>
       </c>
       <c r="O18" t="n">
-        <v>781.4136778972854</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="P18" t="n">
         <v>964.0571555106362</v>
@@ -5618,28 +5618,28 @@
         <v>964.0571555106362</v>
       </c>
       <c r="R18" t="n">
-        <v>964.0571555106362</v>
+        <v>862.8876260635219</v>
       </c>
       <c r="S18" t="n">
-        <v>964.0571555106362</v>
+        <v>689.4702815141908</v>
       </c>
       <c r="T18" t="n">
-        <v>964.0571555106362</v>
+        <v>487.2836868729568</v>
       </c>
       <c r="U18" t="n">
-        <v>735.8335372470253</v>
+        <v>487.2836868729568</v>
       </c>
       <c r="V18" t="n">
-        <v>500.6814290152826</v>
+        <v>262.7299197543128</v>
       </c>
       <c r="W18" t="n">
-        <v>257.2326523711826</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="X18" t="n">
-        <v>110.334904905842</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="Y18" t="n">
-        <v>110.334904905842</v>
+        <v>19.28114311021272</v>
       </c>
     </row>
     <row r="19">
@@ -5649,22 +5649,22 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="C19" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="D19" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="E19" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="F19" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="G19" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="H19" t="n">
         <v>19.28114311021272</v>
@@ -5712,13 +5712,13 @@
         <v>153.8134336004835</v>
       </c>
       <c r="W19" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="X19" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="Y19" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
     </row>
     <row r="20">
@@ -5728,28 +5728,28 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>559.1338160830064</v>
+        <v>262.7299197543128</v>
       </c>
       <c r="C20" t="n">
-        <v>518.2486856454962</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="D20" t="n">
-        <v>518.2486856454962</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="E20" t="n">
-        <v>518.2486856454962</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="F20" t="n">
-        <v>274.7999090013961</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="G20" t="n">
-        <v>31.35113235729608</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="H20" t="n">
-        <v>31.35113235729608</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="I20" t="n">
-        <v>31.35113235729608</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="J20" t="n">
         <v>19.28114311021272</v>
@@ -5773,31 +5773,31 @@
         <v>964.0571555106362</v>
       </c>
       <c r="Q20" t="n">
-        <v>953.9655401424092</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="R20" t="n">
-        <v>802.5825927271064</v>
+        <v>812.6742080953335</v>
       </c>
       <c r="S20" t="n">
-        <v>802.5825927271064</v>
+        <v>812.6742080953335</v>
       </c>
       <c r="T20" t="n">
-        <v>802.5825927271064</v>
+        <v>587.3248651012614</v>
       </c>
       <c r="U20" t="n">
-        <v>802.5825927271064</v>
+        <v>587.3248651012614</v>
       </c>
       <c r="V20" t="n">
-        <v>802.5825927271064</v>
+        <v>506.1786963984129</v>
       </c>
       <c r="W20" t="n">
-        <v>802.5825927271064</v>
+        <v>262.7299197543128</v>
       </c>
       <c r="X20" t="n">
-        <v>802.5825927271064</v>
+        <v>262.7299197543128</v>
       </c>
       <c r="Y20" t="n">
-        <v>559.1338160830064</v>
+        <v>262.7299197543128</v>
       </c>
     </row>
     <row r="21">
@@ -5807,28 +5807,28 @@
         </is>
       </c>
       <c r="B21" t="n">
-        <v>485.4562706347935</v>
+        <v>566.8500717543842</v>
       </c>
       <c r="C21" t="n">
-        <v>485.4562706347935</v>
+        <v>566.8500717543842</v>
       </c>
       <c r="D21" t="n">
-        <v>485.4562706347935</v>
+        <v>417.9156620931329</v>
       </c>
       <c r="E21" t="n">
-        <v>370.2385984713777</v>
+        <v>417.9156620931329</v>
       </c>
       <c r="F21" t="n">
-        <v>223.7040404982626</v>
+        <v>271.3811041200179</v>
       </c>
       <c r="G21" t="n">
-        <v>223.7040404982626</v>
+        <v>132.6502787026334</v>
       </c>
       <c r="H21" t="n">
-        <v>110.334904905842</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="I21" t="n">
-        <v>20.03527576299844</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="J21" t="n">
         <v>19.28114311021272</v>
@@ -5840,10 +5840,10 @@
         <v>374.6018090363993</v>
       </c>
       <c r="M21" t="n">
-        <v>374.6018090363993</v>
+        <v>473.4149733950735</v>
       </c>
       <c r="N21" t="n">
-        <v>473.4149733950735</v>
+        <v>712.019119383956</v>
       </c>
       <c r="O21" t="n">
         <v>712.019119383956</v>
@@ -5858,25 +5858,25 @@
         <v>964.0571555106362</v>
       </c>
       <c r="S21" t="n">
-        <v>964.0571555106362</v>
+        <v>790.6398109613051</v>
       </c>
       <c r="T21" t="n">
-        <v>964.0571555106362</v>
+        <v>790.6398109613051</v>
       </c>
       <c r="U21" t="n">
-        <v>964.0571555106362</v>
+        <v>566.8500717543842</v>
       </c>
       <c r="V21" t="n">
-        <v>728.9050472788936</v>
+        <v>566.8500717543842</v>
       </c>
       <c r="W21" t="n">
-        <v>485.4562706347935</v>
+        <v>566.8500717543842</v>
       </c>
       <c r="X21" t="n">
-        <v>485.4562706347935</v>
+        <v>566.8500717543842</v>
       </c>
       <c r="Y21" t="n">
-        <v>485.4562706347935</v>
+        <v>566.8500717543842</v>
       </c>
     </row>
     <row r="22">
@@ -5934,19 +5934,19 @@
         <v>153.8134336004835</v>
       </c>
       <c r="R22" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="S22" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="T22" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="U22" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="V22" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="W22" t="n">
         <v>19.28114311021272</v>
@@ -5965,22 +5965,22 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>509.4769954460863</v>
+        <v>506.1786963984129</v>
       </c>
       <c r="C23" t="n">
-        <v>509.4769954460863</v>
+        <v>506.1786963984129</v>
       </c>
       <c r="D23" t="n">
-        <v>266.0282188019862</v>
+        <v>506.1786963984129</v>
       </c>
       <c r="E23" t="n">
-        <v>266.0282188019862</v>
+        <v>506.1786963984129</v>
       </c>
       <c r="F23" t="n">
-        <v>22.57944215788615</v>
+        <v>262.7299197543128</v>
       </c>
       <c r="G23" t="n">
-        <v>22.57944215788615</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="H23" t="n">
         <v>19.28114311021272</v>
@@ -6010,31 +6010,31 @@
         <v>964.0571555106362</v>
       </c>
       <c r="Q23" t="n">
-        <v>964.0571555106362</v>
+        <v>953.9655401424092</v>
       </c>
       <c r="R23" t="n">
-        <v>964.0571555106362</v>
+        <v>802.5825927271064</v>
       </c>
       <c r="S23" t="n">
-        <v>752.9257720901863</v>
+        <v>802.5825927271064</v>
       </c>
       <c r="T23" t="n">
-        <v>752.9257720901863</v>
+        <v>802.5825927271064</v>
       </c>
       <c r="U23" t="n">
-        <v>752.9257720901863</v>
+        <v>802.5825927271064</v>
       </c>
       <c r="V23" t="n">
-        <v>752.9257720901863</v>
+        <v>802.5825927271064</v>
       </c>
       <c r="W23" t="n">
-        <v>509.4769954460863</v>
+        <v>802.5825927271064</v>
       </c>
       <c r="X23" t="n">
-        <v>509.4769954460863</v>
+        <v>802.5825927271064</v>
       </c>
       <c r="Y23" t="n">
-        <v>509.4769954460863</v>
+        <v>559.1338160830064</v>
       </c>
     </row>
     <row r="24">
@@ -6044,25 +6044,25 @@
         </is>
       </c>
       <c r="B24" t="n">
-        <v>109.5807722530562</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="C24" t="n">
-        <v>109.5807722530562</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="D24" t="n">
-        <v>109.5807722530562</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="E24" t="n">
-        <v>109.5807722530562</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="F24" t="n">
-        <v>109.5807722530562</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="G24" t="n">
-        <v>109.5807722530562</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="H24" t="n">
-        <v>109.5807722530562</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="I24" t="n">
         <v>19.28114311021272</v>
@@ -6095,25 +6095,25 @@
         <v>964.0571555106362</v>
       </c>
       <c r="S24" t="n">
-        <v>964.0571555106362</v>
+        <v>790.6398109613051</v>
       </c>
       <c r="T24" t="n">
-        <v>964.0571555106362</v>
+        <v>790.6398109613051</v>
       </c>
       <c r="U24" t="n">
-        <v>735.8335372470253</v>
+        <v>562.4161926976942</v>
       </c>
       <c r="V24" t="n">
-        <v>500.6814290152826</v>
+        <v>327.2640844659515</v>
       </c>
       <c r="W24" t="n">
-        <v>257.2326523711826</v>
+        <v>83.81530782185143</v>
       </c>
       <c r="X24" t="n">
-        <v>109.5807722530562</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="Y24" t="n">
-        <v>109.5807722530562</v>
+        <v>19.28114311021272</v>
       </c>
     </row>
     <row r="25">
@@ -6174,16 +6174,16 @@
         <v>153.8134336004835</v>
       </c>
       <c r="S25" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="T25" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="U25" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="V25" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="W25" t="n">
         <v>19.28114311021272</v>
@@ -6208,16 +6208,16 @@
         <v>506.1786963984129</v>
       </c>
       <c r="D26" t="n">
-        <v>262.7299197543128</v>
+        <v>506.1786963984129</v>
       </c>
       <c r="E26" t="n">
-        <v>262.7299197543128</v>
+        <v>506.1786963984129</v>
       </c>
       <c r="F26" t="n">
         <v>262.7299197543128</v>
       </c>
       <c r="G26" t="n">
-        <v>262.7299197543128</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="H26" t="n">
         <v>19.28114311021272</v>
@@ -6262,16 +6262,16 @@
         <v>812.6742080953335</v>
       </c>
       <c r="V26" t="n">
-        <v>749.627473042513</v>
+        <v>812.6742080953335</v>
       </c>
       <c r="W26" t="n">
-        <v>506.1786963984129</v>
+        <v>812.6742080953335</v>
       </c>
       <c r="X26" t="n">
-        <v>506.1786963984129</v>
+        <v>812.6742080953335</v>
       </c>
       <c r="Y26" t="n">
-        <v>506.1786963984129</v>
+        <v>569.2254314512334</v>
       </c>
     </row>
     <row r="27">
@@ -6281,19 +6281,19 @@
         </is>
       </c>
       <c r="B27" t="n">
-        <v>19.28114311021272</v>
+        <v>158.0119685275972</v>
       </c>
       <c r="C27" t="n">
-        <v>19.28114311021272</v>
+        <v>158.0119685275972</v>
       </c>
       <c r="D27" t="n">
-        <v>19.28114311021272</v>
+        <v>158.0119685275972</v>
       </c>
       <c r="E27" t="n">
-        <v>19.28114311021272</v>
+        <v>158.0119685275972</v>
       </c>
       <c r="F27" t="n">
-        <v>19.28114311021272</v>
+        <v>158.0119685275972</v>
       </c>
       <c r="G27" t="n">
         <v>19.28114311021272</v>
@@ -6308,13 +6308,13 @@
         <v>19.28114311021272</v>
       </c>
       <c r="K27" t="n">
-        <v>144.6387031680501</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="L27" t="n">
-        <v>374.6018090363993</v>
+        <v>249.2442489785619</v>
       </c>
       <c r="M27" t="n">
-        <v>374.6018090363993</v>
+        <v>249.2442489785619</v>
       </c>
       <c r="N27" t="n">
         <v>473.4149733950735</v>
@@ -6332,25 +6332,25 @@
         <v>964.0571555106362</v>
       </c>
       <c r="S27" t="n">
-        <v>964.0571555106362</v>
+        <v>811.4076385778851</v>
       </c>
       <c r="T27" t="n">
-        <v>964.0571555106362</v>
+        <v>609.2210439366512</v>
       </c>
       <c r="U27" t="n">
-        <v>735.8335372470253</v>
+        <v>609.2210439366512</v>
       </c>
       <c r="V27" t="n">
-        <v>500.6814290152826</v>
+        <v>609.2210439366512</v>
       </c>
       <c r="W27" t="n">
-        <v>257.2326523711826</v>
+        <v>365.7722672925511</v>
       </c>
       <c r="X27" t="n">
-        <v>227.0414418751666</v>
+        <v>365.7722672925511</v>
       </c>
       <c r="Y27" t="n">
-        <v>19.28114311021272</v>
+        <v>158.0119685275972</v>
       </c>
     </row>
     <row r="28">
@@ -6360,22 +6360,22 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="C28" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="D28" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="E28" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="F28" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="G28" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="H28" t="n">
         <v>19.28114311021272</v>
@@ -6423,13 +6423,13 @@
         <v>153.8134336004835</v>
       </c>
       <c r="W28" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="X28" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="Y28" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
     </row>
     <row r="29">
@@ -6442,13 +6442,13 @@
         <v>506.1786963984129</v>
       </c>
       <c r="C29" t="n">
-        <v>262.7299197543128</v>
+        <v>506.1786963984129</v>
       </c>
       <c r="D29" t="n">
-        <v>262.7299197543128</v>
+        <v>506.1786963984129</v>
       </c>
       <c r="E29" t="n">
-        <v>262.7299197543128</v>
+        <v>506.1786963984129</v>
       </c>
       <c r="F29" t="n">
         <v>262.7299197543128</v>
@@ -6484,25 +6484,25 @@
         <v>964.0571555106362</v>
       </c>
       <c r="Q29" t="n">
-        <v>953.9655401424092</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="R29" t="n">
-        <v>953.9655401424092</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="S29" t="n">
-        <v>953.9655401424092</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="T29" t="n">
-        <v>953.9655401424092</v>
+        <v>738.7078125165641</v>
       </c>
       <c r="U29" t="n">
-        <v>710.516763498309</v>
+        <v>506.1786963984129</v>
       </c>
       <c r="V29" t="n">
-        <v>710.516763498309</v>
+        <v>506.1786963984129</v>
       </c>
       <c r="W29" t="n">
-        <v>710.516763498309</v>
+        <v>506.1786963984129</v>
       </c>
       <c r="X29" t="n">
         <v>506.1786963984129</v>
@@ -6518,28 +6518,28 @@
         </is>
       </c>
       <c r="B30" t="n">
-        <v>466.3407629892159</v>
+        <v>533.6469426057913</v>
       </c>
       <c r="C30" t="n">
-        <v>291.8877337080889</v>
+        <v>533.6469426057913</v>
       </c>
       <c r="D30" t="n">
-        <v>291.8877337080889</v>
+        <v>464.5381141589534</v>
       </c>
       <c r="E30" t="n">
-        <v>132.6502787026334</v>
+        <v>305.3006591534979</v>
       </c>
       <c r="F30" t="n">
-        <v>132.6502787026334</v>
+        <v>158.7661011803829</v>
       </c>
       <c r="G30" t="n">
-        <v>132.6502787026334</v>
+        <v>20.03527576299844</v>
       </c>
       <c r="H30" t="n">
-        <v>19.28114311021272</v>
+        <v>20.03527576299844</v>
       </c>
       <c r="I30" t="n">
-        <v>19.28114311021272</v>
+        <v>20.03527576299844</v>
       </c>
       <c r="J30" t="n">
         <v>19.28114311021272</v>
@@ -6548,10 +6548,10 @@
         <v>144.6387031680501</v>
       </c>
       <c r="L30" t="n">
-        <v>144.6387031680501</v>
+        <v>374.6018090363993</v>
       </c>
       <c r="M30" t="n">
-        <v>234.810827406191</v>
+        <v>374.6018090363993</v>
       </c>
       <c r="N30" t="n">
         <v>473.4149733950735</v>
@@ -6572,22 +6572,22 @@
         <v>964.0571555106362</v>
       </c>
       <c r="T30" t="n">
-        <v>964.0571555106362</v>
+        <v>761.8705608694022</v>
       </c>
       <c r="U30" t="n">
-        <v>964.0571555106362</v>
+        <v>533.6469426057913</v>
       </c>
       <c r="V30" t="n">
-        <v>728.9050472788936</v>
+        <v>533.6469426057913</v>
       </c>
       <c r="W30" t="n">
-        <v>728.9050472788936</v>
+        <v>533.6469426057913</v>
       </c>
       <c r="X30" t="n">
-        <v>521.0535470733607</v>
+        <v>533.6469426057913</v>
       </c>
       <c r="Y30" t="n">
-        <v>521.0535470733607</v>
+        <v>533.6469426057913</v>
       </c>
     </row>
     <row r="31">
@@ -6654,10 +6654,10 @@
         <v>153.8134336004835</v>
       </c>
       <c r="U31" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="V31" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="W31" t="n">
         <v>19.28114311021272</v>
@@ -6736,13 +6736,13 @@
         <v>132.7447050367114</v>
       </c>
       <c r="V32" t="n">
-        <v>132.7447050367114</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="W32" t="n">
-        <v>132.7447050367114</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="X32" t="n">
-        <v>132.7447050367114</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="Y32" t="n">
         <v>19.28114311021272</v>
@@ -6755,28 +6755,28 @@
         </is>
       </c>
       <c r="B33" t="n">
-        <v>49.47235360622864</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="C33" t="n">
-        <v>49.47235360622864</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="D33" t="n">
-        <v>49.47235360622864</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="E33" t="n">
-        <v>49.47235360622864</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="F33" t="n">
-        <v>49.47235360622864</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="G33" t="n">
-        <v>49.47235360622864</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="H33" t="n">
-        <v>49.47235360622864</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="I33" t="n">
-        <v>20.03527576299844</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="J33" t="n">
         <v>19.28114311021272</v>
@@ -6788,10 +6788,10 @@
         <v>374.6018090363993</v>
       </c>
       <c r="M33" t="n">
-        <v>613.2059550252818</v>
+        <v>486.8488635328713</v>
       </c>
       <c r="N33" t="n">
-        <v>851.8101010141643</v>
+        <v>725.4530095217538</v>
       </c>
       <c r="O33" t="n">
         <v>964.0571555106362</v>
@@ -6821,10 +6821,10 @@
         <v>257.2326523711826</v>
       </c>
       <c r="X33" t="n">
-        <v>257.2326523711826</v>
+        <v>49.38115216564972</v>
       </c>
       <c r="Y33" t="n">
-        <v>49.47235360622864</v>
+        <v>49.38115216564972</v>
       </c>
     </row>
     <row r="34">
@@ -6882,25 +6882,25 @@
         <v>153.8134336004835</v>
       </c>
       <c r="R34" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="S34" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="T34" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="U34" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="V34" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="W34" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="X34" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="Y34" t="n">
         <v>19.28114311021272</v>
@@ -6913,25 +6913,25 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>485.167420504237</v>
+        <v>262.7299197543128</v>
       </c>
       <c r="C35" t="n">
-        <v>485.167420504237</v>
+        <v>262.7299197543128</v>
       </c>
       <c r="D35" t="n">
-        <v>485.167420504237</v>
+        <v>262.7299197543128</v>
       </c>
       <c r="E35" t="n">
-        <v>485.167420504237</v>
+        <v>262.7299197543128</v>
       </c>
       <c r="F35" t="n">
-        <v>485.167420504237</v>
+        <v>262.7299197543128</v>
       </c>
       <c r="G35" t="n">
-        <v>241.7186438601369</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="H35" t="n">
-        <v>231.8830517671884</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="I35" t="n">
         <v>19.28114311021272</v>
@@ -6958,31 +6958,31 @@
         <v>964.0571555106362</v>
       </c>
       <c r="Q35" t="n">
-        <v>953.9655401424092</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="R35" t="n">
-        <v>953.9655401424092</v>
+        <v>812.6742080953335</v>
       </c>
       <c r="S35" t="n">
-        <v>953.9655401424092</v>
+        <v>731.528039392485</v>
       </c>
       <c r="T35" t="n">
-        <v>728.6161971483371</v>
+        <v>506.1786963984129</v>
       </c>
       <c r="U35" t="n">
-        <v>485.167420504237</v>
+        <v>506.1786963984129</v>
       </c>
       <c r="V35" t="n">
-        <v>485.167420504237</v>
+        <v>262.7299197543128</v>
       </c>
       <c r="W35" t="n">
-        <v>485.167420504237</v>
+        <v>262.7299197543128</v>
       </c>
       <c r="X35" t="n">
-        <v>485.167420504237</v>
+        <v>262.7299197543128</v>
       </c>
       <c r="Y35" t="n">
-        <v>485.167420504237</v>
+        <v>262.7299197543128</v>
       </c>
     </row>
     <row r="36">
@@ -6992,22 +6992,22 @@
         </is>
       </c>
       <c r="B36" t="n">
-        <v>19.28114311021272</v>
+        <v>132.6502787026334</v>
       </c>
       <c r="C36" t="n">
-        <v>19.28114311021272</v>
+        <v>132.6502787026334</v>
       </c>
       <c r="D36" t="n">
-        <v>19.28114311021272</v>
+        <v>132.6502787026334</v>
       </c>
       <c r="E36" t="n">
-        <v>19.28114311021272</v>
+        <v>132.6502787026334</v>
       </c>
       <c r="F36" t="n">
-        <v>19.28114311021272</v>
+        <v>132.6502787026334</v>
       </c>
       <c r="G36" t="n">
-        <v>19.28114311021272</v>
+        <v>132.6502787026334</v>
       </c>
       <c r="H36" t="n">
         <v>19.28114311021272</v>
@@ -7025,13 +7025,13 @@
         <v>374.6018090363993</v>
       </c>
       <c r="M36" t="n">
-        <v>542.809531908403</v>
+        <v>613.2059550252818</v>
       </c>
       <c r="N36" t="n">
-        <v>542.809531908403</v>
+        <v>725.4530095217538</v>
       </c>
       <c r="O36" t="n">
-        <v>781.4136778972854</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="P36" t="n">
         <v>964.0571555106362</v>
@@ -7040,28 +7040,28 @@
         <v>964.0571555106362</v>
       </c>
       <c r="R36" t="n">
-        <v>862.8876260635219</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="S36" t="n">
-        <v>862.8876260635219</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="T36" t="n">
-        <v>862.8876260635219</v>
+        <v>839.4747818420872</v>
       </c>
       <c r="U36" t="n">
-        <v>705.6423267510095</v>
+        <v>611.2511635784762</v>
       </c>
       <c r="V36" t="n">
-        <v>470.4902185192667</v>
+        <v>376.0990553467335</v>
       </c>
       <c r="W36" t="n">
-        <v>227.0414418751666</v>
+        <v>132.6502787026334</v>
       </c>
       <c r="X36" t="n">
-        <v>227.0414418751666</v>
+        <v>132.6502787026334</v>
       </c>
       <c r="Y36" t="n">
-        <v>19.28114311021272</v>
+        <v>132.6502787026334</v>
       </c>
     </row>
     <row r="37">
@@ -7150,19 +7150,19 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>262.7299197543128</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="C38" t="n">
-        <v>262.7299197543128</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="D38" t="n">
-        <v>262.7299197543128</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="E38" t="n">
-        <v>262.7299197543128</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="F38" t="n">
-        <v>262.7299197543128</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="G38" t="n">
         <v>19.28114311021272</v>
@@ -7198,28 +7198,28 @@
         <v>953.9655401424092</v>
       </c>
       <c r="R38" t="n">
-        <v>953.9655401424092</v>
+        <v>802.5825927271064</v>
       </c>
       <c r="S38" t="n">
-        <v>953.9655401424092</v>
+        <v>802.5825927271064</v>
       </c>
       <c r="T38" t="n">
-        <v>728.6161971483371</v>
+        <v>749.627473042513</v>
       </c>
       <c r="U38" t="n">
         <v>506.1786963984129</v>
       </c>
       <c r="V38" t="n">
-        <v>262.7299197543128</v>
+        <v>506.1786963984129</v>
       </c>
       <c r="W38" t="n">
         <v>262.7299197543128</v>
       </c>
       <c r="X38" t="n">
-        <v>262.7299197543128</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="Y38" t="n">
-        <v>262.7299197543128</v>
+        <v>19.28114311021272</v>
       </c>
     </row>
     <row r="39">
@@ -7229,28 +7229,28 @@
         </is>
       </c>
       <c r="B39" t="n">
-        <v>20.03527576299844</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="C39" t="n">
-        <v>20.03527576299844</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="D39" t="n">
-        <v>20.03527576299844</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="E39" t="n">
-        <v>20.03527576299844</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="F39" t="n">
-        <v>20.03527576299844</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="G39" t="n">
-        <v>20.03527576299844</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="H39" t="n">
-        <v>20.03527576299844</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="I39" t="n">
-        <v>20.03527576299844</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="J39" t="n">
         <v>19.28114311021272</v>
@@ -7265,13 +7265,13 @@
         <v>613.2059550252818</v>
       </c>
       <c r="N39" t="n">
-        <v>851.8101010141643</v>
+        <v>712.019119383956</v>
       </c>
       <c r="O39" t="n">
-        <v>964.0571555106362</v>
+        <v>712.019119383956</v>
       </c>
       <c r="P39" t="n">
-        <v>964.0571555106362</v>
+        <v>894.6625969973069</v>
       </c>
       <c r="Q39" t="n">
         <v>964.0571555106362</v>
@@ -7280,25 +7280,25 @@
         <v>862.8876260635219</v>
       </c>
       <c r="S39" t="n">
-        <v>862.8876260635219</v>
+        <v>689.4702815141908</v>
       </c>
       <c r="T39" t="n">
-        <v>862.8876260635219</v>
+        <v>487.2836868729568</v>
       </c>
       <c r="U39" t="n">
-        <v>706.487660844374</v>
+        <v>487.2836868729568</v>
       </c>
       <c r="V39" t="n">
-        <v>471.3355526126313</v>
+        <v>252.1315786412141</v>
       </c>
       <c r="W39" t="n">
-        <v>227.8867759685313</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="X39" t="n">
-        <v>20.03527576299844</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="Y39" t="n">
-        <v>20.03527576299844</v>
+        <v>19.28114311021272</v>
       </c>
     </row>
     <row r="40">
@@ -7308,25 +7308,25 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="C40" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="D40" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="E40" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="F40" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="G40" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="H40" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="I40" t="n">
         <v>19.28114311021272</v>
@@ -7353,31 +7353,31 @@
         <v>153.8134336004835</v>
       </c>
       <c r="Q40" t="n">
-        <v>66.78106667958005</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="R40" t="n">
-        <v>66.78106667958005</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="S40" t="n">
-        <v>66.78106667958005</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="T40" t="n">
-        <v>66.78106667958005</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="U40" t="n">
-        <v>66.78106667958005</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="V40" t="n">
-        <v>66.78106667958005</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="W40" t="n">
-        <v>66.78106667958005</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="X40" t="n">
-        <v>66.78106667958005</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="Y40" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
     </row>
     <row r="41">
@@ -7387,22 +7387,22 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>601.5428246748836</v>
+        <v>262.7299197543128</v>
       </c>
       <c r="C41" t="n">
-        <v>601.5428246748836</v>
+        <v>262.7299197543128</v>
       </c>
       <c r="D41" t="n">
-        <v>601.5428246748836</v>
+        <v>262.7299197543128</v>
       </c>
       <c r="E41" t="n">
-        <v>601.5428246748836</v>
+        <v>262.7299197543128</v>
       </c>
       <c r="F41" t="n">
-        <v>358.0940480307835</v>
+        <v>262.7299197543128</v>
       </c>
       <c r="G41" t="n">
-        <v>114.6452713866835</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="H41" t="n">
         <v>19.28114311021272</v>
@@ -7438,25 +7438,25 @@
         <v>812.6742080953335</v>
       </c>
       <c r="S41" t="n">
-        <v>601.5428246748836</v>
+        <v>812.6742080953335</v>
       </c>
       <c r="T41" t="n">
-        <v>601.5428246748836</v>
+        <v>587.3248651012614</v>
       </c>
       <c r="U41" t="n">
-        <v>601.5428246748836</v>
+        <v>343.8760884571613</v>
       </c>
       <c r="V41" t="n">
-        <v>601.5428246748836</v>
+        <v>262.7299197543128</v>
       </c>
       <c r="W41" t="n">
-        <v>601.5428246748836</v>
+        <v>262.7299197543128</v>
       </c>
       <c r="X41" t="n">
-        <v>601.5428246748836</v>
+        <v>262.7299197543128</v>
       </c>
       <c r="Y41" t="n">
-        <v>601.5428246748836</v>
+        <v>262.7299197543128</v>
       </c>
     </row>
     <row r="42">
@@ -7466,19 +7466,19 @@
         </is>
       </c>
       <c r="B42" t="n">
-        <v>158.0119685275972</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="C42" t="n">
-        <v>158.0119685275972</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="D42" t="n">
-        <v>158.0119685275972</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="E42" t="n">
-        <v>158.0119685275972</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="F42" t="n">
-        <v>158.0119685275972</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="G42" t="n">
         <v>19.28114311021272</v>
@@ -7502,7 +7502,7 @@
         <v>613.2059550252818</v>
       </c>
       <c r="N42" t="n">
-        <v>725.4530095217538</v>
+        <v>851.8101010141643</v>
       </c>
       <c r="O42" t="n">
         <v>964.0571555106362</v>
@@ -7514,28 +7514,28 @@
         <v>964.0571555106362</v>
       </c>
       <c r="R42" t="n">
-        <v>862.8876260635219</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="S42" t="n">
-        <v>862.8876260635219</v>
+        <v>790.6398109613051</v>
       </c>
       <c r="T42" t="n">
-        <v>862.8876260635219</v>
+        <v>790.6398109613051</v>
       </c>
       <c r="U42" t="n">
-        <v>634.6640077999109</v>
+        <v>562.4161926976942</v>
       </c>
       <c r="V42" t="n">
-        <v>401.4607451716973</v>
+        <v>327.2640844659515</v>
       </c>
       <c r="W42" t="n">
-        <v>158.0119685275972</v>
+        <v>83.81530782185143</v>
       </c>
       <c r="X42" t="n">
-        <v>158.0119685275972</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="Y42" t="n">
-        <v>158.0119685275972</v>
+        <v>19.28114311021272</v>
       </c>
     </row>
     <row r="43">
@@ -7602,10 +7602,10 @@
         <v>153.8134336004835</v>
       </c>
       <c r="U43" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="V43" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="W43" t="n">
         <v>19.28114311021272</v>
@@ -7624,25 +7624,25 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>475.3318284112885</v>
+        <v>122.6530896684844</v>
       </c>
       <c r="C44" t="n">
-        <v>475.3318284112885</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="D44" t="n">
-        <v>475.3318284112885</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="E44" t="n">
-        <v>475.3318284112885</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="F44" t="n">
-        <v>475.3318284112885</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="G44" t="n">
-        <v>231.8830517671884</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="H44" t="n">
-        <v>231.8830517671884</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="I44" t="n">
         <v>19.28114311021272</v>
@@ -7669,31 +7669,31 @@
         <v>964.0571555106362</v>
       </c>
       <c r="Q44" t="n">
-        <v>964.0571555106362</v>
+        <v>953.9655401424092</v>
       </c>
       <c r="R44" t="n">
-        <v>812.6742080953335</v>
+        <v>802.5825927271064</v>
       </c>
       <c r="S44" t="n">
-        <v>812.6742080953335</v>
+        <v>591.4512093066566</v>
       </c>
       <c r="T44" t="n">
-        <v>587.3248651012614</v>
+        <v>366.1018663125844</v>
       </c>
       <c r="U44" t="n">
-        <v>475.3318284112885</v>
+        <v>366.1018663125844</v>
       </c>
       <c r="V44" t="n">
-        <v>475.3318284112885</v>
+        <v>366.1018663125844</v>
       </c>
       <c r="W44" t="n">
-        <v>475.3318284112885</v>
+        <v>366.1018663125844</v>
       </c>
       <c r="X44" t="n">
-        <v>475.3318284112885</v>
+        <v>366.1018663125844</v>
       </c>
       <c r="Y44" t="n">
-        <v>475.3318284112885</v>
+        <v>366.1018663125844</v>
       </c>
     </row>
     <row r="45">
@@ -7703,19 +7703,19 @@
         </is>
       </c>
       <c r="B45" t="n">
-        <v>132.6502787026334</v>
+        <v>547.1910343172051</v>
       </c>
       <c r="C45" t="n">
-        <v>132.6502787026334</v>
+        <v>547.1910343172051</v>
       </c>
       <c r="D45" t="n">
-        <v>132.6502787026334</v>
+        <v>547.1910343172051</v>
       </c>
       <c r="E45" t="n">
-        <v>132.6502787026334</v>
+        <v>417.9156620931329</v>
       </c>
       <c r="F45" t="n">
-        <v>132.6502787026334</v>
+        <v>271.3811041200179</v>
       </c>
       <c r="G45" t="n">
         <v>132.6502787026334</v>
@@ -7751,28 +7751,28 @@
         <v>964.0571555106362</v>
       </c>
       <c r="R45" t="n">
-        <v>862.8876260635219</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="S45" t="n">
-        <v>862.8876260635219</v>
+        <v>790.6398109613051</v>
       </c>
       <c r="T45" t="n">
-        <v>839.4747818420872</v>
+        <v>790.6398109613051</v>
       </c>
       <c r="U45" t="n">
-        <v>611.2511635784762</v>
+        <v>790.6398109613051</v>
       </c>
       <c r="V45" t="n">
-        <v>376.0990553467335</v>
+        <v>790.6398109613051</v>
       </c>
       <c r="W45" t="n">
-        <v>132.6502787026334</v>
+        <v>547.1910343172051</v>
       </c>
       <c r="X45" t="n">
-        <v>132.6502787026334</v>
+        <v>547.1910343172051</v>
       </c>
       <c r="Y45" t="n">
-        <v>132.6502787026334</v>
+        <v>547.1910343172051</v>
       </c>
     </row>
     <row r="46">
@@ -7782,16 +7782,16 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="C46" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="D46" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="E46" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="F46" t="n">
         <v>19.28114311021272</v>
@@ -7842,16 +7842,16 @@
         <v>153.8134336004835</v>
       </c>
       <c r="V46" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="W46" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="X46" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="Y46" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
     </row>
   </sheetData>
@@ -7981,22 +7981,22 @@
         <v>169.0966151720738</v>
       </c>
       <c r="K2" t="n">
-        <v>324.1454125711647</v>
+        <v>264.2220234242092</v>
       </c>
       <c r="L2" t="n">
-        <v>417.6612145504504</v>
+        <v>279.8985873492159</v>
       </c>
       <c r="M2" t="n">
-        <v>449.5135334928325</v>
+        <v>274.4784056065013</v>
       </c>
       <c r="N2" t="n">
-        <v>437.3469244119842</v>
+        <v>229.4130635965909</v>
       </c>
       <c r="O2" t="n">
-        <v>380.8001812627454</v>
+        <v>230.0982114216867</v>
       </c>
       <c r="P2" t="n">
-        <v>321.7987081714826</v>
+        <v>273.5820500585697</v>
       </c>
       <c r="Q2" t="n">
         <v>212.3149906599047</v>
@@ -8063,19 +8063,19 @@
         <v>137.841438974359</v>
       </c>
       <c r="L3" t="n">
-        <v>185.3423563661624</v>
+        <v>180.9034340831744</v>
       </c>
       <c r="M3" t="n">
-        <v>383.1483227996774</v>
+        <v>186.2662063012469</v>
       </c>
       <c r="N3" t="n">
-        <v>372.3560009609923</v>
+        <v>175.4738844625619</v>
       </c>
       <c r="O3" t="n">
-        <v>383.6105333221035</v>
+        <v>142.5962444444444</v>
       </c>
       <c r="P3" t="n">
-        <v>318.4627686399372</v>
+        <v>178.1065797935588</v>
       </c>
       <c r="Q3" t="n">
         <v>139.9817740860215</v>
@@ -8218,22 +8218,22 @@
         <v>169.0966151720738</v>
       </c>
       <c r="K5" t="n">
-        <v>324.1454125711648</v>
+        <v>220.0898510449805</v>
       </c>
       <c r="L5" t="n">
-        <v>417.6612145504504</v>
+        <v>279.8985873492159</v>
       </c>
       <c r="M5" t="n">
-        <v>449.5135334928325</v>
+        <v>230.3462332272727</v>
       </c>
       <c r="N5" t="n">
-        <v>437.3469244119842</v>
+        <v>271.7621178998911</v>
       </c>
       <c r="O5" t="n">
-        <v>380.8001812627454</v>
+        <v>274.2303838009153</v>
       </c>
       <c r="P5" t="n">
-        <v>321.7987081714826</v>
+        <v>275.3651681344982</v>
       </c>
       <c r="Q5" t="n">
         <v>212.3149906599047</v>
@@ -8297,25 +8297,25 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K6" t="n">
-        <v>264.4652370125786</v>
+        <v>137.841438974359</v>
       </c>
       <c r="L6" t="n">
-        <v>138.5543797798742</v>
+        <v>180.9034340831744</v>
       </c>
       <c r="M6" t="n">
-        <v>383.1483227996774</v>
+        <v>186.2662063012469</v>
       </c>
       <c r="N6" t="n">
-        <v>222.4246658592332</v>
+        <v>175.4738844625619</v>
       </c>
       <c r="O6" t="n">
-        <v>383.6105333221035</v>
+        <v>186.728416823673</v>
       </c>
       <c r="P6" t="n">
-        <v>318.4627686399372</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q6" t="n">
-        <v>210.0772877358491</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R6" t="n">
         <v>45.52166981132082</v>
@@ -8455,22 +8455,22 @@
         <v>169.0966151720738</v>
       </c>
       <c r="K8" t="n">
-        <v>324.1454125711647</v>
+        <v>264.2220234242092</v>
       </c>
       <c r="L8" t="n">
-        <v>417.6612145504504</v>
+        <v>279.8985873492159</v>
       </c>
       <c r="M8" t="n">
-        <v>449.5135334928325</v>
+        <v>272.6952875305729</v>
       </c>
       <c r="N8" t="n">
-        <v>437.3469244119842</v>
+        <v>229.4130635965909</v>
       </c>
       <c r="O8" t="n">
-        <v>380.8001812627454</v>
+        <v>274.2303838009153</v>
       </c>
       <c r="P8" t="n">
-        <v>321.7987081714826</v>
+        <v>231.2329957552695</v>
       </c>
       <c r="Q8" t="n">
         <v>212.3149906599047</v>
@@ -8534,22 +8534,22 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K9" t="n">
-        <v>137.841438974359</v>
+        <v>181.9736113535876</v>
       </c>
       <c r="L9" t="n">
-        <v>370.8403453034592</v>
+        <v>182.6865521591028</v>
       </c>
       <c r="M9" t="n">
-        <v>383.1483227996774</v>
+        <v>184.4830882253185</v>
       </c>
       <c r="N9" t="n">
-        <v>186.8580120236956</v>
+        <v>175.4738844625619</v>
       </c>
       <c r="O9" t="n">
-        <v>383.6105333221035</v>
+        <v>142.5962444444444</v>
       </c>
       <c r="P9" t="n">
-        <v>318.4627686399372</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q9" t="n">
         <v>139.9817740860215</v>
@@ -8692,22 +8692,22 @@
         <v>169.0966151720738</v>
       </c>
       <c r="K11" t="n">
-        <v>324.1454125711647</v>
+        <v>264.2220234242092</v>
       </c>
       <c r="L11" t="n">
-        <v>417.6612145504504</v>
+        <v>279.8985873492159</v>
       </c>
       <c r="M11" t="n">
-        <v>449.5135334928325</v>
+        <v>230.3462332272727</v>
       </c>
       <c r="N11" t="n">
-        <v>437.3469244119842</v>
+        <v>229.4130635965909</v>
       </c>
       <c r="O11" t="n">
-        <v>380.8001812627454</v>
+        <v>272.4472657249869</v>
       </c>
       <c r="P11" t="n">
-        <v>321.7987081714826</v>
+        <v>275.3651681344982</v>
       </c>
       <c r="Q11" t="n">
         <v>212.3149906599047</v>
@@ -8771,19 +8771,19 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K12" t="n">
-        <v>264.4652370125786</v>
+        <v>181.9736113535876</v>
       </c>
       <c r="L12" t="n">
-        <v>370.8403453034592</v>
+        <v>182.6865521591028</v>
       </c>
       <c r="M12" t="n">
-        <v>383.1483227996774</v>
+        <v>142.1340339220183</v>
       </c>
       <c r="N12" t="n">
-        <v>372.3560009609923</v>
+        <v>173.6907663866335</v>
       </c>
       <c r="O12" t="n">
-        <v>255.9771075721939</v>
+        <v>186.728416823673</v>
       </c>
       <c r="P12" t="n">
         <v>133.9744074143302</v>
@@ -8929,22 +8929,22 @@
         <v>169.0966151720738</v>
       </c>
       <c r="K14" t="n">
-        <v>324.1454125711648</v>
+        <v>264.2220234242092</v>
       </c>
       <c r="L14" t="n">
-        <v>417.6612145504504</v>
+        <v>235.7664149699872</v>
       </c>
       <c r="M14" t="n">
-        <v>449.5135334928325</v>
+        <v>272.6952875305729</v>
       </c>
       <c r="N14" t="n">
-        <v>437.3469244119842</v>
+        <v>273.5452359758195</v>
       </c>
       <c r="O14" t="n">
-        <v>380.8001812627454</v>
+        <v>274.2303838009153</v>
       </c>
       <c r="P14" t="n">
-        <v>321.7987081714826</v>
+        <v>231.2329957552695</v>
       </c>
       <c r="Q14" t="n">
         <v>212.3149906599047</v>
@@ -9008,22 +9008,22 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K15" t="n">
-        <v>264.4652370125786</v>
+        <v>181.9736113535876</v>
       </c>
       <c r="L15" t="n">
-        <v>370.8403453034592</v>
+        <v>180.9034340831744</v>
       </c>
       <c r="M15" t="n">
-        <v>312.04082470182</v>
+        <v>142.1340339220183</v>
       </c>
       <c r="N15" t="n">
-        <v>131.3417120833333</v>
+        <v>175.4738844625619</v>
       </c>
       <c r="O15" t="n">
-        <v>383.6105333221035</v>
+        <v>186.728416823673</v>
       </c>
       <c r="P15" t="n">
-        <v>318.4627686399372</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q15" t="n">
         <v>139.9817740860215</v>
@@ -9245,22 +9245,22 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K18" t="n">
-        <v>264.4652370125786</v>
+        <v>137.841438974359</v>
       </c>
       <c r="L18" t="n">
         <v>370.8403453034592</v>
       </c>
       <c r="M18" t="n">
-        <v>142.1340339220183</v>
+        <v>383.1483227996774</v>
       </c>
       <c r="N18" t="n">
-        <v>301.248502863135</v>
+        <v>372.3560009609923</v>
       </c>
       <c r="O18" t="n">
-        <v>383.6105333221035</v>
+        <v>382.6009056104135</v>
       </c>
       <c r="P18" t="n">
-        <v>318.4627686399372</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q18" t="n">
         <v>139.9817740860215</v>
@@ -9488,13 +9488,13 @@
         <v>370.8403453034592</v>
       </c>
       <c r="M21" t="n">
-        <v>142.1340339220183</v>
+        <v>241.9453110519923</v>
       </c>
       <c r="N21" t="n">
-        <v>231.1529892133073</v>
+        <v>372.3560009609923</v>
       </c>
       <c r="O21" t="n">
-        <v>383.6105333221035</v>
+        <v>142.5962444444444</v>
       </c>
       <c r="P21" t="n">
         <v>318.4627686399372</v>
@@ -9956,7 +9956,7 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K27" t="n">
-        <v>264.4652370125786</v>
+        <v>137.841438974359</v>
       </c>
       <c r="L27" t="n">
         <v>370.8403453034592</v>
@@ -9965,7 +9965,7 @@
         <v>142.1340339220183</v>
       </c>
       <c r="N27" t="n">
-        <v>231.1529892133073</v>
+        <v>357.7767872515269</v>
       </c>
       <c r="O27" t="n">
         <v>383.6105333221035</v>
@@ -10196,13 +10196,13 @@
         <v>264.4652370125786</v>
       </c>
       <c r="L30" t="n">
-        <v>138.5543797798742</v>
+        <v>370.8403453034592</v>
       </c>
       <c r="M30" t="n">
-        <v>233.2169876979182</v>
+        <v>142.1340339220183</v>
       </c>
       <c r="N30" t="n">
-        <v>372.3560009609923</v>
+        <v>231.1529892133073</v>
       </c>
       <c r="O30" t="n">
         <v>383.6105333221035</v>
@@ -10436,13 +10436,13 @@
         <v>370.8403453034592</v>
       </c>
       <c r="M33" t="n">
-        <v>383.1483227996774</v>
+        <v>255.5148970497678</v>
       </c>
       <c r="N33" t="n">
         <v>372.3560009609923</v>
       </c>
       <c r="O33" t="n">
-        <v>255.9771075721939</v>
+        <v>383.6105333221035</v>
       </c>
       <c r="P33" t="n">
         <v>133.9744074143302</v>
@@ -10673,16 +10673,16 @@
         <v>370.8403453034592</v>
       </c>
       <c r="M36" t="n">
-        <v>312.04082470182</v>
+        <v>383.1483227996774</v>
       </c>
       <c r="N36" t="n">
-        <v>131.3417120833333</v>
+        <v>244.7225752110828</v>
       </c>
       <c r="O36" t="n">
         <v>383.6105333221035</v>
       </c>
       <c r="P36" t="n">
-        <v>318.4627686399372</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q36" t="n">
         <v>139.9817740860215</v>
@@ -10913,16 +10913,16 @@
         <v>383.1483227996774</v>
       </c>
       <c r="N39" t="n">
-        <v>372.3560009609923</v>
+        <v>231.1529892133072</v>
       </c>
       <c r="O39" t="n">
-        <v>255.9771075721939</v>
+        <v>142.5962444444444</v>
       </c>
       <c r="P39" t="n">
-        <v>133.9744074143302</v>
+        <v>318.4627686399372</v>
       </c>
       <c r="Q39" t="n">
-        <v>139.9817740860215</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R39" t="n">
         <v>45.52166981132082</v>
@@ -11150,10 +11150,10 @@
         <v>383.1483227996774</v>
       </c>
       <c r="N42" t="n">
-        <v>244.7225752110828</v>
+        <v>372.3560009609923</v>
       </c>
       <c r="O42" t="n">
-        <v>383.6105333221035</v>
+        <v>255.9771075721939</v>
       </c>
       <c r="P42" t="n">
         <v>133.9744074143302</v>
@@ -22591,28 +22591,28 @@
         <v>0</v>
       </c>
       <c r="Q2" t="n">
-        <v>0</v>
+        <v>9.990699214544804</v>
       </c>
       <c r="R2" t="n">
         <v>149.8691179411497</v>
       </c>
       <c r="S2" t="n">
-        <v>6.725383157348119</v>
+        <v>209.0200695862453</v>
       </c>
       <c r="T2" t="n">
-        <v>223.0958495641314</v>
+        <v>184.2242321325068</v>
       </c>
       <c r="U2" t="n">
-        <v>10.33136403017744</v>
+        <v>207.2134805286079</v>
       </c>
       <c r="V2" t="n">
-        <v>327.7522584701349</v>
+        <v>283.6200860909063</v>
       </c>
       <c r="W2" t="n">
-        <v>108.226679839754</v>
+        <v>305.1087963381844</v>
       </c>
       <c r="X2" t="n">
-        <v>128.71681180081</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y2" t="n">
         <v>386.2379386560536</v>
@@ -22625,7 +22625,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>127.6615662182428</v>
       </c>
       <c r="C3" t="n">
         <v>172.7084989883157</v>
@@ -22640,7 +22640,7 @@
         <v>145.0692123933839</v>
       </c>
       <c r="G3" t="n">
-        <v>137.3435171632106</v>
+        <v>93.21134478398204</v>
       </c>
       <c r="H3" t="n">
         <v>112.2354442364965</v>
@@ -22649,7 +22649,7 @@
         <v>89.39663285141508</v>
       </c>
       <c r="J3" t="n">
-        <v>0</v>
+        <v>0.7465913262578567</v>
       </c>
       <c r="K3" t="n">
         <v>0</v>
@@ -22673,22 +22673,22 @@
         <v>0</v>
       </c>
       <c r="R3" t="n">
-        <v>100.1578341526431</v>
+        <v>56.02566177341454</v>
       </c>
       <c r="S3" t="n">
-        <v>0</v>
+        <v>127.5509987246092</v>
       </c>
       <c r="T3" t="n">
         <v>200.1647286948216</v>
       </c>
       <c r="U3" t="n">
-        <v>103.3909519116029</v>
+        <v>225.9413820809748</v>
       </c>
       <c r="V3" t="n">
-        <v>0</v>
+        <v>232.8005871494253</v>
       </c>
       <c r="W3" t="n">
-        <v>10.68069428326055</v>
+        <v>251.6949831609196</v>
       </c>
       <c r="X3" t="n">
         <v>205.7729852034775</v>
@@ -22725,7 +22725,7 @@
         <v>162.2271725074396</v>
       </c>
       <c r="I4" t="n">
-        <v>155.4504749272583</v>
+        <v>154.660024479576</v>
       </c>
       <c r="J4" t="n">
         <v>93.35918011667277</v>
@@ -22752,7 +22752,7 @@
         <v>86.16204325169439</v>
       </c>
       <c r="R4" t="n">
-        <v>44.10642379180146</v>
+        <v>133.1612189979409</v>
       </c>
       <c r="S4" t="n">
         <v>224.0165980369723</v>
@@ -22761,7 +22761,7 @@
         <v>227.9455894282815</v>
       </c>
       <c r="U4" t="n">
-        <v>286.3190293564909</v>
+        <v>242.1868569772623</v>
       </c>
       <c r="V4" t="n">
         <v>252.137643323828</v>
@@ -22773,7 +22773,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y4" t="n">
-        <v>218.5846533520948</v>
+        <v>174.4524809728662</v>
       </c>
     </row>
     <row r="5">
@@ -22783,10 +22783,10 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>382.7338416634806</v>
+        <v>338.601669284252</v>
       </c>
       <c r="C5" t="n">
-        <v>124.2586028933485</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D5" t="n">
         <v>354.683041620683</v>
@@ -22795,7 +22795,7 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F5" t="n">
-        <v>322.4562579625502</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G5" t="n">
         <v>415.302737515135</v>
@@ -22828,13 +22828,13 @@
         <v>0</v>
       </c>
       <c r="Q5" t="n">
-        <v>0</v>
+        <v>9.990699214544804</v>
       </c>
       <c r="R5" t="n">
-        <v>0</v>
+        <v>105.7369455619211</v>
       </c>
       <c r="S5" t="n">
-        <v>0</v>
+        <v>209.0200695862453</v>
       </c>
       <c r="T5" t="n">
         <v>223.0958495641314</v>
@@ -22849,10 +22849,10 @@
         <v>349.240968717413</v>
       </c>
       <c r="X5" t="n">
-        <v>369.731100678469</v>
+        <v>330.8594832468445</v>
       </c>
       <c r="Y5" t="n">
-        <v>145.2236497783945</v>
+        <v>342.105766276825</v>
       </c>
     </row>
     <row r="6">
@@ -22874,13 +22874,13 @@
         <v>157.6450804554009</v>
       </c>
       <c r="F6" t="n">
-        <v>0</v>
+        <v>145.0692123933839</v>
       </c>
       <c r="G6" t="n">
-        <v>6.265029750451532</v>
+        <v>137.3435171632106</v>
       </c>
       <c r="H6" t="n">
-        <v>0</v>
+        <v>112.2354442364965</v>
       </c>
       <c r="I6" t="n">
         <v>89.39663285141508</v>
@@ -22910,13 +22910,13 @@
         <v>0</v>
       </c>
       <c r="R6" t="n">
-        <v>0</v>
+        <v>56.02566177341454</v>
       </c>
       <c r="S6" t="n">
-        <v>171.6831711038378</v>
+        <v>127.5509987246092</v>
       </c>
       <c r="T6" t="n">
-        <v>200.1647286948216</v>
+        <v>156.032556315593</v>
       </c>
       <c r="U6" t="n">
         <v>225.9413820809748</v>
@@ -22925,10 +22925,10 @@
         <v>232.8005871494253</v>
       </c>
       <c r="W6" t="n">
-        <v>10.68069428326055</v>
+        <v>212.8233657292951</v>
       </c>
       <c r="X6" t="n">
-        <v>0</v>
+        <v>205.7729852034775</v>
       </c>
       <c r="Y6" t="n">
         <v>205.6826957773044</v>
@@ -22941,7 +22941,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>179.8319801819373</v>
+        <v>179.041529734255</v>
       </c>
       <c r="C7" t="n">
         <v>167.2468210986278</v>
@@ -22992,10 +22992,10 @@
         <v>177.2933913771695</v>
       </c>
       <c r="S7" t="n">
-        <v>224.0165980369723</v>
+        <v>179.8844256577437</v>
       </c>
       <c r="T7" t="n">
-        <v>94.75862184291347</v>
+        <v>227.9455894282815</v>
       </c>
       <c r="U7" t="n">
         <v>286.3190293564909</v>
@@ -23007,10 +23007,10 @@
         <v>286.522998336591</v>
       </c>
       <c r="X7" t="n">
-        <v>225.7096553890372</v>
+        <v>181.5774830098086</v>
       </c>
       <c r="Y7" t="n">
-        <v>218.5846533520948</v>
+        <v>174.4524809728662</v>
       </c>
     </row>
     <row r="8">
@@ -23020,7 +23020,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>141.7195527858215</v>
+        <v>338.601669284252</v>
       </c>
       <c r="C8" t="n">
         <v>365.2728917710076</v>
@@ -23068,7 +23068,7 @@
         <v>0</v>
       </c>
       <c r="R8" t="n">
-        <v>149.8691179411497</v>
+        <v>105.7369455619211</v>
       </c>
       <c r="S8" t="n">
         <v>209.0200695862453</v>
@@ -23077,19 +23077,19 @@
         <v>223.0958495641314</v>
       </c>
       <c r="U8" t="n">
-        <v>49.05096647893927</v>
+        <v>251.3456529078365</v>
       </c>
       <c r="V8" t="n">
-        <v>86.73796959247585</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W8" t="n">
         <v>349.240968717413</v>
       </c>
       <c r="X8" t="n">
-        <v>369.731100678469</v>
+        <v>340.8501824613893</v>
       </c>
       <c r="Y8" t="n">
-        <v>145.2236497783945</v>
+        <v>342.105766276825</v>
       </c>
     </row>
     <row r="9">
@@ -23147,25 +23147,25 @@
         <v>0</v>
       </c>
       <c r="R9" t="n">
-        <v>70.35882518776062</v>
+        <v>100.1578341526431</v>
       </c>
       <c r="S9" t="n">
         <v>171.6831711038378</v>
       </c>
       <c r="T9" t="n">
-        <v>200.1647286948216</v>
+        <v>161.2931112631971</v>
       </c>
       <c r="U9" t="n">
-        <v>0</v>
+        <v>181.8092097017462</v>
       </c>
       <c r="V9" t="n">
-        <v>0</v>
+        <v>188.6684147701967</v>
       </c>
       <c r="W9" t="n">
-        <v>10.68069428326055</v>
+        <v>207.562810781691</v>
       </c>
       <c r="X9" t="n">
-        <v>0</v>
+        <v>205.7729852034775</v>
       </c>
       <c r="Y9" t="n">
         <v>205.6826957773044</v>
@@ -23223,16 +23223,16 @@
         <v>2.721440735106512</v>
       </c>
       <c r="Q10" t="n">
-        <v>86.16204325169439</v>
+        <v>42.02987087246579</v>
       </c>
       <c r="R10" t="n">
-        <v>177.2933913771695</v>
+        <v>133.1612189979409</v>
       </c>
       <c r="S10" t="n">
         <v>224.0165980369723</v>
       </c>
       <c r="T10" t="n">
-        <v>227.9455894282815</v>
+        <v>183.8134170490529</v>
       </c>
       <c r="U10" t="n">
         <v>286.3190293564909</v>
@@ -23241,10 +23241,10 @@
         <v>252.137643323828</v>
       </c>
       <c r="W10" t="n">
-        <v>153.336030751223</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X10" t="n">
-        <v>225.7096553890372</v>
+        <v>224.9192049413549</v>
       </c>
       <c r="Y10" t="n">
         <v>218.5846533520948</v>
@@ -23257,7 +23257,7 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>141.7195527858215</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C11" t="n">
         <v>365.2728917710076</v>
@@ -23269,16 +23269,16 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F11" t="n">
-        <v>165.8617568640524</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G11" t="n">
-        <v>415.302737515135</v>
+        <v>371.1705651359065</v>
       </c>
       <c r="H11" t="n">
         <v>339.4748021157671</v>
       </c>
       <c r="I11" t="n">
-        <v>158.0503210826583</v>
+        <v>210.4758895704059</v>
       </c>
       <c r="J11" t="n">
         <v>11.94928935461252</v>
@@ -23302,13 +23302,13 @@
         <v>0</v>
       </c>
       <c r="Q11" t="n">
-        <v>0</v>
+        <v>9.990699214544804</v>
       </c>
       <c r="R11" t="n">
-        <v>0</v>
+        <v>105.7369455619211</v>
       </c>
       <c r="S11" t="n">
-        <v>209.0200695862453</v>
+        <v>170.1484521546208</v>
       </c>
       <c r="T11" t="n">
         <v>223.0958495641314</v>
@@ -23320,13 +23320,13 @@
         <v>327.7522584701349</v>
       </c>
       <c r="W11" t="n">
-        <v>108.226679839754</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X11" t="n">
         <v>369.731100678469</v>
       </c>
       <c r="Y11" t="n">
-        <v>386.2379386560536</v>
+        <v>342.105766276825</v>
       </c>
     </row>
     <row r="12">
@@ -23384,28 +23384,28 @@
         <v>0</v>
       </c>
       <c r="R12" t="n">
-        <v>0</v>
+        <v>61.28621672101858</v>
       </c>
       <c r="S12" t="n">
-        <v>9.151119716000068</v>
+        <v>171.6831711038378</v>
       </c>
       <c r="T12" t="n">
         <v>200.1647286948216</v>
       </c>
       <c r="U12" t="n">
-        <v>0</v>
+        <v>181.8092097017462</v>
       </c>
       <c r="V12" t="n">
         <v>232.8005871494253</v>
       </c>
       <c r="W12" t="n">
-        <v>10.68069428326055</v>
+        <v>207.562810781691</v>
       </c>
       <c r="X12" t="n">
-        <v>205.7729852034775</v>
+        <v>161.6408128242489</v>
       </c>
       <c r="Y12" t="n">
-        <v>0</v>
+        <v>205.6826957773044</v>
       </c>
     </row>
     <row r="13">
@@ -23430,13 +23430,13 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G13" t="n">
-        <v>167.9909793584588</v>
+        <v>123.8588069792302</v>
       </c>
       <c r="H13" t="n">
         <v>162.2271725074396</v>
       </c>
       <c r="I13" t="n">
-        <v>155.4504749272583</v>
+        <v>154.660024479576</v>
       </c>
       <c r="J13" t="n">
         <v>93.35918011667277</v>
@@ -23463,7 +23463,7 @@
         <v>86.16204325169439</v>
       </c>
       <c r="R13" t="n">
-        <v>44.10642379180146</v>
+        <v>177.2933913771695</v>
       </c>
       <c r="S13" t="n">
         <v>224.0165980369723</v>
@@ -23478,10 +23478,10 @@
         <v>252.137643323828</v>
       </c>
       <c r="W13" t="n">
-        <v>286.522998336591</v>
+        <v>242.3908259573624</v>
       </c>
       <c r="X13" t="n">
-        <v>225.7096553890372</v>
+        <v>181.5774830098086</v>
       </c>
       <c r="Y13" t="n">
         <v>218.5846533520948</v>
@@ -23509,13 +23509,13 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G14" t="n">
-        <v>415.302737515135</v>
+        <v>371.1705651359065</v>
       </c>
       <c r="H14" t="n">
-        <v>339.4748021157671</v>
+        <v>300.6031846841426</v>
       </c>
       <c r="I14" t="n">
-        <v>158.0503210826583</v>
+        <v>210.4758895704059</v>
       </c>
       <c r="J14" t="n">
         <v>11.94928935461252</v>
@@ -23539,10 +23539,10 @@
         <v>0</v>
       </c>
       <c r="Q14" t="n">
-        <v>0</v>
+        <v>9.990699214544804</v>
       </c>
       <c r="R14" t="n">
-        <v>0</v>
+        <v>149.8691179411497</v>
       </c>
       <c r="S14" t="n">
         <v>209.0200695862453</v>
@@ -23551,19 +23551,19 @@
         <v>223.0958495641314</v>
       </c>
       <c r="U14" t="n">
-        <v>10.33136403017744</v>
+        <v>251.3456529078365</v>
       </c>
       <c r="V14" t="n">
-        <v>327.7522584701349</v>
+        <v>283.6200860909063</v>
       </c>
       <c r="W14" t="n">
-        <v>108.226679839754</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X14" t="n">
         <v>369.731100678469</v>
       </c>
       <c r="Y14" t="n">
-        <v>145.2236497783945</v>
+        <v>342.105766276825</v>
       </c>
     </row>
     <row r="15">
@@ -23621,22 +23621,22 @@
         <v>0</v>
       </c>
       <c r="R15" t="n">
-        <v>100.1578341526431</v>
+        <v>56.02566177341454</v>
       </c>
       <c r="S15" t="n">
-        <v>136.2759056302995</v>
+        <v>171.6831711038378</v>
       </c>
       <c r="T15" t="n">
-        <v>0</v>
+        <v>200.1647286948216</v>
       </c>
       <c r="U15" t="n">
-        <v>0</v>
+        <v>181.8092097017462</v>
       </c>
       <c r="V15" t="n">
-        <v>0</v>
+        <v>193.9289697178007</v>
       </c>
       <c r="W15" t="n">
-        <v>10.68069428326055</v>
+        <v>207.562810781691</v>
       </c>
       <c r="X15" t="n">
         <v>205.7729852034775</v>
@@ -23655,13 +23655,13 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C16" t="n">
-        <v>167.2468210986278</v>
+        <v>166.4563706509456</v>
       </c>
       <c r="D16" t="n">
-        <v>148.6154730182124</v>
+        <v>104.4833006389838</v>
       </c>
       <c r="E16" t="n">
-        <v>146.4339626465692</v>
+        <v>102.3017902673406</v>
       </c>
       <c r="F16" t="n">
         <v>145.4210480229312</v>
@@ -23670,7 +23670,7 @@
         <v>167.9909793584588</v>
       </c>
       <c r="H16" t="n">
-        <v>162.2271725074396</v>
+        <v>118.095000128211</v>
       </c>
       <c r="I16" t="n">
         <v>155.4504749272583</v>
@@ -23706,7 +23706,7 @@
         <v>224.0165980369723</v>
       </c>
       <c r="T16" t="n">
-        <v>94.75862184291347</v>
+        <v>227.9455894282815</v>
       </c>
       <c r="U16" t="n">
         <v>286.3190293564909</v>
@@ -23743,7 +23743,7 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F17" t="n">
-        <v>313.921378732166</v>
+        <v>165.8617568640524</v>
       </c>
       <c r="G17" t="n">
         <v>174.288448637476</v>
@@ -23752,7 +23752,7 @@
         <v>339.4748021157671</v>
       </c>
       <c r="I17" t="n">
-        <v>0</v>
+        <v>210.4758895704059</v>
       </c>
       <c r="J17" t="n">
         <v>11.94928935461252</v>
@@ -23776,10 +23776,10 @@
         <v>0</v>
       </c>
       <c r="Q17" t="n">
-        <v>9.990699214544804</v>
+        <v>0</v>
       </c>
       <c r="R17" t="n">
-        <v>0</v>
+        <v>149.8691179411497</v>
       </c>
       <c r="S17" t="n">
         <v>209.0200695862453</v>
@@ -23794,7 +23794,7 @@
         <v>327.7522584701349</v>
       </c>
       <c r="W17" t="n">
-        <v>349.240968717413</v>
+        <v>146.9462822885158</v>
       </c>
       <c r="X17" t="n">
         <v>369.731100678469</v>
@@ -23831,10 +23831,10 @@
         <v>112.2354442364965</v>
       </c>
       <c r="I18" t="n">
-        <v>0</v>
+        <v>89.39663285141508</v>
       </c>
       <c r="J18" t="n">
-        <v>0</v>
+        <v>0.7465913262578567</v>
       </c>
       <c r="K18" t="n">
         <v>0</v>
@@ -23858,25 +23858,25 @@
         <v>0</v>
       </c>
       <c r="R18" t="n">
-        <v>100.1578341526431</v>
+        <v>0</v>
       </c>
       <c r="S18" t="n">
-        <v>171.6831711038378</v>
+        <v>0</v>
       </c>
       <c r="T18" t="n">
-        <v>200.1647286948216</v>
+        <v>0</v>
       </c>
       <c r="U18" t="n">
-        <v>0</v>
+        <v>225.9413820809748</v>
       </c>
       <c r="V18" t="n">
-        <v>0</v>
+        <v>10.49235770196771</v>
       </c>
       <c r="W18" t="n">
         <v>10.68069428326055</v>
       </c>
       <c r="X18" t="n">
-        <v>60.34421521279029</v>
+        <v>205.7729852034775</v>
       </c>
       <c r="Y18" t="n">
         <v>205.6826957773044</v>
@@ -23907,7 +23907,7 @@
         <v>167.9909793584588</v>
       </c>
       <c r="H19" t="n">
-        <v>162.2271725074396</v>
+        <v>29.04020492207155</v>
       </c>
       <c r="I19" t="n">
         <v>155.4504749272583</v>
@@ -23952,7 +23952,7 @@
         <v>252.137643323828</v>
       </c>
       <c r="W19" t="n">
-        <v>153.336030751223</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X19" t="n">
         <v>225.7096553890372</v>
@@ -23971,7 +23971,7 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C20" t="n">
-        <v>324.7966126378724</v>
+        <v>124.2586028933485</v>
       </c>
       <c r="D20" t="n">
         <v>354.683041620683</v>
@@ -23980,10 +23980,10 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F20" t="n">
-        <v>165.8617568640524</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G20" t="n">
-        <v>174.288448637476</v>
+        <v>415.302737515135</v>
       </c>
       <c r="H20" t="n">
         <v>339.4748021157671</v>
@@ -23992,7 +23992,7 @@
         <v>210.4758895704059</v>
       </c>
       <c r="J20" t="n">
-        <v>0</v>
+        <v>11.94928935461252</v>
       </c>
       <c r="K20" t="n">
         <v>0</v>
@@ -24013,7 +24013,7 @@
         <v>0</v>
       </c>
       <c r="Q20" t="n">
-        <v>0</v>
+        <v>9.990699214544804</v>
       </c>
       <c r="R20" t="n">
         <v>0</v>
@@ -24022,22 +24022,22 @@
         <v>209.0200695862453</v>
       </c>
       <c r="T20" t="n">
-        <v>223.0958495641314</v>
+        <v>0</v>
       </c>
       <c r="U20" t="n">
         <v>251.3456529078365</v>
       </c>
       <c r="V20" t="n">
-        <v>327.7522584701349</v>
+        <v>247.4175514543149</v>
       </c>
       <c r="W20" t="n">
-        <v>349.240968717413</v>
+        <v>108.226679839754</v>
       </c>
       <c r="X20" t="n">
         <v>369.731100678469</v>
       </c>
       <c r="Y20" t="n">
-        <v>145.2236497783945</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="21">
@@ -24053,25 +24053,25 @@
         <v>172.7084989883157</v>
       </c>
       <c r="D21" t="n">
-        <v>147.4450655646388</v>
+        <v>0</v>
       </c>
       <c r="E21" t="n">
-        <v>43.57958501361927</v>
+        <v>157.6450804554009</v>
       </c>
       <c r="F21" t="n">
         <v>0</v>
       </c>
       <c r="G21" t="n">
-        <v>137.3435171632106</v>
+        <v>0</v>
       </c>
       <c r="H21" t="n">
         <v>0</v>
       </c>
       <c r="I21" t="n">
-        <v>0</v>
+        <v>89.39663285141508</v>
       </c>
       <c r="J21" t="n">
-        <v>0</v>
+        <v>0.7465913262578567</v>
       </c>
       <c r="K21" t="n">
         <v>0</v>
@@ -24098,19 +24098,19 @@
         <v>100.1578341526431</v>
       </c>
       <c r="S21" t="n">
-        <v>171.6831711038378</v>
+        <v>0</v>
       </c>
       <c r="T21" t="n">
         <v>200.1647286948216</v>
       </c>
       <c r="U21" t="n">
-        <v>225.9413820809748</v>
+        <v>4.389540266123134</v>
       </c>
       <c r="V21" t="n">
-        <v>0</v>
+        <v>232.8005871494253</v>
       </c>
       <c r="W21" t="n">
-        <v>10.68069428326055</v>
+        <v>251.6949831609196</v>
       </c>
       <c r="X21" t="n">
         <v>205.7729852034775</v>
@@ -24174,7 +24174,7 @@
         <v>86.16204325169439</v>
       </c>
       <c r="R22" t="n">
-        <v>44.10642379180146</v>
+        <v>177.2933913771695</v>
       </c>
       <c r="S22" t="n">
         <v>224.0165980369723</v>
@@ -24189,7 +24189,7 @@
         <v>252.137643323828</v>
       </c>
       <c r="W22" t="n">
-        <v>286.522998336591</v>
+        <v>153.336030751223</v>
       </c>
       <c r="X22" t="n">
         <v>225.7096553890372</v>
@@ -24205,13 +24205,13 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>382.7338416634806</v>
+        <v>330.3082731757329</v>
       </c>
       <c r="C23" t="n">
         <v>365.2728917710076</v>
       </c>
       <c r="D23" t="n">
-        <v>113.6687527430239</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E23" t="n">
         <v>381.9303700722618</v>
@@ -24220,10 +24220,10 @@
         <v>165.8617568640524</v>
       </c>
       <c r="G23" t="n">
-        <v>415.302737515135</v>
+        <v>174.288448637476</v>
       </c>
       <c r="H23" t="n">
-        <v>336.2094860585705</v>
+        <v>339.4748021157671</v>
       </c>
       <c r="I23" t="n">
         <v>210.4758895704059</v>
@@ -24250,13 +24250,13 @@
         <v>0</v>
       </c>
       <c r="Q23" t="n">
-        <v>9.990699214544804</v>
+        <v>0</v>
       </c>
       <c r="R23" t="n">
-        <v>149.8691179411497</v>
+        <v>0</v>
       </c>
       <c r="S23" t="n">
-        <v>0</v>
+        <v>209.0200695862453</v>
       </c>
       <c r="T23" t="n">
         <v>223.0958495641314</v>
@@ -24268,13 +24268,13 @@
         <v>327.7522584701349</v>
       </c>
       <c r="W23" t="n">
-        <v>108.226679839754</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X23" t="n">
         <v>369.731100678469</v>
       </c>
       <c r="Y23" t="n">
-        <v>386.2379386560536</v>
+        <v>145.2236497783945</v>
       </c>
     </row>
     <row r="24">
@@ -24305,7 +24305,7 @@
         <v>112.2354442364965</v>
       </c>
       <c r="I24" t="n">
-        <v>0</v>
+        <v>89.39663285141508</v>
       </c>
       <c r="J24" t="n">
         <v>0.7465913262578567</v>
@@ -24335,7 +24335,7 @@
         <v>100.1578341526431</v>
       </c>
       <c r="S24" t="n">
-        <v>171.6831711038378</v>
+        <v>0</v>
       </c>
       <c r="T24" t="n">
         <v>200.1647286948216</v>
@@ -24350,7 +24350,7 @@
         <v>10.68069428326055</v>
       </c>
       <c r="X24" t="n">
-        <v>59.59762388653243</v>
+        <v>141.8841621389552</v>
       </c>
       <c r="Y24" t="n">
         <v>205.6826957773044</v>
@@ -24414,7 +24414,7 @@
         <v>177.2933913771695</v>
       </c>
       <c r="S25" t="n">
-        <v>224.0165980369723</v>
+        <v>90.82963045160423</v>
       </c>
       <c r="T25" t="n">
         <v>227.9455894282815</v>
@@ -24426,7 +24426,7 @@
         <v>252.137643323828</v>
       </c>
       <c r="W25" t="n">
-        <v>153.336030751223</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X25" t="n">
         <v>225.7096553890372</v>
@@ -24442,25 +24442,25 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>382.7338416634806</v>
+        <v>320.3175739611883</v>
       </c>
       <c r="C26" t="n">
         <v>365.2728917710076</v>
       </c>
       <c r="D26" t="n">
-        <v>113.6687527430239</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E26" t="n">
         <v>381.9303700722618</v>
       </c>
       <c r="F26" t="n">
-        <v>406.8760457417114</v>
+        <v>165.8617568640524</v>
       </c>
       <c r="G26" t="n">
-        <v>415.302737515135</v>
+        <v>174.288448637476</v>
       </c>
       <c r="H26" t="n">
-        <v>98.46051323810809</v>
+        <v>339.4748021157671</v>
       </c>
       <c r="I26" t="n">
         <v>210.4758895704059</v>
@@ -24502,16 +24502,16 @@
         <v>251.3456529078365</v>
       </c>
       <c r="V26" t="n">
-        <v>265.3359907678426</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W26" t="n">
-        <v>108.226679839754</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X26" t="n">
         <v>369.731100678469</v>
       </c>
       <c r="Y26" t="n">
-        <v>386.2379386560536</v>
+        <v>145.2236497783945</v>
       </c>
     </row>
     <row r="27">
@@ -24536,7 +24536,7 @@
         <v>145.0692123933839</v>
       </c>
       <c r="G27" t="n">
-        <v>137.3435171632106</v>
+        <v>0</v>
       </c>
       <c r="H27" t="n">
         <v>112.2354442364965</v>
@@ -24572,22 +24572,22 @@
         <v>100.1578341526431</v>
       </c>
       <c r="S27" t="n">
-        <v>171.6831711038378</v>
+        <v>20.56014934041423</v>
       </c>
       <c r="T27" t="n">
-        <v>200.1647286948216</v>
+        <v>0</v>
       </c>
       <c r="U27" t="n">
-        <v>0</v>
+        <v>225.9413820809748</v>
       </c>
       <c r="V27" t="n">
-        <v>0</v>
+        <v>232.8005871494253</v>
       </c>
       <c r="W27" t="n">
         <v>10.68069428326055</v>
       </c>
       <c r="X27" t="n">
-        <v>175.8836868124217</v>
+        <v>205.7729852034775</v>
       </c>
       <c r="Y27" t="n">
         <v>0</v>
@@ -24618,7 +24618,7 @@
         <v>167.9909793584588</v>
       </c>
       <c r="H28" t="n">
-        <v>29.04020492207155</v>
+        <v>162.2271725074396</v>
       </c>
       <c r="I28" t="n">
         <v>155.4504749272583</v>
@@ -24663,7 +24663,7 @@
         <v>252.137643323828</v>
       </c>
       <c r="W28" t="n">
-        <v>286.522998336591</v>
+        <v>153.336030751223</v>
       </c>
       <c r="X28" t="n">
         <v>225.7096553890372</v>
@@ -24682,7 +24682,7 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C29" t="n">
-        <v>124.2586028933485</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D29" t="n">
         <v>354.683041620683</v>
@@ -24691,7 +24691,7 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F29" t="n">
-        <v>406.8760457417114</v>
+        <v>165.8617568640524</v>
       </c>
       <c r="G29" t="n">
         <v>174.288448637476</v>
@@ -24724,7 +24724,7 @@
         <v>0</v>
       </c>
       <c r="Q29" t="n">
-        <v>0</v>
+        <v>9.990699214544804</v>
       </c>
       <c r="R29" t="n">
         <v>149.8691179411497</v>
@@ -24733,10 +24733,10 @@
         <v>209.0200695862453</v>
       </c>
       <c r="T29" t="n">
-        <v>223.0958495641314</v>
+        <v>0</v>
       </c>
       <c r="U29" t="n">
-        <v>10.33136403017744</v>
+        <v>21.14182795086677</v>
       </c>
       <c r="V29" t="n">
         <v>327.7522584701349</v>
@@ -24745,7 +24745,7 @@
         <v>349.240968717413</v>
       </c>
       <c r="X29" t="n">
-        <v>167.4364142495718</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y29" t="n">
         <v>386.2379386560536</v>
@@ -24758,31 +24758,31 @@
         </is>
       </c>
       <c r="B30" t="n">
-        <v>112.367527406564</v>
+        <v>166.5331836498673</v>
       </c>
       <c r="C30" t="n">
-        <v>0</v>
+        <v>172.7084989883157</v>
       </c>
       <c r="D30" t="n">
-        <v>147.4450655646388</v>
+        <v>79.02732540226924</v>
       </c>
       <c r="E30" t="n">
         <v>0</v>
       </c>
       <c r="F30" t="n">
-        <v>145.0692123933839</v>
+        <v>0</v>
       </c>
       <c r="G30" t="n">
-        <v>137.3435171632106</v>
+        <v>0</v>
       </c>
       <c r="H30" t="n">
-        <v>0</v>
+        <v>112.2354442364965</v>
       </c>
       <c r="I30" t="n">
         <v>89.39663285141508</v>
       </c>
       <c r="J30" t="n">
-        <v>0.7465913262578567</v>
+        <v>0</v>
       </c>
       <c r="K30" t="n">
         <v>0</v>
@@ -24812,19 +24812,19 @@
         <v>171.6831711038378</v>
       </c>
       <c r="T30" t="n">
-        <v>200.1647286948216</v>
+        <v>0</v>
       </c>
       <c r="U30" t="n">
-        <v>225.9413820809748</v>
+        <v>0</v>
       </c>
       <c r="V30" t="n">
-        <v>0</v>
+        <v>232.8005871494253</v>
       </c>
       <c r="W30" t="n">
         <v>251.6949831609196</v>
       </c>
       <c r="X30" t="n">
-        <v>0</v>
+        <v>205.7729852034775</v>
       </c>
       <c r="Y30" t="n">
         <v>205.6826957773044</v>
@@ -24894,13 +24894,13 @@
         <v>227.9455894282815</v>
       </c>
       <c r="U31" t="n">
-        <v>286.3190293564909</v>
+        <v>153.1320617711229</v>
       </c>
       <c r="V31" t="n">
         <v>252.137643323828</v>
       </c>
       <c r="W31" t="n">
-        <v>153.336030751223</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X31" t="n">
         <v>225.7096553890372</v>
@@ -24976,7 +24976,7 @@
         <v>10.33136403017744</v>
       </c>
       <c r="V32" t="n">
-        <v>327.7522584701349</v>
+        <v>215.4233321629012</v>
       </c>
       <c r="W32" t="n">
         <v>349.240968717413</v>
@@ -24985,7 +24985,7 @@
         <v>369.731100678469</v>
       </c>
       <c r="Y32" t="n">
-        <v>273.9090123488199</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="33">
@@ -24995,7 +24995,7 @@
         </is>
       </c>
       <c r="B33" t="n">
-        <v>166.5331836498673</v>
+        <v>136.7341746849847</v>
       </c>
       <c r="C33" t="n">
         <v>172.7084989883157</v>
@@ -25016,10 +25016,10 @@
         <v>112.2354442364965</v>
       </c>
       <c r="I33" t="n">
-        <v>60.25392578661718</v>
+        <v>89.39663285141508</v>
       </c>
       <c r="J33" t="n">
-        <v>0</v>
+        <v>0.7465913262578567</v>
       </c>
       <c r="K33" t="n">
         <v>0</v>
@@ -25061,10 +25061,10 @@
         <v>10.68069428326055</v>
       </c>
       <c r="X33" t="n">
-        <v>205.7729852034775</v>
+        <v>0</v>
       </c>
       <c r="Y33" t="n">
-        <v>0</v>
+        <v>205.6826957773044</v>
       </c>
     </row>
     <row r="34">
@@ -25122,7 +25122,7 @@
         <v>86.16204325169439</v>
       </c>
       <c r="R34" t="n">
-        <v>177.2933913771695</v>
+        <v>44.10642379180146</v>
       </c>
       <c r="S34" t="n">
         <v>224.0165980369723</v>
@@ -25143,7 +25143,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y34" t="n">
-        <v>85.39768576672677</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="35">
@@ -25171,10 +25171,10 @@
         <v>174.288448637476</v>
       </c>
       <c r="H35" t="n">
-        <v>329.7375659437481</v>
+        <v>339.4748021157671</v>
       </c>
       <c r="I35" t="n">
-        <v>0</v>
+        <v>210.4758895704059</v>
       </c>
       <c r="J35" t="n">
         <v>11.94928935461252</v>
@@ -25198,22 +25198,22 @@
         <v>0</v>
       </c>
       <c r="Q35" t="n">
-        <v>0</v>
+        <v>9.990699214544804</v>
       </c>
       <c r="R35" t="n">
-        <v>149.8691179411497</v>
+        <v>0</v>
       </c>
       <c r="S35" t="n">
-        <v>209.0200695862453</v>
+        <v>128.6853625704253</v>
       </c>
       <c r="T35" t="n">
         <v>0</v>
       </c>
       <c r="U35" t="n">
-        <v>10.33136403017744</v>
+        <v>251.3456529078365</v>
       </c>
       <c r="V35" t="n">
-        <v>327.7522584701349</v>
+        <v>86.73796959247585</v>
       </c>
       <c r="W35" t="n">
         <v>349.240968717413</v>
@@ -25250,7 +25250,7 @@
         <v>137.3435171632106</v>
       </c>
       <c r="H36" t="n">
-        <v>112.2354442364965</v>
+        <v>0</v>
       </c>
       <c r="I36" t="n">
         <v>89.39663285141508</v>
@@ -25280,16 +25280,16 @@
         <v>0</v>
       </c>
       <c r="R36" t="n">
-        <v>0</v>
+        <v>100.1578341526431</v>
       </c>
       <c r="S36" t="n">
         <v>171.6831711038378</v>
       </c>
       <c r="T36" t="n">
-        <v>200.1647286948216</v>
+        <v>76.82817876295805</v>
       </c>
       <c r="U36" t="n">
-        <v>70.26853576158751</v>
+        <v>0</v>
       </c>
       <c r="V36" t="n">
         <v>0</v>
@@ -25301,7 +25301,7 @@
         <v>205.7729852034775</v>
       </c>
       <c r="Y36" t="n">
-        <v>0</v>
+        <v>205.6826957773044</v>
       </c>
     </row>
     <row r="37">
@@ -25405,7 +25405,7 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G38" t="n">
-        <v>174.288448637476</v>
+        <v>415.302737515135</v>
       </c>
       <c r="H38" t="n">
         <v>339.4748021157671</v>
@@ -25438,25 +25438,25 @@
         <v>0</v>
       </c>
       <c r="R38" t="n">
-        <v>149.8691179411497</v>
+        <v>0</v>
       </c>
       <c r="S38" t="n">
         <v>209.0200695862453</v>
       </c>
       <c r="T38" t="n">
-        <v>0</v>
+        <v>170.6702810763838</v>
       </c>
       <c r="U38" t="n">
-        <v>31.13252716541155</v>
+        <v>10.33136403017744</v>
       </c>
       <c r="V38" t="n">
-        <v>86.73796959247585</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W38" t="n">
-        <v>349.240968717413</v>
+        <v>108.226679839754</v>
       </c>
       <c r="X38" t="n">
-        <v>369.731100678469</v>
+        <v>128.71681180081</v>
       </c>
       <c r="Y38" t="n">
         <v>386.2379386560536</v>
@@ -25493,7 +25493,7 @@
         <v>89.39663285141508</v>
       </c>
       <c r="J39" t="n">
-        <v>0</v>
+        <v>0.7465913262578567</v>
       </c>
       <c r="K39" t="n">
         <v>0</v>
@@ -25520,22 +25520,22 @@
         <v>0</v>
       </c>
       <c r="S39" t="n">
-        <v>171.6831711038378</v>
+        <v>0</v>
       </c>
       <c r="T39" t="n">
-        <v>200.1647286948216</v>
+        <v>0</v>
       </c>
       <c r="U39" t="n">
-        <v>71.10541651401837</v>
+        <v>225.9413820809748</v>
       </c>
       <c r="V39" t="n">
         <v>0</v>
       </c>
       <c r="W39" t="n">
-        <v>10.68069428326055</v>
+        <v>21.17305198522826</v>
       </c>
       <c r="X39" t="n">
-        <v>0</v>
+        <v>205.7729852034775</v>
       </c>
       <c r="Y39" t="n">
         <v>205.6826957773044</v>
@@ -25569,7 +25569,7 @@
         <v>162.2271725074396</v>
       </c>
       <c r="I40" t="n">
-        <v>155.4504749272583</v>
+        <v>22.26350734189026</v>
       </c>
       <c r="J40" t="n">
         <v>93.35918011667277</v>
@@ -25593,7 +25593,7 @@
         <v>2.721440735106512</v>
       </c>
       <c r="Q40" t="n">
-        <v>0</v>
+        <v>86.16204325169439</v>
       </c>
       <c r="R40" t="n">
         <v>177.2933913771695</v>
@@ -25617,7 +25617,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y40" t="n">
-        <v>171.5597290184211</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="41">
@@ -25639,13 +25639,13 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F41" t="n">
-        <v>165.8617568640524</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G41" t="n">
         <v>174.288448637476</v>
       </c>
       <c r="H41" t="n">
-        <v>245.0643151220611</v>
+        <v>339.4748021157671</v>
       </c>
       <c r="I41" t="n">
         <v>210.4758895704059</v>
@@ -25678,16 +25678,16 @@
         <v>0</v>
       </c>
       <c r="S41" t="n">
-        <v>0</v>
+        <v>209.0200695862453</v>
       </c>
       <c r="T41" t="n">
-        <v>223.0958495641314</v>
+        <v>0</v>
       </c>
       <c r="U41" t="n">
-        <v>251.3456529078365</v>
+        <v>10.33136403017744</v>
       </c>
       <c r="V41" t="n">
-        <v>327.7522584701349</v>
+        <v>247.4175514543149</v>
       </c>
       <c r="W41" t="n">
         <v>349.240968717413</v>
@@ -25721,7 +25721,7 @@
         <v>145.0692123933839</v>
       </c>
       <c r="G42" t="n">
-        <v>0</v>
+        <v>137.3435171632106</v>
       </c>
       <c r="H42" t="n">
         <v>112.2354442364965</v>
@@ -25754,10 +25754,10 @@
         <v>0</v>
       </c>
       <c r="R42" t="n">
-        <v>0</v>
+        <v>100.1578341526431</v>
       </c>
       <c r="S42" t="n">
-        <v>171.6831711038378</v>
+        <v>0</v>
       </c>
       <c r="T42" t="n">
         <v>200.1647286948216</v>
@@ -25766,13 +25766,13 @@
         <v>0</v>
       </c>
       <c r="V42" t="n">
-        <v>1.929357147493789</v>
+        <v>0</v>
       </c>
       <c r="W42" t="n">
         <v>10.68069428326055</v>
       </c>
       <c r="X42" t="n">
-        <v>205.7729852034775</v>
+        <v>141.8841621389552</v>
       </c>
       <c r="Y42" t="n">
         <v>205.6826957773044</v>
@@ -25842,13 +25842,13 @@
         <v>227.9455894282815</v>
       </c>
       <c r="U43" t="n">
-        <v>153.1320617711229</v>
+        <v>286.3190293564909</v>
       </c>
       <c r="V43" t="n">
         <v>252.137643323828</v>
       </c>
       <c r="W43" t="n">
-        <v>286.522998336591</v>
+        <v>153.336030751223</v>
       </c>
       <c r="X43" t="n">
         <v>225.7096553890372</v>
@@ -25864,10 +25864,10 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>382.7338416634806</v>
+        <v>141.7195527858215</v>
       </c>
       <c r="C44" t="n">
-        <v>365.2728917710076</v>
+        <v>262.9346646783187</v>
       </c>
       <c r="D44" t="n">
         <v>354.683041620683</v>
@@ -25879,13 +25879,13 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G44" t="n">
-        <v>174.288448637476</v>
+        <v>415.302737515135</v>
       </c>
       <c r="H44" t="n">
         <v>339.4748021157671</v>
       </c>
       <c r="I44" t="n">
-        <v>0</v>
+        <v>210.4758895704059</v>
       </c>
       <c r="J44" t="n">
         <v>11.94928935461252</v>
@@ -25909,19 +25909,19 @@
         <v>0</v>
       </c>
       <c r="Q44" t="n">
-        <v>9.990699214544804</v>
+        <v>0</v>
       </c>
       <c r="R44" t="n">
         <v>0</v>
       </c>
       <c r="S44" t="n">
-        <v>209.0200695862453</v>
+        <v>0</v>
       </c>
       <c r="T44" t="n">
         <v>0</v>
       </c>
       <c r="U44" t="n">
-        <v>140.4725465847633</v>
+        <v>251.3456529078365</v>
       </c>
       <c r="V44" t="n">
         <v>327.7522584701349</v>
@@ -25952,13 +25952,13 @@
         <v>147.4450655646388</v>
       </c>
       <c r="E45" t="n">
-        <v>157.6450804554009</v>
+        <v>29.66246195356952</v>
       </c>
       <c r="F45" t="n">
-        <v>145.0692123933839</v>
+        <v>0</v>
       </c>
       <c r="G45" t="n">
-        <v>137.3435171632106</v>
+        <v>0</v>
       </c>
       <c r="H45" t="n">
         <v>0</v>
@@ -25991,19 +25991,19 @@
         <v>0</v>
       </c>
       <c r="R45" t="n">
-        <v>0</v>
+        <v>100.1578341526431</v>
       </c>
       <c r="S45" t="n">
-        <v>171.6831711038378</v>
+        <v>0</v>
       </c>
       <c r="T45" t="n">
-        <v>176.9860129156012</v>
+        <v>200.1647286948216</v>
       </c>
       <c r="U45" t="n">
-        <v>0</v>
+        <v>225.9413820809748</v>
       </c>
       <c r="V45" t="n">
-        <v>0</v>
+        <v>232.8005871494253</v>
       </c>
       <c r="W45" t="n">
         <v>10.68069428326055</v>
@@ -26034,7 +26034,7 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F46" t="n">
-        <v>145.4210480229312</v>
+        <v>12.23408043756322</v>
       </c>
       <c r="G46" t="n">
         <v>167.9909793584588</v>
@@ -26082,7 +26082,7 @@
         <v>286.3190293564909</v>
       </c>
       <c r="V46" t="n">
-        <v>118.95067573846</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W46" t="n">
         <v>286.522998336591</v>
@@ -26125,7 +26125,7 @@
         <v>0</v>
       </c>
       <c r="B2" t="n">
-        <v>498482.0175939976</v>
+        <v>358659.0160535966</v>
       </c>
     </row>
     <row r="3">
@@ -26133,7 +26133,7 @@
         <v>1</v>
       </c>
       <c r="B3" t="n">
-        <v>498482.0175939975</v>
+        <v>358659.0160535966</v>
       </c>
     </row>
     <row r="4">
@@ -26141,7 +26141,7 @@
         <v>2</v>
       </c>
       <c r="B4" t="n">
-        <v>498482.0175939974</v>
+        <v>358659.0160535966</v>
       </c>
     </row>
     <row r="5">
@@ -26149,7 +26149,7 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>498482.0175939976</v>
+        <v>358659.0160535966</v>
       </c>
     </row>
     <row r="6">
@@ -26157,7 +26157,7 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>498482.0175939975</v>
+        <v>358659.0160535966</v>
       </c>
     </row>
     <row r="7">
@@ -26173,7 +26173,7 @@
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>498482.0175939976</v>
+        <v>498482.0175939975</v>
       </c>
     </row>
     <row r="9">
@@ -26189,7 +26189,7 @@
         <v>8</v>
       </c>
       <c r="B10" t="n">
-        <v>498482.0175939975</v>
+        <v>498482.0175939976</v>
       </c>
     </row>
     <row r="11">
@@ -26197,7 +26197,7 @@
         <v>9</v>
       </c>
       <c r="B11" t="n">
-        <v>498482.0175939976</v>
+        <v>498482.0175939975</v>
       </c>
     </row>
     <row r="12">
@@ -26213,7 +26213,7 @@
         <v>11</v>
       </c>
       <c r="B13" t="n">
-        <v>498482.0175939975</v>
+        <v>498482.0175939973</v>
       </c>
     </row>
     <row r="14">
@@ -26313,37 +26313,37 @@
         </is>
       </c>
       <c r="B2" t="n">
+        <v>59776.50267559939</v>
+      </c>
+      <c r="C2" t="n">
+        <v>59776.50267559937</v>
+      </c>
+      <c r="D2" t="n">
+        <v>59776.50267559939</v>
+      </c>
+      <c r="E2" t="n">
+        <v>59776.50267559937</v>
+      </c>
+      <c r="F2" t="n">
+        <v>59776.50267559938</v>
+      </c>
+      <c r="G2" t="n">
+        <v>83080.33626566624</v>
+      </c>
+      <c r="H2" t="n">
         <v>83080.33626566621</v>
       </c>
-      <c r="C2" t="n">
-        <v>83080.33626566621</v>
-      </c>
-      <c r="D2" t="n">
-        <v>83080.33626566621</v>
-      </c>
-      <c r="E2" t="n">
+      <c r="I2" t="n">
         <v>83080.33626566615</v>
       </c>
-      <c r="F2" t="n">
+      <c r="J2" t="n">
         <v>83080.33626566618</v>
-      </c>
-      <c r="G2" t="n">
-        <v>83080.33626566618</v>
-      </c>
-      <c r="H2" t="n">
-        <v>83080.33626566618</v>
-      </c>
-      <c r="I2" t="n">
-        <v>83080.33626566618</v>
-      </c>
-      <c r="J2" t="n">
-        <v>83080.33626566615</v>
       </c>
       <c r="K2" t="n">
         <v>83080.33626566618</v>
       </c>
       <c r="L2" t="n">
-        <v>83080.33626566615</v>
+        <v>83080.33626566618</v>
       </c>
       <c r="M2" t="n">
         <v>83080.33626566618</v>
@@ -26352,10 +26352,10 @@
         <v>83080.33626566618</v>
       </c>
       <c r="O2" t="n">
-        <v>83080.33626566618</v>
+        <v>83080.33626566615</v>
       </c>
       <c r="P2" t="n">
-        <v>83080.33626566615</v>
+        <v>83080.33626566621</v>
       </c>
     </row>
     <row r="3">
@@ -26365,7 +26365,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>80769.43153154773</v>
+        <v>14789.70600424422</v>
       </c>
       <c r="C3" t="n">
         <v>0</v>
@@ -26380,7 +26380,7 @@
         <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>0</v>
+        <v>53962.43490047232</v>
       </c>
       <c r="H3" t="n">
         <v>0</v>
@@ -26389,7 +26389,7 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>63059.94259910623</v>
+        <v>11546.91810999089</v>
       </c>
       <c r="K3" t="n">
         <v>0</v>
@@ -26404,7 +26404,7 @@
         <v>0</v>
       </c>
       <c r="O3" t="n">
-        <v>0</v>
+        <v>47379.87821746379</v>
       </c>
       <c r="P3" t="n">
         <v>0</v>
@@ -26417,19 +26417,19 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>179.5324977039669</v>
+        <v>36.87052286425573</v>
       </c>
       <c r="C4" t="n">
-        <v>179.5324977039669</v>
+        <v>36.87052286425572</v>
       </c>
       <c r="D4" t="n">
-        <v>179.5324977039669</v>
+        <v>36.87052286425573</v>
       </c>
       <c r="E4" t="n">
-        <v>179.5324977039669</v>
+        <v>36.87052286425573</v>
       </c>
       <c r="F4" t="n">
-        <v>179.5324977039669</v>
+        <v>36.87052286425573</v>
       </c>
       <c r="G4" t="n">
         <v>179.5324977039669</v>
@@ -26469,19 +26469,19 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>48281.26876376167</v>
+        <v>36310.8360806571</v>
       </c>
       <c r="C5" t="n">
-        <v>48281.26876376167</v>
+        <v>36310.8360806571</v>
       </c>
       <c r="D5" t="n">
-        <v>48281.26876376167</v>
+        <v>36310.8360806571</v>
       </c>
       <c r="E5" t="n">
-        <v>14653.66876376167</v>
+        <v>2683.236080657098</v>
       </c>
       <c r="F5" t="n">
-        <v>14653.66876376167</v>
+        <v>2683.236080657098</v>
       </c>
       <c r="G5" t="n">
         <v>14653.66876376167</v>
@@ -26521,49 +26521,49 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-58367.90714738762</v>
+        <v>7184.250669929093</v>
       </c>
       <c r="C6" t="n">
-        <v>22401.5243841601</v>
+        <v>21973.9566741733</v>
       </c>
       <c r="D6" t="n">
-        <v>22401.5243841601</v>
+        <v>21973.95667417332</v>
       </c>
       <c r="E6" t="n">
-        <v>56029.12438416004</v>
+        <v>55601.5566741733</v>
       </c>
       <c r="F6" t="n">
-        <v>56029.12438416007</v>
+        <v>55601.55667417331</v>
       </c>
       <c r="G6" t="n">
-        <v>56029.12438416007</v>
+        <v>13062.89904172423</v>
       </c>
       <c r="H6" t="n">
-        <v>56029.12438416007</v>
+        <v>67025.33394219652</v>
       </c>
       <c r="I6" t="n">
-        <v>56029.12438416007</v>
+        <v>67025.33394219646</v>
       </c>
       <c r="J6" t="n">
-        <v>-7030.818214946185</v>
+        <v>55478.4158322056</v>
       </c>
       <c r="K6" t="n">
-        <v>56029.12438416007</v>
+        <v>67025.33394219649</v>
       </c>
       <c r="L6" t="n">
-        <v>56029.12438416004</v>
+        <v>67025.33394219649</v>
       </c>
       <c r="M6" t="n">
-        <v>56029.12438416007</v>
+        <v>67025.33394219649</v>
       </c>
       <c r="N6" t="n">
-        <v>56029.12438416007</v>
+        <v>67025.33394219649</v>
       </c>
       <c r="O6" t="n">
-        <v>56029.12438416007</v>
+        <v>19645.45572473268</v>
       </c>
       <c r="P6" t="n">
-        <v>56029.12438416004</v>
+        <v>67025.33394219652</v>
       </c>
     </row>
   </sheetData>
@@ -26789,19 +26789,19 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>241.0142888776591</v>
+        <v>44.13217237922859</v>
       </c>
       <c r="C4" t="n">
-        <v>241.0142888776591</v>
+        <v>44.13217237922859</v>
       </c>
       <c r="D4" t="n">
-        <v>241.0142888776591</v>
+        <v>44.13217237922859</v>
       </c>
       <c r="E4" t="n">
-        <v>241.0142888776591</v>
+        <v>44.13217237922859</v>
       </c>
       <c r="F4" t="n">
-        <v>241.0142888776591</v>
+        <v>44.13217237922859</v>
       </c>
       <c r="G4" t="n">
         <v>241.0142888776591</v>
@@ -27011,7 +27011,7 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>241.0142888776591</v>
+        <v>44.13217237922859</v>
       </c>
       <c r="C4" t="n">
         <v>0</v>
@@ -27026,7 +27026,7 @@
         <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>0</v>
+        <v>196.8821164984305</v>
       </c>
       <c r="H4" t="n">
         <v>0</v>
@@ -27035,7 +27035,7 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>241.0142888776591</v>
+        <v>44.13217237922859</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27050,7 +27050,7 @@
         <v>0</v>
       </c>
       <c r="O4" t="n">
-        <v>0</v>
+        <v>196.8821164984305</v>
       </c>
       <c r="P4" t="n">
         <v>0</v>
@@ -27257,7 +27257,7 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>241.0142888776591</v>
+        <v>44.13217237922859</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27272,7 +27272,7 @@
         <v>0</v>
       </c>
       <c r="O4" t="n">
-        <v>0</v>
+        <v>196.8821164984305</v>
       </c>
       <c r="P4" t="n">
         <v>0</v>
@@ -34701,22 +34701,22 @@
         <v>0</v>
       </c>
       <c r="K2" t="n">
-        <v>104.0555615261842</v>
+        <v>44.13217237922859</v>
       </c>
       <c r="L2" t="n">
-        <v>181.8947995804632</v>
+        <v>44.13217237922859</v>
       </c>
       <c r="M2" t="n">
-        <v>219.1673002655598</v>
+        <v>44.13217237922859</v>
       </c>
       <c r="N2" t="n">
-        <v>207.9338608153933</v>
+        <v>0</v>
       </c>
       <c r="O2" t="n">
-        <v>150.7019698410586</v>
+        <v>0</v>
       </c>
       <c r="P2" t="n">
-        <v>90.5657124162131</v>
+        <v>42.34905430330016</v>
       </c>
       <c r="Q2" t="n">
         <v>0</v>
@@ -34783,19 +34783,19 @@
         <v>0</v>
       </c>
       <c r="L3" t="n">
-        <v>46.78797658628819</v>
+        <v>42.34905430330018</v>
       </c>
       <c r="M3" t="n">
-        <v>241.0142888776591</v>
+        <v>44.13217237922859</v>
       </c>
       <c r="N3" t="n">
-        <v>241.0142888776591</v>
+        <v>44.13217237922859</v>
       </c>
       <c r="O3" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
       <c r="P3" t="n">
-        <v>184.4883612256069</v>
+        <v>44.13217237922859</v>
       </c>
       <c r="Q3" t="n">
         <v>0</v>
@@ -34938,22 +34938,22 @@
         <v>0</v>
       </c>
       <c r="K5" t="n">
-        <v>104.0555615261842</v>
+        <v>0</v>
       </c>
       <c r="L5" t="n">
-        <v>181.8947995804632</v>
+        <v>44.13217237922859</v>
       </c>
       <c r="M5" t="n">
-        <v>219.1673002655598</v>
+        <v>0</v>
       </c>
       <c r="N5" t="n">
-        <v>207.9338608153932</v>
+        <v>42.34905430330018</v>
       </c>
       <c r="O5" t="n">
-        <v>150.7019698410586</v>
+        <v>44.13217237922859</v>
       </c>
       <c r="P5" t="n">
-        <v>90.5657124162131</v>
+        <v>44.13217237922859</v>
       </c>
       <c r="Q5" t="n">
         <v>0</v>
@@ -35017,25 +35017,25 @@
         <v>0</v>
       </c>
       <c r="K6" t="n">
-        <v>126.6237980382196</v>
+        <v>0</v>
       </c>
       <c r="L6" t="n">
-        <v>0</v>
+        <v>42.34905430330018</v>
       </c>
       <c r="M6" t="n">
-        <v>241.0142888776591</v>
+        <v>44.13217237922859</v>
       </c>
       <c r="N6" t="n">
-        <v>91.0829537758999</v>
+        <v>44.13217237922859</v>
       </c>
       <c r="O6" t="n">
-        <v>241.0142888776591</v>
+        <v>44.13217237922859</v>
       </c>
       <c r="P6" t="n">
-        <v>184.4883612256069</v>
+        <v>0</v>
       </c>
       <c r="Q6" t="n">
-        <v>70.09551364982758</v>
+        <v>0</v>
       </c>
       <c r="R6" t="n">
         <v>0</v>
@@ -35175,22 +35175,22 @@
         <v>0</v>
       </c>
       <c r="K8" t="n">
-        <v>104.0555615261842</v>
+        <v>44.13217237922859</v>
       </c>
       <c r="L8" t="n">
-        <v>181.8947995804632</v>
+        <v>44.13217237922859</v>
       </c>
       <c r="M8" t="n">
-        <v>219.1673002655598</v>
+        <v>42.34905430330019</v>
       </c>
       <c r="N8" t="n">
-        <v>207.9338608153932</v>
+        <v>0</v>
       </c>
       <c r="O8" t="n">
-        <v>150.7019698410586</v>
+        <v>44.13217237922859</v>
       </c>
       <c r="P8" t="n">
-        <v>90.5657124162131</v>
+        <v>0</v>
       </c>
       <c r="Q8" t="n">
         <v>0</v>
@@ -35254,22 +35254,22 @@
         <v>0</v>
       </c>
       <c r="K9" t="n">
-        <v>0</v>
+        <v>44.13217237922859</v>
       </c>
       <c r="L9" t="n">
-        <v>232.285965523585</v>
+        <v>44.13217237922859</v>
       </c>
       <c r="M9" t="n">
-        <v>241.0142888776591</v>
+        <v>42.34905430330019</v>
       </c>
       <c r="N9" t="n">
-        <v>55.51629994036225</v>
+        <v>44.13217237922859</v>
       </c>
       <c r="O9" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
       <c r="P9" t="n">
-        <v>184.4883612256069</v>
+        <v>0</v>
       </c>
       <c r="Q9" t="n">
         <v>0</v>
@@ -35412,22 +35412,22 @@
         <v>0</v>
       </c>
       <c r="K11" t="n">
-        <v>104.0555615261842</v>
+        <v>44.13217237922859</v>
       </c>
       <c r="L11" t="n">
-        <v>181.8947995804632</v>
+        <v>44.13217237922859</v>
       </c>
       <c r="M11" t="n">
-        <v>219.1673002655598</v>
+        <v>0</v>
       </c>
       <c r="N11" t="n">
-        <v>207.9338608153932</v>
+        <v>0</v>
       </c>
       <c r="O11" t="n">
-        <v>150.7019698410586</v>
+        <v>42.34905430330019</v>
       </c>
       <c r="P11" t="n">
-        <v>90.5657124162131</v>
+        <v>44.13217237922859</v>
       </c>
       <c r="Q11" t="n">
         <v>0</v>
@@ -35491,19 +35491,19 @@
         <v>0</v>
       </c>
       <c r="K12" t="n">
-        <v>126.6237980382196</v>
+        <v>44.13217237922859</v>
       </c>
       <c r="L12" t="n">
-        <v>232.285965523585</v>
+        <v>44.13217237922859</v>
       </c>
       <c r="M12" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
       <c r="N12" t="n">
-        <v>241.0142888776591</v>
+        <v>42.34905430330019</v>
       </c>
       <c r="O12" t="n">
-        <v>113.3808631277494</v>
+        <v>44.13217237922859</v>
       </c>
       <c r="P12" t="n">
         <v>0</v>
@@ -35649,22 +35649,22 @@
         <v>0</v>
       </c>
       <c r="K14" t="n">
-        <v>104.0555615261842</v>
+        <v>44.13217237922859</v>
       </c>
       <c r="L14" t="n">
-        <v>181.8947995804632</v>
+        <v>0</v>
       </c>
       <c r="M14" t="n">
-        <v>219.1673002655598</v>
+        <v>42.34905430330018</v>
       </c>
       <c r="N14" t="n">
-        <v>207.9338608153932</v>
+        <v>44.13217237922859</v>
       </c>
       <c r="O14" t="n">
-        <v>150.7019698410586</v>
+        <v>44.13217237922859</v>
       </c>
       <c r="P14" t="n">
-        <v>90.5657124162131</v>
+        <v>0</v>
       </c>
       <c r="Q14" t="n">
         <v>0</v>
@@ -35728,22 +35728,22 @@
         <v>0</v>
       </c>
       <c r="K15" t="n">
-        <v>126.6237980382196</v>
+        <v>44.13217237922859</v>
       </c>
       <c r="L15" t="n">
-        <v>232.285965523585</v>
+        <v>42.34905430330018</v>
       </c>
       <c r="M15" t="n">
-        <v>169.9067907798017</v>
+        <v>0</v>
       </c>
       <c r="N15" t="n">
-        <v>0</v>
+        <v>44.13217237922859</v>
       </c>
       <c r="O15" t="n">
-        <v>241.0142888776591</v>
+        <v>44.13217237922859</v>
       </c>
       <c r="P15" t="n">
-        <v>184.4883612256069</v>
+        <v>0</v>
       </c>
       <c r="Q15" t="n">
         <v>0</v>
@@ -35895,7 +35895,7 @@
         <v>219.1673002655598</v>
       </c>
       <c r="N17" t="n">
-        <v>207.9338608153933</v>
+        <v>207.9338608153932</v>
       </c>
       <c r="O17" t="n">
         <v>150.7019698410586</v>
@@ -35965,22 +35965,22 @@
         <v>0</v>
       </c>
       <c r="K18" t="n">
-        <v>126.6237980382196</v>
+        <v>0</v>
       </c>
       <c r="L18" t="n">
         <v>232.285965523585</v>
       </c>
       <c r="M18" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="N18" t="n">
-        <v>169.9067907798017</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="O18" t="n">
-        <v>241.0142888776591</v>
+        <v>240.0046611659691</v>
       </c>
       <c r="P18" t="n">
-        <v>184.4883612256069</v>
+        <v>0</v>
       </c>
       <c r="Q18" t="n">
         <v>0</v>
@@ -36208,13 +36208,13 @@
         <v>232.285965523585</v>
       </c>
       <c r="M21" t="n">
-        <v>0</v>
+        <v>99.81127712997396</v>
       </c>
       <c r="N21" t="n">
-        <v>99.81127712997396</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="O21" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
       <c r="P21" t="n">
         <v>184.4883612256069</v>
@@ -36676,7 +36676,7 @@
         <v>0</v>
       </c>
       <c r="K27" t="n">
-        <v>126.6237980382196</v>
+        <v>0</v>
       </c>
       <c r="L27" t="n">
         <v>232.285965523585</v>
@@ -36685,7 +36685,7 @@
         <v>0</v>
       </c>
       <c r="N27" t="n">
-        <v>99.81127712997396</v>
+        <v>226.4350751681936</v>
       </c>
       <c r="O27" t="n">
         <v>241.0142888776591</v>
@@ -36916,13 +36916,13 @@
         <v>126.6237980382196</v>
       </c>
       <c r="L30" t="n">
-        <v>0</v>
+        <v>232.285965523585</v>
       </c>
       <c r="M30" t="n">
-        <v>91.0829537758999</v>
+        <v>0</v>
       </c>
       <c r="N30" t="n">
-        <v>241.0142888776591</v>
+        <v>99.81127712997396</v>
       </c>
       <c r="O30" t="n">
         <v>241.0142888776591</v>
@@ -37156,13 +37156,13 @@
         <v>232.285965523585</v>
       </c>
       <c r="M33" t="n">
-        <v>241.0142888776591</v>
+        <v>113.3808631277495</v>
       </c>
       <c r="N33" t="n">
         <v>241.0142888776591</v>
       </c>
       <c r="O33" t="n">
-        <v>113.3808631277494</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="P33" t="n">
         <v>0</v>
@@ -37393,16 +37393,16 @@
         <v>232.285965523585</v>
       </c>
       <c r="M36" t="n">
-        <v>169.9067907798017</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="N36" t="n">
-        <v>0</v>
+        <v>113.3808631277494</v>
       </c>
       <c r="O36" t="n">
         <v>241.0142888776591</v>
       </c>
       <c r="P36" t="n">
-        <v>184.4883612256069</v>
+        <v>0</v>
       </c>
       <c r="Q36" t="n">
         <v>0</v>
@@ -37633,16 +37633,16 @@
         <v>241.0142888776591</v>
       </c>
       <c r="N39" t="n">
-        <v>241.0142888776591</v>
+        <v>99.8112771299739</v>
       </c>
       <c r="O39" t="n">
-        <v>113.3808631277494</v>
+        <v>0</v>
       </c>
       <c r="P39" t="n">
-        <v>0</v>
+        <v>184.4883612256069</v>
       </c>
       <c r="Q39" t="n">
-        <v>0</v>
+        <v>70.09551364982758</v>
       </c>
       <c r="R39" t="n">
         <v>0</v>
@@ -37870,10 +37870,10 @@
         <v>241.0142888776591</v>
       </c>
       <c r="N42" t="n">
+        <v>241.0142888776591</v>
+      </c>
+      <c r="O42" t="n">
         <v>113.3808631277494</v>
-      </c>
-      <c r="O42" t="n">
-        <v>241.0142888776591</v>
       </c>
       <c r="P42" t="n">
         <v>0</v>
